--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Comercializadora del Agro de Limarí - Naranja.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Comercializadora del Agro de Limarí - Naranja.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T219"/>
+  <dimension ref="A1:T227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7367,7 +7367,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44237</v>
+        <v>44413</v>
       </c>
       <c r="E88" t="n">
         <v>4</v>
@@ -7395,7 +7395,7 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Cara cara</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
@@ -7407,13 +7407,13 @@
         <v>20</v>
       </c>
       <c r="N88" t="n">
-        <v>485000</v>
+        <v>110000</v>
       </c>
       <c r="O88" t="n">
-        <v>490000</v>
+        <v>115000</v>
       </c>
       <c r="P88" t="n">
-        <v>487500</v>
+        <v>112500</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         </is>
       </c>
       <c r="S88" t="n">
-        <v>1219</v>
+        <v>281</v>
       </c>
       <c r="T88" t="n">
         <v>400</v>
@@ -7447,7 +7447,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44237</v>
+        <v>44413</v>
       </c>
       <c r="E89" t="n">
         <v>4</v>
@@ -7475,7 +7475,7 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Cara cara</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
@@ -7487,13 +7487,13 @@
         <v>20</v>
       </c>
       <c r="N89" t="n">
-        <v>455000</v>
+        <v>80000</v>
       </c>
       <c r="O89" t="n">
-        <v>460000</v>
+        <v>85000</v>
       </c>
       <c r="P89" t="n">
-        <v>457500</v>
+        <v>82500</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         </is>
       </c>
       <c r="S89" t="n">
-        <v>1144</v>
+        <v>206</v>
       </c>
       <c r="T89" t="n">
         <v>400</v>
@@ -7527,7 +7527,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44273</v>
+        <v>44413</v>
       </c>
       <c r="E90" t="n">
         <v>4</v>
@@ -7555,25 +7555,25 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M90" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N90" t="n">
-        <v>475000</v>
+        <v>105000</v>
       </c>
       <c r="O90" t="n">
-        <v>480000</v>
+        <v>110000</v>
       </c>
       <c r="P90" t="n">
-        <v>477500</v>
+        <v>107500</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
@@ -7586,7 +7586,7 @@
         </is>
       </c>
       <c r="S90" t="n">
-        <v>1194</v>
+        <v>269</v>
       </c>
       <c r="T90" t="n">
         <v>400</v>
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44273</v>
+        <v>44413</v>
       </c>
       <c r="E91" t="n">
         <v>4</v>
@@ -7635,25 +7635,25 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M91" t="n">
         <v>20</v>
       </c>
       <c r="N91" t="n">
-        <v>455000</v>
+        <v>70000</v>
       </c>
       <c r="O91" t="n">
-        <v>460000</v>
+        <v>75000</v>
       </c>
       <c r="P91" t="n">
-        <v>457500</v>
+        <v>72500</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         </is>
       </c>
       <c r="S91" t="n">
-        <v>1144</v>
+        <v>181</v>
       </c>
       <c r="T91" t="n">
         <v>400</v>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44273</v>
+        <v>44413</v>
       </c>
       <c r="E92" t="n">
         <v>4</v>
@@ -7715,25 +7715,25 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M92" t="n">
         <v>20</v>
       </c>
       <c r="N92" t="n">
-        <v>415000</v>
+        <v>110000</v>
       </c>
       <c r="O92" t="n">
-        <v>420000</v>
+        <v>115000</v>
       </c>
       <c r="P92" t="n">
-        <v>417500</v>
+        <v>112500</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="S92" t="n">
-        <v>1044</v>
+        <v>281</v>
       </c>
       <c r="T92" t="n">
         <v>400</v>
@@ -7767,7 +7767,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44377</v>
+        <v>44413</v>
       </c>
       <c r="E93" t="n">
         <v>4</v>
@@ -7795,25 +7795,25 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M93" t="n">
         <v>20</v>
       </c>
       <c r="N93" t="n">
-        <v>115000</v>
+        <v>80000</v>
       </c>
       <c r="O93" t="n">
-        <v>120000</v>
+        <v>85000</v>
       </c>
       <c r="P93" t="n">
-        <v>117500</v>
+        <v>82500</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         </is>
       </c>
       <c r="S93" t="n">
-        <v>294</v>
+        <v>206</v>
       </c>
       <c r="T93" t="n">
         <v>400</v>
@@ -7847,7 +7847,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44377</v>
+        <v>44413</v>
       </c>
       <c r="E94" t="n">
         <v>4</v>
@@ -7875,25 +7875,25 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M94" t="n">
         <v>20</v>
       </c>
       <c r="N94" t="n">
-        <v>95000</v>
+        <v>110000</v>
       </c>
       <c r="O94" t="n">
-        <v>100000</v>
+        <v>120000</v>
       </c>
       <c r="P94" t="n">
-        <v>97500</v>
+        <v>115000</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         </is>
       </c>
       <c r="S94" t="n">
-        <v>244</v>
+        <v>288</v>
       </c>
       <c r="T94" t="n">
         <v>400</v>
@@ -7927,7 +7927,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44377</v>
+        <v>44413</v>
       </c>
       <c r="E95" t="n">
         <v>4</v>
@@ -7955,25 +7955,25 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M95" t="n">
         <v>20</v>
       </c>
       <c r="N95" t="n">
-        <v>115000</v>
+        <v>80000</v>
       </c>
       <c r="O95" t="n">
-        <v>120000</v>
+        <v>90000</v>
       </c>
       <c r="P95" t="n">
-        <v>117500</v>
+        <v>85000</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         </is>
       </c>
       <c r="S95" t="n">
-        <v>294</v>
+        <v>212</v>
       </c>
       <c r="T95" t="n">
         <v>400</v>
@@ -8007,7 +8007,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44377</v>
+        <v>44237</v>
       </c>
       <c r="E96" t="n">
         <v>4</v>
@@ -8035,25 +8035,25 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M96" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="N96" t="n">
-        <v>95000</v>
+        <v>485000</v>
       </c>
       <c r="O96" t="n">
-        <v>100000</v>
+        <v>490000</v>
       </c>
       <c r="P96" t="n">
-        <v>96786</v>
+        <v>487500</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         </is>
       </c>
       <c r="S96" t="n">
-        <v>242</v>
+        <v>1219</v>
       </c>
       <c r="T96" t="n">
         <v>400</v>
@@ -8087,7 +8087,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44377</v>
+        <v>44237</v>
       </c>
       <c r="E97" t="n">
         <v>4</v>
@@ -8115,25 +8115,25 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M97" t="n">
         <v>20</v>
       </c>
       <c r="N97" t="n">
-        <v>115000</v>
+        <v>455000</v>
       </c>
       <c r="O97" t="n">
-        <v>120000</v>
+        <v>460000</v>
       </c>
       <c r="P97" t="n">
-        <v>117500</v>
+        <v>457500</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="S97" t="n">
-        <v>294</v>
+        <v>1144</v>
       </c>
       <c r="T97" t="n">
         <v>400</v>
@@ -8167,7 +8167,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44377</v>
+        <v>44273</v>
       </c>
       <c r="E98" t="n">
         <v>4</v>
@@ -8195,25 +8195,25 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M98" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N98" t="n">
-        <v>95000</v>
+        <v>475000</v>
       </c>
       <c r="O98" t="n">
-        <v>100000</v>
+        <v>480000</v>
       </c>
       <c r="P98" t="n">
-        <v>97500</v>
+        <v>477500</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         </is>
       </c>
       <c r="S98" t="n">
-        <v>244</v>
+        <v>1194</v>
       </c>
       <c r="T98" t="n">
         <v>400</v>
@@ -8247,7 +8247,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44321</v>
+        <v>44273</v>
       </c>
       <c r="E99" t="n">
         <v>4</v>
@@ -8275,7 +8275,7 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
@@ -8287,13 +8287,13 @@
         <v>20</v>
       </c>
       <c r="N99" t="n">
-        <v>320000</v>
+        <v>455000</v>
       </c>
       <c r="O99" t="n">
-        <v>330000</v>
+        <v>460000</v>
       </c>
       <c r="P99" t="n">
-        <v>325000</v>
+        <v>457500</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
@@ -8306,7 +8306,7 @@
         </is>
       </c>
       <c r="S99" t="n">
-        <v>812</v>
+        <v>1144</v>
       </c>
       <c r="T99" t="n">
         <v>400</v>
@@ -8327,7 +8327,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44321</v>
+        <v>44273</v>
       </c>
       <c r="E100" t="n">
         <v>4</v>
@@ -8355,7 +8355,7 @@
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
@@ -8367,13 +8367,13 @@
         <v>20</v>
       </c>
       <c r="N100" t="n">
-        <v>280000</v>
+        <v>415000</v>
       </c>
       <c r="O100" t="n">
-        <v>290000</v>
+        <v>420000</v>
       </c>
       <c r="P100" t="n">
-        <v>285000</v>
+        <v>417500</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         </is>
       </c>
       <c r="S100" t="n">
-        <v>712</v>
+        <v>1044</v>
       </c>
       <c r="T100" t="n">
         <v>400</v>
@@ -8407,7 +8407,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44321</v>
+        <v>44377</v>
       </c>
       <c r="E101" t="n">
         <v>4</v>
@@ -8435,7 +8435,7 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
@@ -8444,16 +8444,16 @@
         </is>
       </c>
       <c r="M101" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N101" t="n">
-        <v>460000</v>
+        <v>115000</v>
       </c>
       <c r="O101" t="n">
-        <v>470000</v>
+        <v>120000</v>
       </c>
       <c r="P101" t="n">
-        <v>465000</v>
+        <v>117500</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         </is>
       </c>
       <c r="S101" t="n">
-        <v>1162</v>
+        <v>294</v>
       </c>
       <c r="T101" t="n">
         <v>400</v>
@@ -8487,7 +8487,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44412</v>
+        <v>44377</v>
       </c>
       <c r="E102" t="n">
         <v>4</v>
@@ -8515,25 +8515,25 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Cara cara</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M102" t="n">
         <v>20</v>
       </c>
       <c r="N102" t="n">
-        <v>115000</v>
+        <v>95000</v>
       </c>
       <c r="O102" t="n">
-        <v>120000</v>
+        <v>100000</v>
       </c>
       <c r="P102" t="n">
-        <v>117500</v>
+        <v>97500</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="S102" t="n">
-        <v>294</v>
+        <v>244</v>
       </c>
       <c r="T102" t="n">
         <v>400</v>
@@ -8567,7 +8567,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44412</v>
+        <v>44377</v>
       </c>
       <c r="E103" t="n">
         <v>4</v>
@@ -8595,25 +8595,25 @@
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Cara cara</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M103" t="n">
         <v>20</v>
       </c>
       <c r="N103" t="n">
-        <v>85000</v>
+        <v>115000</v>
       </c>
       <c r="O103" t="n">
-        <v>90000</v>
+        <v>120000</v>
       </c>
       <c r="P103" t="n">
-        <v>87500</v>
+        <v>117500</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         </is>
       </c>
       <c r="S103" t="n">
-        <v>219</v>
+        <v>294</v>
       </c>
       <c r="T103" t="n">
         <v>400</v>
@@ -8647,7 +8647,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44412</v>
+        <v>44377</v>
       </c>
       <c r="E104" t="n">
         <v>4</v>
@@ -8675,25 +8675,25 @@
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M104" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N104" t="n">
-        <v>105000</v>
+        <v>95000</v>
       </c>
       <c r="O104" t="n">
-        <v>110000</v>
+        <v>100000</v>
       </c>
       <c r="P104" t="n">
-        <v>107500</v>
+        <v>96786</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
@@ -8706,7 +8706,7 @@
         </is>
       </c>
       <c r="S104" t="n">
-        <v>269</v>
+        <v>242</v>
       </c>
       <c r="T104" t="n">
         <v>400</v>
@@ -8727,7 +8727,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44412</v>
+        <v>44377</v>
       </c>
       <c r="E105" t="n">
         <v>4</v>
@@ -8755,25 +8755,25 @@
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M105" t="n">
         <v>20</v>
       </c>
       <c r="N105" t="n">
-        <v>75000</v>
+        <v>115000</v>
       </c>
       <c r="O105" t="n">
-        <v>80000</v>
+        <v>120000</v>
       </c>
       <c r="P105" t="n">
-        <v>77500</v>
+        <v>117500</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         </is>
       </c>
       <c r="S105" t="n">
-        <v>194</v>
+        <v>294</v>
       </c>
       <c r="T105" t="n">
         <v>400</v>
@@ -8807,7 +8807,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44412</v>
+        <v>44377</v>
       </c>
       <c r="E106" t="n">
         <v>4</v>
@@ -8835,25 +8835,25 @@
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M106" t="n">
         <v>20</v>
       </c>
       <c r="N106" t="n">
-        <v>115000</v>
+        <v>95000</v>
       </c>
       <c r="O106" t="n">
-        <v>120000</v>
+        <v>100000</v>
       </c>
       <c r="P106" t="n">
-        <v>117500</v>
+        <v>97500</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
@@ -8866,7 +8866,7 @@
         </is>
       </c>
       <c r="S106" t="n">
-        <v>294</v>
+        <v>244</v>
       </c>
       <c r="T106" t="n">
         <v>400</v>
@@ -8887,7 +8887,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44412</v>
+        <v>44321</v>
       </c>
       <c r="E107" t="n">
         <v>4</v>
@@ -8915,25 +8915,25 @@
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M107" t="n">
         <v>20</v>
       </c>
       <c r="N107" t="n">
-        <v>85000</v>
+        <v>320000</v>
       </c>
       <c r="O107" t="n">
-        <v>90000</v>
+        <v>330000</v>
       </c>
       <c r="P107" t="n">
-        <v>87500</v>
+        <v>325000</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="S107" t="n">
-        <v>219</v>
+        <v>812</v>
       </c>
       <c r="T107" t="n">
         <v>400</v>
@@ -8967,7 +8967,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44412</v>
+        <v>44321</v>
       </c>
       <c r="E108" t="n">
         <v>4</v>
@@ -8995,25 +8995,25 @@
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M108" t="n">
         <v>20</v>
       </c>
       <c r="N108" t="n">
-        <v>115000</v>
+        <v>280000</v>
       </c>
       <c r="O108" t="n">
-        <v>120000</v>
+        <v>290000</v>
       </c>
       <c r="P108" t="n">
-        <v>117500</v>
+        <v>285000</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
@@ -9026,7 +9026,7 @@
         </is>
       </c>
       <c r="S108" t="n">
-        <v>294</v>
+        <v>712</v>
       </c>
       <c r="T108" t="n">
         <v>400</v>
@@ -9047,7 +9047,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44412</v>
+        <v>44321</v>
       </c>
       <c r="E109" t="n">
         <v>4</v>
@@ -9075,25 +9075,25 @@
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M109" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N109" t="n">
-        <v>85000</v>
+        <v>460000</v>
       </c>
       <c r="O109" t="n">
-        <v>90000</v>
+        <v>470000</v>
       </c>
       <c r="P109" t="n">
-        <v>87500</v>
+        <v>465000</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         </is>
       </c>
       <c r="S109" t="n">
-        <v>219</v>
+        <v>1162</v>
       </c>
       <c r="T109" t="n">
         <v>400</v>
@@ -9127,7 +9127,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E110" t="n">
         <v>4</v>
@@ -9155,7 +9155,7 @@
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Cara cara</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
@@ -9167,13 +9167,13 @@
         <v>20</v>
       </c>
       <c r="N110" t="n">
-        <v>250000</v>
+        <v>115000</v>
       </c>
       <c r="O110" t="n">
-        <v>255000</v>
+        <v>120000</v>
       </c>
       <c r="P110" t="n">
-        <v>252500</v>
+        <v>117500</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
@@ -9186,7 +9186,7 @@
         </is>
       </c>
       <c r="S110" t="n">
-        <v>631</v>
+        <v>294</v>
       </c>
       <c r="T110" t="n">
         <v>400</v>
@@ -9207,7 +9207,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E111" t="n">
         <v>4</v>
@@ -9235,25 +9235,25 @@
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Cara cara</t>
         </is>
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M111" t="n">
         <v>20</v>
       </c>
       <c r="N111" t="n">
-        <v>250000</v>
+        <v>85000</v>
       </c>
       <c r="O111" t="n">
-        <v>255000</v>
+        <v>90000</v>
       </c>
       <c r="P111" t="n">
-        <v>252500</v>
+        <v>87500</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
@@ -9266,7 +9266,7 @@
         </is>
       </c>
       <c r="S111" t="n">
-        <v>631</v>
+        <v>219</v>
       </c>
       <c r="T111" t="n">
         <v>400</v>
@@ -9287,7 +9287,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44300</v>
+        <v>44412</v>
       </c>
       <c r="E112" t="n">
         <v>4</v>
@@ -9315,25 +9315,25 @@
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M112" t="n">
         <v>20</v>
       </c>
       <c r="N112" t="n">
-        <v>495000</v>
+        <v>105000</v>
       </c>
       <c r="O112" t="n">
-        <v>500000</v>
+        <v>110000</v>
       </c>
       <c r="P112" t="n">
-        <v>497500</v>
+        <v>107500</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="S112" t="n">
-        <v>1244</v>
+        <v>269</v>
       </c>
       <c r="T112" t="n">
         <v>400</v>
@@ -9367,7 +9367,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44300</v>
+        <v>44412</v>
       </c>
       <c r="E113" t="n">
         <v>4</v>
@@ -9395,25 +9395,25 @@
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M113" t="n">
         <v>20</v>
       </c>
       <c r="N113" t="n">
-        <v>475000</v>
+        <v>75000</v>
       </c>
       <c r="O113" t="n">
-        <v>480000</v>
+        <v>80000</v>
       </c>
       <c r="P113" t="n">
-        <v>477500</v>
+        <v>77500</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         </is>
       </c>
       <c r="S113" t="n">
-        <v>1194</v>
+        <v>194</v>
       </c>
       <c r="T113" t="n">
         <v>400</v>
@@ -9447,7 +9447,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44371</v>
+        <v>44412</v>
       </c>
       <c r="E114" t="n">
         <v>4</v>
@@ -9475,7 +9475,7 @@
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
@@ -9487,13 +9487,13 @@
         <v>20</v>
       </c>
       <c r="N114" t="n">
-        <v>125000</v>
+        <v>115000</v>
       </c>
       <c r="O114" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="P114" t="n">
-        <v>127500</v>
+        <v>117500</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
@@ -9506,7 +9506,7 @@
         </is>
       </c>
       <c r="S114" t="n">
-        <v>319</v>
+        <v>294</v>
       </c>
       <c r="T114" t="n">
         <v>400</v>
@@ -9527,7 +9527,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44371</v>
+        <v>44412</v>
       </c>
       <c r="E115" t="n">
         <v>4</v>
@@ -9555,7 +9555,7 @@
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
@@ -9567,13 +9567,13 @@
         <v>20</v>
       </c>
       <c r="N115" t="n">
-        <v>105000</v>
+        <v>85000</v>
       </c>
       <c r="O115" t="n">
-        <v>110000</v>
+        <v>90000</v>
       </c>
       <c r="P115" t="n">
-        <v>107500</v>
+        <v>87500</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
@@ -9586,7 +9586,7 @@
         </is>
       </c>
       <c r="S115" t="n">
-        <v>269</v>
+        <v>219</v>
       </c>
       <c r="T115" t="n">
         <v>400</v>
@@ -9607,7 +9607,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44371</v>
+        <v>44412</v>
       </c>
       <c r="E116" t="n">
         <v>4</v>
@@ -9640,20 +9640,20 @@
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M116" t="n">
         <v>20</v>
       </c>
       <c r="N116" t="n">
-        <v>155000</v>
+        <v>115000</v>
       </c>
       <c r="O116" t="n">
-        <v>160000</v>
+        <v>120000</v>
       </c>
       <c r="P116" t="n">
-        <v>157500</v>
+        <v>117500</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         </is>
       </c>
       <c r="S116" t="n">
-        <v>394</v>
+        <v>294</v>
       </c>
       <c r="T116" t="n">
         <v>400</v>
@@ -9687,7 +9687,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44371</v>
+        <v>44412</v>
       </c>
       <c r="E117" t="n">
         <v>4</v>
@@ -9720,20 +9720,20 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M117" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N117" t="n">
-        <v>135000</v>
+        <v>85000</v>
       </c>
       <c r="O117" t="n">
-        <v>140000</v>
+        <v>90000</v>
       </c>
       <c r="P117" t="n">
-        <v>137500</v>
+        <v>87500</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="S117" t="n">
-        <v>344</v>
+        <v>219</v>
       </c>
       <c r="T117" t="n">
         <v>400</v>
@@ -9767,7 +9767,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44371</v>
+        <v>44336</v>
       </c>
       <c r="E118" t="n">
         <v>4</v>
@@ -9795,25 +9795,25 @@
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M118" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N118" t="n">
-        <v>115000</v>
+        <v>250000</v>
       </c>
       <c r="O118" t="n">
-        <v>120000</v>
+        <v>255000</v>
       </c>
       <c r="P118" t="n">
-        <v>117500</v>
+        <v>252500</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         </is>
       </c>
       <c r="S118" t="n">
-        <v>294</v>
+        <v>631</v>
       </c>
       <c r="T118" t="n">
         <v>400</v>
@@ -9847,7 +9847,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44371</v>
+        <v>44336</v>
       </c>
       <c r="E119" t="n">
         <v>4</v>
@@ -9887,13 +9887,13 @@
         <v>20</v>
       </c>
       <c r="N119" t="n">
-        <v>135000</v>
+        <v>250000</v>
       </c>
       <c r="O119" t="n">
-        <v>140000</v>
+        <v>255000</v>
       </c>
       <c r="P119" t="n">
-        <v>137500</v>
+        <v>252500</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
@@ -9906,7 +9906,7 @@
         </is>
       </c>
       <c r="S119" t="n">
-        <v>344</v>
+        <v>631</v>
       </c>
       <c r="T119" t="n">
         <v>400</v>
@@ -9927,7 +9927,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44371</v>
+        <v>44300</v>
       </c>
       <c r="E120" t="n">
         <v>4</v>
@@ -9955,25 +9955,25 @@
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M120" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N120" t="n">
-        <v>115000</v>
+        <v>495000</v>
       </c>
       <c r="O120" t="n">
-        <v>120000</v>
+        <v>500000</v>
       </c>
       <c r="P120" t="n">
-        <v>117500</v>
+        <v>497500</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         </is>
       </c>
       <c r="S120" t="n">
-        <v>294</v>
+        <v>1244</v>
       </c>
       <c r="T120" t="n">
         <v>400</v>
@@ -10007,7 +10007,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44238</v>
+        <v>44300</v>
       </c>
       <c r="E121" t="n">
         <v>4</v>
@@ -10047,13 +10047,13 @@
         <v>20</v>
       </c>
       <c r="N121" t="n">
-        <v>485000</v>
+        <v>475000</v>
       </c>
       <c r="O121" t="n">
-        <v>490000</v>
+        <v>480000</v>
       </c>
       <c r="P121" t="n">
-        <v>487500</v>
+        <v>477500</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
@@ -10066,7 +10066,7 @@
         </is>
       </c>
       <c r="S121" t="n">
-        <v>1219</v>
+        <v>1194</v>
       </c>
       <c r="T121" t="n">
         <v>400</v>
@@ -10087,7 +10087,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44238</v>
+        <v>44371</v>
       </c>
       <c r="E122" t="n">
         <v>4</v>
@@ -10115,25 +10115,25 @@
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M122" t="n">
         <v>20</v>
       </c>
       <c r="N122" t="n">
-        <v>455000</v>
+        <v>125000</v>
       </c>
       <c r="O122" t="n">
-        <v>460000</v>
+        <v>130000</v>
       </c>
       <c r="P122" t="n">
-        <v>457500</v>
+        <v>127500</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="S122" t="n">
-        <v>1144</v>
+        <v>319</v>
       </c>
       <c r="T122" t="n">
         <v>400</v>
@@ -10167,7 +10167,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44314</v>
+        <v>44371</v>
       </c>
       <c r="E123" t="n">
         <v>4</v>
@@ -10200,20 +10200,20 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M123" t="n">
         <v>20</v>
       </c>
       <c r="N123" t="n">
-        <v>355000</v>
+        <v>105000</v>
       </c>
       <c r="O123" t="n">
-        <v>360000</v>
+        <v>110000</v>
       </c>
       <c r="P123" t="n">
-        <v>357500</v>
+        <v>107500</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         </is>
       </c>
       <c r="S123" t="n">
-        <v>894</v>
+        <v>269</v>
       </c>
       <c r="T123" t="n">
         <v>400</v>
@@ -10247,7 +10247,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44314</v>
+        <v>44371</v>
       </c>
       <c r="E124" t="n">
         <v>4</v>
@@ -10275,25 +10275,25 @@
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M124" t="n">
         <v>20</v>
       </c>
       <c r="N124" t="n">
-        <v>325000</v>
+        <v>155000</v>
       </c>
       <c r="O124" t="n">
-        <v>330000</v>
+        <v>160000</v>
       </c>
       <c r="P124" t="n">
-        <v>327500</v>
+        <v>157500</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
@@ -10306,7 +10306,7 @@
         </is>
       </c>
       <c r="S124" t="n">
-        <v>819</v>
+        <v>394</v>
       </c>
       <c r="T124" t="n">
         <v>400</v>
@@ -10327,7 +10327,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44314</v>
+        <v>44371</v>
       </c>
       <c r="E125" t="n">
         <v>4</v>
@@ -10355,7 +10355,7 @@
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L125" t="inlineStr">
@@ -10364,16 +10364,16 @@
         </is>
       </c>
       <c r="M125" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N125" t="n">
-        <v>355000</v>
+        <v>135000</v>
       </c>
       <c r="O125" t="n">
-        <v>360000</v>
+        <v>140000</v>
       </c>
       <c r="P125" t="n">
-        <v>357500</v>
+        <v>137500</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         </is>
       </c>
       <c r="S125" t="n">
-        <v>894</v>
+        <v>344</v>
       </c>
       <c r="T125" t="n">
         <v>400</v>
@@ -10407,7 +10407,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44314</v>
+        <v>44371</v>
       </c>
       <c r="E126" t="n">
         <v>4</v>
@@ -10435,7 +10435,7 @@
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L126" t="inlineStr">
@@ -10444,16 +10444,16 @@
         </is>
       </c>
       <c r="M126" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N126" t="n">
-        <v>325000</v>
+        <v>115000</v>
       </c>
       <c r="O126" t="n">
-        <v>330000</v>
+        <v>120000</v>
       </c>
       <c r="P126" t="n">
-        <v>327500</v>
+        <v>117500</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
@@ -10466,7 +10466,7 @@
         </is>
       </c>
       <c r="S126" t="n">
-        <v>819</v>
+        <v>294</v>
       </c>
       <c r="T126" t="n">
         <v>400</v>
@@ -10487,7 +10487,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44314</v>
+        <v>44371</v>
       </c>
       <c r="E127" t="n">
         <v>4</v>
@@ -10515,7 +10515,7 @@
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L127" t="inlineStr">
@@ -10527,13 +10527,13 @@
         <v>20</v>
       </c>
       <c r="N127" t="n">
-        <v>470000</v>
+        <v>135000</v>
       </c>
       <c r="O127" t="n">
-        <v>480000</v>
+        <v>140000</v>
       </c>
       <c r="P127" t="n">
-        <v>475000</v>
+        <v>137500</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="S127" t="n">
-        <v>1188</v>
+        <v>344</v>
       </c>
       <c r="T127" t="n">
         <v>400</v>
@@ -10567,7 +10567,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44364</v>
+        <v>44371</v>
       </c>
       <c r="E128" t="n">
         <v>4</v>
@@ -10595,25 +10595,25 @@
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M128" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N128" t="n">
-        <v>135000</v>
+        <v>115000</v>
       </c>
       <c r="O128" t="n">
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="P128" t="n">
-        <v>137500</v>
+        <v>117500</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
@@ -10626,7 +10626,7 @@
         </is>
       </c>
       <c r="S128" t="n">
-        <v>344</v>
+        <v>294</v>
       </c>
       <c r="T128" t="n">
         <v>400</v>
@@ -10647,7 +10647,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44364</v>
+        <v>44238</v>
       </c>
       <c r="E129" t="n">
         <v>4</v>
@@ -10675,25 +10675,25 @@
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M129" t="n">
         <v>20</v>
       </c>
       <c r="N129" t="n">
-        <v>115000</v>
+        <v>485000</v>
       </c>
       <c r="O129" t="n">
-        <v>120000</v>
+        <v>490000</v>
       </c>
       <c r="P129" t="n">
-        <v>117500</v>
+        <v>487500</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
@@ -10706,7 +10706,7 @@
         </is>
       </c>
       <c r="S129" t="n">
-        <v>294</v>
+        <v>1219</v>
       </c>
       <c r="T129" t="n">
         <v>400</v>
@@ -10727,7 +10727,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44364</v>
+        <v>44238</v>
       </c>
       <c r="E130" t="n">
         <v>4</v>
@@ -10755,25 +10755,25 @@
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M130" t="n">
         <v>20</v>
       </c>
       <c r="N130" t="n">
-        <v>150000</v>
+        <v>455000</v>
       </c>
       <c r="O130" t="n">
-        <v>155000</v>
+        <v>460000</v>
       </c>
       <c r="P130" t="n">
-        <v>152500</v>
+        <v>457500</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         </is>
       </c>
       <c r="S130" t="n">
-        <v>381</v>
+        <v>1144</v>
       </c>
       <c r="T130" t="n">
         <v>400</v>
@@ -10807,7 +10807,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44364</v>
+        <v>44314</v>
       </c>
       <c r="E131" t="n">
         <v>4</v>
@@ -10835,25 +10835,25 @@
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M131" t="n">
         <v>20</v>
       </c>
       <c r="N131" t="n">
-        <v>130000</v>
+        <v>355000</v>
       </c>
       <c r="O131" t="n">
-        <v>135000</v>
+        <v>360000</v>
       </c>
       <c r="P131" t="n">
-        <v>132500</v>
+        <v>357500</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
@@ -10866,7 +10866,7 @@
         </is>
       </c>
       <c r="S131" t="n">
-        <v>331</v>
+        <v>894</v>
       </c>
       <c r="T131" t="n">
         <v>400</v>
@@ -10887,7 +10887,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44364</v>
+        <v>44314</v>
       </c>
       <c r="E132" t="n">
         <v>4</v>
@@ -10915,25 +10915,25 @@
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M132" t="n">
         <v>20</v>
       </c>
       <c r="N132" t="n">
-        <v>150000</v>
+        <v>325000</v>
       </c>
       <c r="O132" t="n">
-        <v>155000</v>
+        <v>330000</v>
       </c>
       <c r="P132" t="n">
-        <v>152500</v>
+        <v>327500</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="S132" t="n">
-        <v>381</v>
+        <v>819</v>
       </c>
       <c r="T132" t="n">
         <v>400</v>
@@ -10967,7 +10967,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44364</v>
+        <v>44314</v>
       </c>
       <c r="E133" t="n">
         <v>4</v>
@@ -11000,20 +11000,20 @@
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M133" t="n">
         <v>20</v>
       </c>
       <c r="N133" t="n">
-        <v>130000</v>
+        <v>355000</v>
       </c>
       <c r="O133" t="n">
-        <v>135000</v>
+        <v>360000</v>
       </c>
       <c r="P133" t="n">
-        <v>132500</v>
+        <v>357500</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
@@ -11026,7 +11026,7 @@
         </is>
       </c>
       <c r="S133" t="n">
-        <v>331</v>
+        <v>894</v>
       </c>
       <c r="T133" t="n">
         <v>400</v>
@@ -11047,7 +11047,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44405</v>
+        <v>44314</v>
       </c>
       <c r="E134" t="n">
         <v>4</v>
@@ -11075,25 +11075,25 @@
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>Cara cara</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M134" t="n">
         <v>20</v>
       </c>
       <c r="N134" t="n">
-        <v>115000</v>
+        <v>325000</v>
       </c>
       <c r="O134" t="n">
-        <v>120000</v>
+        <v>330000</v>
       </c>
       <c r="P134" t="n">
-        <v>117500</v>
+        <v>327500</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
@@ -11106,7 +11106,7 @@
         </is>
       </c>
       <c r="S134" t="n">
-        <v>294</v>
+        <v>819</v>
       </c>
       <c r="T134" t="n">
         <v>400</v>
@@ -11127,7 +11127,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44405</v>
+        <v>44314</v>
       </c>
       <c r="E135" t="n">
         <v>4</v>
@@ -11155,25 +11155,25 @@
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>Cara cara</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M135" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N135" t="n">
-        <v>95000</v>
+        <v>470000</v>
       </c>
       <c r="O135" t="n">
-        <v>100000</v>
+        <v>480000</v>
       </c>
       <c r="P135" t="n">
-        <v>97500</v>
+        <v>475000</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
@@ -11186,7 +11186,7 @@
         </is>
       </c>
       <c r="S135" t="n">
-        <v>244</v>
+        <v>1188</v>
       </c>
       <c r="T135" t="n">
         <v>400</v>
@@ -11207,7 +11207,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44405</v>
+        <v>44364</v>
       </c>
       <c r="E136" t="n">
         <v>4</v>
@@ -11247,13 +11247,13 @@
         <v>20</v>
       </c>
       <c r="N136" t="n">
-        <v>100000</v>
+        <v>135000</v>
       </c>
       <c r="O136" t="n">
-        <v>110000</v>
+        <v>140000</v>
       </c>
       <c r="P136" t="n">
-        <v>105000</v>
+        <v>137500</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         </is>
       </c>
       <c r="S136" t="n">
-        <v>262</v>
+        <v>344</v>
       </c>
       <c r="T136" t="n">
         <v>400</v>
@@ -11287,7 +11287,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44405</v>
+        <v>44364</v>
       </c>
       <c r="E137" t="n">
         <v>4</v>
@@ -11327,13 +11327,13 @@
         <v>20</v>
       </c>
       <c r="N137" t="n">
-        <v>80000</v>
+        <v>115000</v>
       </c>
       <c r="O137" t="n">
-        <v>90000</v>
+        <v>120000</v>
       </c>
       <c r="P137" t="n">
-        <v>85000</v>
+        <v>117500</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="S137" t="n">
-        <v>212</v>
+        <v>294</v>
       </c>
       <c r="T137" t="n">
         <v>400</v>
@@ -11367,7 +11367,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44405</v>
+        <v>44364</v>
       </c>
       <c r="E138" t="n">
         <v>4</v>
@@ -11407,13 +11407,13 @@
         <v>20</v>
       </c>
       <c r="N138" t="n">
-        <v>100000</v>
+        <v>150000</v>
       </c>
       <c r="O138" t="n">
-        <v>110000</v>
+        <v>155000</v>
       </c>
       <c r="P138" t="n">
-        <v>105000</v>
+        <v>152500</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
@@ -11426,7 +11426,7 @@
         </is>
       </c>
       <c r="S138" t="n">
-        <v>262</v>
+        <v>381</v>
       </c>
       <c r="T138" t="n">
         <v>400</v>
@@ -11447,7 +11447,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44405</v>
+        <v>44364</v>
       </c>
       <c r="E139" t="n">
         <v>4</v>
@@ -11487,13 +11487,13 @@
         <v>20</v>
       </c>
       <c r="N139" t="n">
-        <v>80000</v>
+        <v>130000</v>
       </c>
       <c r="O139" t="n">
-        <v>90000</v>
+        <v>135000</v>
       </c>
       <c r="P139" t="n">
-        <v>85000</v>
+        <v>132500</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
@@ -11506,7 +11506,7 @@
         </is>
       </c>
       <c r="S139" t="n">
-        <v>212</v>
+        <v>331</v>
       </c>
       <c r="T139" t="n">
         <v>400</v>
@@ -11527,7 +11527,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44224</v>
+        <v>44364</v>
       </c>
       <c r="E140" t="n">
         <v>4</v>
@@ -11555,25 +11555,25 @@
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M140" t="n">
         <v>20</v>
       </c>
       <c r="N140" t="n">
-        <v>515000</v>
+        <v>150000</v>
       </c>
       <c r="O140" t="n">
-        <v>520000</v>
+        <v>155000</v>
       </c>
       <c r="P140" t="n">
-        <v>517500</v>
+        <v>152500</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
@@ -11586,7 +11586,7 @@
         </is>
       </c>
       <c r="S140" t="n">
-        <v>1294</v>
+        <v>381</v>
       </c>
       <c r="T140" t="n">
         <v>400</v>
@@ -11607,7 +11607,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44224</v>
+        <v>44364</v>
       </c>
       <c r="E141" t="n">
         <v>4</v>
@@ -11635,25 +11635,25 @@
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M141" t="n">
         <v>20</v>
       </c>
       <c r="N141" t="n">
-        <v>495000</v>
+        <v>130000</v>
       </c>
       <c r="O141" t="n">
-        <v>500000</v>
+        <v>135000</v>
       </c>
       <c r="P141" t="n">
-        <v>497500</v>
+        <v>132500</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         </is>
       </c>
       <c r="S141" t="n">
-        <v>1244</v>
+        <v>331</v>
       </c>
       <c r="T141" t="n">
         <v>400</v>
@@ -11687,7 +11687,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44209</v>
+        <v>44405</v>
       </c>
       <c r="E142" t="n">
         <v>4</v>
@@ -11715,25 +11715,25 @@
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Cara cara</t>
         </is>
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M142" t="n">
         <v>20</v>
       </c>
       <c r="N142" t="n">
-        <v>465000</v>
+        <v>115000</v>
       </c>
       <c r="O142" t="n">
-        <v>470000</v>
+        <v>120000</v>
       </c>
       <c r="P142" t="n">
-        <v>467500</v>
+        <v>117500</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="S142" t="n">
-        <v>1169</v>
+        <v>294</v>
       </c>
       <c r="T142" t="n">
         <v>400</v>
@@ -11767,7 +11767,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44209</v>
+        <v>44405</v>
       </c>
       <c r="E143" t="n">
         <v>4</v>
@@ -11795,25 +11795,25 @@
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Cara cara</t>
         </is>
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M143" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N143" t="n">
-        <v>415000</v>
+        <v>95000</v>
       </c>
       <c r="O143" t="n">
-        <v>420000</v>
+        <v>100000</v>
       </c>
       <c r="P143" t="n">
-        <v>417500</v>
+        <v>97500</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
@@ -11826,7 +11826,7 @@
         </is>
       </c>
       <c r="S143" t="n">
-        <v>1044</v>
+        <v>244</v>
       </c>
       <c r="T143" t="n">
         <v>400</v>
@@ -11847,7 +11847,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44209</v>
+        <v>44405</v>
       </c>
       <c r="E144" t="n">
         <v>4</v>
@@ -11875,25 +11875,25 @@
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M144" t="n">
         <v>20</v>
       </c>
       <c r="N144" t="n">
-        <v>365000</v>
+        <v>100000</v>
       </c>
       <c r="O144" t="n">
-        <v>370000</v>
+        <v>110000</v>
       </c>
       <c r="P144" t="n">
-        <v>367500</v>
+        <v>105000</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
@@ -11906,7 +11906,7 @@
         </is>
       </c>
       <c r="S144" t="n">
-        <v>919</v>
+        <v>262</v>
       </c>
       <c r="T144" t="n">
         <v>400</v>
@@ -11927,7 +11927,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44231</v>
+        <v>44405</v>
       </c>
       <c r="E145" t="n">
         <v>4</v>
@@ -11955,25 +11955,25 @@
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M145" t="n">
         <v>20</v>
       </c>
       <c r="N145" t="n">
-        <v>485000</v>
+        <v>80000</v>
       </c>
       <c r="O145" t="n">
-        <v>490000</v>
+        <v>90000</v>
       </c>
       <c r="P145" t="n">
-        <v>487500</v>
+        <v>85000</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         </is>
       </c>
       <c r="S145" t="n">
-        <v>1219</v>
+        <v>212</v>
       </c>
       <c r="T145" t="n">
         <v>400</v>
@@ -12007,7 +12007,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44231</v>
+        <v>44405</v>
       </c>
       <c r="E146" t="n">
         <v>4</v>
@@ -12035,25 +12035,25 @@
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M146" t="n">
         <v>20</v>
       </c>
       <c r="N146" t="n">
-        <v>455000</v>
+        <v>100000</v>
       </c>
       <c r="O146" t="n">
-        <v>460000</v>
+        <v>110000</v>
       </c>
       <c r="P146" t="n">
-        <v>457500</v>
+        <v>105000</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         </is>
       </c>
       <c r="S146" t="n">
-        <v>1144</v>
+        <v>262</v>
       </c>
       <c r="T146" t="n">
         <v>400</v>
@@ -12087,7 +12087,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44391</v>
+        <v>44405</v>
       </c>
       <c r="E147" t="n">
         <v>4</v>
@@ -12115,25 +12115,25 @@
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M147" t="n">
         <v>20</v>
       </c>
       <c r="N147" t="n">
-        <v>100000</v>
+        <v>80000</v>
       </c>
       <c r="O147" t="n">
-        <v>110000</v>
+        <v>90000</v>
       </c>
       <c r="P147" t="n">
-        <v>105000</v>
+        <v>85000</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="S147" t="n">
-        <v>262</v>
+        <v>212</v>
       </c>
       <c r="T147" t="n">
         <v>400</v>
@@ -12167,7 +12167,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44391</v>
+        <v>44224</v>
       </c>
       <c r="E148" t="n">
         <v>4</v>
@@ -12195,25 +12195,25 @@
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M148" t="n">
         <v>20</v>
       </c>
       <c r="N148" t="n">
-        <v>80000</v>
+        <v>515000</v>
       </c>
       <c r="O148" t="n">
-        <v>90000</v>
+        <v>520000</v>
       </c>
       <c r="P148" t="n">
-        <v>85000</v>
+        <v>517500</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
@@ -12226,7 +12226,7 @@
         </is>
       </c>
       <c r="S148" t="n">
-        <v>212</v>
+        <v>1294</v>
       </c>
       <c r="T148" t="n">
         <v>400</v>
@@ -12247,7 +12247,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44391</v>
+        <v>44224</v>
       </c>
       <c r="E149" t="n">
         <v>4</v>
@@ -12275,7 +12275,7 @@
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L149" t="inlineStr">
@@ -12287,13 +12287,13 @@
         <v>20</v>
       </c>
       <c r="N149" t="n">
-        <v>100000</v>
+        <v>495000</v>
       </c>
       <c r="O149" t="n">
-        <v>110000</v>
+        <v>500000</v>
       </c>
       <c r="P149" t="n">
-        <v>105000</v>
+        <v>497500</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
@@ -12306,7 +12306,7 @@
         </is>
       </c>
       <c r="S149" t="n">
-        <v>262</v>
+        <v>1244</v>
       </c>
       <c r="T149" t="n">
         <v>400</v>
@@ -12327,7 +12327,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44391</v>
+        <v>44209</v>
       </c>
       <c r="E150" t="n">
         <v>4</v>
@@ -12355,25 +12355,25 @@
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M150" t="n">
         <v>20</v>
       </c>
       <c r="N150" t="n">
-        <v>80000</v>
+        <v>465000</v>
       </c>
       <c r="O150" t="n">
-        <v>90000</v>
+        <v>470000</v>
       </c>
       <c r="P150" t="n">
-        <v>85000</v>
+        <v>467500</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
@@ -12386,7 +12386,7 @@
         </is>
       </c>
       <c r="S150" t="n">
-        <v>212</v>
+        <v>1169</v>
       </c>
       <c r="T150" t="n">
         <v>400</v>
@@ -12407,7 +12407,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44350</v>
+        <v>44209</v>
       </c>
       <c r="E151" t="n">
         <v>4</v>
@@ -12435,7 +12435,7 @@
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L151" t="inlineStr">
@@ -12447,13 +12447,13 @@
         <v>20</v>
       </c>
       <c r="N151" t="n">
-        <v>200000</v>
+        <v>415000</v>
       </c>
       <c r="O151" t="n">
-        <v>210000</v>
+        <v>420000</v>
       </c>
       <c r="P151" t="n">
-        <v>205000</v>
+        <v>417500</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         </is>
       </c>
       <c r="S151" t="n">
-        <v>512</v>
+        <v>1044</v>
       </c>
       <c r="T151" t="n">
         <v>400</v>
@@ -12487,7 +12487,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44350</v>
+        <v>44209</v>
       </c>
       <c r="E152" t="n">
         <v>4</v>
@@ -12515,7 +12515,7 @@
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L152" t="inlineStr">
@@ -12527,13 +12527,13 @@
         <v>20</v>
       </c>
       <c r="N152" t="n">
-        <v>170000</v>
+        <v>365000</v>
       </c>
       <c r="O152" t="n">
-        <v>180000</v>
+        <v>370000</v>
       </c>
       <c r="P152" t="n">
-        <v>175000</v>
+        <v>367500</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="S152" t="n">
-        <v>438</v>
+        <v>919</v>
       </c>
       <c r="T152" t="n">
         <v>400</v>
@@ -12567,7 +12567,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44350</v>
+        <v>44231</v>
       </c>
       <c r="E153" t="n">
         <v>4</v>
@@ -12595,7 +12595,7 @@
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L153" t="inlineStr">
@@ -12607,13 +12607,13 @@
         <v>20</v>
       </c>
       <c r="N153" t="n">
-        <v>200000</v>
+        <v>485000</v>
       </c>
       <c r="O153" t="n">
-        <v>210000</v>
+        <v>490000</v>
       </c>
       <c r="P153" t="n">
-        <v>205000</v>
+        <v>487500</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
@@ -12626,7 +12626,7 @@
         </is>
       </c>
       <c r="S153" t="n">
-        <v>512</v>
+        <v>1219</v>
       </c>
       <c r="T153" t="n">
         <v>400</v>
@@ -12647,7 +12647,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44350</v>
+        <v>44231</v>
       </c>
       <c r="E154" t="n">
         <v>4</v>
@@ -12675,7 +12675,7 @@
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L154" t="inlineStr">
@@ -12687,13 +12687,13 @@
         <v>20</v>
       </c>
       <c r="N154" t="n">
-        <v>170000</v>
+        <v>455000</v>
       </c>
       <c r="O154" t="n">
-        <v>180000</v>
+        <v>460000</v>
       </c>
       <c r="P154" t="n">
-        <v>175000</v>
+        <v>457500</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
@@ -12706,7 +12706,7 @@
         </is>
       </c>
       <c r="S154" t="n">
-        <v>438</v>
+        <v>1144</v>
       </c>
       <c r="T154" t="n">
         <v>400</v>
@@ -12727,7 +12727,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44315</v>
+        <v>44391</v>
       </c>
       <c r="E155" t="n">
         <v>4</v>
@@ -12767,13 +12767,13 @@
         <v>20</v>
       </c>
       <c r="N155" t="n">
-        <v>355000</v>
+        <v>100000</v>
       </c>
       <c r="O155" t="n">
-        <v>360000</v>
+        <v>110000</v>
       </c>
       <c r="P155" t="n">
-        <v>357500</v>
+        <v>105000</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         </is>
       </c>
       <c r="S155" t="n">
-        <v>894</v>
+        <v>262</v>
       </c>
       <c r="T155" t="n">
         <v>400</v>
@@ -12807,7 +12807,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44315</v>
+        <v>44391</v>
       </c>
       <c r="E156" t="n">
         <v>4</v>
@@ -12847,13 +12847,13 @@
         <v>20</v>
       </c>
       <c r="N156" t="n">
-        <v>325000</v>
+        <v>80000</v>
       </c>
       <c r="O156" t="n">
-        <v>330000</v>
+        <v>90000</v>
       </c>
       <c r="P156" t="n">
-        <v>327500</v>
+        <v>85000</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
@@ -12866,7 +12866,7 @@
         </is>
       </c>
       <c r="S156" t="n">
-        <v>819</v>
+        <v>212</v>
       </c>
       <c r="T156" t="n">
         <v>400</v>
@@ -12887,7 +12887,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44315</v>
+        <v>44391</v>
       </c>
       <c r="E157" t="n">
         <v>4</v>
@@ -12915,7 +12915,7 @@
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L157" t="inlineStr">
@@ -12927,13 +12927,13 @@
         <v>20</v>
       </c>
       <c r="N157" t="n">
-        <v>355000</v>
+        <v>100000</v>
       </c>
       <c r="O157" t="n">
-        <v>360000</v>
+        <v>110000</v>
       </c>
       <c r="P157" t="n">
-        <v>357500</v>
+        <v>105000</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="S157" t="n">
-        <v>894</v>
+        <v>262</v>
       </c>
       <c r="T157" t="n">
         <v>400</v>
@@ -12967,7 +12967,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44315</v>
+        <v>44391</v>
       </c>
       <c r="E158" t="n">
         <v>4</v>
@@ -12995,7 +12995,7 @@
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L158" t="inlineStr">
@@ -13007,13 +13007,13 @@
         <v>20</v>
       </c>
       <c r="N158" t="n">
-        <v>325000</v>
+        <v>80000</v>
       </c>
       <c r="O158" t="n">
-        <v>330000</v>
+        <v>90000</v>
       </c>
       <c r="P158" t="n">
-        <v>327500</v>
+        <v>85000</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         </is>
       </c>
       <c r="S158" t="n">
-        <v>819</v>
+        <v>212</v>
       </c>
       <c r="T158" t="n">
         <v>400</v>
@@ -13047,7 +13047,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44315</v>
+        <v>44350</v>
       </c>
       <c r="E159" t="n">
         <v>4</v>
@@ -13075,7 +13075,7 @@
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L159" t="inlineStr">
@@ -13087,13 +13087,13 @@
         <v>20</v>
       </c>
       <c r="N159" t="n">
-        <v>470000</v>
+        <v>200000</v>
       </c>
       <c r="O159" t="n">
-        <v>480000</v>
+        <v>210000</v>
       </c>
       <c r="P159" t="n">
-        <v>475000</v>
+        <v>205000</v>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         </is>
       </c>
       <c r="S159" t="n">
-        <v>1188</v>
+        <v>512</v>
       </c>
       <c r="T159" t="n">
         <v>400</v>
@@ -13127,7 +13127,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44399</v>
+        <v>44350</v>
       </c>
       <c r="E160" t="n">
         <v>4</v>
@@ -13155,25 +13155,25 @@
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>Cara cara</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M160" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N160" t="n">
-        <v>120000</v>
+        <v>170000</v>
       </c>
       <c r="O160" t="n">
-        <v>130000</v>
+        <v>180000</v>
       </c>
       <c r="P160" t="n">
-        <v>125000</v>
+        <v>175000</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         </is>
       </c>
       <c r="S160" t="n">
-        <v>312</v>
+        <v>438</v>
       </c>
       <c r="T160" t="n">
         <v>400</v>
@@ -13207,7 +13207,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44399</v>
+        <v>44350</v>
       </c>
       <c r="E161" t="n">
         <v>4</v>
@@ -13235,7 +13235,7 @@
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L161" t="inlineStr">
@@ -13247,13 +13247,13 @@
         <v>20</v>
       </c>
       <c r="N161" t="n">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="O161" t="n">
-        <v>110000</v>
+        <v>210000</v>
       </c>
       <c r="P161" t="n">
-        <v>105000</v>
+        <v>205000</v>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
@@ -13266,7 +13266,7 @@
         </is>
       </c>
       <c r="S161" t="n">
-        <v>262</v>
+        <v>512</v>
       </c>
       <c r="T161" t="n">
         <v>400</v>
@@ -13287,7 +13287,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44399</v>
+        <v>44350</v>
       </c>
       <c r="E162" t="n">
         <v>4</v>
@@ -13315,7 +13315,7 @@
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L162" t="inlineStr">
@@ -13327,13 +13327,13 @@
         <v>20</v>
       </c>
       <c r="N162" t="n">
-        <v>80000</v>
+        <v>170000</v>
       </c>
       <c r="O162" t="n">
-        <v>90000</v>
+        <v>180000</v>
       </c>
       <c r="P162" t="n">
-        <v>85000</v>
+        <v>175000</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="S162" t="n">
-        <v>212</v>
+        <v>438</v>
       </c>
       <c r="T162" t="n">
         <v>400</v>
@@ -13367,7 +13367,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44399</v>
+        <v>44315</v>
       </c>
       <c r="E163" t="n">
         <v>4</v>
@@ -13395,7 +13395,7 @@
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L163" t="inlineStr">
@@ -13407,13 +13407,13 @@
         <v>20</v>
       </c>
       <c r="N163" t="n">
-        <v>100000</v>
+        <v>355000</v>
       </c>
       <c r="O163" t="n">
-        <v>110000</v>
+        <v>360000</v>
       </c>
       <c r="P163" t="n">
-        <v>105000</v>
+        <v>357500</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
@@ -13426,7 +13426,7 @@
         </is>
       </c>
       <c r="S163" t="n">
-        <v>262</v>
+        <v>894</v>
       </c>
       <c r="T163" t="n">
         <v>400</v>
@@ -13447,7 +13447,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44399</v>
+        <v>44315</v>
       </c>
       <c r="E164" t="n">
         <v>4</v>
@@ -13475,25 +13475,25 @@
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M164" t="n">
         <v>20</v>
       </c>
       <c r="N164" t="n">
-        <v>100000</v>
+        <v>325000</v>
       </c>
       <c r="O164" t="n">
-        <v>110000</v>
+        <v>330000</v>
       </c>
       <c r="P164" t="n">
-        <v>105000</v>
+        <v>327500</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         </is>
       </c>
       <c r="S164" t="n">
-        <v>262</v>
+        <v>819</v>
       </c>
       <c r="T164" t="n">
         <v>400</v>
@@ -13527,7 +13527,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44399</v>
+        <v>44315</v>
       </c>
       <c r="E165" t="n">
         <v>4</v>
@@ -13555,25 +13555,25 @@
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M165" t="n">
         <v>20</v>
       </c>
       <c r="N165" t="n">
-        <v>80000</v>
+        <v>355000</v>
       </c>
       <c r="O165" t="n">
-        <v>90000</v>
+        <v>360000</v>
       </c>
       <c r="P165" t="n">
-        <v>85000</v>
+        <v>357500</v>
       </c>
       <c r="Q165" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         </is>
       </c>
       <c r="S165" t="n">
-        <v>212</v>
+        <v>894</v>
       </c>
       <c r="T165" t="n">
         <v>400</v>
@@ -13607,7 +13607,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44251</v>
+        <v>44315</v>
       </c>
       <c r="E166" t="n">
         <v>4</v>
@@ -13635,25 +13635,25 @@
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M166" t="n">
         <v>20</v>
       </c>
       <c r="N166" t="n">
-        <v>455000</v>
+        <v>325000</v>
       </c>
       <c r="O166" t="n">
-        <v>460000</v>
+        <v>330000</v>
       </c>
       <c r="P166" t="n">
-        <v>457500</v>
+        <v>327500</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         </is>
       </c>
       <c r="S166" t="n">
-        <v>1144</v>
+        <v>819</v>
       </c>
       <c r="T166" t="n">
         <v>400</v>
@@ -13687,7 +13687,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44251</v>
+        <v>44315</v>
       </c>
       <c r="E167" t="n">
         <v>4</v>
@@ -13720,20 +13720,20 @@
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M167" t="n">
         <v>20</v>
       </c>
       <c r="N167" t="n">
-        <v>415000</v>
+        <v>470000</v>
       </c>
       <c r="O167" t="n">
-        <v>420000</v>
+        <v>480000</v>
       </c>
       <c r="P167" t="n">
-        <v>417500</v>
+        <v>475000</v>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="S167" t="n">
-        <v>1044</v>
+        <v>1188</v>
       </c>
       <c r="T167" t="n">
         <v>400</v>
@@ -13767,7 +13767,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44294</v>
+        <v>44399</v>
       </c>
       <c r="E168" t="n">
         <v>4</v>
@@ -13795,7 +13795,7 @@
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Cara cara</t>
         </is>
       </c>
       <c r="L168" t="inlineStr">
@@ -13804,16 +13804,16 @@
         </is>
       </c>
       <c r="M168" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N168" t="n">
-        <v>475000</v>
+        <v>120000</v>
       </c>
       <c r="O168" t="n">
-        <v>480000</v>
+        <v>130000</v>
       </c>
       <c r="P168" t="n">
-        <v>477500</v>
+        <v>125000</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
@@ -13826,7 +13826,7 @@
         </is>
       </c>
       <c r="S168" t="n">
-        <v>1194</v>
+        <v>312</v>
       </c>
       <c r="T168" t="n">
         <v>400</v>
@@ -13847,7 +13847,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44245</v>
+        <v>44399</v>
       </c>
       <c r="E169" t="n">
         <v>4</v>
@@ -13875,7 +13875,7 @@
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L169" t="inlineStr">
@@ -13887,13 +13887,13 @@
         <v>20</v>
       </c>
       <c r="N169" t="n">
-        <v>465000</v>
+        <v>100000</v>
       </c>
       <c r="O169" t="n">
-        <v>470000</v>
+        <v>110000</v>
       </c>
       <c r="P169" t="n">
-        <v>467500</v>
+        <v>105000</v>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
@@ -13906,7 +13906,7 @@
         </is>
       </c>
       <c r="S169" t="n">
-        <v>1169</v>
+        <v>262</v>
       </c>
       <c r="T169" t="n">
         <v>400</v>
@@ -13927,7 +13927,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44245</v>
+        <v>44399</v>
       </c>
       <c r="E170" t="n">
         <v>4</v>
@@ -13955,7 +13955,7 @@
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L170" t="inlineStr">
@@ -13967,13 +13967,13 @@
         <v>20</v>
       </c>
       <c r="N170" t="n">
-        <v>425000</v>
+        <v>80000</v>
       </c>
       <c r="O170" t="n">
-        <v>430000</v>
+        <v>90000</v>
       </c>
       <c r="P170" t="n">
-        <v>427500</v>
+        <v>85000</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         </is>
       </c>
       <c r="S170" t="n">
-        <v>1069</v>
+        <v>212</v>
       </c>
       <c r="T170" t="n">
         <v>400</v>
@@ -14007,7 +14007,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44202</v>
+        <v>44399</v>
       </c>
       <c r="E171" t="n">
         <v>4</v>
@@ -14035,7 +14035,7 @@
       </c>
       <c r="K171" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L171" t="inlineStr">
@@ -14047,13 +14047,13 @@
         <v>20</v>
       </c>
       <c r="N171" t="n">
-        <v>395000</v>
+        <v>100000</v>
       </c>
       <c r="O171" t="n">
-        <v>400000</v>
+        <v>110000</v>
       </c>
       <c r="P171" t="n">
-        <v>397500</v>
+        <v>105000</v>
       </c>
       <c r="Q171" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         </is>
       </c>
       <c r="S171" t="n">
-        <v>994</v>
+        <v>262</v>
       </c>
       <c r="T171" t="n">
         <v>400</v>
@@ -14087,7 +14087,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44202</v>
+        <v>44399</v>
       </c>
       <c r="E172" t="n">
         <v>4</v>
@@ -14115,25 +14115,25 @@
       </c>
       <c r="K172" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M172" t="n">
         <v>20</v>
       </c>
       <c r="N172" t="n">
-        <v>345000</v>
+        <v>100000</v>
       </c>
       <c r="O172" t="n">
-        <v>350000</v>
+        <v>110000</v>
       </c>
       <c r="P172" t="n">
-        <v>347500</v>
+        <v>105000</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="S172" t="n">
-        <v>869</v>
+        <v>262</v>
       </c>
       <c r="T172" t="n">
         <v>400</v>
@@ -14167,7 +14167,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44181</v>
+        <v>44399</v>
       </c>
       <c r="E173" t="n">
         <v>4</v>
@@ -14200,20 +14200,20 @@
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M173" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N173" t="n">
-        <v>355000</v>
+        <v>80000</v>
       </c>
       <c r="O173" t="n">
-        <v>360000</v>
+        <v>90000</v>
       </c>
       <c r="P173" t="n">
-        <v>357500</v>
+        <v>85000</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
@@ -14226,7 +14226,7 @@
         </is>
       </c>
       <c r="S173" t="n">
-        <v>894</v>
+        <v>212</v>
       </c>
       <c r="T173" t="n">
         <v>400</v>
@@ -14247,7 +14247,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44181</v>
+        <v>44251</v>
       </c>
       <c r="E174" t="n">
         <v>4</v>
@@ -14284,16 +14284,16 @@
         </is>
       </c>
       <c r="M174" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N174" t="n">
-        <v>355000</v>
+        <v>455000</v>
       </c>
       <c r="O174" t="n">
-        <v>360000</v>
+        <v>460000</v>
       </c>
       <c r="P174" t="n">
-        <v>357500</v>
+        <v>457500</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
@@ -14306,7 +14306,7 @@
         </is>
       </c>
       <c r="S174" t="n">
-        <v>894</v>
+        <v>1144</v>
       </c>
       <c r="T174" t="n">
         <v>400</v>
@@ -14327,7 +14327,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44307</v>
+        <v>44251</v>
       </c>
       <c r="E175" t="n">
         <v>4</v>
@@ -14355,25 +14355,25 @@
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M175" t="n">
         <v>20</v>
       </c>
       <c r="N175" t="n">
-        <v>385000</v>
+        <v>415000</v>
       </c>
       <c r="O175" t="n">
-        <v>390000</v>
+        <v>420000</v>
       </c>
       <c r="P175" t="n">
-        <v>387500</v>
+        <v>417500</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         </is>
       </c>
       <c r="S175" t="n">
-        <v>969</v>
+        <v>1044</v>
       </c>
       <c r="T175" t="n">
         <v>400</v>
@@ -14407,7 +14407,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44307</v>
+        <v>44294</v>
       </c>
       <c r="E176" t="n">
         <v>4</v>
@@ -14435,25 +14435,25 @@
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M176" t="n">
         <v>20</v>
       </c>
       <c r="N176" t="n">
-        <v>345000</v>
+        <v>475000</v>
       </c>
       <c r="O176" t="n">
-        <v>350000</v>
+        <v>480000</v>
       </c>
       <c r="P176" t="n">
-        <v>347500</v>
+        <v>477500</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         </is>
       </c>
       <c r="S176" t="n">
-        <v>869</v>
+        <v>1194</v>
       </c>
       <c r="T176" t="n">
         <v>400</v>
@@ -14487,7 +14487,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44307</v>
+        <v>44245</v>
       </c>
       <c r="E177" t="n">
         <v>4</v>
@@ -14515,7 +14515,7 @@
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L177" t="inlineStr">
@@ -14527,13 +14527,13 @@
         <v>20</v>
       </c>
       <c r="N177" t="n">
-        <v>385000</v>
+        <v>465000</v>
       </c>
       <c r="O177" t="n">
-        <v>390000</v>
+        <v>470000</v>
       </c>
       <c r="P177" t="n">
-        <v>387500</v>
+        <v>467500</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="S177" t="n">
-        <v>969</v>
+        <v>1169</v>
       </c>
       <c r="T177" t="n">
         <v>400</v>
@@ -14567,7 +14567,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44161</v>
+        <v>44245</v>
       </c>
       <c r="E178" t="n">
         <v>4</v>
@@ -14595,25 +14595,25 @@
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M178" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N178" t="n">
-        <v>325000</v>
+        <v>425000</v>
       </c>
       <c r="O178" t="n">
-        <v>330000</v>
+        <v>430000</v>
       </c>
       <c r="P178" t="n">
-        <v>327500</v>
+        <v>427500</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         </is>
       </c>
       <c r="S178" t="n">
-        <v>819</v>
+        <v>1069</v>
       </c>
       <c r="T178" t="n">
         <v>400</v>
@@ -14647,7 +14647,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44161</v>
+        <v>44202</v>
       </c>
       <c r="E179" t="n">
         <v>4</v>
@@ -14675,7 +14675,7 @@
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L179" t="inlineStr">
@@ -14684,16 +14684,16 @@
         </is>
       </c>
       <c r="M179" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N179" t="n">
-        <v>305000</v>
+        <v>395000</v>
       </c>
       <c r="O179" t="n">
-        <v>310000</v>
+        <v>400000</v>
       </c>
       <c r="P179" t="n">
-        <v>307500</v>
+        <v>397500</v>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
@@ -14706,7 +14706,7 @@
         </is>
       </c>
       <c r="S179" t="n">
-        <v>769</v>
+        <v>994</v>
       </c>
       <c r="T179" t="n">
         <v>400</v>
@@ -14727,7 +14727,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44161</v>
+        <v>44202</v>
       </c>
       <c r="E180" t="n">
         <v>4</v>
@@ -14755,7 +14755,7 @@
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L180" t="inlineStr">
@@ -14764,16 +14764,16 @@
         </is>
       </c>
       <c r="M180" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N180" t="n">
-        <v>255000</v>
+        <v>345000</v>
       </c>
       <c r="O180" t="n">
-        <v>260000</v>
+        <v>350000</v>
       </c>
       <c r="P180" t="n">
-        <v>257500</v>
+        <v>347500</v>
       </c>
       <c r="Q180" t="inlineStr">
         <is>
@@ -14786,7 +14786,7 @@
         </is>
       </c>
       <c r="S180" t="n">
-        <v>644</v>
+        <v>869</v>
       </c>
       <c r="T180" t="n">
         <v>400</v>
@@ -14807,7 +14807,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44195</v>
+        <v>44181</v>
       </c>
       <c r="E181" t="n">
         <v>4</v>
@@ -14835,7 +14835,7 @@
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L181" t="inlineStr">
@@ -14844,16 +14844,16 @@
         </is>
       </c>
       <c r="M181" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="N181" t="n">
-        <v>390000</v>
+        <v>355000</v>
       </c>
       <c r="O181" t="n">
-        <v>400000</v>
+        <v>360000</v>
       </c>
       <c r="P181" t="n">
-        <v>395000</v>
+        <v>357500</v>
       </c>
       <c r="Q181" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         </is>
       </c>
       <c r="S181" t="n">
-        <v>988</v>
+        <v>894</v>
       </c>
       <c r="T181" t="n">
         <v>400</v>
@@ -14887,7 +14887,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44265</v>
+        <v>44181</v>
       </c>
       <c r="E182" t="n">
         <v>4</v>
@@ -14924,16 +14924,16 @@
         </is>
       </c>
       <c r="M182" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N182" t="n">
-        <v>455000</v>
+        <v>355000</v>
       </c>
       <c r="O182" t="n">
-        <v>460000</v>
+        <v>360000</v>
       </c>
       <c r="P182" t="n">
-        <v>457500</v>
+        <v>357500</v>
       </c>
       <c r="Q182" t="inlineStr">
         <is>
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="S182" t="n">
-        <v>1144</v>
+        <v>894</v>
       </c>
       <c r="T182" t="n">
         <v>400</v>
@@ -14967,7 +14967,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44265</v>
+        <v>44307</v>
       </c>
       <c r="E183" t="n">
         <v>4</v>
@@ -14995,25 +14995,25 @@
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M183" t="n">
         <v>20</v>
       </c>
       <c r="N183" t="n">
-        <v>415000</v>
+        <v>385000</v>
       </c>
       <c r="O183" t="n">
-        <v>420000</v>
+        <v>390000</v>
       </c>
       <c r="P183" t="n">
-        <v>417500</v>
+        <v>387500</v>
       </c>
       <c r="Q183" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         </is>
       </c>
       <c r="S183" t="n">
-        <v>1044</v>
+        <v>969</v>
       </c>
       <c r="T183" t="n">
         <v>400</v>
@@ -15047,7 +15047,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44188</v>
+        <v>44307</v>
       </c>
       <c r="E184" t="n">
         <v>4</v>
@@ -15075,25 +15075,25 @@
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M184" t="n">
         <v>20</v>
       </c>
       <c r="N184" t="n">
-        <v>375000</v>
+        <v>345000</v>
       </c>
       <c r="O184" t="n">
-        <v>380000</v>
+        <v>350000</v>
       </c>
       <c r="P184" t="n">
-        <v>377500</v>
+        <v>347500</v>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
@@ -15106,7 +15106,7 @@
         </is>
       </c>
       <c r="S184" t="n">
-        <v>944</v>
+        <v>869</v>
       </c>
       <c r="T184" t="n">
         <v>400</v>
@@ -15127,7 +15127,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44188</v>
+        <v>44307</v>
       </c>
       <c r="E185" t="n">
         <v>4</v>
@@ -15155,25 +15155,25 @@
       </c>
       <c r="K185" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M185" t="n">
         <v>20</v>
       </c>
       <c r="N185" t="n">
-        <v>335000</v>
+        <v>385000</v>
       </c>
       <c r="O185" t="n">
-        <v>340000</v>
+        <v>390000</v>
       </c>
       <c r="P185" t="n">
-        <v>337500</v>
+        <v>387500</v>
       </c>
       <c r="Q185" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         </is>
       </c>
       <c r="S185" t="n">
-        <v>844</v>
+        <v>969</v>
       </c>
       <c r="T185" t="n">
         <v>400</v>
@@ -15207,7 +15207,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44160</v>
+        <v>44161</v>
       </c>
       <c r="E186" t="n">
         <v>4</v>
@@ -15244,7 +15244,7 @@
         </is>
       </c>
       <c r="M186" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="N186" t="n">
         <v>325000</v>
@@ -15287,7 +15287,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44160</v>
+        <v>44161</v>
       </c>
       <c r="E187" t="n">
         <v>4</v>
@@ -15324,7 +15324,7 @@
         </is>
       </c>
       <c r="M187" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N187" t="n">
         <v>305000</v>
@@ -15367,7 +15367,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44160</v>
+        <v>44161</v>
       </c>
       <c r="E188" t="n">
         <v>4</v>
@@ -15404,7 +15404,7 @@
         </is>
       </c>
       <c r="M188" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N188" t="n">
         <v>255000</v>
@@ -15447,7 +15447,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44301</v>
+        <v>44195</v>
       </c>
       <c r="E189" t="n">
         <v>4</v>
@@ -15480,20 +15480,20 @@
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M189" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N189" t="n">
-        <v>495000</v>
+        <v>390000</v>
       </c>
       <c r="O189" t="n">
-        <v>500000</v>
+        <v>400000</v>
       </c>
       <c r="P189" t="n">
-        <v>497500</v>
+        <v>395000</v>
       </c>
       <c r="Q189" t="inlineStr">
         <is>
@@ -15506,7 +15506,7 @@
         </is>
       </c>
       <c r="S189" t="n">
-        <v>1244</v>
+        <v>988</v>
       </c>
       <c r="T189" t="n">
         <v>400</v>
@@ -15527,7 +15527,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44301</v>
+        <v>44265</v>
       </c>
       <c r="E190" t="n">
         <v>4</v>
@@ -15567,13 +15567,13 @@
         <v>20</v>
       </c>
       <c r="N190" t="n">
-        <v>475000</v>
+        <v>455000</v>
       </c>
       <c r="O190" t="n">
-        <v>480000</v>
+        <v>460000</v>
       </c>
       <c r="P190" t="n">
-        <v>477500</v>
+        <v>457500</v>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         </is>
       </c>
       <c r="S190" t="n">
-        <v>1194</v>
+        <v>1144</v>
       </c>
       <c r="T190" t="n">
         <v>400</v>
@@ -15607,7 +15607,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44272</v>
+        <v>44265</v>
       </c>
       <c r="E191" t="n">
         <v>4</v>
@@ -15640,20 +15640,20 @@
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M191" t="n">
         <v>20</v>
       </c>
       <c r="N191" t="n">
-        <v>455000</v>
+        <v>415000</v>
       </c>
       <c r="O191" t="n">
-        <v>460000</v>
+        <v>420000</v>
       </c>
       <c r="P191" t="n">
-        <v>457500</v>
+        <v>417500</v>
       </c>
       <c r="Q191" t="inlineStr">
         <is>
@@ -15666,7 +15666,7 @@
         </is>
       </c>
       <c r="S191" t="n">
-        <v>1144</v>
+        <v>1044</v>
       </c>
       <c r="T191" t="n">
         <v>400</v>
@@ -15687,7 +15687,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44272</v>
+        <v>44188</v>
       </c>
       <c r="E192" t="n">
         <v>4</v>
@@ -15720,20 +15720,20 @@
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M192" t="n">
         <v>20</v>
       </c>
       <c r="N192" t="n">
-        <v>415000</v>
+        <v>375000</v>
       </c>
       <c r="O192" t="n">
-        <v>420000</v>
+        <v>380000</v>
       </c>
       <c r="P192" t="n">
-        <v>417500</v>
+        <v>377500</v>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="S192" t="n">
-        <v>1044</v>
+        <v>944</v>
       </c>
       <c r="T192" t="n">
         <v>400</v>
@@ -15767,7 +15767,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44370</v>
+        <v>44188</v>
       </c>
       <c r="E193" t="n">
         <v>4</v>
@@ -15795,25 +15795,25 @@
       </c>
       <c r="K193" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M193" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N193" t="n">
-        <v>125000</v>
+        <v>335000</v>
       </c>
       <c r="O193" t="n">
-        <v>130000</v>
+        <v>340000</v>
       </c>
       <c r="P193" t="n">
-        <v>127500</v>
+        <v>337500</v>
       </c>
       <c r="Q193" t="inlineStr">
         <is>
@@ -15826,7 +15826,7 @@
         </is>
       </c>
       <c r="S193" t="n">
-        <v>319</v>
+        <v>844</v>
       </c>
       <c r="T193" t="n">
         <v>400</v>
@@ -15847,7 +15847,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44370</v>
+        <v>44160</v>
       </c>
       <c r="E194" t="n">
         <v>4</v>
@@ -15875,25 +15875,25 @@
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M194" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N194" t="n">
-        <v>105000</v>
+        <v>325000</v>
       </c>
       <c r="O194" t="n">
-        <v>110000</v>
+        <v>330000</v>
       </c>
       <c r="P194" t="n">
-        <v>107500</v>
+        <v>327500</v>
       </c>
       <c r="Q194" t="inlineStr">
         <is>
@@ -15906,7 +15906,7 @@
         </is>
       </c>
       <c r="S194" t="n">
-        <v>269</v>
+        <v>819</v>
       </c>
       <c r="T194" t="n">
         <v>400</v>
@@ -15927,7 +15927,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44370</v>
+        <v>44160</v>
       </c>
       <c r="E195" t="n">
         <v>4</v>
@@ -15955,7 +15955,7 @@
       </c>
       <c r="K195" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L195" t="inlineStr">
@@ -15967,13 +15967,13 @@
         <v>20</v>
       </c>
       <c r="N195" t="n">
-        <v>135000</v>
+        <v>305000</v>
       </c>
       <c r="O195" t="n">
-        <v>140000</v>
+        <v>310000</v>
       </c>
       <c r="P195" t="n">
-        <v>137500</v>
+        <v>307500</v>
       </c>
       <c r="Q195" t="inlineStr">
         <is>
@@ -15986,7 +15986,7 @@
         </is>
       </c>
       <c r="S195" t="n">
-        <v>344</v>
+        <v>769</v>
       </c>
       <c r="T195" t="n">
         <v>400</v>
@@ -16007,7 +16007,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44370</v>
+        <v>44160</v>
       </c>
       <c r="E196" t="n">
         <v>4</v>
@@ -16035,7 +16035,7 @@
       </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L196" t="inlineStr">
@@ -16047,13 +16047,13 @@
         <v>20</v>
       </c>
       <c r="N196" t="n">
-        <v>115000</v>
+        <v>255000</v>
       </c>
       <c r="O196" t="n">
-        <v>120000</v>
+        <v>260000</v>
       </c>
       <c r="P196" t="n">
-        <v>117500</v>
+        <v>257500</v>
       </c>
       <c r="Q196" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         </is>
       </c>
       <c r="S196" t="n">
-        <v>294</v>
+        <v>644</v>
       </c>
       <c r="T196" t="n">
         <v>400</v>
@@ -16087,7 +16087,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44370</v>
+        <v>44301</v>
       </c>
       <c r="E197" t="n">
         <v>4</v>
@@ -16115,25 +16115,25 @@
       </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M197" t="n">
         <v>20</v>
       </c>
       <c r="N197" t="n">
-        <v>135000</v>
+        <v>495000</v>
       </c>
       <c r="O197" t="n">
-        <v>140000</v>
+        <v>500000</v>
       </c>
       <c r="P197" t="n">
-        <v>137500</v>
+        <v>497500</v>
       </c>
       <c r="Q197" t="inlineStr">
         <is>
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="S197" t="n">
-        <v>344</v>
+        <v>1244</v>
       </c>
       <c r="T197" t="n">
         <v>400</v>
@@ -16167,7 +16167,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44370</v>
+        <v>44301</v>
       </c>
       <c r="E198" t="n">
         <v>4</v>
@@ -16195,25 +16195,25 @@
       </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M198" t="n">
         <v>20</v>
       </c>
       <c r="N198" t="n">
-        <v>115000</v>
+        <v>475000</v>
       </c>
       <c r="O198" t="n">
-        <v>120000</v>
+        <v>480000</v>
       </c>
       <c r="P198" t="n">
-        <v>117500</v>
+        <v>477500</v>
       </c>
       <c r="Q198" t="inlineStr">
         <is>
@@ -16226,7 +16226,7 @@
         </is>
       </c>
       <c r="S198" t="n">
-        <v>294</v>
+        <v>1194</v>
       </c>
       <c r="T198" t="n">
         <v>400</v>
@@ -16247,7 +16247,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44230</v>
+        <v>44272</v>
       </c>
       <c r="E199" t="n">
         <v>4</v>
@@ -16287,13 +16287,13 @@
         <v>20</v>
       </c>
       <c r="N199" t="n">
-        <v>485000</v>
+        <v>455000</v>
       </c>
       <c r="O199" t="n">
-        <v>490000</v>
+        <v>460000</v>
       </c>
       <c r="P199" t="n">
-        <v>487500</v>
+        <v>457500</v>
       </c>
       <c r="Q199" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         </is>
       </c>
       <c r="S199" t="n">
-        <v>1219</v>
+        <v>1144</v>
       </c>
       <c r="T199" t="n">
         <v>400</v>
@@ -16327,7 +16327,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44230</v>
+        <v>44272</v>
       </c>
       <c r="E200" t="n">
         <v>4</v>
@@ -16367,13 +16367,13 @@
         <v>20</v>
       </c>
       <c r="N200" t="n">
-        <v>455000</v>
+        <v>415000</v>
       </c>
       <c r="O200" t="n">
-        <v>460000</v>
+        <v>420000</v>
       </c>
       <c r="P200" t="n">
-        <v>457500</v>
+        <v>417500</v>
       </c>
       <c r="Q200" t="inlineStr">
         <is>
@@ -16386,7 +16386,7 @@
         </is>
       </c>
       <c r="S200" t="n">
-        <v>1144</v>
+        <v>1044</v>
       </c>
       <c r="T200" t="n">
         <v>400</v>
@@ -16407,7 +16407,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44398</v>
+        <v>44370</v>
       </c>
       <c r="E201" t="n">
         <v>4</v>
@@ -16444,16 +16444,16 @@
         </is>
       </c>
       <c r="M201" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N201" t="n">
-        <v>100000</v>
+        <v>125000</v>
       </c>
       <c r="O201" t="n">
-        <v>110000</v>
+        <v>130000</v>
       </c>
       <c r="P201" t="n">
-        <v>105000</v>
+        <v>127500</v>
       </c>
       <c r="Q201" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         </is>
       </c>
       <c r="S201" t="n">
-        <v>262</v>
+        <v>319</v>
       </c>
       <c r="T201" t="n">
         <v>400</v>
@@ -16487,7 +16487,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44398</v>
+        <v>44370</v>
       </c>
       <c r="E202" t="n">
         <v>4</v>
@@ -16527,13 +16527,13 @@
         <v>20</v>
       </c>
       <c r="N202" t="n">
-        <v>80000</v>
+        <v>105000</v>
       </c>
       <c r="O202" t="n">
-        <v>90000</v>
+        <v>110000</v>
       </c>
       <c r="P202" t="n">
-        <v>85000</v>
+        <v>107500</v>
       </c>
       <c r="Q202" t="inlineStr">
         <is>
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="S202" t="n">
-        <v>212</v>
+        <v>269</v>
       </c>
       <c r="T202" t="n">
         <v>400</v>
@@ -16567,7 +16567,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44398</v>
+        <v>44370</v>
       </c>
       <c r="E203" t="n">
         <v>4</v>
@@ -16595,7 +16595,7 @@
       </c>
       <c r="K203" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L203" t="inlineStr">
@@ -16607,13 +16607,13 @@
         <v>20</v>
       </c>
       <c r="N203" t="n">
-        <v>100000</v>
+        <v>135000</v>
       </c>
       <c r="O203" t="n">
-        <v>110000</v>
+        <v>140000</v>
       </c>
       <c r="P203" t="n">
-        <v>105000</v>
+        <v>137500</v>
       </c>
       <c r="Q203" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         </is>
       </c>
       <c r="S203" t="n">
-        <v>262</v>
+        <v>344</v>
       </c>
       <c r="T203" t="n">
         <v>400</v>
@@ -16647,7 +16647,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44398</v>
+        <v>44370</v>
       </c>
       <c r="E204" t="n">
         <v>4</v>
@@ -16680,20 +16680,20 @@
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M204" t="n">
         <v>20</v>
       </c>
       <c r="N204" t="n">
-        <v>100000</v>
+        <v>115000</v>
       </c>
       <c r="O204" t="n">
-        <v>110000</v>
+        <v>120000</v>
       </c>
       <c r="P204" t="n">
-        <v>105000</v>
+        <v>117500</v>
       </c>
       <c r="Q204" t="inlineStr">
         <is>
@@ -16706,7 +16706,7 @@
         </is>
       </c>
       <c r="S204" t="n">
-        <v>262</v>
+        <v>294</v>
       </c>
       <c r="T204" t="n">
         <v>400</v>
@@ -16727,7 +16727,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44398</v>
+        <v>44370</v>
       </c>
       <c r="E205" t="n">
         <v>4</v>
@@ -16755,25 +16755,25 @@
       </c>
       <c r="K205" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M205" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N205" t="n">
-        <v>80000</v>
+        <v>135000</v>
       </c>
       <c r="O205" t="n">
-        <v>90000</v>
+        <v>140000</v>
       </c>
       <c r="P205" t="n">
-        <v>85000</v>
+        <v>137500</v>
       </c>
       <c r="Q205" t="inlineStr">
         <is>
@@ -16786,7 +16786,7 @@
         </is>
       </c>
       <c r="S205" t="n">
-        <v>212</v>
+        <v>344</v>
       </c>
       <c r="T205" t="n">
         <v>400</v>
@@ -16807,7 +16807,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44286</v>
+        <v>44370</v>
       </c>
       <c r="E206" t="n">
         <v>4</v>
@@ -16835,25 +16835,25 @@
       </c>
       <c r="K206" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L206" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M206" t="n">
         <v>20</v>
       </c>
       <c r="N206" t="n">
-        <v>475000</v>
+        <v>115000</v>
       </c>
       <c r="O206" t="n">
-        <v>480000</v>
+        <v>120000</v>
       </c>
       <c r="P206" t="n">
-        <v>477500</v>
+        <v>117500</v>
       </c>
       <c r="Q206" t="inlineStr">
         <is>
@@ -16866,7 +16866,7 @@
         </is>
       </c>
       <c r="S206" t="n">
-        <v>1194</v>
+        <v>294</v>
       </c>
       <c r="T206" t="n">
         <v>400</v>
@@ -16887,7 +16887,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44286</v>
+        <v>44230</v>
       </c>
       <c r="E207" t="n">
         <v>4</v>
@@ -16927,13 +16927,13 @@
         <v>20</v>
       </c>
       <c r="N207" t="n">
-        <v>455000</v>
+        <v>485000</v>
       </c>
       <c r="O207" t="n">
-        <v>460000</v>
+        <v>490000</v>
       </c>
       <c r="P207" t="n">
-        <v>457500</v>
+        <v>487500</v>
       </c>
       <c r="Q207" t="inlineStr">
         <is>
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="S207" t="n">
-        <v>1144</v>
+        <v>1219</v>
       </c>
       <c r="T207" t="n">
         <v>400</v>
@@ -16967,7 +16967,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44217</v>
+        <v>44230</v>
       </c>
       <c r="E208" t="n">
         <v>4</v>
@@ -17000,20 +17000,20 @@
       </c>
       <c r="L208" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M208" t="n">
         <v>20</v>
       </c>
       <c r="N208" t="n">
-        <v>465000</v>
+        <v>455000</v>
       </c>
       <c r="O208" t="n">
-        <v>470000</v>
+        <v>460000</v>
       </c>
       <c r="P208" t="n">
-        <v>467500</v>
+        <v>457500</v>
       </c>
       <c r="Q208" t="inlineStr">
         <is>
@@ -17026,7 +17026,7 @@
         </is>
       </c>
       <c r="S208" t="n">
-        <v>1169</v>
+        <v>1144</v>
       </c>
       <c r="T208" t="n">
         <v>400</v>
@@ -17047,7 +17047,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44217</v>
+        <v>44398</v>
       </c>
       <c r="E209" t="n">
         <v>4</v>
@@ -17075,25 +17075,25 @@
       </c>
       <c r="K209" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L209" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M209" t="n">
         <v>20</v>
       </c>
       <c r="N209" t="n">
-        <v>425000</v>
+        <v>100000</v>
       </c>
       <c r="O209" t="n">
-        <v>430000</v>
+        <v>110000</v>
       </c>
       <c r="P209" t="n">
-        <v>427500</v>
+        <v>105000</v>
       </c>
       <c r="Q209" t="inlineStr">
         <is>
@@ -17106,7 +17106,7 @@
         </is>
       </c>
       <c r="S209" t="n">
-        <v>1069</v>
+        <v>262</v>
       </c>
       <c r="T209" t="n">
         <v>400</v>
@@ -17127,7 +17127,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44244</v>
+        <v>44398</v>
       </c>
       <c r="E210" t="n">
         <v>4</v>
@@ -17155,25 +17155,25 @@
       </c>
       <c r="K210" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L210" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M210" t="n">
         <v>20</v>
       </c>
       <c r="N210" t="n">
-        <v>455000</v>
+        <v>80000</v>
       </c>
       <c r="O210" t="n">
-        <v>460000</v>
+        <v>90000</v>
       </c>
       <c r="P210" t="n">
-        <v>457500</v>
+        <v>85000</v>
       </c>
       <c r="Q210" t="inlineStr">
         <is>
@@ -17186,7 +17186,7 @@
         </is>
       </c>
       <c r="S210" t="n">
-        <v>1144</v>
+        <v>212</v>
       </c>
       <c r="T210" t="n">
         <v>400</v>
@@ -17207,7 +17207,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44244</v>
+        <v>44398</v>
       </c>
       <c r="E211" t="n">
         <v>4</v>
@@ -17235,25 +17235,25 @@
       </c>
       <c r="K211" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L211" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M211" t="n">
         <v>20</v>
       </c>
       <c r="N211" t="n">
-        <v>415000</v>
+        <v>100000</v>
       </c>
       <c r="O211" t="n">
-        <v>420000</v>
+        <v>110000</v>
       </c>
       <c r="P211" t="n">
-        <v>417500</v>
+        <v>105000</v>
       </c>
       <c r="Q211" t="inlineStr">
         <is>
@@ -17266,7 +17266,7 @@
         </is>
       </c>
       <c r="S211" t="n">
-        <v>1044</v>
+        <v>262</v>
       </c>
       <c r="T211" t="n">
         <v>400</v>
@@ -17287,7 +17287,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44343</v>
+        <v>44398</v>
       </c>
       <c r="E212" t="n">
         <v>4</v>
@@ -17315,25 +17315,25 @@
       </c>
       <c r="K212" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L212" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M212" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N212" t="n">
-        <v>235000</v>
+        <v>100000</v>
       </c>
       <c r="O212" t="n">
-        <v>240000</v>
+        <v>110000</v>
       </c>
       <c r="P212" t="n">
-        <v>237500</v>
+        <v>105000</v>
       </c>
       <c r="Q212" t="inlineStr">
         <is>
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="S212" t="n">
-        <v>594</v>
+        <v>262</v>
       </c>
       <c r="T212" t="n">
         <v>400</v>
@@ -17367,7 +17367,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44343</v>
+        <v>44398</v>
       </c>
       <c r="E213" t="n">
         <v>4</v>
@@ -17395,25 +17395,25 @@
       </c>
       <c r="K213" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L213" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M213" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N213" t="n">
-        <v>195000</v>
+        <v>80000</v>
       </c>
       <c r="O213" t="n">
-        <v>200000</v>
+        <v>90000</v>
       </c>
       <c r="P213" t="n">
-        <v>197500</v>
+        <v>85000</v>
       </c>
       <c r="Q213" t="inlineStr">
         <is>
@@ -17426,7 +17426,7 @@
         </is>
       </c>
       <c r="S213" t="n">
-        <v>494</v>
+        <v>212</v>
       </c>
       <c r="T213" t="n">
         <v>400</v>
@@ -17447,7 +17447,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44343</v>
+        <v>44286</v>
       </c>
       <c r="E214" t="n">
         <v>4</v>
@@ -17475,25 +17475,25 @@
       </c>
       <c r="K214" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L214" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M214" t="n">
         <v>20</v>
       </c>
       <c r="N214" t="n">
-        <v>165000</v>
+        <v>475000</v>
       </c>
       <c r="O214" t="n">
-        <v>170000</v>
+        <v>480000</v>
       </c>
       <c r="P214" t="n">
-        <v>167500</v>
+        <v>477500</v>
       </c>
       <c r="Q214" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         </is>
       </c>
       <c r="S214" t="n">
-        <v>419</v>
+        <v>1194</v>
       </c>
       <c r="T214" t="n">
         <v>400</v>
@@ -17527,7 +17527,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44168</v>
+        <v>44286</v>
       </c>
       <c r="E215" t="n">
         <v>4</v>
@@ -17555,7 +17555,7 @@
       </c>
       <c r="K215" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L215" t="inlineStr">
@@ -17567,13 +17567,13 @@
         <v>20</v>
       </c>
       <c r="N215" t="n">
-        <v>325000</v>
+        <v>455000</v>
       </c>
       <c r="O215" t="n">
-        <v>330000</v>
+        <v>460000</v>
       </c>
       <c r="P215" t="n">
-        <v>327500</v>
+        <v>457500</v>
       </c>
       <c r="Q215" t="inlineStr">
         <is>
@@ -17586,7 +17586,7 @@
         </is>
       </c>
       <c r="S215" t="n">
-        <v>819</v>
+        <v>1144</v>
       </c>
       <c r="T215" t="n">
         <v>400</v>
@@ -17607,7 +17607,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44168</v>
+        <v>44217</v>
       </c>
       <c r="E216" t="n">
         <v>4</v>
@@ -17635,25 +17635,25 @@
       </c>
       <c r="K216" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L216" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M216" t="n">
         <v>20</v>
       </c>
       <c r="N216" t="n">
-        <v>285000</v>
+        <v>465000</v>
       </c>
       <c r="O216" t="n">
-        <v>290000</v>
+        <v>470000</v>
       </c>
       <c r="P216" t="n">
-        <v>287500</v>
+        <v>467500</v>
       </c>
       <c r="Q216" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         </is>
       </c>
       <c r="S216" t="n">
-        <v>719</v>
+        <v>1169</v>
       </c>
       <c r="T216" t="n">
         <v>400</v>
@@ -17687,7 +17687,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44168</v>
+        <v>44217</v>
       </c>
       <c r="E217" t="n">
         <v>4</v>
@@ -17720,20 +17720,20 @@
       </c>
       <c r="L217" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M217" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N217" t="n">
-        <v>355000</v>
+        <v>425000</v>
       </c>
       <c r="O217" t="n">
-        <v>360000</v>
+        <v>430000</v>
       </c>
       <c r="P217" t="n">
-        <v>357500</v>
+        <v>427500</v>
       </c>
       <c r="Q217" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="S217" t="n">
-        <v>894</v>
+        <v>1069</v>
       </c>
       <c r="T217" t="n">
         <v>400</v>
@@ -17767,7 +17767,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44168</v>
+        <v>44244</v>
       </c>
       <c r="E218" t="n">
         <v>4</v>
@@ -17807,13 +17807,13 @@
         <v>20</v>
       </c>
       <c r="N218" t="n">
-        <v>335000</v>
+        <v>455000</v>
       </c>
       <c r="O218" t="n">
-        <v>340000</v>
+        <v>460000</v>
       </c>
       <c r="P218" t="n">
-        <v>337500</v>
+        <v>457500</v>
       </c>
       <c r="Q218" t="inlineStr">
         <is>
@@ -17826,7 +17826,7 @@
         </is>
       </c>
       <c r="S218" t="n">
-        <v>844</v>
+        <v>1144</v>
       </c>
       <c r="T218" t="n">
         <v>400</v>
@@ -17847,68 +17847,708 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
+        <v>44244</v>
+      </c>
+      <c r="E219" t="n">
+        <v>4</v>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G219" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I219" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M219" t="n">
+        <v>20</v>
+      </c>
+      <c r="N219" t="n">
+        <v>415000</v>
+      </c>
+      <c r="O219" t="n">
+        <v>420000</v>
+      </c>
+      <c r="P219" t="n">
+        <v>417500</v>
+      </c>
+      <c r="Q219" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R219" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S219" t="n">
+        <v>1044</v>
+      </c>
+      <c r="T219" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>2</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D220" s="2" t="n">
+        <v>44343</v>
+      </c>
+      <c r="E220" t="n">
+        <v>4</v>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G220" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I220" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>Fukumoto</t>
+        </is>
+      </c>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M220" t="n">
+        <v>16</v>
+      </c>
+      <c r="N220" t="n">
+        <v>235000</v>
+      </c>
+      <c r="O220" t="n">
+        <v>240000</v>
+      </c>
+      <c r="P220" t="n">
+        <v>237500</v>
+      </c>
+      <c r="Q220" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R220" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S220" t="n">
+        <v>594</v>
+      </c>
+      <c r="T220" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>2</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D221" s="2" t="n">
+        <v>44343</v>
+      </c>
+      <c r="E221" t="n">
+        <v>4</v>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G221" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I221" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>Fukumoto</t>
+        </is>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M221" t="n">
+        <v>20</v>
+      </c>
+      <c r="N221" t="n">
+        <v>195000</v>
+      </c>
+      <c r="O221" t="n">
+        <v>200000</v>
+      </c>
+      <c r="P221" t="n">
+        <v>197500</v>
+      </c>
+      <c r="Q221" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R221" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S221" t="n">
+        <v>494</v>
+      </c>
+      <c r="T221" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>2</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D222" s="2" t="n">
+        <v>44343</v>
+      </c>
+      <c r="E222" t="n">
+        <v>4</v>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G222" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I222" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>Fukumoto</t>
+        </is>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M222" t="n">
+        <v>20</v>
+      </c>
+      <c r="N222" t="n">
+        <v>165000</v>
+      </c>
+      <c r="O222" t="n">
+        <v>170000</v>
+      </c>
+      <c r="P222" t="n">
+        <v>167500</v>
+      </c>
+      <c r="Q222" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R222" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S222" t="n">
+        <v>419</v>
+      </c>
+      <c r="T222" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>2</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D223" s="2" t="n">
         <v>44168</v>
       </c>
-      <c r="E219" t="n">
-        <v>4</v>
-      </c>
-      <c r="F219" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G219" t="n">
-        <v>100102</v>
-      </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>Cítricos</t>
-        </is>
-      </c>
-      <c r="I219" t="n">
-        <v>100102005</v>
-      </c>
-      <c r="J219" t="inlineStr">
-        <is>
-          <t>Naranja</t>
-        </is>
-      </c>
-      <c r="K219" t="inlineStr">
+      <c r="E223" t="n">
+        <v>4</v>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G223" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I223" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>Navel Late</t>
+        </is>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M223" t="n">
+        <v>20</v>
+      </c>
+      <c r="N223" t="n">
+        <v>325000</v>
+      </c>
+      <c r="O223" t="n">
+        <v>330000</v>
+      </c>
+      <c r="P223" t="n">
+        <v>327500</v>
+      </c>
+      <c r="Q223" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R223" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S223" t="n">
+        <v>819</v>
+      </c>
+      <c r="T223" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>2</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D224" s="2" t="n">
+        <v>44168</v>
+      </c>
+      <c r="E224" t="n">
+        <v>4</v>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G224" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I224" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>Navel Late</t>
+        </is>
+      </c>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M224" t="n">
+        <v>20</v>
+      </c>
+      <c r="N224" t="n">
+        <v>285000</v>
+      </c>
+      <c r="O224" t="n">
+        <v>290000</v>
+      </c>
+      <c r="P224" t="n">
+        <v>287500</v>
+      </c>
+      <c r="Q224" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R224" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S224" t="n">
+        <v>719</v>
+      </c>
+      <c r="T224" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>2</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D225" s="2" t="n">
+        <v>44168</v>
+      </c>
+      <c r="E225" t="n">
+        <v>4</v>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G225" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I225" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K225" t="inlineStr">
         <is>
           <t>Valencia</t>
         </is>
       </c>
-      <c r="L219" t="inlineStr">
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M225" t="n">
+        <v>16</v>
+      </c>
+      <c r="N225" t="n">
+        <v>355000</v>
+      </c>
+      <c r="O225" t="n">
+        <v>360000</v>
+      </c>
+      <c r="P225" t="n">
+        <v>357500</v>
+      </c>
+      <c r="Q225" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R225" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S225" t="n">
+        <v>894</v>
+      </c>
+      <c r="T225" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>2</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D226" s="2" t="n">
+        <v>44168</v>
+      </c>
+      <c r="E226" t="n">
+        <v>4</v>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G226" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I226" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M226" t="n">
+        <v>20</v>
+      </c>
+      <c r="N226" t="n">
+        <v>335000</v>
+      </c>
+      <c r="O226" t="n">
+        <v>340000</v>
+      </c>
+      <c r="P226" t="n">
+        <v>337500</v>
+      </c>
+      <c r="Q226" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R226" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S226" t="n">
+        <v>844</v>
+      </c>
+      <c r="T226" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>2</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D227" s="2" t="n">
+        <v>44168</v>
+      </c>
+      <c r="E227" t="n">
+        <v>4</v>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G227" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I227" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="L227" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M219" t="n">
-        <v>20</v>
-      </c>
-      <c r="N219" t="n">
+      <c r="M227" t="n">
+        <v>20</v>
+      </c>
+      <c r="N227" t="n">
         <v>295000</v>
       </c>
-      <c r="O219" t="n">
+      <c r="O227" t="n">
         <v>300000</v>
       </c>
-      <c r="P219" t="n">
+      <c r="P227" t="n">
         <v>297500</v>
       </c>
-      <c r="Q219" t="inlineStr">
-        <is>
-          <t>$/bins (400 kilos)</t>
-        </is>
-      </c>
-      <c r="R219" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="S219" t="n">
+      <c r="Q227" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R227" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S227" t="n">
         <v>744</v>
       </c>
-      <c r="T219" t="n">
+      <c r="T227" t="n">
         <v>400</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Comercializadora del Agro de Limarí - Naranja.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Comercializadora del Agro de Limarí - Naranja.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T227"/>
+  <dimension ref="A1:T252"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7367,7 +7367,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44413</v>
+        <v>44427</v>
       </c>
       <c r="E88" t="n">
         <v>4</v>
@@ -7395,25 +7395,25 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Cara cara</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M88" t="n">
         <v>20</v>
       </c>
       <c r="N88" t="n">
-        <v>110000</v>
+        <v>120000</v>
       </c>
       <c r="O88" t="n">
-        <v>115000</v>
+        <v>130000</v>
       </c>
       <c r="P88" t="n">
-        <v>112500</v>
+        <v>125000</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         </is>
       </c>
       <c r="S88" t="n">
-        <v>281</v>
+        <v>312</v>
       </c>
       <c r="T88" t="n">
         <v>400</v>
@@ -7447,7 +7447,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44413</v>
+        <v>44427</v>
       </c>
       <c r="E89" t="n">
         <v>4</v>
@@ -7475,25 +7475,25 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Cara cara</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M89" t="n">
         <v>20</v>
       </c>
       <c r="N89" t="n">
-        <v>80000</v>
+        <v>100000</v>
       </c>
       <c r="O89" t="n">
-        <v>85000</v>
+        <v>110000</v>
       </c>
       <c r="P89" t="n">
-        <v>82500</v>
+        <v>105000</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         </is>
       </c>
       <c r="S89" t="n">
-        <v>206</v>
+        <v>262</v>
       </c>
       <c r="T89" t="n">
         <v>400</v>
@@ -7527,7 +7527,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44413</v>
+        <v>44427</v>
       </c>
       <c r="E90" t="n">
         <v>4</v>
@@ -7560,20 +7560,20 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M90" t="n">
         <v>20</v>
       </c>
       <c r="N90" t="n">
-        <v>105000</v>
+        <v>80000</v>
       </c>
       <c r="O90" t="n">
-        <v>110000</v>
+        <v>90000</v>
       </c>
       <c r="P90" t="n">
-        <v>107500</v>
+        <v>85000</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
@@ -7586,7 +7586,7 @@
         </is>
       </c>
       <c r="S90" t="n">
-        <v>269</v>
+        <v>212</v>
       </c>
       <c r="T90" t="n">
         <v>400</v>
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44413</v>
+        <v>44427</v>
       </c>
       <c r="E91" t="n">
         <v>4</v>
@@ -7635,25 +7635,25 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M91" t="n">
         <v>20</v>
       </c>
       <c r="N91" t="n">
-        <v>70000</v>
+        <v>100000</v>
       </c>
       <c r="O91" t="n">
-        <v>75000</v>
+        <v>110000</v>
       </c>
       <c r="P91" t="n">
-        <v>72500</v>
+        <v>105000</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         </is>
       </c>
       <c r="S91" t="n">
-        <v>181</v>
+        <v>262</v>
       </c>
       <c r="T91" t="n">
         <v>400</v>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44413</v>
+        <v>44427</v>
       </c>
       <c r="E92" t="n">
         <v>4</v>
@@ -7720,20 +7720,20 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M92" t="n">
         <v>20</v>
       </c>
       <c r="N92" t="n">
-        <v>110000</v>
+        <v>80000</v>
       </c>
       <c r="O92" t="n">
-        <v>115000</v>
+        <v>90000</v>
       </c>
       <c r="P92" t="n">
-        <v>112500</v>
+        <v>85000</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="S92" t="n">
-        <v>281</v>
+        <v>212</v>
       </c>
       <c r="T92" t="n">
         <v>400</v>
@@ -7795,25 +7795,25 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Cara cara</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M93" t="n">
         <v>20</v>
       </c>
       <c r="N93" t="n">
-        <v>80000</v>
+        <v>110000</v>
       </c>
       <c r="O93" t="n">
-        <v>85000</v>
+        <v>115000</v>
       </c>
       <c r="P93" t="n">
-        <v>82500</v>
+        <v>112500</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         </is>
       </c>
       <c r="S93" t="n">
-        <v>206</v>
+        <v>281</v>
       </c>
       <c r="T93" t="n">
         <v>400</v>
@@ -7875,25 +7875,25 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Cara cara</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M94" t="n">
         <v>20</v>
       </c>
       <c r="N94" t="n">
-        <v>110000</v>
+        <v>80000</v>
       </c>
       <c r="O94" t="n">
-        <v>120000</v>
+        <v>85000</v>
       </c>
       <c r="P94" t="n">
-        <v>115000</v>
+        <v>82500</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         </is>
       </c>
       <c r="S94" t="n">
-        <v>288</v>
+        <v>206</v>
       </c>
       <c r="T94" t="n">
         <v>400</v>
@@ -7955,25 +7955,25 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M95" t="n">
         <v>20</v>
       </c>
       <c r="N95" t="n">
-        <v>80000</v>
+        <v>105000</v>
       </c>
       <c r="O95" t="n">
-        <v>90000</v>
+        <v>110000</v>
       </c>
       <c r="P95" t="n">
-        <v>85000</v>
+        <v>107500</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         </is>
       </c>
       <c r="S95" t="n">
-        <v>212</v>
+        <v>269</v>
       </c>
       <c r="T95" t="n">
         <v>400</v>
@@ -8007,7 +8007,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44237</v>
+        <v>44413</v>
       </c>
       <c r="E96" t="n">
         <v>4</v>
@@ -8035,25 +8035,25 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M96" t="n">
         <v>20</v>
       </c>
       <c r="N96" t="n">
-        <v>485000</v>
+        <v>70000</v>
       </c>
       <c r="O96" t="n">
-        <v>490000</v>
+        <v>75000</v>
       </c>
       <c r="P96" t="n">
-        <v>487500</v>
+        <v>72500</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         </is>
       </c>
       <c r="S96" t="n">
-        <v>1219</v>
+        <v>181</v>
       </c>
       <c r="T96" t="n">
         <v>400</v>
@@ -8087,7 +8087,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44237</v>
+        <v>44413</v>
       </c>
       <c r="E97" t="n">
         <v>4</v>
@@ -8115,25 +8115,25 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M97" t="n">
         <v>20</v>
       </c>
       <c r="N97" t="n">
-        <v>455000</v>
+        <v>110000</v>
       </c>
       <c r="O97" t="n">
-        <v>460000</v>
+        <v>115000</v>
       </c>
       <c r="P97" t="n">
-        <v>457500</v>
+        <v>112500</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="S97" t="n">
-        <v>1144</v>
+        <v>281</v>
       </c>
       <c r="T97" t="n">
         <v>400</v>
@@ -8167,7 +8167,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44273</v>
+        <v>44413</v>
       </c>
       <c r="E98" t="n">
         <v>4</v>
@@ -8195,25 +8195,25 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M98" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N98" t="n">
-        <v>475000</v>
+        <v>80000</v>
       </c>
       <c r="O98" t="n">
-        <v>480000</v>
+        <v>85000</v>
       </c>
       <c r="P98" t="n">
-        <v>477500</v>
+        <v>82500</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         </is>
       </c>
       <c r="S98" t="n">
-        <v>1194</v>
+        <v>206</v>
       </c>
       <c r="T98" t="n">
         <v>400</v>
@@ -8247,7 +8247,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44273</v>
+        <v>44413</v>
       </c>
       <c r="E99" t="n">
         <v>4</v>
@@ -8275,7 +8275,7 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
@@ -8287,13 +8287,13 @@
         <v>20</v>
       </c>
       <c r="N99" t="n">
-        <v>455000</v>
+        <v>110000</v>
       </c>
       <c r="O99" t="n">
-        <v>460000</v>
+        <v>120000</v>
       </c>
       <c r="P99" t="n">
-        <v>457500</v>
+        <v>115000</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
@@ -8306,7 +8306,7 @@
         </is>
       </c>
       <c r="S99" t="n">
-        <v>1144</v>
+        <v>288</v>
       </c>
       <c r="T99" t="n">
         <v>400</v>
@@ -8327,7 +8327,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44273</v>
+        <v>44413</v>
       </c>
       <c r="E100" t="n">
         <v>4</v>
@@ -8355,7 +8355,7 @@
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
@@ -8367,13 +8367,13 @@
         <v>20</v>
       </c>
       <c r="N100" t="n">
-        <v>415000</v>
+        <v>80000</v>
       </c>
       <c r="O100" t="n">
-        <v>420000</v>
+        <v>90000</v>
       </c>
       <c r="P100" t="n">
-        <v>417500</v>
+        <v>85000</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         </is>
       </c>
       <c r="S100" t="n">
-        <v>1044</v>
+        <v>212</v>
       </c>
       <c r="T100" t="n">
         <v>400</v>
@@ -8407,7 +8407,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44377</v>
+        <v>44237</v>
       </c>
       <c r="E101" t="n">
         <v>4</v>
@@ -8435,7 +8435,7 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
@@ -8447,13 +8447,13 @@
         <v>20</v>
       </c>
       <c r="N101" t="n">
-        <v>115000</v>
+        <v>485000</v>
       </c>
       <c r="O101" t="n">
-        <v>120000</v>
+        <v>490000</v>
       </c>
       <c r="P101" t="n">
-        <v>117500</v>
+        <v>487500</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         </is>
       </c>
       <c r="S101" t="n">
-        <v>294</v>
+        <v>1219</v>
       </c>
       <c r="T101" t="n">
         <v>400</v>
@@ -8487,7 +8487,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44377</v>
+        <v>44237</v>
       </c>
       <c r="E102" t="n">
         <v>4</v>
@@ -8515,7 +8515,7 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
@@ -8527,13 +8527,13 @@
         <v>20</v>
       </c>
       <c r="N102" t="n">
-        <v>95000</v>
+        <v>455000</v>
       </c>
       <c r="O102" t="n">
-        <v>100000</v>
+        <v>460000</v>
       </c>
       <c r="P102" t="n">
-        <v>97500</v>
+        <v>457500</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="S102" t="n">
-        <v>244</v>
+        <v>1144</v>
       </c>
       <c r="T102" t="n">
         <v>400</v>
@@ -8567,7 +8567,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44377</v>
+        <v>44273</v>
       </c>
       <c r="E103" t="n">
         <v>4</v>
@@ -8595,25 +8595,25 @@
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M103" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N103" t="n">
-        <v>115000</v>
+        <v>475000</v>
       </c>
       <c r="O103" t="n">
-        <v>120000</v>
+        <v>480000</v>
       </c>
       <c r="P103" t="n">
-        <v>117500</v>
+        <v>477500</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         </is>
       </c>
       <c r="S103" t="n">
-        <v>294</v>
+        <v>1194</v>
       </c>
       <c r="T103" t="n">
         <v>400</v>
@@ -8647,7 +8647,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44377</v>
+        <v>44273</v>
       </c>
       <c r="E104" t="n">
         <v>4</v>
@@ -8675,25 +8675,25 @@
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M104" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="N104" t="n">
-        <v>95000</v>
+        <v>455000</v>
       </c>
       <c r="O104" t="n">
-        <v>100000</v>
+        <v>460000</v>
       </c>
       <c r="P104" t="n">
-        <v>96786</v>
+        <v>457500</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
@@ -8706,7 +8706,7 @@
         </is>
       </c>
       <c r="S104" t="n">
-        <v>242</v>
+        <v>1144</v>
       </c>
       <c r="T104" t="n">
         <v>400</v>
@@ -8727,7 +8727,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44377</v>
+        <v>44273</v>
       </c>
       <c r="E105" t="n">
         <v>4</v>
@@ -8755,25 +8755,25 @@
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M105" t="n">
         <v>20</v>
       </c>
       <c r="N105" t="n">
-        <v>115000</v>
+        <v>415000</v>
       </c>
       <c r="O105" t="n">
-        <v>120000</v>
+        <v>420000</v>
       </c>
       <c r="P105" t="n">
-        <v>117500</v>
+        <v>417500</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         </is>
       </c>
       <c r="S105" t="n">
-        <v>294</v>
+        <v>1044</v>
       </c>
       <c r="T105" t="n">
         <v>400</v>
@@ -8835,25 +8835,25 @@
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M106" t="n">
         <v>20</v>
       </c>
       <c r="N106" t="n">
-        <v>95000</v>
+        <v>115000</v>
       </c>
       <c r="O106" t="n">
-        <v>100000</v>
+        <v>120000</v>
       </c>
       <c r="P106" t="n">
-        <v>97500</v>
+        <v>117500</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
@@ -8866,7 +8866,7 @@
         </is>
       </c>
       <c r="S106" t="n">
-        <v>244</v>
+        <v>294</v>
       </c>
       <c r="T106" t="n">
         <v>400</v>
@@ -8887,7 +8887,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44321</v>
+        <v>44377</v>
       </c>
       <c r="E107" t="n">
         <v>4</v>
@@ -8920,20 +8920,20 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M107" t="n">
         <v>20</v>
       </c>
       <c r="N107" t="n">
-        <v>320000</v>
+        <v>95000</v>
       </c>
       <c r="O107" t="n">
-        <v>330000</v>
+        <v>100000</v>
       </c>
       <c r="P107" t="n">
-        <v>325000</v>
+        <v>97500</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="S107" t="n">
-        <v>812</v>
+        <v>244</v>
       </c>
       <c r="T107" t="n">
         <v>400</v>
@@ -8967,7 +8967,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44321</v>
+        <v>44377</v>
       </c>
       <c r="E108" t="n">
         <v>4</v>
@@ -8995,25 +8995,25 @@
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M108" t="n">
         <v>20</v>
       </c>
       <c r="N108" t="n">
-        <v>280000</v>
+        <v>115000</v>
       </c>
       <c r="O108" t="n">
-        <v>290000</v>
+        <v>120000</v>
       </c>
       <c r="P108" t="n">
-        <v>285000</v>
+        <v>117500</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
@@ -9026,7 +9026,7 @@
         </is>
       </c>
       <c r="S108" t="n">
-        <v>712</v>
+        <v>294</v>
       </c>
       <c r="T108" t="n">
         <v>400</v>
@@ -9047,7 +9047,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44321</v>
+        <v>44377</v>
       </c>
       <c r="E109" t="n">
         <v>4</v>
@@ -9075,25 +9075,25 @@
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M109" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="N109" t="n">
-        <v>460000</v>
+        <v>95000</v>
       </c>
       <c r="O109" t="n">
-        <v>470000</v>
+        <v>100000</v>
       </c>
       <c r="P109" t="n">
-        <v>465000</v>
+        <v>96786</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         </is>
       </c>
       <c r="S109" t="n">
-        <v>1162</v>
+        <v>242</v>
       </c>
       <c r="T109" t="n">
         <v>400</v>
@@ -9127,7 +9127,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44412</v>
+        <v>44377</v>
       </c>
       <c r="E110" t="n">
         <v>4</v>
@@ -9155,7 +9155,7 @@
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>Cara cara</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
@@ -9207,7 +9207,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44412</v>
+        <v>44377</v>
       </c>
       <c r="E111" t="n">
         <v>4</v>
@@ -9235,7 +9235,7 @@
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>Cara cara</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L111" t="inlineStr">
@@ -9247,13 +9247,13 @@
         <v>20</v>
       </c>
       <c r="N111" t="n">
-        <v>85000</v>
+        <v>95000</v>
       </c>
       <c r="O111" t="n">
-        <v>90000</v>
+        <v>100000</v>
       </c>
       <c r="P111" t="n">
-        <v>87500</v>
+        <v>97500</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
@@ -9266,7 +9266,7 @@
         </is>
       </c>
       <c r="S111" t="n">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="T111" t="n">
         <v>400</v>
@@ -9287,7 +9287,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44412</v>
+        <v>44426</v>
       </c>
       <c r="E112" t="n">
         <v>4</v>
@@ -9315,7 +9315,7 @@
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Cara cara</t>
         </is>
       </c>
       <c r="L112" t="inlineStr">
@@ -9327,13 +9327,13 @@
         <v>20</v>
       </c>
       <c r="N112" t="n">
-        <v>105000</v>
+        <v>100000</v>
       </c>
       <c r="O112" t="n">
         <v>110000</v>
       </c>
       <c r="P112" t="n">
-        <v>107500</v>
+        <v>105000</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="S112" t="n">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="T112" t="n">
         <v>400</v>
@@ -9367,7 +9367,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44412</v>
+        <v>44426</v>
       </c>
       <c r="E113" t="n">
         <v>4</v>
@@ -9395,7 +9395,7 @@
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Cara cara</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
@@ -9407,13 +9407,13 @@
         <v>20</v>
       </c>
       <c r="N113" t="n">
-        <v>75000</v>
+        <v>80000</v>
       </c>
       <c r="O113" t="n">
-        <v>80000</v>
+        <v>90000</v>
       </c>
       <c r="P113" t="n">
-        <v>77500</v>
+        <v>85000</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         </is>
       </c>
       <c r="S113" t="n">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="T113" t="n">
         <v>400</v>
@@ -9447,7 +9447,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44412</v>
+        <v>44426</v>
       </c>
       <c r="E114" t="n">
         <v>4</v>
@@ -9475,7 +9475,7 @@
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
@@ -9487,13 +9487,13 @@
         <v>20</v>
       </c>
       <c r="N114" t="n">
-        <v>115000</v>
+        <v>100000</v>
       </c>
       <c r="O114" t="n">
-        <v>120000</v>
+        <v>110000</v>
       </c>
       <c r="P114" t="n">
-        <v>117500</v>
+        <v>105000</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
@@ -9506,7 +9506,7 @@
         </is>
       </c>
       <c r="S114" t="n">
-        <v>294</v>
+        <v>262</v>
       </c>
       <c r="T114" t="n">
         <v>400</v>
@@ -9527,7 +9527,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44412</v>
+        <v>44426</v>
       </c>
       <c r="E115" t="n">
         <v>4</v>
@@ -9555,7 +9555,7 @@
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
@@ -9567,13 +9567,13 @@
         <v>20</v>
       </c>
       <c r="N115" t="n">
-        <v>85000</v>
+        <v>80000</v>
       </c>
       <c r="O115" t="n">
         <v>90000</v>
       </c>
       <c r="P115" t="n">
-        <v>87500</v>
+        <v>85000</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
@@ -9586,7 +9586,7 @@
         </is>
       </c>
       <c r="S115" t="n">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="T115" t="n">
         <v>400</v>
@@ -9607,7 +9607,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44412</v>
+        <v>44426</v>
       </c>
       <c r="E116" t="n">
         <v>4</v>
@@ -9635,7 +9635,7 @@
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
@@ -9647,13 +9647,13 @@
         <v>20</v>
       </c>
       <c r="N116" t="n">
-        <v>115000</v>
+        <v>100000</v>
       </c>
       <c r="O116" t="n">
-        <v>120000</v>
+        <v>110000</v>
       </c>
       <c r="P116" t="n">
-        <v>117500</v>
+        <v>105000</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         </is>
       </c>
       <c r="S116" t="n">
-        <v>294</v>
+        <v>262</v>
       </c>
       <c r="T116" t="n">
         <v>400</v>
@@ -9687,7 +9687,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44412</v>
+        <v>44426</v>
       </c>
       <c r="E117" t="n">
         <v>4</v>
@@ -9715,7 +9715,7 @@
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
@@ -9727,13 +9727,13 @@
         <v>20</v>
       </c>
       <c r="N117" t="n">
-        <v>85000</v>
+        <v>80000</v>
       </c>
       <c r="O117" t="n">
         <v>90000</v>
       </c>
       <c r="P117" t="n">
-        <v>87500</v>
+        <v>85000</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="S117" t="n">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="T117" t="n">
         <v>400</v>
@@ -9767,7 +9767,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44336</v>
+        <v>44426</v>
       </c>
       <c r="E118" t="n">
         <v>4</v>
@@ -9795,7 +9795,7 @@
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
@@ -9807,13 +9807,13 @@
         <v>20</v>
       </c>
       <c r="N118" t="n">
-        <v>250000</v>
+        <v>100000</v>
       </c>
       <c r="O118" t="n">
-        <v>255000</v>
+        <v>110000</v>
       </c>
       <c r="P118" t="n">
-        <v>252500</v>
+        <v>105000</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         </is>
       </c>
       <c r="S118" t="n">
-        <v>631</v>
+        <v>262</v>
       </c>
       <c r="T118" t="n">
         <v>400</v>
@@ -9847,7 +9847,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44336</v>
+        <v>44426</v>
       </c>
       <c r="E119" t="n">
         <v>4</v>
@@ -9875,25 +9875,25 @@
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M119" t="n">
         <v>20</v>
       </c>
       <c r="N119" t="n">
-        <v>250000</v>
+        <v>80000</v>
       </c>
       <c r="O119" t="n">
-        <v>255000</v>
+        <v>90000</v>
       </c>
       <c r="P119" t="n">
-        <v>252500</v>
+        <v>85000</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
@@ -9906,7 +9906,7 @@
         </is>
       </c>
       <c r="S119" t="n">
-        <v>631</v>
+        <v>212</v>
       </c>
       <c r="T119" t="n">
         <v>400</v>
@@ -9927,7 +9927,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44300</v>
+        <v>44321</v>
       </c>
       <c r="E120" t="n">
         <v>4</v>
@@ -9955,25 +9955,25 @@
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M120" t="n">
         <v>20</v>
       </c>
       <c r="N120" t="n">
-        <v>495000</v>
+        <v>320000</v>
       </c>
       <c r="O120" t="n">
-        <v>500000</v>
+        <v>330000</v>
       </c>
       <c r="P120" t="n">
-        <v>497500</v>
+        <v>325000</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         </is>
       </c>
       <c r="S120" t="n">
-        <v>1244</v>
+        <v>812</v>
       </c>
       <c r="T120" t="n">
         <v>400</v>
@@ -10007,7 +10007,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44300</v>
+        <v>44321</v>
       </c>
       <c r="E121" t="n">
         <v>4</v>
@@ -10035,25 +10035,25 @@
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M121" t="n">
         <v>20</v>
       </c>
       <c r="N121" t="n">
-        <v>475000</v>
+        <v>280000</v>
       </c>
       <c r="O121" t="n">
-        <v>480000</v>
+        <v>290000</v>
       </c>
       <c r="P121" t="n">
-        <v>477500</v>
+        <v>285000</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
@@ -10066,7 +10066,7 @@
         </is>
       </c>
       <c r="S121" t="n">
-        <v>1194</v>
+        <v>712</v>
       </c>
       <c r="T121" t="n">
         <v>400</v>
@@ -10087,7 +10087,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44371</v>
+        <v>44321</v>
       </c>
       <c r="E122" t="n">
         <v>4</v>
@@ -10115,7 +10115,7 @@
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L122" t="inlineStr">
@@ -10124,16 +10124,16 @@
         </is>
       </c>
       <c r="M122" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N122" t="n">
-        <v>125000</v>
+        <v>460000</v>
       </c>
       <c r="O122" t="n">
-        <v>130000</v>
+        <v>470000</v>
       </c>
       <c r="P122" t="n">
-        <v>127500</v>
+        <v>465000</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="S122" t="n">
-        <v>319</v>
+        <v>1162</v>
       </c>
       <c r="T122" t="n">
         <v>400</v>
@@ -10167,7 +10167,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44371</v>
+        <v>44412</v>
       </c>
       <c r="E123" t="n">
         <v>4</v>
@@ -10195,25 +10195,25 @@
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Cara cara</t>
         </is>
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M123" t="n">
         <v>20</v>
       </c>
       <c r="N123" t="n">
-        <v>105000</v>
+        <v>115000</v>
       </c>
       <c r="O123" t="n">
-        <v>110000</v>
+        <v>120000</v>
       </c>
       <c r="P123" t="n">
-        <v>107500</v>
+        <v>117500</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         </is>
       </c>
       <c r="S123" t="n">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="T123" t="n">
         <v>400</v>
@@ -10247,7 +10247,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44371</v>
+        <v>44412</v>
       </c>
       <c r="E124" t="n">
         <v>4</v>
@@ -10275,25 +10275,25 @@
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Cara cara</t>
         </is>
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M124" t="n">
         <v>20</v>
       </c>
       <c r="N124" t="n">
-        <v>155000</v>
+        <v>85000</v>
       </c>
       <c r="O124" t="n">
-        <v>160000</v>
+        <v>90000</v>
       </c>
       <c r="P124" t="n">
-        <v>157500</v>
+        <v>87500</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
@@ -10306,7 +10306,7 @@
         </is>
       </c>
       <c r="S124" t="n">
-        <v>394</v>
+        <v>219</v>
       </c>
       <c r="T124" t="n">
         <v>400</v>
@@ -10327,7 +10327,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44371</v>
+        <v>44412</v>
       </c>
       <c r="E125" t="n">
         <v>4</v>
@@ -10355,7 +10355,7 @@
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L125" t="inlineStr">
@@ -10364,16 +10364,16 @@
         </is>
       </c>
       <c r="M125" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N125" t="n">
-        <v>135000</v>
+        <v>105000</v>
       </c>
       <c r="O125" t="n">
-        <v>140000</v>
+        <v>110000</v>
       </c>
       <c r="P125" t="n">
-        <v>137500</v>
+        <v>107500</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         </is>
       </c>
       <c r="S125" t="n">
-        <v>344</v>
+        <v>269</v>
       </c>
       <c r="T125" t="n">
         <v>400</v>
@@ -10407,7 +10407,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44371</v>
+        <v>44412</v>
       </c>
       <c r="E126" t="n">
         <v>4</v>
@@ -10435,7 +10435,7 @@
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L126" t="inlineStr">
@@ -10444,16 +10444,16 @@
         </is>
       </c>
       <c r="M126" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N126" t="n">
-        <v>115000</v>
+        <v>75000</v>
       </c>
       <c r="O126" t="n">
-        <v>120000</v>
+        <v>80000</v>
       </c>
       <c r="P126" t="n">
-        <v>117500</v>
+        <v>77500</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
@@ -10466,7 +10466,7 @@
         </is>
       </c>
       <c r="S126" t="n">
-        <v>294</v>
+        <v>194</v>
       </c>
       <c r="T126" t="n">
         <v>400</v>
@@ -10487,7 +10487,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44371</v>
+        <v>44412</v>
       </c>
       <c r="E127" t="n">
         <v>4</v>
@@ -10515,7 +10515,7 @@
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L127" t="inlineStr">
@@ -10527,13 +10527,13 @@
         <v>20</v>
       </c>
       <c r="N127" t="n">
-        <v>135000</v>
+        <v>115000</v>
       </c>
       <c r="O127" t="n">
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="P127" t="n">
-        <v>137500</v>
+        <v>117500</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="S127" t="n">
-        <v>344</v>
+        <v>294</v>
       </c>
       <c r="T127" t="n">
         <v>400</v>
@@ -10567,7 +10567,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44371</v>
+        <v>44412</v>
       </c>
       <c r="E128" t="n">
         <v>4</v>
@@ -10595,7 +10595,7 @@
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L128" t="inlineStr">
@@ -10604,16 +10604,16 @@
         </is>
       </c>
       <c r="M128" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N128" t="n">
-        <v>115000</v>
+        <v>85000</v>
       </c>
       <c r="O128" t="n">
-        <v>120000</v>
+        <v>90000</v>
       </c>
       <c r="P128" t="n">
-        <v>117500</v>
+        <v>87500</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
@@ -10626,7 +10626,7 @@
         </is>
       </c>
       <c r="S128" t="n">
-        <v>294</v>
+        <v>219</v>
       </c>
       <c r="T128" t="n">
         <v>400</v>
@@ -10647,7 +10647,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44238</v>
+        <v>44412</v>
       </c>
       <c r="E129" t="n">
         <v>4</v>
@@ -10675,7 +10675,7 @@
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L129" t="inlineStr">
@@ -10687,13 +10687,13 @@
         <v>20</v>
       </c>
       <c r="N129" t="n">
-        <v>485000</v>
+        <v>115000</v>
       </c>
       <c r="O129" t="n">
-        <v>490000</v>
+        <v>120000</v>
       </c>
       <c r="P129" t="n">
-        <v>487500</v>
+        <v>117500</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
@@ -10706,7 +10706,7 @@
         </is>
       </c>
       <c r="S129" t="n">
-        <v>1219</v>
+        <v>294</v>
       </c>
       <c r="T129" t="n">
         <v>400</v>
@@ -10727,7 +10727,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44238</v>
+        <v>44412</v>
       </c>
       <c r="E130" t="n">
         <v>4</v>
@@ -10755,7 +10755,7 @@
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L130" t="inlineStr">
@@ -10767,13 +10767,13 @@
         <v>20</v>
       </c>
       <c r="N130" t="n">
-        <v>455000</v>
+        <v>85000</v>
       </c>
       <c r="O130" t="n">
-        <v>460000</v>
+        <v>90000</v>
       </c>
       <c r="P130" t="n">
-        <v>457500</v>
+        <v>87500</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         </is>
       </c>
       <c r="S130" t="n">
-        <v>1144</v>
+        <v>219</v>
       </c>
       <c r="T130" t="n">
         <v>400</v>
@@ -10807,7 +10807,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44314</v>
+        <v>44336</v>
       </c>
       <c r="E131" t="n">
         <v>4</v>
@@ -10847,13 +10847,13 @@
         <v>20</v>
       </c>
       <c r="N131" t="n">
-        <v>355000</v>
+        <v>250000</v>
       </c>
       <c r="O131" t="n">
-        <v>360000</v>
+        <v>255000</v>
       </c>
       <c r="P131" t="n">
-        <v>357500</v>
+        <v>252500</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
@@ -10866,7 +10866,7 @@
         </is>
       </c>
       <c r="S131" t="n">
-        <v>894</v>
+        <v>631</v>
       </c>
       <c r="T131" t="n">
         <v>400</v>
@@ -10887,7 +10887,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44314</v>
+        <v>44336</v>
       </c>
       <c r="E132" t="n">
         <v>4</v>
@@ -10915,25 +10915,25 @@
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M132" t="n">
         <v>20</v>
       </c>
       <c r="N132" t="n">
-        <v>325000</v>
+        <v>250000</v>
       </c>
       <c r="O132" t="n">
-        <v>330000</v>
+        <v>255000</v>
       </c>
       <c r="P132" t="n">
-        <v>327500</v>
+        <v>252500</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="S132" t="n">
-        <v>819</v>
+        <v>631</v>
       </c>
       <c r="T132" t="n">
         <v>400</v>
@@ -10967,7 +10967,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44314</v>
+        <v>44300</v>
       </c>
       <c r="E133" t="n">
         <v>4</v>
@@ -10995,25 +10995,25 @@
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M133" t="n">
         <v>20</v>
       </c>
       <c r="N133" t="n">
-        <v>355000</v>
+        <v>495000</v>
       </c>
       <c r="O133" t="n">
-        <v>360000</v>
+        <v>500000</v>
       </c>
       <c r="P133" t="n">
-        <v>357500</v>
+        <v>497500</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
@@ -11026,7 +11026,7 @@
         </is>
       </c>
       <c r="S133" t="n">
-        <v>894</v>
+        <v>1244</v>
       </c>
       <c r="T133" t="n">
         <v>400</v>
@@ -11047,7 +11047,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44314</v>
+        <v>44300</v>
       </c>
       <c r="E134" t="n">
         <v>4</v>
@@ -11075,25 +11075,25 @@
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M134" t="n">
         <v>20</v>
       </c>
       <c r="N134" t="n">
-        <v>325000</v>
+        <v>475000</v>
       </c>
       <c r="O134" t="n">
-        <v>330000</v>
+        <v>480000</v>
       </c>
       <c r="P134" t="n">
-        <v>327500</v>
+        <v>477500</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
@@ -11106,7 +11106,7 @@
         </is>
       </c>
       <c r="S134" t="n">
-        <v>819</v>
+        <v>1194</v>
       </c>
       <c r="T134" t="n">
         <v>400</v>
@@ -11127,7 +11127,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44314</v>
+        <v>44371</v>
       </c>
       <c r="E135" t="n">
         <v>4</v>
@@ -11155,7 +11155,7 @@
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L135" t="inlineStr">
@@ -11167,13 +11167,13 @@
         <v>20</v>
       </c>
       <c r="N135" t="n">
-        <v>470000</v>
+        <v>125000</v>
       </c>
       <c r="O135" t="n">
-        <v>480000</v>
+        <v>130000</v>
       </c>
       <c r="P135" t="n">
-        <v>475000</v>
+        <v>127500</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
@@ -11186,7 +11186,7 @@
         </is>
       </c>
       <c r="S135" t="n">
-        <v>1188</v>
+        <v>319</v>
       </c>
       <c r="T135" t="n">
         <v>400</v>
@@ -11207,7 +11207,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44364</v>
+        <v>44371</v>
       </c>
       <c r="E136" t="n">
         <v>4</v>
@@ -11240,20 +11240,20 @@
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M136" t="n">
         <v>20</v>
       </c>
       <c r="N136" t="n">
-        <v>135000</v>
+        <v>105000</v>
       </c>
       <c r="O136" t="n">
-        <v>140000</v>
+        <v>110000</v>
       </c>
       <c r="P136" t="n">
-        <v>137500</v>
+        <v>107500</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         </is>
       </c>
       <c r="S136" t="n">
-        <v>344</v>
+        <v>269</v>
       </c>
       <c r="T136" t="n">
         <v>400</v>
@@ -11287,7 +11287,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44364</v>
+        <v>44371</v>
       </c>
       <c r="E137" t="n">
         <v>4</v>
@@ -11315,25 +11315,25 @@
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M137" t="n">
         <v>20</v>
       </c>
       <c r="N137" t="n">
-        <v>115000</v>
+        <v>155000</v>
       </c>
       <c r="O137" t="n">
-        <v>120000</v>
+        <v>160000</v>
       </c>
       <c r="P137" t="n">
-        <v>117500</v>
+        <v>157500</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="S137" t="n">
-        <v>294</v>
+        <v>394</v>
       </c>
       <c r="T137" t="n">
         <v>400</v>
@@ -11367,7 +11367,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44364</v>
+        <v>44371</v>
       </c>
       <c r="E138" t="n">
         <v>4</v>
@@ -11404,16 +11404,16 @@
         </is>
       </c>
       <c r="M138" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N138" t="n">
-        <v>150000</v>
+        <v>135000</v>
       </c>
       <c r="O138" t="n">
-        <v>155000</v>
+        <v>140000</v>
       </c>
       <c r="P138" t="n">
-        <v>152500</v>
+        <v>137500</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
@@ -11426,7 +11426,7 @@
         </is>
       </c>
       <c r="S138" t="n">
-        <v>381</v>
+        <v>344</v>
       </c>
       <c r="T138" t="n">
         <v>400</v>
@@ -11447,7 +11447,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44364</v>
+        <v>44371</v>
       </c>
       <c r="E139" t="n">
         <v>4</v>
@@ -11484,16 +11484,16 @@
         </is>
       </c>
       <c r="M139" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N139" t="n">
-        <v>130000</v>
+        <v>115000</v>
       </c>
       <c r="O139" t="n">
-        <v>135000</v>
+        <v>120000</v>
       </c>
       <c r="P139" t="n">
-        <v>132500</v>
+        <v>117500</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
@@ -11506,7 +11506,7 @@
         </is>
       </c>
       <c r="S139" t="n">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="T139" t="n">
         <v>400</v>
@@ -11527,7 +11527,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44364</v>
+        <v>44371</v>
       </c>
       <c r="E140" t="n">
         <v>4</v>
@@ -11567,13 +11567,13 @@
         <v>20</v>
       </c>
       <c r="N140" t="n">
-        <v>150000</v>
+        <v>135000</v>
       </c>
       <c r="O140" t="n">
-        <v>155000</v>
+        <v>140000</v>
       </c>
       <c r="P140" t="n">
-        <v>152500</v>
+        <v>137500</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
@@ -11586,7 +11586,7 @@
         </is>
       </c>
       <c r="S140" t="n">
-        <v>381</v>
+        <v>344</v>
       </c>
       <c r="T140" t="n">
         <v>400</v>
@@ -11607,7 +11607,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44364</v>
+        <v>44371</v>
       </c>
       <c r="E141" t="n">
         <v>4</v>
@@ -11644,16 +11644,16 @@
         </is>
       </c>
       <c r="M141" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N141" t="n">
-        <v>130000</v>
+        <v>115000</v>
       </c>
       <c r="O141" t="n">
-        <v>135000</v>
+        <v>120000</v>
       </c>
       <c r="P141" t="n">
-        <v>132500</v>
+        <v>117500</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         </is>
       </c>
       <c r="S141" t="n">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="T141" t="n">
         <v>400</v>
@@ -11687,7 +11687,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44405</v>
+        <v>44238</v>
       </c>
       <c r="E142" t="n">
         <v>4</v>
@@ -11715,7 +11715,7 @@
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>Cara cara</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L142" t="inlineStr">
@@ -11727,13 +11727,13 @@
         <v>20</v>
       </c>
       <c r="N142" t="n">
-        <v>115000</v>
+        <v>485000</v>
       </c>
       <c r="O142" t="n">
-        <v>120000</v>
+        <v>490000</v>
       </c>
       <c r="P142" t="n">
-        <v>117500</v>
+        <v>487500</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="S142" t="n">
-        <v>294</v>
+        <v>1219</v>
       </c>
       <c r="T142" t="n">
         <v>400</v>
@@ -11767,7 +11767,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44405</v>
+        <v>44238</v>
       </c>
       <c r="E143" t="n">
         <v>4</v>
@@ -11795,7 +11795,7 @@
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>Cara cara</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L143" t="inlineStr">
@@ -11804,16 +11804,16 @@
         </is>
       </c>
       <c r="M143" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N143" t="n">
-        <v>95000</v>
+        <v>455000</v>
       </c>
       <c r="O143" t="n">
-        <v>100000</v>
+        <v>460000</v>
       </c>
       <c r="P143" t="n">
-        <v>97500</v>
+        <v>457500</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
@@ -11826,7 +11826,7 @@
         </is>
       </c>
       <c r="S143" t="n">
-        <v>244</v>
+        <v>1144</v>
       </c>
       <c r="T143" t="n">
         <v>400</v>
@@ -11847,7 +11847,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44405</v>
+        <v>44314</v>
       </c>
       <c r="E144" t="n">
         <v>4</v>
@@ -11887,13 +11887,13 @@
         <v>20</v>
       </c>
       <c r="N144" t="n">
-        <v>100000</v>
+        <v>355000</v>
       </c>
       <c r="O144" t="n">
-        <v>110000</v>
+        <v>360000</v>
       </c>
       <c r="P144" t="n">
-        <v>105000</v>
+        <v>357500</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
@@ -11906,7 +11906,7 @@
         </is>
       </c>
       <c r="S144" t="n">
-        <v>262</v>
+        <v>894</v>
       </c>
       <c r="T144" t="n">
         <v>400</v>
@@ -11927,7 +11927,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44405</v>
+        <v>44314</v>
       </c>
       <c r="E145" t="n">
         <v>4</v>
@@ -11967,13 +11967,13 @@
         <v>20</v>
       </c>
       <c r="N145" t="n">
-        <v>80000</v>
+        <v>325000</v>
       </c>
       <c r="O145" t="n">
-        <v>90000</v>
+        <v>330000</v>
       </c>
       <c r="P145" t="n">
-        <v>85000</v>
+        <v>327500</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         </is>
       </c>
       <c r="S145" t="n">
-        <v>212</v>
+        <v>819</v>
       </c>
       <c r="T145" t="n">
         <v>400</v>
@@ -12007,7 +12007,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44405</v>
+        <v>44314</v>
       </c>
       <c r="E146" t="n">
         <v>4</v>
@@ -12035,7 +12035,7 @@
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L146" t="inlineStr">
@@ -12047,13 +12047,13 @@
         <v>20</v>
       </c>
       <c r="N146" t="n">
-        <v>100000</v>
+        <v>355000</v>
       </c>
       <c r="O146" t="n">
-        <v>110000</v>
+        <v>360000</v>
       </c>
       <c r="P146" t="n">
-        <v>105000</v>
+        <v>357500</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         </is>
       </c>
       <c r="S146" t="n">
-        <v>262</v>
+        <v>894</v>
       </c>
       <c r="T146" t="n">
         <v>400</v>
@@ -12087,7 +12087,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44405</v>
+        <v>44314</v>
       </c>
       <c r="E147" t="n">
         <v>4</v>
@@ -12115,7 +12115,7 @@
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L147" t="inlineStr">
@@ -12127,13 +12127,13 @@
         <v>20</v>
       </c>
       <c r="N147" t="n">
-        <v>80000</v>
+        <v>325000</v>
       </c>
       <c r="O147" t="n">
-        <v>90000</v>
+        <v>330000</v>
       </c>
       <c r="P147" t="n">
-        <v>85000</v>
+        <v>327500</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="S147" t="n">
-        <v>212</v>
+        <v>819</v>
       </c>
       <c r="T147" t="n">
         <v>400</v>
@@ -12167,7 +12167,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44224</v>
+        <v>44314</v>
       </c>
       <c r="E148" t="n">
         <v>4</v>
@@ -12200,20 +12200,20 @@
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M148" t="n">
         <v>20</v>
       </c>
       <c r="N148" t="n">
-        <v>515000</v>
+        <v>470000</v>
       </c>
       <c r="O148" t="n">
-        <v>520000</v>
+        <v>480000</v>
       </c>
       <c r="P148" t="n">
-        <v>517500</v>
+        <v>475000</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
@@ -12226,7 +12226,7 @@
         </is>
       </c>
       <c r="S148" t="n">
-        <v>1294</v>
+        <v>1188</v>
       </c>
       <c r="T148" t="n">
         <v>400</v>
@@ -12247,7 +12247,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44224</v>
+        <v>44364</v>
       </c>
       <c r="E149" t="n">
         <v>4</v>
@@ -12275,7 +12275,7 @@
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L149" t="inlineStr">
@@ -12287,13 +12287,13 @@
         <v>20</v>
       </c>
       <c r="N149" t="n">
-        <v>495000</v>
+        <v>135000</v>
       </c>
       <c r="O149" t="n">
-        <v>500000</v>
+        <v>140000</v>
       </c>
       <c r="P149" t="n">
-        <v>497500</v>
+        <v>137500</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
@@ -12306,7 +12306,7 @@
         </is>
       </c>
       <c r="S149" t="n">
-        <v>1244</v>
+        <v>344</v>
       </c>
       <c r="T149" t="n">
         <v>400</v>
@@ -12327,7 +12327,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44209</v>
+        <v>44364</v>
       </c>
       <c r="E150" t="n">
         <v>4</v>
@@ -12355,25 +12355,25 @@
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M150" t="n">
         <v>20</v>
       </c>
       <c r="N150" t="n">
-        <v>465000</v>
+        <v>115000</v>
       </c>
       <c r="O150" t="n">
-        <v>470000</v>
+        <v>120000</v>
       </c>
       <c r="P150" t="n">
-        <v>467500</v>
+        <v>117500</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
@@ -12386,7 +12386,7 @@
         </is>
       </c>
       <c r="S150" t="n">
-        <v>1169</v>
+        <v>294</v>
       </c>
       <c r="T150" t="n">
         <v>400</v>
@@ -12407,7 +12407,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44209</v>
+        <v>44364</v>
       </c>
       <c r="E151" t="n">
         <v>4</v>
@@ -12435,7 +12435,7 @@
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L151" t="inlineStr">
@@ -12447,13 +12447,13 @@
         <v>20</v>
       </c>
       <c r="N151" t="n">
-        <v>415000</v>
+        <v>150000</v>
       </c>
       <c r="O151" t="n">
-        <v>420000</v>
+        <v>155000</v>
       </c>
       <c r="P151" t="n">
-        <v>417500</v>
+        <v>152500</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         </is>
       </c>
       <c r="S151" t="n">
-        <v>1044</v>
+        <v>381</v>
       </c>
       <c r="T151" t="n">
         <v>400</v>
@@ -12487,7 +12487,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44209</v>
+        <v>44364</v>
       </c>
       <c r="E152" t="n">
         <v>4</v>
@@ -12515,7 +12515,7 @@
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L152" t="inlineStr">
@@ -12527,13 +12527,13 @@
         <v>20</v>
       </c>
       <c r="N152" t="n">
-        <v>365000</v>
+        <v>130000</v>
       </c>
       <c r="O152" t="n">
-        <v>370000</v>
+        <v>135000</v>
       </c>
       <c r="P152" t="n">
-        <v>367500</v>
+        <v>132500</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="S152" t="n">
-        <v>919</v>
+        <v>331</v>
       </c>
       <c r="T152" t="n">
         <v>400</v>
@@ -12567,7 +12567,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44231</v>
+        <v>44364</v>
       </c>
       <c r="E153" t="n">
         <v>4</v>
@@ -12595,7 +12595,7 @@
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L153" t="inlineStr">
@@ -12607,13 +12607,13 @@
         <v>20</v>
       </c>
       <c r="N153" t="n">
-        <v>485000</v>
+        <v>150000</v>
       </c>
       <c r="O153" t="n">
-        <v>490000</v>
+        <v>155000</v>
       </c>
       <c r="P153" t="n">
-        <v>487500</v>
+        <v>152500</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
@@ -12626,7 +12626,7 @@
         </is>
       </c>
       <c r="S153" t="n">
-        <v>1219</v>
+        <v>381</v>
       </c>
       <c r="T153" t="n">
         <v>400</v>
@@ -12647,7 +12647,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44231</v>
+        <v>44364</v>
       </c>
       <c r="E154" t="n">
         <v>4</v>
@@ -12675,7 +12675,7 @@
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L154" t="inlineStr">
@@ -12687,13 +12687,13 @@
         <v>20</v>
       </c>
       <c r="N154" t="n">
-        <v>455000</v>
+        <v>130000</v>
       </c>
       <c r="O154" t="n">
-        <v>460000</v>
+        <v>135000</v>
       </c>
       <c r="P154" t="n">
-        <v>457500</v>
+        <v>132500</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
@@ -12706,7 +12706,7 @@
         </is>
       </c>
       <c r="S154" t="n">
-        <v>1144</v>
+        <v>331</v>
       </c>
       <c r="T154" t="n">
         <v>400</v>
@@ -12727,7 +12727,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44391</v>
+        <v>44405</v>
       </c>
       <c r="E155" t="n">
         <v>4</v>
@@ -12755,7 +12755,7 @@
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Cara cara</t>
         </is>
       </c>
       <c r="L155" t="inlineStr">
@@ -12767,13 +12767,13 @@
         <v>20</v>
       </c>
       <c r="N155" t="n">
-        <v>100000</v>
+        <v>115000</v>
       </c>
       <c r="O155" t="n">
-        <v>110000</v>
+        <v>120000</v>
       </c>
       <c r="P155" t="n">
-        <v>105000</v>
+        <v>117500</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         </is>
       </c>
       <c r="S155" t="n">
-        <v>262</v>
+        <v>294</v>
       </c>
       <c r="T155" t="n">
         <v>400</v>
@@ -12807,7 +12807,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44391</v>
+        <v>44405</v>
       </c>
       <c r="E156" t="n">
         <v>4</v>
@@ -12835,7 +12835,7 @@
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Cara cara</t>
         </is>
       </c>
       <c r="L156" t="inlineStr">
@@ -12844,16 +12844,16 @@
         </is>
       </c>
       <c r="M156" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N156" t="n">
-        <v>80000</v>
+        <v>95000</v>
       </c>
       <c r="O156" t="n">
-        <v>90000</v>
+        <v>100000</v>
       </c>
       <c r="P156" t="n">
-        <v>85000</v>
+        <v>97500</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
@@ -12866,7 +12866,7 @@
         </is>
       </c>
       <c r="S156" t="n">
-        <v>212</v>
+        <v>244</v>
       </c>
       <c r="T156" t="n">
         <v>400</v>
@@ -12887,7 +12887,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44391</v>
+        <v>44405</v>
       </c>
       <c r="E157" t="n">
         <v>4</v>
@@ -12915,7 +12915,7 @@
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L157" t="inlineStr">
@@ -12967,7 +12967,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44391</v>
+        <v>44405</v>
       </c>
       <c r="E158" t="n">
         <v>4</v>
@@ -12995,7 +12995,7 @@
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L158" t="inlineStr">
@@ -13047,7 +13047,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44350</v>
+        <v>44405</v>
       </c>
       <c r="E159" t="n">
         <v>4</v>
@@ -13075,7 +13075,7 @@
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L159" t="inlineStr">
@@ -13087,13 +13087,13 @@
         <v>20</v>
       </c>
       <c r="N159" t="n">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="O159" t="n">
-        <v>210000</v>
+        <v>110000</v>
       </c>
       <c r="P159" t="n">
-        <v>205000</v>
+        <v>105000</v>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         </is>
       </c>
       <c r="S159" t="n">
-        <v>512</v>
+        <v>262</v>
       </c>
       <c r="T159" t="n">
         <v>400</v>
@@ -13127,7 +13127,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44350</v>
+        <v>44405</v>
       </c>
       <c r="E160" t="n">
         <v>4</v>
@@ -13155,7 +13155,7 @@
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L160" t="inlineStr">
@@ -13167,13 +13167,13 @@
         <v>20</v>
       </c>
       <c r="N160" t="n">
-        <v>170000</v>
+        <v>80000</v>
       </c>
       <c r="O160" t="n">
-        <v>180000</v>
+        <v>90000</v>
       </c>
       <c r="P160" t="n">
-        <v>175000</v>
+        <v>85000</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         </is>
       </c>
       <c r="S160" t="n">
-        <v>438</v>
+        <v>212</v>
       </c>
       <c r="T160" t="n">
         <v>400</v>
@@ -13207,7 +13207,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44350</v>
+        <v>44224</v>
       </c>
       <c r="E161" t="n">
         <v>4</v>
@@ -13235,25 +13235,25 @@
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M161" t="n">
         <v>20</v>
       </c>
       <c r="N161" t="n">
-        <v>200000</v>
+        <v>515000</v>
       </c>
       <c r="O161" t="n">
-        <v>210000</v>
+        <v>520000</v>
       </c>
       <c r="P161" t="n">
-        <v>205000</v>
+        <v>517500</v>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
@@ -13266,7 +13266,7 @@
         </is>
       </c>
       <c r="S161" t="n">
-        <v>512</v>
+        <v>1294</v>
       </c>
       <c r="T161" t="n">
         <v>400</v>
@@ -13287,7 +13287,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44350</v>
+        <v>44224</v>
       </c>
       <c r="E162" t="n">
         <v>4</v>
@@ -13315,25 +13315,25 @@
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M162" t="n">
         <v>20</v>
       </c>
       <c r="N162" t="n">
-        <v>170000</v>
+        <v>495000</v>
       </c>
       <c r="O162" t="n">
-        <v>180000</v>
+        <v>500000</v>
       </c>
       <c r="P162" t="n">
-        <v>175000</v>
+        <v>497500</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="S162" t="n">
-        <v>438</v>
+        <v>1244</v>
       </c>
       <c r="T162" t="n">
         <v>400</v>
@@ -13367,7 +13367,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44315</v>
+        <v>44209</v>
       </c>
       <c r="E163" t="n">
         <v>4</v>
@@ -13395,25 +13395,25 @@
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M163" t="n">
         <v>20</v>
       </c>
       <c r="N163" t="n">
-        <v>355000</v>
+        <v>465000</v>
       </c>
       <c r="O163" t="n">
-        <v>360000</v>
+        <v>470000</v>
       </c>
       <c r="P163" t="n">
-        <v>357500</v>
+        <v>467500</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
@@ -13426,7 +13426,7 @@
         </is>
       </c>
       <c r="S163" t="n">
-        <v>894</v>
+        <v>1169</v>
       </c>
       <c r="T163" t="n">
         <v>400</v>
@@ -13447,7 +13447,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44315</v>
+        <v>44209</v>
       </c>
       <c r="E164" t="n">
         <v>4</v>
@@ -13475,25 +13475,25 @@
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M164" t="n">
         <v>20</v>
       </c>
       <c r="N164" t="n">
-        <v>325000</v>
+        <v>415000</v>
       </c>
       <c r="O164" t="n">
-        <v>330000</v>
+        <v>420000</v>
       </c>
       <c r="P164" t="n">
-        <v>327500</v>
+        <v>417500</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         </is>
       </c>
       <c r="S164" t="n">
-        <v>819</v>
+        <v>1044</v>
       </c>
       <c r="T164" t="n">
         <v>400</v>
@@ -13527,7 +13527,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44315</v>
+        <v>44209</v>
       </c>
       <c r="E165" t="n">
         <v>4</v>
@@ -13555,25 +13555,25 @@
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M165" t="n">
         <v>20</v>
       </c>
       <c r="N165" t="n">
-        <v>355000</v>
+        <v>365000</v>
       </c>
       <c r="O165" t="n">
-        <v>360000</v>
+        <v>370000</v>
       </c>
       <c r="P165" t="n">
-        <v>357500</v>
+        <v>367500</v>
       </c>
       <c r="Q165" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         </is>
       </c>
       <c r="S165" t="n">
-        <v>894</v>
+        <v>919</v>
       </c>
       <c r="T165" t="n">
         <v>400</v>
@@ -13607,7 +13607,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44315</v>
+        <v>44231</v>
       </c>
       <c r="E166" t="n">
         <v>4</v>
@@ -13635,25 +13635,25 @@
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M166" t="n">
         <v>20</v>
       </c>
       <c r="N166" t="n">
-        <v>325000</v>
+        <v>485000</v>
       </c>
       <c r="O166" t="n">
-        <v>330000</v>
+        <v>490000</v>
       </c>
       <c r="P166" t="n">
-        <v>327500</v>
+        <v>487500</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         </is>
       </c>
       <c r="S166" t="n">
-        <v>819</v>
+        <v>1219</v>
       </c>
       <c r="T166" t="n">
         <v>400</v>
@@ -13687,7 +13687,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44315</v>
+        <v>44231</v>
       </c>
       <c r="E167" t="n">
         <v>4</v>
@@ -13720,20 +13720,20 @@
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M167" t="n">
         <v>20</v>
       </c>
       <c r="N167" t="n">
-        <v>470000</v>
+        <v>455000</v>
       </c>
       <c r="O167" t="n">
-        <v>480000</v>
+        <v>460000</v>
       </c>
       <c r="P167" t="n">
-        <v>475000</v>
+        <v>457500</v>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="S167" t="n">
-        <v>1188</v>
+        <v>1144</v>
       </c>
       <c r="T167" t="n">
         <v>400</v>
@@ -13767,7 +13767,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44399</v>
+        <v>44391</v>
       </c>
       <c r="E168" t="n">
         <v>4</v>
@@ -13795,7 +13795,7 @@
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>Cara cara</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L168" t="inlineStr">
@@ -13804,16 +13804,16 @@
         </is>
       </c>
       <c r="M168" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N168" t="n">
-        <v>120000</v>
+        <v>100000</v>
       </c>
       <c r="O168" t="n">
-        <v>130000</v>
+        <v>110000</v>
       </c>
       <c r="P168" t="n">
-        <v>125000</v>
+        <v>105000</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
@@ -13826,7 +13826,7 @@
         </is>
       </c>
       <c r="S168" t="n">
-        <v>312</v>
+        <v>262</v>
       </c>
       <c r="T168" t="n">
         <v>400</v>
@@ -13847,7 +13847,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44399</v>
+        <v>44391</v>
       </c>
       <c r="E169" t="n">
         <v>4</v>
@@ -13880,20 +13880,20 @@
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M169" t="n">
         <v>20</v>
       </c>
       <c r="N169" t="n">
-        <v>100000</v>
+        <v>80000</v>
       </c>
       <c r="O169" t="n">
-        <v>110000</v>
+        <v>90000</v>
       </c>
       <c r="P169" t="n">
-        <v>105000</v>
+        <v>85000</v>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
@@ -13906,7 +13906,7 @@
         </is>
       </c>
       <c r="S169" t="n">
-        <v>262</v>
+        <v>212</v>
       </c>
       <c r="T169" t="n">
         <v>400</v>
@@ -13927,7 +13927,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44399</v>
+        <v>44391</v>
       </c>
       <c r="E170" t="n">
         <v>4</v>
@@ -13955,25 +13955,25 @@
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M170" t="n">
         <v>20</v>
       </c>
       <c r="N170" t="n">
-        <v>80000</v>
+        <v>100000</v>
       </c>
       <c r="O170" t="n">
-        <v>90000</v>
+        <v>110000</v>
       </c>
       <c r="P170" t="n">
-        <v>85000</v>
+        <v>105000</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         </is>
       </c>
       <c r="S170" t="n">
-        <v>212</v>
+        <v>262</v>
       </c>
       <c r="T170" t="n">
         <v>400</v>
@@ -14007,7 +14007,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44399</v>
+        <v>44391</v>
       </c>
       <c r="E171" t="n">
         <v>4</v>
@@ -14035,25 +14035,25 @@
       </c>
       <c r="K171" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M171" t="n">
         <v>20</v>
       </c>
       <c r="N171" t="n">
-        <v>100000</v>
+        <v>80000</v>
       </c>
       <c r="O171" t="n">
-        <v>110000</v>
+        <v>90000</v>
       </c>
       <c r="P171" t="n">
-        <v>105000</v>
+        <v>85000</v>
       </c>
       <c r="Q171" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         </is>
       </c>
       <c r="S171" t="n">
-        <v>262</v>
+        <v>212</v>
       </c>
       <c r="T171" t="n">
         <v>400</v>
@@ -14087,7 +14087,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44399</v>
+        <v>44350</v>
       </c>
       <c r="E172" t="n">
         <v>4</v>
@@ -14115,7 +14115,7 @@
       </c>
       <c r="K172" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L172" t="inlineStr">
@@ -14127,13 +14127,13 @@
         <v>20</v>
       </c>
       <c r="N172" t="n">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="O172" t="n">
-        <v>110000</v>
+        <v>210000</v>
       </c>
       <c r="P172" t="n">
-        <v>105000</v>
+        <v>205000</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="S172" t="n">
-        <v>262</v>
+        <v>512</v>
       </c>
       <c r="T172" t="n">
         <v>400</v>
@@ -14167,7 +14167,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44399</v>
+        <v>44350</v>
       </c>
       <c r="E173" t="n">
         <v>4</v>
@@ -14195,7 +14195,7 @@
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L173" t="inlineStr">
@@ -14207,13 +14207,13 @@
         <v>20</v>
       </c>
       <c r="N173" t="n">
-        <v>80000</v>
+        <v>170000</v>
       </c>
       <c r="O173" t="n">
-        <v>90000</v>
+        <v>180000</v>
       </c>
       <c r="P173" t="n">
-        <v>85000</v>
+        <v>175000</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
@@ -14226,7 +14226,7 @@
         </is>
       </c>
       <c r="S173" t="n">
-        <v>212</v>
+        <v>438</v>
       </c>
       <c r="T173" t="n">
         <v>400</v>
@@ -14247,7 +14247,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44251</v>
+        <v>44350</v>
       </c>
       <c r="E174" t="n">
         <v>4</v>
@@ -14275,7 +14275,7 @@
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L174" t="inlineStr">
@@ -14287,13 +14287,13 @@
         <v>20</v>
       </c>
       <c r="N174" t="n">
-        <v>455000</v>
+        <v>200000</v>
       </c>
       <c r="O174" t="n">
-        <v>460000</v>
+        <v>210000</v>
       </c>
       <c r="P174" t="n">
-        <v>457500</v>
+        <v>205000</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
@@ -14306,7 +14306,7 @@
         </is>
       </c>
       <c r="S174" t="n">
-        <v>1144</v>
+        <v>512</v>
       </c>
       <c r="T174" t="n">
         <v>400</v>
@@ -14327,7 +14327,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44251</v>
+        <v>44350</v>
       </c>
       <c r="E175" t="n">
         <v>4</v>
@@ -14355,7 +14355,7 @@
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L175" t="inlineStr">
@@ -14367,13 +14367,13 @@
         <v>20</v>
       </c>
       <c r="N175" t="n">
-        <v>415000</v>
+        <v>170000</v>
       </c>
       <c r="O175" t="n">
-        <v>420000</v>
+        <v>180000</v>
       </c>
       <c r="P175" t="n">
-        <v>417500</v>
+        <v>175000</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         </is>
       </c>
       <c r="S175" t="n">
-        <v>1044</v>
+        <v>438</v>
       </c>
       <c r="T175" t="n">
         <v>400</v>
@@ -14407,7 +14407,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44294</v>
+        <v>44315</v>
       </c>
       <c r="E176" t="n">
         <v>4</v>
@@ -14435,7 +14435,7 @@
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L176" t="inlineStr">
@@ -14447,13 +14447,13 @@
         <v>20</v>
       </c>
       <c r="N176" t="n">
-        <v>475000</v>
+        <v>355000</v>
       </c>
       <c r="O176" t="n">
-        <v>480000</v>
+        <v>360000</v>
       </c>
       <c r="P176" t="n">
-        <v>477500</v>
+        <v>357500</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         </is>
       </c>
       <c r="S176" t="n">
-        <v>1194</v>
+        <v>894</v>
       </c>
       <c r="T176" t="n">
         <v>400</v>
@@ -14487,7 +14487,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44245</v>
+        <v>44315</v>
       </c>
       <c r="E177" t="n">
         <v>4</v>
@@ -14515,25 +14515,25 @@
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M177" t="n">
         <v>20</v>
       </c>
       <c r="N177" t="n">
-        <v>465000</v>
+        <v>325000</v>
       </c>
       <c r="O177" t="n">
-        <v>470000</v>
+        <v>330000</v>
       </c>
       <c r="P177" t="n">
-        <v>467500</v>
+        <v>327500</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="S177" t="n">
-        <v>1169</v>
+        <v>819</v>
       </c>
       <c r="T177" t="n">
         <v>400</v>
@@ -14567,7 +14567,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44245</v>
+        <v>44315</v>
       </c>
       <c r="E178" t="n">
         <v>4</v>
@@ -14595,25 +14595,25 @@
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M178" t="n">
         <v>20</v>
       </c>
       <c r="N178" t="n">
-        <v>425000</v>
+        <v>355000</v>
       </c>
       <c r="O178" t="n">
-        <v>430000</v>
+        <v>360000</v>
       </c>
       <c r="P178" t="n">
-        <v>427500</v>
+        <v>357500</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         </is>
       </c>
       <c r="S178" t="n">
-        <v>1069</v>
+        <v>894</v>
       </c>
       <c r="T178" t="n">
         <v>400</v>
@@ -14647,7 +14647,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44202</v>
+        <v>44315</v>
       </c>
       <c r="E179" t="n">
         <v>4</v>
@@ -14675,25 +14675,25 @@
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M179" t="n">
         <v>20</v>
       </c>
       <c r="N179" t="n">
-        <v>395000</v>
+        <v>325000</v>
       </c>
       <c r="O179" t="n">
-        <v>400000</v>
+        <v>330000</v>
       </c>
       <c r="P179" t="n">
-        <v>397500</v>
+        <v>327500</v>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
@@ -14706,7 +14706,7 @@
         </is>
       </c>
       <c r="S179" t="n">
-        <v>994</v>
+        <v>819</v>
       </c>
       <c r="T179" t="n">
         <v>400</v>
@@ -14727,7 +14727,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44202</v>
+        <v>44315</v>
       </c>
       <c r="E180" t="n">
         <v>4</v>
@@ -14760,20 +14760,20 @@
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M180" t="n">
         <v>20</v>
       </c>
       <c r="N180" t="n">
-        <v>345000</v>
+        <v>470000</v>
       </c>
       <c r="O180" t="n">
-        <v>350000</v>
+        <v>480000</v>
       </c>
       <c r="P180" t="n">
-        <v>347500</v>
+        <v>475000</v>
       </c>
       <c r="Q180" t="inlineStr">
         <is>
@@ -14786,7 +14786,7 @@
         </is>
       </c>
       <c r="S180" t="n">
-        <v>869</v>
+        <v>1188</v>
       </c>
       <c r="T180" t="n">
         <v>400</v>
@@ -14807,7 +14807,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44181</v>
+        <v>44399</v>
       </c>
       <c r="E181" t="n">
         <v>4</v>
@@ -14835,7 +14835,7 @@
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Cara cara</t>
         </is>
       </c>
       <c r="L181" t="inlineStr">
@@ -14844,16 +14844,16 @@
         </is>
       </c>
       <c r="M181" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="N181" t="n">
-        <v>355000</v>
+        <v>120000</v>
       </c>
       <c r="O181" t="n">
-        <v>360000</v>
+        <v>130000</v>
       </c>
       <c r="P181" t="n">
-        <v>357500</v>
+        <v>125000</v>
       </c>
       <c r="Q181" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         </is>
       </c>
       <c r="S181" t="n">
-        <v>894</v>
+        <v>312</v>
       </c>
       <c r="T181" t="n">
         <v>400</v>
@@ -14887,7 +14887,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44181</v>
+        <v>44399</v>
       </c>
       <c r="E182" t="n">
         <v>4</v>
@@ -14915,7 +14915,7 @@
       </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L182" t="inlineStr">
@@ -14924,16 +14924,16 @@
         </is>
       </c>
       <c r="M182" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N182" t="n">
-        <v>355000</v>
+        <v>100000</v>
       </c>
       <c r="O182" t="n">
-        <v>360000</v>
+        <v>110000</v>
       </c>
       <c r="P182" t="n">
-        <v>357500</v>
+        <v>105000</v>
       </c>
       <c r="Q182" t="inlineStr">
         <is>
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="S182" t="n">
-        <v>894</v>
+        <v>262</v>
       </c>
       <c r="T182" t="n">
         <v>400</v>
@@ -14967,7 +14967,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44307</v>
+        <v>44399</v>
       </c>
       <c r="E183" t="n">
         <v>4</v>
@@ -15000,20 +15000,20 @@
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M183" t="n">
         <v>20</v>
       </c>
       <c r="N183" t="n">
-        <v>385000</v>
+        <v>80000</v>
       </c>
       <c r="O183" t="n">
-        <v>390000</v>
+        <v>90000</v>
       </c>
       <c r="P183" t="n">
-        <v>387500</v>
+        <v>85000</v>
       </c>
       <c r="Q183" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         </is>
       </c>
       <c r="S183" t="n">
-        <v>969</v>
+        <v>212</v>
       </c>
       <c r="T183" t="n">
         <v>400</v>
@@ -15047,7 +15047,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44307</v>
+        <v>44399</v>
       </c>
       <c r="E184" t="n">
         <v>4</v>
@@ -15075,25 +15075,25 @@
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M184" t="n">
         <v>20</v>
       </c>
       <c r="N184" t="n">
-        <v>345000</v>
+        <v>100000</v>
       </c>
       <c r="O184" t="n">
-        <v>350000</v>
+        <v>110000</v>
       </c>
       <c r="P184" t="n">
-        <v>347500</v>
+        <v>105000</v>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
@@ -15106,7 +15106,7 @@
         </is>
       </c>
       <c r="S184" t="n">
-        <v>869</v>
+        <v>262</v>
       </c>
       <c r="T184" t="n">
         <v>400</v>
@@ -15127,7 +15127,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44307</v>
+        <v>44399</v>
       </c>
       <c r="E185" t="n">
         <v>4</v>
@@ -15155,7 +15155,7 @@
       </c>
       <c r="K185" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L185" t="inlineStr">
@@ -15167,13 +15167,13 @@
         <v>20</v>
       </c>
       <c r="N185" t="n">
-        <v>385000</v>
+        <v>100000</v>
       </c>
       <c r="O185" t="n">
-        <v>390000</v>
+        <v>110000</v>
       </c>
       <c r="P185" t="n">
-        <v>387500</v>
+        <v>105000</v>
       </c>
       <c r="Q185" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         </is>
       </c>
       <c r="S185" t="n">
-        <v>969</v>
+        <v>262</v>
       </c>
       <c r="T185" t="n">
         <v>400</v>
@@ -15207,7 +15207,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44161</v>
+        <v>44399</v>
       </c>
       <c r="E186" t="n">
         <v>4</v>
@@ -15235,25 +15235,25 @@
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M186" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N186" t="n">
-        <v>325000</v>
+        <v>80000</v>
       </c>
       <c r="O186" t="n">
-        <v>330000</v>
+        <v>90000</v>
       </c>
       <c r="P186" t="n">
-        <v>327500</v>
+        <v>85000</v>
       </c>
       <c r="Q186" t="inlineStr">
         <is>
@@ -15266,7 +15266,7 @@
         </is>
       </c>
       <c r="S186" t="n">
-        <v>819</v>
+        <v>212</v>
       </c>
       <c r="T186" t="n">
         <v>400</v>
@@ -15287,7 +15287,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44161</v>
+        <v>44251</v>
       </c>
       <c r="E187" t="n">
         <v>4</v>
@@ -15315,7 +15315,7 @@
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L187" t="inlineStr">
@@ -15324,16 +15324,16 @@
         </is>
       </c>
       <c r="M187" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N187" t="n">
-        <v>305000</v>
+        <v>455000</v>
       </c>
       <c r="O187" t="n">
-        <v>310000</v>
+        <v>460000</v>
       </c>
       <c r="P187" t="n">
-        <v>307500</v>
+        <v>457500</v>
       </c>
       <c r="Q187" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="S187" t="n">
-        <v>769</v>
+        <v>1144</v>
       </c>
       <c r="T187" t="n">
         <v>400</v>
@@ -15367,7 +15367,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44161</v>
+        <v>44251</v>
       </c>
       <c r="E188" t="n">
         <v>4</v>
@@ -15395,7 +15395,7 @@
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L188" t="inlineStr">
@@ -15404,16 +15404,16 @@
         </is>
       </c>
       <c r="M188" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N188" t="n">
-        <v>255000</v>
+        <v>415000</v>
       </c>
       <c r="O188" t="n">
-        <v>260000</v>
+        <v>420000</v>
       </c>
       <c r="P188" t="n">
-        <v>257500</v>
+        <v>417500</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
@@ -15426,7 +15426,7 @@
         </is>
       </c>
       <c r="S188" t="n">
-        <v>644</v>
+        <v>1044</v>
       </c>
       <c r="T188" t="n">
         <v>400</v>
@@ -15447,7 +15447,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44195</v>
+        <v>44294</v>
       </c>
       <c r="E189" t="n">
         <v>4</v>
@@ -15484,16 +15484,16 @@
         </is>
       </c>
       <c r="M189" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N189" t="n">
-        <v>390000</v>
+        <v>475000</v>
       </c>
       <c r="O189" t="n">
-        <v>400000</v>
+        <v>480000</v>
       </c>
       <c r="P189" t="n">
-        <v>395000</v>
+        <v>477500</v>
       </c>
       <c r="Q189" t="inlineStr">
         <is>
@@ -15506,7 +15506,7 @@
         </is>
       </c>
       <c r="S189" t="n">
-        <v>988</v>
+        <v>1194</v>
       </c>
       <c r="T189" t="n">
         <v>400</v>
@@ -15527,7 +15527,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44265</v>
+        <v>44419</v>
       </c>
       <c r="E190" t="n">
         <v>4</v>
@@ -15555,7 +15555,7 @@
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Cara cara</t>
         </is>
       </c>
       <c r="L190" t="inlineStr">
@@ -15567,13 +15567,13 @@
         <v>20</v>
       </c>
       <c r="N190" t="n">
-        <v>455000</v>
+        <v>115000</v>
       </c>
       <c r="O190" t="n">
-        <v>460000</v>
+        <v>120000</v>
       </c>
       <c r="P190" t="n">
-        <v>457500</v>
+        <v>117500</v>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         </is>
       </c>
       <c r="S190" t="n">
-        <v>1144</v>
+        <v>294</v>
       </c>
       <c r="T190" t="n">
         <v>400</v>
@@ -15607,7 +15607,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44265</v>
+        <v>44419</v>
       </c>
       <c r="E191" t="n">
         <v>4</v>
@@ -15635,7 +15635,7 @@
       </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Cara cara</t>
         </is>
       </c>
       <c r="L191" t="inlineStr">
@@ -15647,13 +15647,13 @@
         <v>20</v>
       </c>
       <c r="N191" t="n">
-        <v>415000</v>
+        <v>85000</v>
       </c>
       <c r="O191" t="n">
-        <v>420000</v>
+        <v>90000</v>
       </c>
       <c r="P191" t="n">
-        <v>417500</v>
+        <v>87500</v>
       </c>
       <c r="Q191" t="inlineStr">
         <is>
@@ -15666,7 +15666,7 @@
         </is>
       </c>
       <c r="S191" t="n">
-        <v>1044</v>
+        <v>219</v>
       </c>
       <c r="T191" t="n">
         <v>400</v>
@@ -15687,7 +15687,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44188</v>
+        <v>44419</v>
       </c>
       <c r="E192" t="n">
         <v>4</v>
@@ -15715,7 +15715,7 @@
       </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L192" t="inlineStr">
@@ -15727,13 +15727,13 @@
         <v>20</v>
       </c>
       <c r="N192" t="n">
-        <v>375000</v>
+        <v>115000</v>
       </c>
       <c r="O192" t="n">
-        <v>380000</v>
+        <v>120000</v>
       </c>
       <c r="P192" t="n">
-        <v>377500</v>
+        <v>117500</v>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="S192" t="n">
-        <v>944</v>
+        <v>294</v>
       </c>
       <c r="T192" t="n">
         <v>400</v>
@@ -15767,7 +15767,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44188</v>
+        <v>44419</v>
       </c>
       <c r="E193" t="n">
         <v>4</v>
@@ -15795,7 +15795,7 @@
       </c>
       <c r="K193" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L193" t="inlineStr">
@@ -15807,13 +15807,13 @@
         <v>20</v>
       </c>
       <c r="N193" t="n">
-        <v>335000</v>
+        <v>85000</v>
       </c>
       <c r="O193" t="n">
-        <v>340000</v>
+        <v>90000</v>
       </c>
       <c r="P193" t="n">
-        <v>337500</v>
+        <v>87500</v>
       </c>
       <c r="Q193" t="inlineStr">
         <is>
@@ -15826,7 +15826,7 @@
         </is>
       </c>
       <c r="S193" t="n">
-        <v>844</v>
+        <v>219</v>
       </c>
       <c r="T193" t="n">
         <v>400</v>
@@ -15847,7 +15847,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44160</v>
+        <v>44419</v>
       </c>
       <c r="E194" t="n">
         <v>4</v>
@@ -15875,25 +15875,25 @@
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M194" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N194" t="n">
-        <v>325000</v>
+        <v>105000</v>
       </c>
       <c r="O194" t="n">
-        <v>330000</v>
+        <v>110000</v>
       </c>
       <c r="P194" t="n">
-        <v>327500</v>
+        <v>107500</v>
       </c>
       <c r="Q194" t="inlineStr">
         <is>
@@ -15906,7 +15906,7 @@
         </is>
       </c>
       <c r="S194" t="n">
-        <v>819</v>
+        <v>269</v>
       </c>
       <c r="T194" t="n">
         <v>400</v>
@@ -15927,7 +15927,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44160</v>
+        <v>44419</v>
       </c>
       <c r="E195" t="n">
         <v>4</v>
@@ -15955,25 +15955,25 @@
       </c>
       <c r="K195" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M195" t="n">
         <v>20</v>
       </c>
       <c r="N195" t="n">
-        <v>305000</v>
+        <v>75000</v>
       </c>
       <c r="O195" t="n">
-        <v>310000</v>
+        <v>80000</v>
       </c>
       <c r="P195" t="n">
-        <v>307500</v>
+        <v>77500</v>
       </c>
       <c r="Q195" t="inlineStr">
         <is>
@@ -15986,7 +15986,7 @@
         </is>
       </c>
       <c r="S195" t="n">
-        <v>769</v>
+        <v>194</v>
       </c>
       <c r="T195" t="n">
         <v>400</v>
@@ -16007,7 +16007,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44160</v>
+        <v>44419</v>
       </c>
       <c r="E196" t="n">
         <v>4</v>
@@ -16035,25 +16035,25 @@
       </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M196" t="n">
         <v>20</v>
       </c>
       <c r="N196" t="n">
-        <v>255000</v>
+        <v>105000</v>
       </c>
       <c r="O196" t="n">
-        <v>260000</v>
+        <v>110000</v>
       </c>
       <c r="P196" t="n">
-        <v>257500</v>
+        <v>107500</v>
       </c>
       <c r="Q196" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         </is>
       </c>
       <c r="S196" t="n">
-        <v>644</v>
+        <v>269</v>
       </c>
       <c r="T196" t="n">
         <v>400</v>
@@ -16087,7 +16087,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44301</v>
+        <v>44419</v>
       </c>
       <c r="E197" t="n">
         <v>4</v>
@@ -16115,25 +16115,25 @@
       </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M197" t="n">
         <v>20</v>
       </c>
       <c r="N197" t="n">
-        <v>495000</v>
+        <v>75000</v>
       </c>
       <c r="O197" t="n">
-        <v>500000</v>
+        <v>80000</v>
       </c>
       <c r="P197" t="n">
-        <v>497500</v>
+        <v>77500</v>
       </c>
       <c r="Q197" t="inlineStr">
         <is>
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="S197" t="n">
-        <v>1244</v>
+        <v>194</v>
       </c>
       <c r="T197" t="n">
         <v>400</v>
@@ -16167,7 +16167,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44301</v>
+        <v>44420</v>
       </c>
       <c r="E198" t="n">
         <v>4</v>
@@ -16195,7 +16195,7 @@
       </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L198" t="inlineStr">
@@ -16207,13 +16207,13 @@
         <v>20</v>
       </c>
       <c r="N198" t="n">
-        <v>475000</v>
+        <v>115000</v>
       </c>
       <c r="O198" t="n">
-        <v>480000</v>
+        <v>120000</v>
       </c>
       <c r="P198" t="n">
-        <v>477500</v>
+        <v>117500</v>
       </c>
       <c r="Q198" t="inlineStr">
         <is>
@@ -16226,7 +16226,7 @@
         </is>
       </c>
       <c r="S198" t="n">
-        <v>1194</v>
+        <v>294</v>
       </c>
       <c r="T198" t="n">
         <v>400</v>
@@ -16247,7 +16247,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44272</v>
+        <v>44420</v>
       </c>
       <c r="E199" t="n">
         <v>4</v>
@@ -16275,25 +16275,25 @@
       </c>
       <c r="K199" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M199" t="n">
         <v>20</v>
       </c>
       <c r="N199" t="n">
-        <v>455000</v>
+        <v>85000</v>
       </c>
       <c r="O199" t="n">
-        <v>460000</v>
+        <v>90000</v>
       </c>
       <c r="P199" t="n">
-        <v>457500</v>
+        <v>87500</v>
       </c>
       <c r="Q199" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         </is>
       </c>
       <c r="S199" t="n">
-        <v>1144</v>
+        <v>219</v>
       </c>
       <c r="T199" t="n">
         <v>400</v>
@@ -16327,7 +16327,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44272</v>
+        <v>44420</v>
       </c>
       <c r="E200" t="n">
         <v>4</v>
@@ -16355,25 +16355,25 @@
       </c>
       <c r="K200" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L200" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M200" t="n">
         <v>20</v>
       </c>
       <c r="N200" t="n">
-        <v>415000</v>
+        <v>105000</v>
       </c>
       <c r="O200" t="n">
-        <v>420000</v>
+        <v>110000</v>
       </c>
       <c r="P200" t="n">
-        <v>417500</v>
+        <v>107500</v>
       </c>
       <c r="Q200" t="inlineStr">
         <is>
@@ -16386,7 +16386,7 @@
         </is>
       </c>
       <c r="S200" t="n">
-        <v>1044</v>
+        <v>269</v>
       </c>
       <c r="T200" t="n">
         <v>400</v>
@@ -16407,7 +16407,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44370</v>
+        <v>44420</v>
       </c>
       <c r="E201" t="n">
         <v>4</v>
@@ -16435,25 +16435,25 @@
       </c>
       <c r="K201" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L201" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M201" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N201" t="n">
-        <v>125000</v>
+        <v>75000</v>
       </c>
       <c r="O201" t="n">
-        <v>130000</v>
+        <v>80000</v>
       </c>
       <c r="P201" t="n">
-        <v>127500</v>
+        <v>77500</v>
       </c>
       <c r="Q201" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         </is>
       </c>
       <c r="S201" t="n">
-        <v>319</v>
+        <v>194</v>
       </c>
       <c r="T201" t="n">
         <v>400</v>
@@ -16487,7 +16487,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44370</v>
+        <v>44245</v>
       </c>
       <c r="E202" t="n">
         <v>4</v>
@@ -16515,25 +16515,25 @@
       </c>
       <c r="K202" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L202" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M202" t="n">
         <v>20</v>
       </c>
       <c r="N202" t="n">
-        <v>105000</v>
+        <v>465000</v>
       </c>
       <c r="O202" t="n">
-        <v>110000</v>
+        <v>470000</v>
       </c>
       <c r="P202" t="n">
-        <v>107500</v>
+        <v>467500</v>
       </c>
       <c r="Q202" t="inlineStr">
         <is>
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="S202" t="n">
-        <v>269</v>
+        <v>1169</v>
       </c>
       <c r="T202" t="n">
         <v>400</v>
@@ -16567,7 +16567,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44370</v>
+        <v>44245</v>
       </c>
       <c r="E203" t="n">
         <v>4</v>
@@ -16595,25 +16595,25 @@
       </c>
       <c r="K203" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M203" t="n">
         <v>20</v>
       </c>
       <c r="N203" t="n">
-        <v>135000</v>
+        <v>425000</v>
       </c>
       <c r="O203" t="n">
-        <v>140000</v>
+        <v>430000</v>
       </c>
       <c r="P203" t="n">
-        <v>137500</v>
+        <v>427500</v>
       </c>
       <c r="Q203" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         </is>
       </c>
       <c r="S203" t="n">
-        <v>344</v>
+        <v>1069</v>
       </c>
       <c r="T203" t="n">
         <v>400</v>
@@ -16647,7 +16647,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44370</v>
+        <v>44202</v>
       </c>
       <c r="E204" t="n">
         <v>4</v>
@@ -16675,25 +16675,25 @@
       </c>
       <c r="K204" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M204" t="n">
         <v>20</v>
       </c>
       <c r="N204" t="n">
-        <v>115000</v>
+        <v>395000</v>
       </c>
       <c r="O204" t="n">
-        <v>120000</v>
+        <v>400000</v>
       </c>
       <c r="P204" t="n">
-        <v>117500</v>
+        <v>397500</v>
       </c>
       <c r="Q204" t="inlineStr">
         <is>
@@ -16706,7 +16706,7 @@
         </is>
       </c>
       <c r="S204" t="n">
-        <v>294</v>
+        <v>994</v>
       </c>
       <c r="T204" t="n">
         <v>400</v>
@@ -16727,7 +16727,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44370</v>
+        <v>44202</v>
       </c>
       <c r="E205" t="n">
         <v>4</v>
@@ -16755,25 +16755,25 @@
       </c>
       <c r="K205" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M205" t="n">
         <v>20</v>
       </c>
       <c r="N205" t="n">
-        <v>135000</v>
+        <v>345000</v>
       </c>
       <c r="O205" t="n">
-        <v>140000</v>
+        <v>350000</v>
       </c>
       <c r="P205" t="n">
-        <v>137500</v>
+        <v>347500</v>
       </c>
       <c r="Q205" t="inlineStr">
         <is>
@@ -16786,7 +16786,7 @@
         </is>
       </c>
       <c r="S205" t="n">
-        <v>344</v>
+        <v>869</v>
       </c>
       <c r="T205" t="n">
         <v>400</v>
@@ -16807,7 +16807,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44370</v>
+        <v>44181</v>
       </c>
       <c r="E206" t="n">
         <v>4</v>
@@ -16835,25 +16835,25 @@
       </c>
       <c r="K206" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L206" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M206" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N206" t="n">
-        <v>115000</v>
+        <v>355000</v>
       </c>
       <c r="O206" t="n">
-        <v>120000</v>
+        <v>360000</v>
       </c>
       <c r="P206" t="n">
-        <v>117500</v>
+        <v>357500</v>
       </c>
       <c r="Q206" t="inlineStr">
         <is>
@@ -16866,7 +16866,7 @@
         </is>
       </c>
       <c r="S206" t="n">
-        <v>294</v>
+        <v>894</v>
       </c>
       <c r="T206" t="n">
         <v>400</v>
@@ -16887,7 +16887,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44230</v>
+        <v>44181</v>
       </c>
       <c r="E207" t="n">
         <v>4</v>
@@ -16924,16 +16924,16 @@
         </is>
       </c>
       <c r="M207" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N207" t="n">
-        <v>485000</v>
+        <v>355000</v>
       </c>
       <c r="O207" t="n">
-        <v>490000</v>
+        <v>360000</v>
       </c>
       <c r="P207" t="n">
-        <v>487500</v>
+        <v>357500</v>
       </c>
       <c r="Q207" t="inlineStr">
         <is>
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="S207" t="n">
-        <v>1219</v>
+        <v>894</v>
       </c>
       <c r="T207" t="n">
         <v>400</v>
@@ -16967,7 +16967,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44230</v>
+        <v>44307</v>
       </c>
       <c r="E208" t="n">
         <v>4</v>
@@ -16995,25 +16995,25 @@
       </c>
       <c r="K208" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L208" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M208" t="n">
         <v>20</v>
       </c>
       <c r="N208" t="n">
-        <v>455000</v>
+        <v>385000</v>
       </c>
       <c r="O208" t="n">
-        <v>460000</v>
+        <v>390000</v>
       </c>
       <c r="P208" t="n">
-        <v>457500</v>
+        <v>387500</v>
       </c>
       <c r="Q208" t="inlineStr">
         <is>
@@ -17026,7 +17026,7 @@
         </is>
       </c>
       <c r="S208" t="n">
-        <v>1144</v>
+        <v>969</v>
       </c>
       <c r="T208" t="n">
         <v>400</v>
@@ -17047,7 +17047,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44398</v>
+        <v>44307</v>
       </c>
       <c r="E209" t="n">
         <v>4</v>
@@ -17080,20 +17080,20 @@
       </c>
       <c r="L209" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M209" t="n">
         <v>20</v>
       </c>
       <c r="N209" t="n">
-        <v>100000</v>
+        <v>345000</v>
       </c>
       <c r="O209" t="n">
-        <v>110000</v>
+        <v>350000</v>
       </c>
       <c r="P209" t="n">
-        <v>105000</v>
+        <v>347500</v>
       </c>
       <c r="Q209" t="inlineStr">
         <is>
@@ -17106,7 +17106,7 @@
         </is>
       </c>
       <c r="S209" t="n">
-        <v>262</v>
+        <v>869</v>
       </c>
       <c r="T209" t="n">
         <v>400</v>
@@ -17127,7 +17127,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44398</v>
+        <v>44307</v>
       </c>
       <c r="E210" t="n">
         <v>4</v>
@@ -17155,25 +17155,25 @@
       </c>
       <c r="K210" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L210" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M210" t="n">
         <v>20</v>
       </c>
       <c r="N210" t="n">
-        <v>80000</v>
+        <v>385000</v>
       </c>
       <c r="O210" t="n">
-        <v>90000</v>
+        <v>390000</v>
       </c>
       <c r="P210" t="n">
-        <v>85000</v>
+        <v>387500</v>
       </c>
       <c r="Q210" t="inlineStr">
         <is>
@@ -17186,7 +17186,7 @@
         </is>
       </c>
       <c r="S210" t="n">
-        <v>212</v>
+        <v>969</v>
       </c>
       <c r="T210" t="n">
         <v>400</v>
@@ -17207,7 +17207,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44398</v>
+        <v>44161</v>
       </c>
       <c r="E211" t="n">
         <v>4</v>
@@ -17240,20 +17240,20 @@
       </c>
       <c r="L211" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M211" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N211" t="n">
-        <v>100000</v>
+        <v>325000</v>
       </c>
       <c r="O211" t="n">
-        <v>110000</v>
+        <v>330000</v>
       </c>
       <c r="P211" t="n">
-        <v>105000</v>
+        <v>327500</v>
       </c>
       <c r="Q211" t="inlineStr">
         <is>
@@ -17266,7 +17266,7 @@
         </is>
       </c>
       <c r="S211" t="n">
-        <v>262</v>
+        <v>819</v>
       </c>
       <c r="T211" t="n">
         <v>400</v>
@@ -17287,7 +17287,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44398</v>
+        <v>44161</v>
       </c>
       <c r="E212" t="n">
         <v>4</v>
@@ -17315,7 +17315,7 @@
       </c>
       <c r="K212" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L212" t="inlineStr">
@@ -17324,16 +17324,16 @@
         </is>
       </c>
       <c r="M212" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N212" t="n">
-        <v>100000</v>
+        <v>305000</v>
       </c>
       <c r="O212" t="n">
-        <v>110000</v>
+        <v>310000</v>
       </c>
       <c r="P212" t="n">
-        <v>105000</v>
+        <v>307500</v>
       </c>
       <c r="Q212" t="inlineStr">
         <is>
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="S212" t="n">
-        <v>262</v>
+        <v>769</v>
       </c>
       <c r="T212" t="n">
         <v>400</v>
@@ -17367,7 +17367,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44398</v>
+        <v>44161</v>
       </c>
       <c r="E213" t="n">
         <v>4</v>
@@ -17395,7 +17395,7 @@
       </c>
       <c r="K213" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L213" t="inlineStr">
@@ -17404,16 +17404,16 @@
         </is>
       </c>
       <c r="M213" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="N213" t="n">
-        <v>80000</v>
+        <v>255000</v>
       </c>
       <c r="O213" t="n">
-        <v>90000</v>
+        <v>260000</v>
       </c>
       <c r="P213" t="n">
-        <v>85000</v>
+        <v>257500</v>
       </c>
       <c r="Q213" t="inlineStr">
         <is>
@@ -17426,7 +17426,7 @@
         </is>
       </c>
       <c r="S213" t="n">
-        <v>212</v>
+        <v>644</v>
       </c>
       <c r="T213" t="n">
         <v>400</v>
@@ -17447,7 +17447,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44286</v>
+        <v>44195</v>
       </c>
       <c r="E214" t="n">
         <v>4</v>
@@ -17480,20 +17480,20 @@
       </c>
       <c r="L214" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M214" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N214" t="n">
-        <v>475000</v>
+        <v>390000</v>
       </c>
       <c r="O214" t="n">
-        <v>480000</v>
+        <v>400000</v>
       </c>
       <c r="P214" t="n">
-        <v>477500</v>
+        <v>395000</v>
       </c>
       <c r="Q214" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         </is>
       </c>
       <c r="S214" t="n">
-        <v>1194</v>
+        <v>988</v>
       </c>
       <c r="T214" t="n">
         <v>400</v>
@@ -17527,7 +17527,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44286</v>
+        <v>44265</v>
       </c>
       <c r="E215" t="n">
         <v>4</v>
@@ -17607,7 +17607,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44217</v>
+        <v>44265</v>
       </c>
       <c r="E216" t="n">
         <v>4</v>
@@ -17640,20 +17640,20 @@
       </c>
       <c r="L216" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M216" t="n">
         <v>20</v>
       </c>
       <c r="N216" t="n">
-        <v>465000</v>
+        <v>415000</v>
       </c>
       <c r="O216" t="n">
-        <v>470000</v>
+        <v>420000</v>
       </c>
       <c r="P216" t="n">
-        <v>467500</v>
+        <v>417500</v>
       </c>
       <c r="Q216" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         </is>
       </c>
       <c r="S216" t="n">
-        <v>1169</v>
+        <v>1044</v>
       </c>
       <c r="T216" t="n">
         <v>400</v>
@@ -17687,7 +17687,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44217</v>
+        <v>44188</v>
       </c>
       <c r="E217" t="n">
         <v>4</v>
@@ -17720,20 +17720,20 @@
       </c>
       <c r="L217" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M217" t="n">
         <v>20</v>
       </c>
       <c r="N217" t="n">
-        <v>425000</v>
+        <v>375000</v>
       </c>
       <c r="O217" t="n">
-        <v>430000</v>
+        <v>380000</v>
       </c>
       <c r="P217" t="n">
-        <v>427500</v>
+        <v>377500</v>
       </c>
       <c r="Q217" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="S217" t="n">
-        <v>1069</v>
+        <v>944</v>
       </c>
       <c r="T217" t="n">
         <v>400</v>
@@ -17767,7 +17767,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44244</v>
+        <v>44188</v>
       </c>
       <c r="E218" t="n">
         <v>4</v>
@@ -17800,20 +17800,20 @@
       </c>
       <c r="L218" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M218" t="n">
         <v>20</v>
       </c>
       <c r="N218" t="n">
-        <v>455000</v>
+        <v>335000</v>
       </c>
       <c r="O218" t="n">
-        <v>460000</v>
+        <v>340000</v>
       </c>
       <c r="P218" t="n">
-        <v>457500</v>
+        <v>337500</v>
       </c>
       <c r="Q218" t="inlineStr">
         <is>
@@ -17826,7 +17826,7 @@
         </is>
       </c>
       <c r="S218" t="n">
-        <v>1144</v>
+        <v>844</v>
       </c>
       <c r="T218" t="n">
         <v>400</v>
@@ -17847,7 +17847,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44244</v>
+        <v>44160</v>
       </c>
       <c r="E219" t="n">
         <v>4</v>
@@ -17875,25 +17875,25 @@
       </c>
       <c r="K219" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L219" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M219" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N219" t="n">
-        <v>415000</v>
+        <v>325000</v>
       </c>
       <c r="O219" t="n">
-        <v>420000</v>
+        <v>330000</v>
       </c>
       <c r="P219" t="n">
-        <v>417500</v>
+        <v>327500</v>
       </c>
       <c r="Q219" t="inlineStr">
         <is>
@@ -17906,7 +17906,7 @@
         </is>
       </c>
       <c r="S219" t="n">
-        <v>1044</v>
+        <v>819</v>
       </c>
       <c r="T219" t="n">
         <v>400</v>
@@ -17927,7 +17927,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44343</v>
+        <v>44160</v>
       </c>
       <c r="E220" t="n">
         <v>4</v>
@@ -17955,25 +17955,25 @@
       </c>
       <c r="K220" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L220" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M220" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N220" t="n">
-        <v>235000</v>
+        <v>305000</v>
       </c>
       <c r="O220" t="n">
-        <v>240000</v>
+        <v>310000</v>
       </c>
       <c r="P220" t="n">
-        <v>237500</v>
+        <v>307500</v>
       </c>
       <c r="Q220" t="inlineStr">
         <is>
@@ -17986,7 +17986,7 @@
         </is>
       </c>
       <c r="S220" t="n">
-        <v>594</v>
+        <v>769</v>
       </c>
       <c r="T220" t="n">
         <v>400</v>
@@ -18007,7 +18007,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44343</v>
+        <v>44160</v>
       </c>
       <c r="E221" t="n">
         <v>4</v>
@@ -18035,25 +18035,25 @@
       </c>
       <c r="K221" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L221" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M221" t="n">
         <v>20</v>
       </c>
       <c r="N221" t="n">
-        <v>195000</v>
+        <v>255000</v>
       </c>
       <c r="O221" t="n">
-        <v>200000</v>
+        <v>260000</v>
       </c>
       <c r="P221" t="n">
-        <v>197500</v>
+        <v>257500</v>
       </c>
       <c r="Q221" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         </is>
       </c>
       <c r="S221" t="n">
-        <v>494</v>
+        <v>644</v>
       </c>
       <c r="T221" t="n">
         <v>400</v>
@@ -18087,7 +18087,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44343</v>
+        <v>44301</v>
       </c>
       <c r="E222" t="n">
         <v>4</v>
@@ -18115,25 +18115,25 @@
       </c>
       <c r="K222" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L222" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M222" t="n">
         <v>20</v>
       </c>
       <c r="N222" t="n">
-        <v>165000</v>
+        <v>495000</v>
       </c>
       <c r="O222" t="n">
-        <v>170000</v>
+        <v>500000</v>
       </c>
       <c r="P222" t="n">
-        <v>167500</v>
+        <v>497500</v>
       </c>
       <c r="Q222" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="S222" t="n">
-        <v>419</v>
+        <v>1244</v>
       </c>
       <c r="T222" t="n">
         <v>400</v>
@@ -18167,7 +18167,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44168</v>
+        <v>44301</v>
       </c>
       <c r="E223" t="n">
         <v>4</v>
@@ -18195,7 +18195,7 @@
       </c>
       <c r="K223" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L223" t="inlineStr">
@@ -18207,13 +18207,13 @@
         <v>20</v>
       </c>
       <c r="N223" t="n">
-        <v>325000</v>
+        <v>475000</v>
       </c>
       <c r="O223" t="n">
-        <v>330000</v>
+        <v>480000</v>
       </c>
       <c r="P223" t="n">
-        <v>327500</v>
+        <v>477500</v>
       </c>
       <c r="Q223" t="inlineStr">
         <is>
@@ -18226,7 +18226,7 @@
         </is>
       </c>
       <c r="S223" t="n">
-        <v>819</v>
+        <v>1194</v>
       </c>
       <c r="T223" t="n">
         <v>400</v>
@@ -18247,7 +18247,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44168</v>
+        <v>44272</v>
       </c>
       <c r="E224" t="n">
         <v>4</v>
@@ -18275,25 +18275,25 @@
       </c>
       <c r="K224" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L224" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M224" t="n">
         <v>20</v>
       </c>
       <c r="N224" t="n">
-        <v>285000</v>
+        <v>455000</v>
       </c>
       <c r="O224" t="n">
-        <v>290000</v>
+        <v>460000</v>
       </c>
       <c r="P224" t="n">
-        <v>287500</v>
+        <v>457500</v>
       </c>
       <c r="Q224" t="inlineStr">
         <is>
@@ -18306,7 +18306,7 @@
         </is>
       </c>
       <c r="S224" t="n">
-        <v>719</v>
+        <v>1144</v>
       </c>
       <c r="T224" t="n">
         <v>400</v>
@@ -18327,7 +18327,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44168</v>
+        <v>44272</v>
       </c>
       <c r="E225" t="n">
         <v>4</v>
@@ -18360,20 +18360,20 @@
       </c>
       <c r="L225" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M225" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N225" t="n">
-        <v>355000</v>
+        <v>415000</v>
       </c>
       <c r="O225" t="n">
-        <v>360000</v>
+        <v>420000</v>
       </c>
       <c r="P225" t="n">
-        <v>357500</v>
+        <v>417500</v>
       </c>
       <c r="Q225" t="inlineStr">
         <is>
@@ -18386,7 +18386,7 @@
         </is>
       </c>
       <c r="S225" t="n">
-        <v>894</v>
+        <v>1044</v>
       </c>
       <c r="T225" t="n">
         <v>400</v>
@@ -18407,7 +18407,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44168</v>
+        <v>44370</v>
       </c>
       <c r="E226" t="n">
         <v>4</v>
@@ -18435,7 +18435,7 @@
       </c>
       <c r="K226" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L226" t="inlineStr">
@@ -18444,16 +18444,16 @@
         </is>
       </c>
       <c r="M226" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N226" t="n">
-        <v>335000</v>
+        <v>125000</v>
       </c>
       <c r="O226" t="n">
-        <v>340000</v>
+        <v>130000</v>
       </c>
       <c r="P226" t="n">
-        <v>337500</v>
+        <v>127500</v>
       </c>
       <c r="Q226" t="inlineStr">
         <is>
@@ -18466,7 +18466,7 @@
         </is>
       </c>
       <c r="S226" t="n">
-        <v>844</v>
+        <v>319</v>
       </c>
       <c r="T226" t="n">
         <v>400</v>
@@ -18487,68 +18487,2068 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
+        <v>44370</v>
+      </c>
+      <c r="E227" t="n">
+        <v>4</v>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G227" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I227" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>Fukumoto</t>
+        </is>
+      </c>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M227" t="n">
+        <v>20</v>
+      </c>
+      <c r="N227" t="n">
+        <v>105000</v>
+      </c>
+      <c r="O227" t="n">
+        <v>110000</v>
+      </c>
+      <c r="P227" t="n">
+        <v>107500</v>
+      </c>
+      <c r="Q227" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R227" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S227" t="n">
+        <v>269</v>
+      </c>
+      <c r="T227" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>2</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D228" s="2" t="n">
+        <v>44370</v>
+      </c>
+      <c r="E228" t="n">
+        <v>4</v>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G228" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I228" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>Navel Late</t>
+        </is>
+      </c>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M228" t="n">
+        <v>20</v>
+      </c>
+      <c r="N228" t="n">
+        <v>135000</v>
+      </c>
+      <c r="O228" t="n">
+        <v>140000</v>
+      </c>
+      <c r="P228" t="n">
+        <v>137500</v>
+      </c>
+      <c r="Q228" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R228" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S228" t="n">
+        <v>344</v>
+      </c>
+      <c r="T228" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>2</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D229" s="2" t="n">
+        <v>44370</v>
+      </c>
+      <c r="E229" t="n">
+        <v>4</v>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G229" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I229" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>Navel Late</t>
+        </is>
+      </c>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M229" t="n">
+        <v>20</v>
+      </c>
+      <c r="N229" t="n">
+        <v>115000</v>
+      </c>
+      <c r="O229" t="n">
+        <v>120000</v>
+      </c>
+      <c r="P229" t="n">
+        <v>117500</v>
+      </c>
+      <c r="Q229" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R229" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S229" t="n">
+        <v>294</v>
+      </c>
+      <c r="T229" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>2</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D230" s="2" t="n">
+        <v>44370</v>
+      </c>
+      <c r="E230" t="n">
+        <v>4</v>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G230" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I230" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>New Hall</t>
+        </is>
+      </c>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M230" t="n">
+        <v>20</v>
+      </c>
+      <c r="N230" t="n">
+        <v>135000</v>
+      </c>
+      <c r="O230" t="n">
+        <v>140000</v>
+      </c>
+      <c r="P230" t="n">
+        <v>137500</v>
+      </c>
+      <c r="Q230" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R230" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S230" t="n">
+        <v>344</v>
+      </c>
+      <c r="T230" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>2</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D231" s="2" t="n">
+        <v>44370</v>
+      </c>
+      <c r="E231" t="n">
+        <v>4</v>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G231" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I231" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>New Hall</t>
+        </is>
+      </c>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M231" t="n">
+        <v>20</v>
+      </c>
+      <c r="N231" t="n">
+        <v>115000</v>
+      </c>
+      <c r="O231" t="n">
+        <v>120000</v>
+      </c>
+      <c r="P231" t="n">
+        <v>117500</v>
+      </c>
+      <c r="Q231" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R231" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S231" t="n">
+        <v>294</v>
+      </c>
+      <c r="T231" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>2</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D232" s="2" t="n">
+        <v>44230</v>
+      </c>
+      <c r="E232" t="n">
+        <v>4</v>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G232" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I232" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M232" t="n">
+        <v>20</v>
+      </c>
+      <c r="N232" t="n">
+        <v>485000</v>
+      </c>
+      <c r="O232" t="n">
+        <v>490000</v>
+      </c>
+      <c r="P232" t="n">
+        <v>487500</v>
+      </c>
+      <c r="Q232" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R232" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S232" t="n">
+        <v>1219</v>
+      </c>
+      <c r="T232" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>2</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D233" s="2" t="n">
+        <v>44230</v>
+      </c>
+      <c r="E233" t="n">
+        <v>4</v>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G233" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I233" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M233" t="n">
+        <v>20</v>
+      </c>
+      <c r="N233" t="n">
+        <v>455000</v>
+      </c>
+      <c r="O233" t="n">
+        <v>460000</v>
+      </c>
+      <c r="P233" t="n">
+        <v>457500</v>
+      </c>
+      <c r="Q233" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R233" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S233" t="n">
+        <v>1144</v>
+      </c>
+      <c r="T233" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>2</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D234" s="2" t="n">
+        <v>44398</v>
+      </c>
+      <c r="E234" t="n">
+        <v>4</v>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G234" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I234" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>Fukumoto</t>
+        </is>
+      </c>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M234" t="n">
+        <v>20</v>
+      </c>
+      <c r="N234" t="n">
+        <v>100000</v>
+      </c>
+      <c r="O234" t="n">
+        <v>110000</v>
+      </c>
+      <c r="P234" t="n">
+        <v>105000</v>
+      </c>
+      <c r="Q234" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R234" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S234" t="n">
+        <v>262</v>
+      </c>
+      <c r="T234" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>2</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D235" s="2" t="n">
+        <v>44398</v>
+      </c>
+      <c r="E235" t="n">
+        <v>4</v>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G235" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I235" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>Fukumoto</t>
+        </is>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M235" t="n">
+        <v>20</v>
+      </c>
+      <c r="N235" t="n">
+        <v>80000</v>
+      </c>
+      <c r="O235" t="n">
+        <v>90000</v>
+      </c>
+      <c r="P235" t="n">
+        <v>85000</v>
+      </c>
+      <c r="Q235" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R235" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S235" t="n">
+        <v>212</v>
+      </c>
+      <c r="T235" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>2</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D236" s="2" t="n">
+        <v>44398</v>
+      </c>
+      <c r="E236" t="n">
+        <v>4</v>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G236" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I236" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>Lane Late</t>
+        </is>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M236" t="n">
+        <v>20</v>
+      </c>
+      <c r="N236" t="n">
+        <v>100000</v>
+      </c>
+      <c r="O236" t="n">
+        <v>110000</v>
+      </c>
+      <c r="P236" t="n">
+        <v>105000</v>
+      </c>
+      <c r="Q236" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R236" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S236" t="n">
+        <v>262</v>
+      </c>
+      <c r="T236" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>2</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D237" s="2" t="n">
+        <v>44398</v>
+      </c>
+      <c r="E237" t="n">
+        <v>4</v>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G237" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I237" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>Navel Late</t>
+        </is>
+      </c>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M237" t="n">
+        <v>20</v>
+      </c>
+      <c r="N237" t="n">
+        <v>100000</v>
+      </c>
+      <c r="O237" t="n">
+        <v>110000</v>
+      </c>
+      <c r="P237" t="n">
+        <v>105000</v>
+      </c>
+      <c r="Q237" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R237" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S237" t="n">
+        <v>262</v>
+      </c>
+      <c r="T237" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>2</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D238" s="2" t="n">
+        <v>44398</v>
+      </c>
+      <c r="E238" t="n">
+        <v>4</v>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G238" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I238" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>Navel Late</t>
+        </is>
+      </c>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M238" t="n">
+        <v>16</v>
+      </c>
+      <c r="N238" t="n">
+        <v>80000</v>
+      </c>
+      <c r="O238" t="n">
+        <v>90000</v>
+      </c>
+      <c r="P238" t="n">
+        <v>85000</v>
+      </c>
+      <c r="Q238" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R238" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S238" t="n">
+        <v>212</v>
+      </c>
+      <c r="T238" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>2</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D239" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="E239" t="n">
+        <v>4</v>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G239" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I239" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M239" t="n">
+        <v>20</v>
+      </c>
+      <c r="N239" t="n">
+        <v>475000</v>
+      </c>
+      <c r="O239" t="n">
+        <v>480000</v>
+      </c>
+      <c r="P239" t="n">
+        <v>477500</v>
+      </c>
+      <c r="Q239" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R239" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S239" t="n">
+        <v>1194</v>
+      </c>
+      <c r="T239" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>2</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D240" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="E240" t="n">
+        <v>4</v>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G240" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I240" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M240" t="n">
+        <v>20</v>
+      </c>
+      <c r="N240" t="n">
+        <v>455000</v>
+      </c>
+      <c r="O240" t="n">
+        <v>460000</v>
+      </c>
+      <c r="P240" t="n">
+        <v>457500</v>
+      </c>
+      <c r="Q240" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R240" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S240" t="n">
+        <v>1144</v>
+      </c>
+      <c r="T240" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>2</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D241" s="2" t="n">
+        <v>44217</v>
+      </c>
+      <c r="E241" t="n">
+        <v>4</v>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G241" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I241" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M241" t="n">
+        <v>20</v>
+      </c>
+      <c r="N241" t="n">
+        <v>465000</v>
+      </c>
+      <c r="O241" t="n">
+        <v>470000</v>
+      </c>
+      <c r="P241" t="n">
+        <v>467500</v>
+      </c>
+      <c r="Q241" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R241" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S241" t="n">
+        <v>1169</v>
+      </c>
+      <c r="T241" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>2</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D242" s="2" t="n">
+        <v>44217</v>
+      </c>
+      <c r="E242" t="n">
+        <v>4</v>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G242" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I242" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J242" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M242" t="n">
+        <v>20</v>
+      </c>
+      <c r="N242" t="n">
+        <v>425000</v>
+      </c>
+      <c r="O242" t="n">
+        <v>430000</v>
+      </c>
+      <c r="P242" t="n">
+        <v>427500</v>
+      </c>
+      <c r="Q242" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R242" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S242" t="n">
+        <v>1069</v>
+      </c>
+      <c r="T242" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>2</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D243" s="2" t="n">
+        <v>44244</v>
+      </c>
+      <c r="E243" t="n">
+        <v>4</v>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G243" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I243" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J243" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M243" t="n">
+        <v>20</v>
+      </c>
+      <c r="N243" t="n">
+        <v>455000</v>
+      </c>
+      <c r="O243" t="n">
+        <v>460000</v>
+      </c>
+      <c r="P243" t="n">
+        <v>457500</v>
+      </c>
+      <c r="Q243" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R243" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S243" t="n">
+        <v>1144</v>
+      </c>
+      <c r="T243" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>2</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D244" s="2" t="n">
+        <v>44244</v>
+      </c>
+      <c r="E244" t="n">
+        <v>4</v>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G244" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I244" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M244" t="n">
+        <v>20</v>
+      </c>
+      <c r="N244" t="n">
+        <v>415000</v>
+      </c>
+      <c r="O244" t="n">
+        <v>420000</v>
+      </c>
+      <c r="P244" t="n">
+        <v>417500</v>
+      </c>
+      <c r="Q244" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R244" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S244" t="n">
+        <v>1044</v>
+      </c>
+      <c r="T244" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>2</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D245" s="2" t="n">
+        <v>44343</v>
+      </c>
+      <c r="E245" t="n">
+        <v>4</v>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G245" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I245" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J245" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>Fukumoto</t>
+        </is>
+      </c>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M245" t="n">
+        <v>16</v>
+      </c>
+      <c r="N245" t="n">
+        <v>235000</v>
+      </c>
+      <c r="O245" t="n">
+        <v>240000</v>
+      </c>
+      <c r="P245" t="n">
+        <v>237500</v>
+      </c>
+      <c r="Q245" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R245" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S245" t="n">
+        <v>594</v>
+      </c>
+      <c r="T245" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>2</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D246" s="2" t="n">
+        <v>44343</v>
+      </c>
+      <c r="E246" t="n">
+        <v>4</v>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G246" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I246" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>Fukumoto</t>
+        </is>
+      </c>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M246" t="n">
+        <v>20</v>
+      </c>
+      <c r="N246" t="n">
+        <v>195000</v>
+      </c>
+      <c r="O246" t="n">
+        <v>200000</v>
+      </c>
+      <c r="P246" t="n">
+        <v>197500</v>
+      </c>
+      <c r="Q246" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R246" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S246" t="n">
+        <v>494</v>
+      </c>
+      <c r="T246" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>2</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D247" s="2" t="n">
+        <v>44343</v>
+      </c>
+      <c r="E247" t="n">
+        <v>4</v>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G247" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I247" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J247" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>Fukumoto</t>
+        </is>
+      </c>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M247" t="n">
+        <v>20</v>
+      </c>
+      <c r="N247" t="n">
+        <v>165000</v>
+      </c>
+      <c r="O247" t="n">
+        <v>170000</v>
+      </c>
+      <c r="P247" t="n">
+        <v>167500</v>
+      </c>
+      <c r="Q247" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R247" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S247" t="n">
+        <v>419</v>
+      </c>
+      <c r="T247" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>2</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D248" s="2" t="n">
         <v>44168</v>
       </c>
-      <c r="E227" t="n">
-        <v>4</v>
-      </c>
-      <c r="F227" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G227" t="n">
-        <v>100102</v>
-      </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>Cítricos</t>
-        </is>
-      </c>
-      <c r="I227" t="n">
-        <v>100102005</v>
-      </c>
-      <c r="J227" t="inlineStr">
-        <is>
-          <t>Naranja</t>
-        </is>
-      </c>
-      <c r="K227" t="inlineStr">
+      <c r="E248" t="n">
+        <v>4</v>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G248" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I248" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>Navel Late</t>
+        </is>
+      </c>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M248" t="n">
+        <v>20</v>
+      </c>
+      <c r="N248" t="n">
+        <v>325000</v>
+      </c>
+      <c r="O248" t="n">
+        <v>330000</v>
+      </c>
+      <c r="P248" t="n">
+        <v>327500</v>
+      </c>
+      <c r="Q248" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R248" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S248" t="n">
+        <v>819</v>
+      </c>
+      <c r="T248" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>2</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D249" s="2" t="n">
+        <v>44168</v>
+      </c>
+      <c r="E249" t="n">
+        <v>4</v>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G249" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I249" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>Navel Late</t>
+        </is>
+      </c>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M249" t="n">
+        <v>20</v>
+      </c>
+      <c r="N249" t="n">
+        <v>285000</v>
+      </c>
+      <c r="O249" t="n">
+        <v>290000</v>
+      </c>
+      <c r="P249" t="n">
+        <v>287500</v>
+      </c>
+      <c r="Q249" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R249" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S249" t="n">
+        <v>719</v>
+      </c>
+      <c r="T249" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>2</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D250" s="2" t="n">
+        <v>44168</v>
+      </c>
+      <c r="E250" t="n">
+        <v>4</v>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G250" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I250" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K250" t="inlineStr">
         <is>
           <t>Valencia</t>
         </is>
       </c>
-      <c r="L227" t="inlineStr">
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M250" t="n">
+        <v>16</v>
+      </c>
+      <c r="N250" t="n">
+        <v>355000</v>
+      </c>
+      <c r="O250" t="n">
+        <v>360000</v>
+      </c>
+      <c r="P250" t="n">
+        <v>357500</v>
+      </c>
+      <c r="Q250" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R250" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S250" t="n">
+        <v>894</v>
+      </c>
+      <c r="T250" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>2</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D251" s="2" t="n">
+        <v>44168</v>
+      </c>
+      <c r="E251" t="n">
+        <v>4</v>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G251" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I251" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M251" t="n">
+        <v>20</v>
+      </c>
+      <c r="N251" t="n">
+        <v>335000</v>
+      </c>
+      <c r="O251" t="n">
+        <v>340000</v>
+      </c>
+      <c r="P251" t="n">
+        <v>337500</v>
+      </c>
+      <c r="Q251" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R251" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S251" t="n">
+        <v>844</v>
+      </c>
+      <c r="T251" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>2</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D252" s="2" t="n">
+        <v>44168</v>
+      </c>
+      <c r="E252" t="n">
+        <v>4</v>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G252" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I252" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="L252" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M227" t="n">
-        <v>20</v>
-      </c>
-      <c r="N227" t="n">
+      <c r="M252" t="n">
+        <v>20</v>
+      </c>
+      <c r="N252" t="n">
         <v>295000</v>
       </c>
-      <c r="O227" t="n">
+      <c r="O252" t="n">
         <v>300000</v>
       </c>
-      <c r="P227" t="n">
+      <c r="P252" t="n">
         <v>297500</v>
       </c>
-      <c r="Q227" t="inlineStr">
-        <is>
-          <t>$/bins (400 kilos)</t>
-        </is>
-      </c>
-      <c r="R227" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="S227" t="n">
+      <c r="Q252" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R252" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S252" t="n">
         <v>744</v>
       </c>
-      <c r="T227" t="n">
+      <c r="T252" t="n">
         <v>400</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Comercializadora del Agro de Limarí - Naranja.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Comercializadora del Agro de Limarí - Naranja.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T277"/>
+  <dimension ref="A1:T281"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11047,7 +11047,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44259</v>
+        <v>44447</v>
       </c>
       <c r="E134" t="n">
         <v>4</v>
@@ -11075,7 +11075,7 @@
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L134" t="inlineStr">
@@ -11087,13 +11087,13 @@
         <v>20</v>
       </c>
       <c r="N134" t="n">
-        <v>455000</v>
+        <v>110000</v>
       </c>
       <c r="O134" t="n">
-        <v>460000</v>
+        <v>120000</v>
       </c>
       <c r="P134" t="n">
-        <v>457500</v>
+        <v>115000</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
@@ -11106,7 +11106,7 @@
         </is>
       </c>
       <c r="S134" t="n">
-        <v>1144</v>
+        <v>288</v>
       </c>
       <c r="T134" t="n">
         <v>400</v>
@@ -11127,7 +11127,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44259</v>
+        <v>44447</v>
       </c>
       <c r="E135" t="n">
         <v>4</v>
@@ -11155,7 +11155,7 @@
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L135" t="inlineStr">
@@ -11164,16 +11164,16 @@
         </is>
       </c>
       <c r="M135" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N135" t="n">
-        <v>415000</v>
+        <v>80000</v>
       </c>
       <c r="O135" t="n">
-        <v>420000</v>
+        <v>90000</v>
       </c>
       <c r="P135" t="n">
-        <v>417500</v>
+        <v>86429</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
@@ -11186,7 +11186,7 @@
         </is>
       </c>
       <c r="S135" t="n">
-        <v>1044</v>
+        <v>216</v>
       </c>
       <c r="T135" t="n">
         <v>400</v>
@@ -11207,7 +11207,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44300</v>
+        <v>44447</v>
       </c>
       <c r="E136" t="n">
         <v>4</v>
@@ -11235,25 +11235,25 @@
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M136" t="n">
         <v>20</v>
       </c>
       <c r="N136" t="n">
-        <v>495000</v>
+        <v>110000</v>
       </c>
       <c r="O136" t="n">
-        <v>500000</v>
+        <v>120000</v>
       </c>
       <c r="P136" t="n">
-        <v>497500</v>
+        <v>115000</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         </is>
       </c>
       <c r="S136" t="n">
-        <v>1244</v>
+        <v>288</v>
       </c>
       <c r="T136" t="n">
         <v>400</v>
@@ -11287,7 +11287,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44300</v>
+        <v>44447</v>
       </c>
       <c r="E137" t="n">
         <v>4</v>
@@ -11315,25 +11315,25 @@
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M137" t="n">
         <v>20</v>
       </c>
       <c r="N137" t="n">
-        <v>475000</v>
+        <v>80000</v>
       </c>
       <c r="O137" t="n">
-        <v>480000</v>
+        <v>90000</v>
       </c>
       <c r="P137" t="n">
-        <v>477500</v>
+        <v>85000</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="S137" t="n">
-        <v>1194</v>
+        <v>212</v>
       </c>
       <c r="T137" t="n">
         <v>400</v>
@@ -11367,7 +11367,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44392</v>
+        <v>44259</v>
       </c>
       <c r="E138" t="n">
         <v>4</v>
@@ -11395,7 +11395,7 @@
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>Cara cara</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L138" t="inlineStr">
@@ -11407,13 +11407,13 @@
         <v>20</v>
       </c>
       <c r="N138" t="n">
-        <v>125000</v>
+        <v>455000</v>
       </c>
       <c r="O138" t="n">
-        <v>130000</v>
+        <v>460000</v>
       </c>
       <c r="P138" t="n">
-        <v>127500</v>
+        <v>457500</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
@@ -11426,7 +11426,7 @@
         </is>
       </c>
       <c r="S138" t="n">
-        <v>319</v>
+        <v>1144</v>
       </c>
       <c r="T138" t="n">
         <v>400</v>
@@ -11447,7 +11447,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44392</v>
+        <v>44259</v>
       </c>
       <c r="E139" t="n">
         <v>4</v>
@@ -11475,25 +11475,25 @@
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M139" t="n">
         <v>20</v>
       </c>
       <c r="N139" t="n">
-        <v>100000</v>
+        <v>415000</v>
       </c>
       <c r="O139" t="n">
-        <v>110000</v>
+        <v>420000</v>
       </c>
       <c r="P139" t="n">
-        <v>105000</v>
+        <v>417500</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
@@ -11506,7 +11506,7 @@
         </is>
       </c>
       <c r="S139" t="n">
-        <v>262</v>
+        <v>1044</v>
       </c>
       <c r="T139" t="n">
         <v>400</v>
@@ -11527,7 +11527,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44392</v>
+        <v>44300</v>
       </c>
       <c r="E140" t="n">
         <v>4</v>
@@ -11555,25 +11555,25 @@
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M140" t="n">
         <v>20</v>
       </c>
       <c r="N140" t="n">
-        <v>80000</v>
+        <v>495000</v>
       </c>
       <c r="O140" t="n">
-        <v>90000</v>
+        <v>500000</v>
       </c>
       <c r="P140" t="n">
-        <v>85000</v>
+        <v>497500</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
@@ -11586,7 +11586,7 @@
         </is>
       </c>
       <c r="S140" t="n">
-        <v>212</v>
+        <v>1244</v>
       </c>
       <c r="T140" t="n">
         <v>400</v>
@@ -11607,7 +11607,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44392</v>
+        <v>44300</v>
       </c>
       <c r="E141" t="n">
         <v>4</v>
@@ -11635,7 +11635,7 @@
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L141" t="inlineStr">
@@ -11647,13 +11647,13 @@
         <v>20</v>
       </c>
       <c r="N141" t="n">
-        <v>100000</v>
+        <v>475000</v>
       </c>
       <c r="O141" t="n">
-        <v>110000</v>
+        <v>480000</v>
       </c>
       <c r="P141" t="n">
-        <v>105000</v>
+        <v>477500</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         </is>
       </c>
       <c r="S141" t="n">
-        <v>262</v>
+        <v>1194</v>
       </c>
       <c r="T141" t="n">
         <v>400</v>
@@ -11715,25 +11715,25 @@
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Cara cara</t>
         </is>
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M142" t="n">
         <v>20</v>
       </c>
       <c r="N142" t="n">
-        <v>80000</v>
+        <v>125000</v>
       </c>
       <c r="O142" t="n">
-        <v>90000</v>
+        <v>130000</v>
       </c>
       <c r="P142" t="n">
-        <v>85000</v>
+        <v>127500</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="S142" t="n">
-        <v>212</v>
+        <v>319</v>
       </c>
       <c r="T142" t="n">
         <v>400</v>
@@ -11795,7 +11795,7 @@
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L143" t="inlineStr">
@@ -11875,7 +11875,7 @@
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L144" t="inlineStr">
@@ -11927,7 +11927,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44224</v>
+        <v>44392</v>
       </c>
       <c r="E145" t="n">
         <v>4</v>
@@ -11955,25 +11955,25 @@
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M145" t="n">
         <v>20</v>
       </c>
       <c r="N145" t="n">
-        <v>515000</v>
+        <v>100000</v>
       </c>
       <c r="O145" t="n">
-        <v>520000</v>
+        <v>110000</v>
       </c>
       <c r="P145" t="n">
-        <v>517500</v>
+        <v>105000</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         </is>
       </c>
       <c r="S145" t="n">
-        <v>1294</v>
+        <v>262</v>
       </c>
       <c r="T145" t="n">
         <v>400</v>
@@ -12007,7 +12007,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44224</v>
+        <v>44392</v>
       </c>
       <c r="E146" t="n">
         <v>4</v>
@@ -12035,25 +12035,25 @@
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M146" t="n">
         <v>20</v>
       </c>
       <c r="N146" t="n">
-        <v>495000</v>
+        <v>80000</v>
       </c>
       <c r="O146" t="n">
-        <v>500000</v>
+        <v>90000</v>
       </c>
       <c r="P146" t="n">
-        <v>497500</v>
+        <v>85000</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         </is>
       </c>
       <c r="S146" t="n">
-        <v>1244</v>
+        <v>212</v>
       </c>
       <c r="T146" t="n">
         <v>400</v>
@@ -12087,7 +12087,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44217</v>
+        <v>44392</v>
       </c>
       <c r="E147" t="n">
         <v>4</v>
@@ -12115,7 +12115,7 @@
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L147" t="inlineStr">
@@ -12127,13 +12127,13 @@
         <v>20</v>
       </c>
       <c r="N147" t="n">
-        <v>465000</v>
+        <v>100000</v>
       </c>
       <c r="O147" t="n">
-        <v>470000</v>
+        <v>110000</v>
       </c>
       <c r="P147" t="n">
-        <v>467500</v>
+        <v>105000</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="S147" t="n">
-        <v>1169</v>
+        <v>262</v>
       </c>
       <c r="T147" t="n">
         <v>400</v>
@@ -12167,7 +12167,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44217</v>
+        <v>44392</v>
       </c>
       <c r="E148" t="n">
         <v>4</v>
@@ -12195,7 +12195,7 @@
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L148" t="inlineStr">
@@ -12207,13 +12207,13 @@
         <v>20</v>
       </c>
       <c r="N148" t="n">
-        <v>425000</v>
+        <v>80000</v>
       </c>
       <c r="O148" t="n">
-        <v>430000</v>
+        <v>90000</v>
       </c>
       <c r="P148" t="n">
-        <v>427500</v>
+        <v>85000</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
@@ -12226,7 +12226,7 @@
         </is>
       </c>
       <c r="S148" t="n">
-        <v>1069</v>
+        <v>212</v>
       </c>
       <c r="T148" t="n">
         <v>400</v>
@@ -12247,7 +12247,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44384</v>
+        <v>44224</v>
       </c>
       <c r="E149" t="n">
         <v>4</v>
@@ -12275,25 +12275,25 @@
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M149" t="n">
         <v>20</v>
       </c>
       <c r="N149" t="n">
-        <v>125000</v>
+        <v>515000</v>
       </c>
       <c r="O149" t="n">
-        <v>130000</v>
+        <v>520000</v>
       </c>
       <c r="P149" t="n">
-        <v>127500</v>
+        <v>517500</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
@@ -12306,7 +12306,7 @@
         </is>
       </c>
       <c r="S149" t="n">
-        <v>319</v>
+        <v>1294</v>
       </c>
       <c r="T149" t="n">
         <v>400</v>
@@ -12327,7 +12327,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44384</v>
+        <v>44224</v>
       </c>
       <c r="E150" t="n">
         <v>4</v>
@@ -12355,25 +12355,25 @@
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M150" t="n">
         <v>20</v>
       </c>
       <c r="N150" t="n">
-        <v>105000</v>
+        <v>495000</v>
       </c>
       <c r="O150" t="n">
-        <v>110000</v>
+        <v>500000</v>
       </c>
       <c r="P150" t="n">
-        <v>107500</v>
+        <v>497500</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
@@ -12386,7 +12386,7 @@
         </is>
       </c>
       <c r="S150" t="n">
-        <v>269</v>
+        <v>1244</v>
       </c>
       <c r="T150" t="n">
         <v>400</v>
@@ -12407,7 +12407,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44384</v>
+        <v>44217</v>
       </c>
       <c r="E151" t="n">
         <v>4</v>
@@ -12435,7 +12435,7 @@
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L151" t="inlineStr">
@@ -12447,13 +12447,13 @@
         <v>20</v>
       </c>
       <c r="N151" t="n">
-        <v>125000</v>
+        <v>465000</v>
       </c>
       <c r="O151" t="n">
-        <v>130000</v>
+        <v>470000</v>
       </c>
       <c r="P151" t="n">
-        <v>127500</v>
+        <v>467500</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         </is>
       </c>
       <c r="S151" t="n">
-        <v>319</v>
+        <v>1169</v>
       </c>
       <c r="T151" t="n">
         <v>400</v>
@@ -12487,7 +12487,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44384</v>
+        <v>44217</v>
       </c>
       <c r="E152" t="n">
         <v>4</v>
@@ -12515,7 +12515,7 @@
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L152" t="inlineStr">
@@ -12527,13 +12527,13 @@
         <v>20</v>
       </c>
       <c r="N152" t="n">
-        <v>105000</v>
+        <v>425000</v>
       </c>
       <c r="O152" t="n">
-        <v>110000</v>
+        <v>430000</v>
       </c>
       <c r="P152" t="n">
-        <v>107500</v>
+        <v>427500</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="S152" t="n">
-        <v>269</v>
+        <v>1069</v>
       </c>
       <c r="T152" t="n">
         <v>400</v>
@@ -12595,7 +12595,7 @@
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L153" t="inlineStr">
@@ -12607,13 +12607,13 @@
         <v>20</v>
       </c>
       <c r="N153" t="n">
-        <v>115000</v>
+        <v>125000</v>
       </c>
       <c r="O153" t="n">
-        <v>120000</v>
+        <v>130000</v>
       </c>
       <c r="P153" t="n">
-        <v>117500</v>
+        <v>127500</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
@@ -12626,7 +12626,7 @@
         </is>
       </c>
       <c r="S153" t="n">
-        <v>294</v>
+        <v>319</v>
       </c>
       <c r="T153" t="n">
         <v>400</v>
@@ -12675,7 +12675,7 @@
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L154" t="inlineStr">
@@ -12687,13 +12687,13 @@
         <v>20</v>
       </c>
       <c r="N154" t="n">
-        <v>95000</v>
+        <v>105000</v>
       </c>
       <c r="O154" t="n">
-        <v>100000</v>
+        <v>110000</v>
       </c>
       <c r="P154" t="n">
-        <v>97500</v>
+        <v>107500</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
@@ -12706,7 +12706,7 @@
         </is>
       </c>
       <c r="S154" t="n">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="T154" t="n">
         <v>400</v>
@@ -12727,7 +12727,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44168</v>
+        <v>44384</v>
       </c>
       <c r="E155" t="n">
         <v>4</v>
@@ -12767,13 +12767,13 @@
         <v>20</v>
       </c>
       <c r="N155" t="n">
-        <v>325000</v>
+        <v>125000</v>
       </c>
       <c r="O155" t="n">
-        <v>330000</v>
+        <v>130000</v>
       </c>
       <c r="P155" t="n">
-        <v>327500</v>
+        <v>127500</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         </is>
       </c>
       <c r="S155" t="n">
-        <v>819</v>
+        <v>319</v>
       </c>
       <c r="T155" t="n">
         <v>400</v>
@@ -12807,7 +12807,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44168</v>
+        <v>44384</v>
       </c>
       <c r="E156" t="n">
         <v>4</v>
@@ -12847,13 +12847,13 @@
         <v>20</v>
       </c>
       <c r="N156" t="n">
-        <v>285000</v>
+        <v>105000</v>
       </c>
       <c r="O156" t="n">
-        <v>290000</v>
+        <v>110000</v>
       </c>
       <c r="P156" t="n">
-        <v>287500</v>
+        <v>107500</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
@@ -12866,7 +12866,7 @@
         </is>
       </c>
       <c r="S156" t="n">
-        <v>719</v>
+        <v>269</v>
       </c>
       <c r="T156" t="n">
         <v>400</v>
@@ -12887,7 +12887,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44168</v>
+        <v>44384</v>
       </c>
       <c r="E157" t="n">
         <v>4</v>
@@ -12915,25 +12915,25 @@
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M157" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N157" t="n">
-        <v>355000</v>
+        <v>115000</v>
       </c>
       <c r="O157" t="n">
-        <v>360000</v>
+        <v>120000</v>
       </c>
       <c r="P157" t="n">
-        <v>357500</v>
+        <v>117500</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="S157" t="n">
-        <v>894</v>
+        <v>294</v>
       </c>
       <c r="T157" t="n">
         <v>400</v>
@@ -12967,7 +12967,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44168</v>
+        <v>44384</v>
       </c>
       <c r="E158" t="n">
         <v>4</v>
@@ -12995,25 +12995,25 @@
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M158" t="n">
         <v>20</v>
       </c>
       <c r="N158" t="n">
-        <v>335000</v>
+        <v>95000</v>
       </c>
       <c r="O158" t="n">
-        <v>340000</v>
+        <v>100000</v>
       </c>
       <c r="P158" t="n">
-        <v>337500</v>
+        <v>97500</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         </is>
       </c>
       <c r="S158" t="n">
-        <v>844</v>
+        <v>244</v>
       </c>
       <c r="T158" t="n">
         <v>400</v>
@@ -13075,25 +13075,25 @@
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M159" t="n">
         <v>20</v>
       </c>
       <c r="N159" t="n">
-        <v>295000</v>
+        <v>325000</v>
       </c>
       <c r="O159" t="n">
-        <v>300000</v>
+        <v>330000</v>
       </c>
       <c r="P159" t="n">
-        <v>297500</v>
+        <v>327500</v>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         </is>
       </c>
       <c r="S159" t="n">
-        <v>744</v>
+        <v>819</v>
       </c>
       <c r="T159" t="n">
         <v>400</v>
@@ -13127,7 +13127,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44322</v>
+        <v>44168</v>
       </c>
       <c r="E160" t="n">
         <v>4</v>
@@ -13155,25 +13155,25 @@
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M160" t="n">
         <v>20</v>
       </c>
       <c r="N160" t="n">
-        <v>310000</v>
+        <v>285000</v>
       </c>
       <c r="O160" t="n">
-        <v>320000</v>
+        <v>290000</v>
       </c>
       <c r="P160" t="n">
-        <v>315000</v>
+        <v>287500</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         </is>
       </c>
       <c r="S160" t="n">
-        <v>788</v>
+        <v>719</v>
       </c>
       <c r="T160" t="n">
         <v>400</v>
@@ -13207,7 +13207,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44322</v>
+        <v>44168</v>
       </c>
       <c r="E161" t="n">
         <v>4</v>
@@ -13235,25 +13235,25 @@
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M161" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N161" t="n">
-        <v>270000</v>
+        <v>355000</v>
       </c>
       <c r="O161" t="n">
-        <v>280000</v>
+        <v>360000</v>
       </c>
       <c r="P161" t="n">
-        <v>275000</v>
+        <v>357500</v>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
@@ -13266,7 +13266,7 @@
         </is>
       </c>
       <c r="S161" t="n">
-        <v>688</v>
+        <v>894</v>
       </c>
       <c r="T161" t="n">
         <v>400</v>
@@ -13287,7 +13287,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44322</v>
+        <v>44168</v>
       </c>
       <c r="E162" t="n">
         <v>4</v>
@@ -13324,16 +13324,16 @@
         </is>
       </c>
       <c r="M162" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N162" t="n">
-        <v>460000</v>
+        <v>335000</v>
       </c>
       <c r="O162" t="n">
-        <v>470000</v>
+        <v>340000</v>
       </c>
       <c r="P162" t="n">
-        <v>465000</v>
+        <v>337500</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="S162" t="n">
-        <v>1162</v>
+        <v>844</v>
       </c>
       <c r="T162" t="n">
         <v>400</v>
@@ -13367,7 +13367,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44272</v>
+        <v>44168</v>
       </c>
       <c r="E163" t="n">
         <v>4</v>
@@ -13400,20 +13400,20 @@
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M163" t="n">
         <v>20</v>
       </c>
       <c r="N163" t="n">
-        <v>455000</v>
+        <v>295000</v>
       </c>
       <c r="O163" t="n">
-        <v>460000</v>
+        <v>300000</v>
       </c>
       <c r="P163" t="n">
-        <v>457500</v>
+        <v>297500</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
@@ -13426,7 +13426,7 @@
         </is>
       </c>
       <c r="S163" t="n">
-        <v>1144</v>
+        <v>744</v>
       </c>
       <c r="T163" t="n">
         <v>400</v>
@@ -13447,7 +13447,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44272</v>
+        <v>44322</v>
       </c>
       <c r="E164" t="n">
         <v>4</v>
@@ -13475,25 +13475,25 @@
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M164" t="n">
         <v>20</v>
       </c>
       <c r="N164" t="n">
-        <v>415000</v>
+        <v>310000</v>
       </c>
       <c r="O164" t="n">
-        <v>420000</v>
+        <v>320000</v>
       </c>
       <c r="P164" t="n">
-        <v>417500</v>
+        <v>315000</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         </is>
       </c>
       <c r="S164" t="n">
-        <v>1044</v>
+        <v>788</v>
       </c>
       <c r="T164" t="n">
         <v>400</v>
@@ -13527,7 +13527,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44433</v>
+        <v>44322</v>
       </c>
       <c r="E165" t="n">
         <v>4</v>
@@ -13560,20 +13560,20 @@
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M165" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N165" t="n">
-        <v>125000</v>
+        <v>270000</v>
       </c>
       <c r="O165" t="n">
-        <v>130000</v>
+        <v>280000</v>
       </c>
       <c r="P165" t="n">
-        <v>127500</v>
+        <v>275000</v>
       </c>
       <c r="Q165" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         </is>
       </c>
       <c r="S165" t="n">
-        <v>319</v>
+        <v>688</v>
       </c>
       <c r="T165" t="n">
         <v>400</v>
@@ -13607,7 +13607,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44433</v>
+        <v>44322</v>
       </c>
       <c r="E166" t="n">
         <v>4</v>
@@ -13635,7 +13635,7 @@
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L166" t="inlineStr">
@@ -13644,16 +13644,16 @@
         </is>
       </c>
       <c r="M166" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N166" t="n">
-        <v>105000</v>
+        <v>460000</v>
       </c>
       <c r="O166" t="n">
-        <v>110000</v>
+        <v>470000</v>
       </c>
       <c r="P166" t="n">
-        <v>107500</v>
+        <v>465000</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         </is>
       </c>
       <c r="S166" t="n">
-        <v>269</v>
+        <v>1162</v>
       </c>
       <c r="T166" t="n">
         <v>400</v>
@@ -13687,7 +13687,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44433</v>
+        <v>44272</v>
       </c>
       <c r="E167" t="n">
         <v>4</v>
@@ -13715,25 +13715,25 @@
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M167" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="N167" t="n">
-        <v>85000</v>
+        <v>455000</v>
       </c>
       <c r="O167" t="n">
-        <v>90000</v>
+        <v>460000</v>
       </c>
       <c r="P167" t="n">
-        <v>88214</v>
+        <v>457500</v>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="S167" t="n">
-        <v>221</v>
+        <v>1144</v>
       </c>
       <c r="T167" t="n">
         <v>400</v>
@@ -13767,7 +13767,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44433</v>
+        <v>44272</v>
       </c>
       <c r="E168" t="n">
         <v>4</v>
@@ -13795,25 +13795,25 @@
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M168" t="n">
         <v>20</v>
       </c>
       <c r="N168" t="n">
-        <v>95000</v>
+        <v>415000</v>
       </c>
       <c r="O168" t="n">
-        <v>100000</v>
+        <v>420000</v>
       </c>
       <c r="P168" t="n">
-        <v>97500</v>
+        <v>417500</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
@@ -13826,7 +13826,7 @@
         </is>
       </c>
       <c r="S168" t="n">
-        <v>244</v>
+        <v>1044</v>
       </c>
       <c r="T168" t="n">
         <v>400</v>
@@ -13875,25 +13875,25 @@
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M169" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N169" t="n">
-        <v>75000</v>
+        <v>125000</v>
       </c>
       <c r="O169" t="n">
-        <v>80000</v>
+        <v>130000</v>
       </c>
       <c r="P169" t="n">
-        <v>77500</v>
+        <v>127500</v>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
@@ -13906,7 +13906,7 @@
         </is>
       </c>
       <c r="S169" t="n">
-        <v>194</v>
+        <v>319</v>
       </c>
       <c r="T169" t="n">
         <v>400</v>
@@ -13955,7 +13955,7 @@
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L170" t="inlineStr">
@@ -13967,13 +13967,13 @@
         <v>20</v>
       </c>
       <c r="N170" t="n">
-        <v>95000</v>
+        <v>105000</v>
       </c>
       <c r="O170" t="n">
-        <v>100000</v>
+        <v>110000</v>
       </c>
       <c r="P170" t="n">
-        <v>97500</v>
+        <v>107500</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         </is>
       </c>
       <c r="S170" t="n">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="T170" t="n">
         <v>400</v>
@@ -14035,7 +14035,7 @@
       </c>
       <c r="K171" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L171" t="inlineStr">
@@ -14044,16 +14044,16 @@
         </is>
       </c>
       <c r="M171" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N171" t="n">
-        <v>75000</v>
+        <v>85000</v>
       </c>
       <c r="O171" t="n">
-        <v>80000</v>
+        <v>90000</v>
       </c>
       <c r="P171" t="n">
-        <v>77500</v>
+        <v>88214</v>
       </c>
       <c r="Q171" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         </is>
       </c>
       <c r="S171" t="n">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="T171" t="n">
         <v>400</v>
@@ -14087,7 +14087,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44321</v>
+        <v>44433</v>
       </c>
       <c r="E172" t="n">
         <v>4</v>
@@ -14115,7 +14115,7 @@
       </c>
       <c r="K172" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L172" t="inlineStr">
@@ -14127,13 +14127,13 @@
         <v>20</v>
       </c>
       <c r="N172" t="n">
-        <v>320000</v>
+        <v>95000</v>
       </c>
       <c r="O172" t="n">
-        <v>330000</v>
+        <v>100000</v>
       </c>
       <c r="P172" t="n">
-        <v>325000</v>
+        <v>97500</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="S172" t="n">
-        <v>812</v>
+        <v>244</v>
       </c>
       <c r="T172" t="n">
         <v>400</v>
@@ -14167,7 +14167,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44321</v>
+        <v>44433</v>
       </c>
       <c r="E173" t="n">
         <v>4</v>
@@ -14195,7 +14195,7 @@
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L173" t="inlineStr">
@@ -14207,13 +14207,13 @@
         <v>20</v>
       </c>
       <c r="N173" t="n">
-        <v>280000</v>
+        <v>75000</v>
       </c>
       <c r="O173" t="n">
-        <v>290000</v>
+        <v>80000</v>
       </c>
       <c r="P173" t="n">
-        <v>285000</v>
+        <v>77500</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
@@ -14226,7 +14226,7 @@
         </is>
       </c>
       <c r="S173" t="n">
-        <v>712</v>
+        <v>194</v>
       </c>
       <c r="T173" t="n">
         <v>400</v>
@@ -14247,7 +14247,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44321</v>
+        <v>44433</v>
       </c>
       <c r="E174" t="n">
         <v>4</v>
@@ -14275,7 +14275,7 @@
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L174" t="inlineStr">
@@ -14284,16 +14284,16 @@
         </is>
       </c>
       <c r="M174" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N174" t="n">
-        <v>460000</v>
+        <v>95000</v>
       </c>
       <c r="O174" t="n">
-        <v>470000</v>
+        <v>100000</v>
       </c>
       <c r="P174" t="n">
-        <v>465000</v>
+        <v>97500</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
@@ -14306,7 +14306,7 @@
         </is>
       </c>
       <c r="S174" t="n">
-        <v>1162</v>
+        <v>244</v>
       </c>
       <c r="T174" t="n">
         <v>400</v>
@@ -14327,7 +14327,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44335</v>
+        <v>44433</v>
       </c>
       <c r="E175" t="n">
         <v>4</v>
@@ -14355,25 +14355,25 @@
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M175" t="n">
         <v>20</v>
       </c>
       <c r="N175" t="n">
-        <v>250000</v>
+        <v>75000</v>
       </c>
       <c r="O175" t="n">
-        <v>255000</v>
+        <v>80000</v>
       </c>
       <c r="P175" t="n">
-        <v>252500</v>
+        <v>77500</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         </is>
       </c>
       <c r="S175" t="n">
-        <v>631</v>
+        <v>194</v>
       </c>
       <c r="T175" t="n">
         <v>400</v>
@@ -14407,7 +14407,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44335</v>
+        <v>44321</v>
       </c>
       <c r="E176" t="n">
         <v>4</v>
@@ -14435,7 +14435,7 @@
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L176" t="inlineStr">
@@ -14447,13 +14447,13 @@
         <v>20</v>
       </c>
       <c r="N176" t="n">
-        <v>250000</v>
+        <v>320000</v>
       </c>
       <c r="O176" t="n">
-        <v>255000</v>
+        <v>330000</v>
       </c>
       <c r="P176" t="n">
-        <v>252500</v>
+        <v>325000</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         </is>
       </c>
       <c r="S176" t="n">
-        <v>631</v>
+        <v>812</v>
       </c>
       <c r="T176" t="n">
         <v>400</v>
@@ -14487,7 +14487,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44426</v>
+        <v>44321</v>
       </c>
       <c r="E177" t="n">
         <v>4</v>
@@ -14515,25 +14515,25 @@
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>Cara cara</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M177" t="n">
         <v>20</v>
       </c>
       <c r="N177" t="n">
-        <v>100000</v>
+        <v>280000</v>
       </c>
       <c r="O177" t="n">
-        <v>110000</v>
+        <v>290000</v>
       </c>
       <c r="P177" t="n">
-        <v>105000</v>
+        <v>285000</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="S177" t="n">
-        <v>262</v>
+        <v>712</v>
       </c>
       <c r="T177" t="n">
         <v>400</v>
@@ -14567,7 +14567,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44426</v>
+        <v>44321</v>
       </c>
       <c r="E178" t="n">
         <v>4</v>
@@ -14595,25 +14595,25 @@
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>Cara cara</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M178" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N178" t="n">
-        <v>80000</v>
+        <v>460000</v>
       </c>
       <c r="O178" t="n">
-        <v>90000</v>
+        <v>470000</v>
       </c>
       <c r="P178" t="n">
-        <v>85000</v>
+        <v>465000</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         </is>
       </c>
       <c r="S178" t="n">
-        <v>212</v>
+        <v>1162</v>
       </c>
       <c r="T178" t="n">
         <v>400</v>
@@ -14647,7 +14647,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44426</v>
+        <v>44335</v>
       </c>
       <c r="E179" t="n">
         <v>4</v>
@@ -14687,13 +14687,13 @@
         <v>20</v>
       </c>
       <c r="N179" t="n">
-        <v>100000</v>
+        <v>250000</v>
       </c>
       <c r="O179" t="n">
-        <v>110000</v>
+        <v>255000</v>
       </c>
       <c r="P179" t="n">
-        <v>105000</v>
+        <v>252500</v>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
@@ -14706,7 +14706,7 @@
         </is>
       </c>
       <c r="S179" t="n">
-        <v>262</v>
+        <v>631</v>
       </c>
       <c r="T179" t="n">
         <v>400</v>
@@ -14727,7 +14727,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44426</v>
+        <v>44335</v>
       </c>
       <c r="E180" t="n">
         <v>4</v>
@@ -14755,25 +14755,25 @@
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M180" t="n">
         <v>20</v>
       </c>
       <c r="N180" t="n">
-        <v>80000</v>
+        <v>250000</v>
       </c>
       <c r="O180" t="n">
-        <v>90000</v>
+        <v>255000</v>
       </c>
       <c r="P180" t="n">
-        <v>85000</v>
+        <v>252500</v>
       </c>
       <c r="Q180" t="inlineStr">
         <is>
@@ -14786,7 +14786,7 @@
         </is>
       </c>
       <c r="S180" t="n">
-        <v>212</v>
+        <v>631</v>
       </c>
       <c r="T180" t="n">
         <v>400</v>
@@ -14835,7 +14835,7 @@
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Cara cara</t>
         </is>
       </c>
       <c r="L181" t="inlineStr">
@@ -14915,7 +14915,7 @@
       </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Cara cara</t>
         </is>
       </c>
       <c r="L182" t="inlineStr">
@@ -14995,7 +14995,7 @@
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L183" t="inlineStr">
@@ -15075,7 +15075,7 @@
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L184" t="inlineStr">
@@ -15127,7 +15127,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44434</v>
+        <v>44426</v>
       </c>
       <c r="E185" t="n">
         <v>4</v>
@@ -15155,25 +15155,25 @@
       </c>
       <c r="K185" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M185" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N185" t="n">
-        <v>125000</v>
+        <v>100000</v>
       </c>
       <c r="O185" t="n">
-        <v>130000</v>
+        <v>110000</v>
       </c>
       <c r="P185" t="n">
-        <v>127500</v>
+        <v>105000</v>
       </c>
       <c r="Q185" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         </is>
       </c>
       <c r="S185" t="n">
-        <v>319</v>
+        <v>262</v>
       </c>
       <c r="T185" t="n">
         <v>400</v>
@@ -15207,7 +15207,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44434</v>
+        <v>44426</v>
       </c>
       <c r="E186" t="n">
         <v>4</v>
@@ -15235,25 +15235,25 @@
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M186" t="n">
         <v>20</v>
       </c>
       <c r="N186" t="n">
-        <v>105000</v>
+        <v>80000</v>
       </c>
       <c r="O186" t="n">
-        <v>110000</v>
+        <v>90000</v>
       </c>
       <c r="P186" t="n">
-        <v>107500</v>
+        <v>85000</v>
       </c>
       <c r="Q186" t="inlineStr">
         <is>
@@ -15266,7 +15266,7 @@
         </is>
       </c>
       <c r="S186" t="n">
-        <v>269</v>
+        <v>212</v>
       </c>
       <c r="T186" t="n">
         <v>400</v>
@@ -15287,7 +15287,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44434</v>
+        <v>44426</v>
       </c>
       <c r="E187" t="n">
         <v>4</v>
@@ -15315,25 +15315,25 @@
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M187" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N187" t="n">
-        <v>85000</v>
+        <v>100000</v>
       </c>
       <c r="O187" t="n">
-        <v>90000</v>
+        <v>110000</v>
       </c>
       <c r="P187" t="n">
-        <v>87500</v>
+        <v>105000</v>
       </c>
       <c r="Q187" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="S187" t="n">
-        <v>219</v>
+        <v>262</v>
       </c>
       <c r="T187" t="n">
         <v>400</v>
@@ -15367,7 +15367,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44434</v>
+        <v>44426</v>
       </c>
       <c r="E188" t="n">
         <v>4</v>
@@ -15395,25 +15395,25 @@
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M188" t="n">
         <v>20</v>
       </c>
       <c r="N188" t="n">
-        <v>95000</v>
+        <v>80000</v>
       </c>
       <c r="O188" t="n">
-        <v>100000</v>
+        <v>90000</v>
       </c>
       <c r="P188" t="n">
-        <v>97500</v>
+        <v>85000</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
@@ -15426,7 +15426,7 @@
         </is>
       </c>
       <c r="S188" t="n">
-        <v>244</v>
+        <v>212</v>
       </c>
       <c r="T188" t="n">
         <v>400</v>
@@ -15475,25 +15475,25 @@
       </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M189" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N189" t="n">
-        <v>75000</v>
+        <v>125000</v>
       </c>
       <c r="O189" t="n">
-        <v>80000</v>
+        <v>130000</v>
       </c>
       <c r="P189" t="n">
-        <v>77500</v>
+        <v>127500</v>
       </c>
       <c r="Q189" t="inlineStr">
         <is>
@@ -15506,7 +15506,7 @@
         </is>
       </c>
       <c r="S189" t="n">
-        <v>194</v>
+        <v>319</v>
       </c>
       <c r="T189" t="n">
         <v>400</v>
@@ -15555,7 +15555,7 @@
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L190" t="inlineStr">
@@ -15564,16 +15564,16 @@
         </is>
       </c>
       <c r="M190" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N190" t="n">
-        <v>95000</v>
+        <v>105000</v>
       </c>
       <c r="O190" t="n">
-        <v>100000</v>
+        <v>110000</v>
       </c>
       <c r="P190" t="n">
-        <v>97500</v>
+        <v>107500</v>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         </is>
       </c>
       <c r="S190" t="n">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="T190" t="n">
         <v>400</v>
@@ -15635,7 +15635,7 @@
       </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L191" t="inlineStr">
@@ -15647,13 +15647,13 @@
         <v>16</v>
       </c>
       <c r="N191" t="n">
-        <v>75000</v>
+        <v>85000</v>
       </c>
       <c r="O191" t="n">
-        <v>80000</v>
+        <v>90000</v>
       </c>
       <c r="P191" t="n">
-        <v>77500</v>
+        <v>87500</v>
       </c>
       <c r="Q191" t="inlineStr">
         <is>
@@ -15666,7 +15666,7 @@
         </is>
       </c>
       <c r="S191" t="n">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="T191" t="n">
         <v>400</v>
@@ -15687,7 +15687,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44398</v>
+        <v>44434</v>
       </c>
       <c r="E192" t="n">
         <v>4</v>
@@ -15715,7 +15715,7 @@
       </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L192" t="inlineStr">
@@ -15727,13 +15727,13 @@
         <v>20</v>
       </c>
       <c r="N192" t="n">
+        <v>95000</v>
+      </c>
+      <c r="O192" t="n">
         <v>100000</v>
       </c>
-      <c r="O192" t="n">
-        <v>110000</v>
-      </c>
       <c r="P192" t="n">
-        <v>105000</v>
+        <v>97500</v>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="S192" t="n">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="T192" t="n">
         <v>400</v>
@@ -15767,7 +15767,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44398</v>
+        <v>44434</v>
       </c>
       <c r="E193" t="n">
         <v>4</v>
@@ -15795,7 +15795,7 @@
       </c>
       <c r="K193" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L193" t="inlineStr">
@@ -15807,13 +15807,13 @@
         <v>20</v>
       </c>
       <c r="N193" t="n">
+        <v>75000</v>
+      </c>
+      <c r="O193" t="n">
         <v>80000</v>
       </c>
-      <c r="O193" t="n">
-        <v>90000</v>
-      </c>
       <c r="P193" t="n">
-        <v>85000</v>
+        <v>77500</v>
       </c>
       <c r="Q193" t="inlineStr">
         <is>
@@ -15826,7 +15826,7 @@
         </is>
       </c>
       <c r="S193" t="n">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="T193" t="n">
         <v>400</v>
@@ -15847,7 +15847,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44398</v>
+        <v>44434</v>
       </c>
       <c r="E194" t="n">
         <v>4</v>
@@ -15875,7 +15875,7 @@
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L194" t="inlineStr">
@@ -15884,16 +15884,16 @@
         </is>
       </c>
       <c r="M194" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N194" t="n">
+        <v>95000</v>
+      </c>
+      <c r="O194" t="n">
         <v>100000</v>
       </c>
-      <c r="O194" t="n">
-        <v>110000</v>
-      </c>
       <c r="P194" t="n">
-        <v>105000</v>
+        <v>97500</v>
       </c>
       <c r="Q194" t="inlineStr">
         <is>
@@ -15906,7 +15906,7 @@
         </is>
       </c>
       <c r="S194" t="n">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="T194" t="n">
         <v>400</v>
@@ -15927,7 +15927,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44398</v>
+        <v>44434</v>
       </c>
       <c r="E195" t="n">
         <v>4</v>
@@ -15960,20 +15960,20 @@
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M195" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N195" t="n">
-        <v>100000</v>
+        <v>75000</v>
       </c>
       <c r="O195" t="n">
-        <v>110000</v>
+        <v>80000</v>
       </c>
       <c r="P195" t="n">
-        <v>105000</v>
+        <v>77500</v>
       </c>
       <c r="Q195" t="inlineStr">
         <is>
@@ -15986,7 +15986,7 @@
         </is>
       </c>
       <c r="S195" t="n">
-        <v>262</v>
+        <v>194</v>
       </c>
       <c r="T195" t="n">
         <v>400</v>
@@ -16035,25 +16035,25 @@
       </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M196" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N196" t="n">
-        <v>80000</v>
+        <v>100000</v>
       </c>
       <c r="O196" t="n">
-        <v>90000</v>
+        <v>110000</v>
       </c>
       <c r="P196" t="n">
-        <v>85000</v>
+        <v>105000</v>
       </c>
       <c r="Q196" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         </is>
       </c>
       <c r="S196" t="n">
-        <v>212</v>
+        <v>262</v>
       </c>
       <c r="T196" t="n">
         <v>400</v>
@@ -16087,7 +16087,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44420</v>
+        <v>44398</v>
       </c>
       <c r="E197" t="n">
         <v>4</v>
@@ -16120,20 +16120,20 @@
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M197" t="n">
         <v>20</v>
       </c>
       <c r="N197" t="n">
-        <v>115000</v>
+        <v>80000</v>
       </c>
       <c r="O197" t="n">
-        <v>120000</v>
+        <v>90000</v>
       </c>
       <c r="P197" t="n">
-        <v>117500</v>
+        <v>85000</v>
       </c>
       <c r="Q197" t="inlineStr">
         <is>
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="S197" t="n">
-        <v>294</v>
+        <v>212</v>
       </c>
       <c r="T197" t="n">
         <v>400</v>
@@ -16167,7 +16167,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44420</v>
+        <v>44398</v>
       </c>
       <c r="E198" t="n">
         <v>4</v>
@@ -16195,25 +16195,25 @@
       </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M198" t="n">
         <v>20</v>
       </c>
       <c r="N198" t="n">
-        <v>85000</v>
+        <v>100000</v>
       </c>
       <c r="O198" t="n">
-        <v>90000</v>
+        <v>110000</v>
       </c>
       <c r="P198" t="n">
-        <v>87500</v>
+        <v>105000</v>
       </c>
       <c r="Q198" t="inlineStr">
         <is>
@@ -16226,7 +16226,7 @@
         </is>
       </c>
       <c r="S198" t="n">
-        <v>219</v>
+        <v>262</v>
       </c>
       <c r="T198" t="n">
         <v>400</v>
@@ -16247,7 +16247,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44420</v>
+        <v>44398</v>
       </c>
       <c r="E199" t="n">
         <v>4</v>
@@ -16287,13 +16287,13 @@
         <v>20</v>
       </c>
       <c r="N199" t="n">
-        <v>105000</v>
+        <v>100000</v>
       </c>
       <c r="O199" t="n">
         <v>110000</v>
       </c>
       <c r="P199" t="n">
-        <v>107500</v>
+        <v>105000</v>
       </c>
       <c r="Q199" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         </is>
       </c>
       <c r="S199" t="n">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="T199" t="n">
         <v>400</v>
@@ -16327,7 +16327,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44420</v>
+        <v>44398</v>
       </c>
       <c r="E200" t="n">
         <v>4</v>
@@ -16364,16 +16364,16 @@
         </is>
       </c>
       <c r="M200" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N200" t="n">
-        <v>75000</v>
+        <v>80000</v>
       </c>
       <c r="O200" t="n">
-        <v>80000</v>
+        <v>90000</v>
       </c>
       <c r="P200" t="n">
-        <v>77500</v>
+        <v>85000</v>
       </c>
       <c r="Q200" t="inlineStr">
         <is>
@@ -16386,7 +16386,7 @@
         </is>
       </c>
       <c r="S200" t="n">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="T200" t="n">
         <v>400</v>
@@ -16407,7 +16407,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44210</v>
+        <v>44420</v>
       </c>
       <c r="E201" t="n">
         <v>4</v>
@@ -16435,25 +16435,25 @@
       </c>
       <c r="K201" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L201" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M201" t="n">
         <v>20</v>
       </c>
       <c r="N201" t="n">
-        <v>475000</v>
+        <v>115000</v>
       </c>
       <c r="O201" t="n">
-        <v>480000</v>
+        <v>120000</v>
       </c>
       <c r="P201" t="n">
-        <v>477500</v>
+        <v>117500</v>
       </c>
       <c r="Q201" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         </is>
       </c>
       <c r="S201" t="n">
-        <v>1194</v>
+        <v>294</v>
       </c>
       <c r="T201" t="n">
         <v>400</v>
@@ -16487,7 +16487,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44210</v>
+        <v>44420</v>
       </c>
       <c r="E202" t="n">
         <v>4</v>
@@ -16515,25 +16515,25 @@
       </c>
       <c r="K202" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L202" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M202" t="n">
         <v>20</v>
       </c>
       <c r="N202" t="n">
-        <v>425000</v>
+        <v>85000</v>
       </c>
       <c r="O202" t="n">
-        <v>430000</v>
+        <v>90000</v>
       </c>
       <c r="P202" t="n">
-        <v>427500</v>
+        <v>87500</v>
       </c>
       <c r="Q202" t="inlineStr">
         <is>
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="S202" t="n">
-        <v>1069</v>
+        <v>219</v>
       </c>
       <c r="T202" t="n">
         <v>400</v>
@@ -16567,7 +16567,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44210</v>
+        <v>44420</v>
       </c>
       <c r="E203" t="n">
         <v>4</v>
@@ -16595,25 +16595,25 @@
       </c>
       <c r="K203" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M203" t="n">
         <v>20</v>
       </c>
       <c r="N203" t="n">
-        <v>375000</v>
+        <v>105000</v>
       </c>
       <c r="O203" t="n">
-        <v>380000</v>
+        <v>110000</v>
       </c>
       <c r="P203" t="n">
-        <v>377500</v>
+        <v>107500</v>
       </c>
       <c r="Q203" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         </is>
       </c>
       <c r="S203" t="n">
-        <v>944</v>
+        <v>269</v>
       </c>
       <c r="T203" t="n">
         <v>400</v>
@@ -16647,7 +16647,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44427</v>
+        <v>44420</v>
       </c>
       <c r="E204" t="n">
         <v>4</v>
@@ -16675,25 +16675,25 @@
       </c>
       <c r="K204" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M204" t="n">
         <v>20</v>
       </c>
       <c r="N204" t="n">
-        <v>120000</v>
+        <v>75000</v>
       </c>
       <c r="O204" t="n">
-        <v>130000</v>
+        <v>80000</v>
       </c>
       <c r="P204" t="n">
-        <v>125000</v>
+        <v>77500</v>
       </c>
       <c r="Q204" t="inlineStr">
         <is>
@@ -16706,7 +16706,7 @@
         </is>
       </c>
       <c r="S204" t="n">
-        <v>312</v>
+        <v>194</v>
       </c>
       <c r="T204" t="n">
         <v>400</v>
@@ -16727,7 +16727,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44427</v>
+        <v>44210</v>
       </c>
       <c r="E205" t="n">
         <v>4</v>
@@ -16755,25 +16755,25 @@
       </c>
       <c r="K205" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M205" t="n">
         <v>20</v>
       </c>
       <c r="N205" t="n">
-        <v>100000</v>
+        <v>475000</v>
       </c>
       <c r="O205" t="n">
-        <v>110000</v>
+        <v>480000</v>
       </c>
       <c r="P205" t="n">
-        <v>105000</v>
+        <v>477500</v>
       </c>
       <c r="Q205" t="inlineStr">
         <is>
@@ -16786,7 +16786,7 @@
         </is>
       </c>
       <c r="S205" t="n">
-        <v>262</v>
+        <v>1194</v>
       </c>
       <c r="T205" t="n">
         <v>400</v>
@@ -16807,7 +16807,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44427</v>
+        <v>44210</v>
       </c>
       <c r="E206" t="n">
         <v>4</v>
@@ -16835,25 +16835,25 @@
       </c>
       <c r="K206" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L206" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M206" t="n">
         <v>20</v>
       </c>
       <c r="N206" t="n">
-        <v>80000</v>
+        <v>425000</v>
       </c>
       <c r="O206" t="n">
-        <v>90000</v>
+        <v>430000</v>
       </c>
       <c r="P206" t="n">
-        <v>85000</v>
+        <v>427500</v>
       </c>
       <c r="Q206" t="inlineStr">
         <is>
@@ -16866,7 +16866,7 @@
         </is>
       </c>
       <c r="S206" t="n">
-        <v>212</v>
+        <v>1069</v>
       </c>
       <c r="T206" t="n">
         <v>400</v>
@@ -16887,7 +16887,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44427</v>
+        <v>44210</v>
       </c>
       <c r="E207" t="n">
         <v>4</v>
@@ -16915,25 +16915,25 @@
       </c>
       <c r="K207" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L207" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M207" t="n">
         <v>20</v>
       </c>
       <c r="N207" t="n">
-        <v>100000</v>
+        <v>375000</v>
       </c>
       <c r="O207" t="n">
-        <v>110000</v>
+        <v>380000</v>
       </c>
       <c r="P207" t="n">
-        <v>105000</v>
+        <v>377500</v>
       </c>
       <c r="Q207" t="inlineStr">
         <is>
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="S207" t="n">
-        <v>262</v>
+        <v>944</v>
       </c>
       <c r="T207" t="n">
         <v>400</v>
@@ -16995,25 +16995,25 @@
       </c>
       <c r="K208" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L208" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M208" t="n">
         <v>20</v>
       </c>
       <c r="N208" t="n">
-        <v>80000</v>
+        <v>120000</v>
       </c>
       <c r="O208" t="n">
-        <v>90000</v>
+        <v>130000</v>
       </c>
       <c r="P208" t="n">
-        <v>85000</v>
+        <v>125000</v>
       </c>
       <c r="Q208" t="inlineStr">
         <is>
@@ -17026,7 +17026,7 @@
         </is>
       </c>
       <c r="S208" t="n">
-        <v>212</v>
+        <v>312</v>
       </c>
       <c r="T208" t="n">
         <v>400</v>
@@ -17047,7 +17047,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44301</v>
+        <v>44427</v>
       </c>
       <c r="E209" t="n">
         <v>4</v>
@@ -17075,25 +17075,25 @@
       </c>
       <c r="K209" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L209" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M209" t="n">
         <v>20</v>
       </c>
       <c r="N209" t="n">
-        <v>495000</v>
+        <v>100000</v>
       </c>
       <c r="O209" t="n">
-        <v>500000</v>
+        <v>110000</v>
       </c>
       <c r="P209" t="n">
-        <v>497500</v>
+        <v>105000</v>
       </c>
       <c r="Q209" t="inlineStr">
         <is>
@@ -17106,7 +17106,7 @@
         </is>
       </c>
       <c r="S209" t="n">
-        <v>1244</v>
+        <v>262</v>
       </c>
       <c r="T209" t="n">
         <v>400</v>
@@ -17127,7 +17127,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44301</v>
+        <v>44427</v>
       </c>
       <c r="E210" t="n">
         <v>4</v>
@@ -17155,25 +17155,25 @@
       </c>
       <c r="K210" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L210" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M210" t="n">
         <v>20</v>
       </c>
       <c r="N210" t="n">
-        <v>475000</v>
+        <v>80000</v>
       </c>
       <c r="O210" t="n">
-        <v>480000</v>
+        <v>90000</v>
       </c>
       <c r="P210" t="n">
-        <v>477500</v>
+        <v>85000</v>
       </c>
       <c r="Q210" t="inlineStr">
         <is>
@@ -17186,7 +17186,7 @@
         </is>
       </c>
       <c r="S210" t="n">
-        <v>1194</v>
+        <v>212</v>
       </c>
       <c r="T210" t="n">
         <v>400</v>
@@ -17207,7 +17207,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44244</v>
+        <v>44427</v>
       </c>
       <c r="E211" t="n">
         <v>4</v>
@@ -17235,7 +17235,7 @@
       </c>
       <c r="K211" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L211" t="inlineStr">
@@ -17247,13 +17247,13 @@
         <v>20</v>
       </c>
       <c r="N211" t="n">
-        <v>455000</v>
+        <v>100000</v>
       </c>
       <c r="O211" t="n">
-        <v>460000</v>
+        <v>110000</v>
       </c>
       <c r="P211" t="n">
-        <v>457500</v>
+        <v>105000</v>
       </c>
       <c r="Q211" t="inlineStr">
         <is>
@@ -17266,7 +17266,7 @@
         </is>
       </c>
       <c r="S211" t="n">
-        <v>1144</v>
+        <v>262</v>
       </c>
       <c r="T211" t="n">
         <v>400</v>
@@ -17287,7 +17287,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44244</v>
+        <v>44427</v>
       </c>
       <c r="E212" t="n">
         <v>4</v>
@@ -17315,7 +17315,7 @@
       </c>
       <c r="K212" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L212" t="inlineStr">
@@ -17327,13 +17327,13 @@
         <v>20</v>
       </c>
       <c r="N212" t="n">
-        <v>415000</v>
+        <v>80000</v>
       </c>
       <c r="O212" t="n">
-        <v>420000</v>
+        <v>90000</v>
       </c>
       <c r="P212" t="n">
-        <v>417500</v>
+        <v>85000</v>
       </c>
       <c r="Q212" t="inlineStr">
         <is>
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="S212" t="n">
-        <v>1044</v>
+        <v>212</v>
       </c>
       <c r="T212" t="n">
         <v>400</v>
@@ -17367,7 +17367,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44441</v>
+        <v>44301</v>
       </c>
       <c r="E213" t="n">
         <v>4</v>
@@ -17395,25 +17395,25 @@
       </c>
       <c r="K213" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L213" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M213" t="n">
         <v>20</v>
       </c>
       <c r="N213" t="n">
-        <v>110000</v>
+        <v>495000</v>
       </c>
       <c r="O213" t="n">
-        <v>120000</v>
+        <v>500000</v>
       </c>
       <c r="P213" t="n">
-        <v>115000</v>
+        <v>497500</v>
       </c>
       <c r="Q213" t="inlineStr">
         <is>
@@ -17426,7 +17426,7 @@
         </is>
       </c>
       <c r="S213" t="n">
-        <v>288</v>
+        <v>1244</v>
       </c>
       <c r="T213" t="n">
         <v>400</v>
@@ -17447,7 +17447,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44441</v>
+        <v>44301</v>
       </c>
       <c r="E214" t="n">
         <v>4</v>
@@ -17475,25 +17475,25 @@
       </c>
       <c r="K214" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L214" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M214" t="n">
         <v>20</v>
       </c>
       <c r="N214" t="n">
-        <v>90000</v>
+        <v>475000</v>
       </c>
       <c r="O214" t="n">
-        <v>100000</v>
+        <v>480000</v>
       </c>
       <c r="P214" t="n">
-        <v>95000</v>
+        <v>477500</v>
       </c>
       <c r="Q214" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         </is>
       </c>
       <c r="S214" t="n">
-        <v>238</v>
+        <v>1194</v>
       </c>
       <c r="T214" t="n">
         <v>400</v>
@@ -17527,7 +17527,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44441</v>
+        <v>44244</v>
       </c>
       <c r="E215" t="n">
         <v>4</v>
@@ -17555,7 +17555,7 @@
       </c>
       <c r="K215" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L215" t="inlineStr">
@@ -17567,13 +17567,13 @@
         <v>20</v>
       </c>
       <c r="N215" t="n">
-        <v>100000</v>
+        <v>455000</v>
       </c>
       <c r="O215" t="n">
-        <v>110000</v>
+        <v>460000</v>
       </c>
       <c r="P215" t="n">
-        <v>105000</v>
+        <v>457500</v>
       </c>
       <c r="Q215" t="inlineStr">
         <is>
@@ -17586,7 +17586,7 @@
         </is>
       </c>
       <c r="S215" t="n">
-        <v>262</v>
+        <v>1144</v>
       </c>
       <c r="T215" t="n">
         <v>400</v>
@@ -17607,7 +17607,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44441</v>
+        <v>44244</v>
       </c>
       <c r="E216" t="n">
         <v>4</v>
@@ -17635,7 +17635,7 @@
       </c>
       <c r="K216" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L216" t="inlineStr">
@@ -17647,13 +17647,13 @@
         <v>20</v>
       </c>
       <c r="N216" t="n">
-        <v>80000</v>
+        <v>415000</v>
       </c>
       <c r="O216" t="n">
-        <v>90000</v>
+        <v>420000</v>
       </c>
       <c r="P216" t="n">
-        <v>85000</v>
+        <v>417500</v>
       </c>
       <c r="Q216" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         </is>
       </c>
       <c r="S216" t="n">
-        <v>212</v>
+        <v>1044</v>
       </c>
       <c r="T216" t="n">
         <v>400</v>
@@ -17687,7 +17687,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44237</v>
+        <v>44441</v>
       </c>
       <c r="E217" t="n">
         <v>4</v>
@@ -17715,7 +17715,7 @@
       </c>
       <c r="K217" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L217" t="inlineStr">
@@ -17727,13 +17727,13 @@
         <v>20</v>
       </c>
       <c r="N217" t="n">
-        <v>485000</v>
+        <v>110000</v>
       </c>
       <c r="O217" t="n">
-        <v>490000</v>
+        <v>120000</v>
       </c>
       <c r="P217" t="n">
-        <v>487500</v>
+        <v>115000</v>
       </c>
       <c r="Q217" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="S217" t="n">
-        <v>1219</v>
+        <v>288</v>
       </c>
       <c r="T217" t="n">
         <v>400</v>
@@ -17767,7 +17767,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44237</v>
+        <v>44441</v>
       </c>
       <c r="E218" t="n">
         <v>4</v>
@@ -17795,7 +17795,7 @@
       </c>
       <c r="K218" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L218" t="inlineStr">
@@ -17807,13 +17807,13 @@
         <v>20</v>
       </c>
       <c r="N218" t="n">
-        <v>455000</v>
+        <v>90000</v>
       </c>
       <c r="O218" t="n">
-        <v>460000</v>
+        <v>100000</v>
       </c>
       <c r="P218" t="n">
-        <v>457500</v>
+        <v>95000</v>
       </c>
       <c r="Q218" t="inlineStr">
         <is>
@@ -17826,7 +17826,7 @@
         </is>
       </c>
       <c r="S218" t="n">
-        <v>1144</v>
+        <v>238</v>
       </c>
       <c r="T218" t="n">
         <v>400</v>
@@ -17847,7 +17847,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44273</v>
+        <v>44441</v>
       </c>
       <c r="E219" t="n">
         <v>4</v>
@@ -17875,25 +17875,25 @@
       </c>
       <c r="K219" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L219" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M219" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N219" t="n">
-        <v>475000</v>
+        <v>100000</v>
       </c>
       <c r="O219" t="n">
-        <v>480000</v>
+        <v>110000</v>
       </c>
       <c r="P219" t="n">
-        <v>477500</v>
+        <v>105000</v>
       </c>
       <c r="Q219" t="inlineStr">
         <is>
@@ -17906,7 +17906,7 @@
         </is>
       </c>
       <c r="S219" t="n">
-        <v>1194</v>
+        <v>262</v>
       </c>
       <c r="T219" t="n">
         <v>400</v>
@@ -17927,7 +17927,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44273</v>
+        <v>44441</v>
       </c>
       <c r="E220" t="n">
         <v>4</v>
@@ -17955,25 +17955,25 @@
       </c>
       <c r="K220" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L220" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M220" t="n">
         <v>20</v>
       </c>
       <c r="N220" t="n">
-        <v>455000</v>
+        <v>80000</v>
       </c>
       <c r="O220" t="n">
-        <v>460000</v>
+        <v>90000</v>
       </c>
       <c r="P220" t="n">
-        <v>457500</v>
+        <v>85000</v>
       </c>
       <c r="Q220" t="inlineStr">
         <is>
@@ -17986,7 +17986,7 @@
         </is>
       </c>
       <c r="S220" t="n">
-        <v>1144</v>
+        <v>212</v>
       </c>
       <c r="T220" t="n">
         <v>400</v>
@@ -18007,7 +18007,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44273</v>
+        <v>44237</v>
       </c>
       <c r="E221" t="n">
         <v>4</v>
@@ -18040,20 +18040,20 @@
       </c>
       <c r="L221" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M221" t="n">
         <v>20</v>
       </c>
       <c r="N221" t="n">
-        <v>415000</v>
+        <v>485000</v>
       </c>
       <c r="O221" t="n">
-        <v>420000</v>
+        <v>490000</v>
       </c>
       <c r="P221" t="n">
-        <v>417500</v>
+        <v>487500</v>
       </c>
       <c r="Q221" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         </is>
       </c>
       <c r="S221" t="n">
-        <v>1044</v>
+        <v>1219</v>
       </c>
       <c r="T221" t="n">
         <v>400</v>
@@ -18087,7 +18087,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44294</v>
+        <v>44237</v>
       </c>
       <c r="E222" t="n">
         <v>4</v>
@@ -18120,20 +18120,20 @@
       </c>
       <c r="L222" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M222" t="n">
         <v>20</v>
       </c>
       <c r="N222" t="n">
-        <v>475000</v>
+        <v>455000</v>
       </c>
       <c r="O222" t="n">
-        <v>480000</v>
+        <v>460000</v>
       </c>
       <c r="P222" t="n">
-        <v>477500</v>
+        <v>457500</v>
       </c>
       <c r="Q222" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="S222" t="n">
-        <v>1194</v>
+        <v>1144</v>
       </c>
       <c r="T222" t="n">
         <v>400</v>
@@ -18167,7 +18167,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44315</v>
+        <v>44273</v>
       </c>
       <c r="E223" t="n">
         <v>4</v>
@@ -18195,25 +18195,25 @@
       </c>
       <c r="K223" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L223" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M223" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N223" t="n">
-        <v>355000</v>
+        <v>475000</v>
       </c>
       <c r="O223" t="n">
-        <v>360000</v>
+        <v>480000</v>
       </c>
       <c r="P223" t="n">
-        <v>357500</v>
+        <v>477500</v>
       </c>
       <c r="Q223" t="inlineStr">
         <is>
@@ -18226,7 +18226,7 @@
         </is>
       </c>
       <c r="S223" t="n">
-        <v>894</v>
+        <v>1194</v>
       </c>
       <c r="T223" t="n">
         <v>400</v>
@@ -18247,7 +18247,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44315</v>
+        <v>44273</v>
       </c>
       <c r="E224" t="n">
         <v>4</v>
@@ -18275,25 +18275,25 @@
       </c>
       <c r="K224" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L224" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M224" t="n">
         <v>20</v>
       </c>
       <c r="N224" t="n">
-        <v>325000</v>
+        <v>455000</v>
       </c>
       <c r="O224" t="n">
-        <v>330000</v>
+        <v>460000</v>
       </c>
       <c r="P224" t="n">
-        <v>327500</v>
+        <v>457500</v>
       </c>
       <c r="Q224" t="inlineStr">
         <is>
@@ -18306,7 +18306,7 @@
         </is>
       </c>
       <c r="S224" t="n">
-        <v>819</v>
+        <v>1144</v>
       </c>
       <c r="T224" t="n">
         <v>400</v>
@@ -18327,7 +18327,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44315</v>
+        <v>44273</v>
       </c>
       <c r="E225" t="n">
         <v>4</v>
@@ -18355,25 +18355,25 @@
       </c>
       <c r="K225" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L225" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M225" t="n">
         <v>20</v>
       </c>
       <c r="N225" t="n">
-        <v>355000</v>
+        <v>415000</v>
       </c>
       <c r="O225" t="n">
-        <v>360000</v>
+        <v>420000</v>
       </c>
       <c r="P225" t="n">
-        <v>357500</v>
+        <v>417500</v>
       </c>
       <c r="Q225" t="inlineStr">
         <is>
@@ -18386,7 +18386,7 @@
         </is>
       </c>
       <c r="S225" t="n">
-        <v>894</v>
+        <v>1044</v>
       </c>
       <c r="T225" t="n">
         <v>400</v>
@@ -18407,7 +18407,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44315</v>
+        <v>44294</v>
       </c>
       <c r="E226" t="n">
         <v>4</v>
@@ -18435,25 +18435,25 @@
       </c>
       <c r="K226" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L226" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M226" t="n">
         <v>20</v>
       </c>
       <c r="N226" t="n">
-        <v>325000</v>
+        <v>475000</v>
       </c>
       <c r="O226" t="n">
-        <v>330000</v>
+        <v>480000</v>
       </c>
       <c r="P226" t="n">
-        <v>327500</v>
+        <v>477500</v>
       </c>
       <c r="Q226" t="inlineStr">
         <is>
@@ -18466,7 +18466,7 @@
         </is>
       </c>
       <c r="S226" t="n">
-        <v>819</v>
+        <v>1194</v>
       </c>
       <c r="T226" t="n">
         <v>400</v>
@@ -18515,7 +18515,7 @@
       </c>
       <c r="K227" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L227" t="inlineStr">
@@ -18527,13 +18527,13 @@
         <v>20</v>
       </c>
       <c r="N227" t="n">
-        <v>470000</v>
+        <v>355000</v>
       </c>
       <c r="O227" t="n">
-        <v>480000</v>
+        <v>360000</v>
       </c>
       <c r="P227" t="n">
-        <v>475000</v>
+        <v>357500</v>
       </c>
       <c r="Q227" t="inlineStr">
         <is>
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="S227" t="n">
-        <v>1188</v>
+        <v>894</v>
       </c>
       <c r="T227" t="n">
         <v>400</v>
@@ -18567,7 +18567,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44391</v>
+        <v>44315</v>
       </c>
       <c r="E228" t="n">
         <v>4</v>
@@ -18600,20 +18600,20 @@
       </c>
       <c r="L228" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M228" t="n">
         <v>20</v>
       </c>
       <c r="N228" t="n">
-        <v>100000</v>
+        <v>325000</v>
       </c>
       <c r="O228" t="n">
-        <v>110000</v>
+        <v>330000</v>
       </c>
       <c r="P228" t="n">
-        <v>105000</v>
+        <v>327500</v>
       </c>
       <c r="Q228" t="inlineStr">
         <is>
@@ -18626,7 +18626,7 @@
         </is>
       </c>
       <c r="S228" t="n">
-        <v>262</v>
+        <v>819</v>
       </c>
       <c r="T228" t="n">
         <v>400</v>
@@ -18647,7 +18647,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44391</v>
+        <v>44315</v>
       </c>
       <c r="E229" t="n">
         <v>4</v>
@@ -18675,25 +18675,25 @@
       </c>
       <c r="K229" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L229" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M229" t="n">
         <v>20</v>
       </c>
       <c r="N229" t="n">
-        <v>80000</v>
+        <v>355000</v>
       </c>
       <c r="O229" t="n">
-        <v>90000</v>
+        <v>360000</v>
       </c>
       <c r="P229" t="n">
-        <v>85000</v>
+        <v>357500</v>
       </c>
       <c r="Q229" t="inlineStr">
         <is>
@@ -18706,7 +18706,7 @@
         </is>
       </c>
       <c r="S229" t="n">
-        <v>212</v>
+        <v>894</v>
       </c>
       <c r="T229" t="n">
         <v>400</v>
@@ -18727,7 +18727,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44391</v>
+        <v>44315</v>
       </c>
       <c r="E230" t="n">
         <v>4</v>
@@ -18755,25 +18755,25 @@
       </c>
       <c r="K230" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L230" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M230" t="n">
         <v>20</v>
       </c>
       <c r="N230" t="n">
-        <v>100000</v>
+        <v>325000</v>
       </c>
       <c r="O230" t="n">
-        <v>110000</v>
+        <v>330000</v>
       </c>
       <c r="P230" t="n">
-        <v>105000</v>
+        <v>327500</v>
       </c>
       <c r="Q230" t="inlineStr">
         <is>
@@ -18786,7 +18786,7 @@
         </is>
       </c>
       <c r="S230" t="n">
-        <v>262</v>
+        <v>819</v>
       </c>
       <c r="T230" t="n">
         <v>400</v>
@@ -18807,7 +18807,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44391</v>
+        <v>44315</v>
       </c>
       <c r="E231" t="n">
         <v>4</v>
@@ -18835,25 +18835,25 @@
       </c>
       <c r="K231" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L231" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M231" t="n">
         <v>20</v>
       </c>
       <c r="N231" t="n">
-        <v>80000</v>
+        <v>470000</v>
       </c>
       <c r="O231" t="n">
-        <v>90000</v>
+        <v>480000</v>
       </c>
       <c r="P231" t="n">
-        <v>85000</v>
+        <v>475000</v>
       </c>
       <c r="Q231" t="inlineStr">
         <is>
@@ -18866,7 +18866,7 @@
         </is>
       </c>
       <c r="S231" t="n">
-        <v>212</v>
+        <v>1188</v>
       </c>
       <c r="T231" t="n">
         <v>400</v>
@@ -18887,7 +18887,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44329</v>
+        <v>44391</v>
       </c>
       <c r="E232" t="n">
         <v>4</v>
@@ -18927,13 +18927,13 @@
         <v>20</v>
       </c>
       <c r="N232" t="n">
-        <v>270000</v>
+        <v>100000</v>
       </c>
       <c r="O232" t="n">
-        <v>280000</v>
+        <v>110000</v>
       </c>
       <c r="P232" t="n">
-        <v>275000</v>
+        <v>105000</v>
       </c>
       <c r="Q232" t="inlineStr">
         <is>
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="S232" t="n">
-        <v>688</v>
+        <v>262</v>
       </c>
       <c r="T232" t="n">
         <v>400</v>
@@ -18967,7 +18967,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44329</v>
+        <v>44391</v>
       </c>
       <c r="E233" t="n">
         <v>4</v>
@@ -18995,25 +18995,25 @@
       </c>
       <c r="K233" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L233" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M233" t="n">
         <v>20</v>
       </c>
       <c r="N233" t="n">
-        <v>270000</v>
+        <v>80000</v>
       </c>
       <c r="O233" t="n">
-        <v>280000</v>
+        <v>90000</v>
       </c>
       <c r="P233" t="n">
-        <v>275000</v>
+        <v>85000</v>
       </c>
       <c r="Q233" t="inlineStr">
         <is>
@@ -19026,7 +19026,7 @@
         </is>
       </c>
       <c r="S233" t="n">
-        <v>688</v>
+        <v>212</v>
       </c>
       <c r="T233" t="n">
         <v>400</v>
@@ -19047,7 +19047,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44161</v>
+        <v>44391</v>
       </c>
       <c r="E234" t="n">
         <v>4</v>
@@ -19075,25 +19075,25 @@
       </c>
       <c r="K234" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L234" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M234" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N234" t="n">
-        <v>325000</v>
+        <v>100000</v>
       </c>
       <c r="O234" t="n">
-        <v>330000</v>
+        <v>110000</v>
       </c>
       <c r="P234" t="n">
-        <v>327500</v>
+        <v>105000</v>
       </c>
       <c r="Q234" t="inlineStr">
         <is>
@@ -19106,7 +19106,7 @@
         </is>
       </c>
       <c r="S234" t="n">
-        <v>819</v>
+        <v>262</v>
       </c>
       <c r="T234" t="n">
         <v>400</v>
@@ -19127,7 +19127,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44161</v>
+        <v>44391</v>
       </c>
       <c r="E235" t="n">
         <v>4</v>
@@ -19155,25 +19155,25 @@
       </c>
       <c r="K235" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L235" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M235" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N235" t="n">
-        <v>305000</v>
+        <v>80000</v>
       </c>
       <c r="O235" t="n">
-        <v>310000</v>
+        <v>90000</v>
       </c>
       <c r="P235" t="n">
-        <v>307500</v>
+        <v>85000</v>
       </c>
       <c r="Q235" t="inlineStr">
         <is>
@@ -19186,7 +19186,7 @@
         </is>
       </c>
       <c r="S235" t="n">
-        <v>769</v>
+        <v>212</v>
       </c>
       <c r="T235" t="n">
         <v>400</v>
@@ -19207,7 +19207,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44161</v>
+        <v>44329</v>
       </c>
       <c r="E236" t="n">
         <v>4</v>
@@ -19235,25 +19235,25 @@
       </c>
       <c r="K236" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L236" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M236" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N236" t="n">
-        <v>255000</v>
+        <v>270000</v>
       </c>
       <c r="O236" t="n">
-        <v>260000</v>
+        <v>280000</v>
       </c>
       <c r="P236" t="n">
-        <v>257500</v>
+        <v>275000</v>
       </c>
       <c r="Q236" t="inlineStr">
         <is>
@@ -19266,7 +19266,7 @@
         </is>
       </c>
       <c r="S236" t="n">
-        <v>644</v>
+        <v>688</v>
       </c>
       <c r="T236" t="n">
         <v>400</v>
@@ -19287,7 +19287,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44251</v>
+        <v>44329</v>
       </c>
       <c r="E237" t="n">
         <v>4</v>
@@ -19315,7 +19315,7 @@
       </c>
       <c r="K237" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L237" t="inlineStr">
@@ -19327,13 +19327,13 @@
         <v>20</v>
       </c>
       <c r="N237" t="n">
-        <v>455000</v>
+        <v>270000</v>
       </c>
       <c r="O237" t="n">
-        <v>460000</v>
+        <v>280000</v>
       </c>
       <c r="P237" t="n">
-        <v>457500</v>
+        <v>275000</v>
       </c>
       <c r="Q237" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="S237" t="n">
-        <v>1144</v>
+        <v>688</v>
       </c>
       <c r="T237" t="n">
         <v>400</v>
@@ -19367,7 +19367,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44251</v>
+        <v>44161</v>
       </c>
       <c r="E238" t="n">
         <v>4</v>
@@ -19395,25 +19395,25 @@
       </c>
       <c r="K238" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L238" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M238" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N238" t="n">
-        <v>415000</v>
+        <v>325000</v>
       </c>
       <c r="O238" t="n">
-        <v>420000</v>
+        <v>330000</v>
       </c>
       <c r="P238" t="n">
-        <v>417500</v>
+        <v>327500</v>
       </c>
       <c r="Q238" t="inlineStr">
         <is>
@@ -19426,7 +19426,7 @@
         </is>
       </c>
       <c r="S238" t="n">
-        <v>1044</v>
+        <v>819</v>
       </c>
       <c r="T238" t="n">
         <v>400</v>
@@ -19447,7 +19447,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44435</v>
+        <v>44161</v>
       </c>
       <c r="E239" t="n">
         <v>4</v>
@@ -19475,25 +19475,25 @@
       </c>
       <c r="K239" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L239" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M239" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="N239" t="n">
-        <v>125000</v>
+        <v>305000</v>
       </c>
       <c r="O239" t="n">
-        <v>130000</v>
+        <v>310000</v>
       </c>
       <c r="P239" t="n">
-        <v>127500</v>
+        <v>307500</v>
       </c>
       <c r="Q239" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         </is>
       </c>
       <c r="S239" t="n">
-        <v>319</v>
+        <v>769</v>
       </c>
       <c r="T239" t="n">
         <v>400</v>
@@ -19527,7 +19527,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44435</v>
+        <v>44161</v>
       </c>
       <c r="E240" t="n">
         <v>4</v>
@@ -19555,25 +19555,25 @@
       </c>
       <c r="K240" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L240" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M240" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="N240" t="n">
-        <v>105000</v>
+        <v>255000</v>
       </c>
       <c r="O240" t="n">
-        <v>110000</v>
+        <v>260000</v>
       </c>
       <c r="P240" t="n">
-        <v>107500</v>
+        <v>257500</v>
       </c>
       <c r="Q240" t="inlineStr">
         <is>
@@ -19586,7 +19586,7 @@
         </is>
       </c>
       <c r="S240" t="n">
-        <v>269</v>
+        <v>644</v>
       </c>
       <c r="T240" t="n">
         <v>400</v>
@@ -19607,7 +19607,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44435</v>
+        <v>44251</v>
       </c>
       <c r="E241" t="n">
         <v>4</v>
@@ -19635,25 +19635,25 @@
       </c>
       <c r="K241" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L241" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M241" t="n">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="N241" t="n">
-        <v>85000</v>
+        <v>455000</v>
       </c>
       <c r="O241" t="n">
-        <v>90000</v>
+        <v>460000</v>
       </c>
       <c r="P241" t="n">
-        <v>87955</v>
+        <v>457500</v>
       </c>
       <c r="Q241" t="inlineStr">
         <is>
@@ -19666,7 +19666,7 @@
         </is>
       </c>
       <c r="S241" t="n">
-        <v>220</v>
+        <v>1144</v>
       </c>
       <c r="T241" t="n">
         <v>400</v>
@@ -19687,7 +19687,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44435</v>
+        <v>44251</v>
       </c>
       <c r="E242" t="n">
         <v>4</v>
@@ -19715,25 +19715,25 @@
       </c>
       <c r="K242" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L242" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M242" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="N242" t="n">
-        <v>95000</v>
+        <v>415000</v>
       </c>
       <c r="O242" t="n">
-        <v>100000</v>
+        <v>420000</v>
       </c>
       <c r="P242" t="n">
-        <v>97500</v>
+        <v>417500</v>
       </c>
       <c r="Q242" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="S242" t="n">
-        <v>244</v>
+        <v>1044</v>
       </c>
       <c r="T242" t="n">
         <v>400</v>
@@ -19795,25 +19795,25 @@
       </c>
       <c r="K243" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L243" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M243" t="n">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="N243" t="n">
-        <v>75000</v>
+        <v>125000</v>
       </c>
       <c r="O243" t="n">
-        <v>80000</v>
+        <v>130000</v>
       </c>
       <c r="P243" t="n">
-        <v>77500</v>
+        <v>127500</v>
       </c>
       <c r="Q243" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         </is>
       </c>
       <c r="S243" t="n">
-        <v>194</v>
+        <v>319</v>
       </c>
       <c r="T243" t="n">
         <v>400</v>
@@ -19875,7 +19875,7 @@
       </c>
       <c r="K244" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L244" t="inlineStr">
@@ -19884,16 +19884,16 @@
         </is>
       </c>
       <c r="M244" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="N244" t="n">
-        <v>95000</v>
+        <v>105000</v>
       </c>
       <c r="O244" t="n">
-        <v>100000</v>
+        <v>110000</v>
       </c>
       <c r="P244" t="n">
-        <v>97500</v>
+        <v>107500</v>
       </c>
       <c r="Q244" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         </is>
       </c>
       <c r="S244" t="n">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="T244" t="n">
         <v>400</v>
@@ -19955,7 +19955,7 @@
       </c>
       <c r="K245" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L245" t="inlineStr">
@@ -19964,16 +19964,16 @@
         </is>
       </c>
       <c r="M245" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="N245" t="n">
-        <v>75000</v>
+        <v>85000</v>
       </c>
       <c r="O245" t="n">
-        <v>80000</v>
+        <v>90000</v>
       </c>
       <c r="P245" t="n">
-        <v>77500</v>
+        <v>87955</v>
       </c>
       <c r="Q245" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         </is>
       </c>
       <c r="S245" t="n">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="T245" t="n">
         <v>400</v>
@@ -20007,7 +20007,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44175</v>
+        <v>44435</v>
       </c>
       <c r="E246" t="n">
         <v>4</v>
@@ -20035,7 +20035,7 @@
       </c>
       <c r="K246" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L246" t="inlineStr">
@@ -20044,16 +20044,16 @@
         </is>
       </c>
       <c r="M246" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="N246" t="n">
-        <v>325000</v>
+        <v>95000</v>
       </c>
       <c r="O246" t="n">
-        <v>330000</v>
+        <v>100000</v>
       </c>
       <c r="P246" t="n">
-        <v>327500</v>
+        <v>97500</v>
       </c>
       <c r="Q246" t="inlineStr">
         <is>
@@ -20066,7 +20066,7 @@
         </is>
       </c>
       <c r="S246" t="n">
-        <v>819</v>
+        <v>244</v>
       </c>
       <c r="T246" t="n">
         <v>400</v>
@@ -20087,7 +20087,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44175</v>
+        <v>44435</v>
       </c>
       <c r="E247" t="n">
         <v>4</v>
@@ -20115,7 +20115,7 @@
       </c>
       <c r="K247" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L247" t="inlineStr">
@@ -20124,16 +20124,16 @@
         </is>
       </c>
       <c r="M247" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="N247" t="n">
-        <v>265000</v>
+        <v>75000</v>
       </c>
       <c r="O247" t="n">
-        <v>270000</v>
+        <v>80000</v>
       </c>
       <c r="P247" t="n">
-        <v>267500</v>
+        <v>77500</v>
       </c>
       <c r="Q247" t="inlineStr">
         <is>
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="S247" t="n">
-        <v>669</v>
+        <v>194</v>
       </c>
       <c r="T247" t="n">
         <v>400</v>
@@ -20167,7 +20167,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44175</v>
+        <v>44435</v>
       </c>
       <c r="E248" t="n">
         <v>4</v>
@@ -20195,7 +20195,7 @@
       </c>
       <c r="K248" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L248" t="inlineStr">
@@ -20204,16 +20204,16 @@
         </is>
       </c>
       <c r="M248" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="N248" t="n">
-        <v>335000</v>
+        <v>95000</v>
       </c>
       <c r="O248" t="n">
-        <v>340000</v>
+        <v>100000</v>
       </c>
       <c r="P248" t="n">
-        <v>337500</v>
+        <v>97500</v>
       </c>
       <c r="Q248" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         </is>
       </c>
       <c r="S248" t="n">
-        <v>844</v>
+        <v>244</v>
       </c>
       <c r="T248" t="n">
         <v>400</v>
@@ -20247,7 +20247,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44175</v>
+        <v>44435</v>
       </c>
       <c r="E249" t="n">
         <v>4</v>
@@ -20275,7 +20275,7 @@
       </c>
       <c r="K249" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L249" t="inlineStr">
@@ -20284,16 +20284,16 @@
         </is>
       </c>
       <c r="M249" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="N249" t="n">
-        <v>285000</v>
+        <v>75000</v>
       </c>
       <c r="O249" t="n">
-        <v>290000</v>
+        <v>80000</v>
       </c>
       <c r="P249" t="n">
-        <v>287500</v>
+        <v>77500</v>
       </c>
       <c r="Q249" t="inlineStr">
         <is>
@@ -20306,7 +20306,7 @@
         </is>
       </c>
       <c r="S249" t="n">
-        <v>719</v>
+        <v>194</v>
       </c>
       <c r="T249" t="n">
         <v>400</v>
@@ -20327,7 +20327,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44279</v>
+        <v>44175</v>
       </c>
       <c r="E250" t="n">
         <v>4</v>
@@ -20355,25 +20355,25 @@
       </c>
       <c r="K250" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L250" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M250" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N250" t="n">
-        <v>475000</v>
+        <v>325000</v>
       </c>
       <c r="O250" t="n">
-        <v>480000</v>
+        <v>330000</v>
       </c>
       <c r="P250" t="n">
-        <v>477500</v>
+        <v>327500</v>
       </c>
       <c r="Q250" t="inlineStr">
         <is>
@@ -20386,7 +20386,7 @@
         </is>
       </c>
       <c r="S250" t="n">
-        <v>1194</v>
+        <v>819</v>
       </c>
       <c r="T250" t="n">
         <v>400</v>
@@ -20407,7 +20407,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44279</v>
+        <v>44175</v>
       </c>
       <c r="E251" t="n">
         <v>4</v>
@@ -20435,25 +20435,25 @@
       </c>
       <c r="K251" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L251" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M251" t="n">
         <v>20</v>
       </c>
       <c r="N251" t="n">
-        <v>455000</v>
+        <v>265000</v>
       </c>
       <c r="O251" t="n">
-        <v>460000</v>
+        <v>270000</v>
       </c>
       <c r="P251" t="n">
-        <v>457500</v>
+        <v>267500</v>
       </c>
       <c r="Q251" t="inlineStr">
         <is>
@@ -20466,7 +20466,7 @@
         </is>
       </c>
       <c r="S251" t="n">
-        <v>1144</v>
+        <v>669</v>
       </c>
       <c r="T251" t="n">
         <v>400</v>
@@ -20487,7 +20487,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44279</v>
+        <v>44175</v>
       </c>
       <c r="E252" t="n">
         <v>4</v>
@@ -20520,20 +20520,20 @@
       </c>
       <c r="L252" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M252" t="n">
         <v>20</v>
       </c>
       <c r="N252" t="n">
-        <v>415000</v>
+        <v>335000</v>
       </c>
       <c r="O252" t="n">
-        <v>420000</v>
+        <v>340000</v>
       </c>
       <c r="P252" t="n">
-        <v>417500</v>
+        <v>337500</v>
       </c>
       <c r="Q252" t="inlineStr">
         <is>
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="S252" t="n">
-        <v>1044</v>
+        <v>844</v>
       </c>
       <c r="T252" t="n">
         <v>400</v>
@@ -20567,7 +20567,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44412</v>
+        <v>44175</v>
       </c>
       <c r="E253" t="n">
         <v>4</v>
@@ -20595,25 +20595,25 @@
       </c>
       <c r="K253" t="inlineStr">
         <is>
-          <t>Cara cara</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L253" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M253" t="n">
         <v>20</v>
       </c>
       <c r="N253" t="n">
-        <v>115000</v>
+        <v>285000</v>
       </c>
       <c r="O253" t="n">
-        <v>120000</v>
+        <v>290000</v>
       </c>
       <c r="P253" t="n">
-        <v>117500</v>
+        <v>287500</v>
       </c>
       <c r="Q253" t="inlineStr">
         <is>
@@ -20626,7 +20626,7 @@
         </is>
       </c>
       <c r="S253" t="n">
-        <v>294</v>
+        <v>719</v>
       </c>
       <c r="T253" t="n">
         <v>400</v>
@@ -20647,7 +20647,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E254" t="n">
         <v>4</v>
@@ -20675,25 +20675,25 @@
       </c>
       <c r="K254" t="inlineStr">
         <is>
-          <t>Cara cara</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L254" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M254" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N254" t="n">
-        <v>85000</v>
+        <v>475000</v>
       </c>
       <c r="O254" t="n">
-        <v>90000</v>
+        <v>480000</v>
       </c>
       <c r="P254" t="n">
-        <v>87500</v>
+        <v>477500</v>
       </c>
       <c r="Q254" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         </is>
       </c>
       <c r="S254" t="n">
-        <v>219</v>
+        <v>1194</v>
       </c>
       <c r="T254" t="n">
         <v>400</v>
@@ -20727,7 +20727,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E255" t="n">
         <v>4</v>
@@ -20755,7 +20755,7 @@
       </c>
       <c r="K255" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L255" t="inlineStr">
@@ -20767,13 +20767,13 @@
         <v>20</v>
       </c>
       <c r="N255" t="n">
-        <v>105000</v>
+        <v>455000</v>
       </c>
       <c r="O255" t="n">
-        <v>110000</v>
+        <v>460000</v>
       </c>
       <c r="P255" t="n">
-        <v>107500</v>
+        <v>457500</v>
       </c>
       <c r="Q255" t="inlineStr">
         <is>
@@ -20786,7 +20786,7 @@
         </is>
       </c>
       <c r="S255" t="n">
-        <v>269</v>
+        <v>1144</v>
       </c>
       <c r="T255" t="n">
         <v>400</v>
@@ -20807,7 +20807,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E256" t="n">
         <v>4</v>
@@ -20835,7 +20835,7 @@
       </c>
       <c r="K256" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L256" t="inlineStr">
@@ -20847,13 +20847,13 @@
         <v>20</v>
       </c>
       <c r="N256" t="n">
-        <v>75000</v>
+        <v>415000</v>
       </c>
       <c r="O256" t="n">
-        <v>80000</v>
+        <v>420000</v>
       </c>
       <c r="P256" t="n">
-        <v>77500</v>
+        <v>417500</v>
       </c>
       <c r="Q256" t="inlineStr">
         <is>
@@ -20866,7 +20866,7 @@
         </is>
       </c>
       <c r="S256" t="n">
-        <v>194</v>
+        <v>1044</v>
       </c>
       <c r="T256" t="n">
         <v>400</v>
@@ -20915,7 +20915,7 @@
       </c>
       <c r="K257" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Cara cara</t>
         </is>
       </c>
       <c r="L257" t="inlineStr">
@@ -20995,7 +20995,7 @@
       </c>
       <c r="K258" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Cara cara</t>
         </is>
       </c>
       <c r="L258" t="inlineStr">
@@ -21075,7 +21075,7 @@
       </c>
       <c r="K259" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L259" t="inlineStr">
@@ -21087,13 +21087,13 @@
         <v>20</v>
       </c>
       <c r="N259" t="n">
-        <v>115000</v>
+        <v>105000</v>
       </c>
       <c r="O259" t="n">
-        <v>120000</v>
+        <v>110000</v>
       </c>
       <c r="P259" t="n">
-        <v>117500</v>
+        <v>107500</v>
       </c>
       <c r="Q259" t="inlineStr">
         <is>
@@ -21106,7 +21106,7 @@
         </is>
       </c>
       <c r="S259" t="n">
-        <v>294</v>
+        <v>269</v>
       </c>
       <c r="T259" t="n">
         <v>400</v>
@@ -21155,7 +21155,7 @@
       </c>
       <c r="K260" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L260" t="inlineStr">
@@ -21167,13 +21167,13 @@
         <v>20</v>
       </c>
       <c r="N260" t="n">
-        <v>85000</v>
+        <v>75000</v>
       </c>
       <c r="O260" t="n">
-        <v>90000</v>
+        <v>80000</v>
       </c>
       <c r="P260" t="n">
-        <v>87500</v>
+        <v>77500</v>
       </c>
       <c r="Q260" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         </is>
       </c>
       <c r="S260" t="n">
-        <v>219</v>
+        <v>194</v>
       </c>
       <c r="T260" t="n">
         <v>400</v>
@@ -21207,7 +21207,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44314</v>
+        <v>44412</v>
       </c>
       <c r="E261" t="n">
         <v>4</v>
@@ -21235,7 +21235,7 @@
       </c>
       <c r="K261" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L261" t="inlineStr">
@@ -21247,13 +21247,13 @@
         <v>20</v>
       </c>
       <c r="N261" t="n">
-        <v>355000</v>
+        <v>115000</v>
       </c>
       <c r="O261" t="n">
-        <v>360000</v>
+        <v>120000</v>
       </c>
       <c r="P261" t="n">
-        <v>357500</v>
+        <v>117500</v>
       </c>
       <c r="Q261" t="inlineStr">
         <is>
@@ -21266,7 +21266,7 @@
         </is>
       </c>
       <c r="S261" t="n">
-        <v>894</v>
+        <v>294</v>
       </c>
       <c r="T261" t="n">
         <v>400</v>
@@ -21287,7 +21287,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44314</v>
+        <v>44412</v>
       </c>
       <c r="E262" t="n">
         <v>4</v>
@@ -21315,7 +21315,7 @@
       </c>
       <c r="K262" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L262" t="inlineStr">
@@ -21327,13 +21327,13 @@
         <v>20</v>
       </c>
       <c r="N262" t="n">
-        <v>325000</v>
+        <v>85000</v>
       </c>
       <c r="O262" t="n">
-        <v>330000</v>
+        <v>90000</v>
       </c>
       <c r="P262" t="n">
-        <v>327500</v>
+        <v>87500</v>
       </c>
       <c r="Q262" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="S262" t="n">
-        <v>819</v>
+        <v>219</v>
       </c>
       <c r="T262" t="n">
         <v>400</v>
@@ -21367,7 +21367,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44314</v>
+        <v>44412</v>
       </c>
       <c r="E263" t="n">
         <v>4</v>
@@ -21395,7 +21395,7 @@
       </c>
       <c r="K263" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L263" t="inlineStr">
@@ -21407,13 +21407,13 @@
         <v>20</v>
       </c>
       <c r="N263" t="n">
-        <v>355000</v>
+        <v>115000</v>
       </c>
       <c r="O263" t="n">
-        <v>360000</v>
+        <v>120000</v>
       </c>
       <c r="P263" t="n">
-        <v>357500</v>
+        <v>117500</v>
       </c>
       <c r="Q263" t="inlineStr">
         <is>
@@ -21426,7 +21426,7 @@
         </is>
       </c>
       <c r="S263" t="n">
-        <v>894</v>
+        <v>294</v>
       </c>
       <c r="T263" t="n">
         <v>400</v>
@@ -21447,7 +21447,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44314</v>
+        <v>44412</v>
       </c>
       <c r="E264" t="n">
         <v>4</v>
@@ -21475,7 +21475,7 @@
       </c>
       <c r="K264" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L264" t="inlineStr">
@@ -21487,13 +21487,13 @@
         <v>20</v>
       </c>
       <c r="N264" t="n">
-        <v>325000</v>
+        <v>85000</v>
       </c>
       <c r="O264" t="n">
-        <v>330000</v>
+        <v>90000</v>
       </c>
       <c r="P264" t="n">
-        <v>327500</v>
+        <v>87500</v>
       </c>
       <c r="Q264" t="inlineStr">
         <is>
@@ -21506,7 +21506,7 @@
         </is>
       </c>
       <c r="S264" t="n">
-        <v>819</v>
+        <v>219</v>
       </c>
       <c r="T264" t="n">
         <v>400</v>
@@ -21555,7 +21555,7 @@
       </c>
       <c r="K265" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L265" t="inlineStr">
@@ -21567,13 +21567,13 @@
         <v>20</v>
       </c>
       <c r="N265" t="n">
-        <v>470000</v>
+        <v>355000</v>
       </c>
       <c r="O265" t="n">
-        <v>480000</v>
+        <v>360000</v>
       </c>
       <c r="P265" t="n">
-        <v>475000</v>
+        <v>357500</v>
       </c>
       <c r="Q265" t="inlineStr">
         <is>
@@ -21586,7 +21586,7 @@
         </is>
       </c>
       <c r="S265" t="n">
-        <v>1188</v>
+        <v>894</v>
       </c>
       <c r="T265" t="n">
         <v>400</v>
@@ -21607,7 +21607,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44167</v>
+        <v>44314</v>
       </c>
       <c r="E266" t="n">
         <v>4</v>
@@ -21635,25 +21635,25 @@
       </c>
       <c r="K266" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L266" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M266" t="n">
         <v>20</v>
       </c>
       <c r="N266" t="n">
-        <v>320000</v>
+        <v>325000</v>
       </c>
       <c r="O266" t="n">
         <v>330000</v>
       </c>
       <c r="P266" t="n">
-        <v>325000</v>
+        <v>327500</v>
       </c>
       <c r="Q266" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         </is>
       </c>
       <c r="S266" t="n">
-        <v>812</v>
+        <v>819</v>
       </c>
       <c r="T266" t="n">
         <v>400</v>
@@ -21687,7 +21687,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44167</v>
+        <v>44314</v>
       </c>
       <c r="E267" t="n">
         <v>4</v>
@@ -21715,25 +21715,25 @@
       </c>
       <c r="K267" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L267" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M267" t="n">
         <v>20</v>
       </c>
       <c r="N267" t="n">
-        <v>280000</v>
+        <v>355000</v>
       </c>
       <c r="O267" t="n">
-        <v>290000</v>
+        <v>360000</v>
       </c>
       <c r="P267" t="n">
-        <v>285000</v>
+        <v>357500</v>
       </c>
       <c r="Q267" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="S267" t="n">
-        <v>712</v>
+        <v>894</v>
       </c>
       <c r="T267" t="n">
         <v>400</v>
@@ -21767,7 +21767,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44167</v>
+        <v>44314</v>
       </c>
       <c r="E268" t="n">
         <v>4</v>
@@ -21795,25 +21795,25 @@
       </c>
       <c r="K268" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L268" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M268" t="n">
         <v>20</v>
       </c>
       <c r="N268" t="n">
+        <v>325000</v>
+      </c>
+      <c r="O268" t="n">
         <v>330000</v>
       </c>
-      <c r="O268" t="n">
-        <v>340000</v>
-      </c>
       <c r="P268" t="n">
-        <v>335000</v>
+        <v>327500</v>
       </c>
       <c r="Q268" t="inlineStr">
         <is>
@@ -21826,7 +21826,7 @@
         </is>
       </c>
       <c r="S268" t="n">
-        <v>838</v>
+        <v>819</v>
       </c>
       <c r="T268" t="n">
         <v>400</v>
@@ -21847,7 +21847,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44167</v>
+        <v>44314</v>
       </c>
       <c r="E269" t="n">
         <v>4</v>
@@ -21880,20 +21880,20 @@
       </c>
       <c r="L269" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M269" t="n">
         <v>20</v>
       </c>
       <c r="N269" t="n">
-        <v>290000</v>
+        <v>470000</v>
       </c>
       <c r="O269" t="n">
-        <v>300000</v>
+        <v>480000</v>
       </c>
       <c r="P269" t="n">
-        <v>295000</v>
+        <v>475000</v>
       </c>
       <c r="Q269" t="inlineStr">
         <is>
@@ -21906,7 +21906,7 @@
         </is>
       </c>
       <c r="S269" t="n">
-        <v>738</v>
+        <v>1188</v>
       </c>
       <c r="T269" t="n">
         <v>400</v>
@@ -21927,7 +21927,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E270" t="n">
         <v>4</v>
@@ -21955,7 +21955,7 @@
       </c>
       <c r="K270" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L270" t="inlineStr">
@@ -21967,13 +21967,13 @@
         <v>20</v>
       </c>
       <c r="N270" t="n">
-        <v>485000</v>
+        <v>320000</v>
       </c>
       <c r="O270" t="n">
-        <v>490000</v>
+        <v>330000</v>
       </c>
       <c r="P270" t="n">
-        <v>487500</v>
+        <v>325000</v>
       </c>
       <c r="Q270" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
         </is>
       </c>
       <c r="S270" t="n">
-        <v>1219</v>
+        <v>812</v>
       </c>
       <c r="T270" t="n">
         <v>400</v>
@@ -22007,7 +22007,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E271" t="n">
         <v>4</v>
@@ -22035,7 +22035,7 @@
       </c>
       <c r="K271" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L271" t="inlineStr">
@@ -22047,13 +22047,13 @@
         <v>20</v>
       </c>
       <c r="N271" t="n">
-        <v>455000</v>
+        <v>280000</v>
       </c>
       <c r="O271" t="n">
-        <v>460000</v>
+        <v>290000</v>
       </c>
       <c r="P271" t="n">
-        <v>457500</v>
+        <v>285000</v>
       </c>
       <c r="Q271" t="inlineStr">
         <is>
@@ -22066,7 +22066,7 @@
         </is>
       </c>
       <c r="S271" t="n">
-        <v>1144</v>
+        <v>712</v>
       </c>
       <c r="T271" t="n">
         <v>400</v>
@@ -22087,7 +22087,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44399</v>
+        <v>44167</v>
       </c>
       <c r="E272" t="n">
         <v>4</v>
@@ -22115,7 +22115,7 @@
       </c>
       <c r="K272" t="inlineStr">
         <is>
-          <t>Cara cara</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L272" t="inlineStr">
@@ -22124,16 +22124,16 @@
         </is>
       </c>
       <c r="M272" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N272" t="n">
-        <v>120000</v>
+        <v>330000</v>
       </c>
       <c r="O272" t="n">
-        <v>130000</v>
+        <v>340000</v>
       </c>
       <c r="P272" t="n">
-        <v>125000</v>
+        <v>335000</v>
       </c>
       <c r="Q272" t="inlineStr">
         <is>
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="S272" t="n">
-        <v>312</v>
+        <v>838</v>
       </c>
       <c r="T272" t="n">
         <v>400</v>
@@ -22167,7 +22167,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44399</v>
+        <v>44167</v>
       </c>
       <c r="E273" t="n">
         <v>4</v>
@@ -22195,25 +22195,25 @@
       </c>
       <c r="K273" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L273" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M273" t="n">
         <v>20</v>
       </c>
       <c r="N273" t="n">
-        <v>100000</v>
+        <v>290000</v>
       </c>
       <c r="O273" t="n">
-        <v>110000</v>
+        <v>300000</v>
       </c>
       <c r="P273" t="n">
-        <v>105000</v>
+        <v>295000</v>
       </c>
       <c r="Q273" t="inlineStr">
         <is>
@@ -22226,7 +22226,7 @@
         </is>
       </c>
       <c r="S273" t="n">
-        <v>262</v>
+        <v>738</v>
       </c>
       <c r="T273" t="n">
         <v>400</v>
@@ -22247,7 +22247,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E274" t="n">
         <v>4</v>
@@ -22275,25 +22275,25 @@
       </c>
       <c r="K274" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L274" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M274" t="n">
         <v>20</v>
       </c>
       <c r="N274" t="n">
-        <v>80000</v>
+        <v>485000</v>
       </c>
       <c r="O274" t="n">
-        <v>90000</v>
+        <v>490000</v>
       </c>
       <c r="P274" t="n">
-        <v>85000</v>
+        <v>487500</v>
       </c>
       <c r="Q274" t="inlineStr">
         <is>
@@ -22306,7 +22306,7 @@
         </is>
       </c>
       <c r="S274" t="n">
-        <v>212</v>
+        <v>1219</v>
       </c>
       <c r="T274" t="n">
         <v>400</v>
@@ -22327,7 +22327,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E275" t="n">
         <v>4</v>
@@ -22355,25 +22355,25 @@
       </c>
       <c r="K275" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L275" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M275" t="n">
         <v>20</v>
       </c>
       <c r="N275" t="n">
-        <v>100000</v>
+        <v>455000</v>
       </c>
       <c r="O275" t="n">
-        <v>110000</v>
+        <v>460000</v>
       </c>
       <c r="P275" t="n">
-        <v>105000</v>
+        <v>457500</v>
       </c>
       <c r="Q275" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         </is>
       </c>
       <c r="S275" t="n">
-        <v>262</v>
+        <v>1144</v>
       </c>
       <c r="T275" t="n">
         <v>400</v>
@@ -22435,7 +22435,7 @@
       </c>
       <c r="K276" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Cara cara</t>
         </is>
       </c>
       <c r="L276" t="inlineStr">
@@ -22444,16 +22444,16 @@
         </is>
       </c>
       <c r="M276" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N276" t="n">
-        <v>100000</v>
+        <v>120000</v>
       </c>
       <c r="O276" t="n">
-        <v>110000</v>
+        <v>130000</v>
       </c>
       <c r="P276" t="n">
-        <v>105000</v>
+        <v>125000</v>
       </c>
       <c r="Q276" t="inlineStr">
         <is>
@@ -22466,7 +22466,7 @@
         </is>
       </c>
       <c r="S276" t="n">
-        <v>262</v>
+        <v>312</v>
       </c>
       <c r="T276" t="n">
         <v>400</v>
@@ -22515,40 +22515,360 @@
       </c>
       <c r="K277" t="inlineStr">
         <is>
+          <t>Fukumoto</t>
+        </is>
+      </c>
+      <c r="L277" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M277" t="n">
+        <v>20</v>
+      </c>
+      <c r="N277" t="n">
+        <v>100000</v>
+      </c>
+      <c r="O277" t="n">
+        <v>110000</v>
+      </c>
+      <c r="P277" t="n">
+        <v>105000</v>
+      </c>
+      <c r="Q277" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R277" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S277" t="n">
+        <v>262</v>
+      </c>
+      <c r="T277" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>2</v>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D278" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E278" t="n">
+        <v>4</v>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G278" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I278" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J278" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>Fukumoto</t>
+        </is>
+      </c>
+      <c r="L278" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M278" t="n">
+        <v>20</v>
+      </c>
+      <c r="N278" t="n">
+        <v>80000</v>
+      </c>
+      <c r="O278" t="n">
+        <v>90000</v>
+      </c>
+      <c r="P278" t="n">
+        <v>85000</v>
+      </c>
+      <c r="Q278" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R278" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S278" t="n">
+        <v>212</v>
+      </c>
+      <c r="T278" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>2</v>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D279" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E279" t="n">
+        <v>4</v>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G279" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I279" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J279" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>Lane Late</t>
+        </is>
+      </c>
+      <c r="L279" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M279" t="n">
+        <v>20</v>
+      </c>
+      <c r="N279" t="n">
+        <v>100000</v>
+      </c>
+      <c r="O279" t="n">
+        <v>110000</v>
+      </c>
+      <c r="P279" t="n">
+        <v>105000</v>
+      </c>
+      <c r="Q279" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R279" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S279" t="n">
+        <v>262</v>
+      </c>
+      <c r="T279" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>2</v>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D280" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E280" t="n">
+        <v>4</v>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G280" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I280" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J280" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
           <t>Navel Late</t>
         </is>
       </c>
-      <c r="L277" t="inlineStr">
+      <c r="L280" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M280" t="n">
+        <v>20</v>
+      </c>
+      <c r="N280" t="n">
+        <v>100000</v>
+      </c>
+      <c r="O280" t="n">
+        <v>110000</v>
+      </c>
+      <c r="P280" t="n">
+        <v>105000</v>
+      </c>
+      <c r="Q280" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R280" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S280" t="n">
+        <v>262</v>
+      </c>
+      <c r="T280" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>2</v>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D281" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E281" t="n">
+        <v>4</v>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G281" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I281" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J281" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>Navel Late</t>
+        </is>
+      </c>
+      <c r="L281" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M277" t="n">
-        <v>20</v>
-      </c>
-      <c r="N277" t="n">
+      <c r="M281" t="n">
+        <v>20</v>
+      </c>
+      <c r="N281" t="n">
         <v>80000</v>
       </c>
-      <c r="O277" t="n">
+      <c r="O281" t="n">
         <v>90000</v>
       </c>
-      <c r="P277" t="n">
+      <c r="P281" t="n">
         <v>85000</v>
       </c>
-      <c r="Q277" t="inlineStr">
-        <is>
-          <t>$/bins (400 kilos)</t>
-        </is>
-      </c>
-      <c r="R277" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="S277" t="n">
+      <c r="Q281" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R281" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S281" t="n">
         <v>212</v>
       </c>
-      <c r="T277" t="n">
+      <c r="T281" t="n">
         <v>400</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Comercializadora del Agro de Limarí - Naranja.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Comercializadora del Agro de Limarí - Naranja.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T281"/>
+  <dimension ref="A1:T285"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21927,7 +21927,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E270" t="n">
         <v>4</v>
@@ -21955,7 +21955,7 @@
       </c>
       <c r="K270" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L270" t="inlineStr">
@@ -21967,13 +21967,13 @@
         <v>20</v>
       </c>
       <c r="N270" t="n">
-        <v>320000</v>
+        <v>110000</v>
       </c>
       <c r="O270" t="n">
-        <v>330000</v>
+        <v>120000</v>
       </c>
       <c r="P270" t="n">
-        <v>325000</v>
+        <v>115000</v>
       </c>
       <c r="Q270" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
         </is>
       </c>
       <c r="S270" t="n">
-        <v>812</v>
+        <v>288</v>
       </c>
       <c r="T270" t="n">
         <v>400</v>
@@ -22007,7 +22007,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E271" t="n">
         <v>4</v>
@@ -22035,7 +22035,7 @@
       </c>
       <c r="K271" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L271" t="inlineStr">
@@ -22047,13 +22047,13 @@
         <v>20</v>
       </c>
       <c r="N271" t="n">
-        <v>280000</v>
+        <v>80000</v>
       </c>
       <c r="O271" t="n">
-        <v>290000</v>
+        <v>90000</v>
       </c>
       <c r="P271" t="n">
-        <v>285000</v>
+        <v>85000</v>
       </c>
       <c r="Q271" t="inlineStr">
         <is>
@@ -22066,7 +22066,7 @@
         </is>
       </c>
       <c r="S271" t="n">
-        <v>712</v>
+        <v>212</v>
       </c>
       <c r="T271" t="n">
         <v>400</v>
@@ -22087,7 +22087,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E272" t="n">
         <v>4</v>
@@ -22115,7 +22115,7 @@
       </c>
       <c r="K272" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L272" t="inlineStr">
@@ -22127,13 +22127,13 @@
         <v>20</v>
       </c>
       <c r="N272" t="n">
-        <v>330000</v>
+        <v>110000</v>
       </c>
       <c r="O272" t="n">
-        <v>340000</v>
+        <v>120000</v>
       </c>
       <c r="P272" t="n">
-        <v>335000</v>
+        <v>115000</v>
       </c>
       <c r="Q272" t="inlineStr">
         <is>
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="S272" t="n">
-        <v>838</v>
+        <v>288</v>
       </c>
       <c r="T272" t="n">
         <v>400</v>
@@ -22167,7 +22167,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E273" t="n">
         <v>4</v>
@@ -22195,7 +22195,7 @@
       </c>
       <c r="K273" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L273" t="inlineStr">
@@ -22207,13 +22207,13 @@
         <v>20</v>
       </c>
       <c r="N273" t="n">
-        <v>290000</v>
+        <v>80000</v>
       </c>
       <c r="O273" t="n">
-        <v>300000</v>
+        <v>90000</v>
       </c>
       <c r="P273" t="n">
-        <v>295000</v>
+        <v>85000</v>
       </c>
       <c r="Q273" t="inlineStr">
         <is>
@@ -22226,7 +22226,7 @@
         </is>
       </c>
       <c r="S273" t="n">
-        <v>738</v>
+        <v>212</v>
       </c>
       <c r="T273" t="n">
         <v>400</v>
@@ -22247,7 +22247,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E274" t="n">
         <v>4</v>
@@ -22275,7 +22275,7 @@
       </c>
       <c r="K274" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L274" t="inlineStr">
@@ -22287,13 +22287,13 @@
         <v>20</v>
       </c>
       <c r="N274" t="n">
-        <v>485000</v>
+        <v>320000</v>
       </c>
       <c r="O274" t="n">
-        <v>490000</v>
+        <v>330000</v>
       </c>
       <c r="P274" t="n">
-        <v>487500</v>
+        <v>325000</v>
       </c>
       <c r="Q274" t="inlineStr">
         <is>
@@ -22306,7 +22306,7 @@
         </is>
       </c>
       <c r="S274" t="n">
-        <v>1219</v>
+        <v>812</v>
       </c>
       <c r="T274" t="n">
         <v>400</v>
@@ -22327,7 +22327,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E275" t="n">
         <v>4</v>
@@ -22355,7 +22355,7 @@
       </c>
       <c r="K275" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L275" t="inlineStr">
@@ -22367,13 +22367,13 @@
         <v>20</v>
       </c>
       <c r="N275" t="n">
-        <v>455000</v>
+        <v>280000</v>
       </c>
       <c r="O275" t="n">
-        <v>460000</v>
+        <v>290000</v>
       </c>
       <c r="P275" t="n">
-        <v>457500</v>
+        <v>285000</v>
       </c>
       <c r="Q275" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         </is>
       </c>
       <c r="S275" t="n">
-        <v>1144</v>
+        <v>712</v>
       </c>
       <c r="T275" t="n">
         <v>400</v>
@@ -22407,7 +22407,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44399</v>
+        <v>44167</v>
       </c>
       <c r="E276" t="n">
         <v>4</v>
@@ -22435,7 +22435,7 @@
       </c>
       <c r="K276" t="inlineStr">
         <is>
-          <t>Cara cara</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L276" t="inlineStr">
@@ -22444,16 +22444,16 @@
         </is>
       </c>
       <c r="M276" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N276" t="n">
-        <v>120000</v>
+        <v>330000</v>
       </c>
       <c r="O276" t="n">
-        <v>130000</v>
+        <v>340000</v>
       </c>
       <c r="P276" t="n">
-        <v>125000</v>
+        <v>335000</v>
       </c>
       <c r="Q276" t="inlineStr">
         <is>
@@ -22466,7 +22466,7 @@
         </is>
       </c>
       <c r="S276" t="n">
-        <v>312</v>
+        <v>838</v>
       </c>
       <c r="T276" t="n">
         <v>400</v>
@@ -22487,7 +22487,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44399</v>
+        <v>44167</v>
       </c>
       <c r="E277" t="n">
         <v>4</v>
@@ -22515,25 +22515,25 @@
       </c>
       <c r="K277" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L277" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M277" t="n">
         <v>20</v>
       </c>
       <c r="N277" t="n">
-        <v>100000</v>
+        <v>290000</v>
       </c>
       <c r="O277" t="n">
-        <v>110000</v>
+        <v>300000</v>
       </c>
       <c r="P277" t="n">
-        <v>105000</v>
+        <v>295000</v>
       </c>
       <c r="Q277" t="inlineStr">
         <is>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="S277" t="n">
-        <v>262</v>
+        <v>738</v>
       </c>
       <c r="T277" t="n">
         <v>400</v>
@@ -22567,7 +22567,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E278" t="n">
         <v>4</v>
@@ -22595,25 +22595,25 @@
       </c>
       <c r="K278" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L278" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M278" t="n">
         <v>20</v>
       </c>
       <c r="N278" t="n">
-        <v>80000</v>
+        <v>485000</v>
       </c>
       <c r="O278" t="n">
-        <v>90000</v>
+        <v>490000</v>
       </c>
       <c r="P278" t="n">
-        <v>85000</v>
+        <v>487500</v>
       </c>
       <c r="Q278" t="inlineStr">
         <is>
@@ -22626,7 +22626,7 @@
         </is>
       </c>
       <c r="S278" t="n">
-        <v>212</v>
+        <v>1219</v>
       </c>
       <c r="T278" t="n">
         <v>400</v>
@@ -22647,7 +22647,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E279" t="n">
         <v>4</v>
@@ -22675,25 +22675,25 @@
       </c>
       <c r="K279" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L279" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M279" t="n">
         <v>20</v>
       </c>
       <c r="N279" t="n">
-        <v>100000</v>
+        <v>455000</v>
       </c>
       <c r="O279" t="n">
-        <v>110000</v>
+        <v>460000</v>
       </c>
       <c r="P279" t="n">
-        <v>105000</v>
+        <v>457500</v>
       </c>
       <c r="Q279" t="inlineStr">
         <is>
@@ -22706,7 +22706,7 @@
         </is>
       </c>
       <c r="S279" t="n">
-        <v>262</v>
+        <v>1144</v>
       </c>
       <c r="T279" t="n">
         <v>400</v>
@@ -22755,7 +22755,7 @@
       </c>
       <c r="K280" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Cara cara</t>
         </is>
       </c>
       <c r="L280" t="inlineStr">
@@ -22764,16 +22764,16 @@
         </is>
       </c>
       <c r="M280" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N280" t="n">
-        <v>100000</v>
+        <v>120000</v>
       </c>
       <c r="O280" t="n">
-        <v>110000</v>
+        <v>130000</v>
       </c>
       <c r="P280" t="n">
-        <v>105000</v>
+        <v>125000</v>
       </c>
       <c r="Q280" t="inlineStr">
         <is>
@@ -22786,7 +22786,7 @@
         </is>
       </c>
       <c r="S280" t="n">
-        <v>262</v>
+        <v>312</v>
       </c>
       <c r="T280" t="n">
         <v>400</v>
@@ -22835,40 +22835,360 @@
       </c>
       <c r="K281" t="inlineStr">
         <is>
+          <t>Fukumoto</t>
+        </is>
+      </c>
+      <c r="L281" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M281" t="n">
+        <v>20</v>
+      </c>
+      <c r="N281" t="n">
+        <v>100000</v>
+      </c>
+      <c r="O281" t="n">
+        <v>110000</v>
+      </c>
+      <c r="P281" t="n">
+        <v>105000</v>
+      </c>
+      <c r="Q281" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R281" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S281" t="n">
+        <v>262</v>
+      </c>
+      <c r="T281" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>2</v>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D282" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E282" t="n">
+        <v>4</v>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G282" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I282" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J282" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>Fukumoto</t>
+        </is>
+      </c>
+      <c r="L282" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M282" t="n">
+        <v>20</v>
+      </c>
+      <c r="N282" t="n">
+        <v>80000</v>
+      </c>
+      <c r="O282" t="n">
+        <v>90000</v>
+      </c>
+      <c r="P282" t="n">
+        <v>85000</v>
+      </c>
+      <c r="Q282" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R282" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S282" t="n">
+        <v>212</v>
+      </c>
+      <c r="T282" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>2</v>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D283" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E283" t="n">
+        <v>4</v>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G283" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I283" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J283" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>Lane Late</t>
+        </is>
+      </c>
+      <c r="L283" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M283" t="n">
+        <v>20</v>
+      </c>
+      <c r="N283" t="n">
+        <v>100000</v>
+      </c>
+      <c r="O283" t="n">
+        <v>110000</v>
+      </c>
+      <c r="P283" t="n">
+        <v>105000</v>
+      </c>
+      <c r="Q283" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R283" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S283" t="n">
+        <v>262</v>
+      </c>
+      <c r="T283" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>2</v>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D284" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E284" t="n">
+        <v>4</v>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G284" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I284" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J284" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
           <t>Navel Late</t>
         </is>
       </c>
-      <c r="L281" t="inlineStr">
+      <c r="L284" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M284" t="n">
+        <v>20</v>
+      </c>
+      <c r="N284" t="n">
+        <v>100000</v>
+      </c>
+      <c r="O284" t="n">
+        <v>110000</v>
+      </c>
+      <c r="P284" t="n">
+        <v>105000</v>
+      </c>
+      <c r="Q284" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R284" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S284" t="n">
+        <v>262</v>
+      </c>
+      <c r="T284" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>2</v>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D285" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E285" t="n">
+        <v>4</v>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G285" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I285" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J285" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>Navel Late</t>
+        </is>
+      </c>
+      <c r="L285" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M281" t="n">
-        <v>20</v>
-      </c>
-      <c r="N281" t="n">
+      <c r="M285" t="n">
+        <v>20</v>
+      </c>
+      <c r="N285" t="n">
         <v>80000</v>
       </c>
-      <c r="O281" t="n">
+      <c r="O285" t="n">
         <v>90000</v>
       </c>
-      <c r="P281" t="n">
+      <c r="P285" t="n">
         <v>85000</v>
       </c>
-      <c r="Q281" t="inlineStr">
-        <is>
-          <t>$/bins (400 kilos)</t>
-        </is>
-      </c>
-      <c r="R281" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="S281" t="n">
+      <c r="Q285" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R285" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S285" t="n">
         <v>212</v>
       </c>
-      <c r="T281" t="n">
+      <c r="T285" t="n">
         <v>400</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Comercializadora del Agro de Limarí - Naranja.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Comercializadora del Agro de Limarí - Naranja.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T289"/>
+  <dimension ref="A1:T293"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17127,7 +17127,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44427</v>
+        <v>44455</v>
       </c>
       <c r="E210" t="n">
         <v>4</v>
@@ -17155,25 +17155,25 @@
       </c>
       <c r="K210" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L210" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M210" t="n">
         <v>20</v>
       </c>
       <c r="N210" t="n">
+        <v>110000</v>
+      </c>
+      <c r="O210" t="n">
         <v>120000</v>
       </c>
-      <c r="O210" t="n">
-        <v>130000</v>
-      </c>
       <c r="P210" t="n">
-        <v>125000</v>
+        <v>115000</v>
       </c>
       <c r="Q210" t="inlineStr">
         <is>
@@ -17186,7 +17186,7 @@
         </is>
       </c>
       <c r="S210" t="n">
-        <v>312</v>
+        <v>288</v>
       </c>
       <c r="T210" t="n">
         <v>400</v>
@@ -17207,7 +17207,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44427</v>
+        <v>44455</v>
       </c>
       <c r="E211" t="n">
         <v>4</v>
@@ -17235,25 +17235,25 @@
       </c>
       <c r="K211" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L211" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M211" t="n">
         <v>20</v>
       </c>
       <c r="N211" t="n">
+        <v>90000</v>
+      </c>
+      <c r="O211" t="n">
         <v>100000</v>
       </c>
-      <c r="O211" t="n">
-        <v>110000</v>
-      </c>
       <c r="P211" t="n">
-        <v>105000</v>
+        <v>95000</v>
       </c>
       <c r="Q211" t="inlineStr">
         <is>
@@ -17266,7 +17266,7 @@
         </is>
       </c>
       <c r="S211" t="n">
-        <v>262</v>
+        <v>238</v>
       </c>
       <c r="T211" t="n">
         <v>400</v>
@@ -17287,7 +17287,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44427</v>
+        <v>44455</v>
       </c>
       <c r="E212" t="n">
         <v>4</v>
@@ -17315,25 +17315,25 @@
       </c>
       <c r="K212" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L212" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M212" t="n">
         <v>20</v>
       </c>
       <c r="N212" t="n">
-        <v>80000</v>
+        <v>110000</v>
       </c>
       <c r="O212" t="n">
-        <v>90000</v>
+        <v>120000</v>
       </c>
       <c r="P212" t="n">
-        <v>85000</v>
+        <v>115000</v>
       </c>
       <c r="Q212" t="inlineStr">
         <is>
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="S212" t="n">
-        <v>212</v>
+        <v>288</v>
       </c>
       <c r="T212" t="n">
         <v>400</v>
@@ -17367,7 +17367,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44427</v>
+        <v>44455</v>
       </c>
       <c r="E213" t="n">
         <v>4</v>
@@ -17400,20 +17400,20 @@
       </c>
       <c r="L213" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M213" t="n">
         <v>20</v>
       </c>
       <c r="N213" t="n">
+        <v>90000</v>
+      </c>
+      <c r="O213" t="n">
         <v>100000</v>
       </c>
-      <c r="O213" t="n">
-        <v>110000</v>
-      </c>
       <c r="P213" t="n">
-        <v>105000</v>
+        <v>95000</v>
       </c>
       <c r="Q213" t="inlineStr">
         <is>
@@ -17426,7 +17426,7 @@
         </is>
       </c>
       <c r="S213" t="n">
-        <v>262</v>
+        <v>238</v>
       </c>
       <c r="T213" t="n">
         <v>400</v>
@@ -17475,25 +17475,25 @@
       </c>
       <c r="K214" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L214" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M214" t="n">
         <v>20</v>
       </c>
       <c r="N214" t="n">
-        <v>80000</v>
+        <v>120000</v>
       </c>
       <c r="O214" t="n">
-        <v>90000</v>
+        <v>130000</v>
       </c>
       <c r="P214" t="n">
-        <v>85000</v>
+        <v>125000</v>
       </c>
       <c r="Q214" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         </is>
       </c>
       <c r="S214" t="n">
-        <v>212</v>
+        <v>312</v>
       </c>
       <c r="T214" t="n">
         <v>400</v>
@@ -17527,7 +17527,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44265</v>
+        <v>44427</v>
       </c>
       <c r="E215" t="n">
         <v>4</v>
@@ -17555,7 +17555,7 @@
       </c>
       <c r="K215" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L215" t="inlineStr">
@@ -17567,13 +17567,13 @@
         <v>20</v>
       </c>
       <c r="N215" t="n">
-        <v>455000</v>
+        <v>100000</v>
       </c>
       <c r="O215" t="n">
-        <v>460000</v>
+        <v>110000</v>
       </c>
       <c r="P215" t="n">
-        <v>457500</v>
+        <v>105000</v>
       </c>
       <c r="Q215" t="inlineStr">
         <is>
@@ -17586,7 +17586,7 @@
         </is>
       </c>
       <c r="S215" t="n">
-        <v>1144</v>
+        <v>262</v>
       </c>
       <c r="T215" t="n">
         <v>400</v>
@@ -17607,7 +17607,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44265</v>
+        <v>44427</v>
       </c>
       <c r="E216" t="n">
         <v>4</v>
@@ -17635,7 +17635,7 @@
       </c>
       <c r="K216" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L216" t="inlineStr">
@@ -17647,13 +17647,13 @@
         <v>20</v>
       </c>
       <c r="N216" t="n">
-        <v>415000</v>
+        <v>80000</v>
       </c>
       <c r="O216" t="n">
-        <v>420000</v>
+        <v>90000</v>
       </c>
       <c r="P216" t="n">
-        <v>417500</v>
+        <v>85000</v>
       </c>
       <c r="Q216" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         </is>
       </c>
       <c r="S216" t="n">
-        <v>1044</v>
+        <v>212</v>
       </c>
       <c r="T216" t="n">
         <v>400</v>
@@ -17687,7 +17687,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44343</v>
+        <v>44427</v>
       </c>
       <c r="E217" t="n">
         <v>4</v>
@@ -17715,25 +17715,25 @@
       </c>
       <c r="K217" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L217" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M217" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N217" t="n">
-        <v>235000</v>
+        <v>100000</v>
       </c>
       <c r="O217" t="n">
-        <v>240000</v>
+        <v>110000</v>
       </c>
       <c r="P217" t="n">
-        <v>237500</v>
+        <v>105000</v>
       </c>
       <c r="Q217" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="S217" t="n">
-        <v>594</v>
+        <v>262</v>
       </c>
       <c r="T217" t="n">
         <v>400</v>
@@ -17767,7 +17767,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44343</v>
+        <v>44427</v>
       </c>
       <c r="E218" t="n">
         <v>4</v>
@@ -17795,25 +17795,25 @@
       </c>
       <c r="K218" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L218" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M218" t="n">
         <v>20</v>
       </c>
       <c r="N218" t="n">
-        <v>195000</v>
+        <v>80000</v>
       </c>
       <c r="O218" t="n">
-        <v>200000</v>
+        <v>90000</v>
       </c>
       <c r="P218" t="n">
-        <v>197500</v>
+        <v>85000</v>
       </c>
       <c r="Q218" t="inlineStr">
         <is>
@@ -17826,7 +17826,7 @@
         </is>
       </c>
       <c r="S218" t="n">
-        <v>494</v>
+        <v>212</v>
       </c>
       <c r="T218" t="n">
         <v>400</v>
@@ -17847,7 +17847,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E219" t="n">
         <v>4</v>
@@ -17875,25 +17875,25 @@
       </c>
       <c r="K219" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L219" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M219" t="n">
         <v>20</v>
       </c>
       <c r="N219" t="n">
-        <v>165000</v>
+        <v>455000</v>
       </c>
       <c r="O219" t="n">
-        <v>170000</v>
+        <v>460000</v>
       </c>
       <c r="P219" t="n">
-        <v>167500</v>
+        <v>457500</v>
       </c>
       <c r="Q219" t="inlineStr">
         <is>
@@ -17906,7 +17906,7 @@
         </is>
       </c>
       <c r="S219" t="n">
-        <v>419</v>
+        <v>1144</v>
       </c>
       <c r="T219" t="n">
         <v>400</v>
@@ -17927,7 +17927,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44280</v>
+        <v>44265</v>
       </c>
       <c r="E220" t="n">
         <v>4</v>
@@ -17960,20 +17960,20 @@
       </c>
       <c r="L220" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M220" t="n">
         <v>20</v>
       </c>
       <c r="N220" t="n">
-        <v>455000</v>
+        <v>415000</v>
       </c>
       <c r="O220" t="n">
-        <v>460000</v>
+        <v>420000</v>
       </c>
       <c r="P220" t="n">
-        <v>457500</v>
+        <v>417500</v>
       </c>
       <c r="Q220" t="inlineStr">
         <is>
@@ -17986,7 +17986,7 @@
         </is>
       </c>
       <c r="S220" t="n">
-        <v>1144</v>
+        <v>1044</v>
       </c>
       <c r="T220" t="n">
         <v>400</v>
@@ -18007,7 +18007,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44280</v>
+        <v>44343</v>
       </c>
       <c r="E221" t="n">
         <v>4</v>
@@ -18035,25 +18035,25 @@
       </c>
       <c r="K221" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L221" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M221" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N221" t="n">
-        <v>415000</v>
+        <v>235000</v>
       </c>
       <c r="O221" t="n">
-        <v>420000</v>
+        <v>240000</v>
       </c>
       <c r="P221" t="n">
-        <v>417500</v>
+        <v>237500</v>
       </c>
       <c r="Q221" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         </is>
       </c>
       <c r="S221" t="n">
-        <v>1044</v>
+        <v>594</v>
       </c>
       <c r="T221" t="n">
         <v>400</v>
@@ -18087,7 +18087,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44447</v>
+        <v>44343</v>
       </c>
       <c r="E222" t="n">
         <v>4</v>
@@ -18115,7 +18115,7 @@
       </c>
       <c r="K222" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L222" t="inlineStr">
@@ -18127,13 +18127,13 @@
         <v>20</v>
       </c>
       <c r="N222" t="n">
-        <v>110000</v>
+        <v>195000</v>
       </c>
       <c r="O222" t="n">
-        <v>120000</v>
+        <v>200000</v>
       </c>
       <c r="P222" t="n">
-        <v>115000</v>
+        <v>197500</v>
       </c>
       <c r="Q222" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="S222" t="n">
-        <v>288</v>
+        <v>494</v>
       </c>
       <c r="T222" t="n">
         <v>400</v>
@@ -18167,7 +18167,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44447</v>
+        <v>44343</v>
       </c>
       <c r="E223" t="n">
         <v>4</v>
@@ -18195,7 +18195,7 @@
       </c>
       <c r="K223" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L223" t="inlineStr">
@@ -18204,16 +18204,16 @@
         </is>
       </c>
       <c r="M223" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="N223" t="n">
-        <v>80000</v>
+        <v>165000</v>
       </c>
       <c r="O223" t="n">
-        <v>90000</v>
+        <v>170000</v>
       </c>
       <c r="P223" t="n">
-        <v>86429</v>
+        <v>167500</v>
       </c>
       <c r="Q223" t="inlineStr">
         <is>
@@ -18226,7 +18226,7 @@
         </is>
       </c>
       <c r="S223" t="n">
-        <v>216</v>
+        <v>419</v>
       </c>
       <c r="T223" t="n">
         <v>400</v>
@@ -18247,7 +18247,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E224" t="n">
         <v>4</v>
@@ -18275,7 +18275,7 @@
       </c>
       <c r="K224" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L224" t="inlineStr">
@@ -18287,13 +18287,13 @@
         <v>20</v>
       </c>
       <c r="N224" t="n">
-        <v>110000</v>
+        <v>455000</v>
       </c>
       <c r="O224" t="n">
-        <v>120000</v>
+        <v>460000</v>
       </c>
       <c r="P224" t="n">
-        <v>115000</v>
+        <v>457500</v>
       </c>
       <c r="Q224" t="inlineStr">
         <is>
@@ -18306,7 +18306,7 @@
         </is>
       </c>
       <c r="S224" t="n">
-        <v>288</v>
+        <v>1144</v>
       </c>
       <c r="T224" t="n">
         <v>400</v>
@@ -18327,7 +18327,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E225" t="n">
         <v>4</v>
@@ -18355,7 +18355,7 @@
       </c>
       <c r="K225" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L225" t="inlineStr">
@@ -18367,13 +18367,13 @@
         <v>20</v>
       </c>
       <c r="N225" t="n">
-        <v>80000</v>
+        <v>415000</v>
       </c>
       <c r="O225" t="n">
-        <v>90000</v>
+        <v>420000</v>
       </c>
       <c r="P225" t="n">
-        <v>85000</v>
+        <v>417500</v>
       </c>
       <c r="Q225" t="inlineStr">
         <is>
@@ -18386,7 +18386,7 @@
         </is>
       </c>
       <c r="S225" t="n">
-        <v>212</v>
+        <v>1044</v>
       </c>
       <c r="T225" t="n">
         <v>400</v>
@@ -18407,7 +18407,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44308</v>
+        <v>44447</v>
       </c>
       <c r="E226" t="n">
         <v>4</v>
@@ -18435,7 +18435,7 @@
       </c>
       <c r="K226" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L226" t="inlineStr">
@@ -18447,13 +18447,13 @@
         <v>20</v>
       </c>
       <c r="N226" t="n">
-        <v>385000</v>
+        <v>110000</v>
       </c>
       <c r="O226" t="n">
-        <v>390000</v>
+        <v>120000</v>
       </c>
       <c r="P226" t="n">
-        <v>387500</v>
+        <v>115000</v>
       </c>
       <c r="Q226" t="inlineStr">
         <is>
@@ -18466,7 +18466,7 @@
         </is>
       </c>
       <c r="S226" t="n">
-        <v>969</v>
+        <v>288</v>
       </c>
       <c r="T226" t="n">
         <v>400</v>
@@ -18487,7 +18487,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44308</v>
+        <v>44447</v>
       </c>
       <c r="E227" t="n">
         <v>4</v>
@@ -18515,7 +18515,7 @@
       </c>
       <c r="K227" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L227" t="inlineStr">
@@ -18524,16 +18524,16 @@
         </is>
       </c>
       <c r="M227" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N227" t="n">
-        <v>345000</v>
+        <v>80000</v>
       </c>
       <c r="O227" t="n">
-        <v>350000</v>
+        <v>90000</v>
       </c>
       <c r="P227" t="n">
-        <v>347500</v>
+        <v>86429</v>
       </c>
       <c r="Q227" t="inlineStr">
         <is>
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="S227" t="n">
-        <v>869</v>
+        <v>216</v>
       </c>
       <c r="T227" t="n">
         <v>400</v>
@@ -18567,7 +18567,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44308</v>
+        <v>44447</v>
       </c>
       <c r="E228" t="n">
         <v>4</v>
@@ -18595,7 +18595,7 @@
       </c>
       <c r="K228" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L228" t="inlineStr">
@@ -18607,13 +18607,13 @@
         <v>20</v>
       </c>
       <c r="N228" t="n">
-        <v>385000</v>
+        <v>110000</v>
       </c>
       <c r="O228" t="n">
-        <v>390000</v>
+        <v>120000</v>
       </c>
       <c r="P228" t="n">
-        <v>387500</v>
+        <v>115000</v>
       </c>
       <c r="Q228" t="inlineStr">
         <is>
@@ -18626,7 +18626,7 @@
         </is>
       </c>
       <c r="S228" t="n">
-        <v>969</v>
+        <v>288</v>
       </c>
       <c r="T228" t="n">
         <v>400</v>
@@ -18647,7 +18647,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44308</v>
+        <v>44447</v>
       </c>
       <c r="E229" t="n">
         <v>4</v>
@@ -18675,7 +18675,7 @@
       </c>
       <c r="K229" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L229" t="inlineStr">
@@ -18687,13 +18687,13 @@
         <v>20</v>
       </c>
       <c r="N229" t="n">
-        <v>345000</v>
+        <v>80000</v>
       </c>
       <c r="O229" t="n">
-        <v>350000</v>
+        <v>90000</v>
       </c>
       <c r="P229" t="n">
-        <v>347500</v>
+        <v>85000</v>
       </c>
       <c r="Q229" t="inlineStr">
         <is>
@@ -18706,7 +18706,7 @@
         </is>
       </c>
       <c r="S229" t="n">
-        <v>869</v>
+        <v>212</v>
       </c>
       <c r="T229" t="n">
         <v>400</v>
@@ -18755,7 +18755,7 @@
       </c>
       <c r="K230" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L230" t="inlineStr">
@@ -18767,13 +18767,13 @@
         <v>20</v>
       </c>
       <c r="N230" t="n">
-        <v>495000</v>
+        <v>385000</v>
       </c>
       <c r="O230" t="n">
-        <v>500000</v>
+        <v>390000</v>
       </c>
       <c r="P230" t="n">
-        <v>497500</v>
+        <v>387500</v>
       </c>
       <c r="Q230" t="inlineStr">
         <is>
@@ -18786,7 +18786,7 @@
         </is>
       </c>
       <c r="S230" t="n">
-        <v>1244</v>
+        <v>969</v>
       </c>
       <c r="T230" t="n">
         <v>400</v>
@@ -18807,7 +18807,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44301</v>
+        <v>44308</v>
       </c>
       <c r="E231" t="n">
         <v>4</v>
@@ -18835,25 +18835,25 @@
       </c>
       <c r="K231" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L231" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M231" t="n">
         <v>20</v>
       </c>
       <c r="N231" t="n">
-        <v>495000</v>
+        <v>345000</v>
       </c>
       <c r="O231" t="n">
-        <v>500000</v>
+        <v>350000</v>
       </c>
       <c r="P231" t="n">
-        <v>497500</v>
+        <v>347500</v>
       </c>
       <c r="Q231" t="inlineStr">
         <is>
@@ -18866,7 +18866,7 @@
         </is>
       </c>
       <c r="S231" t="n">
-        <v>1244</v>
+        <v>869</v>
       </c>
       <c r="T231" t="n">
         <v>400</v>
@@ -18887,7 +18887,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44301</v>
+        <v>44308</v>
       </c>
       <c r="E232" t="n">
         <v>4</v>
@@ -18915,7 +18915,7 @@
       </c>
       <c r="K232" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L232" t="inlineStr">
@@ -18927,13 +18927,13 @@
         <v>20</v>
       </c>
       <c r="N232" t="n">
-        <v>475000</v>
+        <v>385000</v>
       </c>
       <c r="O232" t="n">
-        <v>480000</v>
+        <v>390000</v>
       </c>
       <c r="P232" t="n">
-        <v>477500</v>
+        <v>387500</v>
       </c>
       <c r="Q232" t="inlineStr">
         <is>
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="S232" t="n">
-        <v>1194</v>
+        <v>969</v>
       </c>
       <c r="T232" t="n">
         <v>400</v>
@@ -18967,7 +18967,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44251</v>
+        <v>44308</v>
       </c>
       <c r="E233" t="n">
         <v>4</v>
@@ -18995,25 +18995,25 @@
       </c>
       <c r="K233" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L233" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M233" t="n">
         <v>20</v>
       </c>
       <c r="N233" t="n">
-        <v>455000</v>
+        <v>345000</v>
       </c>
       <c r="O233" t="n">
-        <v>460000</v>
+        <v>350000</v>
       </c>
       <c r="P233" t="n">
-        <v>457500</v>
+        <v>347500</v>
       </c>
       <c r="Q233" t="inlineStr">
         <is>
@@ -19026,7 +19026,7 @@
         </is>
       </c>
       <c r="S233" t="n">
-        <v>1144</v>
+        <v>869</v>
       </c>
       <c r="T233" t="n">
         <v>400</v>
@@ -19047,7 +19047,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44251</v>
+        <v>44308</v>
       </c>
       <c r="E234" t="n">
         <v>4</v>
@@ -19080,20 +19080,20 @@
       </c>
       <c r="L234" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M234" t="n">
         <v>20</v>
       </c>
       <c r="N234" t="n">
-        <v>415000</v>
+        <v>495000</v>
       </c>
       <c r="O234" t="n">
-        <v>420000</v>
+        <v>500000</v>
       </c>
       <c r="P234" t="n">
-        <v>417500</v>
+        <v>497500</v>
       </c>
       <c r="Q234" t="inlineStr">
         <is>
@@ -19106,7 +19106,7 @@
         </is>
       </c>
       <c r="S234" t="n">
-        <v>1044</v>
+        <v>1244</v>
       </c>
       <c r="T234" t="n">
         <v>400</v>
@@ -19127,7 +19127,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44252</v>
+        <v>44301</v>
       </c>
       <c r="E235" t="n">
         <v>4</v>
@@ -19160,20 +19160,20 @@
       </c>
       <c r="L235" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M235" t="n">
         <v>20</v>
       </c>
       <c r="N235" t="n">
-        <v>455000</v>
+        <v>495000</v>
       </c>
       <c r="O235" t="n">
-        <v>460000</v>
+        <v>500000</v>
       </c>
       <c r="P235" t="n">
-        <v>457500</v>
+        <v>497500</v>
       </c>
       <c r="Q235" t="inlineStr">
         <is>
@@ -19186,7 +19186,7 @@
         </is>
       </c>
       <c r="S235" t="n">
-        <v>1144</v>
+        <v>1244</v>
       </c>
       <c r="T235" t="n">
         <v>400</v>
@@ -19207,7 +19207,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44252</v>
+        <v>44301</v>
       </c>
       <c r="E236" t="n">
         <v>4</v>
@@ -19240,20 +19240,20 @@
       </c>
       <c r="L236" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M236" t="n">
         <v>20</v>
       </c>
       <c r="N236" t="n">
-        <v>41500</v>
+        <v>475000</v>
       </c>
       <c r="O236" t="n">
-        <v>420000</v>
+        <v>480000</v>
       </c>
       <c r="P236" t="n">
-        <v>230750</v>
+        <v>477500</v>
       </c>
       <c r="Q236" t="inlineStr">
         <is>
@@ -19266,7 +19266,7 @@
         </is>
       </c>
       <c r="S236" t="n">
-        <v>577</v>
+        <v>1194</v>
       </c>
       <c r="T236" t="n">
         <v>400</v>
@@ -19287,7 +19287,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44168</v>
+        <v>44251</v>
       </c>
       <c r="E237" t="n">
         <v>4</v>
@@ -19315,7 +19315,7 @@
       </c>
       <c r="K237" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L237" t="inlineStr">
@@ -19327,13 +19327,13 @@
         <v>20</v>
       </c>
       <c r="N237" t="n">
-        <v>325000</v>
+        <v>455000</v>
       </c>
       <c r="O237" t="n">
-        <v>330000</v>
+        <v>460000</v>
       </c>
       <c r="P237" t="n">
-        <v>327500</v>
+        <v>457500</v>
       </c>
       <c r="Q237" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="S237" t="n">
-        <v>819</v>
+        <v>1144</v>
       </c>
       <c r="T237" t="n">
         <v>400</v>
@@ -19367,7 +19367,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44168</v>
+        <v>44251</v>
       </c>
       <c r="E238" t="n">
         <v>4</v>
@@ -19395,7 +19395,7 @@
       </c>
       <c r="K238" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L238" t="inlineStr">
@@ -19407,13 +19407,13 @@
         <v>20</v>
       </c>
       <c r="N238" t="n">
-        <v>285000</v>
+        <v>415000</v>
       </c>
       <c r="O238" t="n">
-        <v>290000</v>
+        <v>420000</v>
       </c>
       <c r="P238" t="n">
-        <v>287500</v>
+        <v>417500</v>
       </c>
       <c r="Q238" t="inlineStr">
         <is>
@@ -19426,7 +19426,7 @@
         </is>
       </c>
       <c r="S238" t="n">
-        <v>719</v>
+        <v>1044</v>
       </c>
       <c r="T238" t="n">
         <v>400</v>
@@ -19447,7 +19447,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44168</v>
+        <v>44252</v>
       </c>
       <c r="E239" t="n">
         <v>4</v>
@@ -19480,20 +19480,20 @@
       </c>
       <c r="L239" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M239" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N239" t="n">
-        <v>355000</v>
+        <v>455000</v>
       </c>
       <c r="O239" t="n">
-        <v>360000</v>
+        <v>460000</v>
       </c>
       <c r="P239" t="n">
-        <v>357500</v>
+        <v>457500</v>
       </c>
       <c r="Q239" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         </is>
       </c>
       <c r="S239" t="n">
-        <v>894</v>
+        <v>1144</v>
       </c>
       <c r="T239" t="n">
         <v>400</v>
@@ -19527,7 +19527,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44168</v>
+        <v>44252</v>
       </c>
       <c r="E240" t="n">
         <v>4</v>
@@ -19560,20 +19560,20 @@
       </c>
       <c r="L240" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M240" t="n">
         <v>20</v>
       </c>
       <c r="N240" t="n">
-        <v>335000</v>
+        <v>41500</v>
       </c>
       <c r="O240" t="n">
-        <v>340000</v>
+        <v>420000</v>
       </c>
       <c r="P240" t="n">
-        <v>337500</v>
+        <v>230750</v>
       </c>
       <c r="Q240" t="inlineStr">
         <is>
@@ -19586,7 +19586,7 @@
         </is>
       </c>
       <c r="S240" t="n">
-        <v>844</v>
+        <v>577</v>
       </c>
       <c r="T240" t="n">
         <v>400</v>
@@ -19635,25 +19635,25 @@
       </c>
       <c r="K241" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L241" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M241" t="n">
         <v>20</v>
       </c>
       <c r="N241" t="n">
-        <v>295000</v>
+        <v>325000</v>
       </c>
       <c r="O241" t="n">
-        <v>300000</v>
+        <v>330000</v>
       </c>
       <c r="P241" t="n">
-        <v>297500</v>
+        <v>327500</v>
       </c>
       <c r="Q241" t="inlineStr">
         <is>
@@ -19666,7 +19666,7 @@
         </is>
       </c>
       <c r="S241" t="n">
-        <v>744</v>
+        <v>819</v>
       </c>
       <c r="T241" t="n">
         <v>400</v>
@@ -19687,7 +19687,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44433</v>
+        <v>44168</v>
       </c>
       <c r="E242" t="n">
         <v>4</v>
@@ -19715,25 +19715,25 @@
       </c>
       <c r="K242" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L242" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M242" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N242" t="n">
-        <v>125000</v>
+        <v>285000</v>
       </c>
       <c r="O242" t="n">
-        <v>130000</v>
+        <v>290000</v>
       </c>
       <c r="P242" t="n">
-        <v>127500</v>
+        <v>287500</v>
       </c>
       <c r="Q242" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="S242" t="n">
-        <v>319</v>
+        <v>719</v>
       </c>
       <c r="T242" t="n">
         <v>400</v>
@@ -19767,7 +19767,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44433</v>
+        <v>44168</v>
       </c>
       <c r="E243" t="n">
         <v>4</v>
@@ -19795,25 +19795,25 @@
       </c>
       <c r="K243" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L243" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M243" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N243" t="n">
-        <v>105000</v>
+        <v>355000</v>
       </c>
       <c r="O243" t="n">
-        <v>110000</v>
+        <v>360000</v>
       </c>
       <c r="P243" t="n">
-        <v>107500</v>
+        <v>357500</v>
       </c>
       <c r="Q243" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         </is>
       </c>
       <c r="S243" t="n">
-        <v>269</v>
+        <v>894</v>
       </c>
       <c r="T243" t="n">
         <v>400</v>
@@ -19847,7 +19847,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44433</v>
+        <v>44168</v>
       </c>
       <c r="E244" t="n">
         <v>4</v>
@@ -19875,25 +19875,25 @@
       </c>
       <c r="K244" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L244" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M244" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="N244" t="n">
-        <v>85000</v>
+        <v>335000</v>
       </c>
       <c r="O244" t="n">
-        <v>90000</v>
+        <v>340000</v>
       </c>
       <c r="P244" t="n">
-        <v>88214</v>
+        <v>337500</v>
       </c>
       <c r="Q244" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         </is>
       </c>
       <c r="S244" t="n">
-        <v>221</v>
+        <v>844</v>
       </c>
       <c r="T244" t="n">
         <v>400</v>
@@ -19927,7 +19927,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44433</v>
+        <v>44168</v>
       </c>
       <c r="E245" t="n">
         <v>4</v>
@@ -19955,25 +19955,25 @@
       </c>
       <c r="K245" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L245" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M245" t="n">
         <v>20</v>
       </c>
       <c r="N245" t="n">
-        <v>95000</v>
+        <v>295000</v>
       </c>
       <c r="O245" t="n">
-        <v>100000</v>
+        <v>300000</v>
       </c>
       <c r="P245" t="n">
-        <v>97500</v>
+        <v>297500</v>
       </c>
       <c r="Q245" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         </is>
       </c>
       <c r="S245" t="n">
-        <v>244</v>
+        <v>744</v>
       </c>
       <c r="T245" t="n">
         <v>400</v>
@@ -20035,25 +20035,25 @@
       </c>
       <c r="K246" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L246" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M246" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N246" t="n">
-        <v>75000</v>
+        <v>125000</v>
       </c>
       <c r="O246" t="n">
-        <v>80000</v>
+        <v>130000</v>
       </c>
       <c r="P246" t="n">
-        <v>77500</v>
+        <v>127500</v>
       </c>
       <c r="Q246" t="inlineStr">
         <is>
@@ -20066,7 +20066,7 @@
         </is>
       </c>
       <c r="S246" t="n">
-        <v>194</v>
+        <v>319</v>
       </c>
       <c r="T246" t="n">
         <v>400</v>
@@ -20115,7 +20115,7 @@
       </c>
       <c r="K247" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L247" t="inlineStr">
@@ -20127,13 +20127,13 @@
         <v>20</v>
       </c>
       <c r="N247" t="n">
-        <v>95000</v>
+        <v>105000</v>
       </c>
       <c r="O247" t="n">
-        <v>100000</v>
+        <v>110000</v>
       </c>
       <c r="P247" t="n">
-        <v>97500</v>
+        <v>107500</v>
       </c>
       <c r="Q247" t="inlineStr">
         <is>
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="S247" t="n">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="T247" t="n">
         <v>400</v>
@@ -20195,7 +20195,7 @@
       </c>
       <c r="K248" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L248" t="inlineStr">
@@ -20204,16 +20204,16 @@
         </is>
       </c>
       <c r="M248" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N248" t="n">
-        <v>75000</v>
+        <v>85000</v>
       </c>
       <c r="O248" t="n">
-        <v>80000</v>
+        <v>90000</v>
       </c>
       <c r="P248" t="n">
-        <v>77500</v>
+        <v>88214</v>
       </c>
       <c r="Q248" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         </is>
       </c>
       <c r="S248" t="n">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="T248" t="n">
         <v>400</v>
@@ -20247,7 +20247,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E249" t="n">
         <v>4</v>
@@ -20275,7 +20275,7 @@
       </c>
       <c r="K249" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L249" t="inlineStr">
@@ -20287,13 +20287,13 @@
         <v>20</v>
       </c>
       <c r="N249" t="n">
-        <v>125000</v>
+        <v>95000</v>
       </c>
       <c r="O249" t="n">
-        <v>130000</v>
+        <v>100000</v>
       </c>
       <c r="P249" t="n">
-        <v>127500</v>
+        <v>97500</v>
       </c>
       <c r="Q249" t="inlineStr">
         <is>
@@ -20306,7 +20306,7 @@
         </is>
       </c>
       <c r="S249" t="n">
-        <v>319</v>
+        <v>244</v>
       </c>
       <c r="T249" t="n">
         <v>400</v>
@@ -20327,7 +20327,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E250" t="n">
         <v>4</v>
@@ -20355,7 +20355,7 @@
       </c>
       <c r="K250" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L250" t="inlineStr">
@@ -20367,13 +20367,13 @@
         <v>20</v>
       </c>
       <c r="N250" t="n">
-        <v>105000</v>
+        <v>75000</v>
       </c>
       <c r="O250" t="n">
-        <v>110000</v>
+        <v>80000</v>
       </c>
       <c r="P250" t="n">
-        <v>107500</v>
+        <v>77500</v>
       </c>
       <c r="Q250" t="inlineStr">
         <is>
@@ -20386,7 +20386,7 @@
         </is>
       </c>
       <c r="S250" t="n">
-        <v>269</v>
+        <v>194</v>
       </c>
       <c r="T250" t="n">
         <v>400</v>
@@ -20407,7 +20407,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E251" t="n">
         <v>4</v>
@@ -20440,20 +20440,20 @@
       </c>
       <c r="L251" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M251" t="n">
         <v>20</v>
       </c>
       <c r="N251" t="n">
-        <v>155000</v>
+        <v>95000</v>
       </c>
       <c r="O251" t="n">
-        <v>160000</v>
+        <v>100000</v>
       </c>
       <c r="P251" t="n">
-        <v>157500</v>
+        <v>97500</v>
       </c>
       <c r="Q251" t="inlineStr">
         <is>
@@ -20466,7 +20466,7 @@
         </is>
       </c>
       <c r="S251" t="n">
-        <v>394</v>
+        <v>244</v>
       </c>
       <c r="T251" t="n">
         <v>400</v>
@@ -20487,7 +20487,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E252" t="n">
         <v>4</v>
@@ -20520,20 +20520,20 @@
       </c>
       <c r="L252" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M252" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N252" t="n">
-        <v>135000</v>
+        <v>75000</v>
       </c>
       <c r="O252" t="n">
-        <v>140000</v>
+        <v>80000</v>
       </c>
       <c r="P252" t="n">
-        <v>137500</v>
+        <v>77500</v>
       </c>
       <c r="Q252" t="inlineStr">
         <is>
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="S252" t="n">
-        <v>344</v>
+        <v>194</v>
       </c>
       <c r="T252" t="n">
         <v>400</v>
@@ -20595,25 +20595,25 @@
       </c>
       <c r="K253" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L253" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M253" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N253" t="n">
-        <v>115000</v>
+        <v>125000</v>
       </c>
       <c r="O253" t="n">
-        <v>120000</v>
+        <v>130000</v>
       </c>
       <c r="P253" t="n">
-        <v>117500</v>
+        <v>127500</v>
       </c>
       <c r="Q253" t="inlineStr">
         <is>
@@ -20626,7 +20626,7 @@
         </is>
       </c>
       <c r="S253" t="n">
-        <v>294</v>
+        <v>319</v>
       </c>
       <c r="T253" t="n">
         <v>400</v>
@@ -20675,25 +20675,25 @@
       </c>
       <c r="K254" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L254" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M254" t="n">
         <v>20</v>
       </c>
       <c r="N254" t="n">
-        <v>135000</v>
+        <v>105000</v>
       </c>
       <c r="O254" t="n">
-        <v>140000</v>
+        <v>110000</v>
       </c>
       <c r="P254" t="n">
-        <v>137500</v>
+        <v>107500</v>
       </c>
       <c r="Q254" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         </is>
       </c>
       <c r="S254" t="n">
-        <v>344</v>
+        <v>269</v>
       </c>
       <c r="T254" t="n">
         <v>400</v>
@@ -20755,25 +20755,25 @@
       </c>
       <c r="K255" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L255" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M255" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N255" t="n">
-        <v>115000</v>
+        <v>155000</v>
       </c>
       <c r="O255" t="n">
-        <v>120000</v>
+        <v>160000</v>
       </c>
       <c r="P255" t="n">
-        <v>117500</v>
+        <v>157500</v>
       </c>
       <c r="Q255" t="inlineStr">
         <is>
@@ -20786,7 +20786,7 @@
         </is>
       </c>
       <c r="S255" t="n">
-        <v>294</v>
+        <v>394</v>
       </c>
       <c r="T255" t="n">
         <v>400</v>
@@ -20807,7 +20807,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44279</v>
+        <v>44371</v>
       </c>
       <c r="E256" t="n">
         <v>4</v>
@@ -20835,25 +20835,25 @@
       </c>
       <c r="K256" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L256" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M256" t="n">
         <v>16</v>
       </c>
       <c r="N256" t="n">
-        <v>475000</v>
+        <v>135000</v>
       </c>
       <c r="O256" t="n">
-        <v>480000</v>
+        <v>140000</v>
       </c>
       <c r="P256" t="n">
-        <v>477500</v>
+        <v>137500</v>
       </c>
       <c r="Q256" t="inlineStr">
         <is>
@@ -20866,7 +20866,7 @@
         </is>
       </c>
       <c r="S256" t="n">
-        <v>1194</v>
+        <v>344</v>
       </c>
       <c r="T256" t="n">
         <v>400</v>
@@ -20887,7 +20887,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44279</v>
+        <v>44371</v>
       </c>
       <c r="E257" t="n">
         <v>4</v>
@@ -20915,25 +20915,25 @@
       </c>
       <c r="K257" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L257" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M257" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N257" t="n">
-        <v>455000</v>
+        <v>115000</v>
       </c>
       <c r="O257" t="n">
-        <v>460000</v>
+        <v>120000</v>
       </c>
       <c r="P257" t="n">
-        <v>457500</v>
+        <v>117500</v>
       </c>
       <c r="Q257" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="S257" t="n">
-        <v>1144</v>
+        <v>294</v>
       </c>
       <c r="T257" t="n">
         <v>400</v>
@@ -20967,7 +20967,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44279</v>
+        <v>44371</v>
       </c>
       <c r="E258" t="n">
         <v>4</v>
@@ -20995,25 +20995,25 @@
       </c>
       <c r="K258" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L258" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M258" t="n">
         <v>20</v>
       </c>
       <c r="N258" t="n">
-        <v>415000</v>
+        <v>135000</v>
       </c>
       <c r="O258" t="n">
-        <v>420000</v>
+        <v>140000</v>
       </c>
       <c r="P258" t="n">
-        <v>417500</v>
+        <v>137500</v>
       </c>
       <c r="Q258" t="inlineStr">
         <is>
@@ -21026,7 +21026,7 @@
         </is>
       </c>
       <c r="S258" t="n">
-        <v>1044</v>
+        <v>344</v>
       </c>
       <c r="T258" t="n">
         <v>400</v>
@@ -21047,7 +21047,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44363</v>
+        <v>44371</v>
       </c>
       <c r="E259" t="n">
         <v>4</v>
@@ -21075,25 +21075,25 @@
       </c>
       <c r="K259" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L259" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M259" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N259" t="n">
-        <v>135000</v>
+        <v>115000</v>
       </c>
       <c r="O259" t="n">
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="P259" t="n">
-        <v>137500</v>
+        <v>117500</v>
       </c>
       <c r="Q259" t="inlineStr">
         <is>
@@ -21106,7 +21106,7 @@
         </is>
       </c>
       <c r="S259" t="n">
-        <v>344</v>
+        <v>294</v>
       </c>
       <c r="T259" t="n">
         <v>400</v>
@@ -21127,7 +21127,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44363</v>
+        <v>44279</v>
       </c>
       <c r="E260" t="n">
         <v>4</v>
@@ -21155,25 +21155,25 @@
       </c>
       <c r="K260" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L260" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M260" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N260" t="n">
-        <v>115000</v>
+        <v>475000</v>
       </c>
       <c r="O260" t="n">
-        <v>120000</v>
+        <v>480000</v>
       </c>
       <c r="P260" t="n">
-        <v>117500</v>
+        <v>477500</v>
       </c>
       <c r="Q260" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         </is>
       </c>
       <c r="S260" t="n">
-        <v>294</v>
+        <v>1194</v>
       </c>
       <c r="T260" t="n">
         <v>400</v>
@@ -21207,7 +21207,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44363</v>
+        <v>44279</v>
       </c>
       <c r="E261" t="n">
         <v>4</v>
@@ -21235,7 +21235,7 @@
       </c>
       <c r="K261" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L261" t="inlineStr">
@@ -21247,13 +21247,13 @@
         <v>20</v>
       </c>
       <c r="N261" t="n">
-        <v>145000</v>
+        <v>455000</v>
       </c>
       <c r="O261" t="n">
-        <v>150000</v>
+        <v>460000</v>
       </c>
       <c r="P261" t="n">
-        <v>147500</v>
+        <v>457500</v>
       </c>
       <c r="Q261" t="inlineStr">
         <is>
@@ -21266,7 +21266,7 @@
         </is>
       </c>
       <c r="S261" t="n">
-        <v>369</v>
+        <v>1144</v>
       </c>
       <c r="T261" t="n">
         <v>400</v>
@@ -21287,7 +21287,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44363</v>
+        <v>44279</v>
       </c>
       <c r="E262" t="n">
         <v>4</v>
@@ -21315,7 +21315,7 @@
       </c>
       <c r="K262" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L262" t="inlineStr">
@@ -21327,13 +21327,13 @@
         <v>20</v>
       </c>
       <c r="N262" t="n">
-        <v>125000</v>
+        <v>415000</v>
       </c>
       <c r="O262" t="n">
-        <v>130000</v>
+        <v>420000</v>
       </c>
       <c r="P262" t="n">
-        <v>127500</v>
+        <v>417500</v>
       </c>
       <c r="Q262" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="S262" t="n">
-        <v>319</v>
+        <v>1044</v>
       </c>
       <c r="T262" t="n">
         <v>400</v>
@@ -21367,7 +21367,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44273</v>
+        <v>44363</v>
       </c>
       <c r="E263" t="n">
         <v>4</v>
@@ -21395,25 +21395,25 @@
       </c>
       <c r="K263" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L263" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M263" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N263" t="n">
-        <v>475000</v>
+        <v>135000</v>
       </c>
       <c r="O263" t="n">
-        <v>480000</v>
+        <v>140000</v>
       </c>
       <c r="P263" t="n">
-        <v>477500</v>
+        <v>137500</v>
       </c>
       <c r="Q263" t="inlineStr">
         <is>
@@ -21426,7 +21426,7 @@
         </is>
       </c>
       <c r="S263" t="n">
-        <v>1194</v>
+        <v>344</v>
       </c>
       <c r="T263" t="n">
         <v>400</v>
@@ -21447,7 +21447,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44273</v>
+        <v>44363</v>
       </c>
       <c r="E264" t="n">
         <v>4</v>
@@ -21475,25 +21475,25 @@
       </c>
       <c r="K264" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L264" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M264" t="n">
         <v>20</v>
       </c>
       <c r="N264" t="n">
-        <v>455000</v>
+        <v>115000</v>
       </c>
       <c r="O264" t="n">
-        <v>460000</v>
+        <v>120000</v>
       </c>
       <c r="P264" t="n">
-        <v>457500</v>
+        <v>117500</v>
       </c>
       <c r="Q264" t="inlineStr">
         <is>
@@ -21506,7 +21506,7 @@
         </is>
       </c>
       <c r="S264" t="n">
-        <v>1144</v>
+        <v>294</v>
       </c>
       <c r="T264" t="n">
         <v>400</v>
@@ -21527,7 +21527,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44273</v>
+        <v>44363</v>
       </c>
       <c r="E265" t="n">
         <v>4</v>
@@ -21555,25 +21555,25 @@
       </c>
       <c r="K265" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L265" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M265" t="n">
         <v>20</v>
       </c>
       <c r="N265" t="n">
-        <v>415000</v>
+        <v>145000</v>
       </c>
       <c r="O265" t="n">
-        <v>420000</v>
+        <v>150000</v>
       </c>
       <c r="P265" t="n">
-        <v>417500</v>
+        <v>147500</v>
       </c>
       <c r="Q265" t="inlineStr">
         <is>
@@ -21586,7 +21586,7 @@
         </is>
       </c>
       <c r="S265" t="n">
-        <v>1044</v>
+        <v>369</v>
       </c>
       <c r="T265" t="n">
         <v>400</v>
@@ -21607,7 +21607,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44286</v>
+        <v>44363</v>
       </c>
       <c r="E266" t="n">
         <v>4</v>
@@ -21635,25 +21635,25 @@
       </c>
       <c r="K266" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L266" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M266" t="n">
         <v>20</v>
       </c>
       <c r="N266" t="n">
-        <v>475000</v>
+        <v>125000</v>
       </c>
       <c r="O266" t="n">
-        <v>480000</v>
+        <v>130000</v>
       </c>
       <c r="P266" t="n">
-        <v>477500</v>
+        <v>127500</v>
       </c>
       <c r="Q266" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         </is>
       </c>
       <c r="S266" t="n">
-        <v>1194</v>
+        <v>319</v>
       </c>
       <c r="T266" t="n">
         <v>400</v>
@@ -21687,7 +21687,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44286</v>
+        <v>44273</v>
       </c>
       <c r="E267" t="n">
         <v>4</v>
@@ -21720,20 +21720,20 @@
       </c>
       <c r="L267" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M267" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N267" t="n">
-        <v>455000</v>
+        <v>475000</v>
       </c>
       <c r="O267" t="n">
-        <v>460000</v>
+        <v>480000</v>
       </c>
       <c r="P267" t="n">
-        <v>457500</v>
+        <v>477500</v>
       </c>
       <c r="Q267" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="S267" t="n">
-        <v>1144</v>
+        <v>1194</v>
       </c>
       <c r="T267" t="n">
         <v>400</v>
@@ -21767,7 +21767,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44209</v>
+        <v>44273</v>
       </c>
       <c r="E268" t="n">
         <v>4</v>
@@ -21800,20 +21800,20 @@
       </c>
       <c r="L268" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M268" t="n">
         <v>20</v>
       </c>
       <c r="N268" t="n">
-        <v>465000</v>
+        <v>455000</v>
       </c>
       <c r="O268" t="n">
-        <v>470000</v>
+        <v>460000</v>
       </c>
       <c r="P268" t="n">
-        <v>467500</v>
+        <v>457500</v>
       </c>
       <c r="Q268" t="inlineStr">
         <is>
@@ -21826,7 +21826,7 @@
         </is>
       </c>
       <c r="S268" t="n">
-        <v>1169</v>
+        <v>1144</v>
       </c>
       <c r="T268" t="n">
         <v>400</v>
@@ -21847,7 +21847,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44209</v>
+        <v>44273</v>
       </c>
       <c r="E269" t="n">
         <v>4</v>
@@ -21880,7 +21880,7 @@
       </c>
       <c r="L269" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M269" t="n">
@@ -21927,7 +21927,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E270" t="n">
         <v>4</v>
@@ -21960,20 +21960,20 @@
       </c>
       <c r="L270" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M270" t="n">
         <v>20</v>
       </c>
       <c r="N270" t="n">
-        <v>365000</v>
+        <v>475000</v>
       </c>
       <c r="O270" t="n">
-        <v>370000</v>
+        <v>480000</v>
       </c>
       <c r="P270" t="n">
-        <v>367500</v>
+        <v>477500</v>
       </c>
       <c r="Q270" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
         </is>
       </c>
       <c r="S270" t="n">
-        <v>919</v>
+        <v>1194</v>
       </c>
       <c r="T270" t="n">
         <v>400</v>
@@ -22007,7 +22007,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E271" t="n">
         <v>4</v>
@@ -22035,7 +22035,7 @@
       </c>
       <c r="K271" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L271" t="inlineStr">
@@ -22047,13 +22047,13 @@
         <v>20</v>
       </c>
       <c r="N271" t="n">
-        <v>145000</v>
+        <v>455000</v>
       </c>
       <c r="O271" t="n">
-        <v>150000</v>
+        <v>460000</v>
       </c>
       <c r="P271" t="n">
-        <v>147500</v>
+        <v>457500</v>
       </c>
       <c r="Q271" t="inlineStr">
         <is>
@@ -22066,7 +22066,7 @@
         </is>
       </c>
       <c r="S271" t="n">
-        <v>369</v>
+        <v>1144</v>
       </c>
       <c r="T271" t="n">
         <v>400</v>
@@ -22087,7 +22087,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E272" t="n">
         <v>4</v>
@@ -22115,25 +22115,25 @@
       </c>
       <c r="K272" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L272" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M272" t="n">
         <v>20</v>
       </c>
       <c r="N272" t="n">
-        <v>115000</v>
+        <v>465000</v>
       </c>
       <c r="O272" t="n">
-        <v>120000</v>
+        <v>470000</v>
       </c>
       <c r="P272" t="n">
-        <v>117500</v>
+        <v>467500</v>
       </c>
       <c r="Q272" t="inlineStr">
         <is>
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="S272" t="n">
-        <v>294</v>
+        <v>1169</v>
       </c>
       <c r="T272" t="n">
         <v>400</v>
@@ -22167,7 +22167,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E273" t="n">
         <v>4</v>
@@ -22195,7 +22195,7 @@
       </c>
       <c r="K273" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L273" t="inlineStr">
@@ -22207,13 +22207,13 @@
         <v>20</v>
       </c>
       <c r="N273" t="n">
-        <v>145000</v>
+        <v>415000</v>
       </c>
       <c r="O273" t="n">
-        <v>150000</v>
+        <v>420000</v>
       </c>
       <c r="P273" t="n">
-        <v>147500</v>
+        <v>417500</v>
       </c>
       <c r="Q273" t="inlineStr">
         <is>
@@ -22226,7 +22226,7 @@
         </is>
       </c>
       <c r="S273" t="n">
-        <v>369</v>
+        <v>1044</v>
       </c>
       <c r="T273" t="n">
         <v>400</v>
@@ -22247,7 +22247,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E274" t="n">
         <v>4</v>
@@ -22275,7 +22275,7 @@
       </c>
       <c r="K274" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L274" t="inlineStr">
@@ -22287,13 +22287,13 @@
         <v>20</v>
       </c>
       <c r="N274" t="n">
-        <v>115000</v>
+        <v>365000</v>
       </c>
       <c r="O274" t="n">
-        <v>120000</v>
+        <v>370000</v>
       </c>
       <c r="P274" t="n">
-        <v>117500</v>
+        <v>367500</v>
       </c>
       <c r="Q274" t="inlineStr">
         <is>
@@ -22306,7 +22306,7 @@
         </is>
       </c>
       <c r="S274" t="n">
-        <v>294</v>
+        <v>919</v>
       </c>
       <c r="T274" t="n">
         <v>400</v>
@@ -22327,7 +22327,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E275" t="n">
         <v>4</v>
@@ -22355,25 +22355,25 @@
       </c>
       <c r="K275" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L275" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M275" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N275" t="n">
-        <v>325000</v>
+        <v>145000</v>
       </c>
       <c r="O275" t="n">
-        <v>330000</v>
+        <v>150000</v>
       </c>
       <c r="P275" t="n">
-        <v>327500</v>
+        <v>147500</v>
       </c>
       <c r="Q275" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         </is>
       </c>
       <c r="S275" t="n">
-        <v>819</v>
+        <v>369</v>
       </c>
       <c r="T275" t="n">
         <v>400</v>
@@ -22407,7 +22407,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E276" t="n">
         <v>4</v>
@@ -22435,25 +22435,25 @@
       </c>
       <c r="K276" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L276" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M276" t="n">
         <v>20</v>
       </c>
       <c r="N276" t="n">
-        <v>305000</v>
+        <v>115000</v>
       </c>
       <c r="O276" t="n">
-        <v>310000</v>
+        <v>120000</v>
       </c>
       <c r="P276" t="n">
-        <v>307500</v>
+        <v>117500</v>
       </c>
       <c r="Q276" t="inlineStr">
         <is>
@@ -22466,7 +22466,7 @@
         </is>
       </c>
       <c r="S276" t="n">
-        <v>769</v>
+        <v>294</v>
       </c>
       <c r="T276" t="n">
         <v>400</v>
@@ -22487,7 +22487,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E277" t="n">
         <v>4</v>
@@ -22515,25 +22515,25 @@
       </c>
       <c r="K277" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L277" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M277" t="n">
         <v>20</v>
       </c>
       <c r="N277" t="n">
-        <v>255000</v>
+        <v>145000</v>
       </c>
       <c r="O277" t="n">
-        <v>260000</v>
+        <v>150000</v>
       </c>
       <c r="P277" t="n">
-        <v>257500</v>
+        <v>147500</v>
       </c>
       <c r="Q277" t="inlineStr">
         <is>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="S277" t="n">
-        <v>644</v>
+        <v>369</v>
       </c>
       <c r="T277" t="n">
         <v>400</v>
@@ -22567,7 +22567,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44175</v>
+        <v>44356</v>
       </c>
       <c r="E278" t="n">
         <v>4</v>
@@ -22595,25 +22595,25 @@
       </c>
       <c r="K278" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L278" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M278" t="n">
         <v>20</v>
       </c>
       <c r="N278" t="n">
-        <v>325000</v>
+        <v>115000</v>
       </c>
       <c r="O278" t="n">
-        <v>330000</v>
+        <v>120000</v>
       </c>
       <c r="P278" t="n">
-        <v>327500</v>
+        <v>117500</v>
       </c>
       <c r="Q278" t="inlineStr">
         <is>
@@ -22626,7 +22626,7 @@
         </is>
       </c>
       <c r="S278" t="n">
-        <v>819</v>
+        <v>294</v>
       </c>
       <c r="T278" t="n">
         <v>400</v>
@@ -22647,7 +22647,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44175</v>
+        <v>44160</v>
       </c>
       <c r="E279" t="n">
         <v>4</v>
@@ -22675,25 +22675,25 @@
       </c>
       <c r="K279" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L279" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M279" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N279" t="n">
-        <v>265000</v>
+        <v>325000</v>
       </c>
       <c r="O279" t="n">
-        <v>270000</v>
+        <v>330000</v>
       </c>
       <c r="P279" t="n">
-        <v>267500</v>
+        <v>327500</v>
       </c>
       <c r="Q279" t="inlineStr">
         <is>
@@ -22706,7 +22706,7 @@
         </is>
       </c>
       <c r="S279" t="n">
-        <v>669</v>
+        <v>819</v>
       </c>
       <c r="T279" t="n">
         <v>400</v>
@@ -22727,7 +22727,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44175</v>
+        <v>44160</v>
       </c>
       <c r="E280" t="n">
         <v>4</v>
@@ -22755,7 +22755,7 @@
       </c>
       <c r="K280" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L280" t="inlineStr">
@@ -22767,13 +22767,13 @@
         <v>20</v>
       </c>
       <c r="N280" t="n">
-        <v>335000</v>
+        <v>305000</v>
       </c>
       <c r="O280" t="n">
-        <v>340000</v>
+        <v>310000</v>
       </c>
       <c r="P280" t="n">
-        <v>337500</v>
+        <v>307500</v>
       </c>
       <c r="Q280" t="inlineStr">
         <is>
@@ -22786,7 +22786,7 @@
         </is>
       </c>
       <c r="S280" t="n">
-        <v>844</v>
+        <v>769</v>
       </c>
       <c r="T280" t="n">
         <v>400</v>
@@ -22807,7 +22807,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44175</v>
+        <v>44160</v>
       </c>
       <c r="E281" t="n">
         <v>4</v>
@@ -22835,7 +22835,7 @@
       </c>
       <c r="K281" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L281" t="inlineStr">
@@ -22847,13 +22847,13 @@
         <v>20</v>
       </c>
       <c r="N281" t="n">
-        <v>285000</v>
+        <v>255000</v>
       </c>
       <c r="O281" t="n">
-        <v>290000</v>
+        <v>260000</v>
       </c>
       <c r="P281" t="n">
-        <v>287500</v>
+        <v>257500</v>
       </c>
       <c r="Q281" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         </is>
       </c>
       <c r="S281" t="n">
-        <v>719</v>
+        <v>644</v>
       </c>
       <c r="T281" t="n">
         <v>400</v>
@@ -22887,7 +22887,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E282" t="n">
         <v>4</v>
@@ -22915,7 +22915,7 @@
       </c>
       <c r="K282" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L282" t="inlineStr">
@@ -22927,13 +22927,13 @@
         <v>20</v>
       </c>
       <c r="N282" t="n">
-        <v>145000</v>
+        <v>325000</v>
       </c>
       <c r="O282" t="n">
-        <v>150000</v>
+        <v>330000</v>
       </c>
       <c r="P282" t="n">
-        <v>147500</v>
+        <v>327500</v>
       </c>
       <c r="Q282" t="inlineStr">
         <is>
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="S282" t="n">
-        <v>369</v>
+        <v>819</v>
       </c>
       <c r="T282" t="n">
         <v>400</v>
@@ -22967,7 +22967,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E283" t="n">
         <v>4</v>
@@ -22995,7 +22995,7 @@
       </c>
       <c r="K283" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L283" t="inlineStr">
@@ -23007,13 +23007,13 @@
         <v>20</v>
       </c>
       <c r="N283" t="n">
-        <v>115000</v>
+        <v>265000</v>
       </c>
       <c r="O283" t="n">
-        <v>120000</v>
+        <v>270000</v>
       </c>
       <c r="P283" t="n">
-        <v>117500</v>
+        <v>267500</v>
       </c>
       <c r="Q283" t="inlineStr">
         <is>
@@ -23026,7 +23026,7 @@
         </is>
       </c>
       <c r="S283" t="n">
-        <v>294</v>
+        <v>669</v>
       </c>
       <c r="T283" t="n">
         <v>400</v>
@@ -23047,7 +23047,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E284" t="n">
         <v>4</v>
@@ -23075,7 +23075,7 @@
       </c>
       <c r="K284" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L284" t="inlineStr">
@@ -23087,13 +23087,13 @@
         <v>20</v>
       </c>
       <c r="N284" t="n">
-        <v>145000</v>
+        <v>335000</v>
       </c>
       <c r="O284" t="n">
-        <v>150000</v>
+        <v>340000</v>
       </c>
       <c r="P284" t="n">
-        <v>147500</v>
+        <v>337500</v>
       </c>
       <c r="Q284" t="inlineStr">
         <is>
@@ -23106,7 +23106,7 @@
         </is>
       </c>
       <c r="S284" t="n">
-        <v>369</v>
+        <v>844</v>
       </c>
       <c r="T284" t="n">
         <v>400</v>
@@ -23127,7 +23127,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E285" t="n">
         <v>4</v>
@@ -23155,7 +23155,7 @@
       </c>
       <c r="K285" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L285" t="inlineStr">
@@ -23167,13 +23167,13 @@
         <v>20</v>
       </c>
       <c r="N285" t="n">
-        <v>115000</v>
+        <v>285000</v>
       </c>
       <c r="O285" t="n">
-        <v>120000</v>
+        <v>290000</v>
       </c>
       <c r="P285" t="n">
-        <v>117500</v>
+        <v>287500</v>
       </c>
       <c r="Q285" t="inlineStr">
         <is>
@@ -23186,7 +23186,7 @@
         </is>
       </c>
       <c r="S285" t="n">
-        <v>294</v>
+        <v>719</v>
       </c>
       <c r="T285" t="n">
         <v>400</v>
@@ -23207,7 +23207,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E286" t="n">
         <v>4</v>
@@ -23235,7 +23235,7 @@
       </c>
       <c r="K286" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L286" t="inlineStr">
@@ -23247,13 +23247,13 @@
         <v>20</v>
       </c>
       <c r="N286" t="n">
-        <v>395000</v>
+        <v>145000</v>
       </c>
       <c r="O286" t="n">
-        <v>400000</v>
+        <v>150000</v>
       </c>
       <c r="P286" t="n">
-        <v>397500</v>
+        <v>147500</v>
       </c>
       <c r="Q286" t="inlineStr">
         <is>
@@ -23266,7 +23266,7 @@
         </is>
       </c>
       <c r="S286" t="n">
-        <v>994</v>
+        <v>369</v>
       </c>
       <c r="T286" t="n">
         <v>400</v>
@@ -23287,7 +23287,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E287" t="n">
         <v>4</v>
@@ -23315,7 +23315,7 @@
       </c>
       <c r="K287" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L287" t="inlineStr">
@@ -23327,13 +23327,13 @@
         <v>20</v>
       </c>
       <c r="N287" t="n">
-        <v>345000</v>
+        <v>115000</v>
       </c>
       <c r="O287" t="n">
-        <v>350000</v>
+        <v>120000</v>
       </c>
       <c r="P287" t="n">
-        <v>347500</v>
+        <v>117500</v>
       </c>
       <c r="Q287" t="inlineStr">
         <is>
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="S287" t="n">
-        <v>869</v>
+        <v>294</v>
       </c>
       <c r="T287" t="n">
         <v>400</v>
@@ -23367,7 +23367,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44244</v>
+        <v>44357</v>
       </c>
       <c r="E288" t="n">
         <v>4</v>
@@ -23395,7 +23395,7 @@
       </c>
       <c r="K288" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L288" t="inlineStr">
@@ -23407,13 +23407,13 @@
         <v>20</v>
       </c>
       <c r="N288" t="n">
-        <v>455000</v>
+        <v>145000</v>
       </c>
       <c r="O288" t="n">
-        <v>460000</v>
+        <v>150000</v>
       </c>
       <c r="P288" t="n">
-        <v>457500</v>
+        <v>147500</v>
       </c>
       <c r="Q288" t="inlineStr">
         <is>
@@ -23426,7 +23426,7 @@
         </is>
       </c>
       <c r="S288" t="n">
-        <v>1144</v>
+        <v>369</v>
       </c>
       <c r="T288" t="n">
         <v>400</v>
@@ -23447,68 +23447,388 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
+        <v>44357</v>
+      </c>
+      <c r="E289" t="n">
+        <v>4</v>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G289" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I289" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J289" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>New Hall</t>
+        </is>
+      </c>
+      <c r="L289" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M289" t="n">
+        <v>20</v>
+      </c>
+      <c r="N289" t="n">
+        <v>115000</v>
+      </c>
+      <c r="O289" t="n">
+        <v>120000</v>
+      </c>
+      <c r="P289" t="n">
+        <v>117500</v>
+      </c>
+      <c r="Q289" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R289" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S289" t="n">
+        <v>294</v>
+      </c>
+      <c r="T289" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>2</v>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D290" s="2" t="n">
+        <v>44203</v>
+      </c>
+      <c r="E290" t="n">
+        <v>4</v>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G290" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I290" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J290" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="L290" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M290" t="n">
+        <v>20</v>
+      </c>
+      <c r="N290" t="n">
+        <v>395000</v>
+      </c>
+      <c r="O290" t="n">
+        <v>400000</v>
+      </c>
+      <c r="P290" t="n">
+        <v>397500</v>
+      </c>
+      <c r="Q290" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R290" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S290" t="n">
+        <v>994</v>
+      </c>
+      <c r="T290" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>2</v>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D291" s="2" t="n">
+        <v>44203</v>
+      </c>
+      <c r="E291" t="n">
+        <v>4</v>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G291" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I291" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J291" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="L291" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M291" t="n">
+        <v>20</v>
+      </c>
+      <c r="N291" t="n">
+        <v>345000</v>
+      </c>
+      <c r="O291" t="n">
+        <v>350000</v>
+      </c>
+      <c r="P291" t="n">
+        <v>347500</v>
+      </c>
+      <c r="Q291" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R291" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S291" t="n">
+        <v>869</v>
+      </c>
+      <c r="T291" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>2</v>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D292" s="2" t="n">
         <v>44244</v>
       </c>
-      <c r="E289" t="n">
-        <v>4</v>
-      </c>
-      <c r="F289" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G289" t="n">
-        <v>100102</v>
-      </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>Cítricos</t>
-        </is>
-      </c>
-      <c r="I289" t="n">
-        <v>100102005</v>
-      </c>
-      <c r="J289" t="inlineStr">
-        <is>
-          <t>Naranja</t>
-        </is>
-      </c>
-      <c r="K289" t="inlineStr">
+      <c r="E292" t="n">
+        <v>4</v>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G292" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I292" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J292" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K292" t="inlineStr">
         <is>
           <t>Valencia</t>
         </is>
       </c>
-      <c r="L289" t="inlineStr">
+      <c r="L292" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M292" t="n">
+        <v>20</v>
+      </c>
+      <c r="N292" t="n">
+        <v>455000</v>
+      </c>
+      <c r="O292" t="n">
+        <v>460000</v>
+      </c>
+      <c r="P292" t="n">
+        <v>457500</v>
+      </c>
+      <c r="Q292" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R292" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S292" t="n">
+        <v>1144</v>
+      </c>
+      <c r="T292" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>2</v>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D293" s="2" t="n">
+        <v>44244</v>
+      </c>
+      <c r="E293" t="n">
+        <v>4</v>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G293" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I293" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J293" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="L293" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M289" t="n">
-        <v>20</v>
-      </c>
-      <c r="N289" t="n">
+      <c r="M293" t="n">
+        <v>20</v>
+      </c>
+      <c r="N293" t="n">
         <v>415000</v>
       </c>
-      <c r="O289" t="n">
+      <c r="O293" t="n">
         <v>420000</v>
       </c>
-      <c r="P289" t="n">
+      <c r="P293" t="n">
         <v>417500</v>
       </c>
-      <c r="Q289" t="inlineStr">
-        <is>
-          <t>$/bins (400 kilos)</t>
-        </is>
-      </c>
-      <c r="R289" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="S289" t="n">
+      <c r="Q293" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R293" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S293" t="n">
         <v>1044</v>
       </c>
-      <c r="T289" t="n">
+      <c r="T293" t="n">
         <v>400</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Comercializadora del Agro de Limarí - Naranja.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Comercializadora del Agro de Limarí - Naranja.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T293"/>
+  <dimension ref="A1:T297"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23207,7 +23207,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E286" t="n">
         <v>4</v>
@@ -23235,7 +23235,7 @@
       </c>
       <c r="K286" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Cara cara</t>
         </is>
       </c>
       <c r="L286" t="inlineStr">
@@ -23247,13 +23247,13 @@
         <v>20</v>
       </c>
       <c r="N286" t="n">
-        <v>145000</v>
+        <v>110000</v>
       </c>
       <c r="O286" t="n">
-        <v>150000</v>
+        <v>120000</v>
       </c>
       <c r="P286" t="n">
-        <v>147500</v>
+        <v>115000</v>
       </c>
       <c r="Q286" t="inlineStr">
         <is>
@@ -23266,7 +23266,7 @@
         </is>
       </c>
       <c r="S286" t="n">
-        <v>369</v>
+        <v>288</v>
       </c>
       <c r="T286" t="n">
         <v>400</v>
@@ -23287,7 +23287,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E287" t="n">
         <v>4</v>
@@ -23315,7 +23315,7 @@
       </c>
       <c r="K287" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Cara cara</t>
         </is>
       </c>
       <c r="L287" t="inlineStr">
@@ -23327,13 +23327,13 @@
         <v>20</v>
       </c>
       <c r="N287" t="n">
-        <v>115000</v>
+        <v>90000</v>
       </c>
       <c r="O287" t="n">
-        <v>120000</v>
+        <v>100000</v>
       </c>
       <c r="P287" t="n">
-        <v>117500</v>
+        <v>95000</v>
       </c>
       <c r="Q287" t="inlineStr">
         <is>
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="S287" t="n">
-        <v>294</v>
+        <v>238</v>
       </c>
       <c r="T287" t="n">
         <v>400</v>
@@ -23367,7 +23367,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E288" t="n">
         <v>4</v>
@@ -23395,7 +23395,7 @@
       </c>
       <c r="K288" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L288" t="inlineStr">
@@ -23407,13 +23407,13 @@
         <v>20</v>
       </c>
       <c r="N288" t="n">
-        <v>145000</v>
+        <v>100000</v>
       </c>
       <c r="O288" t="n">
-        <v>150000</v>
+        <v>110000</v>
       </c>
       <c r="P288" t="n">
-        <v>147500</v>
+        <v>105000</v>
       </c>
       <c r="Q288" t="inlineStr">
         <is>
@@ -23426,7 +23426,7 @@
         </is>
       </c>
       <c r="S288" t="n">
-        <v>369</v>
+        <v>262</v>
       </c>
       <c r="T288" t="n">
         <v>400</v>
@@ -23447,7 +23447,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E289" t="n">
         <v>4</v>
@@ -23475,7 +23475,7 @@
       </c>
       <c r="K289" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L289" t="inlineStr">
@@ -23487,13 +23487,13 @@
         <v>20</v>
       </c>
       <c r="N289" t="n">
-        <v>115000</v>
+        <v>80000</v>
       </c>
       <c r="O289" t="n">
-        <v>120000</v>
+        <v>90000</v>
       </c>
       <c r="P289" t="n">
-        <v>117500</v>
+        <v>85000</v>
       </c>
       <c r="Q289" t="inlineStr">
         <is>
@@ -23506,7 +23506,7 @@
         </is>
       </c>
       <c r="S289" t="n">
-        <v>294</v>
+        <v>212</v>
       </c>
       <c r="T289" t="n">
         <v>400</v>
@@ -23527,7 +23527,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E290" t="n">
         <v>4</v>
@@ -23555,7 +23555,7 @@
       </c>
       <c r="K290" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L290" t="inlineStr">
@@ -23567,13 +23567,13 @@
         <v>20</v>
       </c>
       <c r="N290" t="n">
-        <v>395000</v>
+        <v>145000</v>
       </c>
       <c r="O290" t="n">
-        <v>400000</v>
+        <v>150000</v>
       </c>
       <c r="P290" t="n">
-        <v>397500</v>
+        <v>147500</v>
       </c>
       <c r="Q290" t="inlineStr">
         <is>
@@ -23586,7 +23586,7 @@
         </is>
       </c>
       <c r="S290" t="n">
-        <v>994</v>
+        <v>369</v>
       </c>
       <c r="T290" t="n">
         <v>400</v>
@@ -23607,7 +23607,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E291" t="n">
         <v>4</v>
@@ -23635,7 +23635,7 @@
       </c>
       <c r="K291" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L291" t="inlineStr">
@@ -23647,13 +23647,13 @@
         <v>20</v>
       </c>
       <c r="N291" t="n">
-        <v>345000</v>
+        <v>115000</v>
       </c>
       <c r="O291" t="n">
-        <v>350000</v>
+        <v>120000</v>
       </c>
       <c r="P291" t="n">
-        <v>347500</v>
+        <v>117500</v>
       </c>
       <c r="Q291" t="inlineStr">
         <is>
@@ -23666,7 +23666,7 @@
         </is>
       </c>
       <c r="S291" t="n">
-        <v>869</v>
+        <v>294</v>
       </c>
       <c r="T291" t="n">
         <v>400</v>
@@ -23687,7 +23687,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44244</v>
+        <v>44357</v>
       </c>
       <c r="E292" t="n">
         <v>4</v>
@@ -23715,7 +23715,7 @@
       </c>
       <c r="K292" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L292" t="inlineStr">
@@ -23727,13 +23727,13 @@
         <v>20</v>
       </c>
       <c r="N292" t="n">
-        <v>455000</v>
+        <v>145000</v>
       </c>
       <c r="O292" t="n">
-        <v>460000</v>
+        <v>150000</v>
       </c>
       <c r="P292" t="n">
-        <v>457500</v>
+        <v>147500</v>
       </c>
       <c r="Q292" t="inlineStr">
         <is>
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="S292" t="n">
-        <v>1144</v>
+        <v>369</v>
       </c>
       <c r="T292" t="n">
         <v>400</v>
@@ -23767,68 +23767,388 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
+        <v>44357</v>
+      </c>
+      <c r="E293" t="n">
+        <v>4</v>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G293" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I293" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J293" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>New Hall</t>
+        </is>
+      </c>
+      <c r="L293" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M293" t="n">
+        <v>20</v>
+      </c>
+      <c r="N293" t="n">
+        <v>115000</v>
+      </c>
+      <c r="O293" t="n">
+        <v>120000</v>
+      </c>
+      <c r="P293" t="n">
+        <v>117500</v>
+      </c>
+      <c r="Q293" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R293" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S293" t="n">
+        <v>294</v>
+      </c>
+      <c r="T293" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>2</v>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D294" s="2" t="n">
+        <v>44203</v>
+      </c>
+      <c r="E294" t="n">
+        <v>4</v>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G294" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I294" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J294" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="L294" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M294" t="n">
+        <v>20</v>
+      </c>
+      <c r="N294" t="n">
+        <v>395000</v>
+      </c>
+      <c r="O294" t="n">
+        <v>400000</v>
+      </c>
+      <c r="P294" t="n">
+        <v>397500</v>
+      </c>
+      <c r="Q294" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R294" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S294" t="n">
+        <v>994</v>
+      </c>
+      <c r="T294" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>2</v>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D295" s="2" t="n">
+        <v>44203</v>
+      </c>
+      <c r="E295" t="n">
+        <v>4</v>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G295" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H295" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I295" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J295" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="L295" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M295" t="n">
+        <v>20</v>
+      </c>
+      <c r="N295" t="n">
+        <v>345000</v>
+      </c>
+      <c r="O295" t="n">
+        <v>350000</v>
+      </c>
+      <c r="P295" t="n">
+        <v>347500</v>
+      </c>
+      <c r="Q295" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R295" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S295" t="n">
+        <v>869</v>
+      </c>
+      <c r="T295" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>2</v>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D296" s="2" t="n">
         <v>44244</v>
       </c>
-      <c r="E293" t="n">
-        <v>4</v>
-      </c>
-      <c r="F293" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G293" t="n">
-        <v>100102</v>
-      </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>Cítricos</t>
-        </is>
-      </c>
-      <c r="I293" t="n">
-        <v>100102005</v>
-      </c>
-      <c r="J293" t="inlineStr">
-        <is>
-          <t>Naranja</t>
-        </is>
-      </c>
-      <c r="K293" t="inlineStr">
+      <c r="E296" t="n">
+        <v>4</v>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G296" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H296" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I296" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J296" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K296" t="inlineStr">
         <is>
           <t>Valencia</t>
         </is>
       </c>
-      <c r="L293" t="inlineStr">
+      <c r="L296" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M296" t="n">
+        <v>20</v>
+      </c>
+      <c r="N296" t="n">
+        <v>455000</v>
+      </c>
+      <c r="O296" t="n">
+        <v>460000</v>
+      </c>
+      <c r="P296" t="n">
+        <v>457500</v>
+      </c>
+      <c r="Q296" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R296" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S296" t="n">
+        <v>1144</v>
+      </c>
+      <c r="T296" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>2</v>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D297" s="2" t="n">
+        <v>44244</v>
+      </c>
+      <c r="E297" t="n">
+        <v>4</v>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G297" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H297" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I297" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J297" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="L297" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M293" t="n">
-        <v>20</v>
-      </c>
-      <c r="N293" t="n">
+      <c r="M297" t="n">
+        <v>20</v>
+      </c>
+      <c r="N297" t="n">
         <v>415000</v>
       </c>
-      <c r="O293" t="n">
+      <c r="O297" t="n">
         <v>420000</v>
       </c>
-      <c r="P293" t="n">
+      <c r="P297" t="n">
         <v>417500</v>
       </c>
-      <c r="Q293" t="inlineStr">
-        <is>
-          <t>$/bins (400 kilos)</t>
-        </is>
-      </c>
-      <c r="R293" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="S293" t="n">
+      <c r="Q297" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R297" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S297" t="n">
         <v>1044</v>
       </c>
-      <c r="T293" t="n">
+      <c r="T297" t="n">
         <v>400</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Comercializadora del Agro de Limarí - Naranja.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Comercializadora del Agro de Limarí - Naranja.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T301"/>
+  <dimension ref="A1:T305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19047,7 +19047,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44308</v>
+        <v>44468</v>
       </c>
       <c r="E234" t="n">
         <v>4</v>
@@ -19075,7 +19075,7 @@
       </c>
       <c r="K234" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L234" t="inlineStr">
@@ -19087,13 +19087,13 @@
         <v>20</v>
       </c>
       <c r="N234" t="n">
-        <v>385000</v>
+        <v>120000</v>
       </c>
       <c r="O234" t="n">
-        <v>390000</v>
+        <v>130000</v>
       </c>
       <c r="P234" t="n">
-        <v>387500</v>
+        <v>125000</v>
       </c>
       <c r="Q234" t="inlineStr">
         <is>
@@ -19106,7 +19106,7 @@
         </is>
       </c>
       <c r="S234" t="n">
-        <v>969</v>
+        <v>312</v>
       </c>
       <c r="T234" t="n">
         <v>400</v>
@@ -19127,7 +19127,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44308</v>
+        <v>44468</v>
       </c>
       <c r="E235" t="n">
         <v>4</v>
@@ -19155,7 +19155,7 @@
       </c>
       <c r="K235" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L235" t="inlineStr">
@@ -19167,13 +19167,13 @@
         <v>20</v>
       </c>
       <c r="N235" t="n">
-        <v>345000</v>
+        <v>100000</v>
       </c>
       <c r="O235" t="n">
-        <v>350000</v>
+        <v>110000</v>
       </c>
       <c r="P235" t="n">
-        <v>347500</v>
+        <v>105000</v>
       </c>
       <c r="Q235" t="inlineStr">
         <is>
@@ -19186,7 +19186,7 @@
         </is>
       </c>
       <c r="S235" t="n">
-        <v>869</v>
+        <v>262</v>
       </c>
       <c r="T235" t="n">
         <v>400</v>
@@ -19207,7 +19207,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44308</v>
+        <v>44468</v>
       </c>
       <c r="E236" t="n">
         <v>4</v>
@@ -19235,7 +19235,7 @@
       </c>
       <c r="K236" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L236" t="inlineStr">
@@ -19244,16 +19244,16 @@
         </is>
       </c>
       <c r="M236" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N236" t="n">
-        <v>385000</v>
+        <v>120000</v>
       </c>
       <c r="O236" t="n">
-        <v>390000</v>
+        <v>130000</v>
       </c>
       <c r="P236" t="n">
-        <v>387500</v>
+        <v>126429</v>
       </c>
       <c r="Q236" t="inlineStr">
         <is>
@@ -19266,7 +19266,7 @@
         </is>
       </c>
       <c r="S236" t="n">
-        <v>969</v>
+        <v>316</v>
       </c>
       <c r="T236" t="n">
         <v>400</v>
@@ -19287,7 +19287,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44308</v>
+        <v>44468</v>
       </c>
       <c r="E237" t="n">
         <v>4</v>
@@ -19315,7 +19315,7 @@
       </c>
       <c r="K237" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L237" t="inlineStr">
@@ -19327,13 +19327,13 @@
         <v>20</v>
       </c>
       <c r="N237" t="n">
-        <v>345000</v>
+        <v>100000</v>
       </c>
       <c r="O237" t="n">
-        <v>350000</v>
+        <v>110000</v>
       </c>
       <c r="P237" t="n">
-        <v>347500</v>
+        <v>105000</v>
       </c>
       <c r="Q237" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="S237" t="n">
-        <v>869</v>
+        <v>262</v>
       </c>
       <c r="T237" t="n">
         <v>400</v>
@@ -19395,7 +19395,7 @@
       </c>
       <c r="K238" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L238" t="inlineStr">
@@ -19407,13 +19407,13 @@
         <v>20</v>
       </c>
       <c r="N238" t="n">
-        <v>495000</v>
+        <v>385000</v>
       </c>
       <c r="O238" t="n">
-        <v>500000</v>
+        <v>390000</v>
       </c>
       <c r="P238" t="n">
-        <v>497500</v>
+        <v>387500</v>
       </c>
       <c r="Q238" t="inlineStr">
         <is>
@@ -19426,7 +19426,7 @@
         </is>
       </c>
       <c r="S238" t="n">
-        <v>1244</v>
+        <v>969</v>
       </c>
       <c r="T238" t="n">
         <v>400</v>
@@ -19447,7 +19447,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44301</v>
+        <v>44308</v>
       </c>
       <c r="E239" t="n">
         <v>4</v>
@@ -19475,25 +19475,25 @@
       </c>
       <c r="K239" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L239" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M239" t="n">
         <v>20</v>
       </c>
       <c r="N239" t="n">
-        <v>495000</v>
+        <v>345000</v>
       </c>
       <c r="O239" t="n">
-        <v>500000</v>
+        <v>350000</v>
       </c>
       <c r="P239" t="n">
-        <v>497500</v>
+        <v>347500</v>
       </c>
       <c r="Q239" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         </is>
       </c>
       <c r="S239" t="n">
-        <v>1244</v>
+        <v>869</v>
       </c>
       <c r="T239" t="n">
         <v>400</v>
@@ -19527,7 +19527,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44301</v>
+        <v>44308</v>
       </c>
       <c r="E240" t="n">
         <v>4</v>
@@ -19555,7 +19555,7 @@
       </c>
       <c r="K240" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L240" t="inlineStr">
@@ -19567,13 +19567,13 @@
         <v>20</v>
       </c>
       <c r="N240" t="n">
-        <v>475000</v>
+        <v>385000</v>
       </c>
       <c r="O240" t="n">
-        <v>480000</v>
+        <v>390000</v>
       </c>
       <c r="P240" t="n">
-        <v>477500</v>
+        <v>387500</v>
       </c>
       <c r="Q240" t="inlineStr">
         <is>
@@ -19586,7 +19586,7 @@
         </is>
       </c>
       <c r="S240" t="n">
-        <v>1194</v>
+        <v>969</v>
       </c>
       <c r="T240" t="n">
         <v>400</v>
@@ -19607,7 +19607,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44251</v>
+        <v>44308</v>
       </c>
       <c r="E241" t="n">
         <v>4</v>
@@ -19635,25 +19635,25 @@
       </c>
       <c r="K241" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L241" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M241" t="n">
         <v>20</v>
       </c>
       <c r="N241" t="n">
-        <v>455000</v>
+        <v>345000</v>
       </c>
       <c r="O241" t="n">
-        <v>460000</v>
+        <v>350000</v>
       </c>
       <c r="P241" t="n">
-        <v>457500</v>
+        <v>347500</v>
       </c>
       <c r="Q241" t="inlineStr">
         <is>
@@ -19666,7 +19666,7 @@
         </is>
       </c>
       <c r="S241" t="n">
-        <v>1144</v>
+        <v>869</v>
       </c>
       <c r="T241" t="n">
         <v>400</v>
@@ -19687,7 +19687,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44251</v>
+        <v>44308</v>
       </c>
       <c r="E242" t="n">
         <v>4</v>
@@ -19720,20 +19720,20 @@
       </c>
       <c r="L242" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M242" t="n">
         <v>20</v>
       </c>
       <c r="N242" t="n">
-        <v>415000</v>
+        <v>495000</v>
       </c>
       <c r="O242" t="n">
-        <v>420000</v>
+        <v>500000</v>
       </c>
       <c r="P242" t="n">
-        <v>417500</v>
+        <v>497500</v>
       </c>
       <c r="Q242" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="S242" t="n">
-        <v>1044</v>
+        <v>1244</v>
       </c>
       <c r="T242" t="n">
         <v>400</v>
@@ -19767,7 +19767,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44252</v>
+        <v>44301</v>
       </c>
       <c r="E243" t="n">
         <v>4</v>
@@ -19800,20 +19800,20 @@
       </c>
       <c r="L243" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M243" t="n">
         <v>20</v>
       </c>
       <c r="N243" t="n">
-        <v>455000</v>
+        <v>495000</v>
       </c>
       <c r="O243" t="n">
-        <v>460000</v>
+        <v>500000</v>
       </c>
       <c r="P243" t="n">
-        <v>457500</v>
+        <v>497500</v>
       </c>
       <c r="Q243" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         </is>
       </c>
       <c r="S243" t="n">
-        <v>1144</v>
+        <v>1244</v>
       </c>
       <c r="T243" t="n">
         <v>400</v>
@@ -19847,7 +19847,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44252</v>
+        <v>44301</v>
       </c>
       <c r="E244" t="n">
         <v>4</v>
@@ -19880,20 +19880,20 @@
       </c>
       <c r="L244" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M244" t="n">
         <v>20</v>
       </c>
       <c r="N244" t="n">
-        <v>41500</v>
+        <v>475000</v>
       </c>
       <c r="O244" t="n">
-        <v>420000</v>
+        <v>480000</v>
       </c>
       <c r="P244" t="n">
-        <v>230750</v>
+        <v>477500</v>
       </c>
       <c r="Q244" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         </is>
       </c>
       <c r="S244" t="n">
-        <v>577</v>
+        <v>1194</v>
       </c>
       <c r="T244" t="n">
         <v>400</v>
@@ -19927,7 +19927,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44168</v>
+        <v>44251</v>
       </c>
       <c r="E245" t="n">
         <v>4</v>
@@ -19955,7 +19955,7 @@
       </c>
       <c r="K245" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L245" t="inlineStr">
@@ -19967,13 +19967,13 @@
         <v>20</v>
       </c>
       <c r="N245" t="n">
-        <v>325000</v>
+        <v>455000</v>
       </c>
       <c r="O245" t="n">
-        <v>330000</v>
+        <v>460000</v>
       </c>
       <c r="P245" t="n">
-        <v>327500</v>
+        <v>457500</v>
       </c>
       <c r="Q245" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         </is>
       </c>
       <c r="S245" t="n">
-        <v>819</v>
+        <v>1144</v>
       </c>
       <c r="T245" t="n">
         <v>400</v>
@@ -20007,7 +20007,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44168</v>
+        <v>44251</v>
       </c>
       <c r="E246" t="n">
         <v>4</v>
@@ -20035,7 +20035,7 @@
       </c>
       <c r="K246" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L246" t="inlineStr">
@@ -20047,13 +20047,13 @@
         <v>20</v>
       </c>
       <c r="N246" t="n">
-        <v>285000</v>
+        <v>415000</v>
       </c>
       <c r="O246" t="n">
-        <v>290000</v>
+        <v>420000</v>
       </c>
       <c r="P246" t="n">
-        <v>287500</v>
+        <v>417500</v>
       </c>
       <c r="Q246" t="inlineStr">
         <is>
@@ -20066,7 +20066,7 @@
         </is>
       </c>
       <c r="S246" t="n">
-        <v>719</v>
+        <v>1044</v>
       </c>
       <c r="T246" t="n">
         <v>400</v>
@@ -20087,7 +20087,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44168</v>
+        <v>44252</v>
       </c>
       <c r="E247" t="n">
         <v>4</v>
@@ -20120,20 +20120,20 @@
       </c>
       <c r="L247" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M247" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N247" t="n">
-        <v>355000</v>
+        <v>455000</v>
       </c>
       <c r="O247" t="n">
-        <v>360000</v>
+        <v>460000</v>
       </c>
       <c r="P247" t="n">
-        <v>357500</v>
+        <v>457500</v>
       </c>
       <c r="Q247" t="inlineStr">
         <is>
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="S247" t="n">
-        <v>894</v>
+        <v>1144</v>
       </c>
       <c r="T247" t="n">
         <v>400</v>
@@ -20167,7 +20167,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44168</v>
+        <v>44252</v>
       </c>
       <c r="E248" t="n">
         <v>4</v>
@@ -20200,20 +20200,20 @@
       </c>
       <c r="L248" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M248" t="n">
         <v>20</v>
       </c>
       <c r="N248" t="n">
-        <v>335000</v>
+        <v>41500</v>
       </c>
       <c r="O248" t="n">
-        <v>340000</v>
+        <v>420000</v>
       </c>
       <c r="P248" t="n">
-        <v>337500</v>
+        <v>230750</v>
       </c>
       <c r="Q248" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         </is>
       </c>
       <c r="S248" t="n">
-        <v>844</v>
+        <v>577</v>
       </c>
       <c r="T248" t="n">
         <v>400</v>
@@ -20275,25 +20275,25 @@
       </c>
       <c r="K249" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L249" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M249" t="n">
         <v>20</v>
       </c>
       <c r="N249" t="n">
-        <v>295000</v>
+        <v>325000</v>
       </c>
       <c r="O249" t="n">
-        <v>300000</v>
+        <v>330000</v>
       </c>
       <c r="P249" t="n">
-        <v>297500</v>
+        <v>327500</v>
       </c>
       <c r="Q249" t="inlineStr">
         <is>
@@ -20306,7 +20306,7 @@
         </is>
       </c>
       <c r="S249" t="n">
-        <v>744</v>
+        <v>819</v>
       </c>
       <c r="T249" t="n">
         <v>400</v>
@@ -20327,7 +20327,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44433</v>
+        <v>44168</v>
       </c>
       <c r="E250" t="n">
         <v>4</v>
@@ -20355,25 +20355,25 @@
       </c>
       <c r="K250" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L250" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M250" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N250" t="n">
-        <v>125000</v>
+        <v>285000</v>
       </c>
       <c r="O250" t="n">
-        <v>130000</v>
+        <v>290000</v>
       </c>
       <c r="P250" t="n">
-        <v>127500</v>
+        <v>287500</v>
       </c>
       <c r="Q250" t="inlineStr">
         <is>
@@ -20386,7 +20386,7 @@
         </is>
       </c>
       <c r="S250" t="n">
-        <v>319</v>
+        <v>719</v>
       </c>
       <c r="T250" t="n">
         <v>400</v>
@@ -20407,7 +20407,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44433</v>
+        <v>44168</v>
       </c>
       <c r="E251" t="n">
         <v>4</v>
@@ -20435,25 +20435,25 @@
       </c>
       <c r="K251" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L251" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M251" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N251" t="n">
-        <v>105000</v>
+        <v>355000</v>
       </c>
       <c r="O251" t="n">
-        <v>110000</v>
+        <v>360000</v>
       </c>
       <c r="P251" t="n">
-        <v>107500</v>
+        <v>357500</v>
       </c>
       <c r="Q251" t="inlineStr">
         <is>
@@ -20466,7 +20466,7 @@
         </is>
       </c>
       <c r="S251" t="n">
-        <v>269</v>
+        <v>894</v>
       </c>
       <c r="T251" t="n">
         <v>400</v>
@@ -20487,7 +20487,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44433</v>
+        <v>44168</v>
       </c>
       <c r="E252" t="n">
         <v>4</v>
@@ -20515,25 +20515,25 @@
       </c>
       <c r="K252" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L252" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M252" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="N252" t="n">
-        <v>85000</v>
+        <v>335000</v>
       </c>
       <c r="O252" t="n">
-        <v>90000</v>
+        <v>340000</v>
       </c>
       <c r="P252" t="n">
-        <v>88214</v>
+        <v>337500</v>
       </c>
       <c r="Q252" t="inlineStr">
         <is>
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="S252" t="n">
-        <v>221</v>
+        <v>844</v>
       </c>
       <c r="T252" t="n">
         <v>400</v>
@@ -20567,7 +20567,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44433</v>
+        <v>44168</v>
       </c>
       <c r="E253" t="n">
         <v>4</v>
@@ -20595,25 +20595,25 @@
       </c>
       <c r="K253" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L253" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M253" t="n">
         <v>20</v>
       </c>
       <c r="N253" t="n">
-        <v>95000</v>
+        <v>295000</v>
       </c>
       <c r="O253" t="n">
-        <v>100000</v>
+        <v>300000</v>
       </c>
       <c r="P253" t="n">
-        <v>97500</v>
+        <v>297500</v>
       </c>
       <c r="Q253" t="inlineStr">
         <is>
@@ -20626,7 +20626,7 @@
         </is>
       </c>
       <c r="S253" t="n">
-        <v>244</v>
+        <v>744</v>
       </c>
       <c r="T253" t="n">
         <v>400</v>
@@ -20675,25 +20675,25 @@
       </c>
       <c r="K254" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L254" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M254" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N254" t="n">
-        <v>75000</v>
+        <v>125000</v>
       </c>
       <c r="O254" t="n">
-        <v>80000</v>
+        <v>130000</v>
       </c>
       <c r="P254" t="n">
-        <v>77500</v>
+        <v>127500</v>
       </c>
       <c r="Q254" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         </is>
       </c>
       <c r="S254" t="n">
-        <v>194</v>
+        <v>319</v>
       </c>
       <c r="T254" t="n">
         <v>400</v>
@@ -20755,7 +20755,7 @@
       </c>
       <c r="K255" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L255" t="inlineStr">
@@ -20767,13 +20767,13 @@
         <v>20</v>
       </c>
       <c r="N255" t="n">
-        <v>95000</v>
+        <v>105000</v>
       </c>
       <c r="O255" t="n">
-        <v>100000</v>
+        <v>110000</v>
       </c>
       <c r="P255" t="n">
-        <v>97500</v>
+        <v>107500</v>
       </c>
       <c r="Q255" t="inlineStr">
         <is>
@@ -20786,7 +20786,7 @@
         </is>
       </c>
       <c r="S255" t="n">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="T255" t="n">
         <v>400</v>
@@ -20835,7 +20835,7 @@
       </c>
       <c r="K256" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L256" t="inlineStr">
@@ -20844,16 +20844,16 @@
         </is>
       </c>
       <c r="M256" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N256" t="n">
-        <v>75000</v>
+        <v>85000</v>
       </c>
       <c r="O256" t="n">
-        <v>80000</v>
+        <v>90000</v>
       </c>
       <c r="P256" t="n">
-        <v>77500</v>
+        <v>88214</v>
       </c>
       <c r="Q256" t="inlineStr">
         <is>
@@ -20866,7 +20866,7 @@
         </is>
       </c>
       <c r="S256" t="n">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="T256" t="n">
         <v>400</v>
@@ -20887,7 +20887,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E257" t="n">
         <v>4</v>
@@ -20915,7 +20915,7 @@
       </c>
       <c r="K257" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L257" t="inlineStr">
@@ -20927,13 +20927,13 @@
         <v>20</v>
       </c>
       <c r="N257" t="n">
-        <v>125000</v>
+        <v>95000</v>
       </c>
       <c r="O257" t="n">
-        <v>130000</v>
+        <v>100000</v>
       </c>
       <c r="P257" t="n">
-        <v>127500</v>
+        <v>97500</v>
       </c>
       <c r="Q257" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="S257" t="n">
-        <v>319</v>
+        <v>244</v>
       </c>
       <c r="T257" t="n">
         <v>400</v>
@@ -20967,7 +20967,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E258" t="n">
         <v>4</v>
@@ -20995,7 +20995,7 @@
       </c>
       <c r="K258" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L258" t="inlineStr">
@@ -21007,13 +21007,13 @@
         <v>20</v>
       </c>
       <c r="N258" t="n">
-        <v>105000</v>
+        <v>75000</v>
       </c>
       <c r="O258" t="n">
-        <v>110000</v>
+        <v>80000</v>
       </c>
       <c r="P258" t="n">
-        <v>107500</v>
+        <v>77500</v>
       </c>
       <c r="Q258" t="inlineStr">
         <is>
@@ -21026,7 +21026,7 @@
         </is>
       </c>
       <c r="S258" t="n">
-        <v>269</v>
+        <v>194</v>
       </c>
       <c r="T258" t="n">
         <v>400</v>
@@ -21047,7 +21047,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E259" t="n">
         <v>4</v>
@@ -21080,20 +21080,20 @@
       </c>
       <c r="L259" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M259" t="n">
         <v>20</v>
       </c>
       <c r="N259" t="n">
-        <v>155000</v>
+        <v>95000</v>
       </c>
       <c r="O259" t="n">
-        <v>160000</v>
+        <v>100000</v>
       </c>
       <c r="P259" t="n">
-        <v>157500</v>
+        <v>97500</v>
       </c>
       <c r="Q259" t="inlineStr">
         <is>
@@ -21106,7 +21106,7 @@
         </is>
       </c>
       <c r="S259" t="n">
-        <v>394</v>
+        <v>244</v>
       </c>
       <c r="T259" t="n">
         <v>400</v>
@@ -21127,7 +21127,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E260" t="n">
         <v>4</v>
@@ -21160,20 +21160,20 @@
       </c>
       <c r="L260" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M260" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N260" t="n">
-        <v>135000</v>
+        <v>75000</v>
       </c>
       <c r="O260" t="n">
-        <v>140000</v>
+        <v>80000</v>
       </c>
       <c r="P260" t="n">
-        <v>137500</v>
+        <v>77500</v>
       </c>
       <c r="Q260" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         </is>
       </c>
       <c r="S260" t="n">
-        <v>344</v>
+        <v>194</v>
       </c>
       <c r="T260" t="n">
         <v>400</v>
@@ -21235,25 +21235,25 @@
       </c>
       <c r="K261" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L261" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M261" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N261" t="n">
-        <v>115000</v>
+        <v>125000</v>
       </c>
       <c r="O261" t="n">
-        <v>120000</v>
+        <v>130000</v>
       </c>
       <c r="P261" t="n">
-        <v>117500</v>
+        <v>127500</v>
       </c>
       <c r="Q261" t="inlineStr">
         <is>
@@ -21266,7 +21266,7 @@
         </is>
       </c>
       <c r="S261" t="n">
-        <v>294</v>
+        <v>319</v>
       </c>
       <c r="T261" t="n">
         <v>400</v>
@@ -21315,25 +21315,25 @@
       </c>
       <c r="K262" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L262" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M262" t="n">
         <v>20</v>
       </c>
       <c r="N262" t="n">
-        <v>135000</v>
+        <v>105000</v>
       </c>
       <c r="O262" t="n">
-        <v>140000</v>
+        <v>110000</v>
       </c>
       <c r="P262" t="n">
-        <v>137500</v>
+        <v>107500</v>
       </c>
       <c r="Q262" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="S262" t="n">
-        <v>344</v>
+        <v>269</v>
       </c>
       <c r="T262" t="n">
         <v>400</v>
@@ -21395,25 +21395,25 @@
       </c>
       <c r="K263" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L263" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M263" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N263" t="n">
-        <v>115000</v>
+        <v>155000</v>
       </c>
       <c r="O263" t="n">
-        <v>120000</v>
+        <v>160000</v>
       </c>
       <c r="P263" t="n">
-        <v>117500</v>
+        <v>157500</v>
       </c>
       <c r="Q263" t="inlineStr">
         <is>
@@ -21426,7 +21426,7 @@
         </is>
       </c>
       <c r="S263" t="n">
-        <v>294</v>
+        <v>394</v>
       </c>
       <c r="T263" t="n">
         <v>400</v>
@@ -21447,7 +21447,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44279</v>
+        <v>44371</v>
       </c>
       <c r="E264" t="n">
         <v>4</v>
@@ -21475,25 +21475,25 @@
       </c>
       <c r="K264" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L264" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M264" t="n">
         <v>16</v>
       </c>
       <c r="N264" t="n">
-        <v>475000</v>
+        <v>135000</v>
       </c>
       <c r="O264" t="n">
-        <v>480000</v>
+        <v>140000</v>
       </c>
       <c r="P264" t="n">
-        <v>477500</v>
+        <v>137500</v>
       </c>
       <c r="Q264" t="inlineStr">
         <is>
@@ -21506,7 +21506,7 @@
         </is>
       </c>
       <c r="S264" t="n">
-        <v>1194</v>
+        <v>344</v>
       </c>
       <c r="T264" t="n">
         <v>400</v>
@@ -21527,7 +21527,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44279</v>
+        <v>44371</v>
       </c>
       <c r="E265" t="n">
         <v>4</v>
@@ -21555,25 +21555,25 @@
       </c>
       <c r="K265" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L265" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M265" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N265" t="n">
-        <v>455000</v>
+        <v>115000</v>
       </c>
       <c r="O265" t="n">
-        <v>460000</v>
+        <v>120000</v>
       </c>
       <c r="P265" t="n">
-        <v>457500</v>
+        <v>117500</v>
       </c>
       <c r="Q265" t="inlineStr">
         <is>
@@ -21586,7 +21586,7 @@
         </is>
       </c>
       <c r="S265" t="n">
-        <v>1144</v>
+        <v>294</v>
       </c>
       <c r="T265" t="n">
         <v>400</v>
@@ -21607,7 +21607,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44279</v>
+        <v>44371</v>
       </c>
       <c r="E266" t="n">
         <v>4</v>
@@ -21635,25 +21635,25 @@
       </c>
       <c r="K266" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L266" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M266" t="n">
         <v>20</v>
       </c>
       <c r="N266" t="n">
-        <v>415000</v>
+        <v>135000</v>
       </c>
       <c r="O266" t="n">
-        <v>420000</v>
+        <v>140000</v>
       </c>
       <c r="P266" t="n">
-        <v>417500</v>
+        <v>137500</v>
       </c>
       <c r="Q266" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         </is>
       </c>
       <c r="S266" t="n">
-        <v>1044</v>
+        <v>344</v>
       </c>
       <c r="T266" t="n">
         <v>400</v>
@@ -21687,7 +21687,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44363</v>
+        <v>44371</v>
       </c>
       <c r="E267" t="n">
         <v>4</v>
@@ -21715,25 +21715,25 @@
       </c>
       <c r="K267" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L267" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M267" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N267" t="n">
-        <v>135000</v>
+        <v>115000</v>
       </c>
       <c r="O267" t="n">
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="P267" t="n">
-        <v>137500</v>
+        <v>117500</v>
       </c>
       <c r="Q267" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="S267" t="n">
-        <v>344</v>
+        <v>294</v>
       </c>
       <c r="T267" t="n">
         <v>400</v>
@@ -21767,7 +21767,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44363</v>
+        <v>44279</v>
       </c>
       <c r="E268" t="n">
         <v>4</v>
@@ -21795,25 +21795,25 @@
       </c>
       <c r="K268" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L268" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M268" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N268" t="n">
-        <v>115000</v>
+        <v>475000</v>
       </c>
       <c r="O268" t="n">
-        <v>120000</v>
+        <v>480000</v>
       </c>
       <c r="P268" t="n">
-        <v>117500</v>
+        <v>477500</v>
       </c>
       <c r="Q268" t="inlineStr">
         <is>
@@ -21826,7 +21826,7 @@
         </is>
       </c>
       <c r="S268" t="n">
-        <v>294</v>
+        <v>1194</v>
       </c>
       <c r="T268" t="n">
         <v>400</v>
@@ -21847,7 +21847,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44363</v>
+        <v>44279</v>
       </c>
       <c r="E269" t="n">
         <v>4</v>
@@ -21875,7 +21875,7 @@
       </c>
       <c r="K269" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L269" t="inlineStr">
@@ -21887,13 +21887,13 @@
         <v>20</v>
       </c>
       <c r="N269" t="n">
-        <v>145000</v>
+        <v>455000</v>
       </c>
       <c r="O269" t="n">
-        <v>150000</v>
+        <v>460000</v>
       </c>
       <c r="P269" t="n">
-        <v>147500</v>
+        <v>457500</v>
       </c>
       <c r="Q269" t="inlineStr">
         <is>
@@ -21906,7 +21906,7 @@
         </is>
       </c>
       <c r="S269" t="n">
-        <v>369</v>
+        <v>1144</v>
       </c>
       <c r="T269" t="n">
         <v>400</v>
@@ -21927,7 +21927,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44363</v>
+        <v>44279</v>
       </c>
       <c r="E270" t="n">
         <v>4</v>
@@ -21955,7 +21955,7 @@
       </c>
       <c r="K270" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L270" t="inlineStr">
@@ -21967,13 +21967,13 @@
         <v>20</v>
       </c>
       <c r="N270" t="n">
-        <v>125000</v>
+        <v>415000</v>
       </c>
       <c r="O270" t="n">
-        <v>130000</v>
+        <v>420000</v>
       </c>
       <c r="P270" t="n">
-        <v>127500</v>
+        <v>417500</v>
       </c>
       <c r="Q270" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
         </is>
       </c>
       <c r="S270" t="n">
-        <v>319</v>
+        <v>1044</v>
       </c>
       <c r="T270" t="n">
         <v>400</v>
@@ -22007,7 +22007,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44273</v>
+        <v>44363</v>
       </c>
       <c r="E271" t="n">
         <v>4</v>
@@ -22035,25 +22035,25 @@
       </c>
       <c r="K271" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L271" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M271" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N271" t="n">
-        <v>475000</v>
+        <v>135000</v>
       </c>
       <c r="O271" t="n">
-        <v>480000</v>
+        <v>140000</v>
       </c>
       <c r="P271" t="n">
-        <v>477500</v>
+        <v>137500</v>
       </c>
       <c r="Q271" t="inlineStr">
         <is>
@@ -22066,7 +22066,7 @@
         </is>
       </c>
       <c r="S271" t="n">
-        <v>1194</v>
+        <v>344</v>
       </c>
       <c r="T271" t="n">
         <v>400</v>
@@ -22087,7 +22087,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44273</v>
+        <v>44363</v>
       </c>
       <c r="E272" t="n">
         <v>4</v>
@@ -22115,25 +22115,25 @@
       </c>
       <c r="K272" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L272" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M272" t="n">
         <v>20</v>
       </c>
       <c r="N272" t="n">
-        <v>455000</v>
+        <v>115000</v>
       </c>
       <c r="O272" t="n">
-        <v>460000</v>
+        <v>120000</v>
       </c>
       <c r="P272" t="n">
-        <v>457500</v>
+        <v>117500</v>
       </c>
       <c r="Q272" t="inlineStr">
         <is>
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="S272" t="n">
-        <v>1144</v>
+        <v>294</v>
       </c>
       <c r="T272" t="n">
         <v>400</v>
@@ -22167,7 +22167,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44273</v>
+        <v>44363</v>
       </c>
       <c r="E273" t="n">
         <v>4</v>
@@ -22195,25 +22195,25 @@
       </c>
       <c r="K273" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L273" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M273" t="n">
         <v>20</v>
       </c>
       <c r="N273" t="n">
-        <v>415000</v>
+        <v>145000</v>
       </c>
       <c r="O273" t="n">
-        <v>420000</v>
+        <v>150000</v>
       </c>
       <c r="P273" t="n">
-        <v>417500</v>
+        <v>147500</v>
       </c>
       <c r="Q273" t="inlineStr">
         <is>
@@ -22226,7 +22226,7 @@
         </is>
       </c>
       <c r="S273" t="n">
-        <v>1044</v>
+        <v>369</v>
       </c>
       <c r="T273" t="n">
         <v>400</v>
@@ -22247,7 +22247,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44286</v>
+        <v>44363</v>
       </c>
       <c r="E274" t="n">
         <v>4</v>
@@ -22275,25 +22275,25 @@
       </c>
       <c r="K274" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L274" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M274" t="n">
         <v>20</v>
       </c>
       <c r="N274" t="n">
-        <v>475000</v>
+        <v>125000</v>
       </c>
       <c r="O274" t="n">
-        <v>480000</v>
+        <v>130000</v>
       </c>
       <c r="P274" t="n">
-        <v>477500</v>
+        <v>127500</v>
       </c>
       <c r="Q274" t="inlineStr">
         <is>
@@ -22306,7 +22306,7 @@
         </is>
       </c>
       <c r="S274" t="n">
-        <v>1194</v>
+        <v>319</v>
       </c>
       <c r="T274" t="n">
         <v>400</v>
@@ -22327,7 +22327,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44286</v>
+        <v>44273</v>
       </c>
       <c r="E275" t="n">
         <v>4</v>
@@ -22360,20 +22360,20 @@
       </c>
       <c r="L275" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M275" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N275" t="n">
-        <v>455000</v>
+        <v>475000</v>
       </c>
       <c r="O275" t="n">
-        <v>460000</v>
+        <v>480000</v>
       </c>
       <c r="P275" t="n">
-        <v>457500</v>
+        <v>477500</v>
       </c>
       <c r="Q275" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         </is>
       </c>
       <c r="S275" t="n">
-        <v>1144</v>
+        <v>1194</v>
       </c>
       <c r="T275" t="n">
         <v>400</v>
@@ -22407,7 +22407,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44209</v>
+        <v>44273</v>
       </c>
       <c r="E276" t="n">
         <v>4</v>
@@ -22440,20 +22440,20 @@
       </c>
       <c r="L276" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M276" t="n">
         <v>20</v>
       </c>
       <c r="N276" t="n">
-        <v>465000</v>
+        <v>455000</v>
       </c>
       <c r="O276" t="n">
-        <v>470000</v>
+        <v>460000</v>
       </c>
       <c r="P276" t="n">
-        <v>467500</v>
+        <v>457500</v>
       </c>
       <c r="Q276" t="inlineStr">
         <is>
@@ -22466,7 +22466,7 @@
         </is>
       </c>
       <c r="S276" t="n">
-        <v>1169</v>
+        <v>1144</v>
       </c>
       <c r="T276" t="n">
         <v>400</v>
@@ -22487,7 +22487,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44209</v>
+        <v>44273</v>
       </c>
       <c r="E277" t="n">
         <v>4</v>
@@ -22520,7 +22520,7 @@
       </c>
       <c r="L277" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M277" t="n">
@@ -22567,7 +22567,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E278" t="n">
         <v>4</v>
@@ -22600,20 +22600,20 @@
       </c>
       <c r="L278" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M278" t="n">
         <v>20</v>
       </c>
       <c r="N278" t="n">
-        <v>365000</v>
+        <v>475000</v>
       </c>
       <c r="O278" t="n">
-        <v>370000</v>
+        <v>480000</v>
       </c>
       <c r="P278" t="n">
-        <v>367500</v>
+        <v>477500</v>
       </c>
       <c r="Q278" t="inlineStr">
         <is>
@@ -22626,7 +22626,7 @@
         </is>
       </c>
       <c r="S278" t="n">
-        <v>919</v>
+        <v>1194</v>
       </c>
       <c r="T278" t="n">
         <v>400</v>
@@ -22647,7 +22647,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E279" t="n">
         <v>4</v>
@@ -22675,7 +22675,7 @@
       </c>
       <c r="K279" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L279" t="inlineStr">
@@ -22687,13 +22687,13 @@
         <v>20</v>
       </c>
       <c r="N279" t="n">
-        <v>145000</v>
+        <v>455000</v>
       </c>
       <c r="O279" t="n">
-        <v>150000</v>
+        <v>460000</v>
       </c>
       <c r="P279" t="n">
-        <v>147500</v>
+        <v>457500</v>
       </c>
       <c r="Q279" t="inlineStr">
         <is>
@@ -22706,7 +22706,7 @@
         </is>
       </c>
       <c r="S279" t="n">
-        <v>369</v>
+        <v>1144</v>
       </c>
       <c r="T279" t="n">
         <v>400</v>
@@ -22727,7 +22727,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E280" t="n">
         <v>4</v>
@@ -22755,25 +22755,25 @@
       </c>
       <c r="K280" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L280" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M280" t="n">
         <v>20</v>
       </c>
       <c r="N280" t="n">
-        <v>115000</v>
+        <v>465000</v>
       </c>
       <c r="O280" t="n">
-        <v>120000</v>
+        <v>470000</v>
       </c>
       <c r="P280" t="n">
-        <v>117500</v>
+        <v>467500</v>
       </c>
       <c r="Q280" t="inlineStr">
         <is>
@@ -22786,7 +22786,7 @@
         </is>
       </c>
       <c r="S280" t="n">
-        <v>294</v>
+        <v>1169</v>
       </c>
       <c r="T280" t="n">
         <v>400</v>
@@ -22807,7 +22807,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E281" t="n">
         <v>4</v>
@@ -22835,7 +22835,7 @@
       </c>
       <c r="K281" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L281" t="inlineStr">
@@ -22847,13 +22847,13 @@
         <v>20</v>
       </c>
       <c r="N281" t="n">
-        <v>145000</v>
+        <v>415000</v>
       </c>
       <c r="O281" t="n">
-        <v>150000</v>
+        <v>420000</v>
       </c>
       <c r="P281" t="n">
-        <v>147500</v>
+        <v>417500</v>
       </c>
       <c r="Q281" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         </is>
       </c>
       <c r="S281" t="n">
-        <v>369</v>
+        <v>1044</v>
       </c>
       <c r="T281" t="n">
         <v>400</v>
@@ -22887,7 +22887,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E282" t="n">
         <v>4</v>
@@ -22915,7 +22915,7 @@
       </c>
       <c r="K282" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L282" t="inlineStr">
@@ -22927,13 +22927,13 @@
         <v>20</v>
       </c>
       <c r="N282" t="n">
-        <v>115000</v>
+        <v>365000</v>
       </c>
       <c r="O282" t="n">
-        <v>120000</v>
+        <v>370000</v>
       </c>
       <c r="P282" t="n">
-        <v>117500</v>
+        <v>367500</v>
       </c>
       <c r="Q282" t="inlineStr">
         <is>
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="S282" t="n">
-        <v>294</v>
+        <v>919</v>
       </c>
       <c r="T282" t="n">
         <v>400</v>
@@ -22967,7 +22967,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E283" t="n">
         <v>4</v>
@@ -22995,25 +22995,25 @@
       </c>
       <c r="K283" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L283" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M283" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N283" t="n">
-        <v>325000</v>
+        <v>145000</v>
       </c>
       <c r="O283" t="n">
-        <v>330000</v>
+        <v>150000</v>
       </c>
       <c r="P283" t="n">
-        <v>327500</v>
+        <v>147500</v>
       </c>
       <c r="Q283" t="inlineStr">
         <is>
@@ -23026,7 +23026,7 @@
         </is>
       </c>
       <c r="S283" t="n">
-        <v>819</v>
+        <v>369</v>
       </c>
       <c r="T283" t="n">
         <v>400</v>
@@ -23047,7 +23047,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E284" t="n">
         <v>4</v>
@@ -23075,25 +23075,25 @@
       </c>
       <c r="K284" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L284" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M284" t="n">
         <v>20</v>
       </c>
       <c r="N284" t="n">
-        <v>305000</v>
+        <v>115000</v>
       </c>
       <c r="O284" t="n">
-        <v>310000</v>
+        <v>120000</v>
       </c>
       <c r="P284" t="n">
-        <v>307500</v>
+        <v>117500</v>
       </c>
       <c r="Q284" t="inlineStr">
         <is>
@@ -23106,7 +23106,7 @@
         </is>
       </c>
       <c r="S284" t="n">
-        <v>769</v>
+        <v>294</v>
       </c>
       <c r="T284" t="n">
         <v>400</v>
@@ -23127,7 +23127,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E285" t="n">
         <v>4</v>
@@ -23155,25 +23155,25 @@
       </c>
       <c r="K285" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L285" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M285" t="n">
         <v>20</v>
       </c>
       <c r="N285" t="n">
-        <v>255000</v>
+        <v>145000</v>
       </c>
       <c r="O285" t="n">
-        <v>260000</v>
+        <v>150000</v>
       </c>
       <c r="P285" t="n">
-        <v>257500</v>
+        <v>147500</v>
       </c>
       <c r="Q285" t="inlineStr">
         <is>
@@ -23186,7 +23186,7 @@
         </is>
       </c>
       <c r="S285" t="n">
-        <v>644</v>
+        <v>369</v>
       </c>
       <c r="T285" t="n">
         <v>400</v>
@@ -23207,7 +23207,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44175</v>
+        <v>44356</v>
       </c>
       <c r="E286" t="n">
         <v>4</v>
@@ -23235,25 +23235,25 @@
       </c>
       <c r="K286" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L286" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M286" t="n">
         <v>20</v>
       </c>
       <c r="N286" t="n">
-        <v>325000</v>
+        <v>115000</v>
       </c>
       <c r="O286" t="n">
-        <v>330000</v>
+        <v>120000</v>
       </c>
       <c r="P286" t="n">
-        <v>327500</v>
+        <v>117500</v>
       </c>
       <c r="Q286" t="inlineStr">
         <is>
@@ -23266,7 +23266,7 @@
         </is>
       </c>
       <c r="S286" t="n">
-        <v>819</v>
+        <v>294</v>
       </c>
       <c r="T286" t="n">
         <v>400</v>
@@ -23287,7 +23287,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44175</v>
+        <v>44160</v>
       </c>
       <c r="E287" t="n">
         <v>4</v>
@@ -23315,25 +23315,25 @@
       </c>
       <c r="K287" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L287" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M287" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N287" t="n">
-        <v>265000</v>
+        <v>325000</v>
       </c>
       <c r="O287" t="n">
-        <v>270000</v>
+        <v>330000</v>
       </c>
       <c r="P287" t="n">
-        <v>267500</v>
+        <v>327500</v>
       </c>
       <c r="Q287" t="inlineStr">
         <is>
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="S287" t="n">
-        <v>669</v>
+        <v>819</v>
       </c>
       <c r="T287" t="n">
         <v>400</v>
@@ -23367,7 +23367,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44175</v>
+        <v>44160</v>
       </c>
       <c r="E288" t="n">
         <v>4</v>
@@ -23395,7 +23395,7 @@
       </c>
       <c r="K288" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L288" t="inlineStr">
@@ -23407,13 +23407,13 @@
         <v>20</v>
       </c>
       <c r="N288" t="n">
-        <v>335000</v>
+        <v>305000</v>
       </c>
       <c r="O288" t="n">
-        <v>340000</v>
+        <v>310000</v>
       </c>
       <c r="P288" t="n">
-        <v>337500</v>
+        <v>307500</v>
       </c>
       <c r="Q288" t="inlineStr">
         <is>
@@ -23426,7 +23426,7 @@
         </is>
       </c>
       <c r="S288" t="n">
-        <v>844</v>
+        <v>769</v>
       </c>
       <c r="T288" t="n">
         <v>400</v>
@@ -23447,7 +23447,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44175</v>
+        <v>44160</v>
       </c>
       <c r="E289" t="n">
         <v>4</v>
@@ -23475,7 +23475,7 @@
       </c>
       <c r="K289" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L289" t="inlineStr">
@@ -23487,13 +23487,13 @@
         <v>20</v>
       </c>
       <c r="N289" t="n">
-        <v>285000</v>
+        <v>255000</v>
       </c>
       <c r="O289" t="n">
-        <v>290000</v>
+        <v>260000</v>
       </c>
       <c r="P289" t="n">
-        <v>287500</v>
+        <v>257500</v>
       </c>
       <c r="Q289" t="inlineStr">
         <is>
@@ -23506,7 +23506,7 @@
         </is>
       </c>
       <c r="S289" t="n">
-        <v>719</v>
+        <v>644</v>
       </c>
       <c r="T289" t="n">
         <v>400</v>
@@ -23527,7 +23527,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E290" t="n">
         <v>4</v>
@@ -23555,7 +23555,7 @@
       </c>
       <c r="K290" t="inlineStr">
         <is>
-          <t>Cara cara</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L290" t="inlineStr">
@@ -23567,13 +23567,13 @@
         <v>20</v>
       </c>
       <c r="N290" t="n">
-        <v>110000</v>
+        <v>325000</v>
       </c>
       <c r="O290" t="n">
-        <v>120000</v>
+        <v>330000</v>
       </c>
       <c r="P290" t="n">
-        <v>115000</v>
+        <v>327500</v>
       </c>
       <c r="Q290" t="inlineStr">
         <is>
@@ -23586,7 +23586,7 @@
         </is>
       </c>
       <c r="S290" t="n">
-        <v>288</v>
+        <v>819</v>
       </c>
       <c r="T290" t="n">
         <v>400</v>
@@ -23607,7 +23607,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E291" t="n">
         <v>4</v>
@@ -23635,7 +23635,7 @@
       </c>
       <c r="K291" t="inlineStr">
         <is>
-          <t>Cara cara</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L291" t="inlineStr">
@@ -23647,13 +23647,13 @@
         <v>20</v>
       </c>
       <c r="N291" t="n">
-        <v>90000</v>
+        <v>265000</v>
       </c>
       <c r="O291" t="n">
-        <v>100000</v>
+        <v>270000</v>
       </c>
       <c r="P291" t="n">
-        <v>95000</v>
+        <v>267500</v>
       </c>
       <c r="Q291" t="inlineStr">
         <is>
@@ -23666,7 +23666,7 @@
         </is>
       </c>
       <c r="S291" t="n">
-        <v>238</v>
+        <v>669</v>
       </c>
       <c r="T291" t="n">
         <v>400</v>
@@ -23687,7 +23687,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E292" t="n">
         <v>4</v>
@@ -23715,7 +23715,7 @@
       </c>
       <c r="K292" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L292" t="inlineStr">
@@ -23727,13 +23727,13 @@
         <v>20</v>
       </c>
       <c r="N292" t="n">
-        <v>100000</v>
+        <v>335000</v>
       </c>
       <c r="O292" t="n">
-        <v>110000</v>
+        <v>340000</v>
       </c>
       <c r="P292" t="n">
-        <v>105000</v>
+        <v>337500</v>
       </c>
       <c r="Q292" t="inlineStr">
         <is>
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="S292" t="n">
-        <v>262</v>
+        <v>844</v>
       </c>
       <c r="T292" t="n">
         <v>400</v>
@@ -23767,7 +23767,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E293" t="n">
         <v>4</v>
@@ -23795,7 +23795,7 @@
       </c>
       <c r="K293" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L293" t="inlineStr">
@@ -23807,13 +23807,13 @@
         <v>20</v>
       </c>
       <c r="N293" t="n">
-        <v>80000</v>
+        <v>285000</v>
       </c>
       <c r="O293" t="n">
-        <v>90000</v>
+        <v>290000</v>
       </c>
       <c r="P293" t="n">
-        <v>85000</v>
+        <v>287500</v>
       </c>
       <c r="Q293" t="inlineStr">
         <is>
@@ -23826,7 +23826,7 @@
         </is>
       </c>
       <c r="S293" t="n">
-        <v>212</v>
+        <v>719</v>
       </c>
       <c r="T293" t="n">
         <v>400</v>
@@ -23847,7 +23847,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E294" t="n">
         <v>4</v>
@@ -23875,7 +23875,7 @@
       </c>
       <c r="K294" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Cara cara</t>
         </is>
       </c>
       <c r="L294" t="inlineStr">
@@ -23887,13 +23887,13 @@
         <v>20</v>
       </c>
       <c r="N294" t="n">
-        <v>145000</v>
+        <v>110000</v>
       </c>
       <c r="O294" t="n">
-        <v>150000</v>
+        <v>120000</v>
       </c>
       <c r="P294" t="n">
-        <v>147500</v>
+        <v>115000</v>
       </c>
       <c r="Q294" t="inlineStr">
         <is>
@@ -23906,7 +23906,7 @@
         </is>
       </c>
       <c r="S294" t="n">
-        <v>369</v>
+        <v>288</v>
       </c>
       <c r="T294" t="n">
         <v>400</v>
@@ -23927,7 +23927,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E295" t="n">
         <v>4</v>
@@ -23955,7 +23955,7 @@
       </c>
       <c r="K295" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Cara cara</t>
         </is>
       </c>
       <c r="L295" t="inlineStr">
@@ -23967,13 +23967,13 @@
         <v>20</v>
       </c>
       <c r="N295" t="n">
-        <v>115000</v>
+        <v>90000</v>
       </c>
       <c r="O295" t="n">
-        <v>120000</v>
+        <v>100000</v>
       </c>
       <c r="P295" t="n">
-        <v>117500</v>
+        <v>95000</v>
       </c>
       <c r="Q295" t="inlineStr">
         <is>
@@ -23986,7 +23986,7 @@
         </is>
       </c>
       <c r="S295" t="n">
-        <v>294</v>
+        <v>238</v>
       </c>
       <c r="T295" t="n">
         <v>400</v>
@@ -24007,7 +24007,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E296" t="n">
         <v>4</v>
@@ -24035,7 +24035,7 @@
       </c>
       <c r="K296" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L296" t="inlineStr">
@@ -24047,13 +24047,13 @@
         <v>20</v>
       </c>
       <c r="N296" t="n">
-        <v>145000</v>
+        <v>100000</v>
       </c>
       <c r="O296" t="n">
-        <v>150000</v>
+        <v>110000</v>
       </c>
       <c r="P296" t="n">
-        <v>147500</v>
+        <v>105000</v>
       </c>
       <c r="Q296" t="inlineStr">
         <is>
@@ -24066,7 +24066,7 @@
         </is>
       </c>
       <c r="S296" t="n">
-        <v>369</v>
+        <v>262</v>
       </c>
       <c r="T296" t="n">
         <v>400</v>
@@ -24087,7 +24087,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E297" t="n">
         <v>4</v>
@@ -24115,7 +24115,7 @@
       </c>
       <c r="K297" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L297" t="inlineStr">
@@ -24127,13 +24127,13 @@
         <v>20</v>
       </c>
       <c r="N297" t="n">
-        <v>115000</v>
+        <v>80000</v>
       </c>
       <c r="O297" t="n">
-        <v>120000</v>
+        <v>90000</v>
       </c>
       <c r="P297" t="n">
-        <v>117500</v>
+        <v>85000</v>
       </c>
       <c r="Q297" t="inlineStr">
         <is>
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="S297" t="n">
-        <v>294</v>
+        <v>212</v>
       </c>
       <c r="T297" t="n">
         <v>400</v>
@@ -24167,7 +24167,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E298" t="n">
         <v>4</v>
@@ -24195,7 +24195,7 @@
       </c>
       <c r="K298" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L298" t="inlineStr">
@@ -24207,13 +24207,13 @@
         <v>20</v>
       </c>
       <c r="N298" t="n">
-        <v>395000</v>
+        <v>145000</v>
       </c>
       <c r="O298" t="n">
-        <v>400000</v>
+        <v>150000</v>
       </c>
       <c r="P298" t="n">
-        <v>397500</v>
+        <v>147500</v>
       </c>
       <c r="Q298" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         </is>
       </c>
       <c r="S298" t="n">
-        <v>994</v>
+        <v>369</v>
       </c>
       <c r="T298" t="n">
         <v>400</v>
@@ -24247,7 +24247,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E299" t="n">
         <v>4</v>
@@ -24275,7 +24275,7 @@
       </c>
       <c r="K299" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L299" t="inlineStr">
@@ -24287,13 +24287,13 @@
         <v>20</v>
       </c>
       <c r="N299" t="n">
-        <v>345000</v>
+        <v>115000</v>
       </c>
       <c r="O299" t="n">
-        <v>350000</v>
+        <v>120000</v>
       </c>
       <c r="P299" t="n">
-        <v>347500</v>
+        <v>117500</v>
       </c>
       <c r="Q299" t="inlineStr">
         <is>
@@ -24306,7 +24306,7 @@
         </is>
       </c>
       <c r="S299" t="n">
-        <v>869</v>
+        <v>294</v>
       </c>
       <c r="T299" t="n">
         <v>400</v>
@@ -24327,7 +24327,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44244</v>
+        <v>44357</v>
       </c>
       <c r="E300" t="n">
         <v>4</v>
@@ -24355,7 +24355,7 @@
       </c>
       <c r="K300" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L300" t="inlineStr">
@@ -24367,13 +24367,13 @@
         <v>20</v>
       </c>
       <c r="N300" t="n">
-        <v>455000</v>
+        <v>145000</v>
       </c>
       <c r="O300" t="n">
-        <v>460000</v>
+        <v>150000</v>
       </c>
       <c r="P300" t="n">
-        <v>457500</v>
+        <v>147500</v>
       </c>
       <c r="Q300" t="inlineStr">
         <is>
@@ -24386,7 +24386,7 @@
         </is>
       </c>
       <c r="S300" t="n">
-        <v>1144</v>
+        <v>369</v>
       </c>
       <c r="T300" t="n">
         <v>400</v>
@@ -24407,68 +24407,388 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
+        <v>44357</v>
+      </c>
+      <c r="E301" t="n">
+        <v>4</v>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G301" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I301" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J301" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>New Hall</t>
+        </is>
+      </c>
+      <c r="L301" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M301" t="n">
+        <v>20</v>
+      </c>
+      <c r="N301" t="n">
+        <v>115000</v>
+      </c>
+      <c r="O301" t="n">
+        <v>120000</v>
+      </c>
+      <c r="P301" t="n">
+        <v>117500</v>
+      </c>
+      <c r="Q301" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R301" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S301" t="n">
+        <v>294</v>
+      </c>
+      <c r="T301" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>2</v>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D302" s="2" t="n">
+        <v>44203</v>
+      </c>
+      <c r="E302" t="n">
+        <v>4</v>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G302" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H302" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I302" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J302" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="L302" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M302" t="n">
+        <v>20</v>
+      </c>
+      <c r="N302" t="n">
+        <v>395000</v>
+      </c>
+      <c r="O302" t="n">
+        <v>400000</v>
+      </c>
+      <c r="P302" t="n">
+        <v>397500</v>
+      </c>
+      <c r="Q302" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R302" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S302" t="n">
+        <v>994</v>
+      </c>
+      <c r="T302" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>2</v>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D303" s="2" t="n">
+        <v>44203</v>
+      </c>
+      <c r="E303" t="n">
+        <v>4</v>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G303" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H303" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I303" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J303" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="L303" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M303" t="n">
+        <v>20</v>
+      </c>
+      <c r="N303" t="n">
+        <v>345000</v>
+      </c>
+      <c r="O303" t="n">
+        <v>350000</v>
+      </c>
+      <c r="P303" t="n">
+        <v>347500</v>
+      </c>
+      <c r="Q303" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R303" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S303" t="n">
+        <v>869</v>
+      </c>
+      <c r="T303" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>2</v>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D304" s="2" t="n">
         <v>44244</v>
       </c>
-      <c r="E301" t="n">
-        <v>4</v>
-      </c>
-      <c r="F301" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G301" t="n">
-        <v>100102</v>
-      </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>Cítricos</t>
-        </is>
-      </c>
-      <c r="I301" t="n">
-        <v>100102005</v>
-      </c>
-      <c r="J301" t="inlineStr">
-        <is>
-          <t>Naranja</t>
-        </is>
-      </c>
-      <c r="K301" t="inlineStr">
+      <c r="E304" t="n">
+        <v>4</v>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G304" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H304" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I304" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J304" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K304" t="inlineStr">
         <is>
           <t>Valencia</t>
         </is>
       </c>
-      <c r="L301" t="inlineStr">
+      <c r="L304" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M304" t="n">
+        <v>20</v>
+      </c>
+      <c r="N304" t="n">
+        <v>455000</v>
+      </c>
+      <c r="O304" t="n">
+        <v>460000</v>
+      </c>
+      <c r="P304" t="n">
+        <v>457500</v>
+      </c>
+      <c r="Q304" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R304" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S304" t="n">
+        <v>1144</v>
+      </c>
+      <c r="T304" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>2</v>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D305" s="2" t="n">
+        <v>44244</v>
+      </c>
+      <c r="E305" t="n">
+        <v>4</v>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G305" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H305" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I305" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J305" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="L305" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M301" t="n">
-        <v>20</v>
-      </c>
-      <c r="N301" t="n">
+      <c r="M305" t="n">
+        <v>20</v>
+      </c>
+      <c r="N305" t="n">
         <v>415000</v>
       </c>
-      <c r="O301" t="n">
+      <c r="O305" t="n">
         <v>420000</v>
       </c>
-      <c r="P301" t="n">
+      <c r="P305" t="n">
         <v>417500</v>
       </c>
-      <c r="Q301" t="inlineStr">
-        <is>
-          <t>$/bins (400 kilos)</t>
-        </is>
-      </c>
-      <c r="R301" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="S301" t="n">
+      <c r="Q305" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R305" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S305" t="n">
         <v>1044</v>
       </c>
-      <c r="T301" t="n">
+      <c r="T305" t="n">
         <v>400</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Comercializadora del Agro de Limarí - Naranja.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Comercializadora del Agro de Limarí - Naranja.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T305"/>
+  <dimension ref="A1:T309"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8967,7 +8967,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44385</v>
+        <v>44469</v>
       </c>
       <c r="E108" t="n">
         <v>4</v>
@@ -8995,7 +8995,7 @@
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
@@ -9007,13 +9007,13 @@
         <v>20</v>
       </c>
       <c r="N108" t="n">
-        <v>125000</v>
+        <v>120000</v>
       </c>
       <c r="O108" t="n">
         <v>130000</v>
       </c>
       <c r="P108" t="n">
-        <v>127500</v>
+        <v>125000</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
@@ -9026,7 +9026,7 @@
         </is>
       </c>
       <c r="S108" t="n">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="T108" t="n">
         <v>400</v>
@@ -9047,7 +9047,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44385</v>
+        <v>44469</v>
       </c>
       <c r="E109" t="n">
         <v>4</v>
@@ -9075,7 +9075,7 @@
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
@@ -9087,13 +9087,13 @@
         <v>20</v>
       </c>
       <c r="N109" t="n">
-        <v>105000</v>
+        <v>100000</v>
       </c>
       <c r="O109" t="n">
         <v>110000</v>
       </c>
       <c r="P109" t="n">
-        <v>107500</v>
+        <v>105000</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         </is>
       </c>
       <c r="S109" t="n">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="T109" t="n">
         <v>400</v>
@@ -9127,7 +9127,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44385</v>
+        <v>44469</v>
       </c>
       <c r="E110" t="n">
         <v>4</v>
@@ -9167,13 +9167,13 @@
         <v>20</v>
       </c>
       <c r="N110" t="n">
-        <v>125000</v>
+        <v>130000</v>
       </c>
       <c r="O110" t="n">
-        <v>130000</v>
+        <v>140000</v>
       </c>
       <c r="P110" t="n">
-        <v>127500</v>
+        <v>135000</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
@@ -9186,7 +9186,7 @@
         </is>
       </c>
       <c r="S110" t="n">
-        <v>319</v>
+        <v>338</v>
       </c>
       <c r="T110" t="n">
         <v>400</v>
@@ -9207,7 +9207,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44385</v>
+        <v>44469</v>
       </c>
       <c r="E111" t="n">
         <v>4</v>
@@ -9247,13 +9247,13 @@
         <v>20</v>
       </c>
       <c r="N111" t="n">
-        <v>105000</v>
+        <v>110000</v>
       </c>
       <c r="O111" t="n">
-        <v>110000</v>
+        <v>120000</v>
       </c>
       <c r="P111" t="n">
-        <v>107500</v>
+        <v>115000</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
@@ -9266,7 +9266,7 @@
         </is>
       </c>
       <c r="S111" t="n">
-        <v>269</v>
+        <v>288</v>
       </c>
       <c r="T111" t="n">
         <v>400</v>
@@ -9315,7 +9315,7 @@
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L112" t="inlineStr">
@@ -9327,13 +9327,13 @@
         <v>20</v>
       </c>
       <c r="N112" t="n">
-        <v>115000</v>
+        <v>125000</v>
       </c>
       <c r="O112" t="n">
-        <v>120000</v>
+        <v>130000</v>
       </c>
       <c r="P112" t="n">
-        <v>117500</v>
+        <v>127500</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="S112" t="n">
-        <v>294</v>
+        <v>319</v>
       </c>
       <c r="T112" t="n">
         <v>400</v>
@@ -9395,7 +9395,7 @@
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
@@ -9407,13 +9407,13 @@
         <v>20</v>
       </c>
       <c r="N113" t="n">
-        <v>95000</v>
+        <v>105000</v>
       </c>
       <c r="O113" t="n">
-        <v>100000</v>
+        <v>110000</v>
       </c>
       <c r="P113" t="n">
-        <v>97500</v>
+        <v>107500</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         </is>
       </c>
       <c r="S113" t="n">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="T113" t="n">
         <v>400</v>
@@ -9447,7 +9447,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44391</v>
+        <v>44385</v>
       </c>
       <c r="E114" t="n">
         <v>4</v>
@@ -9475,7 +9475,7 @@
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
@@ -9487,13 +9487,13 @@
         <v>20</v>
       </c>
       <c r="N114" t="n">
-        <v>100000</v>
+        <v>125000</v>
       </c>
       <c r="O114" t="n">
-        <v>110000</v>
+        <v>130000</v>
       </c>
       <c r="P114" t="n">
-        <v>105000</v>
+        <v>127500</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
@@ -9506,7 +9506,7 @@
         </is>
       </c>
       <c r="S114" t="n">
-        <v>262</v>
+        <v>319</v>
       </c>
       <c r="T114" t="n">
         <v>400</v>
@@ -9527,7 +9527,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44391</v>
+        <v>44385</v>
       </c>
       <c r="E115" t="n">
         <v>4</v>
@@ -9555,7 +9555,7 @@
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
@@ -9567,13 +9567,13 @@
         <v>20</v>
       </c>
       <c r="N115" t="n">
-        <v>80000</v>
+        <v>105000</v>
       </c>
       <c r="O115" t="n">
-        <v>90000</v>
+        <v>110000</v>
       </c>
       <c r="P115" t="n">
-        <v>85000</v>
+        <v>107500</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
@@ -9586,7 +9586,7 @@
         </is>
       </c>
       <c r="S115" t="n">
-        <v>212</v>
+        <v>269</v>
       </c>
       <c r="T115" t="n">
         <v>400</v>
@@ -9607,7 +9607,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44391</v>
+        <v>44385</v>
       </c>
       <c r="E116" t="n">
         <v>4</v>
@@ -9635,7 +9635,7 @@
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
@@ -9647,13 +9647,13 @@
         <v>20</v>
       </c>
       <c r="N116" t="n">
-        <v>100000</v>
+        <v>115000</v>
       </c>
       <c r="O116" t="n">
-        <v>110000</v>
+        <v>120000</v>
       </c>
       <c r="P116" t="n">
-        <v>105000</v>
+        <v>117500</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         </is>
       </c>
       <c r="S116" t="n">
-        <v>262</v>
+        <v>294</v>
       </c>
       <c r="T116" t="n">
         <v>400</v>
@@ -9687,7 +9687,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44391</v>
+        <v>44385</v>
       </c>
       <c r="E117" t="n">
         <v>4</v>
@@ -9715,7 +9715,7 @@
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
@@ -9727,13 +9727,13 @@
         <v>20</v>
       </c>
       <c r="N117" t="n">
-        <v>80000</v>
+        <v>95000</v>
       </c>
       <c r="O117" t="n">
-        <v>90000</v>
+        <v>100000</v>
       </c>
       <c r="P117" t="n">
-        <v>85000</v>
+        <v>97500</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="S117" t="n">
-        <v>212</v>
+        <v>244</v>
       </c>
       <c r="T117" t="n">
         <v>400</v>
@@ -9767,7 +9767,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44216</v>
+        <v>44391</v>
       </c>
       <c r="E118" t="n">
         <v>4</v>
@@ -9795,7 +9795,7 @@
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
@@ -9807,13 +9807,13 @@
         <v>20</v>
       </c>
       <c r="N118" t="n">
-        <v>465000</v>
+        <v>100000</v>
       </c>
       <c r="O118" t="n">
-        <v>470000</v>
+        <v>110000</v>
       </c>
       <c r="P118" t="n">
-        <v>467500</v>
+        <v>105000</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         </is>
       </c>
       <c r="S118" t="n">
-        <v>1169</v>
+        <v>262</v>
       </c>
       <c r="T118" t="n">
         <v>400</v>
@@ -9847,7 +9847,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44216</v>
+        <v>44391</v>
       </c>
       <c r="E119" t="n">
         <v>4</v>
@@ -9875,7 +9875,7 @@
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
@@ -9887,13 +9887,13 @@
         <v>20</v>
       </c>
       <c r="N119" t="n">
-        <v>425000</v>
+        <v>80000</v>
       </c>
       <c r="O119" t="n">
-        <v>430000</v>
+        <v>90000</v>
       </c>
       <c r="P119" t="n">
-        <v>427500</v>
+        <v>85000</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
@@ -9906,7 +9906,7 @@
         </is>
       </c>
       <c r="S119" t="n">
-        <v>1069</v>
+        <v>212</v>
       </c>
       <c r="T119" t="n">
         <v>400</v>
@@ -9927,7 +9927,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44245</v>
+        <v>44391</v>
       </c>
       <c r="E120" t="n">
         <v>4</v>
@@ -9955,7 +9955,7 @@
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L120" t="inlineStr">
@@ -9967,13 +9967,13 @@
         <v>20</v>
       </c>
       <c r="N120" t="n">
-        <v>465000</v>
+        <v>100000</v>
       </c>
       <c r="O120" t="n">
-        <v>470000</v>
+        <v>110000</v>
       </c>
       <c r="P120" t="n">
-        <v>467500</v>
+        <v>105000</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         </is>
       </c>
       <c r="S120" t="n">
-        <v>1169</v>
+        <v>262</v>
       </c>
       <c r="T120" t="n">
         <v>400</v>
@@ -10007,7 +10007,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44245</v>
+        <v>44391</v>
       </c>
       <c r="E121" t="n">
         <v>4</v>
@@ -10035,7 +10035,7 @@
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L121" t="inlineStr">
@@ -10047,13 +10047,13 @@
         <v>20</v>
       </c>
       <c r="N121" t="n">
-        <v>425000</v>
+        <v>80000</v>
       </c>
       <c r="O121" t="n">
-        <v>430000</v>
+        <v>90000</v>
       </c>
       <c r="P121" t="n">
-        <v>427500</v>
+        <v>85000</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
@@ -10066,7 +10066,7 @@
         </is>
       </c>
       <c r="S121" t="n">
-        <v>1069</v>
+        <v>212</v>
       </c>
       <c r="T121" t="n">
         <v>400</v>
@@ -10087,7 +10087,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44419</v>
+        <v>44216</v>
       </c>
       <c r="E122" t="n">
         <v>4</v>
@@ -10115,7 +10115,7 @@
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>Cara cara</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L122" t="inlineStr">
@@ -10127,13 +10127,13 @@
         <v>20</v>
       </c>
       <c r="N122" t="n">
-        <v>115000</v>
+        <v>465000</v>
       </c>
       <c r="O122" t="n">
-        <v>120000</v>
+        <v>470000</v>
       </c>
       <c r="P122" t="n">
-        <v>117500</v>
+        <v>467500</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="S122" t="n">
-        <v>294</v>
+        <v>1169</v>
       </c>
       <c r="T122" t="n">
         <v>400</v>
@@ -10167,7 +10167,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44419</v>
+        <v>44216</v>
       </c>
       <c r="E123" t="n">
         <v>4</v>
@@ -10195,7 +10195,7 @@
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>Cara cara</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L123" t="inlineStr">
@@ -10207,13 +10207,13 @@
         <v>20</v>
       </c>
       <c r="N123" t="n">
-        <v>85000</v>
+        <v>425000</v>
       </c>
       <c r="O123" t="n">
-        <v>90000</v>
+        <v>430000</v>
       </c>
       <c r="P123" t="n">
-        <v>87500</v>
+        <v>427500</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         </is>
       </c>
       <c r="S123" t="n">
-        <v>219</v>
+        <v>1069</v>
       </c>
       <c r="T123" t="n">
         <v>400</v>
@@ -10247,7 +10247,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44419</v>
+        <v>44245</v>
       </c>
       <c r="E124" t="n">
         <v>4</v>
@@ -10275,7 +10275,7 @@
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L124" t="inlineStr">
@@ -10287,13 +10287,13 @@
         <v>20</v>
       </c>
       <c r="N124" t="n">
-        <v>115000</v>
+        <v>465000</v>
       </c>
       <c r="O124" t="n">
-        <v>120000</v>
+        <v>470000</v>
       </c>
       <c r="P124" t="n">
-        <v>117500</v>
+        <v>467500</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
@@ -10306,7 +10306,7 @@
         </is>
       </c>
       <c r="S124" t="n">
-        <v>294</v>
+        <v>1169</v>
       </c>
       <c r="T124" t="n">
         <v>400</v>
@@ -10327,7 +10327,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44419</v>
+        <v>44245</v>
       </c>
       <c r="E125" t="n">
         <v>4</v>
@@ -10355,7 +10355,7 @@
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L125" t="inlineStr">
@@ -10367,13 +10367,13 @@
         <v>20</v>
       </c>
       <c r="N125" t="n">
-        <v>85000</v>
+        <v>425000</v>
       </c>
       <c r="O125" t="n">
-        <v>90000</v>
+        <v>430000</v>
       </c>
       <c r="P125" t="n">
-        <v>87500</v>
+        <v>427500</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         </is>
       </c>
       <c r="S125" t="n">
-        <v>219</v>
+        <v>1069</v>
       </c>
       <c r="T125" t="n">
         <v>400</v>
@@ -10435,7 +10435,7 @@
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Cara cara</t>
         </is>
       </c>
       <c r="L126" t="inlineStr">
@@ -10447,13 +10447,13 @@
         <v>20</v>
       </c>
       <c r="N126" t="n">
-        <v>105000</v>
+        <v>115000</v>
       </c>
       <c r="O126" t="n">
-        <v>110000</v>
+        <v>120000</v>
       </c>
       <c r="P126" t="n">
-        <v>107500</v>
+        <v>117500</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
@@ -10466,7 +10466,7 @@
         </is>
       </c>
       <c r="S126" t="n">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="T126" t="n">
         <v>400</v>
@@ -10515,7 +10515,7 @@
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Cara cara</t>
         </is>
       </c>
       <c r="L127" t="inlineStr">
@@ -10527,13 +10527,13 @@
         <v>20</v>
       </c>
       <c r="N127" t="n">
-        <v>75000</v>
+        <v>85000</v>
       </c>
       <c r="O127" t="n">
-        <v>80000</v>
+        <v>90000</v>
       </c>
       <c r="P127" t="n">
-        <v>77500</v>
+        <v>87500</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="S127" t="n">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="T127" t="n">
         <v>400</v>
@@ -10595,7 +10595,7 @@
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L128" t="inlineStr">
@@ -10607,13 +10607,13 @@
         <v>20</v>
       </c>
       <c r="N128" t="n">
-        <v>105000</v>
+        <v>115000</v>
       </c>
       <c r="O128" t="n">
-        <v>110000</v>
+        <v>120000</v>
       </c>
       <c r="P128" t="n">
-        <v>107500</v>
+        <v>117500</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
@@ -10626,7 +10626,7 @@
         </is>
       </c>
       <c r="S128" t="n">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="T128" t="n">
         <v>400</v>
@@ -10675,7 +10675,7 @@
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L129" t="inlineStr">
@@ -10687,13 +10687,13 @@
         <v>20</v>
       </c>
       <c r="N129" t="n">
-        <v>75000</v>
+        <v>85000</v>
       </c>
       <c r="O129" t="n">
-        <v>80000</v>
+        <v>90000</v>
       </c>
       <c r="P129" t="n">
-        <v>77500</v>
+        <v>87500</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
@@ -10706,7 +10706,7 @@
         </is>
       </c>
       <c r="S129" t="n">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="T129" t="n">
         <v>400</v>
@@ -10727,7 +10727,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44434</v>
+        <v>44419</v>
       </c>
       <c r="E130" t="n">
         <v>4</v>
@@ -10755,25 +10755,25 @@
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M130" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N130" t="n">
-        <v>125000</v>
+        <v>105000</v>
       </c>
       <c r="O130" t="n">
-        <v>130000</v>
+        <v>110000</v>
       </c>
       <c r="P130" t="n">
-        <v>127500</v>
+        <v>107500</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         </is>
       </c>
       <c r="S130" t="n">
-        <v>319</v>
+        <v>269</v>
       </c>
       <c r="T130" t="n">
         <v>400</v>
@@ -10807,7 +10807,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44434</v>
+        <v>44419</v>
       </c>
       <c r="E131" t="n">
         <v>4</v>
@@ -10835,25 +10835,25 @@
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M131" t="n">
         <v>20</v>
       </c>
       <c r="N131" t="n">
-        <v>105000</v>
+        <v>75000</v>
       </c>
       <c r="O131" t="n">
-        <v>110000</v>
+        <v>80000</v>
       </c>
       <c r="P131" t="n">
-        <v>107500</v>
+        <v>77500</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
@@ -10866,7 +10866,7 @@
         </is>
       </c>
       <c r="S131" t="n">
-        <v>269</v>
+        <v>194</v>
       </c>
       <c r="T131" t="n">
         <v>400</v>
@@ -10887,7 +10887,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44434</v>
+        <v>44419</v>
       </c>
       <c r="E132" t="n">
         <v>4</v>
@@ -10915,25 +10915,25 @@
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M132" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N132" t="n">
-        <v>85000</v>
+        <v>105000</v>
       </c>
       <c r="O132" t="n">
-        <v>90000</v>
+        <v>110000</v>
       </c>
       <c r="P132" t="n">
-        <v>87500</v>
+        <v>107500</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="S132" t="n">
-        <v>219</v>
+        <v>269</v>
       </c>
       <c r="T132" t="n">
         <v>400</v>
@@ -10967,7 +10967,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44434</v>
+        <v>44419</v>
       </c>
       <c r="E133" t="n">
         <v>4</v>
@@ -10995,25 +10995,25 @@
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M133" t="n">
         <v>20</v>
       </c>
       <c r="N133" t="n">
-        <v>95000</v>
+        <v>75000</v>
       </c>
       <c r="O133" t="n">
-        <v>100000</v>
+        <v>80000</v>
       </c>
       <c r="P133" t="n">
-        <v>97500</v>
+        <v>77500</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
@@ -11026,7 +11026,7 @@
         </is>
       </c>
       <c r="S133" t="n">
-        <v>244</v>
+        <v>194</v>
       </c>
       <c r="T133" t="n">
         <v>400</v>
@@ -11075,25 +11075,25 @@
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M134" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N134" t="n">
-        <v>75000</v>
+        <v>125000</v>
       </c>
       <c r="O134" t="n">
-        <v>80000</v>
+        <v>130000</v>
       </c>
       <c r="P134" t="n">
-        <v>77500</v>
+        <v>127500</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
@@ -11106,7 +11106,7 @@
         </is>
       </c>
       <c r="S134" t="n">
-        <v>194</v>
+        <v>319</v>
       </c>
       <c r="T134" t="n">
         <v>400</v>
@@ -11155,7 +11155,7 @@
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L135" t="inlineStr">
@@ -11164,16 +11164,16 @@
         </is>
       </c>
       <c r="M135" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N135" t="n">
-        <v>95000</v>
+        <v>105000</v>
       </c>
       <c r="O135" t="n">
-        <v>100000</v>
+        <v>110000</v>
       </c>
       <c r="P135" t="n">
-        <v>97500</v>
+        <v>107500</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
@@ -11186,7 +11186,7 @@
         </is>
       </c>
       <c r="S135" t="n">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="T135" t="n">
         <v>400</v>
@@ -11235,7 +11235,7 @@
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L136" t="inlineStr">
@@ -11247,13 +11247,13 @@
         <v>16</v>
       </c>
       <c r="N136" t="n">
-        <v>75000</v>
+        <v>85000</v>
       </c>
       <c r="O136" t="n">
-        <v>80000</v>
+        <v>90000</v>
       </c>
       <c r="P136" t="n">
-        <v>77500</v>
+        <v>87500</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         </is>
       </c>
       <c r="S136" t="n">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="T136" t="n">
         <v>400</v>
@@ -11287,7 +11287,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44321</v>
+        <v>44434</v>
       </c>
       <c r="E137" t="n">
         <v>4</v>
@@ -11315,7 +11315,7 @@
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L137" t="inlineStr">
@@ -11327,13 +11327,13 @@
         <v>20</v>
       </c>
       <c r="N137" t="n">
-        <v>320000</v>
+        <v>95000</v>
       </c>
       <c r="O137" t="n">
-        <v>330000</v>
+        <v>100000</v>
       </c>
       <c r="P137" t="n">
-        <v>325000</v>
+        <v>97500</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="S137" t="n">
-        <v>812</v>
+        <v>244</v>
       </c>
       <c r="T137" t="n">
         <v>400</v>
@@ -11367,7 +11367,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44321</v>
+        <v>44434</v>
       </c>
       <c r="E138" t="n">
         <v>4</v>
@@ -11395,7 +11395,7 @@
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L138" t="inlineStr">
@@ -11407,13 +11407,13 @@
         <v>20</v>
       </c>
       <c r="N138" t="n">
-        <v>280000</v>
+        <v>75000</v>
       </c>
       <c r="O138" t="n">
-        <v>290000</v>
+        <v>80000</v>
       </c>
       <c r="P138" t="n">
-        <v>285000</v>
+        <v>77500</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
@@ -11426,7 +11426,7 @@
         </is>
       </c>
       <c r="S138" t="n">
-        <v>712</v>
+        <v>194</v>
       </c>
       <c r="T138" t="n">
         <v>400</v>
@@ -11447,7 +11447,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44321</v>
+        <v>44434</v>
       </c>
       <c r="E139" t="n">
         <v>4</v>
@@ -11475,7 +11475,7 @@
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L139" t="inlineStr">
@@ -11487,13 +11487,13 @@
         <v>16</v>
       </c>
       <c r="N139" t="n">
-        <v>460000</v>
+        <v>95000</v>
       </c>
       <c r="O139" t="n">
-        <v>470000</v>
+        <v>100000</v>
       </c>
       <c r="P139" t="n">
-        <v>465000</v>
+        <v>97500</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
@@ -11506,7 +11506,7 @@
         </is>
       </c>
       <c r="S139" t="n">
-        <v>1162</v>
+        <v>244</v>
       </c>
       <c r="T139" t="n">
         <v>400</v>
@@ -11527,7 +11527,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44300</v>
+        <v>44434</v>
       </c>
       <c r="E140" t="n">
         <v>4</v>
@@ -11555,25 +11555,25 @@
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M140" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N140" t="n">
-        <v>495000</v>
+        <v>75000</v>
       </c>
       <c r="O140" t="n">
-        <v>500000</v>
+        <v>80000</v>
       </c>
       <c r="P140" t="n">
-        <v>497500</v>
+        <v>77500</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
@@ -11586,7 +11586,7 @@
         </is>
       </c>
       <c r="S140" t="n">
-        <v>1244</v>
+        <v>194</v>
       </c>
       <c r="T140" t="n">
         <v>400</v>
@@ -11607,7 +11607,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44300</v>
+        <v>44321</v>
       </c>
       <c r="E141" t="n">
         <v>4</v>
@@ -11635,7 +11635,7 @@
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L141" t="inlineStr">
@@ -11647,13 +11647,13 @@
         <v>20</v>
       </c>
       <c r="N141" t="n">
-        <v>475000</v>
+        <v>320000</v>
       </c>
       <c r="O141" t="n">
-        <v>480000</v>
+        <v>330000</v>
       </c>
       <c r="P141" t="n">
-        <v>477500</v>
+        <v>325000</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         </is>
       </c>
       <c r="S141" t="n">
-        <v>1194</v>
+        <v>812</v>
       </c>
       <c r="T141" t="n">
         <v>400</v>
@@ -11687,7 +11687,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44399</v>
+        <v>44321</v>
       </c>
       <c r="E142" t="n">
         <v>4</v>
@@ -11715,25 +11715,25 @@
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>Cara cara</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M142" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N142" t="n">
-        <v>120000</v>
+        <v>280000</v>
       </c>
       <c r="O142" t="n">
-        <v>130000</v>
+        <v>290000</v>
       </c>
       <c r="P142" t="n">
-        <v>125000</v>
+        <v>285000</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="S142" t="n">
-        <v>312</v>
+        <v>712</v>
       </c>
       <c r="T142" t="n">
         <v>400</v>
@@ -11767,7 +11767,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44399</v>
+        <v>44321</v>
       </c>
       <c r="E143" t="n">
         <v>4</v>
@@ -11795,7 +11795,7 @@
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L143" t="inlineStr">
@@ -11804,16 +11804,16 @@
         </is>
       </c>
       <c r="M143" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N143" t="n">
-        <v>100000</v>
+        <v>460000</v>
       </c>
       <c r="O143" t="n">
-        <v>110000</v>
+        <v>470000</v>
       </c>
       <c r="P143" t="n">
-        <v>105000</v>
+        <v>465000</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
@@ -11826,7 +11826,7 @@
         </is>
       </c>
       <c r="S143" t="n">
-        <v>262</v>
+        <v>1162</v>
       </c>
       <c r="T143" t="n">
         <v>400</v>
@@ -11847,7 +11847,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44399</v>
+        <v>44300</v>
       </c>
       <c r="E144" t="n">
         <v>4</v>
@@ -11875,25 +11875,25 @@
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M144" t="n">
         <v>20</v>
       </c>
       <c r="N144" t="n">
-        <v>80000</v>
+        <v>495000</v>
       </c>
       <c r="O144" t="n">
-        <v>90000</v>
+        <v>500000</v>
       </c>
       <c r="P144" t="n">
-        <v>85000</v>
+        <v>497500</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
@@ -11906,7 +11906,7 @@
         </is>
       </c>
       <c r="S144" t="n">
-        <v>212</v>
+        <v>1244</v>
       </c>
       <c r="T144" t="n">
         <v>400</v>
@@ -11927,7 +11927,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44399</v>
+        <v>44300</v>
       </c>
       <c r="E145" t="n">
         <v>4</v>
@@ -11955,7 +11955,7 @@
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L145" t="inlineStr">
@@ -11967,13 +11967,13 @@
         <v>20</v>
       </c>
       <c r="N145" t="n">
-        <v>100000</v>
+        <v>475000</v>
       </c>
       <c r="O145" t="n">
-        <v>110000</v>
+        <v>480000</v>
       </c>
       <c r="P145" t="n">
-        <v>105000</v>
+        <v>477500</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         </is>
       </c>
       <c r="S145" t="n">
-        <v>262</v>
+        <v>1194</v>
       </c>
       <c r="T145" t="n">
         <v>400</v>
@@ -12035,7 +12035,7 @@
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Cara cara</t>
         </is>
       </c>
       <c r="L146" t="inlineStr">
@@ -12044,16 +12044,16 @@
         </is>
       </c>
       <c r="M146" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N146" t="n">
-        <v>100000</v>
+        <v>120000</v>
       </c>
       <c r="O146" t="n">
-        <v>110000</v>
+        <v>130000</v>
       </c>
       <c r="P146" t="n">
-        <v>105000</v>
+        <v>125000</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         </is>
       </c>
       <c r="S146" t="n">
-        <v>262</v>
+        <v>312</v>
       </c>
       <c r="T146" t="n">
         <v>400</v>
@@ -12115,25 +12115,25 @@
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M147" t="n">
         <v>20</v>
       </c>
       <c r="N147" t="n">
-        <v>80000</v>
+        <v>100000</v>
       </c>
       <c r="O147" t="n">
-        <v>90000</v>
+        <v>110000</v>
       </c>
       <c r="P147" t="n">
-        <v>85000</v>
+        <v>105000</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="S147" t="n">
-        <v>212</v>
+        <v>262</v>
       </c>
       <c r="T147" t="n">
         <v>400</v>
@@ -12167,7 +12167,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44441</v>
+        <v>44399</v>
       </c>
       <c r="E148" t="n">
         <v>4</v>
@@ -12195,25 +12195,25 @@
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M148" t="n">
         <v>20</v>
       </c>
       <c r="N148" t="n">
-        <v>110000</v>
+        <v>80000</v>
       </c>
       <c r="O148" t="n">
-        <v>120000</v>
+        <v>90000</v>
       </c>
       <c r="P148" t="n">
-        <v>115000</v>
+        <v>85000</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
@@ -12226,7 +12226,7 @@
         </is>
       </c>
       <c r="S148" t="n">
-        <v>288</v>
+        <v>212</v>
       </c>
       <c r="T148" t="n">
         <v>400</v>
@@ -12247,7 +12247,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44441</v>
+        <v>44399</v>
       </c>
       <c r="E149" t="n">
         <v>4</v>
@@ -12280,20 +12280,20 @@
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M149" t="n">
         <v>20</v>
       </c>
       <c r="N149" t="n">
-        <v>90000</v>
+        <v>100000</v>
       </c>
       <c r="O149" t="n">
-        <v>100000</v>
+        <v>110000</v>
       </c>
       <c r="P149" t="n">
-        <v>95000</v>
+        <v>105000</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
@@ -12306,7 +12306,7 @@
         </is>
       </c>
       <c r="S149" t="n">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="T149" t="n">
         <v>400</v>
@@ -12327,7 +12327,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44441</v>
+        <v>44399</v>
       </c>
       <c r="E150" t="n">
         <v>4</v>
@@ -12407,7 +12407,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44441</v>
+        <v>44399</v>
       </c>
       <c r="E151" t="n">
         <v>4</v>
@@ -12487,7 +12487,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44405</v>
+        <v>44441</v>
       </c>
       <c r="E152" t="n">
         <v>4</v>
@@ -12515,7 +12515,7 @@
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>Cara cara</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L152" t="inlineStr">
@@ -12527,13 +12527,13 @@
         <v>20</v>
       </c>
       <c r="N152" t="n">
-        <v>115000</v>
+        <v>110000</v>
       </c>
       <c r="O152" t="n">
         <v>120000</v>
       </c>
       <c r="P152" t="n">
-        <v>117500</v>
+        <v>115000</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="S152" t="n">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="T152" t="n">
         <v>400</v>
@@ -12567,7 +12567,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44405</v>
+        <v>44441</v>
       </c>
       <c r="E153" t="n">
         <v>4</v>
@@ -12595,7 +12595,7 @@
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>Cara cara</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L153" t="inlineStr">
@@ -12604,16 +12604,16 @@
         </is>
       </c>
       <c r="M153" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N153" t="n">
-        <v>95000</v>
+        <v>90000</v>
       </c>
       <c r="O153" t="n">
         <v>100000</v>
       </c>
       <c r="P153" t="n">
-        <v>97500</v>
+        <v>95000</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
@@ -12626,7 +12626,7 @@
         </is>
       </c>
       <c r="S153" t="n">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="T153" t="n">
         <v>400</v>
@@ -12647,7 +12647,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44405</v>
+        <v>44441</v>
       </c>
       <c r="E154" t="n">
         <v>4</v>
@@ -12675,7 +12675,7 @@
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L154" t="inlineStr">
@@ -12727,7 +12727,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44405</v>
+        <v>44441</v>
       </c>
       <c r="E155" t="n">
         <v>4</v>
@@ -12755,7 +12755,7 @@
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L155" t="inlineStr">
@@ -12835,7 +12835,7 @@
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Cara cara</t>
         </is>
       </c>
       <c r="L156" t="inlineStr">
@@ -12847,13 +12847,13 @@
         <v>20</v>
       </c>
       <c r="N156" t="n">
-        <v>100000</v>
+        <v>115000</v>
       </c>
       <c r="O156" t="n">
-        <v>110000</v>
+        <v>120000</v>
       </c>
       <c r="P156" t="n">
-        <v>105000</v>
+        <v>117500</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
@@ -12866,7 +12866,7 @@
         </is>
       </c>
       <c r="S156" t="n">
-        <v>262</v>
+        <v>294</v>
       </c>
       <c r="T156" t="n">
         <v>400</v>
@@ -12915,7 +12915,7 @@
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Cara cara</t>
         </is>
       </c>
       <c r="L157" t="inlineStr">
@@ -12924,16 +12924,16 @@
         </is>
       </c>
       <c r="M157" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N157" t="n">
-        <v>80000</v>
+        <v>95000</v>
       </c>
       <c r="O157" t="n">
-        <v>90000</v>
+        <v>100000</v>
       </c>
       <c r="P157" t="n">
-        <v>85000</v>
+        <v>97500</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="S157" t="n">
-        <v>212</v>
+        <v>244</v>
       </c>
       <c r="T157" t="n">
         <v>400</v>
@@ -12967,7 +12967,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44161</v>
+        <v>44405</v>
       </c>
       <c r="E158" t="n">
         <v>4</v>
@@ -12995,25 +12995,25 @@
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M158" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N158" t="n">
-        <v>325000</v>
+        <v>100000</v>
       </c>
       <c r="O158" t="n">
-        <v>330000</v>
+        <v>110000</v>
       </c>
       <c r="P158" t="n">
-        <v>327500</v>
+        <v>105000</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         </is>
       </c>
       <c r="S158" t="n">
-        <v>819</v>
+        <v>262</v>
       </c>
       <c r="T158" t="n">
         <v>400</v>
@@ -13047,7 +13047,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44161</v>
+        <v>44405</v>
       </c>
       <c r="E159" t="n">
         <v>4</v>
@@ -13075,25 +13075,25 @@
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M159" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N159" t="n">
-        <v>305000</v>
+        <v>80000</v>
       </c>
       <c r="O159" t="n">
-        <v>310000</v>
+        <v>90000</v>
       </c>
       <c r="P159" t="n">
-        <v>307500</v>
+        <v>85000</v>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         </is>
       </c>
       <c r="S159" t="n">
-        <v>769</v>
+        <v>212</v>
       </c>
       <c r="T159" t="n">
         <v>400</v>
@@ -13127,7 +13127,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44161</v>
+        <v>44405</v>
       </c>
       <c r="E160" t="n">
         <v>4</v>
@@ -13155,25 +13155,25 @@
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M160" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N160" t="n">
-        <v>255000</v>
+        <v>100000</v>
       </c>
       <c r="O160" t="n">
-        <v>260000</v>
+        <v>110000</v>
       </c>
       <c r="P160" t="n">
-        <v>257500</v>
+        <v>105000</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         </is>
       </c>
       <c r="S160" t="n">
-        <v>644</v>
+        <v>262</v>
       </c>
       <c r="T160" t="n">
         <v>400</v>
@@ -13207,7 +13207,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44307</v>
+        <v>44405</v>
       </c>
       <c r="E161" t="n">
         <v>4</v>
@@ -13235,25 +13235,25 @@
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M161" t="n">
         <v>20</v>
       </c>
       <c r="N161" t="n">
-        <v>385000</v>
+        <v>80000</v>
       </c>
       <c r="O161" t="n">
-        <v>390000</v>
+        <v>90000</v>
       </c>
       <c r="P161" t="n">
-        <v>387500</v>
+        <v>85000</v>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
@@ -13266,7 +13266,7 @@
         </is>
       </c>
       <c r="S161" t="n">
-        <v>969</v>
+        <v>212</v>
       </c>
       <c r="T161" t="n">
         <v>400</v>
@@ -13287,7 +13287,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44307</v>
+        <v>44161</v>
       </c>
       <c r="E162" t="n">
         <v>4</v>
@@ -13315,25 +13315,25 @@
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M162" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N162" t="n">
-        <v>345000</v>
+        <v>325000</v>
       </c>
       <c r="O162" t="n">
-        <v>350000</v>
+        <v>330000</v>
       </c>
       <c r="P162" t="n">
-        <v>347500</v>
+        <v>327500</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="S162" t="n">
-        <v>869</v>
+        <v>819</v>
       </c>
       <c r="T162" t="n">
         <v>400</v>
@@ -13367,7 +13367,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44307</v>
+        <v>44161</v>
       </c>
       <c r="E163" t="n">
         <v>4</v>
@@ -13395,7 +13395,7 @@
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L163" t="inlineStr">
@@ -13404,16 +13404,16 @@
         </is>
       </c>
       <c r="M163" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N163" t="n">
-        <v>385000</v>
+        <v>305000</v>
       </c>
       <c r="O163" t="n">
-        <v>390000</v>
+        <v>310000</v>
       </c>
       <c r="P163" t="n">
-        <v>387500</v>
+        <v>307500</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
@@ -13426,7 +13426,7 @@
         </is>
       </c>
       <c r="S163" t="n">
-        <v>969</v>
+        <v>769</v>
       </c>
       <c r="T163" t="n">
         <v>400</v>
@@ -13447,7 +13447,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44336</v>
+        <v>44161</v>
       </c>
       <c r="E164" t="n">
         <v>4</v>
@@ -13475,25 +13475,25 @@
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M164" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N164" t="n">
-        <v>250000</v>
+        <v>255000</v>
       </c>
       <c r="O164" t="n">
-        <v>255000</v>
+        <v>260000</v>
       </c>
       <c r="P164" t="n">
-        <v>252500</v>
+        <v>257500</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         </is>
       </c>
       <c r="S164" t="n">
-        <v>631</v>
+        <v>644</v>
       </c>
       <c r="T164" t="n">
         <v>400</v>
@@ -13527,7 +13527,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44336</v>
+        <v>44307</v>
       </c>
       <c r="E165" t="n">
         <v>4</v>
@@ -13555,7 +13555,7 @@
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L165" t="inlineStr">
@@ -13567,13 +13567,13 @@
         <v>20</v>
       </c>
       <c r="N165" t="n">
-        <v>250000</v>
+        <v>385000</v>
       </c>
       <c r="O165" t="n">
-        <v>255000</v>
+        <v>390000</v>
       </c>
       <c r="P165" t="n">
-        <v>252500</v>
+        <v>387500</v>
       </c>
       <c r="Q165" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         </is>
       </c>
       <c r="S165" t="n">
-        <v>631</v>
+        <v>969</v>
       </c>
       <c r="T165" t="n">
         <v>400</v>
@@ -13607,7 +13607,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44426</v>
+        <v>44307</v>
       </c>
       <c r="E166" t="n">
         <v>4</v>
@@ -13635,25 +13635,25 @@
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>Cara cara</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M166" t="n">
         <v>20</v>
       </c>
       <c r="N166" t="n">
-        <v>100000</v>
+        <v>345000</v>
       </c>
       <c r="O166" t="n">
-        <v>110000</v>
+        <v>350000</v>
       </c>
       <c r="P166" t="n">
-        <v>105000</v>
+        <v>347500</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         </is>
       </c>
       <c r="S166" t="n">
-        <v>262</v>
+        <v>869</v>
       </c>
       <c r="T166" t="n">
         <v>400</v>
@@ -13687,7 +13687,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44426</v>
+        <v>44307</v>
       </c>
       <c r="E167" t="n">
         <v>4</v>
@@ -13715,25 +13715,25 @@
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>Cara cara</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M167" t="n">
         <v>20</v>
       </c>
       <c r="N167" t="n">
-        <v>80000</v>
+        <v>385000</v>
       </c>
       <c r="O167" t="n">
-        <v>90000</v>
+        <v>390000</v>
       </c>
       <c r="P167" t="n">
-        <v>85000</v>
+        <v>387500</v>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="S167" t="n">
-        <v>212</v>
+        <v>969</v>
       </c>
       <c r="T167" t="n">
         <v>400</v>
@@ -13767,7 +13767,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44426</v>
+        <v>44336</v>
       </c>
       <c r="E168" t="n">
         <v>4</v>
@@ -13807,13 +13807,13 @@
         <v>20</v>
       </c>
       <c r="N168" t="n">
-        <v>100000</v>
+        <v>250000</v>
       </c>
       <c r="O168" t="n">
-        <v>110000</v>
+        <v>255000</v>
       </c>
       <c r="P168" t="n">
-        <v>105000</v>
+        <v>252500</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
@@ -13826,7 +13826,7 @@
         </is>
       </c>
       <c r="S168" t="n">
-        <v>262</v>
+        <v>631</v>
       </c>
       <c r="T168" t="n">
         <v>400</v>
@@ -13847,7 +13847,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44426</v>
+        <v>44336</v>
       </c>
       <c r="E169" t="n">
         <v>4</v>
@@ -13875,25 +13875,25 @@
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M169" t="n">
         <v>20</v>
       </c>
       <c r="N169" t="n">
-        <v>80000</v>
+        <v>250000</v>
       </c>
       <c r="O169" t="n">
-        <v>90000</v>
+        <v>255000</v>
       </c>
       <c r="P169" t="n">
-        <v>85000</v>
+        <v>252500</v>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
@@ -13906,7 +13906,7 @@
         </is>
       </c>
       <c r="S169" t="n">
-        <v>212</v>
+        <v>631</v>
       </c>
       <c r="T169" t="n">
         <v>400</v>
@@ -13955,7 +13955,7 @@
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Cara cara</t>
         </is>
       </c>
       <c r="L170" t="inlineStr">
@@ -14035,7 +14035,7 @@
       </c>
       <c r="K171" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Cara cara</t>
         </is>
       </c>
       <c r="L171" t="inlineStr">
@@ -14115,7 +14115,7 @@
       </c>
       <c r="K172" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L172" t="inlineStr">
@@ -14195,7 +14195,7 @@
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L173" t="inlineStr">
@@ -14247,7 +14247,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44328</v>
+        <v>44426</v>
       </c>
       <c r="E174" t="n">
         <v>4</v>
@@ -14275,7 +14275,7 @@
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L174" t="inlineStr">
@@ -14287,13 +14287,13 @@
         <v>20</v>
       </c>
       <c r="N174" t="n">
-        <v>290000</v>
+        <v>100000</v>
       </c>
       <c r="O174" t="n">
-        <v>300000</v>
+        <v>110000</v>
       </c>
       <c r="P174" t="n">
-        <v>295000</v>
+        <v>105000</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
@@ -14306,7 +14306,7 @@
         </is>
       </c>
       <c r="S174" t="n">
-        <v>738</v>
+        <v>262</v>
       </c>
       <c r="T174" t="n">
         <v>400</v>
@@ -14327,7 +14327,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44328</v>
+        <v>44426</v>
       </c>
       <c r="E175" t="n">
         <v>4</v>
@@ -14355,25 +14355,25 @@
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M175" t="n">
         <v>20</v>
       </c>
       <c r="N175" t="n">
-        <v>290000</v>
+        <v>80000</v>
       </c>
       <c r="O175" t="n">
-        <v>300000</v>
+        <v>90000</v>
       </c>
       <c r="P175" t="n">
-        <v>295000</v>
+        <v>85000</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         </is>
       </c>
       <c r="S175" t="n">
-        <v>738</v>
+        <v>212</v>
       </c>
       <c r="T175" t="n">
         <v>400</v>
@@ -14407,7 +14407,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44392</v>
+        <v>44426</v>
       </c>
       <c r="E176" t="n">
         <v>4</v>
@@ -14435,7 +14435,7 @@
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>Cara cara</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L176" t="inlineStr">
@@ -14447,13 +14447,13 @@
         <v>20</v>
       </c>
       <c r="N176" t="n">
-        <v>125000</v>
+        <v>100000</v>
       </c>
       <c r="O176" t="n">
-        <v>130000</v>
+        <v>110000</v>
       </c>
       <c r="P176" t="n">
-        <v>127500</v>
+        <v>105000</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         </is>
       </c>
       <c r="S176" t="n">
-        <v>319</v>
+        <v>262</v>
       </c>
       <c r="T176" t="n">
         <v>400</v>
@@ -14487,7 +14487,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44392</v>
+        <v>44426</v>
       </c>
       <c r="E177" t="n">
         <v>4</v>
@@ -14515,25 +14515,25 @@
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M177" t="n">
         <v>20</v>
       </c>
       <c r="N177" t="n">
-        <v>100000</v>
+        <v>80000</v>
       </c>
       <c r="O177" t="n">
-        <v>110000</v>
+        <v>90000</v>
       </c>
       <c r="P177" t="n">
-        <v>105000</v>
+        <v>85000</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="S177" t="n">
-        <v>262</v>
+        <v>212</v>
       </c>
       <c r="T177" t="n">
         <v>400</v>
@@ -14567,7 +14567,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44392</v>
+        <v>44328</v>
       </c>
       <c r="E178" t="n">
         <v>4</v>
@@ -14600,20 +14600,20 @@
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M178" t="n">
         <v>20</v>
       </c>
       <c r="N178" t="n">
-        <v>80000</v>
+        <v>290000</v>
       </c>
       <c r="O178" t="n">
-        <v>90000</v>
+        <v>300000</v>
       </c>
       <c r="P178" t="n">
-        <v>85000</v>
+        <v>295000</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         </is>
       </c>
       <c r="S178" t="n">
-        <v>212</v>
+        <v>738</v>
       </c>
       <c r="T178" t="n">
         <v>400</v>
@@ -14647,7 +14647,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44392</v>
+        <v>44328</v>
       </c>
       <c r="E179" t="n">
         <v>4</v>
@@ -14675,7 +14675,7 @@
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L179" t="inlineStr">
@@ -14687,13 +14687,13 @@
         <v>20</v>
       </c>
       <c r="N179" t="n">
-        <v>100000</v>
+        <v>290000</v>
       </c>
       <c r="O179" t="n">
-        <v>110000</v>
+        <v>300000</v>
       </c>
       <c r="P179" t="n">
-        <v>105000</v>
+        <v>295000</v>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
@@ -14706,7 +14706,7 @@
         </is>
       </c>
       <c r="S179" t="n">
-        <v>262</v>
+        <v>738</v>
       </c>
       <c r="T179" t="n">
         <v>400</v>
@@ -14755,25 +14755,25 @@
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Cara cara</t>
         </is>
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M180" t="n">
         <v>20</v>
       </c>
       <c r="N180" t="n">
-        <v>80000</v>
+        <v>125000</v>
       </c>
       <c r="O180" t="n">
-        <v>90000</v>
+        <v>130000</v>
       </c>
       <c r="P180" t="n">
-        <v>85000</v>
+        <v>127500</v>
       </c>
       <c r="Q180" t="inlineStr">
         <is>
@@ -14786,7 +14786,7 @@
         </is>
       </c>
       <c r="S180" t="n">
-        <v>212</v>
+        <v>319</v>
       </c>
       <c r="T180" t="n">
         <v>400</v>
@@ -14835,7 +14835,7 @@
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L181" t="inlineStr">
@@ -14915,7 +14915,7 @@
       </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L182" t="inlineStr">
@@ -14967,7 +14967,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44448</v>
+        <v>44392</v>
       </c>
       <c r="E183" t="n">
         <v>4</v>
@@ -15007,13 +15007,13 @@
         <v>20</v>
       </c>
       <c r="N183" t="n">
+        <v>100000</v>
+      </c>
+      <c r="O183" t="n">
         <v>110000</v>
       </c>
-      <c r="O183" t="n">
-        <v>120000</v>
-      </c>
       <c r="P183" t="n">
-        <v>115000</v>
+        <v>105000</v>
       </c>
       <c r="Q183" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         </is>
       </c>
       <c r="S183" t="n">
-        <v>288</v>
+        <v>262</v>
       </c>
       <c r="T183" t="n">
         <v>400</v>
@@ -15047,7 +15047,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44448</v>
+        <v>44392</v>
       </c>
       <c r="E184" t="n">
         <v>4</v>
@@ -15127,7 +15127,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44448</v>
+        <v>44392</v>
       </c>
       <c r="E185" t="n">
         <v>4</v>
@@ -15167,13 +15167,13 @@
         <v>20</v>
       </c>
       <c r="N185" t="n">
+        <v>100000</v>
+      </c>
+      <c r="O185" t="n">
         <v>110000</v>
       </c>
-      <c r="O185" t="n">
-        <v>120000</v>
-      </c>
       <c r="P185" t="n">
-        <v>115000</v>
+        <v>105000</v>
       </c>
       <c r="Q185" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         </is>
       </c>
       <c r="S185" t="n">
-        <v>288</v>
+        <v>262</v>
       </c>
       <c r="T185" t="n">
         <v>400</v>
@@ -15207,7 +15207,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44448</v>
+        <v>44392</v>
       </c>
       <c r="E186" t="n">
         <v>4</v>
@@ -15287,7 +15287,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44420</v>
+        <v>44448</v>
       </c>
       <c r="E187" t="n">
         <v>4</v>
@@ -15315,7 +15315,7 @@
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L187" t="inlineStr">
@@ -15327,13 +15327,13 @@
         <v>20</v>
       </c>
       <c r="N187" t="n">
-        <v>115000</v>
+        <v>110000</v>
       </c>
       <c r="O187" t="n">
         <v>120000</v>
       </c>
       <c r="P187" t="n">
-        <v>117500</v>
+        <v>115000</v>
       </c>
       <c r="Q187" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="S187" t="n">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="T187" t="n">
         <v>400</v>
@@ -15367,7 +15367,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44420</v>
+        <v>44448</v>
       </c>
       <c r="E188" t="n">
         <v>4</v>
@@ -15395,7 +15395,7 @@
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L188" t="inlineStr">
@@ -15407,13 +15407,13 @@
         <v>20</v>
       </c>
       <c r="N188" t="n">
-        <v>85000</v>
+        <v>80000</v>
       </c>
       <c r="O188" t="n">
         <v>90000</v>
       </c>
       <c r="P188" t="n">
-        <v>87500</v>
+        <v>85000</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
@@ -15426,7 +15426,7 @@
         </is>
       </c>
       <c r="S188" t="n">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="T188" t="n">
         <v>400</v>
@@ -15447,7 +15447,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44420</v>
+        <v>44448</v>
       </c>
       <c r="E189" t="n">
         <v>4</v>
@@ -15487,13 +15487,13 @@
         <v>20</v>
       </c>
       <c r="N189" t="n">
-        <v>105000</v>
+        <v>110000</v>
       </c>
       <c r="O189" t="n">
-        <v>110000</v>
+        <v>120000</v>
       </c>
       <c r="P189" t="n">
-        <v>107500</v>
+        <v>115000</v>
       </c>
       <c r="Q189" t="inlineStr">
         <is>
@@ -15506,7 +15506,7 @@
         </is>
       </c>
       <c r="S189" t="n">
-        <v>269</v>
+        <v>288</v>
       </c>
       <c r="T189" t="n">
         <v>400</v>
@@ -15527,7 +15527,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44420</v>
+        <v>44448</v>
       </c>
       <c r="E190" t="n">
         <v>4</v>
@@ -15567,13 +15567,13 @@
         <v>20</v>
       </c>
       <c r="N190" t="n">
-        <v>75000</v>
+        <v>80000</v>
       </c>
       <c r="O190" t="n">
-        <v>80000</v>
+        <v>90000</v>
       </c>
       <c r="P190" t="n">
-        <v>77500</v>
+        <v>85000</v>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         </is>
       </c>
       <c r="S190" t="n">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="T190" t="n">
         <v>400</v>
@@ -15607,7 +15607,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44370</v>
+        <v>44420</v>
       </c>
       <c r="E191" t="n">
         <v>4</v>
@@ -15644,16 +15644,16 @@
         </is>
       </c>
       <c r="M191" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N191" t="n">
-        <v>125000</v>
+        <v>115000</v>
       </c>
       <c r="O191" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="P191" t="n">
-        <v>127500</v>
+        <v>117500</v>
       </c>
       <c r="Q191" t="inlineStr">
         <is>
@@ -15666,7 +15666,7 @@
         </is>
       </c>
       <c r="S191" t="n">
-        <v>319</v>
+        <v>294</v>
       </c>
       <c r="T191" t="n">
         <v>400</v>
@@ -15687,7 +15687,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44370</v>
+        <v>44420</v>
       </c>
       <c r="E192" t="n">
         <v>4</v>
@@ -15727,13 +15727,13 @@
         <v>20</v>
       </c>
       <c r="N192" t="n">
-        <v>105000</v>
+        <v>85000</v>
       </c>
       <c r="O192" t="n">
-        <v>110000</v>
+        <v>90000</v>
       </c>
       <c r="P192" t="n">
-        <v>107500</v>
+        <v>87500</v>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="S192" t="n">
-        <v>269</v>
+        <v>219</v>
       </c>
       <c r="T192" t="n">
         <v>400</v>
@@ -15767,7 +15767,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44370</v>
+        <v>44420</v>
       </c>
       <c r="E193" t="n">
         <v>4</v>
@@ -15807,13 +15807,13 @@
         <v>20</v>
       </c>
       <c r="N193" t="n">
-        <v>135000</v>
+        <v>105000</v>
       </c>
       <c r="O193" t="n">
-        <v>140000</v>
+        <v>110000</v>
       </c>
       <c r="P193" t="n">
-        <v>137500</v>
+        <v>107500</v>
       </c>
       <c r="Q193" t="inlineStr">
         <is>
@@ -15826,7 +15826,7 @@
         </is>
       </c>
       <c r="S193" t="n">
-        <v>344</v>
+        <v>269</v>
       </c>
       <c r="T193" t="n">
         <v>400</v>
@@ -15847,7 +15847,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44370</v>
+        <v>44420</v>
       </c>
       <c r="E194" t="n">
         <v>4</v>
@@ -15887,13 +15887,13 @@
         <v>20</v>
       </c>
       <c r="N194" t="n">
-        <v>115000</v>
+        <v>75000</v>
       </c>
       <c r="O194" t="n">
-        <v>120000</v>
+        <v>80000</v>
       </c>
       <c r="P194" t="n">
-        <v>117500</v>
+        <v>77500</v>
       </c>
       <c r="Q194" t="inlineStr">
         <is>
@@ -15906,7 +15906,7 @@
         </is>
       </c>
       <c r="S194" t="n">
-        <v>294</v>
+        <v>194</v>
       </c>
       <c r="T194" t="n">
         <v>400</v>
@@ -15955,7 +15955,7 @@
       </c>
       <c r="K195" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L195" t="inlineStr">
@@ -15964,16 +15964,16 @@
         </is>
       </c>
       <c r="M195" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N195" t="n">
-        <v>135000</v>
+        <v>125000</v>
       </c>
       <c r="O195" t="n">
-        <v>140000</v>
+        <v>130000</v>
       </c>
       <c r="P195" t="n">
-        <v>137500</v>
+        <v>127500</v>
       </c>
       <c r="Q195" t="inlineStr">
         <is>
@@ -15986,7 +15986,7 @@
         </is>
       </c>
       <c r="S195" t="n">
-        <v>344</v>
+        <v>319</v>
       </c>
       <c r="T195" t="n">
         <v>400</v>
@@ -16035,7 +16035,7 @@
       </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L196" t="inlineStr">
@@ -16047,13 +16047,13 @@
         <v>20</v>
       </c>
       <c r="N196" t="n">
-        <v>115000</v>
+        <v>105000</v>
       </c>
       <c r="O196" t="n">
-        <v>120000</v>
+        <v>110000</v>
       </c>
       <c r="P196" t="n">
-        <v>117500</v>
+        <v>107500</v>
       </c>
       <c r="Q196" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         </is>
       </c>
       <c r="S196" t="n">
-        <v>294</v>
+        <v>269</v>
       </c>
       <c r="T196" t="n">
         <v>400</v>
@@ -16087,7 +16087,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44237</v>
+        <v>44370</v>
       </c>
       <c r="E197" t="n">
         <v>4</v>
@@ -16115,7 +16115,7 @@
       </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L197" t="inlineStr">
@@ -16127,13 +16127,13 @@
         <v>20</v>
       </c>
       <c r="N197" t="n">
-        <v>485000</v>
+        <v>135000</v>
       </c>
       <c r="O197" t="n">
-        <v>490000</v>
+        <v>140000</v>
       </c>
       <c r="P197" t="n">
-        <v>487500</v>
+        <v>137500</v>
       </c>
       <c r="Q197" t="inlineStr">
         <is>
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="S197" t="n">
-        <v>1219</v>
+        <v>344</v>
       </c>
       <c r="T197" t="n">
         <v>400</v>
@@ -16167,7 +16167,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44237</v>
+        <v>44370</v>
       </c>
       <c r="E198" t="n">
         <v>4</v>
@@ -16195,7 +16195,7 @@
       </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L198" t="inlineStr">
@@ -16207,13 +16207,13 @@
         <v>20</v>
       </c>
       <c r="N198" t="n">
-        <v>455000</v>
+        <v>115000</v>
       </c>
       <c r="O198" t="n">
-        <v>460000</v>
+        <v>120000</v>
       </c>
       <c r="P198" t="n">
-        <v>457500</v>
+        <v>117500</v>
       </c>
       <c r="Q198" t="inlineStr">
         <is>
@@ -16226,7 +16226,7 @@
         </is>
       </c>
       <c r="S198" t="n">
-        <v>1144</v>
+        <v>294</v>
       </c>
       <c r="T198" t="n">
         <v>400</v>
@@ -16247,7 +16247,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44167</v>
+        <v>44370</v>
       </c>
       <c r="E199" t="n">
         <v>4</v>
@@ -16275,7 +16275,7 @@
       </c>
       <c r="K199" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L199" t="inlineStr">
@@ -16287,13 +16287,13 @@
         <v>20</v>
       </c>
       <c r="N199" t="n">
-        <v>320000</v>
+        <v>135000</v>
       </c>
       <c r="O199" t="n">
-        <v>330000</v>
+        <v>140000</v>
       </c>
       <c r="P199" t="n">
-        <v>325000</v>
+        <v>137500</v>
       </c>
       <c r="Q199" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         </is>
       </c>
       <c r="S199" t="n">
-        <v>812</v>
+        <v>344</v>
       </c>
       <c r="T199" t="n">
         <v>400</v>
@@ -16327,7 +16327,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44167</v>
+        <v>44370</v>
       </c>
       <c r="E200" t="n">
         <v>4</v>
@@ -16355,7 +16355,7 @@
       </c>
       <c r="K200" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L200" t="inlineStr">
@@ -16367,13 +16367,13 @@
         <v>20</v>
       </c>
       <c r="N200" t="n">
-        <v>280000</v>
+        <v>115000</v>
       </c>
       <c r="O200" t="n">
-        <v>290000</v>
+        <v>120000</v>
       </c>
       <c r="P200" t="n">
-        <v>285000</v>
+        <v>117500</v>
       </c>
       <c r="Q200" t="inlineStr">
         <is>
@@ -16386,7 +16386,7 @@
         </is>
       </c>
       <c r="S200" t="n">
-        <v>712</v>
+        <v>294</v>
       </c>
       <c r="T200" t="n">
         <v>400</v>
@@ -16407,7 +16407,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44167</v>
+        <v>44237</v>
       </c>
       <c r="E201" t="n">
         <v>4</v>
@@ -16447,13 +16447,13 @@
         <v>20</v>
       </c>
       <c r="N201" t="n">
-        <v>330000</v>
+        <v>485000</v>
       </c>
       <c r="O201" t="n">
-        <v>340000</v>
+        <v>490000</v>
       </c>
       <c r="P201" t="n">
-        <v>335000</v>
+        <v>487500</v>
       </c>
       <c r="Q201" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         </is>
       </c>
       <c r="S201" t="n">
-        <v>838</v>
+        <v>1219</v>
       </c>
       <c r="T201" t="n">
         <v>400</v>
@@ -16487,7 +16487,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44167</v>
+        <v>44237</v>
       </c>
       <c r="E202" t="n">
         <v>4</v>
@@ -16527,13 +16527,13 @@
         <v>20</v>
       </c>
       <c r="N202" t="n">
-        <v>290000</v>
+        <v>455000</v>
       </c>
       <c r="O202" t="n">
-        <v>300000</v>
+        <v>460000</v>
       </c>
       <c r="P202" t="n">
-        <v>295000</v>
+        <v>457500</v>
       </c>
       <c r="Q202" t="inlineStr">
         <is>
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="S202" t="n">
-        <v>738</v>
+        <v>1144</v>
       </c>
       <c r="T202" t="n">
         <v>400</v>
@@ -16567,7 +16567,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44210</v>
+        <v>44167</v>
       </c>
       <c r="E203" t="n">
         <v>4</v>
@@ -16595,25 +16595,25 @@
       </c>
       <c r="K203" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M203" t="n">
         <v>20</v>
       </c>
       <c r="N203" t="n">
-        <v>475000</v>
+        <v>320000</v>
       </c>
       <c r="O203" t="n">
-        <v>480000</v>
+        <v>330000</v>
       </c>
       <c r="P203" t="n">
-        <v>477500</v>
+        <v>325000</v>
       </c>
       <c r="Q203" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         </is>
       </c>
       <c r="S203" t="n">
-        <v>1194</v>
+        <v>812</v>
       </c>
       <c r="T203" t="n">
         <v>400</v>
@@ -16647,7 +16647,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44210</v>
+        <v>44167</v>
       </c>
       <c r="E204" t="n">
         <v>4</v>
@@ -16675,25 +16675,25 @@
       </c>
       <c r="K204" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M204" t="n">
         <v>20</v>
       </c>
       <c r="N204" t="n">
-        <v>425000</v>
+        <v>280000</v>
       </c>
       <c r="O204" t="n">
-        <v>430000</v>
+        <v>290000</v>
       </c>
       <c r="P204" t="n">
-        <v>427500</v>
+        <v>285000</v>
       </c>
       <c r="Q204" t="inlineStr">
         <is>
@@ -16706,7 +16706,7 @@
         </is>
       </c>
       <c r="S204" t="n">
-        <v>1069</v>
+        <v>712</v>
       </c>
       <c r="T204" t="n">
         <v>400</v>
@@ -16727,7 +16727,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44210</v>
+        <v>44167</v>
       </c>
       <c r="E205" t="n">
         <v>4</v>
@@ -16760,20 +16760,20 @@
       </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M205" t="n">
         <v>20</v>
       </c>
       <c r="N205" t="n">
-        <v>375000</v>
+        <v>330000</v>
       </c>
       <c r="O205" t="n">
-        <v>380000</v>
+        <v>340000</v>
       </c>
       <c r="P205" t="n">
-        <v>377500</v>
+        <v>335000</v>
       </c>
       <c r="Q205" t="inlineStr">
         <is>
@@ -16786,7 +16786,7 @@
         </is>
       </c>
       <c r="S205" t="n">
-        <v>944</v>
+        <v>838</v>
       </c>
       <c r="T205" t="n">
         <v>400</v>
@@ -16807,7 +16807,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44217</v>
+        <v>44167</v>
       </c>
       <c r="E206" t="n">
         <v>4</v>
@@ -16840,20 +16840,20 @@
       </c>
       <c r="L206" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M206" t="n">
         <v>20</v>
       </c>
       <c r="N206" t="n">
-        <v>465000</v>
+        <v>290000</v>
       </c>
       <c r="O206" t="n">
-        <v>470000</v>
+        <v>300000</v>
       </c>
       <c r="P206" t="n">
-        <v>467500</v>
+        <v>295000</v>
       </c>
       <c r="Q206" t="inlineStr">
         <is>
@@ -16866,7 +16866,7 @@
         </is>
       </c>
       <c r="S206" t="n">
-        <v>1169</v>
+        <v>738</v>
       </c>
       <c r="T206" t="n">
         <v>400</v>
@@ -16887,7 +16887,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44217</v>
+        <v>44210</v>
       </c>
       <c r="E207" t="n">
         <v>4</v>
@@ -16920,20 +16920,20 @@
       </c>
       <c r="L207" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M207" t="n">
         <v>20</v>
       </c>
       <c r="N207" t="n">
-        <v>425000</v>
+        <v>475000</v>
       </c>
       <c r="O207" t="n">
-        <v>430000</v>
+        <v>480000</v>
       </c>
       <c r="P207" t="n">
-        <v>427500</v>
+        <v>477500</v>
       </c>
       <c r="Q207" t="inlineStr">
         <is>
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="S207" t="n">
-        <v>1069</v>
+        <v>1194</v>
       </c>
       <c r="T207" t="n">
         <v>400</v>
@@ -16967,7 +16967,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44266</v>
+        <v>44210</v>
       </c>
       <c r="E208" t="n">
         <v>4</v>
@@ -17007,13 +17007,13 @@
         <v>20</v>
       </c>
       <c r="N208" t="n">
-        <v>450000</v>
+        <v>425000</v>
       </c>
       <c r="O208" t="n">
-        <v>455000</v>
+        <v>430000</v>
       </c>
       <c r="P208" t="n">
-        <v>452500</v>
+        <v>427500</v>
       </c>
       <c r="Q208" t="inlineStr">
         <is>
@@ -17026,7 +17026,7 @@
         </is>
       </c>
       <c r="S208" t="n">
-        <v>1131</v>
+        <v>1069</v>
       </c>
       <c r="T208" t="n">
         <v>400</v>
@@ -17047,7 +17047,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44266</v>
+        <v>44210</v>
       </c>
       <c r="E209" t="n">
         <v>4</v>
@@ -17087,13 +17087,13 @@
         <v>20</v>
       </c>
       <c r="N209" t="n">
-        <v>410000</v>
+        <v>375000</v>
       </c>
       <c r="O209" t="n">
-        <v>415000</v>
+        <v>380000</v>
       </c>
       <c r="P209" t="n">
-        <v>412500</v>
+        <v>377500</v>
       </c>
       <c r="Q209" t="inlineStr">
         <is>
@@ -17106,7 +17106,7 @@
         </is>
       </c>
       <c r="S209" t="n">
-        <v>1031</v>
+        <v>944</v>
       </c>
       <c r="T209" t="n">
         <v>400</v>
@@ -17127,7 +17127,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44350</v>
+        <v>44217</v>
       </c>
       <c r="E210" t="n">
         <v>4</v>
@@ -17155,7 +17155,7 @@
       </c>
       <c r="K210" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L210" t="inlineStr">
@@ -17167,13 +17167,13 @@
         <v>20</v>
       </c>
       <c r="N210" t="n">
-        <v>200000</v>
+        <v>465000</v>
       </c>
       <c r="O210" t="n">
-        <v>210000</v>
+        <v>470000</v>
       </c>
       <c r="P210" t="n">
-        <v>205000</v>
+        <v>467500</v>
       </c>
       <c r="Q210" t="inlineStr">
         <is>
@@ -17186,7 +17186,7 @@
         </is>
       </c>
       <c r="S210" t="n">
-        <v>512</v>
+        <v>1169</v>
       </c>
       <c r="T210" t="n">
         <v>400</v>
@@ -17207,7 +17207,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44350</v>
+        <v>44217</v>
       </c>
       <c r="E211" t="n">
         <v>4</v>
@@ -17235,7 +17235,7 @@
       </c>
       <c r="K211" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L211" t="inlineStr">
@@ -17247,13 +17247,13 @@
         <v>20</v>
       </c>
       <c r="N211" t="n">
-        <v>170000</v>
+        <v>425000</v>
       </c>
       <c r="O211" t="n">
-        <v>180000</v>
+        <v>430000</v>
       </c>
       <c r="P211" t="n">
-        <v>175000</v>
+        <v>427500</v>
       </c>
       <c r="Q211" t="inlineStr">
         <is>
@@ -17266,7 +17266,7 @@
         </is>
       </c>
       <c r="S211" t="n">
-        <v>438</v>
+        <v>1069</v>
       </c>
       <c r="T211" t="n">
         <v>400</v>
@@ -17287,7 +17287,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44350</v>
+        <v>44266</v>
       </c>
       <c r="E212" t="n">
         <v>4</v>
@@ -17315,7 +17315,7 @@
       </c>
       <c r="K212" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L212" t="inlineStr">
@@ -17327,13 +17327,13 @@
         <v>20</v>
       </c>
       <c r="N212" t="n">
-        <v>200000</v>
+        <v>450000</v>
       </c>
       <c r="O212" t="n">
-        <v>210000</v>
+        <v>455000</v>
       </c>
       <c r="P212" t="n">
-        <v>205000</v>
+        <v>452500</v>
       </c>
       <c r="Q212" t="inlineStr">
         <is>
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="S212" t="n">
-        <v>512</v>
+        <v>1131</v>
       </c>
       <c r="T212" t="n">
         <v>400</v>
@@ -17367,7 +17367,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44350</v>
+        <v>44266</v>
       </c>
       <c r="E213" t="n">
         <v>4</v>
@@ -17395,7 +17395,7 @@
       </c>
       <c r="K213" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L213" t="inlineStr">
@@ -17407,13 +17407,13 @@
         <v>20</v>
       </c>
       <c r="N213" t="n">
-        <v>170000</v>
+        <v>410000</v>
       </c>
       <c r="O213" t="n">
-        <v>180000</v>
+        <v>415000</v>
       </c>
       <c r="P213" t="n">
-        <v>175000</v>
+        <v>412500</v>
       </c>
       <c r="Q213" t="inlineStr">
         <is>
@@ -17426,7 +17426,7 @@
         </is>
       </c>
       <c r="S213" t="n">
-        <v>438</v>
+        <v>1031</v>
       </c>
       <c r="T213" t="n">
         <v>400</v>
@@ -17447,7 +17447,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44455</v>
+        <v>44350</v>
       </c>
       <c r="E214" t="n">
         <v>4</v>
@@ -17475,7 +17475,7 @@
       </c>
       <c r="K214" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L214" t="inlineStr">
@@ -17487,13 +17487,13 @@
         <v>20</v>
       </c>
       <c r="N214" t="n">
-        <v>110000</v>
+        <v>200000</v>
       </c>
       <c r="O214" t="n">
-        <v>120000</v>
+        <v>210000</v>
       </c>
       <c r="P214" t="n">
-        <v>115000</v>
+        <v>205000</v>
       </c>
       <c r="Q214" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         </is>
       </c>
       <c r="S214" t="n">
-        <v>288</v>
+        <v>512</v>
       </c>
       <c r="T214" t="n">
         <v>400</v>
@@ -17527,7 +17527,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44455</v>
+        <v>44350</v>
       </c>
       <c r="E215" t="n">
         <v>4</v>
@@ -17555,7 +17555,7 @@
       </c>
       <c r="K215" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L215" t="inlineStr">
@@ -17567,13 +17567,13 @@
         <v>20</v>
       </c>
       <c r="N215" t="n">
-        <v>90000</v>
+        <v>170000</v>
       </c>
       <c r="O215" t="n">
-        <v>100000</v>
+        <v>180000</v>
       </c>
       <c r="P215" t="n">
-        <v>95000</v>
+        <v>175000</v>
       </c>
       <c r="Q215" t="inlineStr">
         <is>
@@ -17586,7 +17586,7 @@
         </is>
       </c>
       <c r="S215" t="n">
-        <v>238</v>
+        <v>438</v>
       </c>
       <c r="T215" t="n">
         <v>400</v>
@@ -17607,7 +17607,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44455</v>
+        <v>44350</v>
       </c>
       <c r="E216" t="n">
         <v>4</v>
@@ -17635,7 +17635,7 @@
       </c>
       <c r="K216" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L216" t="inlineStr">
@@ -17647,13 +17647,13 @@
         <v>20</v>
       </c>
       <c r="N216" t="n">
-        <v>110000</v>
+        <v>200000</v>
       </c>
       <c r="O216" t="n">
-        <v>120000</v>
+        <v>210000</v>
       </c>
       <c r="P216" t="n">
-        <v>115000</v>
+        <v>205000</v>
       </c>
       <c r="Q216" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         </is>
       </c>
       <c r="S216" t="n">
-        <v>288</v>
+        <v>512</v>
       </c>
       <c r="T216" t="n">
         <v>400</v>
@@ -17687,7 +17687,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44455</v>
+        <v>44350</v>
       </c>
       <c r="E217" t="n">
         <v>4</v>
@@ -17715,7 +17715,7 @@
       </c>
       <c r="K217" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L217" t="inlineStr">
@@ -17727,13 +17727,13 @@
         <v>20</v>
       </c>
       <c r="N217" t="n">
-        <v>90000</v>
+        <v>170000</v>
       </c>
       <c r="O217" t="n">
-        <v>100000</v>
+        <v>180000</v>
       </c>
       <c r="P217" t="n">
-        <v>95000</v>
+        <v>175000</v>
       </c>
       <c r="Q217" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="S217" t="n">
-        <v>238</v>
+        <v>438</v>
       </c>
       <c r="T217" t="n">
         <v>400</v>
@@ -17767,7 +17767,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44427</v>
+        <v>44455</v>
       </c>
       <c r="E218" t="n">
         <v>4</v>
@@ -17795,25 +17795,25 @@
       </c>
       <c r="K218" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L218" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M218" t="n">
         <v>20</v>
       </c>
       <c r="N218" t="n">
+        <v>110000</v>
+      </c>
+      <c r="O218" t="n">
         <v>120000</v>
       </c>
-      <c r="O218" t="n">
-        <v>130000</v>
-      </c>
       <c r="P218" t="n">
-        <v>125000</v>
+        <v>115000</v>
       </c>
       <c r="Q218" t="inlineStr">
         <is>
@@ -17826,7 +17826,7 @@
         </is>
       </c>
       <c r="S218" t="n">
-        <v>312</v>
+        <v>288</v>
       </c>
       <c r="T218" t="n">
         <v>400</v>
@@ -17847,7 +17847,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44427</v>
+        <v>44455</v>
       </c>
       <c r="E219" t="n">
         <v>4</v>
@@ -17875,25 +17875,25 @@
       </c>
       <c r="K219" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L219" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M219" t="n">
         <v>20</v>
       </c>
       <c r="N219" t="n">
+        <v>90000</v>
+      </c>
+      <c r="O219" t="n">
         <v>100000</v>
       </c>
-      <c r="O219" t="n">
-        <v>110000</v>
-      </c>
       <c r="P219" t="n">
-        <v>105000</v>
+        <v>95000</v>
       </c>
       <c r="Q219" t="inlineStr">
         <is>
@@ -17906,7 +17906,7 @@
         </is>
       </c>
       <c r="S219" t="n">
-        <v>262</v>
+        <v>238</v>
       </c>
       <c r="T219" t="n">
         <v>400</v>
@@ -17927,7 +17927,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44427</v>
+        <v>44455</v>
       </c>
       <c r="E220" t="n">
         <v>4</v>
@@ -17955,25 +17955,25 @@
       </c>
       <c r="K220" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L220" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M220" t="n">
         <v>20</v>
       </c>
       <c r="N220" t="n">
-        <v>80000</v>
+        <v>110000</v>
       </c>
       <c r="O220" t="n">
-        <v>90000</v>
+        <v>120000</v>
       </c>
       <c r="P220" t="n">
-        <v>85000</v>
+        <v>115000</v>
       </c>
       <c r="Q220" t="inlineStr">
         <is>
@@ -17986,7 +17986,7 @@
         </is>
       </c>
       <c r="S220" t="n">
-        <v>212</v>
+        <v>288</v>
       </c>
       <c r="T220" t="n">
         <v>400</v>
@@ -18007,7 +18007,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44427</v>
+        <v>44455</v>
       </c>
       <c r="E221" t="n">
         <v>4</v>
@@ -18040,20 +18040,20 @@
       </c>
       <c r="L221" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M221" t="n">
         <v>20</v>
       </c>
       <c r="N221" t="n">
+        <v>90000</v>
+      </c>
+      <c r="O221" t="n">
         <v>100000</v>
       </c>
-      <c r="O221" t="n">
-        <v>110000</v>
-      </c>
       <c r="P221" t="n">
-        <v>105000</v>
+        <v>95000</v>
       </c>
       <c r="Q221" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         </is>
       </c>
       <c r="S221" t="n">
-        <v>262</v>
+        <v>238</v>
       </c>
       <c r="T221" t="n">
         <v>400</v>
@@ -18115,25 +18115,25 @@
       </c>
       <c r="K222" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L222" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M222" t="n">
         <v>20</v>
       </c>
       <c r="N222" t="n">
-        <v>80000</v>
+        <v>120000</v>
       </c>
       <c r="O222" t="n">
-        <v>90000</v>
+        <v>130000</v>
       </c>
       <c r="P222" t="n">
-        <v>85000</v>
+        <v>125000</v>
       </c>
       <c r="Q222" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="S222" t="n">
-        <v>212</v>
+        <v>312</v>
       </c>
       <c r="T222" t="n">
         <v>400</v>
@@ -18167,7 +18167,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44265</v>
+        <v>44427</v>
       </c>
       <c r="E223" t="n">
         <v>4</v>
@@ -18195,7 +18195,7 @@
       </c>
       <c r="K223" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L223" t="inlineStr">
@@ -18207,13 +18207,13 @@
         <v>20</v>
       </c>
       <c r="N223" t="n">
-        <v>455000</v>
+        <v>100000</v>
       </c>
       <c r="O223" t="n">
-        <v>460000</v>
+        <v>110000</v>
       </c>
       <c r="P223" t="n">
-        <v>457500</v>
+        <v>105000</v>
       </c>
       <c r="Q223" t="inlineStr">
         <is>
@@ -18226,7 +18226,7 @@
         </is>
       </c>
       <c r="S223" t="n">
-        <v>1144</v>
+        <v>262</v>
       </c>
       <c r="T223" t="n">
         <v>400</v>
@@ -18247,7 +18247,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44265</v>
+        <v>44427</v>
       </c>
       <c r="E224" t="n">
         <v>4</v>
@@ -18275,7 +18275,7 @@
       </c>
       <c r="K224" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L224" t="inlineStr">
@@ -18287,13 +18287,13 @@
         <v>20</v>
       </c>
       <c r="N224" t="n">
-        <v>415000</v>
+        <v>80000</v>
       </c>
       <c r="O224" t="n">
-        <v>420000</v>
+        <v>90000</v>
       </c>
       <c r="P224" t="n">
-        <v>417500</v>
+        <v>85000</v>
       </c>
       <c r="Q224" t="inlineStr">
         <is>
@@ -18306,7 +18306,7 @@
         </is>
       </c>
       <c r="S224" t="n">
-        <v>1044</v>
+        <v>212</v>
       </c>
       <c r="T224" t="n">
         <v>400</v>
@@ -18327,7 +18327,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44343</v>
+        <v>44427</v>
       </c>
       <c r="E225" t="n">
         <v>4</v>
@@ -18355,25 +18355,25 @@
       </c>
       <c r="K225" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L225" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M225" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N225" t="n">
-        <v>235000</v>
+        <v>100000</v>
       </c>
       <c r="O225" t="n">
-        <v>240000</v>
+        <v>110000</v>
       </c>
       <c r="P225" t="n">
-        <v>237500</v>
+        <v>105000</v>
       </c>
       <c r="Q225" t="inlineStr">
         <is>
@@ -18386,7 +18386,7 @@
         </is>
       </c>
       <c r="S225" t="n">
-        <v>594</v>
+        <v>262</v>
       </c>
       <c r="T225" t="n">
         <v>400</v>
@@ -18407,7 +18407,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44343</v>
+        <v>44427</v>
       </c>
       <c r="E226" t="n">
         <v>4</v>
@@ -18435,25 +18435,25 @@
       </c>
       <c r="K226" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L226" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M226" t="n">
         <v>20</v>
       </c>
       <c r="N226" t="n">
-        <v>195000</v>
+        <v>80000</v>
       </c>
       <c r="O226" t="n">
-        <v>200000</v>
+        <v>90000</v>
       </c>
       <c r="P226" t="n">
-        <v>197500</v>
+        <v>85000</v>
       </c>
       <c r="Q226" t="inlineStr">
         <is>
@@ -18466,7 +18466,7 @@
         </is>
       </c>
       <c r="S226" t="n">
-        <v>494</v>
+        <v>212</v>
       </c>
       <c r="T226" t="n">
         <v>400</v>
@@ -18487,7 +18487,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E227" t="n">
         <v>4</v>
@@ -18515,25 +18515,25 @@
       </c>
       <c r="K227" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L227" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M227" t="n">
         <v>20</v>
       </c>
       <c r="N227" t="n">
-        <v>165000</v>
+        <v>455000</v>
       </c>
       <c r="O227" t="n">
-        <v>170000</v>
+        <v>460000</v>
       </c>
       <c r="P227" t="n">
-        <v>167500</v>
+        <v>457500</v>
       </c>
       <c r="Q227" t="inlineStr">
         <is>
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="S227" t="n">
-        <v>419</v>
+        <v>1144</v>
       </c>
       <c r="T227" t="n">
         <v>400</v>
@@ -18567,7 +18567,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44280</v>
+        <v>44265</v>
       </c>
       <c r="E228" t="n">
         <v>4</v>
@@ -18600,20 +18600,20 @@
       </c>
       <c r="L228" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M228" t="n">
         <v>20</v>
       </c>
       <c r="N228" t="n">
-        <v>455000</v>
+        <v>415000</v>
       </c>
       <c r="O228" t="n">
-        <v>460000</v>
+        <v>420000</v>
       </c>
       <c r="P228" t="n">
-        <v>457500</v>
+        <v>417500</v>
       </c>
       <c r="Q228" t="inlineStr">
         <is>
@@ -18626,7 +18626,7 @@
         </is>
       </c>
       <c r="S228" t="n">
-        <v>1144</v>
+        <v>1044</v>
       </c>
       <c r="T228" t="n">
         <v>400</v>
@@ -18647,7 +18647,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44280</v>
+        <v>44343</v>
       </c>
       <c r="E229" t="n">
         <v>4</v>
@@ -18675,25 +18675,25 @@
       </c>
       <c r="K229" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L229" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M229" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N229" t="n">
-        <v>415000</v>
+        <v>235000</v>
       </c>
       <c r="O229" t="n">
-        <v>420000</v>
+        <v>240000</v>
       </c>
       <c r="P229" t="n">
-        <v>417500</v>
+        <v>237500</v>
       </c>
       <c r="Q229" t="inlineStr">
         <is>
@@ -18706,7 +18706,7 @@
         </is>
       </c>
       <c r="S229" t="n">
-        <v>1044</v>
+        <v>594</v>
       </c>
       <c r="T229" t="n">
         <v>400</v>
@@ -18727,7 +18727,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44447</v>
+        <v>44343</v>
       </c>
       <c r="E230" t="n">
         <v>4</v>
@@ -18755,7 +18755,7 @@
       </c>
       <c r="K230" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L230" t="inlineStr">
@@ -18767,13 +18767,13 @@
         <v>20</v>
       </c>
       <c r="N230" t="n">
-        <v>110000</v>
+        <v>195000</v>
       </c>
       <c r="O230" t="n">
-        <v>120000</v>
+        <v>200000</v>
       </c>
       <c r="P230" t="n">
-        <v>115000</v>
+        <v>197500</v>
       </c>
       <c r="Q230" t="inlineStr">
         <is>
@@ -18786,7 +18786,7 @@
         </is>
       </c>
       <c r="S230" t="n">
-        <v>288</v>
+        <v>494</v>
       </c>
       <c r="T230" t="n">
         <v>400</v>
@@ -18807,7 +18807,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44447</v>
+        <v>44343</v>
       </c>
       <c r="E231" t="n">
         <v>4</v>
@@ -18835,7 +18835,7 @@
       </c>
       <c r="K231" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L231" t="inlineStr">
@@ -18844,16 +18844,16 @@
         </is>
       </c>
       <c r="M231" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="N231" t="n">
-        <v>80000</v>
+        <v>165000</v>
       </c>
       <c r="O231" t="n">
-        <v>90000</v>
+        <v>170000</v>
       </c>
       <c r="P231" t="n">
-        <v>86429</v>
+        <v>167500</v>
       </c>
       <c r="Q231" t="inlineStr">
         <is>
@@ -18866,7 +18866,7 @@
         </is>
       </c>
       <c r="S231" t="n">
-        <v>216</v>
+        <v>419</v>
       </c>
       <c r="T231" t="n">
         <v>400</v>
@@ -18887,7 +18887,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E232" t="n">
         <v>4</v>
@@ -18915,7 +18915,7 @@
       </c>
       <c r="K232" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L232" t="inlineStr">
@@ -18927,13 +18927,13 @@
         <v>20</v>
       </c>
       <c r="N232" t="n">
-        <v>110000</v>
+        <v>455000</v>
       </c>
       <c r="O232" t="n">
-        <v>120000</v>
+        <v>460000</v>
       </c>
       <c r="P232" t="n">
-        <v>115000</v>
+        <v>457500</v>
       </c>
       <c r="Q232" t="inlineStr">
         <is>
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="S232" t="n">
-        <v>288</v>
+        <v>1144</v>
       </c>
       <c r="T232" t="n">
         <v>400</v>
@@ -18967,7 +18967,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E233" t="n">
         <v>4</v>
@@ -18995,7 +18995,7 @@
       </c>
       <c r="K233" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L233" t="inlineStr">
@@ -19007,13 +19007,13 @@
         <v>20</v>
       </c>
       <c r="N233" t="n">
-        <v>80000</v>
+        <v>415000</v>
       </c>
       <c r="O233" t="n">
-        <v>90000</v>
+        <v>420000</v>
       </c>
       <c r="P233" t="n">
-        <v>85000</v>
+        <v>417500</v>
       </c>
       <c r="Q233" t="inlineStr">
         <is>
@@ -19026,7 +19026,7 @@
         </is>
       </c>
       <c r="S233" t="n">
-        <v>212</v>
+        <v>1044</v>
       </c>
       <c r="T233" t="n">
         <v>400</v>
@@ -19047,7 +19047,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44468</v>
+        <v>44447</v>
       </c>
       <c r="E234" t="n">
         <v>4</v>
@@ -19087,13 +19087,13 @@
         <v>20</v>
       </c>
       <c r="N234" t="n">
+        <v>110000</v>
+      </c>
+      <c r="O234" t="n">
         <v>120000</v>
       </c>
-      <c r="O234" t="n">
-        <v>130000</v>
-      </c>
       <c r="P234" t="n">
-        <v>125000</v>
+        <v>115000</v>
       </c>
       <c r="Q234" t="inlineStr">
         <is>
@@ -19106,7 +19106,7 @@
         </is>
       </c>
       <c r="S234" t="n">
-        <v>312</v>
+        <v>288</v>
       </c>
       <c r="T234" t="n">
         <v>400</v>
@@ -19127,7 +19127,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44468</v>
+        <v>44447</v>
       </c>
       <c r="E235" t="n">
         <v>4</v>
@@ -19164,16 +19164,16 @@
         </is>
       </c>
       <c r="M235" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N235" t="n">
-        <v>100000</v>
+        <v>80000</v>
       </c>
       <c r="O235" t="n">
-        <v>110000</v>
+        <v>90000</v>
       </c>
       <c r="P235" t="n">
-        <v>105000</v>
+        <v>86429</v>
       </c>
       <c r="Q235" t="inlineStr">
         <is>
@@ -19186,7 +19186,7 @@
         </is>
       </c>
       <c r="S235" t="n">
-        <v>262</v>
+        <v>216</v>
       </c>
       <c r="T235" t="n">
         <v>400</v>
@@ -19207,7 +19207,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44468</v>
+        <v>44447</v>
       </c>
       <c r="E236" t="n">
         <v>4</v>
@@ -19244,16 +19244,16 @@
         </is>
       </c>
       <c r="M236" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="N236" t="n">
+        <v>110000</v>
+      </c>
+      <c r="O236" t="n">
         <v>120000</v>
       </c>
-      <c r="O236" t="n">
-        <v>130000</v>
-      </c>
       <c r="P236" t="n">
-        <v>126429</v>
+        <v>115000</v>
       </c>
       <c r="Q236" t="inlineStr">
         <is>
@@ -19266,7 +19266,7 @@
         </is>
       </c>
       <c r="S236" t="n">
-        <v>316</v>
+        <v>288</v>
       </c>
       <c r="T236" t="n">
         <v>400</v>
@@ -19287,7 +19287,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44468</v>
+        <v>44447</v>
       </c>
       <c r="E237" t="n">
         <v>4</v>
@@ -19327,13 +19327,13 @@
         <v>20</v>
       </c>
       <c r="N237" t="n">
-        <v>100000</v>
+        <v>80000</v>
       </c>
       <c r="O237" t="n">
-        <v>110000</v>
+        <v>90000</v>
       </c>
       <c r="P237" t="n">
-        <v>105000</v>
+        <v>85000</v>
       </c>
       <c r="Q237" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="S237" t="n">
-        <v>262</v>
+        <v>212</v>
       </c>
       <c r="T237" t="n">
         <v>400</v>
@@ -19367,7 +19367,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44308</v>
+        <v>44468</v>
       </c>
       <c r="E238" t="n">
         <v>4</v>
@@ -19395,7 +19395,7 @@
       </c>
       <c r="K238" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L238" t="inlineStr">
@@ -19407,13 +19407,13 @@
         <v>20</v>
       </c>
       <c r="N238" t="n">
-        <v>385000</v>
+        <v>120000</v>
       </c>
       <c r="O238" t="n">
-        <v>390000</v>
+        <v>130000</v>
       </c>
       <c r="P238" t="n">
-        <v>387500</v>
+        <v>125000</v>
       </c>
       <c r="Q238" t="inlineStr">
         <is>
@@ -19426,7 +19426,7 @@
         </is>
       </c>
       <c r="S238" t="n">
-        <v>969</v>
+        <v>312</v>
       </c>
       <c r="T238" t="n">
         <v>400</v>
@@ -19447,7 +19447,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44308</v>
+        <v>44468</v>
       </c>
       <c r="E239" t="n">
         <v>4</v>
@@ -19475,7 +19475,7 @@
       </c>
       <c r="K239" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L239" t="inlineStr">
@@ -19487,13 +19487,13 @@
         <v>20</v>
       </c>
       <c r="N239" t="n">
-        <v>345000</v>
+        <v>100000</v>
       </c>
       <c r="O239" t="n">
-        <v>350000</v>
+        <v>110000</v>
       </c>
       <c r="P239" t="n">
-        <v>347500</v>
+        <v>105000</v>
       </c>
       <c r="Q239" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         </is>
       </c>
       <c r="S239" t="n">
-        <v>869</v>
+        <v>262</v>
       </c>
       <c r="T239" t="n">
         <v>400</v>
@@ -19527,7 +19527,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44308</v>
+        <v>44468</v>
       </c>
       <c r="E240" t="n">
         <v>4</v>
@@ -19555,7 +19555,7 @@
       </c>
       <c r="K240" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L240" t="inlineStr">
@@ -19564,16 +19564,16 @@
         </is>
       </c>
       <c r="M240" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N240" t="n">
-        <v>385000</v>
+        <v>120000</v>
       </c>
       <c r="O240" t="n">
-        <v>390000</v>
+        <v>130000</v>
       </c>
       <c r="P240" t="n">
-        <v>387500</v>
+        <v>126429</v>
       </c>
       <c r="Q240" t="inlineStr">
         <is>
@@ -19586,7 +19586,7 @@
         </is>
       </c>
       <c r="S240" t="n">
-        <v>969</v>
+        <v>316</v>
       </c>
       <c r="T240" t="n">
         <v>400</v>
@@ -19607,7 +19607,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44308</v>
+        <v>44468</v>
       </c>
       <c r="E241" t="n">
         <v>4</v>
@@ -19635,7 +19635,7 @@
       </c>
       <c r="K241" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L241" t="inlineStr">
@@ -19647,13 +19647,13 @@
         <v>20</v>
       </c>
       <c r="N241" t="n">
-        <v>345000</v>
+        <v>100000</v>
       </c>
       <c r="O241" t="n">
-        <v>350000</v>
+        <v>110000</v>
       </c>
       <c r="P241" t="n">
-        <v>347500</v>
+        <v>105000</v>
       </c>
       <c r="Q241" t="inlineStr">
         <is>
@@ -19666,7 +19666,7 @@
         </is>
       </c>
       <c r="S241" t="n">
-        <v>869</v>
+        <v>262</v>
       </c>
       <c r="T241" t="n">
         <v>400</v>
@@ -19715,7 +19715,7 @@
       </c>
       <c r="K242" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L242" t="inlineStr">
@@ -19727,13 +19727,13 @@
         <v>20</v>
       </c>
       <c r="N242" t="n">
-        <v>495000</v>
+        <v>385000</v>
       </c>
       <c r="O242" t="n">
-        <v>500000</v>
+        <v>390000</v>
       </c>
       <c r="P242" t="n">
-        <v>497500</v>
+        <v>387500</v>
       </c>
       <c r="Q242" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="S242" t="n">
-        <v>1244</v>
+        <v>969</v>
       </c>
       <c r="T242" t="n">
         <v>400</v>
@@ -19767,7 +19767,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44301</v>
+        <v>44308</v>
       </c>
       <c r="E243" t="n">
         <v>4</v>
@@ -19795,25 +19795,25 @@
       </c>
       <c r="K243" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L243" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M243" t="n">
         <v>20</v>
       </c>
       <c r="N243" t="n">
-        <v>495000</v>
+        <v>345000</v>
       </c>
       <c r="O243" t="n">
-        <v>500000</v>
+        <v>350000</v>
       </c>
       <c r="P243" t="n">
-        <v>497500</v>
+        <v>347500</v>
       </c>
       <c r="Q243" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         </is>
       </c>
       <c r="S243" t="n">
-        <v>1244</v>
+        <v>869</v>
       </c>
       <c r="T243" t="n">
         <v>400</v>
@@ -19847,7 +19847,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44301</v>
+        <v>44308</v>
       </c>
       <c r="E244" t="n">
         <v>4</v>
@@ -19875,7 +19875,7 @@
       </c>
       <c r="K244" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L244" t="inlineStr">
@@ -19887,13 +19887,13 @@
         <v>20</v>
       </c>
       <c r="N244" t="n">
-        <v>475000</v>
+        <v>385000</v>
       </c>
       <c r="O244" t="n">
-        <v>480000</v>
+        <v>390000</v>
       </c>
       <c r="P244" t="n">
-        <v>477500</v>
+        <v>387500</v>
       </c>
       <c r="Q244" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         </is>
       </c>
       <c r="S244" t="n">
-        <v>1194</v>
+        <v>969</v>
       </c>
       <c r="T244" t="n">
         <v>400</v>
@@ -19927,7 +19927,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44251</v>
+        <v>44308</v>
       </c>
       <c r="E245" t="n">
         <v>4</v>
@@ -19955,25 +19955,25 @@
       </c>
       <c r="K245" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L245" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M245" t="n">
         <v>20</v>
       </c>
       <c r="N245" t="n">
-        <v>455000</v>
+        <v>345000</v>
       </c>
       <c r="O245" t="n">
-        <v>460000</v>
+        <v>350000</v>
       </c>
       <c r="P245" t="n">
-        <v>457500</v>
+        <v>347500</v>
       </c>
       <c r="Q245" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         </is>
       </c>
       <c r="S245" t="n">
-        <v>1144</v>
+        <v>869</v>
       </c>
       <c r="T245" t="n">
         <v>400</v>
@@ -20007,7 +20007,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44251</v>
+        <v>44308</v>
       </c>
       <c r="E246" t="n">
         <v>4</v>
@@ -20040,20 +20040,20 @@
       </c>
       <c r="L246" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M246" t="n">
         <v>20</v>
       </c>
       <c r="N246" t="n">
-        <v>415000</v>
+        <v>495000</v>
       </c>
       <c r="O246" t="n">
-        <v>420000</v>
+        <v>500000</v>
       </c>
       <c r="P246" t="n">
-        <v>417500</v>
+        <v>497500</v>
       </c>
       <c r="Q246" t="inlineStr">
         <is>
@@ -20066,7 +20066,7 @@
         </is>
       </c>
       <c r="S246" t="n">
-        <v>1044</v>
+        <v>1244</v>
       </c>
       <c r="T246" t="n">
         <v>400</v>
@@ -20087,7 +20087,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44252</v>
+        <v>44301</v>
       </c>
       <c r="E247" t="n">
         <v>4</v>
@@ -20120,20 +20120,20 @@
       </c>
       <c r="L247" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M247" t="n">
         <v>20</v>
       </c>
       <c r="N247" t="n">
-        <v>455000</v>
+        <v>495000</v>
       </c>
       <c r="O247" t="n">
-        <v>460000</v>
+        <v>500000</v>
       </c>
       <c r="P247" t="n">
-        <v>457500</v>
+        <v>497500</v>
       </c>
       <c r="Q247" t="inlineStr">
         <is>
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="S247" t="n">
-        <v>1144</v>
+        <v>1244</v>
       </c>
       <c r="T247" t="n">
         <v>400</v>
@@ -20167,7 +20167,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44252</v>
+        <v>44301</v>
       </c>
       <c r="E248" t="n">
         <v>4</v>
@@ -20200,20 +20200,20 @@
       </c>
       <c r="L248" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M248" t="n">
         <v>20</v>
       </c>
       <c r="N248" t="n">
-        <v>41500</v>
+        <v>475000</v>
       </c>
       <c r="O248" t="n">
-        <v>420000</v>
+        <v>480000</v>
       </c>
       <c r="P248" t="n">
-        <v>230750</v>
+        <v>477500</v>
       </c>
       <c r="Q248" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         </is>
       </c>
       <c r="S248" t="n">
-        <v>577</v>
+        <v>1194</v>
       </c>
       <c r="T248" t="n">
         <v>400</v>
@@ -20247,7 +20247,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44168</v>
+        <v>44251</v>
       </c>
       <c r="E249" t="n">
         <v>4</v>
@@ -20275,7 +20275,7 @@
       </c>
       <c r="K249" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L249" t="inlineStr">
@@ -20287,13 +20287,13 @@
         <v>20</v>
       </c>
       <c r="N249" t="n">
-        <v>325000</v>
+        <v>455000</v>
       </c>
       <c r="O249" t="n">
-        <v>330000</v>
+        <v>460000</v>
       </c>
       <c r="P249" t="n">
-        <v>327500</v>
+        <v>457500</v>
       </c>
       <c r="Q249" t="inlineStr">
         <is>
@@ -20306,7 +20306,7 @@
         </is>
       </c>
       <c r="S249" t="n">
-        <v>819</v>
+        <v>1144</v>
       </c>
       <c r="T249" t="n">
         <v>400</v>
@@ -20327,7 +20327,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44168</v>
+        <v>44251</v>
       </c>
       <c r="E250" t="n">
         <v>4</v>
@@ -20355,7 +20355,7 @@
       </c>
       <c r="K250" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L250" t="inlineStr">
@@ -20367,13 +20367,13 @@
         <v>20</v>
       </c>
       <c r="N250" t="n">
-        <v>285000</v>
+        <v>415000</v>
       </c>
       <c r="O250" t="n">
-        <v>290000</v>
+        <v>420000</v>
       </c>
       <c r="P250" t="n">
-        <v>287500</v>
+        <v>417500</v>
       </c>
       <c r="Q250" t="inlineStr">
         <is>
@@ -20386,7 +20386,7 @@
         </is>
       </c>
       <c r="S250" t="n">
-        <v>719</v>
+        <v>1044</v>
       </c>
       <c r="T250" t="n">
         <v>400</v>
@@ -20407,7 +20407,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44168</v>
+        <v>44252</v>
       </c>
       <c r="E251" t="n">
         <v>4</v>
@@ -20440,20 +20440,20 @@
       </c>
       <c r="L251" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M251" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N251" t="n">
-        <v>355000</v>
+        <v>455000</v>
       </c>
       <c r="O251" t="n">
-        <v>360000</v>
+        <v>460000</v>
       </c>
       <c r="P251" t="n">
-        <v>357500</v>
+        <v>457500</v>
       </c>
       <c r="Q251" t="inlineStr">
         <is>
@@ -20466,7 +20466,7 @@
         </is>
       </c>
       <c r="S251" t="n">
-        <v>894</v>
+        <v>1144</v>
       </c>
       <c r="T251" t="n">
         <v>400</v>
@@ -20487,7 +20487,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44168</v>
+        <v>44252</v>
       </c>
       <c r="E252" t="n">
         <v>4</v>
@@ -20520,20 +20520,20 @@
       </c>
       <c r="L252" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M252" t="n">
         <v>20</v>
       </c>
       <c r="N252" t="n">
-        <v>335000</v>
+        <v>41500</v>
       </c>
       <c r="O252" t="n">
-        <v>340000</v>
+        <v>420000</v>
       </c>
       <c r="P252" t="n">
-        <v>337500</v>
+        <v>230750</v>
       </c>
       <c r="Q252" t="inlineStr">
         <is>
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="S252" t="n">
-        <v>844</v>
+        <v>577</v>
       </c>
       <c r="T252" t="n">
         <v>400</v>
@@ -20595,25 +20595,25 @@
       </c>
       <c r="K253" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L253" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M253" t="n">
         <v>20</v>
       </c>
       <c r="N253" t="n">
-        <v>295000</v>
+        <v>325000</v>
       </c>
       <c r="O253" t="n">
-        <v>300000</v>
+        <v>330000</v>
       </c>
       <c r="P253" t="n">
-        <v>297500</v>
+        <v>327500</v>
       </c>
       <c r="Q253" t="inlineStr">
         <is>
@@ -20626,7 +20626,7 @@
         </is>
       </c>
       <c r="S253" t="n">
-        <v>744</v>
+        <v>819</v>
       </c>
       <c r="T253" t="n">
         <v>400</v>
@@ -20647,7 +20647,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44433</v>
+        <v>44168</v>
       </c>
       <c r="E254" t="n">
         <v>4</v>
@@ -20675,25 +20675,25 @@
       </c>
       <c r="K254" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L254" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M254" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N254" t="n">
-        <v>125000</v>
+        <v>285000</v>
       </c>
       <c r="O254" t="n">
-        <v>130000</v>
+        <v>290000</v>
       </c>
       <c r="P254" t="n">
-        <v>127500</v>
+        <v>287500</v>
       </c>
       <c r="Q254" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         </is>
       </c>
       <c r="S254" t="n">
-        <v>319</v>
+        <v>719</v>
       </c>
       <c r="T254" t="n">
         <v>400</v>
@@ -20727,7 +20727,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44433</v>
+        <v>44168</v>
       </c>
       <c r="E255" t="n">
         <v>4</v>
@@ -20755,25 +20755,25 @@
       </c>
       <c r="K255" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L255" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M255" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N255" t="n">
-        <v>105000</v>
+        <v>355000</v>
       </c>
       <c r="O255" t="n">
-        <v>110000</v>
+        <v>360000</v>
       </c>
       <c r="P255" t="n">
-        <v>107500</v>
+        <v>357500</v>
       </c>
       <c r="Q255" t="inlineStr">
         <is>
@@ -20786,7 +20786,7 @@
         </is>
       </c>
       <c r="S255" t="n">
-        <v>269</v>
+        <v>894</v>
       </c>
       <c r="T255" t="n">
         <v>400</v>
@@ -20807,7 +20807,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44433</v>
+        <v>44168</v>
       </c>
       <c r="E256" t="n">
         <v>4</v>
@@ -20835,25 +20835,25 @@
       </c>
       <c r="K256" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L256" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M256" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="N256" t="n">
-        <v>85000</v>
+        <v>335000</v>
       </c>
       <c r="O256" t="n">
-        <v>90000</v>
+        <v>340000</v>
       </c>
       <c r="P256" t="n">
-        <v>88214</v>
+        <v>337500</v>
       </c>
       <c r="Q256" t="inlineStr">
         <is>
@@ -20866,7 +20866,7 @@
         </is>
       </c>
       <c r="S256" t="n">
-        <v>221</v>
+        <v>844</v>
       </c>
       <c r="T256" t="n">
         <v>400</v>
@@ -20887,7 +20887,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44433</v>
+        <v>44168</v>
       </c>
       <c r="E257" t="n">
         <v>4</v>
@@ -20915,25 +20915,25 @@
       </c>
       <c r="K257" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L257" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M257" t="n">
         <v>20</v>
       </c>
       <c r="N257" t="n">
-        <v>95000</v>
+        <v>295000</v>
       </c>
       <c r="O257" t="n">
-        <v>100000</v>
+        <v>300000</v>
       </c>
       <c r="P257" t="n">
-        <v>97500</v>
+        <v>297500</v>
       </c>
       <c r="Q257" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="S257" t="n">
-        <v>244</v>
+        <v>744</v>
       </c>
       <c r="T257" t="n">
         <v>400</v>
@@ -20995,25 +20995,25 @@
       </c>
       <c r="K258" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L258" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M258" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N258" t="n">
-        <v>75000</v>
+        <v>125000</v>
       </c>
       <c r="O258" t="n">
-        <v>80000</v>
+        <v>130000</v>
       </c>
       <c r="P258" t="n">
-        <v>77500</v>
+        <v>127500</v>
       </c>
       <c r="Q258" t="inlineStr">
         <is>
@@ -21026,7 +21026,7 @@
         </is>
       </c>
       <c r="S258" t="n">
-        <v>194</v>
+        <v>319</v>
       </c>
       <c r="T258" t="n">
         <v>400</v>
@@ -21075,7 +21075,7 @@
       </c>
       <c r="K259" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L259" t="inlineStr">
@@ -21087,13 +21087,13 @@
         <v>20</v>
       </c>
       <c r="N259" t="n">
-        <v>95000</v>
+        <v>105000</v>
       </c>
       <c r="O259" t="n">
-        <v>100000</v>
+        <v>110000</v>
       </c>
       <c r="P259" t="n">
-        <v>97500</v>
+        <v>107500</v>
       </c>
       <c r="Q259" t="inlineStr">
         <is>
@@ -21106,7 +21106,7 @@
         </is>
       </c>
       <c r="S259" t="n">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="T259" t="n">
         <v>400</v>
@@ -21155,7 +21155,7 @@
       </c>
       <c r="K260" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L260" t="inlineStr">
@@ -21164,16 +21164,16 @@
         </is>
       </c>
       <c r="M260" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N260" t="n">
-        <v>75000</v>
+        <v>85000</v>
       </c>
       <c r="O260" t="n">
-        <v>80000</v>
+        <v>90000</v>
       </c>
       <c r="P260" t="n">
-        <v>77500</v>
+        <v>88214</v>
       </c>
       <c r="Q260" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         </is>
       </c>
       <c r="S260" t="n">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="T260" t="n">
         <v>400</v>
@@ -21207,7 +21207,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E261" t="n">
         <v>4</v>
@@ -21235,7 +21235,7 @@
       </c>
       <c r="K261" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L261" t="inlineStr">
@@ -21247,13 +21247,13 @@
         <v>20</v>
       </c>
       <c r="N261" t="n">
-        <v>125000</v>
+        <v>95000</v>
       </c>
       <c r="O261" t="n">
-        <v>130000</v>
+        <v>100000</v>
       </c>
       <c r="P261" t="n">
-        <v>127500</v>
+        <v>97500</v>
       </c>
       <c r="Q261" t="inlineStr">
         <is>
@@ -21266,7 +21266,7 @@
         </is>
       </c>
       <c r="S261" t="n">
-        <v>319</v>
+        <v>244</v>
       </c>
       <c r="T261" t="n">
         <v>400</v>
@@ -21287,7 +21287,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E262" t="n">
         <v>4</v>
@@ -21315,7 +21315,7 @@
       </c>
       <c r="K262" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L262" t="inlineStr">
@@ -21327,13 +21327,13 @@
         <v>20</v>
       </c>
       <c r="N262" t="n">
-        <v>105000</v>
+        <v>75000</v>
       </c>
       <c r="O262" t="n">
-        <v>110000</v>
+        <v>80000</v>
       </c>
       <c r="P262" t="n">
-        <v>107500</v>
+        <v>77500</v>
       </c>
       <c r="Q262" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="S262" t="n">
-        <v>269</v>
+        <v>194</v>
       </c>
       <c r="T262" t="n">
         <v>400</v>
@@ -21367,7 +21367,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E263" t="n">
         <v>4</v>
@@ -21400,20 +21400,20 @@
       </c>
       <c r="L263" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M263" t="n">
         <v>20</v>
       </c>
       <c r="N263" t="n">
-        <v>155000</v>
+        <v>95000</v>
       </c>
       <c r="O263" t="n">
-        <v>160000</v>
+        <v>100000</v>
       </c>
       <c r="P263" t="n">
-        <v>157500</v>
+        <v>97500</v>
       </c>
       <c r="Q263" t="inlineStr">
         <is>
@@ -21426,7 +21426,7 @@
         </is>
       </c>
       <c r="S263" t="n">
-        <v>394</v>
+        <v>244</v>
       </c>
       <c r="T263" t="n">
         <v>400</v>
@@ -21447,7 +21447,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E264" t="n">
         <v>4</v>
@@ -21480,20 +21480,20 @@
       </c>
       <c r="L264" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M264" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N264" t="n">
-        <v>135000</v>
+        <v>75000</v>
       </c>
       <c r="O264" t="n">
-        <v>140000</v>
+        <v>80000</v>
       </c>
       <c r="P264" t="n">
-        <v>137500</v>
+        <v>77500</v>
       </c>
       <c r="Q264" t="inlineStr">
         <is>
@@ -21506,7 +21506,7 @@
         </is>
       </c>
       <c r="S264" t="n">
-        <v>344</v>
+        <v>194</v>
       </c>
       <c r="T264" t="n">
         <v>400</v>
@@ -21555,25 +21555,25 @@
       </c>
       <c r="K265" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L265" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M265" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N265" t="n">
-        <v>115000</v>
+        <v>125000</v>
       </c>
       <c r="O265" t="n">
-        <v>120000</v>
+        <v>130000</v>
       </c>
       <c r="P265" t="n">
-        <v>117500</v>
+        <v>127500</v>
       </c>
       <c r="Q265" t="inlineStr">
         <is>
@@ -21586,7 +21586,7 @@
         </is>
       </c>
       <c r="S265" t="n">
-        <v>294</v>
+        <v>319</v>
       </c>
       <c r="T265" t="n">
         <v>400</v>
@@ -21635,25 +21635,25 @@
       </c>
       <c r="K266" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L266" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M266" t="n">
         <v>20</v>
       </c>
       <c r="N266" t="n">
-        <v>135000</v>
+        <v>105000</v>
       </c>
       <c r="O266" t="n">
-        <v>140000</v>
+        <v>110000</v>
       </c>
       <c r="P266" t="n">
-        <v>137500</v>
+        <v>107500</v>
       </c>
       <c r="Q266" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         </is>
       </c>
       <c r="S266" t="n">
-        <v>344</v>
+        <v>269</v>
       </c>
       <c r="T266" t="n">
         <v>400</v>
@@ -21715,25 +21715,25 @@
       </c>
       <c r="K267" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L267" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M267" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N267" t="n">
-        <v>115000</v>
+        <v>155000</v>
       </c>
       <c r="O267" t="n">
-        <v>120000</v>
+        <v>160000</v>
       </c>
       <c r="P267" t="n">
-        <v>117500</v>
+        <v>157500</v>
       </c>
       <c r="Q267" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="S267" t="n">
-        <v>294</v>
+        <v>394</v>
       </c>
       <c r="T267" t="n">
         <v>400</v>
@@ -21767,7 +21767,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44279</v>
+        <v>44371</v>
       </c>
       <c r="E268" t="n">
         <v>4</v>
@@ -21795,25 +21795,25 @@
       </c>
       <c r="K268" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L268" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M268" t="n">
         <v>16</v>
       </c>
       <c r="N268" t="n">
-        <v>475000</v>
+        <v>135000</v>
       </c>
       <c r="O268" t="n">
-        <v>480000</v>
+        <v>140000</v>
       </c>
       <c r="P268" t="n">
-        <v>477500</v>
+        <v>137500</v>
       </c>
       <c r="Q268" t="inlineStr">
         <is>
@@ -21826,7 +21826,7 @@
         </is>
       </c>
       <c r="S268" t="n">
-        <v>1194</v>
+        <v>344</v>
       </c>
       <c r="T268" t="n">
         <v>400</v>
@@ -21847,7 +21847,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44279</v>
+        <v>44371</v>
       </c>
       <c r="E269" t="n">
         <v>4</v>
@@ -21875,25 +21875,25 @@
       </c>
       <c r="K269" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L269" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M269" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N269" t="n">
-        <v>455000</v>
+        <v>115000</v>
       </c>
       <c r="O269" t="n">
-        <v>460000</v>
+        <v>120000</v>
       </c>
       <c r="P269" t="n">
-        <v>457500</v>
+        <v>117500</v>
       </c>
       <c r="Q269" t="inlineStr">
         <is>
@@ -21906,7 +21906,7 @@
         </is>
       </c>
       <c r="S269" t="n">
-        <v>1144</v>
+        <v>294</v>
       </c>
       <c r="T269" t="n">
         <v>400</v>
@@ -21927,7 +21927,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44279</v>
+        <v>44371</v>
       </c>
       <c r="E270" t="n">
         <v>4</v>
@@ -21955,25 +21955,25 @@
       </c>
       <c r="K270" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L270" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M270" t="n">
         <v>20</v>
       </c>
       <c r="N270" t="n">
-        <v>415000</v>
+        <v>135000</v>
       </c>
       <c r="O270" t="n">
-        <v>420000</v>
+        <v>140000</v>
       </c>
       <c r="P270" t="n">
-        <v>417500</v>
+        <v>137500</v>
       </c>
       <c r="Q270" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
         </is>
       </c>
       <c r="S270" t="n">
-        <v>1044</v>
+        <v>344</v>
       </c>
       <c r="T270" t="n">
         <v>400</v>
@@ -22007,7 +22007,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44363</v>
+        <v>44371</v>
       </c>
       <c r="E271" t="n">
         <v>4</v>
@@ -22035,25 +22035,25 @@
       </c>
       <c r="K271" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L271" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M271" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N271" t="n">
-        <v>135000</v>
+        <v>115000</v>
       </c>
       <c r="O271" t="n">
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="P271" t="n">
-        <v>137500</v>
+        <v>117500</v>
       </c>
       <c r="Q271" t="inlineStr">
         <is>
@@ -22066,7 +22066,7 @@
         </is>
       </c>
       <c r="S271" t="n">
-        <v>344</v>
+        <v>294</v>
       </c>
       <c r="T271" t="n">
         <v>400</v>
@@ -22087,7 +22087,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44363</v>
+        <v>44279</v>
       </c>
       <c r="E272" t="n">
         <v>4</v>
@@ -22115,25 +22115,25 @@
       </c>
       <c r="K272" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L272" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M272" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N272" t="n">
-        <v>115000</v>
+        <v>475000</v>
       </c>
       <c r="O272" t="n">
-        <v>120000</v>
+        <v>480000</v>
       </c>
       <c r="P272" t="n">
-        <v>117500</v>
+        <v>477500</v>
       </c>
       <c r="Q272" t="inlineStr">
         <is>
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="S272" t="n">
-        <v>294</v>
+        <v>1194</v>
       </c>
       <c r="T272" t="n">
         <v>400</v>
@@ -22167,7 +22167,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44363</v>
+        <v>44279</v>
       </c>
       <c r="E273" t="n">
         <v>4</v>
@@ -22195,7 +22195,7 @@
       </c>
       <c r="K273" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L273" t="inlineStr">
@@ -22207,13 +22207,13 @@
         <v>20</v>
       </c>
       <c r="N273" t="n">
-        <v>145000</v>
+        <v>455000</v>
       </c>
       <c r="O273" t="n">
-        <v>150000</v>
+        <v>460000</v>
       </c>
       <c r="P273" t="n">
-        <v>147500</v>
+        <v>457500</v>
       </c>
       <c r="Q273" t="inlineStr">
         <is>
@@ -22226,7 +22226,7 @@
         </is>
       </c>
       <c r="S273" t="n">
-        <v>369</v>
+        <v>1144</v>
       </c>
       <c r="T273" t="n">
         <v>400</v>
@@ -22247,7 +22247,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44363</v>
+        <v>44279</v>
       </c>
       <c r="E274" t="n">
         <v>4</v>
@@ -22275,7 +22275,7 @@
       </c>
       <c r="K274" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L274" t="inlineStr">
@@ -22287,13 +22287,13 @@
         <v>20</v>
       </c>
       <c r="N274" t="n">
-        <v>125000</v>
+        <v>415000</v>
       </c>
       <c r="O274" t="n">
-        <v>130000</v>
+        <v>420000</v>
       </c>
       <c r="P274" t="n">
-        <v>127500</v>
+        <v>417500</v>
       </c>
       <c r="Q274" t="inlineStr">
         <is>
@@ -22306,7 +22306,7 @@
         </is>
       </c>
       <c r="S274" t="n">
-        <v>319</v>
+        <v>1044</v>
       </c>
       <c r="T274" t="n">
         <v>400</v>
@@ -22327,7 +22327,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44273</v>
+        <v>44363</v>
       </c>
       <c r="E275" t="n">
         <v>4</v>
@@ -22355,25 +22355,25 @@
       </c>
       <c r="K275" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L275" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M275" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N275" t="n">
-        <v>475000</v>
+        <v>135000</v>
       </c>
       <c r="O275" t="n">
-        <v>480000</v>
+        <v>140000</v>
       </c>
       <c r="P275" t="n">
-        <v>477500</v>
+        <v>137500</v>
       </c>
       <c r="Q275" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         </is>
       </c>
       <c r="S275" t="n">
-        <v>1194</v>
+        <v>344</v>
       </c>
       <c r="T275" t="n">
         <v>400</v>
@@ -22407,7 +22407,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44273</v>
+        <v>44363</v>
       </c>
       <c r="E276" t="n">
         <v>4</v>
@@ -22435,25 +22435,25 @@
       </c>
       <c r="K276" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L276" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M276" t="n">
         <v>20</v>
       </c>
       <c r="N276" t="n">
-        <v>455000</v>
+        <v>115000</v>
       </c>
       <c r="O276" t="n">
-        <v>460000</v>
+        <v>120000</v>
       </c>
       <c r="P276" t="n">
-        <v>457500</v>
+        <v>117500</v>
       </c>
       <c r="Q276" t="inlineStr">
         <is>
@@ -22466,7 +22466,7 @@
         </is>
       </c>
       <c r="S276" t="n">
-        <v>1144</v>
+        <v>294</v>
       </c>
       <c r="T276" t="n">
         <v>400</v>
@@ -22487,7 +22487,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44273</v>
+        <v>44363</v>
       </c>
       <c r="E277" t="n">
         <v>4</v>
@@ -22515,25 +22515,25 @@
       </c>
       <c r="K277" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L277" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M277" t="n">
         <v>20</v>
       </c>
       <c r="N277" t="n">
-        <v>415000</v>
+        <v>145000</v>
       </c>
       <c r="O277" t="n">
-        <v>420000</v>
+        <v>150000</v>
       </c>
       <c r="P277" t="n">
-        <v>417500</v>
+        <v>147500</v>
       </c>
       <c r="Q277" t="inlineStr">
         <is>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="S277" t="n">
-        <v>1044</v>
+        <v>369</v>
       </c>
       <c r="T277" t="n">
         <v>400</v>
@@ -22567,7 +22567,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44286</v>
+        <v>44363</v>
       </c>
       <c r="E278" t="n">
         <v>4</v>
@@ -22595,25 +22595,25 @@
       </c>
       <c r="K278" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L278" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M278" t="n">
         <v>20</v>
       </c>
       <c r="N278" t="n">
-        <v>475000</v>
+        <v>125000</v>
       </c>
       <c r="O278" t="n">
-        <v>480000</v>
+        <v>130000</v>
       </c>
       <c r="P278" t="n">
-        <v>477500</v>
+        <v>127500</v>
       </c>
       <c r="Q278" t="inlineStr">
         <is>
@@ -22626,7 +22626,7 @@
         </is>
       </c>
       <c r="S278" t="n">
-        <v>1194</v>
+        <v>319</v>
       </c>
       <c r="T278" t="n">
         <v>400</v>
@@ -22647,7 +22647,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44286</v>
+        <v>44273</v>
       </c>
       <c r="E279" t="n">
         <v>4</v>
@@ -22680,20 +22680,20 @@
       </c>
       <c r="L279" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M279" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N279" t="n">
-        <v>455000</v>
+        <v>475000</v>
       </c>
       <c r="O279" t="n">
-        <v>460000</v>
+        <v>480000</v>
       </c>
       <c r="P279" t="n">
-        <v>457500</v>
+        <v>477500</v>
       </c>
       <c r="Q279" t="inlineStr">
         <is>
@@ -22706,7 +22706,7 @@
         </is>
       </c>
       <c r="S279" t="n">
-        <v>1144</v>
+        <v>1194</v>
       </c>
       <c r="T279" t="n">
         <v>400</v>
@@ -22727,7 +22727,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44209</v>
+        <v>44273</v>
       </c>
       <c r="E280" t="n">
         <v>4</v>
@@ -22760,20 +22760,20 @@
       </c>
       <c r="L280" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M280" t="n">
         <v>20</v>
       </c>
       <c r="N280" t="n">
-        <v>465000</v>
+        <v>455000</v>
       </c>
       <c r="O280" t="n">
-        <v>470000</v>
+        <v>460000</v>
       </c>
       <c r="P280" t="n">
-        <v>467500</v>
+        <v>457500</v>
       </c>
       <c r="Q280" t="inlineStr">
         <is>
@@ -22786,7 +22786,7 @@
         </is>
       </c>
       <c r="S280" t="n">
-        <v>1169</v>
+        <v>1144</v>
       </c>
       <c r="T280" t="n">
         <v>400</v>
@@ -22807,7 +22807,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44209</v>
+        <v>44273</v>
       </c>
       <c r="E281" t="n">
         <v>4</v>
@@ -22840,7 +22840,7 @@
       </c>
       <c r="L281" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M281" t="n">
@@ -22887,7 +22887,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E282" t="n">
         <v>4</v>
@@ -22920,20 +22920,20 @@
       </c>
       <c r="L282" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M282" t="n">
         <v>20</v>
       </c>
       <c r="N282" t="n">
-        <v>365000</v>
+        <v>475000</v>
       </c>
       <c r="O282" t="n">
-        <v>370000</v>
+        <v>480000</v>
       </c>
       <c r="P282" t="n">
-        <v>367500</v>
+        <v>477500</v>
       </c>
       <c r="Q282" t="inlineStr">
         <is>
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="S282" t="n">
-        <v>919</v>
+        <v>1194</v>
       </c>
       <c r="T282" t="n">
         <v>400</v>
@@ -22967,7 +22967,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E283" t="n">
         <v>4</v>
@@ -22995,7 +22995,7 @@
       </c>
       <c r="K283" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L283" t="inlineStr">
@@ -23007,13 +23007,13 @@
         <v>20</v>
       </c>
       <c r="N283" t="n">
-        <v>145000</v>
+        <v>455000</v>
       </c>
       <c r="O283" t="n">
-        <v>150000</v>
+        <v>460000</v>
       </c>
       <c r="P283" t="n">
-        <v>147500</v>
+        <v>457500</v>
       </c>
       <c r="Q283" t="inlineStr">
         <is>
@@ -23026,7 +23026,7 @@
         </is>
       </c>
       <c r="S283" t="n">
-        <v>369</v>
+        <v>1144</v>
       </c>
       <c r="T283" t="n">
         <v>400</v>
@@ -23047,7 +23047,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E284" t="n">
         <v>4</v>
@@ -23075,25 +23075,25 @@
       </c>
       <c r="K284" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L284" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M284" t="n">
         <v>20</v>
       </c>
       <c r="N284" t="n">
-        <v>115000</v>
+        <v>465000</v>
       </c>
       <c r="O284" t="n">
-        <v>120000</v>
+        <v>470000</v>
       </c>
       <c r="P284" t="n">
-        <v>117500</v>
+        <v>467500</v>
       </c>
       <c r="Q284" t="inlineStr">
         <is>
@@ -23106,7 +23106,7 @@
         </is>
       </c>
       <c r="S284" t="n">
-        <v>294</v>
+        <v>1169</v>
       </c>
       <c r="T284" t="n">
         <v>400</v>
@@ -23127,7 +23127,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E285" t="n">
         <v>4</v>
@@ -23155,7 +23155,7 @@
       </c>
       <c r="K285" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L285" t="inlineStr">
@@ -23167,13 +23167,13 @@
         <v>20</v>
       </c>
       <c r="N285" t="n">
-        <v>145000</v>
+        <v>415000</v>
       </c>
       <c r="O285" t="n">
-        <v>150000</v>
+        <v>420000</v>
       </c>
       <c r="P285" t="n">
-        <v>147500</v>
+        <v>417500</v>
       </c>
       <c r="Q285" t="inlineStr">
         <is>
@@ -23186,7 +23186,7 @@
         </is>
       </c>
       <c r="S285" t="n">
-        <v>369</v>
+        <v>1044</v>
       </c>
       <c r="T285" t="n">
         <v>400</v>
@@ -23207,7 +23207,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E286" t="n">
         <v>4</v>
@@ -23235,7 +23235,7 @@
       </c>
       <c r="K286" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L286" t="inlineStr">
@@ -23247,13 +23247,13 @@
         <v>20</v>
       </c>
       <c r="N286" t="n">
-        <v>115000</v>
+        <v>365000</v>
       </c>
       <c r="O286" t="n">
-        <v>120000</v>
+        <v>370000</v>
       </c>
       <c r="P286" t="n">
-        <v>117500</v>
+        <v>367500</v>
       </c>
       <c r="Q286" t="inlineStr">
         <is>
@@ -23266,7 +23266,7 @@
         </is>
       </c>
       <c r="S286" t="n">
-        <v>294</v>
+        <v>919</v>
       </c>
       <c r="T286" t="n">
         <v>400</v>
@@ -23287,7 +23287,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E287" t="n">
         <v>4</v>
@@ -23315,25 +23315,25 @@
       </c>
       <c r="K287" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L287" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M287" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N287" t="n">
-        <v>325000</v>
+        <v>145000</v>
       </c>
       <c r="O287" t="n">
-        <v>330000</v>
+        <v>150000</v>
       </c>
       <c r="P287" t="n">
-        <v>327500</v>
+        <v>147500</v>
       </c>
       <c r="Q287" t="inlineStr">
         <is>
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="S287" t="n">
-        <v>819</v>
+        <v>369</v>
       </c>
       <c r="T287" t="n">
         <v>400</v>
@@ -23367,7 +23367,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E288" t="n">
         <v>4</v>
@@ -23395,25 +23395,25 @@
       </c>
       <c r="K288" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L288" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M288" t="n">
         <v>20</v>
       </c>
       <c r="N288" t="n">
-        <v>305000</v>
+        <v>115000</v>
       </c>
       <c r="O288" t="n">
-        <v>310000</v>
+        <v>120000</v>
       </c>
       <c r="P288" t="n">
-        <v>307500</v>
+        <v>117500</v>
       </c>
       <c r="Q288" t="inlineStr">
         <is>
@@ -23426,7 +23426,7 @@
         </is>
       </c>
       <c r="S288" t="n">
-        <v>769</v>
+        <v>294</v>
       </c>
       <c r="T288" t="n">
         <v>400</v>
@@ -23447,7 +23447,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E289" t="n">
         <v>4</v>
@@ -23475,25 +23475,25 @@
       </c>
       <c r="K289" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L289" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M289" t="n">
         <v>20</v>
       </c>
       <c r="N289" t="n">
-        <v>255000</v>
+        <v>145000</v>
       </c>
       <c r="O289" t="n">
-        <v>260000</v>
+        <v>150000</v>
       </c>
       <c r="P289" t="n">
-        <v>257500</v>
+        <v>147500</v>
       </c>
       <c r="Q289" t="inlineStr">
         <is>
@@ -23506,7 +23506,7 @@
         </is>
       </c>
       <c r="S289" t="n">
-        <v>644</v>
+        <v>369</v>
       </c>
       <c r="T289" t="n">
         <v>400</v>
@@ -23527,7 +23527,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44175</v>
+        <v>44356</v>
       </c>
       <c r="E290" t="n">
         <v>4</v>
@@ -23555,25 +23555,25 @@
       </c>
       <c r="K290" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L290" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M290" t="n">
         <v>20</v>
       </c>
       <c r="N290" t="n">
-        <v>325000</v>
+        <v>115000</v>
       </c>
       <c r="O290" t="n">
-        <v>330000</v>
+        <v>120000</v>
       </c>
       <c r="P290" t="n">
-        <v>327500</v>
+        <v>117500</v>
       </c>
       <c r="Q290" t="inlineStr">
         <is>
@@ -23586,7 +23586,7 @@
         </is>
       </c>
       <c r="S290" t="n">
-        <v>819</v>
+        <v>294</v>
       </c>
       <c r="T290" t="n">
         <v>400</v>
@@ -23607,7 +23607,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44175</v>
+        <v>44160</v>
       </c>
       <c r="E291" t="n">
         <v>4</v>
@@ -23635,25 +23635,25 @@
       </c>
       <c r="K291" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L291" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M291" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N291" t="n">
-        <v>265000</v>
+        <v>325000</v>
       </c>
       <c r="O291" t="n">
-        <v>270000</v>
+        <v>330000</v>
       </c>
       <c r="P291" t="n">
-        <v>267500</v>
+        <v>327500</v>
       </c>
       <c r="Q291" t="inlineStr">
         <is>
@@ -23666,7 +23666,7 @@
         </is>
       </c>
       <c r="S291" t="n">
-        <v>669</v>
+        <v>819</v>
       </c>
       <c r="T291" t="n">
         <v>400</v>
@@ -23687,7 +23687,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44175</v>
+        <v>44160</v>
       </c>
       <c r="E292" t="n">
         <v>4</v>
@@ -23715,7 +23715,7 @@
       </c>
       <c r="K292" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L292" t="inlineStr">
@@ -23727,13 +23727,13 @@
         <v>20</v>
       </c>
       <c r="N292" t="n">
-        <v>335000</v>
+        <v>305000</v>
       </c>
       <c r="O292" t="n">
-        <v>340000</v>
+        <v>310000</v>
       </c>
       <c r="P292" t="n">
-        <v>337500</v>
+        <v>307500</v>
       </c>
       <c r="Q292" t="inlineStr">
         <is>
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="S292" t="n">
-        <v>844</v>
+        <v>769</v>
       </c>
       <c r="T292" t="n">
         <v>400</v>
@@ -23767,7 +23767,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44175</v>
+        <v>44160</v>
       </c>
       <c r="E293" t="n">
         <v>4</v>
@@ -23795,7 +23795,7 @@
       </c>
       <c r="K293" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L293" t="inlineStr">
@@ -23807,13 +23807,13 @@
         <v>20</v>
       </c>
       <c r="N293" t="n">
-        <v>285000</v>
+        <v>255000</v>
       </c>
       <c r="O293" t="n">
-        <v>290000</v>
+        <v>260000</v>
       </c>
       <c r="P293" t="n">
-        <v>287500</v>
+        <v>257500</v>
       </c>
       <c r="Q293" t="inlineStr">
         <is>
@@ -23826,7 +23826,7 @@
         </is>
       </c>
       <c r="S293" t="n">
-        <v>719</v>
+        <v>644</v>
       </c>
       <c r="T293" t="n">
         <v>400</v>
@@ -23847,7 +23847,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E294" t="n">
         <v>4</v>
@@ -23875,7 +23875,7 @@
       </c>
       <c r="K294" t="inlineStr">
         <is>
-          <t>Cara cara</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L294" t="inlineStr">
@@ -23887,13 +23887,13 @@
         <v>20</v>
       </c>
       <c r="N294" t="n">
-        <v>110000</v>
+        <v>325000</v>
       </c>
       <c r="O294" t="n">
-        <v>120000</v>
+        <v>330000</v>
       </c>
       <c r="P294" t="n">
-        <v>115000</v>
+        <v>327500</v>
       </c>
       <c r="Q294" t="inlineStr">
         <is>
@@ -23906,7 +23906,7 @@
         </is>
       </c>
       <c r="S294" t="n">
-        <v>288</v>
+        <v>819</v>
       </c>
       <c r="T294" t="n">
         <v>400</v>
@@ -23927,7 +23927,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E295" t="n">
         <v>4</v>
@@ -23955,7 +23955,7 @@
       </c>
       <c r="K295" t="inlineStr">
         <is>
-          <t>Cara cara</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L295" t="inlineStr">
@@ -23967,13 +23967,13 @@
         <v>20</v>
       </c>
       <c r="N295" t="n">
-        <v>90000</v>
+        <v>265000</v>
       </c>
       <c r="O295" t="n">
-        <v>100000</v>
+        <v>270000</v>
       </c>
       <c r="P295" t="n">
-        <v>95000</v>
+        <v>267500</v>
       </c>
       <c r="Q295" t="inlineStr">
         <is>
@@ -23986,7 +23986,7 @@
         </is>
       </c>
       <c r="S295" t="n">
-        <v>238</v>
+        <v>669</v>
       </c>
       <c r="T295" t="n">
         <v>400</v>
@@ -24007,7 +24007,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E296" t="n">
         <v>4</v>
@@ -24035,7 +24035,7 @@
       </c>
       <c r="K296" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L296" t="inlineStr">
@@ -24047,13 +24047,13 @@
         <v>20</v>
       </c>
       <c r="N296" t="n">
-        <v>100000</v>
+        <v>335000</v>
       </c>
       <c r="O296" t="n">
-        <v>110000</v>
+        <v>340000</v>
       </c>
       <c r="P296" t="n">
-        <v>105000</v>
+        <v>337500</v>
       </c>
       <c r="Q296" t="inlineStr">
         <is>
@@ -24066,7 +24066,7 @@
         </is>
       </c>
       <c r="S296" t="n">
-        <v>262</v>
+        <v>844</v>
       </c>
       <c r="T296" t="n">
         <v>400</v>
@@ -24087,7 +24087,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E297" t="n">
         <v>4</v>
@@ -24115,7 +24115,7 @@
       </c>
       <c r="K297" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L297" t="inlineStr">
@@ -24127,13 +24127,13 @@
         <v>20</v>
       </c>
       <c r="N297" t="n">
-        <v>80000</v>
+        <v>285000</v>
       </c>
       <c r="O297" t="n">
-        <v>90000</v>
+        <v>290000</v>
       </c>
       <c r="P297" t="n">
-        <v>85000</v>
+        <v>287500</v>
       </c>
       <c r="Q297" t="inlineStr">
         <is>
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="S297" t="n">
-        <v>212</v>
+        <v>719</v>
       </c>
       <c r="T297" t="n">
         <v>400</v>
@@ -24167,7 +24167,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E298" t="n">
         <v>4</v>
@@ -24195,7 +24195,7 @@
       </c>
       <c r="K298" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Cara cara</t>
         </is>
       </c>
       <c r="L298" t="inlineStr">
@@ -24207,13 +24207,13 @@
         <v>20</v>
       </c>
       <c r="N298" t="n">
-        <v>145000</v>
+        <v>110000</v>
       </c>
       <c r="O298" t="n">
-        <v>150000</v>
+        <v>120000</v>
       </c>
       <c r="P298" t="n">
-        <v>147500</v>
+        <v>115000</v>
       </c>
       <c r="Q298" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         </is>
       </c>
       <c r="S298" t="n">
-        <v>369</v>
+        <v>288</v>
       </c>
       <c r="T298" t="n">
         <v>400</v>
@@ -24247,7 +24247,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E299" t="n">
         <v>4</v>
@@ -24275,7 +24275,7 @@
       </c>
       <c r="K299" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Cara cara</t>
         </is>
       </c>
       <c r="L299" t="inlineStr">
@@ -24287,13 +24287,13 @@
         <v>20</v>
       </c>
       <c r="N299" t="n">
-        <v>115000</v>
+        <v>90000</v>
       </c>
       <c r="O299" t="n">
-        <v>120000</v>
+        <v>100000</v>
       </c>
       <c r="P299" t="n">
-        <v>117500</v>
+        <v>95000</v>
       </c>
       <c r="Q299" t="inlineStr">
         <is>
@@ -24306,7 +24306,7 @@
         </is>
       </c>
       <c r="S299" t="n">
-        <v>294</v>
+        <v>238</v>
       </c>
       <c r="T299" t="n">
         <v>400</v>
@@ -24327,7 +24327,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E300" t="n">
         <v>4</v>
@@ -24355,7 +24355,7 @@
       </c>
       <c r="K300" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L300" t="inlineStr">
@@ -24367,13 +24367,13 @@
         <v>20</v>
       </c>
       <c r="N300" t="n">
-        <v>145000</v>
+        <v>100000</v>
       </c>
       <c r="O300" t="n">
-        <v>150000</v>
+        <v>110000</v>
       </c>
       <c r="P300" t="n">
-        <v>147500</v>
+        <v>105000</v>
       </c>
       <c r="Q300" t="inlineStr">
         <is>
@@ -24386,7 +24386,7 @@
         </is>
       </c>
       <c r="S300" t="n">
-        <v>369</v>
+        <v>262</v>
       </c>
       <c r="T300" t="n">
         <v>400</v>
@@ -24407,7 +24407,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E301" t="n">
         <v>4</v>
@@ -24435,7 +24435,7 @@
       </c>
       <c r="K301" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L301" t="inlineStr">
@@ -24447,13 +24447,13 @@
         <v>20</v>
       </c>
       <c r="N301" t="n">
-        <v>115000</v>
+        <v>80000</v>
       </c>
       <c r="O301" t="n">
-        <v>120000</v>
+        <v>90000</v>
       </c>
       <c r="P301" t="n">
-        <v>117500</v>
+        <v>85000</v>
       </c>
       <c r="Q301" t="inlineStr">
         <is>
@@ -24466,7 +24466,7 @@
         </is>
       </c>
       <c r="S301" t="n">
-        <v>294</v>
+        <v>212</v>
       </c>
       <c r="T301" t="n">
         <v>400</v>
@@ -24487,7 +24487,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E302" t="n">
         <v>4</v>
@@ -24515,7 +24515,7 @@
       </c>
       <c r="K302" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L302" t="inlineStr">
@@ -24527,13 +24527,13 @@
         <v>20</v>
       </c>
       <c r="N302" t="n">
-        <v>395000</v>
+        <v>145000</v>
       </c>
       <c r="O302" t="n">
-        <v>400000</v>
+        <v>150000</v>
       </c>
       <c r="P302" t="n">
-        <v>397500</v>
+        <v>147500</v>
       </c>
       <c r="Q302" t="inlineStr">
         <is>
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="S302" t="n">
-        <v>994</v>
+        <v>369</v>
       </c>
       <c r="T302" t="n">
         <v>400</v>
@@ -24567,7 +24567,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E303" t="n">
         <v>4</v>
@@ -24595,7 +24595,7 @@
       </c>
       <c r="K303" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L303" t="inlineStr">
@@ -24607,13 +24607,13 @@
         <v>20</v>
       </c>
       <c r="N303" t="n">
-        <v>345000</v>
+        <v>115000</v>
       </c>
       <c r="O303" t="n">
-        <v>350000</v>
+        <v>120000</v>
       </c>
       <c r="P303" t="n">
-        <v>347500</v>
+        <v>117500</v>
       </c>
       <c r="Q303" t="inlineStr">
         <is>
@@ -24626,7 +24626,7 @@
         </is>
       </c>
       <c r="S303" t="n">
-        <v>869</v>
+        <v>294</v>
       </c>
       <c r="T303" t="n">
         <v>400</v>
@@ -24647,7 +24647,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44244</v>
+        <v>44357</v>
       </c>
       <c r="E304" t="n">
         <v>4</v>
@@ -24675,7 +24675,7 @@
       </c>
       <c r="K304" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L304" t="inlineStr">
@@ -24687,13 +24687,13 @@
         <v>20</v>
       </c>
       <c r="N304" t="n">
-        <v>455000</v>
+        <v>145000</v>
       </c>
       <c r="O304" t="n">
-        <v>460000</v>
+        <v>150000</v>
       </c>
       <c r="P304" t="n">
-        <v>457500</v>
+        <v>147500</v>
       </c>
       <c r="Q304" t="inlineStr">
         <is>
@@ -24706,7 +24706,7 @@
         </is>
       </c>
       <c r="S304" t="n">
-        <v>1144</v>
+        <v>369</v>
       </c>
       <c r="T304" t="n">
         <v>400</v>
@@ -24727,68 +24727,388 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
+        <v>44357</v>
+      </c>
+      <c r="E305" t="n">
+        <v>4</v>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G305" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H305" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I305" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J305" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>New Hall</t>
+        </is>
+      </c>
+      <c r="L305" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M305" t="n">
+        <v>20</v>
+      </c>
+      <c r="N305" t="n">
+        <v>115000</v>
+      </c>
+      <c r="O305" t="n">
+        <v>120000</v>
+      </c>
+      <c r="P305" t="n">
+        <v>117500</v>
+      </c>
+      <c r="Q305" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R305" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S305" t="n">
+        <v>294</v>
+      </c>
+      <c r="T305" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>2</v>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D306" s="2" t="n">
+        <v>44203</v>
+      </c>
+      <c r="E306" t="n">
+        <v>4</v>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G306" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H306" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I306" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J306" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="L306" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M306" t="n">
+        <v>20</v>
+      </c>
+      <c r="N306" t="n">
+        <v>395000</v>
+      </c>
+      <c r="O306" t="n">
+        <v>400000</v>
+      </c>
+      <c r="P306" t="n">
+        <v>397500</v>
+      </c>
+      <c r="Q306" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R306" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S306" t="n">
+        <v>994</v>
+      </c>
+      <c r="T306" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>2</v>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D307" s="2" t="n">
+        <v>44203</v>
+      </c>
+      <c r="E307" t="n">
+        <v>4</v>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G307" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H307" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I307" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J307" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="L307" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M307" t="n">
+        <v>20</v>
+      </c>
+      <c r="N307" t="n">
+        <v>345000</v>
+      </c>
+      <c r="O307" t="n">
+        <v>350000</v>
+      </c>
+      <c r="P307" t="n">
+        <v>347500</v>
+      </c>
+      <c r="Q307" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R307" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S307" t="n">
+        <v>869</v>
+      </c>
+      <c r="T307" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>2</v>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D308" s="2" t="n">
         <v>44244</v>
       </c>
-      <c r="E305" t="n">
-        <v>4</v>
-      </c>
-      <c r="F305" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G305" t="n">
-        <v>100102</v>
-      </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>Cítricos</t>
-        </is>
-      </c>
-      <c r="I305" t="n">
-        <v>100102005</v>
-      </c>
-      <c r="J305" t="inlineStr">
-        <is>
-          <t>Naranja</t>
-        </is>
-      </c>
-      <c r="K305" t="inlineStr">
+      <c r="E308" t="n">
+        <v>4</v>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G308" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H308" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I308" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J308" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K308" t="inlineStr">
         <is>
           <t>Valencia</t>
         </is>
       </c>
-      <c r="L305" t="inlineStr">
+      <c r="L308" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M308" t="n">
+        <v>20</v>
+      </c>
+      <c r="N308" t="n">
+        <v>455000</v>
+      </c>
+      <c r="O308" t="n">
+        <v>460000</v>
+      </c>
+      <c r="P308" t="n">
+        <v>457500</v>
+      </c>
+      <c r="Q308" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R308" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S308" t="n">
+        <v>1144</v>
+      </c>
+      <c r="T308" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>2</v>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D309" s="2" t="n">
+        <v>44244</v>
+      </c>
+      <c r="E309" t="n">
+        <v>4</v>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G309" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H309" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I309" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J309" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="L309" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M305" t="n">
-        <v>20</v>
-      </c>
-      <c r="N305" t="n">
+      <c r="M309" t="n">
+        <v>20</v>
+      </c>
+      <c r="N309" t="n">
         <v>415000</v>
       </c>
-      <c r="O305" t="n">
+      <c r="O309" t="n">
         <v>420000</v>
       </c>
-      <c r="P305" t="n">
+      <c r="P309" t="n">
         <v>417500</v>
       </c>
-      <c r="Q305" t="inlineStr">
-        <is>
-          <t>$/bins (400 kilos)</t>
-        </is>
-      </c>
-      <c r="R305" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="S305" t="n">
+      <c r="Q309" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R309" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S309" t="n">
         <v>1044</v>
       </c>
-      <c r="T305" t="n">
+      <c r="T309" t="n">
         <v>400</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Comercializadora del Agro de Limarí - Naranja.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Comercializadora del Agro de Limarí - Naranja.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T313"/>
+  <dimension ref="A1:T317"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22007,7 +22007,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E271" t="n">
         <v>4</v>
@@ -22050,10 +22050,10 @@
         <v>120000</v>
       </c>
       <c r="O271" t="n">
-        <v>130000</v>
+        <v>125000</v>
       </c>
       <c r="P271" t="n">
-        <v>125000</v>
+        <v>122500</v>
       </c>
       <c r="Q271" t="inlineStr">
         <is>
@@ -22066,7 +22066,7 @@
         </is>
       </c>
       <c r="S271" t="n">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="T271" t="n">
         <v>400</v>
@@ -22087,7 +22087,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E272" t="n">
         <v>4</v>
@@ -22127,13 +22127,13 @@
         <v>20</v>
       </c>
       <c r="N272" t="n">
-        <v>100000</v>
+        <v>90000</v>
       </c>
       <c r="O272" t="n">
-        <v>110000</v>
+        <v>95000</v>
       </c>
       <c r="P272" t="n">
-        <v>105000</v>
+        <v>92500</v>
       </c>
       <c r="Q272" t="inlineStr">
         <is>
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="S272" t="n">
-        <v>262</v>
+        <v>231</v>
       </c>
       <c r="T272" t="n">
         <v>400</v>
@@ -22167,7 +22167,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E273" t="n">
         <v>4</v>
@@ -22204,16 +22204,16 @@
         </is>
       </c>
       <c r="M273" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="N273" t="n">
         <v>120000</v>
       </c>
       <c r="O273" t="n">
-        <v>130000</v>
+        <v>125000</v>
       </c>
       <c r="P273" t="n">
-        <v>126429</v>
+        <v>122500</v>
       </c>
       <c r="Q273" t="inlineStr">
         <is>
@@ -22226,7 +22226,7 @@
         </is>
       </c>
       <c r="S273" t="n">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="T273" t="n">
         <v>400</v>
@@ -22247,7 +22247,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E274" t="n">
         <v>4</v>
@@ -22287,13 +22287,13 @@
         <v>20</v>
       </c>
       <c r="N274" t="n">
-        <v>100000</v>
+        <v>90000</v>
       </c>
       <c r="O274" t="n">
-        <v>110000</v>
+        <v>95000</v>
       </c>
       <c r="P274" t="n">
-        <v>105000</v>
+        <v>92500</v>
       </c>
       <c r="Q274" t="inlineStr">
         <is>
@@ -22306,7 +22306,7 @@
         </is>
       </c>
       <c r="S274" t="n">
-        <v>262</v>
+        <v>231</v>
       </c>
       <c r="T274" t="n">
         <v>400</v>
@@ -22327,7 +22327,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44384</v>
+        <v>44468</v>
       </c>
       <c r="E275" t="n">
         <v>4</v>
@@ -22355,7 +22355,7 @@
       </c>
       <c r="K275" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L275" t="inlineStr">
@@ -22367,13 +22367,13 @@
         <v>20</v>
       </c>
       <c r="N275" t="n">
-        <v>125000</v>
+        <v>120000</v>
       </c>
       <c r="O275" t="n">
         <v>130000</v>
       </c>
       <c r="P275" t="n">
-        <v>127500</v>
+        <v>125000</v>
       </c>
       <c r="Q275" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         </is>
       </c>
       <c r="S275" t="n">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="T275" t="n">
         <v>400</v>
@@ -22407,7 +22407,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44384</v>
+        <v>44468</v>
       </c>
       <c r="E276" t="n">
         <v>4</v>
@@ -22435,7 +22435,7 @@
       </c>
       <c r="K276" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L276" t="inlineStr">
@@ -22447,13 +22447,13 @@
         <v>20</v>
       </c>
       <c r="N276" t="n">
-        <v>105000</v>
+        <v>100000</v>
       </c>
       <c r="O276" t="n">
         <v>110000</v>
       </c>
       <c r="P276" t="n">
-        <v>107500</v>
+        <v>105000</v>
       </c>
       <c r="Q276" t="inlineStr">
         <is>
@@ -22466,7 +22466,7 @@
         </is>
       </c>
       <c r="S276" t="n">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="T276" t="n">
         <v>400</v>
@@ -22487,7 +22487,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44384</v>
+        <v>44468</v>
       </c>
       <c r="E277" t="n">
         <v>4</v>
@@ -22524,16 +22524,16 @@
         </is>
       </c>
       <c r="M277" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N277" t="n">
-        <v>125000</v>
+        <v>120000</v>
       </c>
       <c r="O277" t="n">
         <v>130000</v>
       </c>
       <c r="P277" t="n">
-        <v>127500</v>
+        <v>126429</v>
       </c>
       <c r="Q277" t="inlineStr">
         <is>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="S277" t="n">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="T277" t="n">
         <v>400</v>
@@ -22567,7 +22567,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44384</v>
+        <v>44468</v>
       </c>
       <c r="E278" t="n">
         <v>4</v>
@@ -22607,13 +22607,13 @@
         <v>20</v>
       </c>
       <c r="N278" t="n">
-        <v>105000</v>
+        <v>100000</v>
       </c>
       <c r="O278" t="n">
         <v>110000</v>
       </c>
       <c r="P278" t="n">
-        <v>107500</v>
+        <v>105000</v>
       </c>
       <c r="Q278" t="inlineStr">
         <is>
@@ -22626,7 +22626,7 @@
         </is>
       </c>
       <c r="S278" t="n">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="T278" t="n">
         <v>400</v>
@@ -22675,7 +22675,7 @@
       </c>
       <c r="K279" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L279" t="inlineStr">
@@ -22687,13 +22687,13 @@
         <v>20</v>
       </c>
       <c r="N279" t="n">
-        <v>115000</v>
+        <v>125000</v>
       </c>
       <c r="O279" t="n">
-        <v>120000</v>
+        <v>130000</v>
       </c>
       <c r="P279" t="n">
-        <v>117500</v>
+        <v>127500</v>
       </c>
       <c r="Q279" t="inlineStr">
         <is>
@@ -22706,7 +22706,7 @@
         </is>
       </c>
       <c r="S279" t="n">
-        <v>294</v>
+        <v>319</v>
       </c>
       <c r="T279" t="n">
         <v>400</v>
@@ -22755,7 +22755,7 @@
       </c>
       <c r="K280" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L280" t="inlineStr">
@@ -22767,13 +22767,13 @@
         <v>20</v>
       </c>
       <c r="N280" t="n">
-        <v>95000</v>
+        <v>105000</v>
       </c>
       <c r="O280" t="n">
-        <v>100000</v>
+        <v>110000</v>
       </c>
       <c r="P280" t="n">
-        <v>97500</v>
+        <v>107500</v>
       </c>
       <c r="Q280" t="inlineStr">
         <is>
@@ -22786,7 +22786,7 @@
         </is>
       </c>
       <c r="S280" t="n">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="T280" t="n">
         <v>400</v>
@@ -22807,7 +22807,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E281" t="n">
         <v>4</v>
@@ -22835,7 +22835,7 @@
       </c>
       <c r="K281" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L281" t="inlineStr">
@@ -22847,13 +22847,13 @@
         <v>20</v>
       </c>
       <c r="N281" t="n">
-        <v>135000</v>
+        <v>125000</v>
       </c>
       <c r="O281" t="n">
-        <v>140000</v>
+        <v>130000</v>
       </c>
       <c r="P281" t="n">
-        <v>137500</v>
+        <v>127500</v>
       </c>
       <c r="Q281" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         </is>
       </c>
       <c r="S281" t="n">
-        <v>344</v>
+        <v>319</v>
       </c>
       <c r="T281" t="n">
         <v>400</v>
@@ -22887,7 +22887,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E282" t="n">
         <v>4</v>
@@ -22915,7 +22915,7 @@
       </c>
       <c r="K282" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L282" t="inlineStr">
@@ -22927,13 +22927,13 @@
         <v>20</v>
       </c>
       <c r="N282" t="n">
-        <v>115000</v>
+        <v>105000</v>
       </c>
       <c r="O282" t="n">
-        <v>120000</v>
+        <v>110000</v>
       </c>
       <c r="P282" t="n">
-        <v>117500</v>
+        <v>107500</v>
       </c>
       <c r="Q282" t="inlineStr">
         <is>
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="S282" t="n">
-        <v>294</v>
+        <v>269</v>
       </c>
       <c r="T282" t="n">
         <v>400</v>
@@ -22967,7 +22967,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E283" t="n">
         <v>4</v>
@@ -23007,13 +23007,13 @@
         <v>20</v>
       </c>
       <c r="N283" t="n">
-        <v>145000</v>
+        <v>115000</v>
       </c>
       <c r="O283" t="n">
-        <v>150000</v>
+        <v>120000</v>
       </c>
       <c r="P283" t="n">
-        <v>147500</v>
+        <v>117500</v>
       </c>
       <c r="Q283" t="inlineStr">
         <is>
@@ -23026,7 +23026,7 @@
         </is>
       </c>
       <c r="S283" t="n">
-        <v>369</v>
+        <v>294</v>
       </c>
       <c r="T283" t="n">
         <v>400</v>
@@ -23047,7 +23047,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E284" t="n">
         <v>4</v>
@@ -23087,13 +23087,13 @@
         <v>20</v>
       </c>
       <c r="N284" t="n">
-        <v>125000</v>
+        <v>95000</v>
       </c>
       <c r="O284" t="n">
-        <v>130000</v>
+        <v>100000</v>
       </c>
       <c r="P284" t="n">
-        <v>127500</v>
+        <v>97500</v>
       </c>
       <c r="Q284" t="inlineStr">
         <is>
@@ -23106,7 +23106,7 @@
         </is>
       </c>
       <c r="S284" t="n">
-        <v>319</v>
+        <v>244</v>
       </c>
       <c r="T284" t="n">
         <v>400</v>
@@ -23127,7 +23127,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44301</v>
+        <v>44363</v>
       </c>
       <c r="E285" t="n">
         <v>4</v>
@@ -23155,25 +23155,25 @@
       </c>
       <c r="K285" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L285" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M285" t="n">
         <v>20</v>
       </c>
       <c r="N285" t="n">
-        <v>495000</v>
+        <v>135000</v>
       </c>
       <c r="O285" t="n">
-        <v>500000</v>
+        <v>140000</v>
       </c>
       <c r="P285" t="n">
-        <v>497500</v>
+        <v>137500</v>
       </c>
       <c r="Q285" t="inlineStr">
         <is>
@@ -23186,7 +23186,7 @@
         </is>
       </c>
       <c r="S285" t="n">
-        <v>1244</v>
+        <v>344</v>
       </c>
       <c r="T285" t="n">
         <v>400</v>
@@ -23207,7 +23207,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44301</v>
+        <v>44363</v>
       </c>
       <c r="E286" t="n">
         <v>4</v>
@@ -23235,25 +23235,25 @@
       </c>
       <c r="K286" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L286" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M286" t="n">
         <v>20</v>
       </c>
       <c r="N286" t="n">
-        <v>475000</v>
+        <v>115000</v>
       </c>
       <c r="O286" t="n">
-        <v>480000</v>
+        <v>120000</v>
       </c>
       <c r="P286" t="n">
-        <v>477500</v>
+        <v>117500</v>
       </c>
       <c r="Q286" t="inlineStr">
         <is>
@@ -23266,7 +23266,7 @@
         </is>
       </c>
       <c r="S286" t="n">
-        <v>1194</v>
+        <v>294</v>
       </c>
       <c r="T286" t="n">
         <v>400</v>
@@ -23287,7 +23287,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44357</v>
+        <v>44363</v>
       </c>
       <c r="E287" t="n">
         <v>4</v>
@@ -23315,7 +23315,7 @@
       </c>
       <c r="K287" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L287" t="inlineStr">
@@ -23367,7 +23367,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44357</v>
+        <v>44363</v>
       </c>
       <c r="E288" t="n">
         <v>4</v>
@@ -23395,7 +23395,7 @@
       </c>
       <c r="K288" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L288" t="inlineStr">
@@ -23407,13 +23407,13 @@
         <v>20</v>
       </c>
       <c r="N288" t="n">
-        <v>115000</v>
+        <v>125000</v>
       </c>
       <c r="O288" t="n">
-        <v>120000</v>
+        <v>130000</v>
       </c>
       <c r="P288" t="n">
-        <v>117500</v>
+        <v>127500</v>
       </c>
       <c r="Q288" t="inlineStr">
         <is>
@@ -23426,7 +23426,7 @@
         </is>
       </c>
       <c r="S288" t="n">
-        <v>294</v>
+        <v>319</v>
       </c>
       <c r="T288" t="n">
         <v>400</v>
@@ -23447,7 +23447,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E289" t="n">
         <v>4</v>
@@ -23475,25 +23475,25 @@
       </c>
       <c r="K289" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L289" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M289" t="n">
         <v>20</v>
       </c>
       <c r="N289" t="n">
-        <v>145000</v>
+        <v>495000</v>
       </c>
       <c r="O289" t="n">
-        <v>150000</v>
+        <v>500000</v>
       </c>
       <c r="P289" t="n">
-        <v>147500</v>
+        <v>497500</v>
       </c>
       <c r="Q289" t="inlineStr">
         <is>
@@ -23506,7 +23506,7 @@
         </is>
       </c>
       <c r="S289" t="n">
-        <v>369</v>
+        <v>1244</v>
       </c>
       <c r="T289" t="n">
         <v>400</v>
@@ -23527,7 +23527,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E290" t="n">
         <v>4</v>
@@ -23555,25 +23555,25 @@
       </c>
       <c r="K290" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L290" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M290" t="n">
         <v>20</v>
       </c>
       <c r="N290" t="n">
-        <v>115000</v>
+        <v>475000</v>
       </c>
       <c r="O290" t="n">
-        <v>120000</v>
+        <v>480000</v>
       </c>
       <c r="P290" t="n">
-        <v>117500</v>
+        <v>477500</v>
       </c>
       <c r="Q290" t="inlineStr">
         <is>
@@ -23586,7 +23586,7 @@
         </is>
       </c>
       <c r="S290" t="n">
-        <v>294</v>
+        <v>1194</v>
       </c>
       <c r="T290" t="n">
         <v>400</v>
@@ -23607,7 +23607,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E291" t="n">
         <v>4</v>
@@ -23647,13 +23647,13 @@
         <v>20</v>
       </c>
       <c r="N291" t="n">
-        <v>290000</v>
+        <v>145000</v>
       </c>
       <c r="O291" t="n">
-        <v>300000</v>
+        <v>150000</v>
       </c>
       <c r="P291" t="n">
-        <v>295000</v>
+        <v>147500</v>
       </c>
       <c r="Q291" t="inlineStr">
         <is>
@@ -23666,7 +23666,7 @@
         </is>
       </c>
       <c r="S291" t="n">
-        <v>738</v>
+        <v>369</v>
       </c>
       <c r="T291" t="n">
         <v>400</v>
@@ -23687,7 +23687,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E292" t="n">
         <v>4</v>
@@ -23715,25 +23715,25 @@
       </c>
       <c r="K292" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L292" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M292" t="n">
         <v>20</v>
       </c>
       <c r="N292" t="n">
-        <v>290000</v>
+        <v>115000</v>
       </c>
       <c r="O292" t="n">
-        <v>300000</v>
+        <v>120000</v>
       </c>
       <c r="P292" t="n">
-        <v>295000</v>
+        <v>117500</v>
       </c>
       <c r="Q292" t="inlineStr">
         <is>
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="S292" t="n">
-        <v>738</v>
+        <v>294</v>
       </c>
       <c r="T292" t="n">
         <v>400</v>
@@ -23767,7 +23767,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E293" t="n">
         <v>4</v>
@@ -23795,7 +23795,7 @@
       </c>
       <c r="K293" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L293" t="inlineStr">
@@ -23807,13 +23807,13 @@
         <v>20</v>
       </c>
       <c r="N293" t="n">
-        <v>320000</v>
+        <v>145000</v>
       </c>
       <c r="O293" t="n">
-        <v>330000</v>
+        <v>150000</v>
       </c>
       <c r="P293" t="n">
-        <v>325000</v>
+        <v>147500</v>
       </c>
       <c r="Q293" t="inlineStr">
         <is>
@@ -23826,7 +23826,7 @@
         </is>
       </c>
       <c r="S293" t="n">
-        <v>812</v>
+        <v>369</v>
       </c>
       <c r="T293" t="n">
         <v>400</v>
@@ -23847,7 +23847,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E294" t="n">
         <v>4</v>
@@ -23875,7 +23875,7 @@
       </c>
       <c r="K294" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L294" t="inlineStr">
@@ -23887,13 +23887,13 @@
         <v>20</v>
       </c>
       <c r="N294" t="n">
-        <v>280000</v>
+        <v>115000</v>
       </c>
       <c r="O294" t="n">
-        <v>290000</v>
+        <v>120000</v>
       </c>
       <c r="P294" t="n">
-        <v>285000</v>
+        <v>117500</v>
       </c>
       <c r="Q294" t="inlineStr">
         <is>
@@ -23906,7 +23906,7 @@
         </is>
       </c>
       <c r="S294" t="n">
-        <v>712</v>
+        <v>294</v>
       </c>
       <c r="T294" t="n">
         <v>400</v>
@@ -23927,7 +23927,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E295" t="n">
         <v>4</v>
@@ -23955,7 +23955,7 @@
       </c>
       <c r="K295" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L295" t="inlineStr">
@@ -23964,16 +23964,16 @@
         </is>
       </c>
       <c r="M295" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N295" t="n">
-        <v>460000</v>
+        <v>290000</v>
       </c>
       <c r="O295" t="n">
-        <v>470000</v>
+        <v>300000</v>
       </c>
       <c r="P295" t="n">
-        <v>465000</v>
+        <v>295000</v>
       </c>
       <c r="Q295" t="inlineStr">
         <is>
@@ -23986,7 +23986,7 @@
         </is>
       </c>
       <c r="S295" t="n">
-        <v>1162</v>
+        <v>738</v>
       </c>
       <c r="T295" t="n">
         <v>400</v>
@@ -24007,7 +24007,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44314</v>
+        <v>44328</v>
       </c>
       <c r="E296" t="n">
         <v>4</v>
@@ -24035,7 +24035,7 @@
       </c>
       <c r="K296" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L296" t="inlineStr">
@@ -24047,13 +24047,13 @@
         <v>20</v>
       </c>
       <c r="N296" t="n">
-        <v>355000</v>
+        <v>290000</v>
       </c>
       <c r="O296" t="n">
-        <v>360000</v>
+        <v>300000</v>
       </c>
       <c r="P296" t="n">
-        <v>357500</v>
+        <v>295000</v>
       </c>
       <c r="Q296" t="inlineStr">
         <is>
@@ -24066,7 +24066,7 @@
         </is>
       </c>
       <c r="S296" t="n">
-        <v>894</v>
+        <v>738</v>
       </c>
       <c r="T296" t="n">
         <v>400</v>
@@ -24087,7 +24087,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44314</v>
+        <v>44321</v>
       </c>
       <c r="E297" t="n">
         <v>4</v>
@@ -24120,20 +24120,20 @@
       </c>
       <c r="L297" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M297" t="n">
         <v>20</v>
       </c>
       <c r="N297" t="n">
-        <v>325000</v>
+        <v>320000</v>
       </c>
       <c r="O297" t="n">
         <v>330000</v>
       </c>
       <c r="P297" t="n">
-        <v>327500</v>
+        <v>325000</v>
       </c>
       <c r="Q297" t="inlineStr">
         <is>
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="S297" t="n">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="T297" t="n">
         <v>400</v>
@@ -24167,7 +24167,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44314</v>
+        <v>44321</v>
       </c>
       <c r="E298" t="n">
         <v>4</v>
@@ -24195,25 +24195,25 @@
       </c>
       <c r="K298" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L298" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M298" t="n">
         <v>20</v>
       </c>
       <c r="N298" t="n">
-        <v>355000</v>
+        <v>280000</v>
       </c>
       <c r="O298" t="n">
-        <v>360000</v>
+        <v>290000</v>
       </c>
       <c r="P298" t="n">
-        <v>357500</v>
+        <v>285000</v>
       </c>
       <c r="Q298" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         </is>
       </c>
       <c r="S298" t="n">
-        <v>894</v>
+        <v>712</v>
       </c>
       <c r="T298" t="n">
         <v>400</v>
@@ -24247,7 +24247,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44314</v>
+        <v>44321</v>
       </c>
       <c r="E299" t="n">
         <v>4</v>
@@ -24275,25 +24275,25 @@
       </c>
       <c r="K299" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L299" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M299" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N299" t="n">
-        <v>325000</v>
+        <v>460000</v>
       </c>
       <c r="O299" t="n">
-        <v>330000</v>
+        <v>470000</v>
       </c>
       <c r="P299" t="n">
-        <v>327500</v>
+        <v>465000</v>
       </c>
       <c r="Q299" t="inlineStr">
         <is>
@@ -24306,7 +24306,7 @@
         </is>
       </c>
       <c r="S299" t="n">
-        <v>819</v>
+        <v>1162</v>
       </c>
       <c r="T299" t="n">
         <v>400</v>
@@ -24355,7 +24355,7 @@
       </c>
       <c r="K300" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L300" t="inlineStr">
@@ -24367,13 +24367,13 @@
         <v>20</v>
       </c>
       <c r="N300" t="n">
-        <v>470000</v>
+        <v>355000</v>
       </c>
       <c r="O300" t="n">
-        <v>480000</v>
+        <v>360000</v>
       </c>
       <c r="P300" t="n">
-        <v>475000</v>
+        <v>357500</v>
       </c>
       <c r="Q300" t="inlineStr">
         <is>
@@ -24386,7 +24386,7 @@
         </is>
       </c>
       <c r="S300" t="n">
-        <v>1188</v>
+        <v>894</v>
       </c>
       <c r="T300" t="n">
         <v>400</v>
@@ -24407,7 +24407,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E301" t="n">
         <v>4</v>
@@ -24435,25 +24435,25 @@
       </c>
       <c r="K301" t="inlineStr">
         <is>
-          <t>Cara cara</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L301" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M301" t="n">
         <v>20</v>
       </c>
       <c r="N301" t="n">
-        <v>125000</v>
+        <v>325000</v>
       </c>
       <c r="O301" t="n">
-        <v>130000</v>
+        <v>330000</v>
       </c>
       <c r="P301" t="n">
-        <v>127500</v>
+        <v>327500</v>
       </c>
       <c r="Q301" t="inlineStr">
         <is>
@@ -24466,7 +24466,7 @@
         </is>
       </c>
       <c r="S301" t="n">
-        <v>319</v>
+        <v>819</v>
       </c>
       <c r="T301" t="n">
         <v>400</v>
@@ -24487,7 +24487,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E302" t="n">
         <v>4</v>
@@ -24515,7 +24515,7 @@
       </c>
       <c r="K302" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L302" t="inlineStr">
@@ -24527,13 +24527,13 @@
         <v>20</v>
       </c>
       <c r="N302" t="n">
-        <v>100000</v>
+        <v>355000</v>
       </c>
       <c r="O302" t="n">
-        <v>110000</v>
+        <v>360000</v>
       </c>
       <c r="P302" t="n">
-        <v>105000</v>
+        <v>357500</v>
       </c>
       <c r="Q302" t="inlineStr">
         <is>
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="S302" t="n">
-        <v>262</v>
+        <v>894</v>
       </c>
       <c r="T302" t="n">
         <v>400</v>
@@ -24567,7 +24567,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E303" t="n">
         <v>4</v>
@@ -24595,7 +24595,7 @@
       </c>
       <c r="K303" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L303" t="inlineStr">
@@ -24607,13 +24607,13 @@
         <v>20</v>
       </c>
       <c r="N303" t="n">
-        <v>80000</v>
+        <v>325000</v>
       </c>
       <c r="O303" t="n">
-        <v>90000</v>
+        <v>330000</v>
       </c>
       <c r="P303" t="n">
-        <v>85000</v>
+        <v>327500</v>
       </c>
       <c r="Q303" t="inlineStr">
         <is>
@@ -24626,7 +24626,7 @@
         </is>
       </c>
       <c r="S303" t="n">
-        <v>212</v>
+        <v>819</v>
       </c>
       <c r="T303" t="n">
         <v>400</v>
@@ -24647,7 +24647,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E304" t="n">
         <v>4</v>
@@ -24675,7 +24675,7 @@
       </c>
       <c r="K304" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L304" t="inlineStr">
@@ -24687,13 +24687,13 @@
         <v>20</v>
       </c>
       <c r="N304" t="n">
-        <v>100000</v>
+        <v>470000</v>
       </c>
       <c r="O304" t="n">
-        <v>110000</v>
+        <v>480000</v>
       </c>
       <c r="P304" t="n">
-        <v>105000</v>
+        <v>475000</v>
       </c>
       <c r="Q304" t="inlineStr">
         <is>
@@ -24706,7 +24706,7 @@
         </is>
       </c>
       <c r="S304" t="n">
-        <v>262</v>
+        <v>1188</v>
       </c>
       <c r="T304" t="n">
         <v>400</v>
@@ -24755,25 +24755,25 @@
       </c>
       <c r="K305" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Cara cara</t>
         </is>
       </c>
       <c r="L305" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M305" t="n">
         <v>20</v>
       </c>
       <c r="N305" t="n">
-        <v>80000</v>
+        <v>125000</v>
       </c>
       <c r="O305" t="n">
-        <v>90000</v>
+        <v>130000</v>
       </c>
       <c r="P305" t="n">
-        <v>85000</v>
+        <v>127500</v>
       </c>
       <c r="Q305" t="inlineStr">
         <is>
@@ -24786,7 +24786,7 @@
         </is>
       </c>
       <c r="S305" t="n">
-        <v>212</v>
+        <v>319</v>
       </c>
       <c r="T305" t="n">
         <v>400</v>
@@ -24835,7 +24835,7 @@
       </c>
       <c r="K306" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L306" t="inlineStr">
@@ -24915,7 +24915,7 @@
       </c>
       <c r="K307" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L307" t="inlineStr">
@@ -24967,7 +24967,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44461</v>
+        <v>44392</v>
       </c>
       <c r="E308" t="n">
         <v>4</v>
@@ -24995,7 +24995,7 @@
       </c>
       <c r="K308" t="inlineStr">
         <is>
-          <t>Cara cara</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L308" t="inlineStr">
@@ -25007,13 +25007,13 @@
         <v>20</v>
       </c>
       <c r="N308" t="n">
+        <v>100000</v>
+      </c>
+      <c r="O308" t="n">
         <v>110000</v>
       </c>
-      <c r="O308" t="n">
-        <v>120000</v>
-      </c>
       <c r="P308" t="n">
-        <v>115000</v>
+        <v>105000</v>
       </c>
       <c r="Q308" t="inlineStr">
         <is>
@@ -25026,7 +25026,7 @@
         </is>
       </c>
       <c r="S308" t="n">
-        <v>288</v>
+        <v>262</v>
       </c>
       <c r="T308" t="n">
         <v>400</v>
@@ -25047,7 +25047,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44461</v>
+        <v>44392</v>
       </c>
       <c r="E309" t="n">
         <v>4</v>
@@ -25075,7 +25075,7 @@
       </c>
       <c r="K309" t="inlineStr">
         <is>
-          <t>Cara cara</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L309" t="inlineStr">
@@ -25087,13 +25087,13 @@
         <v>20</v>
       </c>
       <c r="N309" t="n">
+        <v>80000</v>
+      </c>
+      <c r="O309" t="n">
         <v>90000</v>
       </c>
-      <c r="O309" t="n">
-        <v>100000</v>
-      </c>
       <c r="P309" t="n">
-        <v>95000</v>
+        <v>85000</v>
       </c>
       <c r="Q309" t="inlineStr">
         <is>
@@ -25106,7 +25106,7 @@
         </is>
       </c>
       <c r="S309" t="n">
-        <v>238</v>
+        <v>212</v>
       </c>
       <c r="T309" t="n">
         <v>400</v>
@@ -25127,7 +25127,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44461</v>
+        <v>44392</v>
       </c>
       <c r="E310" t="n">
         <v>4</v>
@@ -25155,7 +25155,7 @@
       </c>
       <c r="K310" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L310" t="inlineStr">
@@ -25207,7 +25207,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44461</v>
+        <v>44392</v>
       </c>
       <c r="E311" t="n">
         <v>4</v>
@@ -25235,7 +25235,7 @@
       </c>
       <c r="K311" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L311" t="inlineStr">
@@ -25287,7 +25287,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44286</v>
+        <v>44461</v>
       </c>
       <c r="E312" t="n">
         <v>4</v>
@@ -25315,25 +25315,25 @@
       </c>
       <c r="K312" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Cara cara</t>
         </is>
       </c>
       <c r="L312" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M312" t="n">
         <v>20</v>
       </c>
       <c r="N312" t="n">
-        <v>475000</v>
+        <v>110000</v>
       </c>
       <c r="O312" t="n">
-        <v>480000</v>
+        <v>120000</v>
       </c>
       <c r="P312" t="n">
-        <v>477500</v>
+        <v>115000</v>
       </c>
       <c r="Q312" t="inlineStr">
         <is>
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="S312" t="n">
-        <v>1194</v>
+        <v>288</v>
       </c>
       <c r="T312" t="n">
         <v>400</v>
@@ -25367,68 +25367,388 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
+        <v>44461</v>
+      </c>
+      <c r="E313" t="n">
+        <v>4</v>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G313" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H313" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I313" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J313" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>Cara cara</t>
+        </is>
+      </c>
+      <c r="L313" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M313" t="n">
+        <v>20</v>
+      </c>
+      <c r="N313" t="n">
+        <v>90000</v>
+      </c>
+      <c r="O313" t="n">
+        <v>100000</v>
+      </c>
+      <c r="P313" t="n">
+        <v>95000</v>
+      </c>
+      <c r="Q313" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R313" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S313" t="n">
+        <v>238</v>
+      </c>
+      <c r="T313" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>2</v>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D314" s="2" t="n">
+        <v>44461</v>
+      </c>
+      <c r="E314" t="n">
+        <v>4</v>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G314" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H314" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I314" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J314" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>Lane Late</t>
+        </is>
+      </c>
+      <c r="L314" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M314" t="n">
+        <v>20</v>
+      </c>
+      <c r="N314" t="n">
+        <v>100000</v>
+      </c>
+      <c r="O314" t="n">
+        <v>110000</v>
+      </c>
+      <c r="P314" t="n">
+        <v>105000</v>
+      </c>
+      <c r="Q314" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R314" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S314" t="n">
+        <v>262</v>
+      </c>
+      <c r="T314" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>2</v>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D315" s="2" t="n">
+        <v>44461</v>
+      </c>
+      <c r="E315" t="n">
+        <v>4</v>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G315" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H315" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I315" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J315" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>Lane Late</t>
+        </is>
+      </c>
+      <c r="L315" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M315" t="n">
+        <v>20</v>
+      </c>
+      <c r="N315" t="n">
+        <v>80000</v>
+      </c>
+      <c r="O315" t="n">
+        <v>90000</v>
+      </c>
+      <c r="P315" t="n">
+        <v>85000</v>
+      </c>
+      <c r="Q315" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R315" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S315" t="n">
+        <v>212</v>
+      </c>
+      <c r="T315" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>2</v>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D316" s="2" t="n">
         <v>44286</v>
       </c>
-      <c r="E313" t="n">
-        <v>4</v>
-      </c>
-      <c r="F313" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G313" t="n">
-        <v>100102</v>
-      </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>Cítricos</t>
-        </is>
-      </c>
-      <c r="I313" t="n">
-        <v>100102005</v>
-      </c>
-      <c r="J313" t="inlineStr">
-        <is>
-          <t>Naranja</t>
-        </is>
-      </c>
-      <c r="K313" t="inlineStr">
+      <c r="E316" t="n">
+        <v>4</v>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G316" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H316" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I316" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J316" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K316" t="inlineStr">
         <is>
           <t>Valencia</t>
         </is>
       </c>
-      <c r="L313" t="inlineStr">
+      <c r="L316" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M316" t="n">
+        <v>20</v>
+      </c>
+      <c r="N316" t="n">
+        <v>475000</v>
+      </c>
+      <c r="O316" t="n">
+        <v>480000</v>
+      </c>
+      <c r="P316" t="n">
+        <v>477500</v>
+      </c>
+      <c r="Q316" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R316" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S316" t="n">
+        <v>1194</v>
+      </c>
+      <c r="T316" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>2</v>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D317" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="E317" t="n">
+        <v>4</v>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G317" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H317" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I317" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J317" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="L317" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M313" t="n">
-        <v>20</v>
-      </c>
-      <c r="N313" t="n">
+      <c r="M317" t="n">
+        <v>20</v>
+      </c>
+      <c r="N317" t="n">
         <v>455000</v>
       </c>
-      <c r="O313" t="n">
+      <c r="O317" t="n">
         <v>460000</v>
       </c>
-      <c r="P313" t="n">
+      <c r="P317" t="n">
         <v>457500</v>
       </c>
-      <c r="Q313" t="inlineStr">
-        <is>
-          <t>$/bins (400 kilos)</t>
-        </is>
-      </c>
-      <c r="R313" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="S313" t="n">
+      <c r="Q317" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R317" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S317" t="n">
         <v>1144</v>
       </c>
-      <c r="T313" t="n">
+      <c r="T317" t="n">
         <v>400</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Comercializadora del Agro de Limarí - Naranja.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Comercializadora del Agro de Limarí - Naranja.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T317"/>
+  <dimension ref="A1:T321"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9527,7 +9527,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44412</v>
+        <v>44482</v>
       </c>
       <c r="E115" t="n">
         <v>4</v>
@@ -9555,7 +9555,7 @@
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>Cara cara</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
@@ -9567,13 +9567,13 @@
         <v>20</v>
       </c>
       <c r="N115" t="n">
-        <v>115000</v>
+        <v>125000</v>
       </c>
       <c r="O115" t="n">
-        <v>120000</v>
+        <v>130000</v>
       </c>
       <c r="P115" t="n">
-        <v>117500</v>
+        <v>127500</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
@@ -9586,7 +9586,7 @@
         </is>
       </c>
       <c r="S115" t="n">
-        <v>294</v>
+        <v>319</v>
       </c>
       <c r="T115" t="n">
         <v>400</v>
@@ -9607,7 +9607,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44412</v>
+        <v>44482</v>
       </c>
       <c r="E116" t="n">
         <v>4</v>
@@ -9635,7 +9635,7 @@
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>Cara cara</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
@@ -9647,13 +9647,13 @@
         <v>20</v>
       </c>
       <c r="N116" t="n">
-        <v>85000</v>
+        <v>95000</v>
       </c>
       <c r="O116" t="n">
-        <v>90000</v>
+        <v>100000</v>
       </c>
       <c r="P116" t="n">
-        <v>87500</v>
+        <v>97500</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         </is>
       </c>
       <c r="S116" t="n">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="T116" t="n">
         <v>400</v>
@@ -9687,7 +9687,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44412</v>
+        <v>44482</v>
       </c>
       <c r="E117" t="n">
         <v>4</v>
@@ -9715,7 +9715,7 @@
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
@@ -9727,13 +9727,13 @@
         <v>20</v>
       </c>
       <c r="N117" t="n">
-        <v>105000</v>
+        <v>125000</v>
       </c>
       <c r="O117" t="n">
-        <v>110000</v>
+        <v>130000</v>
       </c>
       <c r="P117" t="n">
-        <v>107500</v>
+        <v>127500</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="S117" t="n">
-        <v>269</v>
+        <v>319</v>
       </c>
       <c r="T117" t="n">
         <v>400</v>
@@ -9767,7 +9767,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44412</v>
+        <v>44482</v>
       </c>
       <c r="E118" t="n">
         <v>4</v>
@@ -9795,7 +9795,7 @@
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
@@ -9807,13 +9807,13 @@
         <v>20</v>
       </c>
       <c r="N118" t="n">
-        <v>75000</v>
+        <v>95000</v>
       </c>
       <c r="O118" t="n">
-        <v>80000</v>
+        <v>100000</v>
       </c>
       <c r="P118" t="n">
-        <v>77500</v>
+        <v>97500</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         </is>
       </c>
       <c r="S118" t="n">
-        <v>194</v>
+        <v>244</v>
       </c>
       <c r="T118" t="n">
         <v>400</v>
@@ -9875,7 +9875,7 @@
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Cara cara</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
@@ -9955,7 +9955,7 @@
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Cara cara</t>
         </is>
       </c>
       <c r="L120" t="inlineStr">
@@ -10035,7 +10035,7 @@
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L121" t="inlineStr">
@@ -10047,13 +10047,13 @@
         <v>20</v>
       </c>
       <c r="N121" t="n">
-        <v>115000</v>
+        <v>105000</v>
       </c>
       <c r="O121" t="n">
-        <v>120000</v>
+        <v>110000</v>
       </c>
       <c r="P121" t="n">
-        <v>117500</v>
+        <v>107500</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
@@ -10066,7 +10066,7 @@
         </is>
       </c>
       <c r="S121" t="n">
-        <v>294</v>
+        <v>269</v>
       </c>
       <c r="T121" t="n">
         <v>400</v>
@@ -10115,7 +10115,7 @@
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L122" t="inlineStr">
@@ -10127,13 +10127,13 @@
         <v>20</v>
       </c>
       <c r="N122" t="n">
-        <v>85000</v>
+        <v>75000</v>
       </c>
       <c r="O122" t="n">
-        <v>90000</v>
+        <v>80000</v>
       </c>
       <c r="P122" t="n">
-        <v>87500</v>
+        <v>77500</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="S122" t="n">
-        <v>219</v>
+        <v>194</v>
       </c>
       <c r="T122" t="n">
         <v>400</v>
@@ -10167,7 +10167,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E123" t="n">
         <v>4</v>
@@ -10195,7 +10195,7 @@
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L123" t="inlineStr">
@@ -10207,13 +10207,13 @@
         <v>20</v>
       </c>
       <c r="N123" t="n">
-        <v>250000</v>
+        <v>115000</v>
       </c>
       <c r="O123" t="n">
-        <v>255000</v>
+        <v>120000</v>
       </c>
       <c r="P123" t="n">
-        <v>252500</v>
+        <v>117500</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         </is>
       </c>
       <c r="S123" t="n">
-        <v>631</v>
+        <v>294</v>
       </c>
       <c r="T123" t="n">
         <v>400</v>
@@ -10247,7 +10247,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E124" t="n">
         <v>4</v>
@@ -10275,25 +10275,25 @@
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M124" t="n">
         <v>20</v>
       </c>
       <c r="N124" t="n">
-        <v>250000</v>
+        <v>85000</v>
       </c>
       <c r="O124" t="n">
-        <v>255000</v>
+        <v>90000</v>
       </c>
       <c r="P124" t="n">
-        <v>252500</v>
+        <v>87500</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
@@ -10306,7 +10306,7 @@
         </is>
       </c>
       <c r="S124" t="n">
-        <v>631</v>
+        <v>219</v>
       </c>
       <c r="T124" t="n">
         <v>400</v>
@@ -10327,7 +10327,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44308</v>
+        <v>44412</v>
       </c>
       <c r="E125" t="n">
         <v>4</v>
@@ -10355,7 +10355,7 @@
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L125" t="inlineStr">
@@ -10367,13 +10367,13 @@
         <v>20</v>
       </c>
       <c r="N125" t="n">
-        <v>385000</v>
+        <v>115000</v>
       </c>
       <c r="O125" t="n">
-        <v>390000</v>
+        <v>120000</v>
       </c>
       <c r="P125" t="n">
-        <v>387500</v>
+        <v>117500</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         </is>
       </c>
       <c r="S125" t="n">
-        <v>969</v>
+        <v>294</v>
       </c>
       <c r="T125" t="n">
         <v>400</v>
@@ -10407,7 +10407,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44308</v>
+        <v>44412</v>
       </c>
       <c r="E126" t="n">
         <v>4</v>
@@ -10435,7 +10435,7 @@
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L126" t="inlineStr">
@@ -10447,13 +10447,13 @@
         <v>20</v>
       </c>
       <c r="N126" t="n">
-        <v>345000</v>
+        <v>85000</v>
       </c>
       <c r="O126" t="n">
-        <v>350000</v>
+        <v>90000</v>
       </c>
       <c r="P126" t="n">
-        <v>347500</v>
+        <v>87500</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
@@ -10466,7 +10466,7 @@
         </is>
       </c>
       <c r="S126" t="n">
-        <v>869</v>
+        <v>219</v>
       </c>
       <c r="T126" t="n">
         <v>400</v>
@@ -10487,7 +10487,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44308</v>
+        <v>44336</v>
       </c>
       <c r="E127" t="n">
         <v>4</v>
@@ -10515,7 +10515,7 @@
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L127" t="inlineStr">
@@ -10527,13 +10527,13 @@
         <v>20</v>
       </c>
       <c r="N127" t="n">
-        <v>385000</v>
+        <v>250000</v>
       </c>
       <c r="O127" t="n">
-        <v>390000</v>
+        <v>255000</v>
       </c>
       <c r="P127" t="n">
-        <v>387500</v>
+        <v>252500</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="S127" t="n">
-        <v>969</v>
+        <v>631</v>
       </c>
       <c r="T127" t="n">
         <v>400</v>
@@ -10567,7 +10567,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44308</v>
+        <v>44336</v>
       </c>
       <c r="E128" t="n">
         <v>4</v>
@@ -10600,20 +10600,20 @@
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M128" t="n">
         <v>20</v>
       </c>
       <c r="N128" t="n">
-        <v>345000</v>
+        <v>250000</v>
       </c>
       <c r="O128" t="n">
-        <v>350000</v>
+        <v>255000</v>
       </c>
       <c r="P128" t="n">
-        <v>347500</v>
+        <v>252500</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
@@ -10626,7 +10626,7 @@
         </is>
       </c>
       <c r="S128" t="n">
-        <v>869</v>
+        <v>631</v>
       </c>
       <c r="T128" t="n">
         <v>400</v>
@@ -10675,7 +10675,7 @@
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L129" t="inlineStr">
@@ -10687,13 +10687,13 @@
         <v>20</v>
       </c>
       <c r="N129" t="n">
-        <v>495000</v>
+        <v>385000</v>
       </c>
       <c r="O129" t="n">
-        <v>500000</v>
+        <v>390000</v>
       </c>
       <c r="P129" t="n">
-        <v>497500</v>
+        <v>387500</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
@@ -10706,7 +10706,7 @@
         </is>
       </c>
       <c r="S129" t="n">
-        <v>1244</v>
+        <v>969</v>
       </c>
       <c r="T129" t="n">
         <v>400</v>
@@ -10727,7 +10727,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44322</v>
+        <v>44308</v>
       </c>
       <c r="E130" t="n">
         <v>4</v>
@@ -10760,20 +10760,20 @@
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M130" t="n">
         <v>20</v>
       </c>
       <c r="N130" t="n">
-        <v>310000</v>
+        <v>345000</v>
       </c>
       <c r="O130" t="n">
-        <v>320000</v>
+        <v>350000</v>
       </c>
       <c r="P130" t="n">
-        <v>315000</v>
+        <v>347500</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         </is>
       </c>
       <c r="S130" t="n">
-        <v>788</v>
+        <v>869</v>
       </c>
       <c r="T130" t="n">
         <v>400</v>
@@ -10807,7 +10807,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44322</v>
+        <v>44308</v>
       </c>
       <c r="E131" t="n">
         <v>4</v>
@@ -10835,25 +10835,25 @@
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M131" t="n">
         <v>20</v>
       </c>
       <c r="N131" t="n">
-        <v>270000</v>
+        <v>385000</v>
       </c>
       <c r="O131" t="n">
-        <v>280000</v>
+        <v>390000</v>
       </c>
       <c r="P131" t="n">
-        <v>275000</v>
+        <v>387500</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
@@ -10866,7 +10866,7 @@
         </is>
       </c>
       <c r="S131" t="n">
-        <v>688</v>
+        <v>969</v>
       </c>
       <c r="T131" t="n">
         <v>400</v>
@@ -10887,7 +10887,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44322</v>
+        <v>44308</v>
       </c>
       <c r="E132" t="n">
         <v>4</v>
@@ -10915,25 +10915,25 @@
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M132" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N132" t="n">
-        <v>460000</v>
+        <v>345000</v>
       </c>
       <c r="O132" t="n">
-        <v>470000</v>
+        <v>350000</v>
       </c>
       <c r="P132" t="n">
-        <v>465000</v>
+        <v>347500</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="S132" t="n">
-        <v>1162</v>
+        <v>869</v>
       </c>
       <c r="T132" t="n">
         <v>400</v>
@@ -10967,7 +10967,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44265</v>
+        <v>44308</v>
       </c>
       <c r="E133" t="n">
         <v>4</v>
@@ -11007,13 +11007,13 @@
         <v>20</v>
       </c>
       <c r="N133" t="n">
-        <v>455000</v>
+        <v>495000</v>
       </c>
       <c r="O133" t="n">
-        <v>460000</v>
+        <v>500000</v>
       </c>
       <c r="P133" t="n">
-        <v>457500</v>
+        <v>497500</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
@@ -11026,7 +11026,7 @@
         </is>
       </c>
       <c r="S133" t="n">
-        <v>1144</v>
+        <v>1244</v>
       </c>
       <c r="T133" t="n">
         <v>400</v>
@@ -11047,7 +11047,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44265</v>
+        <v>44322</v>
       </c>
       <c r="E134" t="n">
         <v>4</v>
@@ -11075,25 +11075,25 @@
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M134" t="n">
         <v>20</v>
       </c>
       <c r="N134" t="n">
-        <v>415000</v>
+        <v>310000</v>
       </c>
       <c r="O134" t="n">
-        <v>420000</v>
+        <v>320000</v>
       </c>
       <c r="P134" t="n">
-        <v>417500</v>
+        <v>315000</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
@@ -11106,7 +11106,7 @@
         </is>
       </c>
       <c r="S134" t="n">
-        <v>1044</v>
+        <v>788</v>
       </c>
       <c r="T134" t="n">
         <v>400</v>
@@ -11127,7 +11127,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44224</v>
+        <v>44322</v>
       </c>
       <c r="E135" t="n">
         <v>4</v>
@@ -11155,25 +11155,25 @@
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M135" t="n">
         <v>20</v>
       </c>
       <c r="N135" t="n">
-        <v>515000</v>
+        <v>270000</v>
       </c>
       <c r="O135" t="n">
-        <v>520000</v>
+        <v>280000</v>
       </c>
       <c r="P135" t="n">
-        <v>517500</v>
+        <v>275000</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
@@ -11186,7 +11186,7 @@
         </is>
       </c>
       <c r="S135" t="n">
-        <v>1294</v>
+        <v>688</v>
       </c>
       <c r="T135" t="n">
         <v>400</v>
@@ -11207,7 +11207,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44224</v>
+        <v>44322</v>
       </c>
       <c r="E136" t="n">
         <v>4</v>
@@ -11244,16 +11244,16 @@
         </is>
       </c>
       <c r="M136" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N136" t="n">
-        <v>495000</v>
+        <v>460000</v>
       </c>
       <c r="O136" t="n">
-        <v>500000</v>
+        <v>470000</v>
       </c>
       <c r="P136" t="n">
-        <v>497500</v>
+        <v>465000</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         </is>
       </c>
       <c r="S136" t="n">
-        <v>1244</v>
+        <v>1162</v>
       </c>
       <c r="T136" t="n">
         <v>400</v>
@@ -11287,7 +11287,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44315</v>
+        <v>44265</v>
       </c>
       <c r="E137" t="n">
         <v>4</v>
@@ -11315,7 +11315,7 @@
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L137" t="inlineStr">
@@ -11327,13 +11327,13 @@
         <v>20</v>
       </c>
       <c r="N137" t="n">
-        <v>355000</v>
+        <v>455000</v>
       </c>
       <c r="O137" t="n">
-        <v>360000</v>
+        <v>460000</v>
       </c>
       <c r="P137" t="n">
-        <v>357500</v>
+        <v>457500</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="S137" t="n">
-        <v>894</v>
+        <v>1144</v>
       </c>
       <c r="T137" t="n">
         <v>400</v>
@@ -11367,7 +11367,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44315</v>
+        <v>44265</v>
       </c>
       <c r="E138" t="n">
         <v>4</v>
@@ -11395,7 +11395,7 @@
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L138" t="inlineStr">
@@ -11407,13 +11407,13 @@
         <v>20</v>
       </c>
       <c r="N138" t="n">
-        <v>325000</v>
+        <v>415000</v>
       </c>
       <c r="O138" t="n">
-        <v>330000</v>
+        <v>420000</v>
       </c>
       <c r="P138" t="n">
-        <v>327500</v>
+        <v>417500</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
@@ -11426,7 +11426,7 @@
         </is>
       </c>
       <c r="S138" t="n">
-        <v>819</v>
+        <v>1044</v>
       </c>
       <c r="T138" t="n">
         <v>400</v>
@@ -11447,7 +11447,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44315</v>
+        <v>44224</v>
       </c>
       <c r="E139" t="n">
         <v>4</v>
@@ -11475,25 +11475,25 @@
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M139" t="n">
         <v>20</v>
       </c>
       <c r="N139" t="n">
-        <v>355000</v>
+        <v>515000</v>
       </c>
       <c r="O139" t="n">
-        <v>360000</v>
+        <v>520000</v>
       </c>
       <c r="P139" t="n">
-        <v>357500</v>
+        <v>517500</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
@@ -11506,7 +11506,7 @@
         </is>
       </c>
       <c r="S139" t="n">
-        <v>894</v>
+        <v>1294</v>
       </c>
       <c r="T139" t="n">
         <v>400</v>
@@ -11527,7 +11527,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44315</v>
+        <v>44224</v>
       </c>
       <c r="E140" t="n">
         <v>4</v>
@@ -11555,25 +11555,25 @@
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M140" t="n">
         <v>20</v>
       </c>
       <c r="N140" t="n">
-        <v>325000</v>
+        <v>495000</v>
       </c>
       <c r="O140" t="n">
-        <v>330000</v>
+        <v>500000</v>
       </c>
       <c r="P140" t="n">
-        <v>327500</v>
+        <v>497500</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
@@ -11586,7 +11586,7 @@
         </is>
       </c>
       <c r="S140" t="n">
-        <v>819</v>
+        <v>1244</v>
       </c>
       <c r="T140" t="n">
         <v>400</v>
@@ -11635,7 +11635,7 @@
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L141" t="inlineStr">
@@ -11647,13 +11647,13 @@
         <v>20</v>
       </c>
       <c r="N141" t="n">
-        <v>470000</v>
+        <v>355000</v>
       </c>
       <c r="O141" t="n">
-        <v>480000</v>
+        <v>360000</v>
       </c>
       <c r="P141" t="n">
-        <v>475000</v>
+        <v>357500</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         </is>
       </c>
       <c r="S141" t="n">
-        <v>1188</v>
+        <v>894</v>
       </c>
       <c r="T141" t="n">
         <v>400</v>
@@ -11687,7 +11687,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44293</v>
+        <v>44315</v>
       </c>
       <c r="E142" t="n">
         <v>4</v>
@@ -11715,25 +11715,25 @@
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M142" t="n">
         <v>20</v>
       </c>
       <c r="N142" t="n">
-        <v>475000</v>
+        <v>325000</v>
       </c>
       <c r="O142" t="n">
-        <v>480000</v>
+        <v>330000</v>
       </c>
       <c r="P142" t="n">
-        <v>477500</v>
+        <v>327500</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="S142" t="n">
-        <v>1194</v>
+        <v>819</v>
       </c>
       <c r="T142" t="n">
         <v>400</v>
@@ -11767,7 +11767,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44343</v>
+        <v>44315</v>
       </c>
       <c r="E143" t="n">
         <v>4</v>
@@ -11795,25 +11795,25 @@
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M143" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N143" t="n">
-        <v>235000</v>
+        <v>355000</v>
       </c>
       <c r="O143" t="n">
-        <v>240000</v>
+        <v>360000</v>
       </c>
       <c r="P143" t="n">
-        <v>237500</v>
+        <v>357500</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
@@ -11826,7 +11826,7 @@
         </is>
       </c>
       <c r="S143" t="n">
-        <v>594</v>
+        <v>894</v>
       </c>
       <c r="T143" t="n">
         <v>400</v>
@@ -11847,7 +11847,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44343</v>
+        <v>44315</v>
       </c>
       <c r="E144" t="n">
         <v>4</v>
@@ -11875,25 +11875,25 @@
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M144" t="n">
         <v>20</v>
       </c>
       <c r="N144" t="n">
-        <v>195000</v>
+        <v>325000</v>
       </c>
       <c r="O144" t="n">
-        <v>200000</v>
+        <v>330000</v>
       </c>
       <c r="P144" t="n">
-        <v>197500</v>
+        <v>327500</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
@@ -11906,7 +11906,7 @@
         </is>
       </c>
       <c r="S144" t="n">
-        <v>494</v>
+        <v>819</v>
       </c>
       <c r="T144" t="n">
         <v>400</v>
@@ -11927,7 +11927,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44343</v>
+        <v>44315</v>
       </c>
       <c r="E145" t="n">
         <v>4</v>
@@ -11955,25 +11955,25 @@
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M145" t="n">
         <v>20</v>
       </c>
       <c r="N145" t="n">
-        <v>165000</v>
+        <v>470000</v>
       </c>
       <c r="O145" t="n">
-        <v>170000</v>
+        <v>480000</v>
       </c>
       <c r="P145" t="n">
-        <v>167500</v>
+        <v>475000</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         </is>
       </c>
       <c r="S145" t="n">
-        <v>419</v>
+        <v>1188</v>
       </c>
       <c r="T145" t="n">
         <v>400</v>
@@ -12007,7 +12007,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44195</v>
+        <v>44293</v>
       </c>
       <c r="E146" t="n">
         <v>4</v>
@@ -12044,16 +12044,16 @@
         </is>
       </c>
       <c r="M146" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N146" t="n">
-        <v>390000</v>
+        <v>475000</v>
       </c>
       <c r="O146" t="n">
-        <v>400000</v>
+        <v>480000</v>
       </c>
       <c r="P146" t="n">
-        <v>395000</v>
+        <v>477500</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         </is>
       </c>
       <c r="S146" t="n">
-        <v>988</v>
+        <v>1194</v>
       </c>
       <c r="T146" t="n">
         <v>400</v>
@@ -12087,7 +12087,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44209</v>
+        <v>44343</v>
       </c>
       <c r="E147" t="n">
         <v>4</v>
@@ -12115,7 +12115,7 @@
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L147" t="inlineStr">
@@ -12124,16 +12124,16 @@
         </is>
       </c>
       <c r="M147" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N147" t="n">
-        <v>465000</v>
+        <v>235000</v>
       </c>
       <c r="O147" t="n">
-        <v>470000</v>
+        <v>240000</v>
       </c>
       <c r="P147" t="n">
-        <v>467500</v>
+        <v>237500</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="S147" t="n">
-        <v>1169</v>
+        <v>594</v>
       </c>
       <c r="T147" t="n">
         <v>400</v>
@@ -12167,7 +12167,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44209</v>
+        <v>44343</v>
       </c>
       <c r="E148" t="n">
         <v>4</v>
@@ -12195,7 +12195,7 @@
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L148" t="inlineStr">
@@ -12207,13 +12207,13 @@
         <v>20</v>
       </c>
       <c r="N148" t="n">
-        <v>415000</v>
+        <v>195000</v>
       </c>
       <c r="O148" t="n">
-        <v>420000</v>
+        <v>200000</v>
       </c>
       <c r="P148" t="n">
-        <v>417500</v>
+        <v>197500</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
@@ -12226,7 +12226,7 @@
         </is>
       </c>
       <c r="S148" t="n">
-        <v>1044</v>
+        <v>494</v>
       </c>
       <c r="T148" t="n">
         <v>400</v>
@@ -12247,7 +12247,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44209</v>
+        <v>44343</v>
       </c>
       <c r="E149" t="n">
         <v>4</v>
@@ -12275,7 +12275,7 @@
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L149" t="inlineStr">
@@ -12287,13 +12287,13 @@
         <v>20</v>
       </c>
       <c r="N149" t="n">
-        <v>365000</v>
+        <v>165000</v>
       </c>
       <c r="O149" t="n">
-        <v>370000</v>
+        <v>170000</v>
       </c>
       <c r="P149" t="n">
-        <v>367500</v>
+        <v>167500</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
@@ -12306,7 +12306,7 @@
         </is>
       </c>
       <c r="S149" t="n">
-        <v>919</v>
+        <v>419</v>
       </c>
       <c r="T149" t="n">
         <v>400</v>
@@ -12327,7 +12327,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44447</v>
+        <v>44195</v>
       </c>
       <c r="E150" t="n">
         <v>4</v>
@@ -12355,7 +12355,7 @@
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L150" t="inlineStr">
@@ -12364,16 +12364,16 @@
         </is>
       </c>
       <c r="M150" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N150" t="n">
-        <v>110000</v>
+        <v>390000</v>
       </c>
       <c r="O150" t="n">
-        <v>120000</v>
+        <v>400000</v>
       </c>
       <c r="P150" t="n">
-        <v>115000</v>
+        <v>395000</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
@@ -12386,7 +12386,7 @@
         </is>
       </c>
       <c r="S150" t="n">
-        <v>288</v>
+        <v>988</v>
       </c>
       <c r="T150" t="n">
         <v>400</v>
@@ -12407,7 +12407,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44447</v>
+        <v>44209</v>
       </c>
       <c r="E151" t="n">
         <v>4</v>
@@ -12435,25 +12435,25 @@
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M151" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="N151" t="n">
-        <v>80000</v>
+        <v>465000</v>
       </c>
       <c r="O151" t="n">
-        <v>90000</v>
+        <v>470000</v>
       </c>
       <c r="P151" t="n">
-        <v>86429</v>
+        <v>467500</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         </is>
       </c>
       <c r="S151" t="n">
-        <v>216</v>
+        <v>1169</v>
       </c>
       <c r="T151" t="n">
         <v>400</v>
@@ -12487,7 +12487,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44447</v>
+        <v>44209</v>
       </c>
       <c r="E152" t="n">
         <v>4</v>
@@ -12515,7 +12515,7 @@
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L152" t="inlineStr">
@@ -12527,13 +12527,13 @@
         <v>20</v>
       </c>
       <c r="N152" t="n">
-        <v>110000</v>
+        <v>415000</v>
       </c>
       <c r="O152" t="n">
-        <v>120000</v>
+        <v>420000</v>
       </c>
       <c r="P152" t="n">
-        <v>115000</v>
+        <v>417500</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="S152" t="n">
-        <v>288</v>
+        <v>1044</v>
       </c>
       <c r="T152" t="n">
         <v>400</v>
@@ -12567,7 +12567,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44447</v>
+        <v>44209</v>
       </c>
       <c r="E153" t="n">
         <v>4</v>
@@ -12595,7 +12595,7 @@
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L153" t="inlineStr">
@@ -12607,13 +12607,13 @@
         <v>20</v>
       </c>
       <c r="N153" t="n">
-        <v>80000</v>
+        <v>365000</v>
       </c>
       <c r="O153" t="n">
-        <v>90000</v>
+        <v>370000</v>
       </c>
       <c r="P153" t="n">
-        <v>85000</v>
+        <v>367500</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
@@ -12626,7 +12626,7 @@
         </is>
       </c>
       <c r="S153" t="n">
-        <v>212</v>
+        <v>919</v>
       </c>
       <c r="T153" t="n">
         <v>400</v>
@@ -12647,7 +12647,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44294</v>
+        <v>44447</v>
       </c>
       <c r="E154" t="n">
         <v>4</v>
@@ -12675,7 +12675,7 @@
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L154" t="inlineStr">
@@ -12687,13 +12687,13 @@
         <v>20</v>
       </c>
       <c r="N154" t="n">
-        <v>475000</v>
+        <v>110000</v>
       </c>
       <c r="O154" t="n">
-        <v>480000</v>
+        <v>120000</v>
       </c>
       <c r="P154" t="n">
-        <v>477500</v>
+        <v>115000</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
@@ -12706,7 +12706,7 @@
         </is>
       </c>
       <c r="S154" t="n">
-        <v>1194</v>
+        <v>288</v>
       </c>
       <c r="T154" t="n">
         <v>400</v>
@@ -12727,7 +12727,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44356</v>
+        <v>44447</v>
       </c>
       <c r="E155" t="n">
         <v>4</v>
@@ -12755,25 +12755,25 @@
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M155" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N155" t="n">
-        <v>145000</v>
+        <v>80000</v>
       </c>
       <c r="O155" t="n">
-        <v>150000</v>
+        <v>90000</v>
       </c>
       <c r="P155" t="n">
-        <v>147500</v>
+        <v>86429</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         </is>
       </c>
       <c r="S155" t="n">
-        <v>369</v>
+        <v>216</v>
       </c>
       <c r="T155" t="n">
         <v>400</v>
@@ -12807,7 +12807,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44356</v>
+        <v>44447</v>
       </c>
       <c r="E156" t="n">
         <v>4</v>
@@ -12835,25 +12835,25 @@
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M156" t="n">
         <v>20</v>
       </c>
       <c r="N156" t="n">
-        <v>115000</v>
+        <v>110000</v>
       </c>
       <c r="O156" t="n">
         <v>120000</v>
       </c>
       <c r="P156" t="n">
-        <v>117500</v>
+        <v>115000</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
@@ -12866,7 +12866,7 @@
         </is>
       </c>
       <c r="S156" t="n">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="T156" t="n">
         <v>400</v>
@@ -12887,7 +12887,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44356</v>
+        <v>44447</v>
       </c>
       <c r="E157" t="n">
         <v>4</v>
@@ -12915,25 +12915,25 @@
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M157" t="n">
         <v>20</v>
       </c>
       <c r="N157" t="n">
-        <v>145000</v>
+        <v>80000</v>
       </c>
       <c r="O157" t="n">
-        <v>150000</v>
+        <v>90000</v>
       </c>
       <c r="P157" t="n">
-        <v>147500</v>
+        <v>85000</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="S157" t="n">
-        <v>369</v>
+        <v>212</v>
       </c>
       <c r="T157" t="n">
         <v>400</v>
@@ -12967,7 +12967,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44356</v>
+        <v>44294</v>
       </c>
       <c r="E158" t="n">
         <v>4</v>
@@ -12995,25 +12995,25 @@
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M158" t="n">
         <v>20</v>
       </c>
       <c r="N158" t="n">
-        <v>115000</v>
+        <v>475000</v>
       </c>
       <c r="O158" t="n">
-        <v>120000</v>
+        <v>480000</v>
       </c>
       <c r="P158" t="n">
-        <v>117500</v>
+        <v>477500</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         </is>
       </c>
       <c r="S158" t="n">
-        <v>294</v>
+        <v>1194</v>
       </c>
       <c r="T158" t="n">
         <v>400</v>
@@ -13047,7 +13047,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44454</v>
+        <v>44356</v>
       </c>
       <c r="E159" t="n">
         <v>4</v>
@@ -13075,7 +13075,7 @@
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L159" t="inlineStr">
@@ -13087,13 +13087,13 @@
         <v>20</v>
       </c>
       <c r="N159" t="n">
-        <v>100000</v>
+        <v>145000</v>
       </c>
       <c r="O159" t="n">
-        <v>110000</v>
+        <v>150000</v>
       </c>
       <c r="P159" t="n">
-        <v>105000</v>
+        <v>147500</v>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         </is>
       </c>
       <c r="S159" t="n">
-        <v>262</v>
+        <v>369</v>
       </c>
       <c r="T159" t="n">
         <v>400</v>
@@ -13127,7 +13127,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44454</v>
+        <v>44356</v>
       </c>
       <c r="E160" t="n">
         <v>4</v>
@@ -13155,7 +13155,7 @@
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L160" t="inlineStr">
@@ -13164,16 +13164,16 @@
         </is>
       </c>
       <c r="M160" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="N160" t="n">
-        <v>80000</v>
+        <v>115000</v>
       </c>
       <c r="O160" t="n">
-        <v>90000</v>
+        <v>120000</v>
       </c>
       <c r="P160" t="n">
-        <v>86429</v>
+        <v>117500</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         </is>
       </c>
       <c r="S160" t="n">
-        <v>216</v>
+        <v>294</v>
       </c>
       <c r="T160" t="n">
         <v>400</v>
@@ -13207,7 +13207,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44454</v>
+        <v>44356</v>
       </c>
       <c r="E161" t="n">
         <v>4</v>
@@ -13235,7 +13235,7 @@
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L161" t="inlineStr">
@@ -13247,13 +13247,13 @@
         <v>20</v>
       </c>
       <c r="N161" t="n">
-        <v>100000</v>
+        <v>145000</v>
       </c>
       <c r="O161" t="n">
-        <v>110000</v>
+        <v>150000</v>
       </c>
       <c r="P161" t="n">
-        <v>105000</v>
+        <v>147500</v>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
@@ -13266,7 +13266,7 @@
         </is>
       </c>
       <c r="S161" t="n">
-        <v>262</v>
+        <v>369</v>
       </c>
       <c r="T161" t="n">
         <v>400</v>
@@ -13287,7 +13287,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44454</v>
+        <v>44356</v>
       </c>
       <c r="E162" t="n">
         <v>4</v>
@@ -13315,7 +13315,7 @@
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L162" t="inlineStr">
@@ -13327,13 +13327,13 @@
         <v>20</v>
       </c>
       <c r="N162" t="n">
-        <v>80000</v>
+        <v>115000</v>
       </c>
       <c r="O162" t="n">
-        <v>90000</v>
+        <v>120000</v>
       </c>
       <c r="P162" t="n">
-        <v>85000</v>
+        <v>117500</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="S162" t="n">
-        <v>212</v>
+        <v>294</v>
       </c>
       <c r="T162" t="n">
         <v>400</v>
@@ -13367,7 +13367,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44427</v>
+        <v>44454</v>
       </c>
       <c r="E163" t="n">
         <v>4</v>
@@ -13395,25 +13395,25 @@
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M163" t="n">
         <v>20</v>
       </c>
       <c r="N163" t="n">
-        <v>120000</v>
+        <v>100000</v>
       </c>
       <c r="O163" t="n">
-        <v>130000</v>
+        <v>110000</v>
       </c>
       <c r="P163" t="n">
-        <v>125000</v>
+        <v>105000</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
@@ -13426,7 +13426,7 @@
         </is>
       </c>
       <c r="S163" t="n">
-        <v>312</v>
+        <v>262</v>
       </c>
       <c r="T163" t="n">
         <v>400</v>
@@ -13447,7 +13447,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44427</v>
+        <v>44454</v>
       </c>
       <c r="E164" t="n">
         <v>4</v>
@@ -13475,25 +13475,25 @@
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M164" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N164" t="n">
-        <v>100000</v>
+        <v>80000</v>
       </c>
       <c r="O164" t="n">
-        <v>110000</v>
+        <v>90000</v>
       </c>
       <c r="P164" t="n">
-        <v>105000</v>
+        <v>86429</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         </is>
       </c>
       <c r="S164" t="n">
-        <v>262</v>
+        <v>216</v>
       </c>
       <c r="T164" t="n">
         <v>400</v>
@@ -13527,7 +13527,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44427</v>
+        <v>44454</v>
       </c>
       <c r="E165" t="n">
         <v>4</v>
@@ -13555,25 +13555,25 @@
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M165" t="n">
         <v>20</v>
       </c>
       <c r="N165" t="n">
-        <v>80000</v>
+        <v>100000</v>
       </c>
       <c r="O165" t="n">
-        <v>90000</v>
+        <v>110000</v>
       </c>
       <c r="P165" t="n">
-        <v>85000</v>
+        <v>105000</v>
       </c>
       <c r="Q165" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         </is>
       </c>
       <c r="S165" t="n">
-        <v>212</v>
+        <v>262</v>
       </c>
       <c r="T165" t="n">
         <v>400</v>
@@ -13607,7 +13607,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44427</v>
+        <v>44454</v>
       </c>
       <c r="E166" t="n">
         <v>4</v>
@@ -13640,20 +13640,20 @@
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M166" t="n">
         <v>20</v>
       </c>
       <c r="N166" t="n">
-        <v>100000</v>
+        <v>80000</v>
       </c>
       <c r="O166" t="n">
-        <v>110000</v>
+        <v>90000</v>
       </c>
       <c r="P166" t="n">
-        <v>105000</v>
+        <v>85000</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         </is>
       </c>
       <c r="S166" t="n">
-        <v>262</v>
+        <v>212</v>
       </c>
       <c r="T166" t="n">
         <v>400</v>
@@ -13715,25 +13715,25 @@
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M167" t="n">
         <v>20</v>
       </c>
       <c r="N167" t="n">
-        <v>80000</v>
+        <v>120000</v>
       </c>
       <c r="O167" t="n">
-        <v>90000</v>
+        <v>130000</v>
       </c>
       <c r="P167" t="n">
-        <v>85000</v>
+        <v>125000</v>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="S167" t="n">
-        <v>212</v>
+        <v>312</v>
       </c>
       <c r="T167" t="n">
         <v>400</v>
@@ -13767,7 +13767,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44273</v>
+        <v>44427</v>
       </c>
       <c r="E168" t="n">
         <v>4</v>
@@ -13795,25 +13795,25 @@
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M168" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N168" t="n">
-        <v>475000</v>
+        <v>100000</v>
       </c>
       <c r="O168" t="n">
-        <v>480000</v>
+        <v>110000</v>
       </c>
       <c r="P168" t="n">
-        <v>477500</v>
+        <v>105000</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
@@ -13826,7 +13826,7 @@
         </is>
       </c>
       <c r="S168" t="n">
-        <v>1194</v>
+        <v>262</v>
       </c>
       <c r="T168" t="n">
         <v>400</v>
@@ -13847,7 +13847,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44273</v>
+        <v>44427</v>
       </c>
       <c r="E169" t="n">
         <v>4</v>
@@ -13875,25 +13875,25 @@
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M169" t="n">
         <v>20</v>
       </c>
       <c r="N169" t="n">
-        <v>455000</v>
+        <v>80000</v>
       </c>
       <c r="O169" t="n">
-        <v>460000</v>
+        <v>90000</v>
       </c>
       <c r="P169" t="n">
-        <v>457500</v>
+        <v>85000</v>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
@@ -13906,7 +13906,7 @@
         </is>
       </c>
       <c r="S169" t="n">
-        <v>1144</v>
+        <v>212</v>
       </c>
       <c r="T169" t="n">
         <v>400</v>
@@ -13927,7 +13927,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44273</v>
+        <v>44427</v>
       </c>
       <c r="E170" t="n">
         <v>4</v>
@@ -13955,25 +13955,25 @@
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M170" t="n">
         <v>20</v>
       </c>
       <c r="N170" t="n">
-        <v>415000</v>
+        <v>100000</v>
       </c>
       <c r="O170" t="n">
-        <v>420000</v>
+        <v>110000</v>
       </c>
       <c r="P170" t="n">
-        <v>417500</v>
+        <v>105000</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         </is>
       </c>
       <c r="S170" t="n">
-        <v>1044</v>
+        <v>262</v>
       </c>
       <c r="T170" t="n">
         <v>400</v>
@@ -14007,7 +14007,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44203</v>
+        <v>44427</v>
       </c>
       <c r="E171" t="n">
         <v>4</v>
@@ -14035,25 +14035,25 @@
       </c>
       <c r="K171" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M171" t="n">
         <v>20</v>
       </c>
       <c r="N171" t="n">
-        <v>395000</v>
+        <v>80000</v>
       </c>
       <c r="O171" t="n">
-        <v>400000</v>
+        <v>90000</v>
       </c>
       <c r="P171" t="n">
-        <v>397500</v>
+        <v>85000</v>
       </c>
       <c r="Q171" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         </is>
       </c>
       <c r="S171" t="n">
-        <v>994</v>
+        <v>212</v>
       </c>
       <c r="T171" t="n">
         <v>400</v>
@@ -14087,7 +14087,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44203</v>
+        <v>44273</v>
       </c>
       <c r="E172" t="n">
         <v>4</v>
@@ -14120,20 +14120,20 @@
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M172" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N172" t="n">
-        <v>345000</v>
+        <v>475000</v>
       </c>
       <c r="O172" t="n">
-        <v>350000</v>
+        <v>480000</v>
       </c>
       <c r="P172" t="n">
-        <v>347500</v>
+        <v>477500</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="S172" t="n">
-        <v>869</v>
+        <v>1194</v>
       </c>
       <c r="T172" t="n">
         <v>400</v>
@@ -14167,7 +14167,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44413</v>
+        <v>44273</v>
       </c>
       <c r="E173" t="n">
         <v>4</v>
@@ -14195,7 +14195,7 @@
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>Cara cara</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L173" t="inlineStr">
@@ -14207,13 +14207,13 @@
         <v>20</v>
       </c>
       <c r="N173" t="n">
-        <v>110000</v>
+        <v>455000</v>
       </c>
       <c r="O173" t="n">
-        <v>115000</v>
+        <v>460000</v>
       </c>
       <c r="P173" t="n">
-        <v>112500</v>
+        <v>457500</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
@@ -14226,7 +14226,7 @@
         </is>
       </c>
       <c r="S173" t="n">
-        <v>281</v>
+        <v>1144</v>
       </c>
       <c r="T173" t="n">
         <v>400</v>
@@ -14247,7 +14247,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44413</v>
+        <v>44273</v>
       </c>
       <c r="E174" t="n">
         <v>4</v>
@@ -14275,7 +14275,7 @@
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>Cara cara</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L174" t="inlineStr">
@@ -14287,13 +14287,13 @@
         <v>20</v>
       </c>
       <c r="N174" t="n">
-        <v>80000</v>
+        <v>415000</v>
       </c>
       <c r="O174" t="n">
-        <v>85000</v>
+        <v>420000</v>
       </c>
       <c r="P174" t="n">
-        <v>82500</v>
+        <v>417500</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
@@ -14306,7 +14306,7 @@
         </is>
       </c>
       <c r="S174" t="n">
-        <v>206</v>
+        <v>1044</v>
       </c>
       <c r="T174" t="n">
         <v>400</v>
@@ -14327,7 +14327,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44413</v>
+        <v>44203</v>
       </c>
       <c r="E175" t="n">
         <v>4</v>
@@ -14355,7 +14355,7 @@
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L175" t="inlineStr">
@@ -14367,13 +14367,13 @@
         <v>20</v>
       </c>
       <c r="N175" t="n">
-        <v>105000</v>
+        <v>395000</v>
       </c>
       <c r="O175" t="n">
-        <v>110000</v>
+        <v>400000</v>
       </c>
       <c r="P175" t="n">
-        <v>107500</v>
+        <v>397500</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         </is>
       </c>
       <c r="S175" t="n">
-        <v>269</v>
+        <v>994</v>
       </c>
       <c r="T175" t="n">
         <v>400</v>
@@ -14407,7 +14407,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44413</v>
+        <v>44203</v>
       </c>
       <c r="E176" t="n">
         <v>4</v>
@@ -14435,7 +14435,7 @@
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L176" t="inlineStr">
@@ -14447,13 +14447,13 @@
         <v>20</v>
       </c>
       <c r="N176" t="n">
-        <v>70000</v>
+        <v>345000</v>
       </c>
       <c r="O176" t="n">
-        <v>75000</v>
+        <v>350000</v>
       </c>
       <c r="P176" t="n">
-        <v>72500</v>
+        <v>347500</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         </is>
       </c>
       <c r="S176" t="n">
-        <v>181</v>
+        <v>869</v>
       </c>
       <c r="T176" t="n">
         <v>400</v>
@@ -14515,7 +14515,7 @@
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Cara cara</t>
         </is>
       </c>
       <c r="L177" t="inlineStr">
@@ -14595,7 +14595,7 @@
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Cara cara</t>
         </is>
       </c>
       <c r="L178" t="inlineStr">
@@ -14675,7 +14675,7 @@
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L179" t="inlineStr">
@@ -14687,13 +14687,13 @@
         <v>20</v>
       </c>
       <c r="N179" t="n">
+        <v>105000</v>
+      </c>
+      <c r="O179" t="n">
         <v>110000</v>
       </c>
-      <c r="O179" t="n">
-        <v>120000</v>
-      </c>
       <c r="P179" t="n">
-        <v>115000</v>
+        <v>107500</v>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
@@ -14706,7 +14706,7 @@
         </is>
       </c>
       <c r="S179" t="n">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="T179" t="n">
         <v>400</v>
@@ -14755,7 +14755,7 @@
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L180" t="inlineStr">
@@ -14767,13 +14767,13 @@
         <v>20</v>
       </c>
       <c r="N180" t="n">
-        <v>80000</v>
+        <v>70000</v>
       </c>
       <c r="O180" t="n">
-        <v>90000</v>
+        <v>75000</v>
       </c>
       <c r="P180" t="n">
-        <v>85000</v>
+        <v>72500</v>
       </c>
       <c r="Q180" t="inlineStr">
         <is>
@@ -14786,7 +14786,7 @@
         </is>
       </c>
       <c r="S180" t="n">
-        <v>212</v>
+        <v>181</v>
       </c>
       <c r="T180" t="n">
         <v>400</v>
@@ -14807,7 +14807,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44426</v>
+        <v>44413</v>
       </c>
       <c r="E181" t="n">
         <v>4</v>
@@ -14835,7 +14835,7 @@
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>Cara cara</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L181" t="inlineStr">
@@ -14847,13 +14847,13 @@
         <v>20</v>
       </c>
       <c r="N181" t="n">
-        <v>100000</v>
+        <v>110000</v>
       </c>
       <c r="O181" t="n">
-        <v>110000</v>
+        <v>115000</v>
       </c>
       <c r="P181" t="n">
-        <v>105000</v>
+        <v>112500</v>
       </c>
       <c r="Q181" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         </is>
       </c>
       <c r="S181" t="n">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="T181" t="n">
         <v>400</v>
@@ -14887,7 +14887,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44426</v>
+        <v>44413</v>
       </c>
       <c r="E182" t="n">
         <v>4</v>
@@ -14915,7 +14915,7 @@
       </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>Cara cara</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L182" t="inlineStr">
@@ -14930,10 +14930,10 @@
         <v>80000</v>
       </c>
       <c r="O182" t="n">
-        <v>90000</v>
+        <v>85000</v>
       </c>
       <c r="P182" t="n">
-        <v>85000</v>
+        <v>82500</v>
       </c>
       <c r="Q182" t="inlineStr">
         <is>
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="S182" t="n">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="T182" t="n">
         <v>400</v>
@@ -14967,7 +14967,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44426</v>
+        <v>44413</v>
       </c>
       <c r="E183" t="n">
         <v>4</v>
@@ -14995,7 +14995,7 @@
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L183" t="inlineStr">
@@ -15007,13 +15007,13 @@
         <v>20</v>
       </c>
       <c r="N183" t="n">
-        <v>100000</v>
+        <v>110000</v>
       </c>
       <c r="O183" t="n">
-        <v>110000</v>
+        <v>120000</v>
       </c>
       <c r="P183" t="n">
-        <v>105000</v>
+        <v>115000</v>
       </c>
       <c r="Q183" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         </is>
       </c>
       <c r="S183" t="n">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="T183" t="n">
         <v>400</v>
@@ -15047,7 +15047,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44426</v>
+        <v>44413</v>
       </c>
       <c r="E184" t="n">
         <v>4</v>
@@ -15075,7 +15075,7 @@
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L184" t="inlineStr">
@@ -15155,7 +15155,7 @@
       </c>
       <c r="K185" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Cara cara</t>
         </is>
       </c>
       <c r="L185" t="inlineStr">
@@ -15235,7 +15235,7 @@
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Cara cara</t>
         </is>
       </c>
       <c r="L186" t="inlineStr">
@@ -15315,7 +15315,7 @@
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L187" t="inlineStr">
@@ -15395,7 +15395,7 @@
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L188" t="inlineStr">
@@ -15447,7 +15447,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44469</v>
+        <v>44426</v>
       </c>
       <c r="E189" t="n">
         <v>4</v>
@@ -15487,13 +15487,13 @@
         <v>20</v>
       </c>
       <c r="N189" t="n">
-        <v>120000</v>
+        <v>100000</v>
       </c>
       <c r="O189" t="n">
-        <v>130000</v>
+        <v>110000</v>
       </c>
       <c r="P189" t="n">
-        <v>125000</v>
+        <v>105000</v>
       </c>
       <c r="Q189" t="inlineStr">
         <is>
@@ -15506,7 +15506,7 @@
         </is>
       </c>
       <c r="S189" t="n">
-        <v>312</v>
+        <v>262</v>
       </c>
       <c r="T189" t="n">
         <v>400</v>
@@ -15527,7 +15527,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44469</v>
+        <v>44426</v>
       </c>
       <c r="E190" t="n">
         <v>4</v>
@@ -15567,13 +15567,13 @@
         <v>20</v>
       </c>
       <c r="N190" t="n">
-        <v>100000</v>
+        <v>80000</v>
       </c>
       <c r="O190" t="n">
-        <v>110000</v>
+        <v>90000</v>
       </c>
       <c r="P190" t="n">
-        <v>105000</v>
+        <v>85000</v>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         </is>
       </c>
       <c r="S190" t="n">
-        <v>262</v>
+        <v>212</v>
       </c>
       <c r="T190" t="n">
         <v>400</v>
@@ -15607,7 +15607,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44469</v>
+        <v>44426</v>
       </c>
       <c r="E191" t="n">
         <v>4</v>
@@ -15647,13 +15647,13 @@
         <v>20</v>
       </c>
       <c r="N191" t="n">
-        <v>130000</v>
+        <v>100000</v>
       </c>
       <c r="O191" t="n">
-        <v>140000</v>
+        <v>110000</v>
       </c>
       <c r="P191" t="n">
-        <v>135000</v>
+        <v>105000</v>
       </c>
       <c r="Q191" t="inlineStr">
         <is>
@@ -15666,7 +15666,7 @@
         </is>
       </c>
       <c r="S191" t="n">
-        <v>338</v>
+        <v>262</v>
       </c>
       <c r="T191" t="n">
         <v>400</v>
@@ -15687,7 +15687,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44469</v>
+        <v>44426</v>
       </c>
       <c r="E192" t="n">
         <v>4</v>
@@ -15727,13 +15727,13 @@
         <v>20</v>
       </c>
       <c r="N192" t="n">
-        <v>110000</v>
+        <v>80000</v>
       </c>
       <c r="O192" t="n">
-        <v>120000</v>
+        <v>90000</v>
       </c>
       <c r="P192" t="n">
-        <v>115000</v>
+        <v>85000</v>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="S192" t="n">
-        <v>288</v>
+        <v>212</v>
       </c>
       <c r="T192" t="n">
         <v>400</v>
@@ -15767,7 +15767,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44168</v>
+        <v>44469</v>
       </c>
       <c r="E193" t="n">
         <v>4</v>
@@ -15795,7 +15795,7 @@
       </c>
       <c r="K193" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L193" t="inlineStr">
@@ -15807,13 +15807,13 @@
         <v>20</v>
       </c>
       <c r="N193" t="n">
-        <v>325000</v>
+        <v>120000</v>
       </c>
       <c r="O193" t="n">
-        <v>330000</v>
+        <v>130000</v>
       </c>
       <c r="P193" t="n">
-        <v>327500</v>
+        <v>125000</v>
       </c>
       <c r="Q193" t="inlineStr">
         <is>
@@ -15826,7 +15826,7 @@
         </is>
       </c>
       <c r="S193" t="n">
-        <v>819</v>
+        <v>312</v>
       </c>
       <c r="T193" t="n">
         <v>400</v>
@@ -15847,7 +15847,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44168</v>
+        <v>44469</v>
       </c>
       <c r="E194" t="n">
         <v>4</v>
@@ -15875,7 +15875,7 @@
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L194" t="inlineStr">
@@ -15887,13 +15887,13 @@
         <v>20</v>
       </c>
       <c r="N194" t="n">
-        <v>285000</v>
+        <v>100000</v>
       </c>
       <c r="O194" t="n">
-        <v>290000</v>
+        <v>110000</v>
       </c>
       <c r="P194" t="n">
-        <v>287500</v>
+        <v>105000</v>
       </c>
       <c r="Q194" t="inlineStr">
         <is>
@@ -15906,7 +15906,7 @@
         </is>
       </c>
       <c r="S194" t="n">
-        <v>719</v>
+        <v>262</v>
       </c>
       <c r="T194" t="n">
         <v>400</v>
@@ -15927,7 +15927,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44168</v>
+        <v>44469</v>
       </c>
       <c r="E195" t="n">
         <v>4</v>
@@ -15955,25 +15955,25 @@
       </c>
       <c r="K195" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M195" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N195" t="n">
-        <v>355000</v>
+        <v>130000</v>
       </c>
       <c r="O195" t="n">
-        <v>360000</v>
+        <v>140000</v>
       </c>
       <c r="P195" t="n">
-        <v>357500</v>
+        <v>135000</v>
       </c>
       <c r="Q195" t="inlineStr">
         <is>
@@ -15986,7 +15986,7 @@
         </is>
       </c>
       <c r="S195" t="n">
-        <v>894</v>
+        <v>338</v>
       </c>
       <c r="T195" t="n">
         <v>400</v>
@@ -16007,7 +16007,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44168</v>
+        <v>44469</v>
       </c>
       <c r="E196" t="n">
         <v>4</v>
@@ -16035,25 +16035,25 @@
       </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M196" t="n">
         <v>20</v>
       </c>
       <c r="N196" t="n">
-        <v>335000</v>
+        <v>110000</v>
       </c>
       <c r="O196" t="n">
-        <v>340000</v>
+        <v>120000</v>
       </c>
       <c r="P196" t="n">
-        <v>337500</v>
+        <v>115000</v>
       </c>
       <c r="Q196" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         </is>
       </c>
       <c r="S196" t="n">
-        <v>844</v>
+        <v>288</v>
       </c>
       <c r="T196" t="n">
         <v>400</v>
@@ -16115,25 +16115,25 @@
       </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M197" t="n">
         <v>20</v>
       </c>
       <c r="N197" t="n">
-        <v>295000</v>
+        <v>325000</v>
       </c>
       <c r="O197" t="n">
-        <v>300000</v>
+        <v>330000</v>
       </c>
       <c r="P197" t="n">
-        <v>297500</v>
+        <v>327500</v>
       </c>
       <c r="Q197" t="inlineStr">
         <is>
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="S197" t="n">
-        <v>744</v>
+        <v>819</v>
       </c>
       <c r="T197" t="n">
         <v>400</v>
@@ -16167,7 +16167,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44434</v>
+        <v>44168</v>
       </c>
       <c r="E198" t="n">
         <v>4</v>
@@ -16195,25 +16195,25 @@
       </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M198" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N198" t="n">
-        <v>125000</v>
+        <v>285000</v>
       </c>
       <c r="O198" t="n">
-        <v>130000</v>
+        <v>290000</v>
       </c>
       <c r="P198" t="n">
-        <v>127500</v>
+        <v>287500</v>
       </c>
       <c r="Q198" t="inlineStr">
         <is>
@@ -16226,7 +16226,7 @@
         </is>
       </c>
       <c r="S198" t="n">
-        <v>319</v>
+        <v>719</v>
       </c>
       <c r="T198" t="n">
         <v>400</v>
@@ -16247,7 +16247,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44434</v>
+        <v>44168</v>
       </c>
       <c r="E199" t="n">
         <v>4</v>
@@ -16275,25 +16275,25 @@
       </c>
       <c r="K199" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M199" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N199" t="n">
-        <v>105000</v>
+        <v>355000</v>
       </c>
       <c r="O199" t="n">
-        <v>110000</v>
+        <v>360000</v>
       </c>
       <c r="P199" t="n">
-        <v>107500</v>
+        <v>357500</v>
       </c>
       <c r="Q199" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         </is>
       </c>
       <c r="S199" t="n">
-        <v>269</v>
+        <v>894</v>
       </c>
       <c r="T199" t="n">
         <v>400</v>
@@ -16327,7 +16327,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44434</v>
+        <v>44168</v>
       </c>
       <c r="E200" t="n">
         <v>4</v>
@@ -16355,25 +16355,25 @@
       </c>
       <c r="K200" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L200" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M200" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N200" t="n">
-        <v>85000</v>
+        <v>335000</v>
       </c>
       <c r="O200" t="n">
-        <v>90000</v>
+        <v>340000</v>
       </c>
       <c r="P200" t="n">
-        <v>87500</v>
+        <v>337500</v>
       </c>
       <c r="Q200" t="inlineStr">
         <is>
@@ -16386,7 +16386,7 @@
         </is>
       </c>
       <c r="S200" t="n">
-        <v>219</v>
+        <v>844</v>
       </c>
       <c r="T200" t="n">
         <v>400</v>
@@ -16407,7 +16407,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44434</v>
+        <v>44168</v>
       </c>
       <c r="E201" t="n">
         <v>4</v>
@@ -16435,25 +16435,25 @@
       </c>
       <c r="K201" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L201" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M201" t="n">
         <v>20</v>
       </c>
       <c r="N201" t="n">
-        <v>95000</v>
+        <v>295000</v>
       </c>
       <c r="O201" t="n">
-        <v>100000</v>
+        <v>300000</v>
       </c>
       <c r="P201" t="n">
-        <v>97500</v>
+        <v>297500</v>
       </c>
       <c r="Q201" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         </is>
       </c>
       <c r="S201" t="n">
-        <v>244</v>
+        <v>744</v>
       </c>
       <c r="T201" t="n">
         <v>400</v>
@@ -16515,25 +16515,25 @@
       </c>
       <c r="K202" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L202" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M202" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N202" t="n">
-        <v>75000</v>
+        <v>125000</v>
       </c>
       <c r="O202" t="n">
-        <v>80000</v>
+        <v>130000</v>
       </c>
       <c r="P202" t="n">
-        <v>77500</v>
+        <v>127500</v>
       </c>
       <c r="Q202" t="inlineStr">
         <is>
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="S202" t="n">
-        <v>194</v>
+        <v>319</v>
       </c>
       <c r="T202" t="n">
         <v>400</v>
@@ -16595,7 +16595,7 @@
       </c>
       <c r="K203" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L203" t="inlineStr">
@@ -16604,16 +16604,16 @@
         </is>
       </c>
       <c r="M203" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N203" t="n">
-        <v>95000</v>
+        <v>105000</v>
       </c>
       <c r="O203" t="n">
-        <v>100000</v>
+        <v>110000</v>
       </c>
       <c r="P203" t="n">
-        <v>97500</v>
+        <v>107500</v>
       </c>
       <c r="Q203" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         </is>
       </c>
       <c r="S203" t="n">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="T203" t="n">
         <v>400</v>
@@ -16675,7 +16675,7 @@
       </c>
       <c r="K204" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L204" t="inlineStr">
@@ -16687,13 +16687,13 @@
         <v>16</v>
       </c>
       <c r="N204" t="n">
-        <v>75000</v>
+        <v>85000</v>
       </c>
       <c r="O204" t="n">
-        <v>80000</v>
+        <v>90000</v>
       </c>
       <c r="P204" t="n">
-        <v>77500</v>
+        <v>87500</v>
       </c>
       <c r="Q204" t="inlineStr">
         <is>
@@ -16706,7 +16706,7 @@
         </is>
       </c>
       <c r="S204" t="n">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="T204" t="n">
         <v>400</v>
@@ -16727,7 +16727,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44161</v>
+        <v>44434</v>
       </c>
       <c r="E205" t="n">
         <v>4</v>
@@ -16760,20 +16760,20 @@
       </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M205" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N205" t="n">
-        <v>325000</v>
+        <v>95000</v>
       </c>
       <c r="O205" t="n">
-        <v>330000</v>
+        <v>100000</v>
       </c>
       <c r="P205" t="n">
-        <v>327500</v>
+        <v>97500</v>
       </c>
       <c r="Q205" t="inlineStr">
         <is>
@@ -16786,7 +16786,7 @@
         </is>
       </c>
       <c r="S205" t="n">
-        <v>819</v>
+        <v>244</v>
       </c>
       <c r="T205" t="n">
         <v>400</v>
@@ -16807,7 +16807,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44161</v>
+        <v>44434</v>
       </c>
       <c r="E206" t="n">
         <v>4</v>
@@ -16840,20 +16840,20 @@
       </c>
       <c r="L206" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M206" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N206" t="n">
-        <v>305000</v>
+        <v>75000</v>
       </c>
       <c r="O206" t="n">
-        <v>310000</v>
+        <v>80000</v>
       </c>
       <c r="P206" t="n">
-        <v>307500</v>
+        <v>77500</v>
       </c>
       <c r="Q206" t="inlineStr">
         <is>
@@ -16866,7 +16866,7 @@
         </is>
       </c>
       <c r="S206" t="n">
-        <v>769</v>
+        <v>194</v>
       </c>
       <c r="T206" t="n">
         <v>400</v>
@@ -16887,7 +16887,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44161</v>
+        <v>44434</v>
       </c>
       <c r="E207" t="n">
         <v>4</v>
@@ -16915,25 +16915,25 @@
       </c>
       <c r="K207" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L207" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M207" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="N207" t="n">
-        <v>255000</v>
+        <v>95000</v>
       </c>
       <c r="O207" t="n">
-        <v>260000</v>
+        <v>100000</v>
       </c>
       <c r="P207" t="n">
-        <v>257500</v>
+        <v>97500</v>
       </c>
       <c r="Q207" t="inlineStr">
         <is>
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="S207" t="n">
-        <v>644</v>
+        <v>244</v>
       </c>
       <c r="T207" t="n">
         <v>400</v>
@@ -16967,7 +16967,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44280</v>
+        <v>44434</v>
       </c>
       <c r="E208" t="n">
         <v>4</v>
@@ -16995,25 +16995,25 @@
       </c>
       <c r="K208" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L208" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M208" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N208" t="n">
-        <v>455000</v>
+        <v>75000</v>
       </c>
       <c r="O208" t="n">
-        <v>460000</v>
+        <v>80000</v>
       </c>
       <c r="P208" t="n">
-        <v>457500</v>
+        <v>77500</v>
       </c>
       <c r="Q208" t="inlineStr">
         <is>
@@ -17026,7 +17026,7 @@
         </is>
       </c>
       <c r="S208" t="n">
-        <v>1144</v>
+        <v>194</v>
       </c>
       <c r="T208" t="n">
         <v>400</v>
@@ -17047,7 +17047,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44280</v>
+        <v>44161</v>
       </c>
       <c r="E209" t="n">
         <v>4</v>
@@ -17075,25 +17075,25 @@
       </c>
       <c r="K209" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L209" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M209" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N209" t="n">
-        <v>415000</v>
+        <v>325000</v>
       </c>
       <c r="O209" t="n">
-        <v>420000</v>
+        <v>330000</v>
       </c>
       <c r="P209" t="n">
-        <v>417500</v>
+        <v>327500</v>
       </c>
       <c r="Q209" t="inlineStr">
         <is>
@@ -17106,7 +17106,7 @@
         </is>
       </c>
       <c r="S209" t="n">
-        <v>1044</v>
+        <v>819</v>
       </c>
       <c r="T209" t="n">
         <v>400</v>
@@ -17127,7 +17127,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44391</v>
+        <v>44161</v>
       </c>
       <c r="E210" t="n">
         <v>4</v>
@@ -17155,7 +17155,7 @@
       </c>
       <c r="K210" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L210" t="inlineStr">
@@ -17164,16 +17164,16 @@
         </is>
       </c>
       <c r="M210" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N210" t="n">
-        <v>100000</v>
+        <v>305000</v>
       </c>
       <c r="O210" t="n">
-        <v>110000</v>
+        <v>310000</v>
       </c>
       <c r="P210" t="n">
-        <v>105000</v>
+        <v>307500</v>
       </c>
       <c r="Q210" t="inlineStr">
         <is>
@@ -17186,7 +17186,7 @@
         </is>
       </c>
       <c r="S210" t="n">
-        <v>262</v>
+        <v>769</v>
       </c>
       <c r="T210" t="n">
         <v>400</v>
@@ -17207,7 +17207,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44391</v>
+        <v>44161</v>
       </c>
       <c r="E211" t="n">
         <v>4</v>
@@ -17235,7 +17235,7 @@
       </c>
       <c r="K211" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L211" t="inlineStr">
@@ -17244,16 +17244,16 @@
         </is>
       </c>
       <c r="M211" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N211" t="n">
-        <v>80000</v>
+        <v>255000</v>
       </c>
       <c r="O211" t="n">
-        <v>90000</v>
+        <v>260000</v>
       </c>
       <c r="P211" t="n">
-        <v>85000</v>
+        <v>257500</v>
       </c>
       <c r="Q211" t="inlineStr">
         <is>
@@ -17266,7 +17266,7 @@
         </is>
       </c>
       <c r="S211" t="n">
-        <v>212</v>
+        <v>644</v>
       </c>
       <c r="T211" t="n">
         <v>400</v>
@@ -17287,7 +17287,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44391</v>
+        <v>44280</v>
       </c>
       <c r="E212" t="n">
         <v>4</v>
@@ -17315,7 +17315,7 @@
       </c>
       <c r="K212" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L212" t="inlineStr">
@@ -17327,13 +17327,13 @@
         <v>20</v>
       </c>
       <c r="N212" t="n">
-        <v>100000</v>
+        <v>455000</v>
       </c>
       <c r="O212" t="n">
-        <v>110000</v>
+        <v>460000</v>
       </c>
       <c r="P212" t="n">
-        <v>105000</v>
+        <v>457500</v>
       </c>
       <c r="Q212" t="inlineStr">
         <is>
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="S212" t="n">
-        <v>262</v>
+        <v>1144</v>
       </c>
       <c r="T212" t="n">
         <v>400</v>
@@ -17367,7 +17367,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44391</v>
+        <v>44280</v>
       </c>
       <c r="E213" t="n">
         <v>4</v>
@@ -17395,7 +17395,7 @@
       </c>
       <c r="K213" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L213" t="inlineStr">
@@ -17407,13 +17407,13 @@
         <v>20</v>
       </c>
       <c r="N213" t="n">
-        <v>80000</v>
+        <v>415000</v>
       </c>
       <c r="O213" t="n">
-        <v>90000</v>
+        <v>420000</v>
       </c>
       <c r="P213" t="n">
-        <v>85000</v>
+        <v>417500</v>
       </c>
       <c r="Q213" t="inlineStr">
         <is>
@@ -17426,7 +17426,7 @@
         </is>
       </c>
       <c r="S213" t="n">
-        <v>212</v>
+        <v>1044</v>
       </c>
       <c r="T213" t="n">
         <v>400</v>
@@ -17447,7 +17447,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="E214" t="n">
         <v>4</v>
@@ -17487,13 +17487,13 @@
         <v>20</v>
       </c>
       <c r="N214" t="n">
-        <v>250000</v>
+        <v>100000</v>
       </c>
       <c r="O214" t="n">
-        <v>255000</v>
+        <v>110000</v>
       </c>
       <c r="P214" t="n">
-        <v>252500</v>
+        <v>105000</v>
       </c>
       <c r="Q214" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         </is>
       </c>
       <c r="S214" t="n">
-        <v>631</v>
+        <v>262</v>
       </c>
       <c r="T214" t="n">
         <v>400</v>
@@ -17527,7 +17527,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="E215" t="n">
         <v>4</v>
@@ -17555,25 +17555,25 @@
       </c>
       <c r="K215" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L215" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M215" t="n">
         <v>20</v>
       </c>
       <c r="N215" t="n">
-        <v>250000</v>
+        <v>80000</v>
       </c>
       <c r="O215" t="n">
-        <v>255000</v>
+        <v>90000</v>
       </c>
       <c r="P215" t="n">
-        <v>252500</v>
+        <v>85000</v>
       </c>
       <c r="Q215" t="inlineStr">
         <is>
@@ -17586,7 +17586,7 @@
         </is>
       </c>
       <c r="S215" t="n">
-        <v>631</v>
+        <v>212</v>
       </c>
       <c r="T215" t="n">
         <v>400</v>
@@ -17607,7 +17607,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44231</v>
+        <v>44391</v>
       </c>
       <c r="E216" t="n">
         <v>4</v>
@@ -17635,7 +17635,7 @@
       </c>
       <c r="K216" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L216" t="inlineStr">
@@ -17647,13 +17647,13 @@
         <v>20</v>
       </c>
       <c r="N216" t="n">
-        <v>485000</v>
+        <v>100000</v>
       </c>
       <c r="O216" t="n">
-        <v>490000</v>
+        <v>110000</v>
       </c>
       <c r="P216" t="n">
-        <v>487500</v>
+        <v>105000</v>
       </c>
       <c r="Q216" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         </is>
       </c>
       <c r="S216" t="n">
-        <v>1219</v>
+        <v>262</v>
       </c>
       <c r="T216" t="n">
         <v>400</v>
@@ -17687,7 +17687,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44231</v>
+        <v>44391</v>
       </c>
       <c r="E217" t="n">
         <v>4</v>
@@ -17715,7 +17715,7 @@
       </c>
       <c r="K217" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L217" t="inlineStr">
@@ -17727,13 +17727,13 @@
         <v>20</v>
       </c>
       <c r="N217" t="n">
-        <v>455000</v>
+        <v>80000</v>
       </c>
       <c r="O217" t="n">
-        <v>460000</v>
+        <v>90000</v>
       </c>
       <c r="P217" t="n">
-        <v>457500</v>
+        <v>85000</v>
       </c>
       <c r="Q217" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="S217" t="n">
-        <v>1144</v>
+        <v>212</v>
       </c>
       <c r="T217" t="n">
         <v>400</v>
@@ -17767,7 +17767,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44258</v>
+        <v>44335</v>
       </c>
       <c r="E218" t="n">
         <v>4</v>
@@ -17795,7 +17795,7 @@
       </c>
       <c r="K218" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L218" t="inlineStr">
@@ -17807,13 +17807,13 @@
         <v>20</v>
       </c>
       <c r="N218" t="n">
-        <v>455000</v>
+        <v>250000</v>
       </c>
       <c r="O218" t="n">
-        <v>460000</v>
+        <v>255000</v>
       </c>
       <c r="P218" t="n">
-        <v>457500</v>
+        <v>252500</v>
       </c>
       <c r="Q218" t="inlineStr">
         <is>
@@ -17826,7 +17826,7 @@
         </is>
       </c>
       <c r="S218" t="n">
-        <v>1144</v>
+        <v>631</v>
       </c>
       <c r="T218" t="n">
         <v>400</v>
@@ -17847,7 +17847,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44258</v>
+        <v>44335</v>
       </c>
       <c r="E219" t="n">
         <v>4</v>
@@ -17875,25 +17875,25 @@
       </c>
       <c r="K219" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L219" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M219" t="n">
         <v>20</v>
       </c>
       <c r="N219" t="n">
-        <v>415000</v>
+        <v>250000</v>
       </c>
       <c r="O219" t="n">
-        <v>420000</v>
+        <v>255000</v>
       </c>
       <c r="P219" t="n">
-        <v>417500</v>
+        <v>252500</v>
       </c>
       <c r="Q219" t="inlineStr">
         <is>
@@ -17906,7 +17906,7 @@
         </is>
       </c>
       <c r="S219" t="n">
-        <v>1044</v>
+        <v>631</v>
       </c>
       <c r="T219" t="n">
         <v>400</v>
@@ -17927,7 +17927,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44475</v>
+        <v>44231</v>
       </c>
       <c r="E220" t="n">
         <v>4</v>
@@ -17955,7 +17955,7 @@
       </c>
       <c r="K220" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L220" t="inlineStr">
@@ -17967,13 +17967,13 @@
         <v>20</v>
       </c>
       <c r="N220" t="n">
-        <v>125000</v>
+        <v>485000</v>
       </c>
       <c r="O220" t="n">
-        <v>130000</v>
+        <v>490000</v>
       </c>
       <c r="P220" t="n">
-        <v>127500</v>
+        <v>487500</v>
       </c>
       <c r="Q220" t="inlineStr">
         <is>
@@ -17986,7 +17986,7 @@
         </is>
       </c>
       <c r="S220" t="n">
-        <v>319</v>
+        <v>1219</v>
       </c>
       <c r="T220" t="n">
         <v>400</v>
@@ -18007,7 +18007,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44475</v>
+        <v>44231</v>
       </c>
       <c r="E221" t="n">
         <v>4</v>
@@ -18035,7 +18035,7 @@
       </c>
       <c r="K221" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L221" t="inlineStr">
@@ -18047,13 +18047,13 @@
         <v>20</v>
       </c>
       <c r="N221" t="n">
-        <v>95000</v>
+        <v>455000</v>
       </c>
       <c r="O221" t="n">
-        <v>100000</v>
+        <v>460000</v>
       </c>
       <c r="P221" t="n">
-        <v>97500</v>
+        <v>457500</v>
       </c>
       <c r="Q221" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         </is>
       </c>
       <c r="S221" t="n">
-        <v>244</v>
+        <v>1144</v>
       </c>
       <c r="T221" t="n">
         <v>400</v>
@@ -18087,7 +18087,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44475</v>
+        <v>44258</v>
       </c>
       <c r="E222" t="n">
         <v>4</v>
@@ -18115,7 +18115,7 @@
       </c>
       <c r="K222" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L222" t="inlineStr">
@@ -18127,13 +18127,13 @@
         <v>20</v>
       </c>
       <c r="N222" t="n">
-        <v>125000</v>
+        <v>455000</v>
       </c>
       <c r="O222" t="n">
-        <v>130000</v>
+        <v>460000</v>
       </c>
       <c r="P222" t="n">
-        <v>127500</v>
+        <v>457500</v>
       </c>
       <c r="Q222" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="S222" t="n">
-        <v>319</v>
+        <v>1144</v>
       </c>
       <c r="T222" t="n">
         <v>400</v>
@@ -18167,7 +18167,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44475</v>
+        <v>44258</v>
       </c>
       <c r="E223" t="n">
         <v>4</v>
@@ -18195,7 +18195,7 @@
       </c>
       <c r="K223" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L223" t="inlineStr">
@@ -18207,13 +18207,13 @@
         <v>20</v>
       </c>
       <c r="N223" t="n">
-        <v>95000</v>
+        <v>415000</v>
       </c>
       <c r="O223" t="n">
-        <v>100000</v>
+        <v>420000</v>
       </c>
       <c r="P223" t="n">
-        <v>97500</v>
+        <v>417500</v>
       </c>
       <c r="Q223" t="inlineStr">
         <is>
@@ -18226,7 +18226,7 @@
         </is>
       </c>
       <c r="S223" t="n">
-        <v>244</v>
+        <v>1044</v>
       </c>
       <c r="T223" t="n">
         <v>400</v>
@@ -18247,7 +18247,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44252</v>
+        <v>44475</v>
       </c>
       <c r="E224" t="n">
         <v>4</v>
@@ -18275,7 +18275,7 @@
       </c>
       <c r="K224" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L224" t="inlineStr">
@@ -18287,13 +18287,13 @@
         <v>20</v>
       </c>
       <c r="N224" t="n">
-        <v>455000</v>
+        <v>125000</v>
       </c>
       <c r="O224" t="n">
-        <v>460000</v>
+        <v>130000</v>
       </c>
       <c r="P224" t="n">
-        <v>457500</v>
+        <v>127500</v>
       </c>
       <c r="Q224" t="inlineStr">
         <is>
@@ -18306,7 +18306,7 @@
         </is>
       </c>
       <c r="S224" t="n">
-        <v>1144</v>
+        <v>319</v>
       </c>
       <c r="T224" t="n">
         <v>400</v>
@@ -18327,7 +18327,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44252</v>
+        <v>44475</v>
       </c>
       <c r="E225" t="n">
         <v>4</v>
@@ -18355,7 +18355,7 @@
       </c>
       <c r="K225" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L225" t="inlineStr">
@@ -18367,13 +18367,13 @@
         <v>20</v>
       </c>
       <c r="N225" t="n">
-        <v>41500</v>
+        <v>95000</v>
       </c>
       <c r="O225" t="n">
-        <v>420000</v>
+        <v>100000</v>
       </c>
       <c r="P225" t="n">
-        <v>230750</v>
+        <v>97500</v>
       </c>
       <c r="Q225" t="inlineStr">
         <is>
@@ -18386,7 +18386,7 @@
         </is>
       </c>
       <c r="S225" t="n">
-        <v>577</v>
+        <v>244</v>
       </c>
       <c r="T225" t="n">
         <v>400</v>
@@ -18407,7 +18407,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44300</v>
+        <v>44475</v>
       </c>
       <c r="E226" t="n">
         <v>4</v>
@@ -18435,25 +18435,25 @@
       </c>
       <c r="K226" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L226" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M226" t="n">
         <v>20</v>
       </c>
       <c r="N226" t="n">
-        <v>495000</v>
+        <v>125000</v>
       </c>
       <c r="O226" t="n">
-        <v>500000</v>
+        <v>130000</v>
       </c>
       <c r="P226" t="n">
-        <v>497500</v>
+        <v>127500</v>
       </c>
       <c r="Q226" t="inlineStr">
         <is>
@@ -18466,7 +18466,7 @@
         </is>
       </c>
       <c r="S226" t="n">
-        <v>1244</v>
+        <v>319</v>
       </c>
       <c r="T226" t="n">
         <v>400</v>
@@ -18487,7 +18487,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44300</v>
+        <v>44475</v>
       </c>
       <c r="E227" t="n">
         <v>4</v>
@@ -18515,25 +18515,25 @@
       </c>
       <c r="K227" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L227" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M227" t="n">
         <v>20</v>
       </c>
       <c r="N227" t="n">
-        <v>475000</v>
+        <v>95000</v>
       </c>
       <c r="O227" t="n">
-        <v>480000</v>
+        <v>100000</v>
       </c>
       <c r="P227" t="n">
-        <v>477500</v>
+        <v>97500</v>
       </c>
       <c r="Q227" t="inlineStr">
         <is>
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="S227" t="n">
-        <v>1194</v>
+        <v>244</v>
       </c>
       <c r="T227" t="n">
         <v>400</v>
@@ -18567,7 +18567,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44349</v>
+        <v>44252</v>
       </c>
       <c r="E228" t="n">
         <v>4</v>
@@ -18595,7 +18595,7 @@
       </c>
       <c r="K228" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L228" t="inlineStr">
@@ -18607,13 +18607,13 @@
         <v>20</v>
       </c>
       <c r="N228" t="n">
-        <v>200000</v>
+        <v>455000</v>
       </c>
       <c r="O228" t="n">
-        <v>210000</v>
+        <v>460000</v>
       </c>
       <c r="P228" t="n">
-        <v>205000</v>
+        <v>457500</v>
       </c>
       <c r="Q228" t="inlineStr">
         <is>
@@ -18626,7 +18626,7 @@
         </is>
       </c>
       <c r="S228" t="n">
-        <v>512</v>
+        <v>1144</v>
       </c>
       <c r="T228" t="n">
         <v>400</v>
@@ -18647,7 +18647,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44349</v>
+        <v>44252</v>
       </c>
       <c r="E229" t="n">
         <v>4</v>
@@ -18675,7 +18675,7 @@
       </c>
       <c r="K229" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L229" t="inlineStr">
@@ -18687,13 +18687,13 @@
         <v>20</v>
       </c>
       <c r="N229" t="n">
-        <v>170000</v>
+        <v>41500</v>
       </c>
       <c r="O229" t="n">
-        <v>180000</v>
+        <v>420000</v>
       </c>
       <c r="P229" t="n">
-        <v>175000</v>
+        <v>230750</v>
       </c>
       <c r="Q229" t="inlineStr">
         <is>
@@ -18706,7 +18706,7 @@
         </is>
       </c>
       <c r="S229" t="n">
-        <v>438</v>
+        <v>577</v>
       </c>
       <c r="T229" t="n">
         <v>400</v>
@@ -18727,7 +18727,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44349</v>
+        <v>44300</v>
       </c>
       <c r="E230" t="n">
         <v>4</v>
@@ -18755,25 +18755,25 @@
       </c>
       <c r="K230" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L230" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M230" t="n">
         <v>20</v>
       </c>
       <c r="N230" t="n">
-        <v>200000</v>
+        <v>495000</v>
       </c>
       <c r="O230" t="n">
-        <v>210000</v>
+        <v>500000</v>
       </c>
       <c r="P230" t="n">
-        <v>205000</v>
+        <v>497500</v>
       </c>
       <c r="Q230" t="inlineStr">
         <is>
@@ -18786,7 +18786,7 @@
         </is>
       </c>
       <c r="S230" t="n">
-        <v>512</v>
+        <v>1244</v>
       </c>
       <c r="T230" t="n">
         <v>400</v>
@@ -18807,7 +18807,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44349</v>
+        <v>44300</v>
       </c>
       <c r="E231" t="n">
         <v>4</v>
@@ -18835,25 +18835,25 @@
       </c>
       <c r="K231" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L231" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M231" t="n">
         <v>20</v>
       </c>
       <c r="N231" t="n">
-        <v>170000</v>
+        <v>475000</v>
       </c>
       <c r="O231" t="n">
-        <v>180000</v>
+        <v>480000</v>
       </c>
       <c r="P231" t="n">
-        <v>175000</v>
+        <v>477500</v>
       </c>
       <c r="Q231" t="inlineStr">
         <is>
@@ -18866,7 +18866,7 @@
         </is>
       </c>
       <c r="S231" t="n">
-        <v>438</v>
+        <v>1194</v>
       </c>
       <c r="T231" t="n">
         <v>400</v>
@@ -18887,7 +18887,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44350</v>
+        <v>44349</v>
       </c>
       <c r="E232" t="n">
         <v>4</v>
@@ -18967,7 +18967,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44350</v>
+        <v>44349</v>
       </c>
       <c r="E233" t="n">
         <v>4</v>
@@ -19047,7 +19047,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44350</v>
+        <v>44349</v>
       </c>
       <c r="E234" t="n">
         <v>4</v>
@@ -19127,7 +19127,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44350</v>
+        <v>44349</v>
       </c>
       <c r="E235" t="n">
         <v>4</v>
@@ -19207,7 +19207,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E236" t="n">
         <v>4</v>
@@ -19235,7 +19235,7 @@
       </c>
       <c r="K236" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L236" t="inlineStr">
@@ -19247,13 +19247,13 @@
         <v>20</v>
       </c>
       <c r="N236" t="n">
-        <v>110000</v>
+        <v>200000</v>
       </c>
       <c r="O236" t="n">
-        <v>120000</v>
+        <v>210000</v>
       </c>
       <c r="P236" t="n">
-        <v>115000</v>
+        <v>205000</v>
       </c>
       <c r="Q236" t="inlineStr">
         <is>
@@ -19266,7 +19266,7 @@
         </is>
       </c>
       <c r="S236" t="n">
-        <v>288</v>
+        <v>512</v>
       </c>
       <c r="T236" t="n">
         <v>400</v>
@@ -19287,7 +19287,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E237" t="n">
         <v>4</v>
@@ -19315,7 +19315,7 @@
       </c>
       <c r="K237" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L237" t="inlineStr">
@@ -19327,13 +19327,13 @@
         <v>20</v>
       </c>
       <c r="N237" t="n">
-        <v>80000</v>
+        <v>170000</v>
       </c>
       <c r="O237" t="n">
-        <v>90000</v>
+        <v>180000</v>
       </c>
       <c r="P237" t="n">
-        <v>85000</v>
+        <v>175000</v>
       </c>
       <c r="Q237" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="S237" t="n">
-        <v>212</v>
+        <v>438</v>
       </c>
       <c r="T237" t="n">
         <v>400</v>
@@ -19367,7 +19367,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E238" t="n">
         <v>4</v>
@@ -19395,7 +19395,7 @@
       </c>
       <c r="K238" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L238" t="inlineStr">
@@ -19407,13 +19407,13 @@
         <v>20</v>
       </c>
       <c r="N238" t="n">
-        <v>110000</v>
+        <v>200000</v>
       </c>
       <c r="O238" t="n">
-        <v>120000</v>
+        <v>210000</v>
       </c>
       <c r="P238" t="n">
-        <v>115000</v>
+        <v>205000</v>
       </c>
       <c r="Q238" t="inlineStr">
         <is>
@@ -19426,7 +19426,7 @@
         </is>
       </c>
       <c r="S238" t="n">
-        <v>288</v>
+        <v>512</v>
       </c>
       <c r="T238" t="n">
         <v>400</v>
@@ -19447,7 +19447,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E239" t="n">
         <v>4</v>
@@ -19475,7 +19475,7 @@
       </c>
       <c r="K239" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L239" t="inlineStr">
@@ -19487,13 +19487,13 @@
         <v>20</v>
       </c>
       <c r="N239" t="n">
-        <v>80000</v>
+        <v>170000</v>
       </c>
       <c r="O239" t="n">
-        <v>90000</v>
+        <v>180000</v>
       </c>
       <c r="P239" t="n">
-        <v>85000</v>
+        <v>175000</v>
       </c>
       <c r="Q239" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         </is>
       </c>
       <c r="S239" t="n">
-        <v>212</v>
+        <v>438</v>
       </c>
       <c r="T239" t="n">
         <v>400</v>
@@ -19527,7 +19527,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44385</v>
+        <v>44448</v>
       </c>
       <c r="E240" t="n">
         <v>4</v>
@@ -19555,7 +19555,7 @@
       </c>
       <c r="K240" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L240" t="inlineStr">
@@ -19567,13 +19567,13 @@
         <v>20</v>
       </c>
       <c r="N240" t="n">
-        <v>125000</v>
+        <v>110000</v>
       </c>
       <c r="O240" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="P240" t="n">
-        <v>127500</v>
+        <v>115000</v>
       </c>
       <c r="Q240" t="inlineStr">
         <is>
@@ -19586,7 +19586,7 @@
         </is>
       </c>
       <c r="S240" t="n">
-        <v>319</v>
+        <v>288</v>
       </c>
       <c r="T240" t="n">
         <v>400</v>
@@ -19607,7 +19607,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44385</v>
+        <v>44448</v>
       </c>
       <c r="E241" t="n">
         <v>4</v>
@@ -19635,7 +19635,7 @@
       </c>
       <c r="K241" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L241" t="inlineStr">
@@ -19647,13 +19647,13 @@
         <v>20</v>
       </c>
       <c r="N241" t="n">
-        <v>105000</v>
+        <v>80000</v>
       </c>
       <c r="O241" t="n">
-        <v>110000</v>
+        <v>90000</v>
       </c>
       <c r="P241" t="n">
-        <v>107500</v>
+        <v>85000</v>
       </c>
       <c r="Q241" t="inlineStr">
         <is>
@@ -19666,7 +19666,7 @@
         </is>
       </c>
       <c r="S241" t="n">
-        <v>269</v>
+        <v>212</v>
       </c>
       <c r="T241" t="n">
         <v>400</v>
@@ -19687,7 +19687,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44385</v>
+        <v>44448</v>
       </c>
       <c r="E242" t="n">
         <v>4</v>
@@ -19727,13 +19727,13 @@
         <v>20</v>
       </c>
       <c r="N242" t="n">
-        <v>125000</v>
+        <v>110000</v>
       </c>
       <c r="O242" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="P242" t="n">
-        <v>127500</v>
+        <v>115000</v>
       </c>
       <c r="Q242" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="S242" t="n">
-        <v>319</v>
+        <v>288</v>
       </c>
       <c r="T242" t="n">
         <v>400</v>
@@ -19767,7 +19767,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44385</v>
+        <v>44448</v>
       </c>
       <c r="E243" t="n">
         <v>4</v>
@@ -19807,13 +19807,13 @@
         <v>20</v>
       </c>
       <c r="N243" t="n">
-        <v>105000</v>
+        <v>80000</v>
       </c>
       <c r="O243" t="n">
-        <v>110000</v>
+        <v>90000</v>
       </c>
       <c r="P243" t="n">
-        <v>107500</v>
+        <v>85000</v>
       </c>
       <c r="Q243" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         </is>
       </c>
       <c r="S243" t="n">
-        <v>269</v>
+        <v>212</v>
       </c>
       <c r="T243" t="n">
         <v>400</v>
@@ -19875,7 +19875,7 @@
       </c>
       <c r="K244" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L244" t="inlineStr">
@@ -19887,13 +19887,13 @@
         <v>20</v>
       </c>
       <c r="N244" t="n">
-        <v>115000</v>
+        <v>125000</v>
       </c>
       <c r="O244" t="n">
-        <v>120000</v>
+        <v>130000</v>
       </c>
       <c r="P244" t="n">
-        <v>117500</v>
+        <v>127500</v>
       </c>
       <c r="Q244" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         </is>
       </c>
       <c r="S244" t="n">
-        <v>294</v>
+        <v>319</v>
       </c>
       <c r="T244" t="n">
         <v>400</v>
@@ -19955,7 +19955,7 @@
       </c>
       <c r="K245" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L245" t="inlineStr">
@@ -19967,13 +19967,13 @@
         <v>20</v>
       </c>
       <c r="N245" t="n">
-        <v>95000</v>
+        <v>105000</v>
       </c>
       <c r="O245" t="n">
-        <v>100000</v>
+        <v>110000</v>
       </c>
       <c r="P245" t="n">
-        <v>97500</v>
+        <v>107500</v>
       </c>
       <c r="Q245" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         </is>
       </c>
       <c r="S245" t="n">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="T245" t="n">
         <v>400</v>
@@ -20007,7 +20007,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44202</v>
+        <v>44385</v>
       </c>
       <c r="E246" t="n">
         <v>4</v>
@@ -20035,7 +20035,7 @@
       </c>
       <c r="K246" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L246" t="inlineStr">
@@ -20047,13 +20047,13 @@
         <v>20</v>
       </c>
       <c r="N246" t="n">
-        <v>395000</v>
+        <v>125000</v>
       </c>
       <c r="O246" t="n">
-        <v>400000</v>
+        <v>130000</v>
       </c>
       <c r="P246" t="n">
-        <v>397500</v>
+        <v>127500</v>
       </c>
       <c r="Q246" t="inlineStr">
         <is>
@@ -20066,7 +20066,7 @@
         </is>
       </c>
       <c r="S246" t="n">
-        <v>994</v>
+        <v>319</v>
       </c>
       <c r="T246" t="n">
         <v>400</v>
@@ -20087,7 +20087,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44202</v>
+        <v>44385</v>
       </c>
       <c r="E247" t="n">
         <v>4</v>
@@ -20115,7 +20115,7 @@
       </c>
       <c r="K247" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L247" t="inlineStr">
@@ -20127,13 +20127,13 @@
         <v>20</v>
       </c>
       <c r="N247" t="n">
-        <v>345000</v>
+        <v>105000</v>
       </c>
       <c r="O247" t="n">
-        <v>350000</v>
+        <v>110000</v>
       </c>
       <c r="P247" t="n">
-        <v>347500</v>
+        <v>107500</v>
       </c>
       <c r="Q247" t="inlineStr">
         <is>
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="S247" t="n">
-        <v>869</v>
+        <v>269</v>
       </c>
       <c r="T247" t="n">
         <v>400</v>
@@ -20167,7 +20167,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44435</v>
+        <v>44385</v>
       </c>
       <c r="E248" t="n">
         <v>4</v>
@@ -20195,25 +20195,25 @@
       </c>
       <c r="K248" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L248" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M248" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="N248" t="n">
-        <v>125000</v>
+        <v>115000</v>
       </c>
       <c r="O248" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="P248" t="n">
-        <v>127500</v>
+        <v>117500</v>
       </c>
       <c r="Q248" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         </is>
       </c>
       <c r="S248" t="n">
-        <v>319</v>
+        <v>294</v>
       </c>
       <c r="T248" t="n">
         <v>400</v>
@@ -20247,7 +20247,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44435</v>
+        <v>44385</v>
       </c>
       <c r="E249" t="n">
         <v>4</v>
@@ -20275,25 +20275,25 @@
       </c>
       <c r="K249" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L249" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M249" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="N249" t="n">
-        <v>105000</v>
+        <v>95000</v>
       </c>
       <c r="O249" t="n">
-        <v>110000</v>
+        <v>100000</v>
       </c>
       <c r="P249" t="n">
-        <v>107500</v>
+        <v>97500</v>
       </c>
       <c r="Q249" t="inlineStr">
         <is>
@@ -20306,7 +20306,7 @@
         </is>
       </c>
       <c r="S249" t="n">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="T249" t="n">
         <v>400</v>
@@ -20327,7 +20327,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44435</v>
+        <v>44202</v>
       </c>
       <c r="E250" t="n">
         <v>4</v>
@@ -20355,25 +20355,25 @@
       </c>
       <c r="K250" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L250" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M250" t="n">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="N250" t="n">
-        <v>85000</v>
+        <v>395000</v>
       </c>
       <c r="O250" t="n">
-        <v>90000</v>
+        <v>400000</v>
       </c>
       <c r="P250" t="n">
-        <v>87955</v>
+        <v>397500</v>
       </c>
       <c r="Q250" t="inlineStr">
         <is>
@@ -20386,7 +20386,7 @@
         </is>
       </c>
       <c r="S250" t="n">
-        <v>220</v>
+        <v>994</v>
       </c>
       <c r="T250" t="n">
         <v>400</v>
@@ -20407,7 +20407,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44435</v>
+        <v>44202</v>
       </c>
       <c r="E251" t="n">
         <v>4</v>
@@ -20435,25 +20435,25 @@
       </c>
       <c r="K251" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L251" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M251" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="N251" t="n">
-        <v>95000</v>
+        <v>345000</v>
       </c>
       <c r="O251" t="n">
-        <v>100000</v>
+        <v>350000</v>
       </c>
       <c r="P251" t="n">
-        <v>97500</v>
+        <v>347500</v>
       </c>
       <c r="Q251" t="inlineStr">
         <is>
@@ -20466,7 +20466,7 @@
         </is>
       </c>
       <c r="S251" t="n">
-        <v>244</v>
+        <v>869</v>
       </c>
       <c r="T251" t="n">
         <v>400</v>
@@ -20515,25 +20515,25 @@
       </c>
       <c r="K252" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L252" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M252" t="n">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="N252" t="n">
-        <v>75000</v>
+        <v>125000</v>
       </c>
       <c r="O252" t="n">
-        <v>80000</v>
+        <v>130000</v>
       </c>
       <c r="P252" t="n">
-        <v>77500</v>
+        <v>127500</v>
       </c>
       <c r="Q252" t="inlineStr">
         <is>
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="S252" t="n">
-        <v>194</v>
+        <v>319</v>
       </c>
       <c r="T252" t="n">
         <v>400</v>
@@ -20595,7 +20595,7 @@
       </c>
       <c r="K253" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L253" t="inlineStr">
@@ -20604,16 +20604,16 @@
         </is>
       </c>
       <c r="M253" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="N253" t="n">
-        <v>95000</v>
+        <v>105000</v>
       </c>
       <c r="O253" t="n">
-        <v>100000</v>
+        <v>110000</v>
       </c>
       <c r="P253" t="n">
-        <v>97500</v>
+        <v>107500</v>
       </c>
       <c r="Q253" t="inlineStr">
         <is>
@@ -20626,7 +20626,7 @@
         </is>
       </c>
       <c r="S253" t="n">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="T253" t="n">
         <v>400</v>
@@ -20675,7 +20675,7 @@
       </c>
       <c r="K254" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L254" t="inlineStr">
@@ -20684,16 +20684,16 @@
         </is>
       </c>
       <c r="M254" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="N254" t="n">
-        <v>75000</v>
+        <v>85000</v>
       </c>
       <c r="O254" t="n">
-        <v>80000</v>
+        <v>90000</v>
       </c>
       <c r="P254" t="n">
-        <v>77500</v>
+        <v>87955</v>
       </c>
       <c r="Q254" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         </is>
       </c>
       <c r="S254" t="n">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="T254" t="n">
         <v>400</v>
@@ -20727,7 +20727,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44377</v>
+        <v>44435</v>
       </c>
       <c r="E255" t="n">
         <v>4</v>
@@ -20755,7 +20755,7 @@
       </c>
       <c r="K255" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L255" t="inlineStr">
@@ -20764,16 +20764,16 @@
         </is>
       </c>
       <c r="M255" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="N255" t="n">
-        <v>115000</v>
+        <v>95000</v>
       </c>
       <c r="O255" t="n">
-        <v>120000</v>
+        <v>100000</v>
       </c>
       <c r="P255" t="n">
-        <v>117500</v>
+        <v>97500</v>
       </c>
       <c r="Q255" t="inlineStr">
         <is>
@@ -20786,7 +20786,7 @@
         </is>
       </c>
       <c r="S255" t="n">
-        <v>294</v>
+        <v>244</v>
       </c>
       <c r="T255" t="n">
         <v>400</v>
@@ -20807,7 +20807,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44377</v>
+        <v>44435</v>
       </c>
       <c r="E256" t="n">
         <v>4</v>
@@ -20835,7 +20835,7 @@
       </c>
       <c r="K256" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L256" t="inlineStr">
@@ -20844,16 +20844,16 @@
         </is>
       </c>
       <c r="M256" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="N256" t="n">
-        <v>95000</v>
+        <v>75000</v>
       </c>
       <c r="O256" t="n">
-        <v>100000</v>
+        <v>80000</v>
       </c>
       <c r="P256" t="n">
-        <v>97500</v>
+        <v>77500</v>
       </c>
       <c r="Q256" t="inlineStr">
         <is>
@@ -20866,7 +20866,7 @@
         </is>
       </c>
       <c r="S256" t="n">
-        <v>244</v>
+        <v>194</v>
       </c>
       <c r="T256" t="n">
         <v>400</v>
@@ -20887,7 +20887,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44377</v>
+        <v>44435</v>
       </c>
       <c r="E257" t="n">
         <v>4</v>
@@ -20924,16 +20924,16 @@
         </is>
       </c>
       <c r="M257" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="N257" t="n">
-        <v>115000</v>
+        <v>95000</v>
       </c>
       <c r="O257" t="n">
-        <v>120000</v>
+        <v>100000</v>
       </c>
       <c r="P257" t="n">
-        <v>117500</v>
+        <v>97500</v>
       </c>
       <c r="Q257" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="S257" t="n">
-        <v>294</v>
+        <v>244</v>
       </c>
       <c r="T257" t="n">
         <v>400</v>
@@ -20967,7 +20967,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44377</v>
+        <v>44435</v>
       </c>
       <c r="E258" t="n">
         <v>4</v>
@@ -21004,16 +21004,16 @@
         </is>
       </c>
       <c r="M258" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="N258" t="n">
-        <v>95000</v>
+        <v>75000</v>
       </c>
       <c r="O258" t="n">
-        <v>100000</v>
+        <v>80000</v>
       </c>
       <c r="P258" t="n">
-        <v>96786</v>
+        <v>77500</v>
       </c>
       <c r="Q258" t="inlineStr">
         <is>
@@ -21026,7 +21026,7 @@
         </is>
       </c>
       <c r="S258" t="n">
-        <v>242</v>
+        <v>194</v>
       </c>
       <c r="T258" t="n">
         <v>400</v>
@@ -21075,7 +21075,7 @@
       </c>
       <c r="K259" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L259" t="inlineStr">
@@ -21155,7 +21155,7 @@
       </c>
       <c r="K260" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L260" t="inlineStr">
@@ -21207,7 +21207,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44433</v>
+        <v>44377</v>
       </c>
       <c r="E261" t="n">
         <v>4</v>
@@ -21235,25 +21235,25 @@
       </c>
       <c r="K261" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L261" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M261" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N261" t="n">
-        <v>125000</v>
+        <v>115000</v>
       </c>
       <c r="O261" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="P261" t="n">
-        <v>127500</v>
+        <v>117500</v>
       </c>
       <c r="Q261" t="inlineStr">
         <is>
@@ -21266,7 +21266,7 @@
         </is>
       </c>
       <c r="S261" t="n">
-        <v>319</v>
+        <v>294</v>
       </c>
       <c r="T261" t="n">
         <v>400</v>
@@ -21287,7 +21287,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44433</v>
+        <v>44377</v>
       </c>
       <c r="E262" t="n">
         <v>4</v>
@@ -21315,25 +21315,25 @@
       </c>
       <c r="K262" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L262" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M262" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N262" t="n">
-        <v>105000</v>
+        <v>95000</v>
       </c>
       <c r="O262" t="n">
-        <v>110000</v>
+        <v>100000</v>
       </c>
       <c r="P262" t="n">
-        <v>107500</v>
+        <v>96786</v>
       </c>
       <c r="Q262" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="S262" t="n">
-        <v>269</v>
+        <v>242</v>
       </c>
       <c r="T262" t="n">
         <v>400</v>
@@ -21367,7 +21367,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44433</v>
+        <v>44377</v>
       </c>
       <c r="E263" t="n">
         <v>4</v>
@@ -21395,25 +21395,25 @@
       </c>
       <c r="K263" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L263" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M263" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="N263" t="n">
-        <v>85000</v>
+        <v>115000</v>
       </c>
       <c r="O263" t="n">
-        <v>90000</v>
+        <v>120000</v>
       </c>
       <c r="P263" t="n">
-        <v>88214</v>
+        <v>117500</v>
       </c>
       <c r="Q263" t="inlineStr">
         <is>
@@ -21426,7 +21426,7 @@
         </is>
       </c>
       <c r="S263" t="n">
-        <v>221</v>
+        <v>294</v>
       </c>
       <c r="T263" t="n">
         <v>400</v>
@@ -21447,7 +21447,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44433</v>
+        <v>44377</v>
       </c>
       <c r="E264" t="n">
         <v>4</v>
@@ -21475,12 +21475,12 @@
       </c>
       <c r="K264" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L264" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M264" t="n">
@@ -21555,25 +21555,25 @@
       </c>
       <c r="K265" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L265" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M265" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N265" t="n">
-        <v>75000</v>
+        <v>125000</v>
       </c>
       <c r="O265" t="n">
-        <v>80000</v>
+        <v>130000</v>
       </c>
       <c r="P265" t="n">
-        <v>77500</v>
+        <v>127500</v>
       </c>
       <c r="Q265" t="inlineStr">
         <is>
@@ -21586,7 +21586,7 @@
         </is>
       </c>
       <c r="S265" t="n">
-        <v>194</v>
+        <v>319</v>
       </c>
       <c r="T265" t="n">
         <v>400</v>
@@ -21635,7 +21635,7 @@
       </c>
       <c r="K266" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L266" t="inlineStr">
@@ -21647,13 +21647,13 @@
         <v>20</v>
       </c>
       <c r="N266" t="n">
-        <v>95000</v>
+        <v>105000</v>
       </c>
       <c r="O266" t="n">
-        <v>100000</v>
+        <v>110000</v>
       </c>
       <c r="P266" t="n">
-        <v>97500</v>
+        <v>107500</v>
       </c>
       <c r="Q266" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         </is>
       </c>
       <c r="S266" t="n">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="T266" t="n">
         <v>400</v>
@@ -21715,7 +21715,7 @@
       </c>
       <c r="K267" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L267" t="inlineStr">
@@ -21724,16 +21724,16 @@
         </is>
       </c>
       <c r="M267" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N267" t="n">
-        <v>75000</v>
+        <v>85000</v>
       </c>
       <c r="O267" t="n">
-        <v>80000</v>
+        <v>90000</v>
       </c>
       <c r="P267" t="n">
-        <v>77500</v>
+        <v>88214</v>
       </c>
       <c r="Q267" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="S267" t="n">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="T267" t="n">
         <v>400</v>
@@ -21767,7 +21767,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44307</v>
+        <v>44433</v>
       </c>
       <c r="E268" t="n">
         <v>4</v>
@@ -21795,7 +21795,7 @@
       </c>
       <c r="K268" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L268" t="inlineStr">
@@ -21807,13 +21807,13 @@
         <v>20</v>
       </c>
       <c r="N268" t="n">
-        <v>385000</v>
+        <v>95000</v>
       </c>
       <c r="O268" t="n">
-        <v>390000</v>
+        <v>100000</v>
       </c>
       <c r="P268" t="n">
-        <v>387500</v>
+        <v>97500</v>
       </c>
       <c r="Q268" t="inlineStr">
         <is>
@@ -21826,7 +21826,7 @@
         </is>
       </c>
       <c r="S268" t="n">
-        <v>969</v>
+        <v>244</v>
       </c>
       <c r="T268" t="n">
         <v>400</v>
@@ -21847,7 +21847,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44307</v>
+        <v>44433</v>
       </c>
       <c r="E269" t="n">
         <v>4</v>
@@ -21875,7 +21875,7 @@
       </c>
       <c r="K269" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L269" t="inlineStr">
@@ -21887,13 +21887,13 @@
         <v>20</v>
       </c>
       <c r="N269" t="n">
-        <v>345000</v>
+        <v>75000</v>
       </c>
       <c r="O269" t="n">
-        <v>350000</v>
+        <v>80000</v>
       </c>
       <c r="P269" t="n">
-        <v>347500</v>
+        <v>77500</v>
       </c>
       <c r="Q269" t="inlineStr">
         <is>
@@ -21906,7 +21906,7 @@
         </is>
       </c>
       <c r="S269" t="n">
-        <v>869</v>
+        <v>194</v>
       </c>
       <c r="T269" t="n">
         <v>400</v>
@@ -21927,7 +21927,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44307</v>
+        <v>44433</v>
       </c>
       <c r="E270" t="n">
         <v>4</v>
@@ -21955,7 +21955,7 @@
       </c>
       <c r="K270" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L270" t="inlineStr">
@@ -21967,13 +21967,13 @@
         <v>20</v>
       </c>
       <c r="N270" t="n">
-        <v>385000</v>
+        <v>95000</v>
       </c>
       <c r="O270" t="n">
-        <v>390000</v>
+        <v>100000</v>
       </c>
       <c r="P270" t="n">
-        <v>387500</v>
+        <v>97500</v>
       </c>
       <c r="Q270" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
         </is>
       </c>
       <c r="S270" t="n">
-        <v>969</v>
+        <v>244</v>
       </c>
       <c r="T270" t="n">
         <v>400</v>
@@ -22007,7 +22007,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44476</v>
+        <v>44433</v>
       </c>
       <c r="E271" t="n">
         <v>4</v>
@@ -22035,25 +22035,25 @@
       </c>
       <c r="K271" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L271" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M271" t="n">
         <v>20</v>
       </c>
       <c r="N271" t="n">
-        <v>120000</v>
+        <v>75000</v>
       </c>
       <c r="O271" t="n">
-        <v>125000</v>
+        <v>80000</v>
       </c>
       <c r="P271" t="n">
-        <v>122500</v>
+        <v>77500</v>
       </c>
       <c r="Q271" t="inlineStr">
         <is>
@@ -22066,7 +22066,7 @@
         </is>
       </c>
       <c r="S271" t="n">
-        <v>306</v>
+        <v>194</v>
       </c>
       <c r="T271" t="n">
         <v>400</v>
@@ -22087,7 +22087,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44476</v>
+        <v>44307</v>
       </c>
       <c r="E272" t="n">
         <v>4</v>
@@ -22115,25 +22115,25 @@
       </c>
       <c r="K272" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L272" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M272" t="n">
         <v>20</v>
       </c>
       <c r="N272" t="n">
-        <v>90000</v>
+        <v>385000</v>
       </c>
       <c r="O272" t="n">
-        <v>95000</v>
+        <v>390000</v>
       </c>
       <c r="P272" t="n">
-        <v>92500</v>
+        <v>387500</v>
       </c>
       <c r="Q272" t="inlineStr">
         <is>
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="S272" t="n">
-        <v>231</v>
+        <v>969</v>
       </c>
       <c r="T272" t="n">
         <v>400</v>
@@ -22167,7 +22167,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44476</v>
+        <v>44307</v>
       </c>
       <c r="E273" t="n">
         <v>4</v>
@@ -22195,25 +22195,25 @@
       </c>
       <c r="K273" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L273" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M273" t="n">
         <v>20</v>
       </c>
       <c r="N273" t="n">
-        <v>120000</v>
+        <v>345000</v>
       </c>
       <c r="O273" t="n">
-        <v>125000</v>
+        <v>350000</v>
       </c>
       <c r="P273" t="n">
-        <v>122500</v>
+        <v>347500</v>
       </c>
       <c r="Q273" t="inlineStr">
         <is>
@@ -22226,7 +22226,7 @@
         </is>
       </c>
       <c r="S273" t="n">
-        <v>306</v>
+        <v>869</v>
       </c>
       <c r="T273" t="n">
         <v>400</v>
@@ -22247,7 +22247,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44476</v>
+        <v>44307</v>
       </c>
       <c r="E274" t="n">
         <v>4</v>
@@ -22275,25 +22275,25 @@
       </c>
       <c r="K274" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L274" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M274" t="n">
         <v>20</v>
       </c>
       <c r="N274" t="n">
-        <v>90000</v>
+        <v>385000</v>
       </c>
       <c r="O274" t="n">
-        <v>95000</v>
+        <v>390000</v>
       </c>
       <c r="P274" t="n">
-        <v>92500</v>
+        <v>387500</v>
       </c>
       <c r="Q274" t="inlineStr">
         <is>
@@ -22306,7 +22306,7 @@
         </is>
       </c>
       <c r="S274" t="n">
-        <v>231</v>
+        <v>969</v>
       </c>
       <c r="T274" t="n">
         <v>400</v>
@@ -22327,7 +22327,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E275" t="n">
         <v>4</v>
@@ -22370,10 +22370,10 @@
         <v>120000</v>
       </c>
       <c r="O275" t="n">
-        <v>130000</v>
+        <v>125000</v>
       </c>
       <c r="P275" t="n">
-        <v>125000</v>
+        <v>122500</v>
       </c>
       <c r="Q275" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         </is>
       </c>
       <c r="S275" t="n">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="T275" t="n">
         <v>400</v>
@@ -22407,7 +22407,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E276" t="n">
         <v>4</v>
@@ -22447,13 +22447,13 @@
         <v>20</v>
       </c>
       <c r="N276" t="n">
-        <v>100000</v>
+        <v>90000</v>
       </c>
       <c r="O276" t="n">
-        <v>110000</v>
+        <v>95000</v>
       </c>
       <c r="P276" t="n">
-        <v>105000</v>
+        <v>92500</v>
       </c>
       <c r="Q276" t="inlineStr">
         <is>
@@ -22466,7 +22466,7 @@
         </is>
       </c>
       <c r="S276" t="n">
-        <v>262</v>
+        <v>231</v>
       </c>
       <c r="T276" t="n">
         <v>400</v>
@@ -22487,7 +22487,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E277" t="n">
         <v>4</v>
@@ -22524,16 +22524,16 @@
         </is>
       </c>
       <c r="M277" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="N277" t="n">
         <v>120000</v>
       </c>
       <c r="O277" t="n">
-        <v>130000</v>
+        <v>125000</v>
       </c>
       <c r="P277" t="n">
-        <v>126429</v>
+        <v>122500</v>
       </c>
       <c r="Q277" t="inlineStr">
         <is>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="S277" t="n">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="T277" t="n">
         <v>400</v>
@@ -22567,7 +22567,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E278" t="n">
         <v>4</v>
@@ -22607,13 +22607,13 @@
         <v>20</v>
       </c>
       <c r="N278" t="n">
-        <v>100000</v>
+        <v>90000</v>
       </c>
       <c r="O278" t="n">
-        <v>110000</v>
+        <v>95000</v>
       </c>
       <c r="P278" t="n">
-        <v>105000</v>
+        <v>92500</v>
       </c>
       <c r="Q278" t="inlineStr">
         <is>
@@ -22626,7 +22626,7 @@
         </is>
       </c>
       <c r="S278" t="n">
-        <v>262</v>
+        <v>231</v>
       </c>
       <c r="T278" t="n">
         <v>400</v>
@@ -22647,7 +22647,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44384</v>
+        <v>44468</v>
       </c>
       <c r="E279" t="n">
         <v>4</v>
@@ -22675,7 +22675,7 @@
       </c>
       <c r="K279" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L279" t="inlineStr">
@@ -22687,13 +22687,13 @@
         <v>20</v>
       </c>
       <c r="N279" t="n">
-        <v>125000</v>
+        <v>120000</v>
       </c>
       <c r="O279" t="n">
         <v>130000</v>
       </c>
       <c r="P279" t="n">
-        <v>127500</v>
+        <v>125000</v>
       </c>
       <c r="Q279" t="inlineStr">
         <is>
@@ -22706,7 +22706,7 @@
         </is>
       </c>
       <c r="S279" t="n">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="T279" t="n">
         <v>400</v>
@@ -22727,7 +22727,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44384</v>
+        <v>44468</v>
       </c>
       <c r="E280" t="n">
         <v>4</v>
@@ -22755,7 +22755,7 @@
       </c>
       <c r="K280" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L280" t="inlineStr">
@@ -22767,13 +22767,13 @@
         <v>20</v>
       </c>
       <c r="N280" t="n">
-        <v>105000</v>
+        <v>100000</v>
       </c>
       <c r="O280" t="n">
         <v>110000</v>
       </c>
       <c r="P280" t="n">
-        <v>107500</v>
+        <v>105000</v>
       </c>
       <c r="Q280" t="inlineStr">
         <is>
@@ -22786,7 +22786,7 @@
         </is>
       </c>
       <c r="S280" t="n">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="T280" t="n">
         <v>400</v>
@@ -22807,7 +22807,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44384</v>
+        <v>44468</v>
       </c>
       <c r="E281" t="n">
         <v>4</v>
@@ -22844,16 +22844,16 @@
         </is>
       </c>
       <c r="M281" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N281" t="n">
-        <v>125000</v>
+        <v>120000</v>
       </c>
       <c r="O281" t="n">
         <v>130000</v>
       </c>
       <c r="P281" t="n">
-        <v>127500</v>
+        <v>126429</v>
       </c>
       <c r="Q281" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         </is>
       </c>
       <c r="S281" t="n">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="T281" t="n">
         <v>400</v>
@@ -22887,7 +22887,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44384</v>
+        <v>44468</v>
       </c>
       <c r="E282" t="n">
         <v>4</v>
@@ -22927,13 +22927,13 @@
         <v>20</v>
       </c>
       <c r="N282" t="n">
-        <v>105000</v>
+        <v>100000</v>
       </c>
       <c r="O282" t="n">
         <v>110000</v>
       </c>
       <c r="P282" t="n">
-        <v>107500</v>
+        <v>105000</v>
       </c>
       <c r="Q282" t="inlineStr">
         <is>
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="S282" t="n">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="T282" t="n">
         <v>400</v>
@@ -22995,7 +22995,7 @@
       </c>
       <c r="K283" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L283" t="inlineStr">
@@ -23007,13 +23007,13 @@
         <v>20</v>
       </c>
       <c r="N283" t="n">
-        <v>115000</v>
+        <v>125000</v>
       </c>
       <c r="O283" t="n">
-        <v>120000</v>
+        <v>130000</v>
       </c>
       <c r="P283" t="n">
-        <v>117500</v>
+        <v>127500</v>
       </c>
       <c r="Q283" t="inlineStr">
         <is>
@@ -23026,7 +23026,7 @@
         </is>
       </c>
       <c r="S283" t="n">
-        <v>294</v>
+        <v>319</v>
       </c>
       <c r="T283" t="n">
         <v>400</v>
@@ -23075,7 +23075,7 @@
       </c>
       <c r="K284" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L284" t="inlineStr">
@@ -23087,13 +23087,13 @@
         <v>20</v>
       </c>
       <c r="N284" t="n">
-        <v>95000</v>
+        <v>105000</v>
       </c>
       <c r="O284" t="n">
-        <v>100000</v>
+        <v>110000</v>
       </c>
       <c r="P284" t="n">
-        <v>97500</v>
+        <v>107500</v>
       </c>
       <c r="Q284" t="inlineStr">
         <is>
@@ -23106,7 +23106,7 @@
         </is>
       </c>
       <c r="S284" t="n">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="T284" t="n">
         <v>400</v>
@@ -23127,7 +23127,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E285" t="n">
         <v>4</v>
@@ -23155,7 +23155,7 @@
       </c>
       <c r="K285" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L285" t="inlineStr">
@@ -23167,13 +23167,13 @@
         <v>20</v>
       </c>
       <c r="N285" t="n">
-        <v>135000</v>
+        <v>125000</v>
       </c>
       <c r="O285" t="n">
-        <v>140000</v>
+        <v>130000</v>
       </c>
       <c r="P285" t="n">
-        <v>137500</v>
+        <v>127500</v>
       </c>
       <c r="Q285" t="inlineStr">
         <is>
@@ -23186,7 +23186,7 @@
         </is>
       </c>
       <c r="S285" t="n">
-        <v>344</v>
+        <v>319</v>
       </c>
       <c r="T285" t="n">
         <v>400</v>
@@ -23207,7 +23207,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E286" t="n">
         <v>4</v>
@@ -23235,7 +23235,7 @@
       </c>
       <c r="K286" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L286" t="inlineStr">
@@ -23247,13 +23247,13 @@
         <v>20</v>
       </c>
       <c r="N286" t="n">
-        <v>115000</v>
+        <v>105000</v>
       </c>
       <c r="O286" t="n">
-        <v>120000</v>
+        <v>110000</v>
       </c>
       <c r="P286" t="n">
-        <v>117500</v>
+        <v>107500</v>
       </c>
       <c r="Q286" t="inlineStr">
         <is>
@@ -23266,7 +23266,7 @@
         </is>
       </c>
       <c r="S286" t="n">
-        <v>294</v>
+        <v>269</v>
       </c>
       <c r="T286" t="n">
         <v>400</v>
@@ -23287,7 +23287,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E287" t="n">
         <v>4</v>
@@ -23327,13 +23327,13 @@
         <v>20</v>
       </c>
       <c r="N287" t="n">
-        <v>145000</v>
+        <v>115000</v>
       </c>
       <c r="O287" t="n">
-        <v>150000</v>
+        <v>120000</v>
       </c>
       <c r="P287" t="n">
-        <v>147500</v>
+        <v>117500</v>
       </c>
       <c r="Q287" t="inlineStr">
         <is>
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="S287" t="n">
-        <v>369</v>
+        <v>294</v>
       </c>
       <c r="T287" t="n">
         <v>400</v>
@@ -23367,7 +23367,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E288" t="n">
         <v>4</v>
@@ -23407,13 +23407,13 @@
         <v>20</v>
       </c>
       <c r="N288" t="n">
-        <v>125000</v>
+        <v>95000</v>
       </c>
       <c r="O288" t="n">
-        <v>130000</v>
+        <v>100000</v>
       </c>
       <c r="P288" t="n">
-        <v>127500</v>
+        <v>97500</v>
       </c>
       <c r="Q288" t="inlineStr">
         <is>
@@ -23426,7 +23426,7 @@
         </is>
       </c>
       <c r="S288" t="n">
-        <v>319</v>
+        <v>244</v>
       </c>
       <c r="T288" t="n">
         <v>400</v>
@@ -23447,7 +23447,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44301</v>
+        <v>44363</v>
       </c>
       <c r="E289" t="n">
         <v>4</v>
@@ -23475,25 +23475,25 @@
       </c>
       <c r="K289" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L289" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M289" t="n">
         <v>20</v>
       </c>
       <c r="N289" t="n">
-        <v>495000</v>
+        <v>135000</v>
       </c>
       <c r="O289" t="n">
-        <v>500000</v>
+        <v>140000</v>
       </c>
       <c r="P289" t="n">
-        <v>497500</v>
+        <v>137500</v>
       </c>
       <c r="Q289" t="inlineStr">
         <is>
@@ -23506,7 +23506,7 @@
         </is>
       </c>
       <c r="S289" t="n">
-        <v>1244</v>
+        <v>344</v>
       </c>
       <c r="T289" t="n">
         <v>400</v>
@@ -23527,7 +23527,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44301</v>
+        <v>44363</v>
       </c>
       <c r="E290" t="n">
         <v>4</v>
@@ -23555,25 +23555,25 @@
       </c>
       <c r="K290" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L290" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M290" t="n">
         <v>20</v>
       </c>
       <c r="N290" t="n">
-        <v>475000</v>
+        <v>115000</v>
       </c>
       <c r="O290" t="n">
-        <v>480000</v>
+        <v>120000</v>
       </c>
       <c r="P290" t="n">
-        <v>477500</v>
+        <v>117500</v>
       </c>
       <c r="Q290" t="inlineStr">
         <is>
@@ -23586,7 +23586,7 @@
         </is>
       </c>
       <c r="S290" t="n">
-        <v>1194</v>
+        <v>294</v>
       </c>
       <c r="T290" t="n">
         <v>400</v>
@@ -23607,7 +23607,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44357</v>
+        <v>44363</v>
       </c>
       <c r="E291" t="n">
         <v>4</v>
@@ -23635,7 +23635,7 @@
       </c>
       <c r="K291" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L291" t="inlineStr">
@@ -23687,7 +23687,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44357</v>
+        <v>44363</v>
       </c>
       <c r="E292" t="n">
         <v>4</v>
@@ -23715,7 +23715,7 @@
       </c>
       <c r="K292" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L292" t="inlineStr">
@@ -23727,13 +23727,13 @@
         <v>20</v>
       </c>
       <c r="N292" t="n">
-        <v>115000</v>
+        <v>125000</v>
       </c>
       <c r="O292" t="n">
-        <v>120000</v>
+        <v>130000</v>
       </c>
       <c r="P292" t="n">
-        <v>117500</v>
+        <v>127500</v>
       </c>
       <c r="Q292" t="inlineStr">
         <is>
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="S292" t="n">
-        <v>294</v>
+        <v>319</v>
       </c>
       <c r="T292" t="n">
         <v>400</v>
@@ -23767,7 +23767,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E293" t="n">
         <v>4</v>
@@ -23795,25 +23795,25 @@
       </c>
       <c r="K293" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L293" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M293" t="n">
         <v>20</v>
       </c>
       <c r="N293" t="n">
-        <v>145000</v>
+        <v>495000</v>
       </c>
       <c r="O293" t="n">
-        <v>150000</v>
+        <v>500000</v>
       </c>
       <c r="P293" t="n">
-        <v>147500</v>
+        <v>497500</v>
       </c>
       <c r="Q293" t="inlineStr">
         <is>
@@ -23826,7 +23826,7 @@
         </is>
       </c>
       <c r="S293" t="n">
-        <v>369</v>
+        <v>1244</v>
       </c>
       <c r="T293" t="n">
         <v>400</v>
@@ -23847,7 +23847,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E294" t="n">
         <v>4</v>
@@ -23875,25 +23875,25 @@
       </c>
       <c r="K294" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L294" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M294" t="n">
         <v>20</v>
       </c>
       <c r="N294" t="n">
-        <v>115000</v>
+        <v>475000</v>
       </c>
       <c r="O294" t="n">
-        <v>120000</v>
+        <v>480000</v>
       </c>
       <c r="P294" t="n">
-        <v>117500</v>
+        <v>477500</v>
       </c>
       <c r="Q294" t="inlineStr">
         <is>
@@ -23906,7 +23906,7 @@
         </is>
       </c>
       <c r="S294" t="n">
-        <v>294</v>
+        <v>1194</v>
       </c>
       <c r="T294" t="n">
         <v>400</v>
@@ -23927,7 +23927,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E295" t="n">
         <v>4</v>
@@ -23967,13 +23967,13 @@
         <v>20</v>
       </c>
       <c r="N295" t="n">
-        <v>290000</v>
+        <v>145000</v>
       </c>
       <c r="O295" t="n">
-        <v>300000</v>
+        <v>150000</v>
       </c>
       <c r="P295" t="n">
-        <v>295000</v>
+        <v>147500</v>
       </c>
       <c r="Q295" t="inlineStr">
         <is>
@@ -23986,7 +23986,7 @@
         </is>
       </c>
       <c r="S295" t="n">
-        <v>738</v>
+        <v>369</v>
       </c>
       <c r="T295" t="n">
         <v>400</v>
@@ -24007,7 +24007,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E296" t="n">
         <v>4</v>
@@ -24035,25 +24035,25 @@
       </c>
       <c r="K296" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L296" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M296" t="n">
         <v>20</v>
       </c>
       <c r="N296" t="n">
-        <v>290000</v>
+        <v>115000</v>
       </c>
       <c r="O296" t="n">
-        <v>300000</v>
+        <v>120000</v>
       </c>
       <c r="P296" t="n">
-        <v>295000</v>
+        <v>117500</v>
       </c>
       <c r="Q296" t="inlineStr">
         <is>
@@ -24066,7 +24066,7 @@
         </is>
       </c>
       <c r="S296" t="n">
-        <v>738</v>
+        <v>294</v>
       </c>
       <c r="T296" t="n">
         <v>400</v>
@@ -24087,7 +24087,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E297" t="n">
         <v>4</v>
@@ -24115,7 +24115,7 @@
       </c>
       <c r="K297" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L297" t="inlineStr">
@@ -24127,13 +24127,13 @@
         <v>20</v>
       </c>
       <c r="N297" t="n">
-        <v>320000</v>
+        <v>145000</v>
       </c>
       <c r="O297" t="n">
-        <v>330000</v>
+        <v>150000</v>
       </c>
       <c r="P297" t="n">
-        <v>325000</v>
+        <v>147500</v>
       </c>
       <c r="Q297" t="inlineStr">
         <is>
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="S297" t="n">
-        <v>812</v>
+        <v>369</v>
       </c>
       <c r="T297" t="n">
         <v>400</v>
@@ -24167,7 +24167,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E298" t="n">
         <v>4</v>
@@ -24195,7 +24195,7 @@
       </c>
       <c r="K298" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L298" t="inlineStr">
@@ -24207,13 +24207,13 @@
         <v>20</v>
       </c>
       <c r="N298" t="n">
-        <v>280000</v>
+        <v>115000</v>
       </c>
       <c r="O298" t="n">
-        <v>290000</v>
+        <v>120000</v>
       </c>
       <c r="P298" t="n">
-        <v>285000</v>
+        <v>117500</v>
       </c>
       <c r="Q298" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         </is>
       </c>
       <c r="S298" t="n">
-        <v>712</v>
+        <v>294</v>
       </c>
       <c r="T298" t="n">
         <v>400</v>
@@ -24247,7 +24247,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E299" t="n">
         <v>4</v>
@@ -24275,7 +24275,7 @@
       </c>
       <c r="K299" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L299" t="inlineStr">
@@ -24284,16 +24284,16 @@
         </is>
       </c>
       <c r="M299" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N299" t="n">
-        <v>460000</v>
+        <v>290000</v>
       </c>
       <c r="O299" t="n">
-        <v>470000</v>
+        <v>300000</v>
       </c>
       <c r="P299" t="n">
-        <v>465000</v>
+        <v>295000</v>
       </c>
       <c r="Q299" t="inlineStr">
         <is>
@@ -24306,7 +24306,7 @@
         </is>
       </c>
       <c r="S299" t="n">
-        <v>1162</v>
+        <v>738</v>
       </c>
       <c r="T299" t="n">
         <v>400</v>
@@ -24327,7 +24327,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44314</v>
+        <v>44328</v>
       </c>
       <c r="E300" t="n">
         <v>4</v>
@@ -24355,7 +24355,7 @@
       </c>
       <c r="K300" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L300" t="inlineStr">
@@ -24367,13 +24367,13 @@
         <v>20</v>
       </c>
       <c r="N300" t="n">
-        <v>355000</v>
+        <v>290000</v>
       </c>
       <c r="O300" t="n">
-        <v>360000</v>
+        <v>300000</v>
       </c>
       <c r="P300" t="n">
-        <v>357500</v>
+        <v>295000</v>
       </c>
       <c r="Q300" t="inlineStr">
         <is>
@@ -24386,7 +24386,7 @@
         </is>
       </c>
       <c r="S300" t="n">
-        <v>894</v>
+        <v>738</v>
       </c>
       <c r="T300" t="n">
         <v>400</v>
@@ -24407,7 +24407,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44314</v>
+        <v>44321</v>
       </c>
       <c r="E301" t="n">
         <v>4</v>
@@ -24440,20 +24440,20 @@
       </c>
       <c r="L301" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M301" t="n">
         <v>20</v>
       </c>
       <c r="N301" t="n">
-        <v>325000</v>
+        <v>320000</v>
       </c>
       <c r="O301" t="n">
         <v>330000</v>
       </c>
       <c r="P301" t="n">
-        <v>327500</v>
+        <v>325000</v>
       </c>
       <c r="Q301" t="inlineStr">
         <is>
@@ -24466,7 +24466,7 @@
         </is>
       </c>
       <c r="S301" t="n">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="T301" t="n">
         <v>400</v>
@@ -24487,7 +24487,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44314</v>
+        <v>44321</v>
       </c>
       <c r="E302" t="n">
         <v>4</v>
@@ -24515,25 +24515,25 @@
       </c>
       <c r="K302" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L302" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M302" t="n">
         <v>20</v>
       </c>
       <c r="N302" t="n">
-        <v>355000</v>
+        <v>280000</v>
       </c>
       <c r="O302" t="n">
-        <v>360000</v>
+        <v>290000</v>
       </c>
       <c r="P302" t="n">
-        <v>357500</v>
+        <v>285000</v>
       </c>
       <c r="Q302" t="inlineStr">
         <is>
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="S302" t="n">
-        <v>894</v>
+        <v>712</v>
       </c>
       <c r="T302" t="n">
         <v>400</v>
@@ -24567,7 +24567,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44314</v>
+        <v>44321</v>
       </c>
       <c r="E303" t="n">
         <v>4</v>
@@ -24595,25 +24595,25 @@
       </c>
       <c r="K303" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L303" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M303" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N303" t="n">
-        <v>325000</v>
+        <v>460000</v>
       </c>
       <c r="O303" t="n">
-        <v>330000</v>
+        <v>470000</v>
       </c>
       <c r="P303" t="n">
-        <v>327500</v>
+        <v>465000</v>
       </c>
       <c r="Q303" t="inlineStr">
         <is>
@@ -24626,7 +24626,7 @@
         </is>
       </c>
       <c r="S303" t="n">
-        <v>819</v>
+        <v>1162</v>
       </c>
       <c r="T303" t="n">
         <v>400</v>
@@ -24675,7 +24675,7 @@
       </c>
       <c r="K304" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L304" t="inlineStr">
@@ -24687,13 +24687,13 @@
         <v>20</v>
       </c>
       <c r="N304" t="n">
-        <v>470000</v>
+        <v>355000</v>
       </c>
       <c r="O304" t="n">
-        <v>480000</v>
+        <v>360000</v>
       </c>
       <c r="P304" t="n">
-        <v>475000</v>
+        <v>357500</v>
       </c>
       <c r="Q304" t="inlineStr">
         <is>
@@ -24706,7 +24706,7 @@
         </is>
       </c>
       <c r="S304" t="n">
-        <v>1188</v>
+        <v>894</v>
       </c>
       <c r="T304" t="n">
         <v>400</v>
@@ -24727,7 +24727,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E305" t="n">
         <v>4</v>
@@ -24755,25 +24755,25 @@
       </c>
       <c r="K305" t="inlineStr">
         <is>
-          <t>Cara cara</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L305" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M305" t="n">
         <v>20</v>
       </c>
       <c r="N305" t="n">
-        <v>125000</v>
+        <v>325000</v>
       </c>
       <c r="O305" t="n">
-        <v>130000</v>
+        <v>330000</v>
       </c>
       <c r="P305" t="n">
-        <v>127500</v>
+        <v>327500</v>
       </c>
       <c r="Q305" t="inlineStr">
         <is>
@@ -24786,7 +24786,7 @@
         </is>
       </c>
       <c r="S305" t="n">
-        <v>319</v>
+        <v>819</v>
       </c>
       <c r="T305" t="n">
         <v>400</v>
@@ -24807,7 +24807,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E306" t="n">
         <v>4</v>
@@ -24835,7 +24835,7 @@
       </c>
       <c r="K306" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L306" t="inlineStr">
@@ -24847,13 +24847,13 @@
         <v>20</v>
       </c>
       <c r="N306" t="n">
-        <v>100000</v>
+        <v>355000</v>
       </c>
       <c r="O306" t="n">
-        <v>110000</v>
+        <v>360000</v>
       </c>
       <c r="P306" t="n">
-        <v>105000</v>
+        <v>357500</v>
       </c>
       <c r="Q306" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         </is>
       </c>
       <c r="S306" t="n">
-        <v>262</v>
+        <v>894</v>
       </c>
       <c r="T306" t="n">
         <v>400</v>
@@ -24887,7 +24887,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E307" t="n">
         <v>4</v>
@@ -24915,7 +24915,7 @@
       </c>
       <c r="K307" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L307" t="inlineStr">
@@ -24927,13 +24927,13 @@
         <v>20</v>
       </c>
       <c r="N307" t="n">
-        <v>80000</v>
+        <v>325000</v>
       </c>
       <c r="O307" t="n">
-        <v>90000</v>
+        <v>330000</v>
       </c>
       <c r="P307" t="n">
-        <v>85000</v>
+        <v>327500</v>
       </c>
       <c r="Q307" t="inlineStr">
         <is>
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="S307" t="n">
-        <v>212</v>
+        <v>819</v>
       </c>
       <c r="T307" t="n">
         <v>400</v>
@@ -24967,7 +24967,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E308" t="n">
         <v>4</v>
@@ -24995,7 +24995,7 @@
       </c>
       <c r="K308" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L308" t="inlineStr">
@@ -25007,13 +25007,13 @@
         <v>20</v>
       </c>
       <c r="N308" t="n">
-        <v>100000</v>
+        <v>470000</v>
       </c>
       <c r="O308" t="n">
-        <v>110000</v>
+        <v>480000</v>
       </c>
       <c r="P308" t="n">
-        <v>105000</v>
+        <v>475000</v>
       </c>
       <c r="Q308" t="inlineStr">
         <is>
@@ -25026,7 +25026,7 @@
         </is>
       </c>
       <c r="S308" t="n">
-        <v>262</v>
+        <v>1188</v>
       </c>
       <c r="T308" t="n">
         <v>400</v>
@@ -25075,25 +25075,25 @@
       </c>
       <c r="K309" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Cara cara</t>
         </is>
       </c>
       <c r="L309" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M309" t="n">
         <v>20</v>
       </c>
       <c r="N309" t="n">
-        <v>80000</v>
+        <v>125000</v>
       </c>
       <c r="O309" t="n">
-        <v>90000</v>
+        <v>130000</v>
       </c>
       <c r="P309" t="n">
-        <v>85000</v>
+        <v>127500</v>
       </c>
       <c r="Q309" t="inlineStr">
         <is>
@@ -25106,7 +25106,7 @@
         </is>
       </c>
       <c r="S309" t="n">
-        <v>212</v>
+        <v>319</v>
       </c>
       <c r="T309" t="n">
         <v>400</v>
@@ -25155,7 +25155,7 @@
       </c>
       <c r="K310" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L310" t="inlineStr">
@@ -25235,7 +25235,7 @@
       </c>
       <c r="K311" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L311" t="inlineStr">
@@ -25287,7 +25287,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44461</v>
+        <v>44392</v>
       </c>
       <c r="E312" t="n">
         <v>4</v>
@@ -25315,7 +25315,7 @@
       </c>
       <c r="K312" t="inlineStr">
         <is>
-          <t>Cara cara</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L312" t="inlineStr">
@@ -25327,13 +25327,13 @@
         <v>20</v>
       </c>
       <c r="N312" t="n">
+        <v>100000</v>
+      </c>
+      <c r="O312" t="n">
         <v>110000</v>
       </c>
-      <c r="O312" t="n">
-        <v>120000</v>
-      </c>
       <c r="P312" t="n">
-        <v>115000</v>
+        <v>105000</v>
       </c>
       <c r="Q312" t="inlineStr">
         <is>
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="S312" t="n">
-        <v>288</v>
+        <v>262</v>
       </c>
       <c r="T312" t="n">
         <v>400</v>
@@ -25367,7 +25367,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44461</v>
+        <v>44392</v>
       </c>
       <c r="E313" t="n">
         <v>4</v>
@@ -25395,7 +25395,7 @@
       </c>
       <c r="K313" t="inlineStr">
         <is>
-          <t>Cara cara</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L313" t="inlineStr">
@@ -25407,13 +25407,13 @@
         <v>20</v>
       </c>
       <c r="N313" t="n">
+        <v>80000</v>
+      </c>
+      <c r="O313" t="n">
         <v>90000</v>
       </c>
-      <c r="O313" t="n">
-        <v>100000</v>
-      </c>
       <c r="P313" t="n">
-        <v>95000</v>
+        <v>85000</v>
       </c>
       <c r="Q313" t="inlineStr">
         <is>
@@ -25426,7 +25426,7 @@
         </is>
       </c>
       <c r="S313" t="n">
-        <v>238</v>
+        <v>212</v>
       </c>
       <c r="T313" t="n">
         <v>400</v>
@@ -25447,7 +25447,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44461</v>
+        <v>44392</v>
       </c>
       <c r="E314" t="n">
         <v>4</v>
@@ -25475,7 +25475,7 @@
       </c>
       <c r="K314" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L314" t="inlineStr">
@@ -25527,7 +25527,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44461</v>
+        <v>44392</v>
       </c>
       <c r="E315" t="n">
         <v>4</v>
@@ -25555,7 +25555,7 @@
       </c>
       <c r="K315" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L315" t="inlineStr">
@@ -25607,7 +25607,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44286</v>
+        <v>44461</v>
       </c>
       <c r="E316" t="n">
         <v>4</v>
@@ -25635,25 +25635,25 @@
       </c>
       <c r="K316" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Cara cara</t>
         </is>
       </c>
       <c r="L316" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M316" t="n">
         <v>20</v>
       </c>
       <c r="N316" t="n">
-        <v>475000</v>
+        <v>110000</v>
       </c>
       <c r="O316" t="n">
-        <v>480000</v>
+        <v>120000</v>
       </c>
       <c r="P316" t="n">
-        <v>477500</v>
+        <v>115000</v>
       </c>
       <c r="Q316" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         </is>
       </c>
       <c r="S316" t="n">
-        <v>1194</v>
+        <v>288</v>
       </c>
       <c r="T316" t="n">
         <v>400</v>
@@ -25687,68 +25687,388 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
+        <v>44461</v>
+      </c>
+      <c r="E317" t="n">
+        <v>4</v>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G317" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H317" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I317" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J317" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>Cara cara</t>
+        </is>
+      </c>
+      <c r="L317" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M317" t="n">
+        <v>20</v>
+      </c>
+      <c r="N317" t="n">
+        <v>90000</v>
+      </c>
+      <c r="O317" t="n">
+        <v>100000</v>
+      </c>
+      <c r="P317" t="n">
+        <v>95000</v>
+      </c>
+      <c r="Q317" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R317" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S317" t="n">
+        <v>238</v>
+      </c>
+      <c r="T317" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>2</v>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D318" s="2" t="n">
+        <v>44461</v>
+      </c>
+      <c r="E318" t="n">
+        <v>4</v>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G318" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H318" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I318" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J318" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>Lane Late</t>
+        </is>
+      </c>
+      <c r="L318" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M318" t="n">
+        <v>20</v>
+      </c>
+      <c r="N318" t="n">
+        <v>100000</v>
+      </c>
+      <c r="O318" t="n">
+        <v>110000</v>
+      </c>
+      <c r="P318" t="n">
+        <v>105000</v>
+      </c>
+      <c r="Q318" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R318" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S318" t="n">
+        <v>262</v>
+      </c>
+      <c r="T318" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>2</v>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D319" s="2" t="n">
+        <v>44461</v>
+      </c>
+      <c r="E319" t="n">
+        <v>4</v>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G319" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H319" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I319" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J319" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>Lane Late</t>
+        </is>
+      </c>
+      <c r="L319" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M319" t="n">
+        <v>20</v>
+      </c>
+      <c r="N319" t="n">
+        <v>80000</v>
+      </c>
+      <c r="O319" t="n">
+        <v>90000</v>
+      </c>
+      <c r="P319" t="n">
+        <v>85000</v>
+      </c>
+      <c r="Q319" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R319" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S319" t="n">
+        <v>212</v>
+      </c>
+      <c r="T319" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>2</v>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D320" s="2" t="n">
         <v>44286</v>
       </c>
-      <c r="E317" t="n">
-        <v>4</v>
-      </c>
-      <c r="F317" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G317" t="n">
-        <v>100102</v>
-      </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>Cítricos</t>
-        </is>
-      </c>
-      <c r="I317" t="n">
-        <v>100102005</v>
-      </c>
-      <c r="J317" t="inlineStr">
-        <is>
-          <t>Naranja</t>
-        </is>
-      </c>
-      <c r="K317" t="inlineStr">
+      <c r="E320" t="n">
+        <v>4</v>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G320" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H320" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I320" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J320" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K320" t="inlineStr">
         <is>
           <t>Valencia</t>
         </is>
       </c>
-      <c r="L317" t="inlineStr">
+      <c r="L320" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M320" t="n">
+        <v>20</v>
+      </c>
+      <c r="N320" t="n">
+        <v>475000</v>
+      </c>
+      <c r="O320" t="n">
+        <v>480000</v>
+      </c>
+      <c r="P320" t="n">
+        <v>477500</v>
+      </c>
+      <c r="Q320" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R320" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S320" t="n">
+        <v>1194</v>
+      </c>
+      <c r="T320" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>2</v>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D321" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="E321" t="n">
+        <v>4</v>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G321" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I321" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J321" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="L321" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M317" t="n">
-        <v>20</v>
-      </c>
-      <c r="N317" t="n">
+      <c r="M321" t="n">
+        <v>20</v>
+      </c>
+      <c r="N321" t="n">
         <v>455000</v>
       </c>
-      <c r="O317" t="n">
+      <c r="O321" t="n">
         <v>460000</v>
       </c>
-      <c r="P317" t="n">
+      <c r="P321" t="n">
         <v>457500</v>
       </c>
-      <c r="Q317" t="inlineStr">
-        <is>
-          <t>$/bins (400 kilos)</t>
-        </is>
-      </c>
-      <c r="R317" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="S317" t="n">
+      <c r="Q321" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R321" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S321" t="n">
         <v>1144</v>
       </c>
-      <c r="T317" t="n">
+      <c r="T321" t="n">
         <v>400</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Comercializadora del Agro de Limarí - Naranja.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Comercializadora del Agro de Limarí - Naranja.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T321"/>
+  <dimension ref="A1:T325"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10647,7 +10647,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44308</v>
+        <v>44483</v>
       </c>
       <c r="E129" t="n">
         <v>4</v>
@@ -10675,7 +10675,7 @@
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L129" t="inlineStr">
@@ -10687,13 +10687,13 @@
         <v>20</v>
       </c>
       <c r="N129" t="n">
-        <v>385000</v>
+        <v>125000</v>
       </c>
       <c r="O129" t="n">
-        <v>390000</v>
+        <v>130000</v>
       </c>
       <c r="P129" t="n">
-        <v>387500</v>
+        <v>127500</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
@@ -10706,7 +10706,7 @@
         </is>
       </c>
       <c r="S129" t="n">
-        <v>969</v>
+        <v>319</v>
       </c>
       <c r="T129" t="n">
         <v>400</v>
@@ -10727,7 +10727,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44308</v>
+        <v>44483</v>
       </c>
       <c r="E130" t="n">
         <v>4</v>
@@ -10755,7 +10755,7 @@
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L130" t="inlineStr">
@@ -10767,13 +10767,13 @@
         <v>20</v>
       </c>
       <c r="N130" t="n">
-        <v>345000</v>
+        <v>95000</v>
       </c>
       <c r="O130" t="n">
-        <v>350000</v>
+        <v>100000</v>
       </c>
       <c r="P130" t="n">
-        <v>347500</v>
+        <v>97500</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         </is>
       </c>
       <c r="S130" t="n">
-        <v>869</v>
+        <v>244</v>
       </c>
       <c r="T130" t="n">
         <v>400</v>
@@ -10807,7 +10807,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44308</v>
+        <v>44483</v>
       </c>
       <c r="E131" t="n">
         <v>4</v>
@@ -10835,7 +10835,7 @@
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L131" t="inlineStr">
@@ -10847,13 +10847,13 @@
         <v>20</v>
       </c>
       <c r="N131" t="n">
-        <v>385000</v>
+        <v>125000</v>
       </c>
       <c r="O131" t="n">
-        <v>390000</v>
+        <v>130000</v>
       </c>
       <c r="P131" t="n">
-        <v>387500</v>
+        <v>127500</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
@@ -10866,7 +10866,7 @@
         </is>
       </c>
       <c r="S131" t="n">
-        <v>969</v>
+        <v>319</v>
       </c>
       <c r="T131" t="n">
         <v>400</v>
@@ -10887,7 +10887,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44308</v>
+        <v>44483</v>
       </c>
       <c r="E132" t="n">
         <v>4</v>
@@ -10915,7 +10915,7 @@
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L132" t="inlineStr">
@@ -10927,13 +10927,13 @@
         <v>20</v>
       </c>
       <c r="N132" t="n">
-        <v>345000</v>
+        <v>95000</v>
       </c>
       <c r="O132" t="n">
-        <v>350000</v>
+        <v>100000</v>
       </c>
       <c r="P132" t="n">
-        <v>347500</v>
+        <v>97500</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="S132" t="n">
-        <v>869</v>
+        <v>244</v>
       </c>
       <c r="T132" t="n">
         <v>400</v>
@@ -10995,7 +10995,7 @@
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L133" t="inlineStr">
@@ -11007,13 +11007,13 @@
         <v>20</v>
       </c>
       <c r="N133" t="n">
-        <v>495000</v>
+        <v>385000</v>
       </c>
       <c r="O133" t="n">
-        <v>500000</v>
+        <v>390000</v>
       </c>
       <c r="P133" t="n">
-        <v>497500</v>
+        <v>387500</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
@@ -11026,7 +11026,7 @@
         </is>
       </c>
       <c r="S133" t="n">
-        <v>1244</v>
+        <v>969</v>
       </c>
       <c r="T133" t="n">
         <v>400</v>
@@ -11047,7 +11047,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44322</v>
+        <v>44308</v>
       </c>
       <c r="E134" t="n">
         <v>4</v>
@@ -11080,20 +11080,20 @@
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M134" t="n">
         <v>20</v>
       </c>
       <c r="N134" t="n">
-        <v>310000</v>
+        <v>345000</v>
       </c>
       <c r="O134" t="n">
-        <v>320000</v>
+        <v>350000</v>
       </c>
       <c r="P134" t="n">
-        <v>315000</v>
+        <v>347500</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
@@ -11106,7 +11106,7 @@
         </is>
       </c>
       <c r="S134" t="n">
-        <v>788</v>
+        <v>869</v>
       </c>
       <c r="T134" t="n">
         <v>400</v>
@@ -11127,7 +11127,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44322</v>
+        <v>44308</v>
       </c>
       <c r="E135" t="n">
         <v>4</v>
@@ -11155,25 +11155,25 @@
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M135" t="n">
         <v>20</v>
       </c>
       <c r="N135" t="n">
-        <v>270000</v>
+        <v>385000</v>
       </c>
       <c r="O135" t="n">
-        <v>280000</v>
+        <v>390000</v>
       </c>
       <c r="P135" t="n">
-        <v>275000</v>
+        <v>387500</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
@@ -11186,7 +11186,7 @@
         </is>
       </c>
       <c r="S135" t="n">
-        <v>688</v>
+        <v>969</v>
       </c>
       <c r="T135" t="n">
         <v>400</v>
@@ -11207,7 +11207,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44322</v>
+        <v>44308</v>
       </c>
       <c r="E136" t="n">
         <v>4</v>
@@ -11235,25 +11235,25 @@
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M136" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N136" t="n">
-        <v>460000</v>
+        <v>345000</v>
       </c>
       <c r="O136" t="n">
-        <v>470000</v>
+        <v>350000</v>
       </c>
       <c r="P136" t="n">
-        <v>465000</v>
+        <v>347500</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         </is>
       </c>
       <c r="S136" t="n">
-        <v>1162</v>
+        <v>869</v>
       </c>
       <c r="T136" t="n">
         <v>400</v>
@@ -11287,7 +11287,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44265</v>
+        <v>44308</v>
       </c>
       <c r="E137" t="n">
         <v>4</v>
@@ -11327,13 +11327,13 @@
         <v>20</v>
       </c>
       <c r="N137" t="n">
-        <v>455000</v>
+        <v>495000</v>
       </c>
       <c r="O137" t="n">
-        <v>460000</v>
+        <v>500000</v>
       </c>
       <c r="P137" t="n">
-        <v>457500</v>
+        <v>497500</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="S137" t="n">
-        <v>1144</v>
+        <v>1244</v>
       </c>
       <c r="T137" t="n">
         <v>400</v>
@@ -11367,7 +11367,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44265</v>
+        <v>44322</v>
       </c>
       <c r="E138" t="n">
         <v>4</v>
@@ -11395,25 +11395,25 @@
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M138" t="n">
         <v>20</v>
       </c>
       <c r="N138" t="n">
-        <v>415000</v>
+        <v>310000</v>
       </c>
       <c r="O138" t="n">
-        <v>420000</v>
+        <v>320000</v>
       </c>
       <c r="P138" t="n">
-        <v>417500</v>
+        <v>315000</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
@@ -11426,7 +11426,7 @@
         </is>
       </c>
       <c r="S138" t="n">
-        <v>1044</v>
+        <v>788</v>
       </c>
       <c r="T138" t="n">
         <v>400</v>
@@ -11447,7 +11447,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44224</v>
+        <v>44322</v>
       </c>
       <c r="E139" t="n">
         <v>4</v>
@@ -11475,25 +11475,25 @@
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M139" t="n">
         <v>20</v>
       </c>
       <c r="N139" t="n">
-        <v>515000</v>
+        <v>270000</v>
       </c>
       <c r="O139" t="n">
-        <v>520000</v>
+        <v>280000</v>
       </c>
       <c r="P139" t="n">
-        <v>517500</v>
+        <v>275000</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
@@ -11506,7 +11506,7 @@
         </is>
       </c>
       <c r="S139" t="n">
-        <v>1294</v>
+        <v>688</v>
       </c>
       <c r="T139" t="n">
         <v>400</v>
@@ -11527,7 +11527,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44224</v>
+        <v>44322</v>
       </c>
       <c r="E140" t="n">
         <v>4</v>
@@ -11564,16 +11564,16 @@
         </is>
       </c>
       <c r="M140" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N140" t="n">
-        <v>495000</v>
+        <v>460000</v>
       </c>
       <c r="O140" t="n">
-        <v>500000</v>
+        <v>470000</v>
       </c>
       <c r="P140" t="n">
-        <v>497500</v>
+        <v>465000</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
@@ -11586,7 +11586,7 @@
         </is>
       </c>
       <c r="S140" t="n">
-        <v>1244</v>
+        <v>1162</v>
       </c>
       <c r="T140" t="n">
         <v>400</v>
@@ -11607,7 +11607,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44315</v>
+        <v>44265</v>
       </c>
       <c r="E141" t="n">
         <v>4</v>
@@ -11635,7 +11635,7 @@
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L141" t="inlineStr">
@@ -11647,13 +11647,13 @@
         <v>20</v>
       </c>
       <c r="N141" t="n">
-        <v>355000</v>
+        <v>455000</v>
       </c>
       <c r="O141" t="n">
-        <v>360000</v>
+        <v>460000</v>
       </c>
       <c r="P141" t="n">
-        <v>357500</v>
+        <v>457500</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         </is>
       </c>
       <c r="S141" t="n">
-        <v>894</v>
+        <v>1144</v>
       </c>
       <c r="T141" t="n">
         <v>400</v>
@@ -11687,7 +11687,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44315</v>
+        <v>44265</v>
       </c>
       <c r="E142" t="n">
         <v>4</v>
@@ -11715,7 +11715,7 @@
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L142" t="inlineStr">
@@ -11727,13 +11727,13 @@
         <v>20</v>
       </c>
       <c r="N142" t="n">
-        <v>325000</v>
+        <v>415000</v>
       </c>
       <c r="O142" t="n">
-        <v>330000</v>
+        <v>420000</v>
       </c>
       <c r="P142" t="n">
-        <v>327500</v>
+        <v>417500</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="S142" t="n">
-        <v>819</v>
+        <v>1044</v>
       </c>
       <c r="T142" t="n">
         <v>400</v>
@@ -11767,7 +11767,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44315</v>
+        <v>44224</v>
       </c>
       <c r="E143" t="n">
         <v>4</v>
@@ -11795,25 +11795,25 @@
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M143" t="n">
         <v>20</v>
       </c>
       <c r="N143" t="n">
-        <v>355000</v>
+        <v>515000</v>
       </c>
       <c r="O143" t="n">
-        <v>360000</v>
+        <v>520000</v>
       </c>
       <c r="P143" t="n">
-        <v>357500</v>
+        <v>517500</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
@@ -11826,7 +11826,7 @@
         </is>
       </c>
       <c r="S143" t="n">
-        <v>894</v>
+        <v>1294</v>
       </c>
       <c r="T143" t="n">
         <v>400</v>
@@ -11847,7 +11847,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44315</v>
+        <v>44224</v>
       </c>
       <c r="E144" t="n">
         <v>4</v>
@@ -11875,25 +11875,25 @@
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M144" t="n">
         <v>20</v>
       </c>
       <c r="N144" t="n">
-        <v>325000</v>
+        <v>495000</v>
       </c>
       <c r="O144" t="n">
-        <v>330000</v>
+        <v>500000</v>
       </c>
       <c r="P144" t="n">
-        <v>327500</v>
+        <v>497500</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
@@ -11906,7 +11906,7 @@
         </is>
       </c>
       <c r="S144" t="n">
-        <v>819</v>
+        <v>1244</v>
       </c>
       <c r="T144" t="n">
         <v>400</v>
@@ -11955,7 +11955,7 @@
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L145" t="inlineStr">
@@ -11967,13 +11967,13 @@
         <v>20</v>
       </c>
       <c r="N145" t="n">
-        <v>470000</v>
+        <v>355000</v>
       </c>
       <c r="O145" t="n">
-        <v>480000</v>
+        <v>360000</v>
       </c>
       <c r="P145" t="n">
-        <v>475000</v>
+        <v>357500</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         </is>
       </c>
       <c r="S145" t="n">
-        <v>1188</v>
+        <v>894</v>
       </c>
       <c r="T145" t="n">
         <v>400</v>
@@ -12007,7 +12007,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44293</v>
+        <v>44315</v>
       </c>
       <c r="E146" t="n">
         <v>4</v>
@@ -12035,25 +12035,25 @@
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M146" t="n">
         <v>20</v>
       </c>
       <c r="N146" t="n">
-        <v>475000</v>
+        <v>325000</v>
       </c>
       <c r="O146" t="n">
-        <v>480000</v>
+        <v>330000</v>
       </c>
       <c r="P146" t="n">
-        <v>477500</v>
+        <v>327500</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         </is>
       </c>
       <c r="S146" t="n">
-        <v>1194</v>
+        <v>819</v>
       </c>
       <c r="T146" t="n">
         <v>400</v>
@@ -12087,7 +12087,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44343</v>
+        <v>44315</v>
       </c>
       <c r="E147" t="n">
         <v>4</v>
@@ -12115,25 +12115,25 @@
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M147" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N147" t="n">
-        <v>235000</v>
+        <v>355000</v>
       </c>
       <c r="O147" t="n">
-        <v>240000</v>
+        <v>360000</v>
       </c>
       <c r="P147" t="n">
-        <v>237500</v>
+        <v>357500</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="S147" t="n">
-        <v>594</v>
+        <v>894</v>
       </c>
       <c r="T147" t="n">
         <v>400</v>
@@ -12167,7 +12167,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44343</v>
+        <v>44315</v>
       </c>
       <c r="E148" t="n">
         <v>4</v>
@@ -12195,25 +12195,25 @@
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M148" t="n">
         <v>20</v>
       </c>
       <c r="N148" t="n">
-        <v>195000</v>
+        <v>325000</v>
       </c>
       <c r="O148" t="n">
-        <v>200000</v>
+        <v>330000</v>
       </c>
       <c r="P148" t="n">
-        <v>197500</v>
+        <v>327500</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
@@ -12226,7 +12226,7 @@
         </is>
       </c>
       <c r="S148" t="n">
-        <v>494</v>
+        <v>819</v>
       </c>
       <c r="T148" t="n">
         <v>400</v>
@@ -12247,7 +12247,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44343</v>
+        <v>44315</v>
       </c>
       <c r="E149" t="n">
         <v>4</v>
@@ -12275,25 +12275,25 @@
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M149" t="n">
         <v>20</v>
       </c>
       <c r="N149" t="n">
-        <v>165000</v>
+        <v>470000</v>
       </c>
       <c r="O149" t="n">
-        <v>170000</v>
+        <v>480000</v>
       </c>
       <c r="P149" t="n">
-        <v>167500</v>
+        <v>475000</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
@@ -12306,7 +12306,7 @@
         </is>
       </c>
       <c r="S149" t="n">
-        <v>419</v>
+        <v>1188</v>
       </c>
       <c r="T149" t="n">
         <v>400</v>
@@ -12327,7 +12327,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44195</v>
+        <v>44293</v>
       </c>
       <c r="E150" t="n">
         <v>4</v>
@@ -12364,16 +12364,16 @@
         </is>
       </c>
       <c r="M150" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N150" t="n">
-        <v>390000</v>
+        <v>475000</v>
       </c>
       <c r="O150" t="n">
-        <v>400000</v>
+        <v>480000</v>
       </c>
       <c r="P150" t="n">
-        <v>395000</v>
+        <v>477500</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
@@ -12386,7 +12386,7 @@
         </is>
       </c>
       <c r="S150" t="n">
-        <v>988</v>
+        <v>1194</v>
       </c>
       <c r="T150" t="n">
         <v>400</v>
@@ -12407,7 +12407,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44209</v>
+        <v>44343</v>
       </c>
       <c r="E151" t="n">
         <v>4</v>
@@ -12435,7 +12435,7 @@
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L151" t="inlineStr">
@@ -12444,16 +12444,16 @@
         </is>
       </c>
       <c r="M151" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N151" t="n">
-        <v>465000</v>
+        <v>235000</v>
       </c>
       <c r="O151" t="n">
-        <v>470000</v>
+        <v>240000</v>
       </c>
       <c r="P151" t="n">
-        <v>467500</v>
+        <v>237500</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         </is>
       </c>
       <c r="S151" t="n">
-        <v>1169</v>
+        <v>594</v>
       </c>
       <c r="T151" t="n">
         <v>400</v>
@@ -12487,7 +12487,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44209</v>
+        <v>44343</v>
       </c>
       <c r="E152" t="n">
         <v>4</v>
@@ -12515,7 +12515,7 @@
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L152" t="inlineStr">
@@ -12527,13 +12527,13 @@
         <v>20</v>
       </c>
       <c r="N152" t="n">
-        <v>415000</v>
+        <v>195000</v>
       </c>
       <c r="O152" t="n">
-        <v>420000</v>
+        <v>200000</v>
       </c>
       <c r="P152" t="n">
-        <v>417500</v>
+        <v>197500</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="S152" t="n">
-        <v>1044</v>
+        <v>494</v>
       </c>
       <c r="T152" t="n">
         <v>400</v>
@@ -12567,7 +12567,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44209</v>
+        <v>44343</v>
       </c>
       <c r="E153" t="n">
         <v>4</v>
@@ -12595,7 +12595,7 @@
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L153" t="inlineStr">
@@ -12607,13 +12607,13 @@
         <v>20</v>
       </c>
       <c r="N153" t="n">
-        <v>365000</v>
+        <v>165000</v>
       </c>
       <c r="O153" t="n">
-        <v>370000</v>
+        <v>170000</v>
       </c>
       <c r="P153" t="n">
-        <v>367500</v>
+        <v>167500</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
@@ -12626,7 +12626,7 @@
         </is>
       </c>
       <c r="S153" t="n">
-        <v>919</v>
+        <v>419</v>
       </c>
       <c r="T153" t="n">
         <v>400</v>
@@ -12647,7 +12647,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44447</v>
+        <v>44195</v>
       </c>
       <c r="E154" t="n">
         <v>4</v>
@@ -12675,7 +12675,7 @@
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L154" t="inlineStr">
@@ -12684,16 +12684,16 @@
         </is>
       </c>
       <c r="M154" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N154" t="n">
-        <v>110000</v>
+        <v>390000</v>
       </c>
       <c r="O154" t="n">
-        <v>120000</v>
+        <v>400000</v>
       </c>
       <c r="P154" t="n">
-        <v>115000</v>
+        <v>395000</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
@@ -12706,7 +12706,7 @@
         </is>
       </c>
       <c r="S154" t="n">
-        <v>288</v>
+        <v>988</v>
       </c>
       <c r="T154" t="n">
         <v>400</v>
@@ -12727,7 +12727,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44447</v>
+        <v>44209</v>
       </c>
       <c r="E155" t="n">
         <v>4</v>
@@ -12755,25 +12755,25 @@
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M155" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="N155" t="n">
-        <v>80000</v>
+        <v>465000</v>
       </c>
       <c r="O155" t="n">
-        <v>90000</v>
+        <v>470000</v>
       </c>
       <c r="P155" t="n">
-        <v>86429</v>
+        <v>467500</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         </is>
       </c>
       <c r="S155" t="n">
-        <v>216</v>
+        <v>1169</v>
       </c>
       <c r="T155" t="n">
         <v>400</v>
@@ -12807,7 +12807,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44447</v>
+        <v>44209</v>
       </c>
       <c r="E156" t="n">
         <v>4</v>
@@ -12835,7 +12835,7 @@
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L156" t="inlineStr">
@@ -12847,13 +12847,13 @@
         <v>20</v>
       </c>
       <c r="N156" t="n">
-        <v>110000</v>
+        <v>415000</v>
       </c>
       <c r="O156" t="n">
-        <v>120000</v>
+        <v>420000</v>
       </c>
       <c r="P156" t="n">
-        <v>115000</v>
+        <v>417500</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
@@ -12866,7 +12866,7 @@
         </is>
       </c>
       <c r="S156" t="n">
-        <v>288</v>
+        <v>1044</v>
       </c>
       <c r="T156" t="n">
         <v>400</v>
@@ -12887,7 +12887,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44447</v>
+        <v>44209</v>
       </c>
       <c r="E157" t="n">
         <v>4</v>
@@ -12915,7 +12915,7 @@
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L157" t="inlineStr">
@@ -12927,13 +12927,13 @@
         <v>20</v>
       </c>
       <c r="N157" t="n">
-        <v>80000</v>
+        <v>365000</v>
       </c>
       <c r="O157" t="n">
-        <v>90000</v>
+        <v>370000</v>
       </c>
       <c r="P157" t="n">
-        <v>85000</v>
+        <v>367500</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="S157" t="n">
-        <v>212</v>
+        <v>919</v>
       </c>
       <c r="T157" t="n">
         <v>400</v>
@@ -12967,7 +12967,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44294</v>
+        <v>44447</v>
       </c>
       <c r="E158" t="n">
         <v>4</v>
@@ -12995,7 +12995,7 @@
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L158" t="inlineStr">
@@ -13007,13 +13007,13 @@
         <v>20</v>
       </c>
       <c r="N158" t="n">
-        <v>475000</v>
+        <v>110000</v>
       </c>
       <c r="O158" t="n">
-        <v>480000</v>
+        <v>120000</v>
       </c>
       <c r="P158" t="n">
-        <v>477500</v>
+        <v>115000</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         </is>
       </c>
       <c r="S158" t="n">
-        <v>1194</v>
+        <v>288</v>
       </c>
       <c r="T158" t="n">
         <v>400</v>
@@ -13047,7 +13047,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44356</v>
+        <v>44447</v>
       </c>
       <c r="E159" t="n">
         <v>4</v>
@@ -13075,25 +13075,25 @@
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M159" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N159" t="n">
-        <v>145000</v>
+        <v>80000</v>
       </c>
       <c r="O159" t="n">
-        <v>150000</v>
+        <v>90000</v>
       </c>
       <c r="P159" t="n">
-        <v>147500</v>
+        <v>86429</v>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         </is>
       </c>
       <c r="S159" t="n">
-        <v>369</v>
+        <v>216</v>
       </c>
       <c r="T159" t="n">
         <v>400</v>
@@ -13127,7 +13127,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44356</v>
+        <v>44447</v>
       </c>
       <c r="E160" t="n">
         <v>4</v>
@@ -13155,25 +13155,25 @@
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M160" t="n">
         <v>20</v>
       </c>
       <c r="N160" t="n">
-        <v>115000</v>
+        <v>110000</v>
       </c>
       <c r="O160" t="n">
         <v>120000</v>
       </c>
       <c r="P160" t="n">
-        <v>117500</v>
+        <v>115000</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         </is>
       </c>
       <c r="S160" t="n">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="T160" t="n">
         <v>400</v>
@@ -13207,7 +13207,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44356</v>
+        <v>44447</v>
       </c>
       <c r="E161" t="n">
         <v>4</v>
@@ -13235,25 +13235,25 @@
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M161" t="n">
         <v>20</v>
       </c>
       <c r="N161" t="n">
-        <v>145000</v>
+        <v>80000</v>
       </c>
       <c r="O161" t="n">
-        <v>150000</v>
+        <v>90000</v>
       </c>
       <c r="P161" t="n">
-        <v>147500</v>
+        <v>85000</v>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
@@ -13266,7 +13266,7 @@
         </is>
       </c>
       <c r="S161" t="n">
-        <v>369</v>
+        <v>212</v>
       </c>
       <c r="T161" t="n">
         <v>400</v>
@@ -13287,7 +13287,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44356</v>
+        <v>44294</v>
       </c>
       <c r="E162" t="n">
         <v>4</v>
@@ -13315,25 +13315,25 @@
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M162" t="n">
         <v>20</v>
       </c>
       <c r="N162" t="n">
-        <v>115000</v>
+        <v>475000</v>
       </c>
       <c r="O162" t="n">
-        <v>120000</v>
+        <v>480000</v>
       </c>
       <c r="P162" t="n">
-        <v>117500</v>
+        <v>477500</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="S162" t="n">
-        <v>294</v>
+        <v>1194</v>
       </c>
       <c r="T162" t="n">
         <v>400</v>
@@ -13367,7 +13367,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44454</v>
+        <v>44356</v>
       </c>
       <c r="E163" t="n">
         <v>4</v>
@@ -13395,7 +13395,7 @@
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L163" t="inlineStr">
@@ -13407,13 +13407,13 @@
         <v>20</v>
       </c>
       <c r="N163" t="n">
-        <v>100000</v>
+        <v>145000</v>
       </c>
       <c r="O163" t="n">
-        <v>110000</v>
+        <v>150000</v>
       </c>
       <c r="P163" t="n">
-        <v>105000</v>
+        <v>147500</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
@@ -13426,7 +13426,7 @@
         </is>
       </c>
       <c r="S163" t="n">
-        <v>262</v>
+        <v>369</v>
       </c>
       <c r="T163" t="n">
         <v>400</v>
@@ -13447,7 +13447,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44454</v>
+        <v>44356</v>
       </c>
       <c r="E164" t="n">
         <v>4</v>
@@ -13475,7 +13475,7 @@
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L164" t="inlineStr">
@@ -13484,16 +13484,16 @@
         </is>
       </c>
       <c r="M164" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="N164" t="n">
-        <v>80000</v>
+        <v>115000</v>
       </c>
       <c r="O164" t="n">
-        <v>90000</v>
+        <v>120000</v>
       </c>
       <c r="P164" t="n">
-        <v>86429</v>
+        <v>117500</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         </is>
       </c>
       <c r="S164" t="n">
-        <v>216</v>
+        <v>294</v>
       </c>
       <c r="T164" t="n">
         <v>400</v>
@@ -13527,7 +13527,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44454</v>
+        <v>44356</v>
       </c>
       <c r="E165" t="n">
         <v>4</v>
@@ -13555,7 +13555,7 @@
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L165" t="inlineStr">
@@ -13567,13 +13567,13 @@
         <v>20</v>
       </c>
       <c r="N165" t="n">
-        <v>100000</v>
+        <v>145000</v>
       </c>
       <c r="O165" t="n">
-        <v>110000</v>
+        <v>150000</v>
       </c>
       <c r="P165" t="n">
-        <v>105000</v>
+        <v>147500</v>
       </c>
       <c r="Q165" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         </is>
       </c>
       <c r="S165" t="n">
-        <v>262</v>
+        <v>369</v>
       </c>
       <c r="T165" t="n">
         <v>400</v>
@@ -13607,7 +13607,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44454</v>
+        <v>44356</v>
       </c>
       <c r="E166" t="n">
         <v>4</v>
@@ -13635,7 +13635,7 @@
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L166" t="inlineStr">
@@ -13647,13 +13647,13 @@
         <v>20</v>
       </c>
       <c r="N166" t="n">
-        <v>80000</v>
+        <v>115000</v>
       </c>
       <c r="O166" t="n">
-        <v>90000</v>
+        <v>120000</v>
       </c>
       <c r="P166" t="n">
-        <v>85000</v>
+        <v>117500</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         </is>
       </c>
       <c r="S166" t="n">
-        <v>212</v>
+        <v>294</v>
       </c>
       <c r="T166" t="n">
         <v>400</v>
@@ -13687,7 +13687,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44427</v>
+        <v>44454</v>
       </c>
       <c r="E167" t="n">
         <v>4</v>
@@ -13715,25 +13715,25 @@
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M167" t="n">
         <v>20</v>
       </c>
       <c r="N167" t="n">
-        <v>120000</v>
+        <v>100000</v>
       </c>
       <c r="O167" t="n">
-        <v>130000</v>
+        <v>110000</v>
       </c>
       <c r="P167" t="n">
-        <v>125000</v>
+        <v>105000</v>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="S167" t="n">
-        <v>312</v>
+        <v>262</v>
       </c>
       <c r="T167" t="n">
         <v>400</v>
@@ -13767,7 +13767,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44427</v>
+        <v>44454</v>
       </c>
       <c r="E168" t="n">
         <v>4</v>
@@ -13795,25 +13795,25 @@
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M168" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N168" t="n">
-        <v>100000</v>
+        <v>80000</v>
       </c>
       <c r="O168" t="n">
-        <v>110000</v>
+        <v>90000</v>
       </c>
       <c r="P168" t="n">
-        <v>105000</v>
+        <v>86429</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
@@ -13826,7 +13826,7 @@
         </is>
       </c>
       <c r="S168" t="n">
-        <v>262</v>
+        <v>216</v>
       </c>
       <c r="T168" t="n">
         <v>400</v>
@@ -13847,7 +13847,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44427</v>
+        <v>44454</v>
       </c>
       <c r="E169" t="n">
         <v>4</v>
@@ -13875,25 +13875,25 @@
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M169" t="n">
         <v>20</v>
       </c>
       <c r="N169" t="n">
-        <v>80000</v>
+        <v>100000</v>
       </c>
       <c r="O169" t="n">
-        <v>90000</v>
+        <v>110000</v>
       </c>
       <c r="P169" t="n">
-        <v>85000</v>
+        <v>105000</v>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
@@ -13906,7 +13906,7 @@
         </is>
       </c>
       <c r="S169" t="n">
-        <v>212</v>
+        <v>262</v>
       </c>
       <c r="T169" t="n">
         <v>400</v>
@@ -13927,7 +13927,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44427</v>
+        <v>44454</v>
       </c>
       <c r="E170" t="n">
         <v>4</v>
@@ -13960,20 +13960,20 @@
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M170" t="n">
         <v>20</v>
       </c>
       <c r="N170" t="n">
-        <v>100000</v>
+        <v>80000</v>
       </c>
       <c r="O170" t="n">
-        <v>110000</v>
+        <v>90000</v>
       </c>
       <c r="P170" t="n">
-        <v>105000</v>
+        <v>85000</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         </is>
       </c>
       <c r="S170" t="n">
-        <v>262</v>
+        <v>212</v>
       </c>
       <c r="T170" t="n">
         <v>400</v>
@@ -14035,25 +14035,25 @@
       </c>
       <c r="K171" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M171" t="n">
         <v>20</v>
       </c>
       <c r="N171" t="n">
-        <v>80000</v>
+        <v>120000</v>
       </c>
       <c r="O171" t="n">
-        <v>90000</v>
+        <v>130000</v>
       </c>
       <c r="P171" t="n">
-        <v>85000</v>
+        <v>125000</v>
       </c>
       <c r="Q171" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         </is>
       </c>
       <c r="S171" t="n">
-        <v>212</v>
+        <v>312</v>
       </c>
       <c r="T171" t="n">
         <v>400</v>
@@ -14087,7 +14087,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44273</v>
+        <v>44427</v>
       </c>
       <c r="E172" t="n">
         <v>4</v>
@@ -14115,25 +14115,25 @@
       </c>
       <c r="K172" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M172" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N172" t="n">
-        <v>475000</v>
+        <v>100000</v>
       </c>
       <c r="O172" t="n">
-        <v>480000</v>
+        <v>110000</v>
       </c>
       <c r="P172" t="n">
-        <v>477500</v>
+        <v>105000</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="S172" t="n">
-        <v>1194</v>
+        <v>262</v>
       </c>
       <c r="T172" t="n">
         <v>400</v>
@@ -14167,7 +14167,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44273</v>
+        <v>44427</v>
       </c>
       <c r="E173" t="n">
         <v>4</v>
@@ -14195,25 +14195,25 @@
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M173" t="n">
         <v>20</v>
       </c>
       <c r="N173" t="n">
-        <v>455000</v>
+        <v>80000</v>
       </c>
       <c r="O173" t="n">
-        <v>460000</v>
+        <v>90000</v>
       </c>
       <c r="P173" t="n">
-        <v>457500</v>
+        <v>85000</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
@@ -14226,7 +14226,7 @@
         </is>
       </c>
       <c r="S173" t="n">
-        <v>1144</v>
+        <v>212</v>
       </c>
       <c r="T173" t="n">
         <v>400</v>
@@ -14247,7 +14247,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44273</v>
+        <v>44427</v>
       </c>
       <c r="E174" t="n">
         <v>4</v>
@@ -14275,25 +14275,25 @@
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M174" t="n">
         <v>20</v>
       </c>
       <c r="N174" t="n">
-        <v>415000</v>
+        <v>100000</v>
       </c>
       <c r="O174" t="n">
-        <v>420000</v>
+        <v>110000</v>
       </c>
       <c r="P174" t="n">
-        <v>417500</v>
+        <v>105000</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
@@ -14306,7 +14306,7 @@
         </is>
       </c>
       <c r="S174" t="n">
-        <v>1044</v>
+        <v>262</v>
       </c>
       <c r="T174" t="n">
         <v>400</v>
@@ -14327,7 +14327,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44203</v>
+        <v>44427</v>
       </c>
       <c r="E175" t="n">
         <v>4</v>
@@ -14355,25 +14355,25 @@
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M175" t="n">
         <v>20</v>
       </c>
       <c r="N175" t="n">
-        <v>395000</v>
+        <v>80000</v>
       </c>
       <c r="O175" t="n">
-        <v>400000</v>
+        <v>90000</v>
       </c>
       <c r="P175" t="n">
-        <v>397500</v>
+        <v>85000</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         </is>
       </c>
       <c r="S175" t="n">
-        <v>994</v>
+        <v>212</v>
       </c>
       <c r="T175" t="n">
         <v>400</v>
@@ -14407,7 +14407,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44203</v>
+        <v>44273</v>
       </c>
       <c r="E176" t="n">
         <v>4</v>
@@ -14440,20 +14440,20 @@
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M176" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N176" t="n">
-        <v>345000</v>
+        <v>475000</v>
       </c>
       <c r="O176" t="n">
-        <v>350000</v>
+        <v>480000</v>
       </c>
       <c r="P176" t="n">
-        <v>347500</v>
+        <v>477500</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         </is>
       </c>
       <c r="S176" t="n">
-        <v>869</v>
+        <v>1194</v>
       </c>
       <c r="T176" t="n">
         <v>400</v>
@@ -14487,7 +14487,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44413</v>
+        <v>44273</v>
       </c>
       <c r="E177" t="n">
         <v>4</v>
@@ -14515,7 +14515,7 @@
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>Cara cara</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L177" t="inlineStr">
@@ -14527,13 +14527,13 @@
         <v>20</v>
       </c>
       <c r="N177" t="n">
-        <v>110000</v>
+        <v>455000</v>
       </c>
       <c r="O177" t="n">
-        <v>115000</v>
+        <v>460000</v>
       </c>
       <c r="P177" t="n">
-        <v>112500</v>
+        <v>457500</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="S177" t="n">
-        <v>281</v>
+        <v>1144</v>
       </c>
       <c r="T177" t="n">
         <v>400</v>
@@ -14567,7 +14567,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44413</v>
+        <v>44273</v>
       </c>
       <c r="E178" t="n">
         <v>4</v>
@@ -14595,7 +14595,7 @@
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>Cara cara</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L178" t="inlineStr">
@@ -14607,13 +14607,13 @@
         <v>20</v>
       </c>
       <c r="N178" t="n">
-        <v>80000</v>
+        <v>415000</v>
       </c>
       <c r="O178" t="n">
-        <v>85000</v>
+        <v>420000</v>
       </c>
       <c r="P178" t="n">
-        <v>82500</v>
+        <v>417500</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         </is>
       </c>
       <c r="S178" t="n">
-        <v>206</v>
+        <v>1044</v>
       </c>
       <c r="T178" t="n">
         <v>400</v>
@@ -14647,7 +14647,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44413</v>
+        <v>44203</v>
       </c>
       <c r="E179" t="n">
         <v>4</v>
@@ -14675,7 +14675,7 @@
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L179" t="inlineStr">
@@ -14687,13 +14687,13 @@
         <v>20</v>
       </c>
       <c r="N179" t="n">
-        <v>105000</v>
+        <v>395000</v>
       </c>
       <c r="O179" t="n">
-        <v>110000</v>
+        <v>400000</v>
       </c>
       <c r="P179" t="n">
-        <v>107500</v>
+        <v>397500</v>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
@@ -14706,7 +14706,7 @@
         </is>
       </c>
       <c r="S179" t="n">
-        <v>269</v>
+        <v>994</v>
       </c>
       <c r="T179" t="n">
         <v>400</v>
@@ -14727,7 +14727,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44413</v>
+        <v>44203</v>
       </c>
       <c r="E180" t="n">
         <v>4</v>
@@ -14755,7 +14755,7 @@
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L180" t="inlineStr">
@@ -14767,13 +14767,13 @@
         <v>20</v>
       </c>
       <c r="N180" t="n">
-        <v>70000</v>
+        <v>345000</v>
       </c>
       <c r="O180" t="n">
-        <v>75000</v>
+        <v>350000</v>
       </c>
       <c r="P180" t="n">
-        <v>72500</v>
+        <v>347500</v>
       </c>
       <c r="Q180" t="inlineStr">
         <is>
@@ -14786,7 +14786,7 @@
         </is>
       </c>
       <c r="S180" t="n">
-        <v>181</v>
+        <v>869</v>
       </c>
       <c r="T180" t="n">
         <v>400</v>
@@ -14835,7 +14835,7 @@
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Cara cara</t>
         </is>
       </c>
       <c r="L181" t="inlineStr">
@@ -14915,7 +14915,7 @@
       </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Cara cara</t>
         </is>
       </c>
       <c r="L182" t="inlineStr">
@@ -14995,7 +14995,7 @@
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L183" t="inlineStr">
@@ -15007,13 +15007,13 @@
         <v>20</v>
       </c>
       <c r="N183" t="n">
+        <v>105000</v>
+      </c>
+      <c r="O183" t="n">
         <v>110000</v>
       </c>
-      <c r="O183" t="n">
-        <v>120000</v>
-      </c>
       <c r="P183" t="n">
-        <v>115000</v>
+        <v>107500</v>
       </c>
       <c r="Q183" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         </is>
       </c>
       <c r="S183" t="n">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="T183" t="n">
         <v>400</v>
@@ -15075,7 +15075,7 @@
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L184" t="inlineStr">
@@ -15087,13 +15087,13 @@
         <v>20</v>
       </c>
       <c r="N184" t="n">
-        <v>80000</v>
+        <v>70000</v>
       </c>
       <c r="O184" t="n">
-        <v>90000</v>
+        <v>75000</v>
       </c>
       <c r="P184" t="n">
-        <v>85000</v>
+        <v>72500</v>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
@@ -15106,7 +15106,7 @@
         </is>
       </c>
       <c r="S184" t="n">
-        <v>212</v>
+        <v>181</v>
       </c>
       <c r="T184" t="n">
         <v>400</v>
@@ -15127,7 +15127,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44426</v>
+        <v>44413</v>
       </c>
       <c r="E185" t="n">
         <v>4</v>
@@ -15155,7 +15155,7 @@
       </c>
       <c r="K185" t="inlineStr">
         <is>
-          <t>Cara cara</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L185" t="inlineStr">
@@ -15167,13 +15167,13 @@
         <v>20</v>
       </c>
       <c r="N185" t="n">
-        <v>100000</v>
+        <v>110000</v>
       </c>
       <c r="O185" t="n">
-        <v>110000</v>
+        <v>115000</v>
       </c>
       <c r="P185" t="n">
-        <v>105000</v>
+        <v>112500</v>
       </c>
       <c r="Q185" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         </is>
       </c>
       <c r="S185" t="n">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="T185" t="n">
         <v>400</v>
@@ -15207,7 +15207,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44426</v>
+        <v>44413</v>
       </c>
       <c r="E186" t="n">
         <v>4</v>
@@ -15235,7 +15235,7 @@
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>Cara cara</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L186" t="inlineStr">
@@ -15250,10 +15250,10 @@
         <v>80000</v>
       </c>
       <c r="O186" t="n">
-        <v>90000</v>
+        <v>85000</v>
       </c>
       <c r="P186" t="n">
-        <v>85000</v>
+        <v>82500</v>
       </c>
       <c r="Q186" t="inlineStr">
         <is>
@@ -15266,7 +15266,7 @@
         </is>
       </c>
       <c r="S186" t="n">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="T186" t="n">
         <v>400</v>
@@ -15287,7 +15287,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44426</v>
+        <v>44413</v>
       </c>
       <c r="E187" t="n">
         <v>4</v>
@@ -15315,7 +15315,7 @@
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L187" t="inlineStr">
@@ -15327,13 +15327,13 @@
         <v>20</v>
       </c>
       <c r="N187" t="n">
-        <v>100000</v>
+        <v>110000</v>
       </c>
       <c r="O187" t="n">
-        <v>110000</v>
+        <v>120000</v>
       </c>
       <c r="P187" t="n">
-        <v>105000</v>
+        <v>115000</v>
       </c>
       <c r="Q187" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="S187" t="n">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="T187" t="n">
         <v>400</v>
@@ -15367,7 +15367,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44426</v>
+        <v>44413</v>
       </c>
       <c r="E188" t="n">
         <v>4</v>
@@ -15395,7 +15395,7 @@
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L188" t="inlineStr">
@@ -15475,7 +15475,7 @@
       </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Cara cara</t>
         </is>
       </c>
       <c r="L189" t="inlineStr">
@@ -15555,7 +15555,7 @@
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Cara cara</t>
         </is>
       </c>
       <c r="L190" t="inlineStr">
@@ -15635,7 +15635,7 @@
       </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L191" t="inlineStr">
@@ -15715,7 +15715,7 @@
       </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L192" t="inlineStr">
@@ -15767,7 +15767,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44469</v>
+        <v>44426</v>
       </c>
       <c r="E193" t="n">
         <v>4</v>
@@ -15807,13 +15807,13 @@
         <v>20</v>
       </c>
       <c r="N193" t="n">
-        <v>120000</v>
+        <v>100000</v>
       </c>
       <c r="O193" t="n">
-        <v>130000</v>
+        <v>110000</v>
       </c>
       <c r="P193" t="n">
-        <v>125000</v>
+        <v>105000</v>
       </c>
       <c r="Q193" t="inlineStr">
         <is>
@@ -15826,7 +15826,7 @@
         </is>
       </c>
       <c r="S193" t="n">
-        <v>312</v>
+        <v>262</v>
       </c>
       <c r="T193" t="n">
         <v>400</v>
@@ -15847,7 +15847,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44469</v>
+        <v>44426</v>
       </c>
       <c r="E194" t="n">
         <v>4</v>
@@ -15887,13 +15887,13 @@
         <v>20</v>
       </c>
       <c r="N194" t="n">
-        <v>100000</v>
+        <v>80000</v>
       </c>
       <c r="O194" t="n">
-        <v>110000</v>
+        <v>90000</v>
       </c>
       <c r="P194" t="n">
-        <v>105000</v>
+        <v>85000</v>
       </c>
       <c r="Q194" t="inlineStr">
         <is>
@@ -15906,7 +15906,7 @@
         </is>
       </c>
       <c r="S194" t="n">
-        <v>262</v>
+        <v>212</v>
       </c>
       <c r="T194" t="n">
         <v>400</v>
@@ -15927,7 +15927,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44469</v>
+        <v>44426</v>
       </c>
       <c r="E195" t="n">
         <v>4</v>
@@ -15967,13 +15967,13 @@
         <v>20</v>
       </c>
       <c r="N195" t="n">
-        <v>130000</v>
+        <v>100000</v>
       </c>
       <c r="O195" t="n">
-        <v>140000</v>
+        <v>110000</v>
       </c>
       <c r="P195" t="n">
-        <v>135000</v>
+        <v>105000</v>
       </c>
       <c r="Q195" t="inlineStr">
         <is>
@@ -15986,7 +15986,7 @@
         </is>
       </c>
       <c r="S195" t="n">
-        <v>338</v>
+        <v>262</v>
       </c>
       <c r="T195" t="n">
         <v>400</v>
@@ -16007,7 +16007,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44469</v>
+        <v>44426</v>
       </c>
       <c r="E196" t="n">
         <v>4</v>
@@ -16047,13 +16047,13 @@
         <v>20</v>
       </c>
       <c r="N196" t="n">
-        <v>110000</v>
+        <v>80000</v>
       </c>
       <c r="O196" t="n">
-        <v>120000</v>
+        <v>90000</v>
       </c>
       <c r="P196" t="n">
-        <v>115000</v>
+        <v>85000</v>
       </c>
       <c r="Q196" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         </is>
       </c>
       <c r="S196" t="n">
-        <v>288</v>
+        <v>212</v>
       </c>
       <c r="T196" t="n">
         <v>400</v>
@@ -16087,7 +16087,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44168</v>
+        <v>44469</v>
       </c>
       <c r="E197" t="n">
         <v>4</v>
@@ -16115,7 +16115,7 @@
       </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L197" t="inlineStr">
@@ -16127,13 +16127,13 @@
         <v>20</v>
       </c>
       <c r="N197" t="n">
-        <v>325000</v>
+        <v>120000</v>
       </c>
       <c r="O197" t="n">
-        <v>330000</v>
+        <v>130000</v>
       </c>
       <c r="P197" t="n">
-        <v>327500</v>
+        <v>125000</v>
       </c>
       <c r="Q197" t="inlineStr">
         <is>
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="S197" t="n">
-        <v>819</v>
+        <v>312</v>
       </c>
       <c r="T197" t="n">
         <v>400</v>
@@ -16167,7 +16167,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44168</v>
+        <v>44469</v>
       </c>
       <c r="E198" t="n">
         <v>4</v>
@@ -16195,7 +16195,7 @@
       </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L198" t="inlineStr">
@@ -16207,13 +16207,13 @@
         <v>20</v>
       </c>
       <c r="N198" t="n">
-        <v>285000</v>
+        <v>100000</v>
       </c>
       <c r="O198" t="n">
-        <v>290000</v>
+        <v>110000</v>
       </c>
       <c r="P198" t="n">
-        <v>287500</v>
+        <v>105000</v>
       </c>
       <c r="Q198" t="inlineStr">
         <is>
@@ -16226,7 +16226,7 @@
         </is>
       </c>
       <c r="S198" t="n">
-        <v>719</v>
+        <v>262</v>
       </c>
       <c r="T198" t="n">
         <v>400</v>
@@ -16247,7 +16247,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44168</v>
+        <v>44469</v>
       </c>
       <c r="E199" t="n">
         <v>4</v>
@@ -16275,25 +16275,25 @@
       </c>
       <c r="K199" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M199" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N199" t="n">
-        <v>355000</v>
+        <v>130000</v>
       </c>
       <c r="O199" t="n">
-        <v>360000</v>
+        <v>140000</v>
       </c>
       <c r="P199" t="n">
-        <v>357500</v>
+        <v>135000</v>
       </c>
       <c r="Q199" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         </is>
       </c>
       <c r="S199" t="n">
-        <v>894</v>
+        <v>338</v>
       </c>
       <c r="T199" t="n">
         <v>400</v>
@@ -16327,7 +16327,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44168</v>
+        <v>44469</v>
       </c>
       <c r="E200" t="n">
         <v>4</v>
@@ -16355,25 +16355,25 @@
       </c>
       <c r="K200" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L200" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M200" t="n">
         <v>20</v>
       </c>
       <c r="N200" t="n">
-        <v>335000</v>
+        <v>110000</v>
       </c>
       <c r="O200" t="n">
-        <v>340000</v>
+        <v>120000</v>
       </c>
       <c r="P200" t="n">
-        <v>337500</v>
+        <v>115000</v>
       </c>
       <c r="Q200" t="inlineStr">
         <is>
@@ -16386,7 +16386,7 @@
         </is>
       </c>
       <c r="S200" t="n">
-        <v>844</v>
+        <v>288</v>
       </c>
       <c r="T200" t="n">
         <v>400</v>
@@ -16435,25 +16435,25 @@
       </c>
       <c r="K201" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L201" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M201" t="n">
         <v>20</v>
       </c>
       <c r="N201" t="n">
-        <v>295000</v>
+        <v>325000</v>
       </c>
       <c r="O201" t="n">
-        <v>300000</v>
+        <v>330000</v>
       </c>
       <c r="P201" t="n">
-        <v>297500</v>
+        <v>327500</v>
       </c>
       <c r="Q201" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         </is>
       </c>
       <c r="S201" t="n">
-        <v>744</v>
+        <v>819</v>
       </c>
       <c r="T201" t="n">
         <v>400</v>
@@ -16487,7 +16487,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44434</v>
+        <v>44168</v>
       </c>
       <c r="E202" t="n">
         <v>4</v>
@@ -16515,25 +16515,25 @@
       </c>
       <c r="K202" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L202" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M202" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N202" t="n">
-        <v>125000</v>
+        <v>285000</v>
       </c>
       <c r="O202" t="n">
-        <v>130000</v>
+        <v>290000</v>
       </c>
       <c r="P202" t="n">
-        <v>127500</v>
+        <v>287500</v>
       </c>
       <c r="Q202" t="inlineStr">
         <is>
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="S202" t="n">
-        <v>319</v>
+        <v>719</v>
       </c>
       <c r="T202" t="n">
         <v>400</v>
@@ -16567,7 +16567,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44434</v>
+        <v>44168</v>
       </c>
       <c r="E203" t="n">
         <v>4</v>
@@ -16595,25 +16595,25 @@
       </c>
       <c r="K203" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M203" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N203" t="n">
-        <v>105000</v>
+        <v>355000</v>
       </c>
       <c r="O203" t="n">
-        <v>110000</v>
+        <v>360000</v>
       </c>
       <c r="P203" t="n">
-        <v>107500</v>
+        <v>357500</v>
       </c>
       <c r="Q203" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         </is>
       </c>
       <c r="S203" t="n">
-        <v>269</v>
+        <v>894</v>
       </c>
       <c r="T203" t="n">
         <v>400</v>
@@ -16647,7 +16647,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44434</v>
+        <v>44168</v>
       </c>
       <c r="E204" t="n">
         <v>4</v>
@@ -16675,25 +16675,25 @@
       </c>
       <c r="K204" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M204" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N204" t="n">
-        <v>85000</v>
+        <v>335000</v>
       </c>
       <c r="O204" t="n">
-        <v>90000</v>
+        <v>340000</v>
       </c>
       <c r="P204" t="n">
-        <v>87500</v>
+        <v>337500</v>
       </c>
       <c r="Q204" t="inlineStr">
         <is>
@@ -16706,7 +16706,7 @@
         </is>
       </c>
       <c r="S204" t="n">
-        <v>219</v>
+        <v>844</v>
       </c>
       <c r="T204" t="n">
         <v>400</v>
@@ -16727,7 +16727,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44434</v>
+        <v>44168</v>
       </c>
       <c r="E205" t="n">
         <v>4</v>
@@ -16755,25 +16755,25 @@
       </c>
       <c r="K205" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M205" t="n">
         <v>20</v>
       </c>
       <c r="N205" t="n">
-        <v>95000</v>
+        <v>295000</v>
       </c>
       <c r="O205" t="n">
-        <v>100000</v>
+        <v>300000</v>
       </c>
       <c r="P205" t="n">
-        <v>97500</v>
+        <v>297500</v>
       </c>
       <c r="Q205" t="inlineStr">
         <is>
@@ -16786,7 +16786,7 @@
         </is>
       </c>
       <c r="S205" t="n">
-        <v>244</v>
+        <v>744</v>
       </c>
       <c r="T205" t="n">
         <v>400</v>
@@ -16835,25 +16835,25 @@
       </c>
       <c r="K206" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L206" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M206" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N206" t="n">
-        <v>75000</v>
+        <v>125000</v>
       </c>
       <c r="O206" t="n">
-        <v>80000</v>
+        <v>130000</v>
       </c>
       <c r="P206" t="n">
-        <v>77500</v>
+        <v>127500</v>
       </c>
       <c r="Q206" t="inlineStr">
         <is>
@@ -16866,7 +16866,7 @@
         </is>
       </c>
       <c r="S206" t="n">
-        <v>194</v>
+        <v>319</v>
       </c>
       <c r="T206" t="n">
         <v>400</v>
@@ -16915,7 +16915,7 @@
       </c>
       <c r="K207" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L207" t="inlineStr">
@@ -16924,16 +16924,16 @@
         </is>
       </c>
       <c r="M207" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N207" t="n">
-        <v>95000</v>
+        <v>105000</v>
       </c>
       <c r="O207" t="n">
-        <v>100000</v>
+        <v>110000</v>
       </c>
       <c r="P207" t="n">
-        <v>97500</v>
+        <v>107500</v>
       </c>
       <c r="Q207" t="inlineStr">
         <is>
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="S207" t="n">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="T207" t="n">
         <v>400</v>
@@ -16995,7 +16995,7 @@
       </c>
       <c r="K208" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L208" t="inlineStr">
@@ -17007,13 +17007,13 @@
         <v>16</v>
       </c>
       <c r="N208" t="n">
-        <v>75000</v>
+        <v>85000</v>
       </c>
       <c r="O208" t="n">
-        <v>80000</v>
+        <v>90000</v>
       </c>
       <c r="P208" t="n">
-        <v>77500</v>
+        <v>87500</v>
       </c>
       <c r="Q208" t="inlineStr">
         <is>
@@ -17026,7 +17026,7 @@
         </is>
       </c>
       <c r="S208" t="n">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="T208" t="n">
         <v>400</v>
@@ -17047,7 +17047,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44161</v>
+        <v>44434</v>
       </c>
       <c r="E209" t="n">
         <v>4</v>
@@ -17080,20 +17080,20 @@
       </c>
       <c r="L209" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M209" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N209" t="n">
-        <v>325000</v>
+        <v>95000</v>
       </c>
       <c r="O209" t="n">
-        <v>330000</v>
+        <v>100000</v>
       </c>
       <c r="P209" t="n">
-        <v>327500</v>
+        <v>97500</v>
       </c>
       <c r="Q209" t="inlineStr">
         <is>
@@ -17106,7 +17106,7 @@
         </is>
       </c>
       <c r="S209" t="n">
-        <v>819</v>
+        <v>244</v>
       </c>
       <c r="T209" t="n">
         <v>400</v>
@@ -17127,7 +17127,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44161</v>
+        <v>44434</v>
       </c>
       <c r="E210" t="n">
         <v>4</v>
@@ -17160,20 +17160,20 @@
       </c>
       <c r="L210" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M210" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N210" t="n">
-        <v>305000</v>
+        <v>75000</v>
       </c>
       <c r="O210" t="n">
-        <v>310000</v>
+        <v>80000</v>
       </c>
       <c r="P210" t="n">
-        <v>307500</v>
+        <v>77500</v>
       </c>
       <c r="Q210" t="inlineStr">
         <is>
@@ -17186,7 +17186,7 @@
         </is>
       </c>
       <c r="S210" t="n">
-        <v>769</v>
+        <v>194</v>
       </c>
       <c r="T210" t="n">
         <v>400</v>
@@ -17207,7 +17207,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44161</v>
+        <v>44434</v>
       </c>
       <c r="E211" t="n">
         <v>4</v>
@@ -17235,25 +17235,25 @@
       </c>
       <c r="K211" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L211" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M211" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="N211" t="n">
-        <v>255000</v>
+        <v>95000</v>
       </c>
       <c r="O211" t="n">
-        <v>260000</v>
+        <v>100000</v>
       </c>
       <c r="P211" t="n">
-        <v>257500</v>
+        <v>97500</v>
       </c>
       <c r="Q211" t="inlineStr">
         <is>
@@ -17266,7 +17266,7 @@
         </is>
       </c>
       <c r="S211" t="n">
-        <v>644</v>
+        <v>244</v>
       </c>
       <c r="T211" t="n">
         <v>400</v>
@@ -17287,7 +17287,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44280</v>
+        <v>44434</v>
       </c>
       <c r="E212" t="n">
         <v>4</v>
@@ -17315,25 +17315,25 @@
       </c>
       <c r="K212" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L212" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M212" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N212" t="n">
-        <v>455000</v>
+        <v>75000</v>
       </c>
       <c r="O212" t="n">
-        <v>460000</v>
+        <v>80000</v>
       </c>
       <c r="P212" t="n">
-        <v>457500</v>
+        <v>77500</v>
       </c>
       <c r="Q212" t="inlineStr">
         <is>
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="S212" t="n">
-        <v>1144</v>
+        <v>194</v>
       </c>
       <c r="T212" t="n">
         <v>400</v>
@@ -17367,7 +17367,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44280</v>
+        <v>44161</v>
       </c>
       <c r="E213" t="n">
         <v>4</v>
@@ -17395,25 +17395,25 @@
       </c>
       <c r="K213" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L213" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M213" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N213" t="n">
-        <v>415000</v>
+        <v>325000</v>
       </c>
       <c r="O213" t="n">
-        <v>420000</v>
+        <v>330000</v>
       </c>
       <c r="P213" t="n">
-        <v>417500</v>
+        <v>327500</v>
       </c>
       <c r="Q213" t="inlineStr">
         <is>
@@ -17426,7 +17426,7 @@
         </is>
       </c>
       <c r="S213" t="n">
-        <v>1044</v>
+        <v>819</v>
       </c>
       <c r="T213" t="n">
         <v>400</v>
@@ -17447,7 +17447,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44391</v>
+        <v>44161</v>
       </c>
       <c r="E214" t="n">
         <v>4</v>
@@ -17475,7 +17475,7 @@
       </c>
       <c r="K214" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L214" t="inlineStr">
@@ -17484,16 +17484,16 @@
         </is>
       </c>
       <c r="M214" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N214" t="n">
-        <v>100000</v>
+        <v>305000</v>
       </c>
       <c r="O214" t="n">
-        <v>110000</v>
+        <v>310000</v>
       </c>
       <c r="P214" t="n">
-        <v>105000</v>
+        <v>307500</v>
       </c>
       <c r="Q214" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         </is>
       </c>
       <c r="S214" t="n">
-        <v>262</v>
+        <v>769</v>
       </c>
       <c r="T214" t="n">
         <v>400</v>
@@ -17527,7 +17527,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44391</v>
+        <v>44161</v>
       </c>
       <c r="E215" t="n">
         <v>4</v>
@@ -17555,7 +17555,7 @@
       </c>
       <c r="K215" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L215" t="inlineStr">
@@ -17564,16 +17564,16 @@
         </is>
       </c>
       <c r="M215" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N215" t="n">
-        <v>80000</v>
+        <v>255000</v>
       </c>
       <c r="O215" t="n">
-        <v>90000</v>
+        <v>260000</v>
       </c>
       <c r="P215" t="n">
-        <v>85000</v>
+        <v>257500</v>
       </c>
       <c r="Q215" t="inlineStr">
         <is>
@@ -17586,7 +17586,7 @@
         </is>
       </c>
       <c r="S215" t="n">
-        <v>212</v>
+        <v>644</v>
       </c>
       <c r="T215" t="n">
         <v>400</v>
@@ -17607,7 +17607,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44391</v>
+        <v>44280</v>
       </c>
       <c r="E216" t="n">
         <v>4</v>
@@ -17635,7 +17635,7 @@
       </c>
       <c r="K216" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L216" t="inlineStr">
@@ -17647,13 +17647,13 @@
         <v>20</v>
       </c>
       <c r="N216" t="n">
-        <v>100000</v>
+        <v>455000</v>
       </c>
       <c r="O216" t="n">
-        <v>110000</v>
+        <v>460000</v>
       </c>
       <c r="P216" t="n">
-        <v>105000</v>
+        <v>457500</v>
       </c>
       <c r="Q216" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         </is>
       </c>
       <c r="S216" t="n">
-        <v>262</v>
+        <v>1144</v>
       </c>
       <c r="T216" t="n">
         <v>400</v>
@@ -17687,7 +17687,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44391</v>
+        <v>44280</v>
       </c>
       <c r="E217" t="n">
         <v>4</v>
@@ -17715,7 +17715,7 @@
       </c>
       <c r="K217" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L217" t="inlineStr">
@@ -17727,13 +17727,13 @@
         <v>20</v>
       </c>
       <c r="N217" t="n">
-        <v>80000</v>
+        <v>415000</v>
       </c>
       <c r="O217" t="n">
-        <v>90000</v>
+        <v>420000</v>
       </c>
       <c r="P217" t="n">
-        <v>85000</v>
+        <v>417500</v>
       </c>
       <c r="Q217" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="S217" t="n">
-        <v>212</v>
+        <v>1044</v>
       </c>
       <c r="T217" t="n">
         <v>400</v>
@@ -17767,7 +17767,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="E218" t="n">
         <v>4</v>
@@ -17807,13 +17807,13 @@
         <v>20</v>
       </c>
       <c r="N218" t="n">
-        <v>250000</v>
+        <v>100000</v>
       </c>
       <c r="O218" t="n">
-        <v>255000</v>
+        <v>110000</v>
       </c>
       <c r="P218" t="n">
-        <v>252500</v>
+        <v>105000</v>
       </c>
       <c r="Q218" t="inlineStr">
         <is>
@@ -17826,7 +17826,7 @@
         </is>
       </c>
       <c r="S218" t="n">
-        <v>631</v>
+        <v>262</v>
       </c>
       <c r="T218" t="n">
         <v>400</v>
@@ -17847,7 +17847,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="E219" t="n">
         <v>4</v>
@@ -17875,25 +17875,25 @@
       </c>
       <c r="K219" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L219" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M219" t="n">
         <v>20</v>
       </c>
       <c r="N219" t="n">
-        <v>250000</v>
+        <v>80000</v>
       </c>
       <c r="O219" t="n">
-        <v>255000</v>
+        <v>90000</v>
       </c>
       <c r="P219" t="n">
-        <v>252500</v>
+        <v>85000</v>
       </c>
       <c r="Q219" t="inlineStr">
         <is>
@@ -17906,7 +17906,7 @@
         </is>
       </c>
       <c r="S219" t="n">
-        <v>631</v>
+        <v>212</v>
       </c>
       <c r="T219" t="n">
         <v>400</v>
@@ -17927,7 +17927,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44231</v>
+        <v>44391</v>
       </c>
       <c r="E220" t="n">
         <v>4</v>
@@ -17955,7 +17955,7 @@
       </c>
       <c r="K220" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L220" t="inlineStr">
@@ -17967,13 +17967,13 @@
         <v>20</v>
       </c>
       <c r="N220" t="n">
-        <v>485000</v>
+        <v>100000</v>
       </c>
       <c r="O220" t="n">
-        <v>490000</v>
+        <v>110000</v>
       </c>
       <c r="P220" t="n">
-        <v>487500</v>
+        <v>105000</v>
       </c>
       <c r="Q220" t="inlineStr">
         <is>
@@ -17986,7 +17986,7 @@
         </is>
       </c>
       <c r="S220" t="n">
-        <v>1219</v>
+        <v>262</v>
       </c>
       <c r="T220" t="n">
         <v>400</v>
@@ -18007,7 +18007,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44231</v>
+        <v>44391</v>
       </c>
       <c r="E221" t="n">
         <v>4</v>
@@ -18035,7 +18035,7 @@
       </c>
       <c r="K221" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L221" t="inlineStr">
@@ -18047,13 +18047,13 @@
         <v>20</v>
       </c>
       <c r="N221" t="n">
-        <v>455000</v>
+        <v>80000</v>
       </c>
       <c r="O221" t="n">
-        <v>460000</v>
+        <v>90000</v>
       </c>
       <c r="P221" t="n">
-        <v>457500</v>
+        <v>85000</v>
       </c>
       <c r="Q221" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         </is>
       </c>
       <c r="S221" t="n">
-        <v>1144</v>
+        <v>212</v>
       </c>
       <c r="T221" t="n">
         <v>400</v>
@@ -18087,7 +18087,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44258</v>
+        <v>44335</v>
       </c>
       <c r="E222" t="n">
         <v>4</v>
@@ -18115,7 +18115,7 @@
       </c>
       <c r="K222" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L222" t="inlineStr">
@@ -18127,13 +18127,13 @@
         <v>20</v>
       </c>
       <c r="N222" t="n">
-        <v>455000</v>
+        <v>250000</v>
       </c>
       <c r="O222" t="n">
-        <v>460000</v>
+        <v>255000</v>
       </c>
       <c r="P222" t="n">
-        <v>457500</v>
+        <v>252500</v>
       </c>
       <c r="Q222" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="S222" t="n">
-        <v>1144</v>
+        <v>631</v>
       </c>
       <c r="T222" t="n">
         <v>400</v>
@@ -18167,7 +18167,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44258</v>
+        <v>44335</v>
       </c>
       <c r="E223" t="n">
         <v>4</v>
@@ -18195,25 +18195,25 @@
       </c>
       <c r="K223" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L223" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M223" t="n">
         <v>20</v>
       </c>
       <c r="N223" t="n">
-        <v>415000</v>
+        <v>250000</v>
       </c>
       <c r="O223" t="n">
-        <v>420000</v>
+        <v>255000</v>
       </c>
       <c r="P223" t="n">
-        <v>417500</v>
+        <v>252500</v>
       </c>
       <c r="Q223" t="inlineStr">
         <is>
@@ -18226,7 +18226,7 @@
         </is>
       </c>
       <c r="S223" t="n">
-        <v>1044</v>
+        <v>631</v>
       </c>
       <c r="T223" t="n">
         <v>400</v>
@@ -18247,7 +18247,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44475</v>
+        <v>44231</v>
       </c>
       <c r="E224" t="n">
         <v>4</v>
@@ -18275,7 +18275,7 @@
       </c>
       <c r="K224" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L224" t="inlineStr">
@@ -18287,13 +18287,13 @@
         <v>20</v>
       </c>
       <c r="N224" t="n">
-        <v>125000</v>
+        <v>485000</v>
       </c>
       <c r="O224" t="n">
-        <v>130000</v>
+        <v>490000</v>
       </c>
       <c r="P224" t="n">
-        <v>127500</v>
+        <v>487500</v>
       </c>
       <c r="Q224" t="inlineStr">
         <is>
@@ -18306,7 +18306,7 @@
         </is>
       </c>
       <c r="S224" t="n">
-        <v>319</v>
+        <v>1219</v>
       </c>
       <c r="T224" t="n">
         <v>400</v>
@@ -18327,7 +18327,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44475</v>
+        <v>44231</v>
       </c>
       <c r="E225" t="n">
         <v>4</v>
@@ -18355,7 +18355,7 @@
       </c>
       <c r="K225" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L225" t="inlineStr">
@@ -18367,13 +18367,13 @@
         <v>20</v>
       </c>
       <c r="N225" t="n">
-        <v>95000</v>
+        <v>455000</v>
       </c>
       <c r="O225" t="n">
-        <v>100000</v>
+        <v>460000</v>
       </c>
       <c r="P225" t="n">
-        <v>97500</v>
+        <v>457500</v>
       </c>
       <c r="Q225" t="inlineStr">
         <is>
@@ -18386,7 +18386,7 @@
         </is>
       </c>
       <c r="S225" t="n">
-        <v>244</v>
+        <v>1144</v>
       </c>
       <c r="T225" t="n">
         <v>400</v>
@@ -18407,7 +18407,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44475</v>
+        <v>44258</v>
       </c>
       <c r="E226" t="n">
         <v>4</v>
@@ -18435,7 +18435,7 @@
       </c>
       <c r="K226" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L226" t="inlineStr">
@@ -18447,13 +18447,13 @@
         <v>20</v>
       </c>
       <c r="N226" t="n">
-        <v>125000</v>
+        <v>455000</v>
       </c>
       <c r="O226" t="n">
-        <v>130000</v>
+        <v>460000</v>
       </c>
       <c r="P226" t="n">
-        <v>127500</v>
+        <v>457500</v>
       </c>
       <c r="Q226" t="inlineStr">
         <is>
@@ -18466,7 +18466,7 @@
         </is>
       </c>
       <c r="S226" t="n">
-        <v>319</v>
+        <v>1144</v>
       </c>
       <c r="T226" t="n">
         <v>400</v>
@@ -18487,7 +18487,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44475</v>
+        <v>44258</v>
       </c>
       <c r="E227" t="n">
         <v>4</v>
@@ -18515,7 +18515,7 @@
       </c>
       <c r="K227" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L227" t="inlineStr">
@@ -18527,13 +18527,13 @@
         <v>20</v>
       </c>
       <c r="N227" t="n">
-        <v>95000</v>
+        <v>415000</v>
       </c>
       <c r="O227" t="n">
-        <v>100000</v>
+        <v>420000</v>
       </c>
       <c r="P227" t="n">
-        <v>97500</v>
+        <v>417500</v>
       </c>
       <c r="Q227" t="inlineStr">
         <is>
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="S227" t="n">
-        <v>244</v>
+        <v>1044</v>
       </c>
       <c r="T227" t="n">
         <v>400</v>
@@ -18567,7 +18567,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44252</v>
+        <v>44475</v>
       </c>
       <c r="E228" t="n">
         <v>4</v>
@@ -18595,7 +18595,7 @@
       </c>
       <c r="K228" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L228" t="inlineStr">
@@ -18607,13 +18607,13 @@
         <v>20</v>
       </c>
       <c r="N228" t="n">
-        <v>455000</v>
+        <v>125000</v>
       </c>
       <c r="O228" t="n">
-        <v>460000</v>
+        <v>130000</v>
       </c>
       <c r="P228" t="n">
-        <v>457500</v>
+        <v>127500</v>
       </c>
       <c r="Q228" t="inlineStr">
         <is>
@@ -18626,7 +18626,7 @@
         </is>
       </c>
       <c r="S228" t="n">
-        <v>1144</v>
+        <v>319</v>
       </c>
       <c r="T228" t="n">
         <v>400</v>
@@ -18647,7 +18647,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44252</v>
+        <v>44475</v>
       </c>
       <c r="E229" t="n">
         <v>4</v>
@@ -18675,7 +18675,7 @@
       </c>
       <c r="K229" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L229" t="inlineStr">
@@ -18687,13 +18687,13 @@
         <v>20</v>
       </c>
       <c r="N229" t="n">
-        <v>41500</v>
+        <v>95000</v>
       </c>
       <c r="O229" t="n">
-        <v>420000</v>
+        <v>100000</v>
       </c>
       <c r="P229" t="n">
-        <v>230750</v>
+        <v>97500</v>
       </c>
       <c r="Q229" t="inlineStr">
         <is>
@@ -18706,7 +18706,7 @@
         </is>
       </c>
       <c r="S229" t="n">
-        <v>577</v>
+        <v>244</v>
       </c>
       <c r="T229" t="n">
         <v>400</v>
@@ -18727,7 +18727,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44300</v>
+        <v>44475</v>
       </c>
       <c r="E230" t="n">
         <v>4</v>
@@ -18755,25 +18755,25 @@
       </c>
       <c r="K230" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L230" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M230" t="n">
         <v>20</v>
       </c>
       <c r="N230" t="n">
-        <v>495000</v>
+        <v>125000</v>
       </c>
       <c r="O230" t="n">
-        <v>500000</v>
+        <v>130000</v>
       </c>
       <c r="P230" t="n">
-        <v>497500</v>
+        <v>127500</v>
       </c>
       <c r="Q230" t="inlineStr">
         <is>
@@ -18786,7 +18786,7 @@
         </is>
       </c>
       <c r="S230" t="n">
-        <v>1244</v>
+        <v>319</v>
       </c>
       <c r="T230" t="n">
         <v>400</v>
@@ -18807,7 +18807,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44300</v>
+        <v>44475</v>
       </c>
       <c r="E231" t="n">
         <v>4</v>
@@ -18835,25 +18835,25 @@
       </c>
       <c r="K231" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L231" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M231" t="n">
         <v>20</v>
       </c>
       <c r="N231" t="n">
-        <v>475000</v>
+        <v>95000</v>
       </c>
       <c r="O231" t="n">
-        <v>480000</v>
+        <v>100000</v>
       </c>
       <c r="P231" t="n">
-        <v>477500</v>
+        <v>97500</v>
       </c>
       <c r="Q231" t="inlineStr">
         <is>
@@ -18866,7 +18866,7 @@
         </is>
       </c>
       <c r="S231" t="n">
-        <v>1194</v>
+        <v>244</v>
       </c>
       <c r="T231" t="n">
         <v>400</v>
@@ -18887,7 +18887,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44349</v>
+        <v>44252</v>
       </c>
       <c r="E232" t="n">
         <v>4</v>
@@ -18915,7 +18915,7 @@
       </c>
       <c r="K232" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L232" t="inlineStr">
@@ -18927,13 +18927,13 @@
         <v>20</v>
       </c>
       <c r="N232" t="n">
-        <v>200000</v>
+        <v>455000</v>
       </c>
       <c r="O232" t="n">
-        <v>210000</v>
+        <v>460000</v>
       </c>
       <c r="P232" t="n">
-        <v>205000</v>
+        <v>457500</v>
       </c>
       <c r="Q232" t="inlineStr">
         <is>
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="S232" t="n">
-        <v>512</v>
+        <v>1144</v>
       </c>
       <c r="T232" t="n">
         <v>400</v>
@@ -18967,7 +18967,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44349</v>
+        <v>44252</v>
       </c>
       <c r="E233" t="n">
         <v>4</v>
@@ -18995,7 +18995,7 @@
       </c>
       <c r="K233" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L233" t="inlineStr">
@@ -19007,13 +19007,13 @@
         <v>20</v>
       </c>
       <c r="N233" t="n">
-        <v>170000</v>
+        <v>41500</v>
       </c>
       <c r="O233" t="n">
-        <v>180000</v>
+        <v>420000</v>
       </c>
       <c r="P233" t="n">
-        <v>175000</v>
+        <v>230750</v>
       </c>
       <c r="Q233" t="inlineStr">
         <is>
@@ -19026,7 +19026,7 @@
         </is>
       </c>
       <c r="S233" t="n">
-        <v>438</v>
+        <v>577</v>
       </c>
       <c r="T233" t="n">
         <v>400</v>
@@ -19047,7 +19047,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44349</v>
+        <v>44300</v>
       </c>
       <c r="E234" t="n">
         <v>4</v>
@@ -19075,25 +19075,25 @@
       </c>
       <c r="K234" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L234" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M234" t="n">
         <v>20</v>
       </c>
       <c r="N234" t="n">
-        <v>200000</v>
+        <v>495000</v>
       </c>
       <c r="O234" t="n">
-        <v>210000</v>
+        <v>500000</v>
       </c>
       <c r="P234" t="n">
-        <v>205000</v>
+        <v>497500</v>
       </c>
       <c r="Q234" t="inlineStr">
         <is>
@@ -19106,7 +19106,7 @@
         </is>
       </c>
       <c r="S234" t="n">
-        <v>512</v>
+        <v>1244</v>
       </c>
       <c r="T234" t="n">
         <v>400</v>
@@ -19127,7 +19127,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44349</v>
+        <v>44300</v>
       </c>
       <c r="E235" t="n">
         <v>4</v>
@@ -19155,25 +19155,25 @@
       </c>
       <c r="K235" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L235" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M235" t="n">
         <v>20</v>
       </c>
       <c r="N235" t="n">
-        <v>170000</v>
+        <v>475000</v>
       </c>
       <c r="O235" t="n">
-        <v>180000</v>
+        <v>480000</v>
       </c>
       <c r="P235" t="n">
-        <v>175000</v>
+        <v>477500</v>
       </c>
       <c r="Q235" t="inlineStr">
         <is>
@@ -19186,7 +19186,7 @@
         </is>
       </c>
       <c r="S235" t="n">
-        <v>438</v>
+        <v>1194</v>
       </c>
       <c r="T235" t="n">
         <v>400</v>
@@ -19207,7 +19207,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44350</v>
+        <v>44349</v>
       </c>
       <c r="E236" t="n">
         <v>4</v>
@@ -19287,7 +19287,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44350</v>
+        <v>44349</v>
       </c>
       <c r="E237" t="n">
         <v>4</v>
@@ -19367,7 +19367,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44350</v>
+        <v>44349</v>
       </c>
       <c r="E238" t="n">
         <v>4</v>
@@ -19447,7 +19447,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44350</v>
+        <v>44349</v>
       </c>
       <c r="E239" t="n">
         <v>4</v>
@@ -19527,7 +19527,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E240" t="n">
         <v>4</v>
@@ -19555,7 +19555,7 @@
       </c>
       <c r="K240" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L240" t="inlineStr">
@@ -19567,13 +19567,13 @@
         <v>20</v>
       </c>
       <c r="N240" t="n">
-        <v>110000</v>
+        <v>200000</v>
       </c>
       <c r="O240" t="n">
-        <v>120000</v>
+        <v>210000</v>
       </c>
       <c r="P240" t="n">
-        <v>115000</v>
+        <v>205000</v>
       </c>
       <c r="Q240" t="inlineStr">
         <is>
@@ -19586,7 +19586,7 @@
         </is>
       </c>
       <c r="S240" t="n">
-        <v>288</v>
+        <v>512</v>
       </c>
       <c r="T240" t="n">
         <v>400</v>
@@ -19607,7 +19607,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E241" t="n">
         <v>4</v>
@@ -19635,7 +19635,7 @@
       </c>
       <c r="K241" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L241" t="inlineStr">
@@ -19647,13 +19647,13 @@
         <v>20</v>
       </c>
       <c r="N241" t="n">
-        <v>80000</v>
+        <v>170000</v>
       </c>
       <c r="O241" t="n">
-        <v>90000</v>
+        <v>180000</v>
       </c>
       <c r="P241" t="n">
-        <v>85000</v>
+        <v>175000</v>
       </c>
       <c r="Q241" t="inlineStr">
         <is>
@@ -19666,7 +19666,7 @@
         </is>
       </c>
       <c r="S241" t="n">
-        <v>212</v>
+        <v>438</v>
       </c>
       <c r="T241" t="n">
         <v>400</v>
@@ -19687,7 +19687,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E242" t="n">
         <v>4</v>
@@ -19715,7 +19715,7 @@
       </c>
       <c r="K242" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L242" t="inlineStr">
@@ -19727,13 +19727,13 @@
         <v>20</v>
       </c>
       <c r="N242" t="n">
-        <v>110000</v>
+        <v>200000</v>
       </c>
       <c r="O242" t="n">
-        <v>120000</v>
+        <v>210000</v>
       </c>
       <c r="P242" t="n">
-        <v>115000</v>
+        <v>205000</v>
       </c>
       <c r="Q242" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="S242" t="n">
-        <v>288</v>
+        <v>512</v>
       </c>
       <c r="T242" t="n">
         <v>400</v>
@@ -19767,7 +19767,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E243" t="n">
         <v>4</v>
@@ -19795,7 +19795,7 @@
       </c>
       <c r="K243" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L243" t="inlineStr">
@@ -19807,13 +19807,13 @@
         <v>20</v>
       </c>
       <c r="N243" t="n">
-        <v>80000</v>
+        <v>170000</v>
       </c>
       <c r="O243" t="n">
-        <v>90000</v>
+        <v>180000</v>
       </c>
       <c r="P243" t="n">
-        <v>85000</v>
+        <v>175000</v>
       </c>
       <c r="Q243" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         </is>
       </c>
       <c r="S243" t="n">
-        <v>212</v>
+        <v>438</v>
       </c>
       <c r="T243" t="n">
         <v>400</v>
@@ -19847,7 +19847,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44385</v>
+        <v>44448</v>
       </c>
       <c r="E244" t="n">
         <v>4</v>
@@ -19875,7 +19875,7 @@
       </c>
       <c r="K244" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L244" t="inlineStr">
@@ -19887,13 +19887,13 @@
         <v>20</v>
       </c>
       <c r="N244" t="n">
-        <v>125000</v>
+        <v>110000</v>
       </c>
       <c r="O244" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="P244" t="n">
-        <v>127500</v>
+        <v>115000</v>
       </c>
       <c r="Q244" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         </is>
       </c>
       <c r="S244" t="n">
-        <v>319</v>
+        <v>288</v>
       </c>
       <c r="T244" t="n">
         <v>400</v>
@@ -19927,7 +19927,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44385</v>
+        <v>44448</v>
       </c>
       <c r="E245" t="n">
         <v>4</v>
@@ -19955,7 +19955,7 @@
       </c>
       <c r="K245" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L245" t="inlineStr">
@@ -19967,13 +19967,13 @@
         <v>20</v>
       </c>
       <c r="N245" t="n">
-        <v>105000</v>
+        <v>80000</v>
       </c>
       <c r="O245" t="n">
-        <v>110000</v>
+        <v>90000</v>
       </c>
       <c r="P245" t="n">
-        <v>107500</v>
+        <v>85000</v>
       </c>
       <c r="Q245" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         </is>
       </c>
       <c r="S245" t="n">
-        <v>269</v>
+        <v>212</v>
       </c>
       <c r="T245" t="n">
         <v>400</v>
@@ -20007,7 +20007,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44385</v>
+        <v>44448</v>
       </c>
       <c r="E246" t="n">
         <v>4</v>
@@ -20047,13 +20047,13 @@
         <v>20</v>
       </c>
       <c r="N246" t="n">
-        <v>125000</v>
+        <v>110000</v>
       </c>
       <c r="O246" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="P246" t="n">
-        <v>127500</v>
+        <v>115000</v>
       </c>
       <c r="Q246" t="inlineStr">
         <is>
@@ -20066,7 +20066,7 @@
         </is>
       </c>
       <c r="S246" t="n">
-        <v>319</v>
+        <v>288</v>
       </c>
       <c r="T246" t="n">
         <v>400</v>
@@ -20087,7 +20087,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44385</v>
+        <v>44448</v>
       </c>
       <c r="E247" t="n">
         <v>4</v>
@@ -20127,13 +20127,13 @@
         <v>20</v>
       </c>
       <c r="N247" t="n">
-        <v>105000</v>
+        <v>80000</v>
       </c>
       <c r="O247" t="n">
-        <v>110000</v>
+        <v>90000</v>
       </c>
       <c r="P247" t="n">
-        <v>107500</v>
+        <v>85000</v>
       </c>
       <c r="Q247" t="inlineStr">
         <is>
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="S247" t="n">
-        <v>269</v>
+        <v>212</v>
       </c>
       <c r="T247" t="n">
         <v>400</v>
@@ -20195,7 +20195,7 @@
       </c>
       <c r="K248" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L248" t="inlineStr">
@@ -20207,13 +20207,13 @@
         <v>20</v>
       </c>
       <c r="N248" t="n">
-        <v>115000</v>
+        <v>125000</v>
       </c>
       <c r="O248" t="n">
-        <v>120000</v>
+        <v>130000</v>
       </c>
       <c r="P248" t="n">
-        <v>117500</v>
+        <v>127500</v>
       </c>
       <c r="Q248" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         </is>
       </c>
       <c r="S248" t="n">
-        <v>294</v>
+        <v>319</v>
       </c>
       <c r="T248" t="n">
         <v>400</v>
@@ -20275,7 +20275,7 @@
       </c>
       <c r="K249" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L249" t="inlineStr">
@@ -20287,13 +20287,13 @@
         <v>20</v>
       </c>
       <c r="N249" t="n">
-        <v>95000</v>
+        <v>105000</v>
       </c>
       <c r="O249" t="n">
-        <v>100000</v>
+        <v>110000</v>
       </c>
       <c r="P249" t="n">
-        <v>97500</v>
+        <v>107500</v>
       </c>
       <c r="Q249" t="inlineStr">
         <is>
@@ -20306,7 +20306,7 @@
         </is>
       </c>
       <c r="S249" t="n">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="T249" t="n">
         <v>400</v>
@@ -20327,7 +20327,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44202</v>
+        <v>44385</v>
       </c>
       <c r="E250" t="n">
         <v>4</v>
@@ -20355,7 +20355,7 @@
       </c>
       <c r="K250" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L250" t="inlineStr">
@@ -20367,13 +20367,13 @@
         <v>20</v>
       </c>
       <c r="N250" t="n">
-        <v>395000</v>
+        <v>125000</v>
       </c>
       <c r="O250" t="n">
-        <v>400000</v>
+        <v>130000</v>
       </c>
       <c r="P250" t="n">
-        <v>397500</v>
+        <v>127500</v>
       </c>
       <c r="Q250" t="inlineStr">
         <is>
@@ -20386,7 +20386,7 @@
         </is>
       </c>
       <c r="S250" t="n">
-        <v>994</v>
+        <v>319</v>
       </c>
       <c r="T250" t="n">
         <v>400</v>
@@ -20407,7 +20407,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44202</v>
+        <v>44385</v>
       </c>
       <c r="E251" t="n">
         <v>4</v>
@@ -20435,7 +20435,7 @@
       </c>
       <c r="K251" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L251" t="inlineStr">
@@ -20447,13 +20447,13 @@
         <v>20</v>
       </c>
       <c r="N251" t="n">
-        <v>345000</v>
+        <v>105000</v>
       </c>
       <c r="O251" t="n">
-        <v>350000</v>
+        <v>110000</v>
       </c>
       <c r="P251" t="n">
-        <v>347500</v>
+        <v>107500</v>
       </c>
       <c r="Q251" t="inlineStr">
         <is>
@@ -20466,7 +20466,7 @@
         </is>
       </c>
       <c r="S251" t="n">
-        <v>869</v>
+        <v>269</v>
       </c>
       <c r="T251" t="n">
         <v>400</v>
@@ -20487,7 +20487,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44435</v>
+        <v>44385</v>
       </c>
       <c r="E252" t="n">
         <v>4</v>
@@ -20515,25 +20515,25 @@
       </c>
       <c r="K252" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L252" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M252" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="N252" t="n">
-        <v>125000</v>
+        <v>115000</v>
       </c>
       <c r="O252" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="P252" t="n">
-        <v>127500</v>
+        <v>117500</v>
       </c>
       <c r="Q252" t="inlineStr">
         <is>
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="S252" t="n">
-        <v>319</v>
+        <v>294</v>
       </c>
       <c r="T252" t="n">
         <v>400</v>
@@ -20567,7 +20567,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44435</v>
+        <v>44385</v>
       </c>
       <c r="E253" t="n">
         <v>4</v>
@@ -20595,25 +20595,25 @@
       </c>
       <c r="K253" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L253" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M253" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="N253" t="n">
-        <v>105000</v>
+        <v>95000</v>
       </c>
       <c r="O253" t="n">
-        <v>110000</v>
+        <v>100000</v>
       </c>
       <c r="P253" t="n">
-        <v>107500</v>
+        <v>97500</v>
       </c>
       <c r="Q253" t="inlineStr">
         <is>
@@ -20626,7 +20626,7 @@
         </is>
       </c>
       <c r="S253" t="n">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="T253" t="n">
         <v>400</v>
@@ -20647,7 +20647,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44435</v>
+        <v>44202</v>
       </c>
       <c r="E254" t="n">
         <v>4</v>
@@ -20675,25 +20675,25 @@
       </c>
       <c r="K254" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L254" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M254" t="n">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="N254" t="n">
-        <v>85000</v>
+        <v>395000</v>
       </c>
       <c r="O254" t="n">
-        <v>90000</v>
+        <v>400000</v>
       </c>
       <c r="P254" t="n">
-        <v>87955</v>
+        <v>397500</v>
       </c>
       <c r="Q254" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         </is>
       </c>
       <c r="S254" t="n">
-        <v>220</v>
+        <v>994</v>
       </c>
       <c r="T254" t="n">
         <v>400</v>
@@ -20727,7 +20727,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44435</v>
+        <v>44202</v>
       </c>
       <c r="E255" t="n">
         <v>4</v>
@@ -20755,25 +20755,25 @@
       </c>
       <c r="K255" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L255" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M255" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="N255" t="n">
-        <v>95000</v>
+        <v>345000</v>
       </c>
       <c r="O255" t="n">
-        <v>100000</v>
+        <v>350000</v>
       </c>
       <c r="P255" t="n">
-        <v>97500</v>
+        <v>347500</v>
       </c>
       <c r="Q255" t="inlineStr">
         <is>
@@ -20786,7 +20786,7 @@
         </is>
       </c>
       <c r="S255" t="n">
-        <v>244</v>
+        <v>869</v>
       </c>
       <c r="T255" t="n">
         <v>400</v>
@@ -20835,25 +20835,25 @@
       </c>
       <c r="K256" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L256" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M256" t="n">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="N256" t="n">
-        <v>75000</v>
+        <v>125000</v>
       </c>
       <c r="O256" t="n">
-        <v>80000</v>
+        <v>130000</v>
       </c>
       <c r="P256" t="n">
-        <v>77500</v>
+        <v>127500</v>
       </c>
       <c r="Q256" t="inlineStr">
         <is>
@@ -20866,7 +20866,7 @@
         </is>
       </c>
       <c r="S256" t="n">
-        <v>194</v>
+        <v>319</v>
       </c>
       <c r="T256" t="n">
         <v>400</v>
@@ -20915,7 +20915,7 @@
       </c>
       <c r="K257" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L257" t="inlineStr">
@@ -20924,16 +20924,16 @@
         </is>
       </c>
       <c r="M257" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="N257" t="n">
-        <v>95000</v>
+        <v>105000</v>
       </c>
       <c r="O257" t="n">
-        <v>100000</v>
+        <v>110000</v>
       </c>
       <c r="P257" t="n">
-        <v>97500</v>
+        <v>107500</v>
       </c>
       <c r="Q257" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="S257" t="n">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="T257" t="n">
         <v>400</v>
@@ -20995,7 +20995,7 @@
       </c>
       <c r="K258" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L258" t="inlineStr">
@@ -21004,16 +21004,16 @@
         </is>
       </c>
       <c r="M258" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="N258" t="n">
-        <v>75000</v>
+        <v>85000</v>
       </c>
       <c r="O258" t="n">
-        <v>80000</v>
+        <v>90000</v>
       </c>
       <c r="P258" t="n">
-        <v>77500</v>
+        <v>87955</v>
       </c>
       <c r="Q258" t="inlineStr">
         <is>
@@ -21026,7 +21026,7 @@
         </is>
       </c>
       <c r="S258" t="n">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="T258" t="n">
         <v>400</v>
@@ -21047,7 +21047,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44377</v>
+        <v>44435</v>
       </c>
       <c r="E259" t="n">
         <v>4</v>
@@ -21075,7 +21075,7 @@
       </c>
       <c r="K259" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L259" t="inlineStr">
@@ -21084,16 +21084,16 @@
         </is>
       </c>
       <c r="M259" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="N259" t="n">
-        <v>115000</v>
+        <v>95000</v>
       </c>
       <c r="O259" t="n">
-        <v>120000</v>
+        <v>100000</v>
       </c>
       <c r="P259" t="n">
-        <v>117500</v>
+        <v>97500</v>
       </c>
       <c r="Q259" t="inlineStr">
         <is>
@@ -21106,7 +21106,7 @@
         </is>
       </c>
       <c r="S259" t="n">
-        <v>294</v>
+        <v>244</v>
       </c>
       <c r="T259" t="n">
         <v>400</v>
@@ -21127,7 +21127,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44377</v>
+        <v>44435</v>
       </c>
       <c r="E260" t="n">
         <v>4</v>
@@ -21155,7 +21155,7 @@
       </c>
       <c r="K260" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L260" t="inlineStr">
@@ -21164,16 +21164,16 @@
         </is>
       </c>
       <c r="M260" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="N260" t="n">
-        <v>95000</v>
+        <v>75000</v>
       </c>
       <c r="O260" t="n">
-        <v>100000</v>
+        <v>80000</v>
       </c>
       <c r="P260" t="n">
-        <v>97500</v>
+        <v>77500</v>
       </c>
       <c r="Q260" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         </is>
       </c>
       <c r="S260" t="n">
-        <v>244</v>
+        <v>194</v>
       </c>
       <c r="T260" t="n">
         <v>400</v>
@@ -21207,7 +21207,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44377</v>
+        <v>44435</v>
       </c>
       <c r="E261" t="n">
         <v>4</v>
@@ -21244,16 +21244,16 @@
         </is>
       </c>
       <c r="M261" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="N261" t="n">
-        <v>115000</v>
+        <v>95000</v>
       </c>
       <c r="O261" t="n">
-        <v>120000</v>
+        <v>100000</v>
       </c>
       <c r="P261" t="n">
-        <v>117500</v>
+        <v>97500</v>
       </c>
       <c r="Q261" t="inlineStr">
         <is>
@@ -21266,7 +21266,7 @@
         </is>
       </c>
       <c r="S261" t="n">
-        <v>294</v>
+        <v>244</v>
       </c>
       <c r="T261" t="n">
         <v>400</v>
@@ -21287,7 +21287,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44377</v>
+        <v>44435</v>
       </c>
       <c r="E262" t="n">
         <v>4</v>
@@ -21324,16 +21324,16 @@
         </is>
       </c>
       <c r="M262" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="N262" t="n">
-        <v>95000</v>
+        <v>75000</v>
       </c>
       <c r="O262" t="n">
-        <v>100000</v>
+        <v>80000</v>
       </c>
       <c r="P262" t="n">
-        <v>96786</v>
+        <v>77500</v>
       </c>
       <c r="Q262" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="S262" t="n">
-        <v>242</v>
+        <v>194</v>
       </c>
       <c r="T262" t="n">
         <v>400</v>
@@ -21395,7 +21395,7 @@
       </c>
       <c r="K263" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L263" t="inlineStr">
@@ -21475,7 +21475,7 @@
       </c>
       <c r="K264" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L264" t="inlineStr">
@@ -21527,7 +21527,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44433</v>
+        <v>44377</v>
       </c>
       <c r="E265" t="n">
         <v>4</v>
@@ -21555,25 +21555,25 @@
       </c>
       <c r="K265" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L265" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M265" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N265" t="n">
-        <v>125000</v>
+        <v>115000</v>
       </c>
       <c r="O265" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="P265" t="n">
-        <v>127500</v>
+        <v>117500</v>
       </c>
       <c r="Q265" t="inlineStr">
         <is>
@@ -21586,7 +21586,7 @@
         </is>
       </c>
       <c r="S265" t="n">
-        <v>319</v>
+        <v>294</v>
       </c>
       <c r="T265" t="n">
         <v>400</v>
@@ -21607,7 +21607,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44433</v>
+        <v>44377</v>
       </c>
       <c r="E266" t="n">
         <v>4</v>
@@ -21635,25 +21635,25 @@
       </c>
       <c r="K266" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L266" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M266" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N266" t="n">
-        <v>105000</v>
+        <v>95000</v>
       </c>
       <c r="O266" t="n">
-        <v>110000</v>
+        <v>100000</v>
       </c>
       <c r="P266" t="n">
-        <v>107500</v>
+        <v>96786</v>
       </c>
       <c r="Q266" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         </is>
       </c>
       <c r="S266" t="n">
-        <v>269</v>
+        <v>242</v>
       </c>
       <c r="T266" t="n">
         <v>400</v>
@@ -21687,7 +21687,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44433</v>
+        <v>44377</v>
       </c>
       <c r="E267" t="n">
         <v>4</v>
@@ -21715,25 +21715,25 @@
       </c>
       <c r="K267" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L267" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M267" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="N267" t="n">
-        <v>85000</v>
+        <v>115000</v>
       </c>
       <c r="O267" t="n">
-        <v>90000</v>
+        <v>120000</v>
       </c>
       <c r="P267" t="n">
-        <v>88214</v>
+        <v>117500</v>
       </c>
       <c r="Q267" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="S267" t="n">
-        <v>221</v>
+        <v>294</v>
       </c>
       <c r="T267" t="n">
         <v>400</v>
@@ -21767,7 +21767,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44433</v>
+        <v>44377</v>
       </c>
       <c r="E268" t="n">
         <v>4</v>
@@ -21795,12 +21795,12 @@
       </c>
       <c r="K268" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L268" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M268" t="n">
@@ -21875,25 +21875,25 @@
       </c>
       <c r="K269" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L269" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M269" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N269" t="n">
-        <v>75000</v>
+        <v>125000</v>
       </c>
       <c r="O269" t="n">
-        <v>80000</v>
+        <v>130000</v>
       </c>
       <c r="P269" t="n">
-        <v>77500</v>
+        <v>127500</v>
       </c>
       <c r="Q269" t="inlineStr">
         <is>
@@ -21906,7 +21906,7 @@
         </is>
       </c>
       <c r="S269" t="n">
-        <v>194</v>
+        <v>319</v>
       </c>
       <c r="T269" t="n">
         <v>400</v>
@@ -21955,7 +21955,7 @@
       </c>
       <c r="K270" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L270" t="inlineStr">
@@ -21967,13 +21967,13 @@
         <v>20</v>
       </c>
       <c r="N270" t="n">
-        <v>95000</v>
+        <v>105000</v>
       </c>
       <c r="O270" t="n">
-        <v>100000</v>
+        <v>110000</v>
       </c>
       <c r="P270" t="n">
-        <v>97500</v>
+        <v>107500</v>
       </c>
       <c r="Q270" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
         </is>
       </c>
       <c r="S270" t="n">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="T270" t="n">
         <v>400</v>
@@ -22035,7 +22035,7 @@
       </c>
       <c r="K271" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L271" t="inlineStr">
@@ -22044,16 +22044,16 @@
         </is>
       </c>
       <c r="M271" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N271" t="n">
-        <v>75000</v>
+        <v>85000</v>
       </c>
       <c r="O271" t="n">
-        <v>80000</v>
+        <v>90000</v>
       </c>
       <c r="P271" t="n">
-        <v>77500</v>
+        <v>88214</v>
       </c>
       <c r="Q271" t="inlineStr">
         <is>
@@ -22066,7 +22066,7 @@
         </is>
       </c>
       <c r="S271" t="n">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="T271" t="n">
         <v>400</v>
@@ -22087,7 +22087,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44307</v>
+        <v>44433</v>
       </c>
       <c r="E272" t="n">
         <v>4</v>
@@ -22115,7 +22115,7 @@
       </c>
       <c r="K272" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L272" t="inlineStr">
@@ -22127,13 +22127,13 @@
         <v>20</v>
       </c>
       <c r="N272" t="n">
-        <v>385000</v>
+        <v>95000</v>
       </c>
       <c r="O272" t="n">
-        <v>390000</v>
+        <v>100000</v>
       </c>
       <c r="P272" t="n">
-        <v>387500</v>
+        <v>97500</v>
       </c>
       <c r="Q272" t="inlineStr">
         <is>
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="S272" t="n">
-        <v>969</v>
+        <v>244</v>
       </c>
       <c r="T272" t="n">
         <v>400</v>
@@ -22167,7 +22167,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44307</v>
+        <v>44433</v>
       </c>
       <c r="E273" t="n">
         <v>4</v>
@@ -22195,7 +22195,7 @@
       </c>
       <c r="K273" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L273" t="inlineStr">
@@ -22207,13 +22207,13 @@
         <v>20</v>
       </c>
       <c r="N273" t="n">
-        <v>345000</v>
+        <v>75000</v>
       </c>
       <c r="O273" t="n">
-        <v>350000</v>
+        <v>80000</v>
       </c>
       <c r="P273" t="n">
-        <v>347500</v>
+        <v>77500</v>
       </c>
       <c r="Q273" t="inlineStr">
         <is>
@@ -22226,7 +22226,7 @@
         </is>
       </c>
       <c r="S273" t="n">
-        <v>869</v>
+        <v>194</v>
       </c>
       <c r="T273" t="n">
         <v>400</v>
@@ -22247,7 +22247,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44307</v>
+        <v>44433</v>
       </c>
       <c r="E274" t="n">
         <v>4</v>
@@ -22275,7 +22275,7 @@
       </c>
       <c r="K274" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L274" t="inlineStr">
@@ -22287,13 +22287,13 @@
         <v>20</v>
       </c>
       <c r="N274" t="n">
-        <v>385000</v>
+        <v>95000</v>
       </c>
       <c r="O274" t="n">
-        <v>390000</v>
+        <v>100000</v>
       </c>
       <c r="P274" t="n">
-        <v>387500</v>
+        <v>97500</v>
       </c>
       <c r="Q274" t="inlineStr">
         <is>
@@ -22306,7 +22306,7 @@
         </is>
       </c>
       <c r="S274" t="n">
-        <v>969</v>
+        <v>244</v>
       </c>
       <c r="T274" t="n">
         <v>400</v>
@@ -22327,7 +22327,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44476</v>
+        <v>44433</v>
       </c>
       <c r="E275" t="n">
         <v>4</v>
@@ -22355,25 +22355,25 @@
       </c>
       <c r="K275" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L275" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M275" t="n">
         <v>20</v>
       </c>
       <c r="N275" t="n">
-        <v>120000</v>
+        <v>75000</v>
       </c>
       <c r="O275" t="n">
-        <v>125000</v>
+        <v>80000</v>
       </c>
       <c r="P275" t="n">
-        <v>122500</v>
+        <v>77500</v>
       </c>
       <c r="Q275" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         </is>
       </c>
       <c r="S275" t="n">
-        <v>306</v>
+        <v>194</v>
       </c>
       <c r="T275" t="n">
         <v>400</v>
@@ -22407,7 +22407,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44476</v>
+        <v>44307</v>
       </c>
       <c r="E276" t="n">
         <v>4</v>
@@ -22435,25 +22435,25 @@
       </c>
       <c r="K276" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L276" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M276" t="n">
         <v>20</v>
       </c>
       <c r="N276" t="n">
-        <v>90000</v>
+        <v>385000</v>
       </c>
       <c r="O276" t="n">
-        <v>95000</v>
+        <v>390000</v>
       </c>
       <c r="P276" t="n">
-        <v>92500</v>
+        <v>387500</v>
       </c>
       <c r="Q276" t="inlineStr">
         <is>
@@ -22466,7 +22466,7 @@
         </is>
       </c>
       <c r="S276" t="n">
-        <v>231</v>
+        <v>969</v>
       </c>
       <c r="T276" t="n">
         <v>400</v>
@@ -22487,7 +22487,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44476</v>
+        <v>44307</v>
       </c>
       <c r="E277" t="n">
         <v>4</v>
@@ -22515,25 +22515,25 @@
       </c>
       <c r="K277" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L277" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M277" t="n">
         <v>20</v>
       </c>
       <c r="N277" t="n">
-        <v>120000</v>
+        <v>345000</v>
       </c>
       <c r="O277" t="n">
-        <v>125000</v>
+        <v>350000</v>
       </c>
       <c r="P277" t="n">
-        <v>122500</v>
+        <v>347500</v>
       </c>
       <c r="Q277" t="inlineStr">
         <is>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="S277" t="n">
-        <v>306</v>
+        <v>869</v>
       </c>
       <c r="T277" t="n">
         <v>400</v>
@@ -22567,7 +22567,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44476</v>
+        <v>44307</v>
       </c>
       <c r="E278" t="n">
         <v>4</v>
@@ -22595,25 +22595,25 @@
       </c>
       <c r="K278" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L278" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M278" t="n">
         <v>20</v>
       </c>
       <c r="N278" t="n">
-        <v>90000</v>
+        <v>385000</v>
       </c>
       <c r="O278" t="n">
-        <v>95000</v>
+        <v>390000</v>
       </c>
       <c r="P278" t="n">
-        <v>92500</v>
+        <v>387500</v>
       </c>
       <c r="Q278" t="inlineStr">
         <is>
@@ -22626,7 +22626,7 @@
         </is>
       </c>
       <c r="S278" t="n">
-        <v>231</v>
+        <v>969</v>
       </c>
       <c r="T278" t="n">
         <v>400</v>
@@ -22647,7 +22647,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E279" t="n">
         <v>4</v>
@@ -22690,10 +22690,10 @@
         <v>120000</v>
       </c>
       <c r="O279" t="n">
-        <v>130000</v>
+        <v>125000</v>
       </c>
       <c r="P279" t="n">
-        <v>125000</v>
+        <v>122500</v>
       </c>
       <c r="Q279" t="inlineStr">
         <is>
@@ -22706,7 +22706,7 @@
         </is>
       </c>
       <c r="S279" t="n">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="T279" t="n">
         <v>400</v>
@@ -22727,7 +22727,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E280" t="n">
         <v>4</v>
@@ -22767,13 +22767,13 @@
         <v>20</v>
       </c>
       <c r="N280" t="n">
-        <v>100000</v>
+        <v>90000</v>
       </c>
       <c r="O280" t="n">
-        <v>110000</v>
+        <v>95000</v>
       </c>
       <c r="P280" t="n">
-        <v>105000</v>
+        <v>92500</v>
       </c>
       <c r="Q280" t="inlineStr">
         <is>
@@ -22786,7 +22786,7 @@
         </is>
       </c>
       <c r="S280" t="n">
-        <v>262</v>
+        <v>231</v>
       </c>
       <c r="T280" t="n">
         <v>400</v>
@@ -22807,7 +22807,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E281" t="n">
         <v>4</v>
@@ -22844,16 +22844,16 @@
         </is>
       </c>
       <c r="M281" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="N281" t="n">
         <v>120000</v>
       </c>
       <c r="O281" t="n">
-        <v>130000</v>
+        <v>125000</v>
       </c>
       <c r="P281" t="n">
-        <v>126429</v>
+        <v>122500</v>
       </c>
       <c r="Q281" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         </is>
       </c>
       <c r="S281" t="n">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="T281" t="n">
         <v>400</v>
@@ -22887,7 +22887,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E282" t="n">
         <v>4</v>
@@ -22927,13 +22927,13 @@
         <v>20</v>
       </c>
       <c r="N282" t="n">
-        <v>100000</v>
+        <v>90000</v>
       </c>
       <c r="O282" t="n">
-        <v>110000</v>
+        <v>95000</v>
       </c>
       <c r="P282" t="n">
-        <v>105000</v>
+        <v>92500</v>
       </c>
       <c r="Q282" t="inlineStr">
         <is>
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="S282" t="n">
-        <v>262</v>
+        <v>231</v>
       </c>
       <c r="T282" t="n">
         <v>400</v>
@@ -22967,7 +22967,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44384</v>
+        <v>44468</v>
       </c>
       <c r="E283" t="n">
         <v>4</v>
@@ -22995,7 +22995,7 @@
       </c>
       <c r="K283" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L283" t="inlineStr">
@@ -23007,13 +23007,13 @@
         <v>20</v>
       </c>
       <c r="N283" t="n">
-        <v>125000</v>
+        <v>120000</v>
       </c>
       <c r="O283" t="n">
         <v>130000</v>
       </c>
       <c r="P283" t="n">
-        <v>127500</v>
+        <v>125000</v>
       </c>
       <c r="Q283" t="inlineStr">
         <is>
@@ -23026,7 +23026,7 @@
         </is>
       </c>
       <c r="S283" t="n">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="T283" t="n">
         <v>400</v>
@@ -23047,7 +23047,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44384</v>
+        <v>44468</v>
       </c>
       <c r="E284" t="n">
         <v>4</v>
@@ -23075,7 +23075,7 @@
       </c>
       <c r="K284" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L284" t="inlineStr">
@@ -23087,13 +23087,13 @@
         <v>20</v>
       </c>
       <c r="N284" t="n">
-        <v>105000</v>
+        <v>100000</v>
       </c>
       <c r="O284" t="n">
         <v>110000</v>
       </c>
       <c r="P284" t="n">
-        <v>107500</v>
+        <v>105000</v>
       </c>
       <c r="Q284" t="inlineStr">
         <is>
@@ -23106,7 +23106,7 @@
         </is>
       </c>
       <c r="S284" t="n">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="T284" t="n">
         <v>400</v>
@@ -23127,7 +23127,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44384</v>
+        <v>44468</v>
       </c>
       <c r="E285" t="n">
         <v>4</v>
@@ -23164,16 +23164,16 @@
         </is>
       </c>
       <c r="M285" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N285" t="n">
-        <v>125000</v>
+        <v>120000</v>
       </c>
       <c r="O285" t="n">
         <v>130000</v>
       </c>
       <c r="P285" t="n">
-        <v>127500</v>
+        <v>126429</v>
       </c>
       <c r="Q285" t="inlineStr">
         <is>
@@ -23186,7 +23186,7 @@
         </is>
       </c>
       <c r="S285" t="n">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="T285" t="n">
         <v>400</v>
@@ -23207,7 +23207,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44384</v>
+        <v>44468</v>
       </c>
       <c r="E286" t="n">
         <v>4</v>
@@ -23247,13 +23247,13 @@
         <v>20</v>
       </c>
       <c r="N286" t="n">
-        <v>105000</v>
+        <v>100000</v>
       </c>
       <c r="O286" t="n">
         <v>110000</v>
       </c>
       <c r="P286" t="n">
-        <v>107500</v>
+        <v>105000</v>
       </c>
       <c r="Q286" t="inlineStr">
         <is>
@@ -23266,7 +23266,7 @@
         </is>
       </c>
       <c r="S286" t="n">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="T286" t="n">
         <v>400</v>
@@ -23315,7 +23315,7 @@
       </c>
       <c r="K287" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L287" t="inlineStr">
@@ -23327,13 +23327,13 @@
         <v>20</v>
       </c>
       <c r="N287" t="n">
-        <v>115000</v>
+        <v>125000</v>
       </c>
       <c r="O287" t="n">
-        <v>120000</v>
+        <v>130000</v>
       </c>
       <c r="P287" t="n">
-        <v>117500</v>
+        <v>127500</v>
       </c>
       <c r="Q287" t="inlineStr">
         <is>
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="S287" t="n">
-        <v>294</v>
+        <v>319</v>
       </c>
       <c r="T287" t="n">
         <v>400</v>
@@ -23395,7 +23395,7 @@
       </c>
       <c r="K288" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L288" t="inlineStr">
@@ -23407,13 +23407,13 @@
         <v>20</v>
       </c>
       <c r="N288" t="n">
-        <v>95000</v>
+        <v>105000</v>
       </c>
       <c r="O288" t="n">
-        <v>100000</v>
+        <v>110000</v>
       </c>
       <c r="P288" t="n">
-        <v>97500</v>
+        <v>107500</v>
       </c>
       <c r="Q288" t="inlineStr">
         <is>
@@ -23426,7 +23426,7 @@
         </is>
       </c>
       <c r="S288" t="n">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="T288" t="n">
         <v>400</v>
@@ -23447,7 +23447,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E289" t="n">
         <v>4</v>
@@ -23475,7 +23475,7 @@
       </c>
       <c r="K289" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L289" t="inlineStr">
@@ -23487,13 +23487,13 @@
         <v>20</v>
       </c>
       <c r="N289" t="n">
-        <v>135000</v>
+        <v>125000</v>
       </c>
       <c r="O289" t="n">
-        <v>140000</v>
+        <v>130000</v>
       </c>
       <c r="P289" t="n">
-        <v>137500</v>
+        <v>127500</v>
       </c>
       <c r="Q289" t="inlineStr">
         <is>
@@ -23506,7 +23506,7 @@
         </is>
       </c>
       <c r="S289" t="n">
-        <v>344</v>
+        <v>319</v>
       </c>
       <c r="T289" t="n">
         <v>400</v>
@@ -23527,7 +23527,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E290" t="n">
         <v>4</v>
@@ -23555,7 +23555,7 @@
       </c>
       <c r="K290" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L290" t="inlineStr">
@@ -23567,13 +23567,13 @@
         <v>20</v>
       </c>
       <c r="N290" t="n">
-        <v>115000</v>
+        <v>105000</v>
       </c>
       <c r="O290" t="n">
-        <v>120000</v>
+        <v>110000</v>
       </c>
       <c r="P290" t="n">
-        <v>117500</v>
+        <v>107500</v>
       </c>
       <c r="Q290" t="inlineStr">
         <is>
@@ -23586,7 +23586,7 @@
         </is>
       </c>
       <c r="S290" t="n">
-        <v>294</v>
+        <v>269</v>
       </c>
       <c r="T290" t="n">
         <v>400</v>
@@ -23607,7 +23607,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E291" t="n">
         <v>4</v>
@@ -23647,13 +23647,13 @@
         <v>20</v>
       </c>
       <c r="N291" t="n">
-        <v>145000</v>
+        <v>115000</v>
       </c>
       <c r="O291" t="n">
-        <v>150000</v>
+        <v>120000</v>
       </c>
       <c r="P291" t="n">
-        <v>147500</v>
+        <v>117500</v>
       </c>
       <c r="Q291" t="inlineStr">
         <is>
@@ -23666,7 +23666,7 @@
         </is>
       </c>
       <c r="S291" t="n">
-        <v>369</v>
+        <v>294</v>
       </c>
       <c r="T291" t="n">
         <v>400</v>
@@ -23687,7 +23687,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E292" t="n">
         <v>4</v>
@@ -23727,13 +23727,13 @@
         <v>20</v>
       </c>
       <c r="N292" t="n">
-        <v>125000</v>
+        <v>95000</v>
       </c>
       <c r="O292" t="n">
-        <v>130000</v>
+        <v>100000</v>
       </c>
       <c r="P292" t="n">
-        <v>127500</v>
+        <v>97500</v>
       </c>
       <c r="Q292" t="inlineStr">
         <is>
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="S292" t="n">
-        <v>319</v>
+        <v>244</v>
       </c>
       <c r="T292" t="n">
         <v>400</v>
@@ -23767,7 +23767,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44301</v>
+        <v>44363</v>
       </c>
       <c r="E293" t="n">
         <v>4</v>
@@ -23795,25 +23795,25 @@
       </c>
       <c r="K293" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L293" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M293" t="n">
         <v>20</v>
       </c>
       <c r="N293" t="n">
-        <v>495000</v>
+        <v>135000</v>
       </c>
       <c r="O293" t="n">
-        <v>500000</v>
+        <v>140000</v>
       </c>
       <c r="P293" t="n">
-        <v>497500</v>
+        <v>137500</v>
       </c>
       <c r="Q293" t="inlineStr">
         <is>
@@ -23826,7 +23826,7 @@
         </is>
       </c>
       <c r="S293" t="n">
-        <v>1244</v>
+        <v>344</v>
       </c>
       <c r="T293" t="n">
         <v>400</v>
@@ -23847,7 +23847,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44301</v>
+        <v>44363</v>
       </c>
       <c r="E294" t="n">
         <v>4</v>
@@ -23875,25 +23875,25 @@
       </c>
       <c r="K294" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L294" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M294" t="n">
         <v>20</v>
       </c>
       <c r="N294" t="n">
-        <v>475000</v>
+        <v>115000</v>
       </c>
       <c r="O294" t="n">
-        <v>480000</v>
+        <v>120000</v>
       </c>
       <c r="P294" t="n">
-        <v>477500</v>
+        <v>117500</v>
       </c>
       <c r="Q294" t="inlineStr">
         <is>
@@ -23906,7 +23906,7 @@
         </is>
       </c>
       <c r="S294" t="n">
-        <v>1194</v>
+        <v>294</v>
       </c>
       <c r="T294" t="n">
         <v>400</v>
@@ -23927,7 +23927,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44357</v>
+        <v>44363</v>
       </c>
       <c r="E295" t="n">
         <v>4</v>
@@ -23955,7 +23955,7 @@
       </c>
       <c r="K295" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L295" t="inlineStr">
@@ -24007,7 +24007,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44357</v>
+        <v>44363</v>
       </c>
       <c r="E296" t="n">
         <v>4</v>
@@ -24035,7 +24035,7 @@
       </c>
       <c r="K296" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L296" t="inlineStr">
@@ -24047,13 +24047,13 @@
         <v>20</v>
       </c>
       <c r="N296" t="n">
-        <v>115000</v>
+        <v>125000</v>
       </c>
       <c r="O296" t="n">
-        <v>120000</v>
+        <v>130000</v>
       </c>
       <c r="P296" t="n">
-        <v>117500</v>
+        <v>127500</v>
       </c>
       <c r="Q296" t="inlineStr">
         <is>
@@ -24066,7 +24066,7 @@
         </is>
       </c>
       <c r="S296" t="n">
-        <v>294</v>
+        <v>319</v>
       </c>
       <c r="T296" t="n">
         <v>400</v>
@@ -24087,7 +24087,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E297" t="n">
         <v>4</v>
@@ -24115,25 +24115,25 @@
       </c>
       <c r="K297" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L297" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M297" t="n">
         <v>20</v>
       </c>
       <c r="N297" t="n">
-        <v>145000</v>
+        <v>495000</v>
       </c>
       <c r="O297" t="n">
-        <v>150000</v>
+        <v>500000</v>
       </c>
       <c r="P297" t="n">
-        <v>147500</v>
+        <v>497500</v>
       </c>
       <c r="Q297" t="inlineStr">
         <is>
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="S297" t="n">
-        <v>369</v>
+        <v>1244</v>
       </c>
       <c r="T297" t="n">
         <v>400</v>
@@ -24167,7 +24167,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E298" t="n">
         <v>4</v>
@@ -24195,25 +24195,25 @@
       </c>
       <c r="K298" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L298" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M298" t="n">
         <v>20</v>
       </c>
       <c r="N298" t="n">
-        <v>115000</v>
+        <v>475000</v>
       </c>
       <c r="O298" t="n">
-        <v>120000</v>
+        <v>480000</v>
       </c>
       <c r="P298" t="n">
-        <v>117500</v>
+        <v>477500</v>
       </c>
       <c r="Q298" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         </is>
       </c>
       <c r="S298" t="n">
-        <v>294</v>
+        <v>1194</v>
       </c>
       <c r="T298" t="n">
         <v>400</v>
@@ -24247,7 +24247,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E299" t="n">
         <v>4</v>
@@ -24287,13 +24287,13 @@
         <v>20</v>
       </c>
       <c r="N299" t="n">
-        <v>290000</v>
+        <v>145000</v>
       </c>
       <c r="O299" t="n">
-        <v>300000</v>
+        <v>150000</v>
       </c>
       <c r="P299" t="n">
-        <v>295000</v>
+        <v>147500</v>
       </c>
       <c r="Q299" t="inlineStr">
         <is>
@@ -24306,7 +24306,7 @@
         </is>
       </c>
       <c r="S299" t="n">
-        <v>738</v>
+        <v>369</v>
       </c>
       <c r="T299" t="n">
         <v>400</v>
@@ -24327,7 +24327,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E300" t="n">
         <v>4</v>
@@ -24355,25 +24355,25 @@
       </c>
       <c r="K300" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L300" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M300" t="n">
         <v>20</v>
       </c>
       <c r="N300" t="n">
-        <v>290000</v>
+        <v>115000</v>
       </c>
       <c r="O300" t="n">
-        <v>300000</v>
+        <v>120000</v>
       </c>
       <c r="P300" t="n">
-        <v>295000</v>
+        <v>117500</v>
       </c>
       <c r="Q300" t="inlineStr">
         <is>
@@ -24386,7 +24386,7 @@
         </is>
       </c>
       <c r="S300" t="n">
-        <v>738</v>
+        <v>294</v>
       </c>
       <c r="T300" t="n">
         <v>400</v>
@@ -24407,7 +24407,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E301" t="n">
         <v>4</v>
@@ -24435,7 +24435,7 @@
       </c>
       <c r="K301" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L301" t="inlineStr">
@@ -24447,13 +24447,13 @@
         <v>20</v>
       </c>
       <c r="N301" t="n">
-        <v>320000</v>
+        <v>145000</v>
       </c>
       <c r="O301" t="n">
-        <v>330000</v>
+        <v>150000</v>
       </c>
       <c r="P301" t="n">
-        <v>325000</v>
+        <v>147500</v>
       </c>
       <c r="Q301" t="inlineStr">
         <is>
@@ -24466,7 +24466,7 @@
         </is>
       </c>
       <c r="S301" t="n">
-        <v>812</v>
+        <v>369</v>
       </c>
       <c r="T301" t="n">
         <v>400</v>
@@ -24487,7 +24487,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E302" t="n">
         <v>4</v>
@@ -24515,7 +24515,7 @@
       </c>
       <c r="K302" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L302" t="inlineStr">
@@ -24527,13 +24527,13 @@
         <v>20</v>
       </c>
       <c r="N302" t="n">
-        <v>280000</v>
+        <v>115000</v>
       </c>
       <c r="O302" t="n">
-        <v>290000</v>
+        <v>120000</v>
       </c>
       <c r="P302" t="n">
-        <v>285000</v>
+        <v>117500</v>
       </c>
       <c r="Q302" t="inlineStr">
         <is>
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="S302" t="n">
-        <v>712</v>
+        <v>294</v>
       </c>
       <c r="T302" t="n">
         <v>400</v>
@@ -24567,7 +24567,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E303" t="n">
         <v>4</v>
@@ -24595,7 +24595,7 @@
       </c>
       <c r="K303" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L303" t="inlineStr">
@@ -24604,16 +24604,16 @@
         </is>
       </c>
       <c r="M303" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N303" t="n">
-        <v>460000</v>
+        <v>290000</v>
       </c>
       <c r="O303" t="n">
-        <v>470000</v>
+        <v>300000</v>
       </c>
       <c r="P303" t="n">
-        <v>465000</v>
+        <v>295000</v>
       </c>
       <c r="Q303" t="inlineStr">
         <is>
@@ -24626,7 +24626,7 @@
         </is>
       </c>
       <c r="S303" t="n">
-        <v>1162</v>
+        <v>738</v>
       </c>
       <c r="T303" t="n">
         <v>400</v>
@@ -24647,7 +24647,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44314</v>
+        <v>44328</v>
       </c>
       <c r="E304" t="n">
         <v>4</v>
@@ -24675,7 +24675,7 @@
       </c>
       <c r="K304" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L304" t="inlineStr">
@@ -24687,13 +24687,13 @@
         <v>20</v>
       </c>
       <c r="N304" t="n">
-        <v>355000</v>
+        <v>290000</v>
       </c>
       <c r="O304" t="n">
-        <v>360000</v>
+        <v>300000</v>
       </c>
       <c r="P304" t="n">
-        <v>357500</v>
+        <v>295000</v>
       </c>
       <c r="Q304" t="inlineStr">
         <is>
@@ -24706,7 +24706,7 @@
         </is>
       </c>
       <c r="S304" t="n">
-        <v>894</v>
+        <v>738</v>
       </c>
       <c r="T304" t="n">
         <v>400</v>
@@ -24727,7 +24727,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44314</v>
+        <v>44321</v>
       </c>
       <c r="E305" t="n">
         <v>4</v>
@@ -24760,20 +24760,20 @@
       </c>
       <c r="L305" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M305" t="n">
         <v>20</v>
       </c>
       <c r="N305" t="n">
-        <v>325000</v>
+        <v>320000</v>
       </c>
       <c r="O305" t="n">
         <v>330000</v>
       </c>
       <c r="P305" t="n">
-        <v>327500</v>
+        <v>325000</v>
       </c>
       <c r="Q305" t="inlineStr">
         <is>
@@ -24786,7 +24786,7 @@
         </is>
       </c>
       <c r="S305" t="n">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="T305" t="n">
         <v>400</v>
@@ -24807,7 +24807,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44314</v>
+        <v>44321</v>
       </c>
       <c r="E306" t="n">
         <v>4</v>
@@ -24835,25 +24835,25 @@
       </c>
       <c r="K306" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L306" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M306" t="n">
         <v>20</v>
       </c>
       <c r="N306" t="n">
-        <v>355000</v>
+        <v>280000</v>
       </c>
       <c r="O306" t="n">
-        <v>360000</v>
+        <v>290000</v>
       </c>
       <c r="P306" t="n">
-        <v>357500</v>
+        <v>285000</v>
       </c>
       <c r="Q306" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         </is>
       </c>
       <c r="S306" t="n">
-        <v>894</v>
+        <v>712</v>
       </c>
       <c r="T306" t="n">
         <v>400</v>
@@ -24887,7 +24887,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44314</v>
+        <v>44321</v>
       </c>
       <c r="E307" t="n">
         <v>4</v>
@@ -24915,25 +24915,25 @@
       </c>
       <c r="K307" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L307" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M307" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N307" t="n">
-        <v>325000</v>
+        <v>460000</v>
       </c>
       <c r="O307" t="n">
-        <v>330000</v>
+        <v>470000</v>
       </c>
       <c r="P307" t="n">
-        <v>327500</v>
+        <v>465000</v>
       </c>
       <c r="Q307" t="inlineStr">
         <is>
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="S307" t="n">
-        <v>819</v>
+        <v>1162</v>
       </c>
       <c r="T307" t="n">
         <v>400</v>
@@ -24995,7 +24995,7 @@
       </c>
       <c r="K308" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L308" t="inlineStr">
@@ -25007,13 +25007,13 @@
         <v>20</v>
       </c>
       <c r="N308" t="n">
-        <v>470000</v>
+        <v>355000</v>
       </c>
       <c r="O308" t="n">
-        <v>480000</v>
+        <v>360000</v>
       </c>
       <c r="P308" t="n">
-        <v>475000</v>
+        <v>357500</v>
       </c>
       <c r="Q308" t="inlineStr">
         <is>
@@ -25026,7 +25026,7 @@
         </is>
       </c>
       <c r="S308" t="n">
-        <v>1188</v>
+        <v>894</v>
       </c>
       <c r="T308" t="n">
         <v>400</v>
@@ -25047,7 +25047,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E309" t="n">
         <v>4</v>
@@ -25075,25 +25075,25 @@
       </c>
       <c r="K309" t="inlineStr">
         <is>
-          <t>Cara cara</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L309" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M309" t="n">
         <v>20</v>
       </c>
       <c r="N309" t="n">
-        <v>125000</v>
+        <v>325000</v>
       </c>
       <c r="O309" t="n">
-        <v>130000</v>
+        <v>330000</v>
       </c>
       <c r="P309" t="n">
-        <v>127500</v>
+        <v>327500</v>
       </c>
       <c r="Q309" t="inlineStr">
         <is>
@@ -25106,7 +25106,7 @@
         </is>
       </c>
       <c r="S309" t="n">
-        <v>319</v>
+        <v>819</v>
       </c>
       <c r="T309" t="n">
         <v>400</v>
@@ -25127,7 +25127,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E310" t="n">
         <v>4</v>
@@ -25155,7 +25155,7 @@
       </c>
       <c r="K310" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L310" t="inlineStr">
@@ -25167,13 +25167,13 @@
         <v>20</v>
       </c>
       <c r="N310" t="n">
-        <v>100000</v>
+        <v>355000</v>
       </c>
       <c r="O310" t="n">
-        <v>110000</v>
+        <v>360000</v>
       </c>
       <c r="P310" t="n">
-        <v>105000</v>
+        <v>357500</v>
       </c>
       <c r="Q310" t="inlineStr">
         <is>
@@ -25186,7 +25186,7 @@
         </is>
       </c>
       <c r="S310" t="n">
-        <v>262</v>
+        <v>894</v>
       </c>
       <c r="T310" t="n">
         <v>400</v>
@@ -25207,7 +25207,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E311" t="n">
         <v>4</v>
@@ -25235,7 +25235,7 @@
       </c>
       <c r="K311" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L311" t="inlineStr">
@@ -25247,13 +25247,13 @@
         <v>20</v>
       </c>
       <c r="N311" t="n">
-        <v>80000</v>
+        <v>325000</v>
       </c>
       <c r="O311" t="n">
-        <v>90000</v>
+        <v>330000</v>
       </c>
       <c r="P311" t="n">
-        <v>85000</v>
+        <v>327500</v>
       </c>
       <c r="Q311" t="inlineStr">
         <is>
@@ -25266,7 +25266,7 @@
         </is>
       </c>
       <c r="S311" t="n">
-        <v>212</v>
+        <v>819</v>
       </c>
       <c r="T311" t="n">
         <v>400</v>
@@ -25287,7 +25287,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E312" t="n">
         <v>4</v>
@@ -25315,7 +25315,7 @@
       </c>
       <c r="K312" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L312" t="inlineStr">
@@ -25327,13 +25327,13 @@
         <v>20</v>
       </c>
       <c r="N312" t="n">
-        <v>100000</v>
+        <v>470000</v>
       </c>
       <c r="O312" t="n">
-        <v>110000</v>
+        <v>480000</v>
       </c>
       <c r="P312" t="n">
-        <v>105000</v>
+        <v>475000</v>
       </c>
       <c r="Q312" t="inlineStr">
         <is>
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="S312" t="n">
-        <v>262</v>
+        <v>1188</v>
       </c>
       <c r="T312" t="n">
         <v>400</v>
@@ -25395,25 +25395,25 @@
       </c>
       <c r="K313" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Cara cara</t>
         </is>
       </c>
       <c r="L313" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M313" t="n">
         <v>20</v>
       </c>
       <c r="N313" t="n">
-        <v>80000</v>
+        <v>125000</v>
       </c>
       <c r="O313" t="n">
-        <v>90000</v>
+        <v>130000</v>
       </c>
       <c r="P313" t="n">
-        <v>85000</v>
+        <v>127500</v>
       </c>
       <c r="Q313" t="inlineStr">
         <is>
@@ -25426,7 +25426,7 @@
         </is>
       </c>
       <c r="S313" t="n">
-        <v>212</v>
+        <v>319</v>
       </c>
       <c r="T313" t="n">
         <v>400</v>
@@ -25475,7 +25475,7 @@
       </c>
       <c r="K314" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L314" t="inlineStr">
@@ -25555,7 +25555,7 @@
       </c>
       <c r="K315" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L315" t="inlineStr">
@@ -25607,7 +25607,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44461</v>
+        <v>44392</v>
       </c>
       <c r="E316" t="n">
         <v>4</v>
@@ -25635,7 +25635,7 @@
       </c>
       <c r="K316" t="inlineStr">
         <is>
-          <t>Cara cara</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L316" t="inlineStr">
@@ -25647,13 +25647,13 @@
         <v>20</v>
       </c>
       <c r="N316" t="n">
+        <v>100000</v>
+      </c>
+      <c r="O316" t="n">
         <v>110000</v>
       </c>
-      <c r="O316" t="n">
-        <v>120000</v>
-      </c>
       <c r="P316" t="n">
-        <v>115000</v>
+        <v>105000</v>
       </c>
       <c r="Q316" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         </is>
       </c>
       <c r="S316" t="n">
-        <v>288</v>
+        <v>262</v>
       </c>
       <c r="T316" t="n">
         <v>400</v>
@@ -25687,7 +25687,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44461</v>
+        <v>44392</v>
       </c>
       <c r="E317" t="n">
         <v>4</v>
@@ -25715,7 +25715,7 @@
       </c>
       <c r="K317" t="inlineStr">
         <is>
-          <t>Cara cara</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L317" t="inlineStr">
@@ -25727,13 +25727,13 @@
         <v>20</v>
       </c>
       <c r="N317" t="n">
+        <v>80000</v>
+      </c>
+      <c r="O317" t="n">
         <v>90000</v>
       </c>
-      <c r="O317" t="n">
-        <v>100000</v>
-      </c>
       <c r="P317" t="n">
-        <v>95000</v>
+        <v>85000</v>
       </c>
       <c r="Q317" t="inlineStr">
         <is>
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="S317" t="n">
-        <v>238</v>
+        <v>212</v>
       </c>
       <c r="T317" t="n">
         <v>400</v>
@@ -25767,7 +25767,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44461</v>
+        <v>44392</v>
       </c>
       <c r="E318" t="n">
         <v>4</v>
@@ -25795,7 +25795,7 @@
       </c>
       <c r="K318" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L318" t="inlineStr">
@@ -25847,7 +25847,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44461</v>
+        <v>44392</v>
       </c>
       <c r="E319" t="n">
         <v>4</v>
@@ -25875,7 +25875,7 @@
       </c>
       <c r="K319" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L319" t="inlineStr">
@@ -25927,7 +25927,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44286</v>
+        <v>44461</v>
       </c>
       <c r="E320" t="n">
         <v>4</v>
@@ -25955,25 +25955,25 @@
       </c>
       <c r="K320" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Cara cara</t>
         </is>
       </c>
       <c r="L320" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M320" t="n">
         <v>20</v>
       </c>
       <c r="N320" t="n">
-        <v>475000</v>
+        <v>110000</v>
       </c>
       <c r="O320" t="n">
-        <v>480000</v>
+        <v>120000</v>
       </c>
       <c r="P320" t="n">
-        <v>477500</v>
+        <v>115000</v>
       </c>
       <c r="Q320" t="inlineStr">
         <is>
@@ -25986,7 +25986,7 @@
         </is>
       </c>
       <c r="S320" t="n">
-        <v>1194</v>
+        <v>288</v>
       </c>
       <c r="T320" t="n">
         <v>400</v>
@@ -26007,68 +26007,388 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
+        <v>44461</v>
+      </c>
+      <c r="E321" t="n">
+        <v>4</v>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G321" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I321" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J321" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>Cara cara</t>
+        </is>
+      </c>
+      <c r="L321" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M321" t="n">
+        <v>20</v>
+      </c>
+      <c r="N321" t="n">
+        <v>90000</v>
+      </c>
+      <c r="O321" t="n">
+        <v>100000</v>
+      </c>
+      <c r="P321" t="n">
+        <v>95000</v>
+      </c>
+      <c r="Q321" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R321" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S321" t="n">
+        <v>238</v>
+      </c>
+      <c r="T321" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>2</v>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D322" s="2" t="n">
+        <v>44461</v>
+      </c>
+      <c r="E322" t="n">
+        <v>4</v>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G322" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H322" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I322" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J322" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>Lane Late</t>
+        </is>
+      </c>
+      <c r="L322" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M322" t="n">
+        <v>20</v>
+      </c>
+      <c r="N322" t="n">
+        <v>100000</v>
+      </c>
+      <c r="O322" t="n">
+        <v>110000</v>
+      </c>
+      <c r="P322" t="n">
+        <v>105000</v>
+      </c>
+      <c r="Q322" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R322" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S322" t="n">
+        <v>262</v>
+      </c>
+      <c r="T322" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>2</v>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D323" s="2" t="n">
+        <v>44461</v>
+      </c>
+      <c r="E323" t="n">
+        <v>4</v>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G323" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H323" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I323" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J323" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>Lane Late</t>
+        </is>
+      </c>
+      <c r="L323" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M323" t="n">
+        <v>20</v>
+      </c>
+      <c r="N323" t="n">
+        <v>80000</v>
+      </c>
+      <c r="O323" t="n">
+        <v>90000</v>
+      </c>
+      <c r="P323" t="n">
+        <v>85000</v>
+      </c>
+      <c r="Q323" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R323" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S323" t="n">
+        <v>212</v>
+      </c>
+      <c r="T323" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>2</v>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D324" s="2" t="n">
         <v>44286</v>
       </c>
-      <c r="E321" t="n">
-        <v>4</v>
-      </c>
-      <c r="F321" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G321" t="n">
-        <v>100102</v>
-      </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>Cítricos</t>
-        </is>
-      </c>
-      <c r="I321" t="n">
-        <v>100102005</v>
-      </c>
-      <c r="J321" t="inlineStr">
-        <is>
-          <t>Naranja</t>
-        </is>
-      </c>
-      <c r="K321" t="inlineStr">
+      <c r="E324" t="n">
+        <v>4</v>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G324" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H324" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I324" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J324" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K324" t="inlineStr">
         <is>
           <t>Valencia</t>
         </is>
       </c>
-      <c r="L321" t="inlineStr">
+      <c r="L324" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M324" t="n">
+        <v>20</v>
+      </c>
+      <c r="N324" t="n">
+        <v>475000</v>
+      </c>
+      <c r="O324" t="n">
+        <v>480000</v>
+      </c>
+      <c r="P324" t="n">
+        <v>477500</v>
+      </c>
+      <c r="Q324" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R324" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S324" t="n">
+        <v>1194</v>
+      </c>
+      <c r="T324" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>2</v>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D325" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="E325" t="n">
+        <v>4</v>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G325" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H325" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I325" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J325" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="L325" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M321" t="n">
-        <v>20</v>
-      </c>
-      <c r="N321" t="n">
+      <c r="M325" t="n">
+        <v>20</v>
+      </c>
+      <c r="N325" t="n">
         <v>455000</v>
       </c>
-      <c r="O321" t="n">
+      <c r="O325" t="n">
         <v>460000</v>
       </c>
-      <c r="P321" t="n">
+      <c r="P325" t="n">
         <v>457500</v>
       </c>
-      <c r="Q321" t="inlineStr">
-        <is>
-          <t>$/bins (400 kilos)</t>
-        </is>
-      </c>
-      <c r="R321" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="S321" t="n">
+      <c r="Q325" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R325" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S325" t="n">
         <v>1144</v>
       </c>
-      <c r="T321" t="n">
+      <c r="T325" t="n">
         <v>400</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Comercializadora del Agro de Limarí - Naranja.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Comercializadora del Agro de Limarí - Naranja.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T325"/>
+  <dimension ref="A1:T330"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17767,7 +17767,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44391</v>
+        <v>44489</v>
       </c>
       <c r="E218" t="n">
         <v>4</v>
@@ -17795,7 +17795,7 @@
       </c>
       <c r="K218" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Cara cara</t>
         </is>
       </c>
       <c r="L218" t="inlineStr">
@@ -17804,16 +17804,16 @@
         </is>
       </c>
       <c r="M218" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N218" t="n">
-        <v>100000</v>
+        <v>145000</v>
       </c>
       <c r="O218" t="n">
-        <v>110000</v>
+        <v>150000</v>
       </c>
       <c r="P218" t="n">
-        <v>105000</v>
+        <v>147500</v>
       </c>
       <c r="Q218" t="inlineStr">
         <is>
@@ -17826,7 +17826,7 @@
         </is>
       </c>
       <c r="S218" t="n">
-        <v>262</v>
+        <v>369</v>
       </c>
       <c r="T218" t="n">
         <v>400</v>
@@ -17847,7 +17847,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44391</v>
+        <v>44489</v>
       </c>
       <c r="E219" t="n">
         <v>4</v>
@@ -17875,25 +17875,25 @@
       </c>
       <c r="K219" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L219" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M219" t="n">
         <v>20</v>
       </c>
       <c r="N219" t="n">
-        <v>80000</v>
+        <v>135000</v>
       </c>
       <c r="O219" t="n">
-        <v>90000</v>
+        <v>140000</v>
       </c>
       <c r="P219" t="n">
-        <v>85000</v>
+        <v>137500</v>
       </c>
       <c r="Q219" t="inlineStr">
         <is>
@@ -17906,7 +17906,7 @@
         </is>
       </c>
       <c r="S219" t="n">
-        <v>212</v>
+        <v>344</v>
       </c>
       <c r="T219" t="n">
         <v>400</v>
@@ -17927,7 +17927,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44391</v>
+        <v>44489</v>
       </c>
       <c r="E220" t="n">
         <v>4</v>
@@ -17955,25 +17955,25 @@
       </c>
       <c r="K220" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L220" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M220" t="n">
         <v>20</v>
       </c>
       <c r="N220" t="n">
-        <v>100000</v>
+        <v>105000</v>
       </c>
       <c r="O220" t="n">
         <v>110000</v>
       </c>
       <c r="P220" t="n">
-        <v>105000</v>
+        <v>107500</v>
       </c>
       <c r="Q220" t="inlineStr">
         <is>
@@ -17986,7 +17986,7 @@
         </is>
       </c>
       <c r="S220" t="n">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="T220" t="n">
         <v>400</v>
@@ -18007,7 +18007,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44391</v>
+        <v>44489</v>
       </c>
       <c r="E221" t="n">
         <v>4</v>
@@ -18040,20 +18040,20 @@
       </c>
       <c r="L221" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M221" t="n">
         <v>20</v>
       </c>
       <c r="N221" t="n">
-        <v>80000</v>
+        <v>135000</v>
       </c>
       <c r="O221" t="n">
-        <v>90000</v>
+        <v>140000</v>
       </c>
       <c r="P221" t="n">
-        <v>85000</v>
+        <v>137500</v>
       </c>
       <c r="Q221" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         </is>
       </c>
       <c r="S221" t="n">
-        <v>212</v>
+        <v>344</v>
       </c>
       <c r="T221" t="n">
         <v>400</v>
@@ -18087,7 +18087,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44335</v>
+        <v>44489</v>
       </c>
       <c r="E222" t="n">
         <v>4</v>
@@ -18115,25 +18115,25 @@
       </c>
       <c r="K222" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L222" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M222" t="n">
         <v>20</v>
       </c>
       <c r="N222" t="n">
-        <v>250000</v>
+        <v>105000</v>
       </c>
       <c r="O222" t="n">
-        <v>255000</v>
+        <v>110000</v>
       </c>
       <c r="P222" t="n">
-        <v>252500</v>
+        <v>107500</v>
       </c>
       <c r="Q222" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="S222" t="n">
-        <v>631</v>
+        <v>269</v>
       </c>
       <c r="T222" t="n">
         <v>400</v>
@@ -18167,7 +18167,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="E223" t="n">
         <v>4</v>
@@ -18195,7 +18195,7 @@
       </c>
       <c r="K223" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L223" t="inlineStr">
@@ -18207,13 +18207,13 @@
         <v>20</v>
       </c>
       <c r="N223" t="n">
-        <v>250000</v>
+        <v>100000</v>
       </c>
       <c r="O223" t="n">
-        <v>255000</v>
+        <v>110000</v>
       </c>
       <c r="P223" t="n">
-        <v>252500</v>
+        <v>105000</v>
       </c>
       <c r="Q223" t="inlineStr">
         <is>
@@ -18226,7 +18226,7 @@
         </is>
       </c>
       <c r="S223" t="n">
-        <v>631</v>
+        <v>262</v>
       </c>
       <c r="T223" t="n">
         <v>400</v>
@@ -18247,7 +18247,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44231</v>
+        <v>44391</v>
       </c>
       <c r="E224" t="n">
         <v>4</v>
@@ -18275,25 +18275,25 @@
       </c>
       <c r="K224" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L224" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M224" t="n">
         <v>20</v>
       </c>
       <c r="N224" t="n">
-        <v>485000</v>
+        <v>80000</v>
       </c>
       <c r="O224" t="n">
-        <v>490000</v>
+        <v>90000</v>
       </c>
       <c r="P224" t="n">
-        <v>487500</v>
+        <v>85000</v>
       </c>
       <c r="Q224" t="inlineStr">
         <is>
@@ -18306,7 +18306,7 @@
         </is>
       </c>
       <c r="S224" t="n">
-        <v>1219</v>
+        <v>212</v>
       </c>
       <c r="T224" t="n">
         <v>400</v>
@@ -18327,7 +18327,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44231</v>
+        <v>44391</v>
       </c>
       <c r="E225" t="n">
         <v>4</v>
@@ -18355,25 +18355,25 @@
       </c>
       <c r="K225" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L225" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M225" t="n">
         <v>20</v>
       </c>
       <c r="N225" t="n">
-        <v>455000</v>
+        <v>100000</v>
       </c>
       <c r="O225" t="n">
-        <v>460000</v>
+        <v>110000</v>
       </c>
       <c r="P225" t="n">
-        <v>457500</v>
+        <v>105000</v>
       </c>
       <c r="Q225" t="inlineStr">
         <is>
@@ -18386,7 +18386,7 @@
         </is>
       </c>
       <c r="S225" t="n">
-        <v>1144</v>
+        <v>262</v>
       </c>
       <c r="T225" t="n">
         <v>400</v>
@@ -18407,7 +18407,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44258</v>
+        <v>44391</v>
       </c>
       <c r="E226" t="n">
         <v>4</v>
@@ -18435,25 +18435,25 @@
       </c>
       <c r="K226" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L226" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M226" t="n">
         <v>20</v>
       </c>
       <c r="N226" t="n">
-        <v>455000</v>
+        <v>80000</v>
       </c>
       <c r="O226" t="n">
-        <v>460000</v>
+        <v>90000</v>
       </c>
       <c r="P226" t="n">
-        <v>457500</v>
+        <v>85000</v>
       </c>
       <c r="Q226" t="inlineStr">
         <is>
@@ -18466,7 +18466,7 @@
         </is>
       </c>
       <c r="S226" t="n">
-        <v>1144</v>
+        <v>212</v>
       </c>
       <c r="T226" t="n">
         <v>400</v>
@@ -18487,7 +18487,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44258</v>
+        <v>44335</v>
       </c>
       <c r="E227" t="n">
         <v>4</v>
@@ -18515,25 +18515,25 @@
       </c>
       <c r="K227" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L227" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M227" t="n">
         <v>20</v>
       </c>
       <c r="N227" t="n">
-        <v>415000</v>
+        <v>250000</v>
       </c>
       <c r="O227" t="n">
-        <v>420000</v>
+        <v>255000</v>
       </c>
       <c r="P227" t="n">
-        <v>417500</v>
+        <v>252500</v>
       </c>
       <c r="Q227" t="inlineStr">
         <is>
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="S227" t="n">
-        <v>1044</v>
+        <v>631</v>
       </c>
       <c r="T227" t="n">
         <v>400</v>
@@ -18567,7 +18567,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44475</v>
+        <v>44335</v>
       </c>
       <c r="E228" t="n">
         <v>4</v>
@@ -18595,7 +18595,7 @@
       </c>
       <c r="K228" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L228" t="inlineStr">
@@ -18607,13 +18607,13 @@
         <v>20</v>
       </c>
       <c r="N228" t="n">
-        <v>125000</v>
+        <v>250000</v>
       </c>
       <c r="O228" t="n">
-        <v>130000</v>
+        <v>255000</v>
       </c>
       <c r="P228" t="n">
-        <v>127500</v>
+        <v>252500</v>
       </c>
       <c r="Q228" t="inlineStr">
         <is>
@@ -18626,7 +18626,7 @@
         </is>
       </c>
       <c r="S228" t="n">
-        <v>319</v>
+        <v>631</v>
       </c>
       <c r="T228" t="n">
         <v>400</v>
@@ -18647,7 +18647,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44475</v>
+        <v>44231</v>
       </c>
       <c r="E229" t="n">
         <v>4</v>
@@ -18675,25 +18675,25 @@
       </c>
       <c r="K229" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L229" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M229" t="n">
         <v>20</v>
       </c>
       <c r="N229" t="n">
-        <v>95000</v>
+        <v>485000</v>
       </c>
       <c r="O229" t="n">
-        <v>100000</v>
+        <v>490000</v>
       </c>
       <c r="P229" t="n">
-        <v>97500</v>
+        <v>487500</v>
       </c>
       <c r="Q229" t="inlineStr">
         <is>
@@ -18706,7 +18706,7 @@
         </is>
       </c>
       <c r="S229" t="n">
-        <v>244</v>
+        <v>1219</v>
       </c>
       <c r="T229" t="n">
         <v>400</v>
@@ -18727,7 +18727,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44475</v>
+        <v>44231</v>
       </c>
       <c r="E230" t="n">
         <v>4</v>
@@ -18755,25 +18755,25 @@
       </c>
       <c r="K230" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L230" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M230" t="n">
         <v>20</v>
       </c>
       <c r="N230" t="n">
-        <v>125000</v>
+        <v>455000</v>
       </c>
       <c r="O230" t="n">
-        <v>130000</v>
+        <v>460000</v>
       </c>
       <c r="P230" t="n">
-        <v>127500</v>
+        <v>457500</v>
       </c>
       <c r="Q230" t="inlineStr">
         <is>
@@ -18786,7 +18786,7 @@
         </is>
       </c>
       <c r="S230" t="n">
-        <v>319</v>
+        <v>1144</v>
       </c>
       <c r="T230" t="n">
         <v>400</v>
@@ -18807,7 +18807,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44475</v>
+        <v>44258</v>
       </c>
       <c r="E231" t="n">
         <v>4</v>
@@ -18835,25 +18835,25 @@
       </c>
       <c r="K231" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L231" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M231" t="n">
         <v>20</v>
       </c>
       <c r="N231" t="n">
-        <v>95000</v>
+        <v>455000</v>
       </c>
       <c r="O231" t="n">
-        <v>100000</v>
+        <v>460000</v>
       </c>
       <c r="P231" t="n">
-        <v>97500</v>
+        <v>457500</v>
       </c>
       <c r="Q231" t="inlineStr">
         <is>
@@ -18866,7 +18866,7 @@
         </is>
       </c>
       <c r="S231" t="n">
-        <v>244</v>
+        <v>1144</v>
       </c>
       <c r="T231" t="n">
         <v>400</v>
@@ -18887,7 +18887,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44252</v>
+        <v>44258</v>
       </c>
       <c r="E232" t="n">
         <v>4</v>
@@ -18920,20 +18920,20 @@
       </c>
       <c r="L232" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M232" t="n">
         <v>20</v>
       </c>
       <c r="N232" t="n">
-        <v>455000</v>
+        <v>415000</v>
       </c>
       <c r="O232" t="n">
-        <v>460000</v>
+        <v>420000</v>
       </c>
       <c r="P232" t="n">
-        <v>457500</v>
+        <v>417500</v>
       </c>
       <c r="Q232" t="inlineStr">
         <is>
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="S232" t="n">
-        <v>1144</v>
+        <v>1044</v>
       </c>
       <c r="T232" t="n">
         <v>400</v>
@@ -18967,7 +18967,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44252</v>
+        <v>44475</v>
       </c>
       <c r="E233" t="n">
         <v>4</v>
@@ -18995,25 +18995,25 @@
       </c>
       <c r="K233" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L233" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M233" t="n">
         <v>20</v>
       </c>
       <c r="N233" t="n">
-        <v>41500</v>
+        <v>125000</v>
       </c>
       <c r="O233" t="n">
-        <v>420000</v>
+        <v>130000</v>
       </c>
       <c r="P233" t="n">
-        <v>230750</v>
+        <v>127500</v>
       </c>
       <c r="Q233" t="inlineStr">
         <is>
@@ -19026,7 +19026,7 @@
         </is>
       </c>
       <c r="S233" t="n">
-        <v>577</v>
+        <v>319</v>
       </c>
       <c r="T233" t="n">
         <v>400</v>
@@ -19047,7 +19047,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44300</v>
+        <v>44475</v>
       </c>
       <c r="E234" t="n">
         <v>4</v>
@@ -19075,25 +19075,25 @@
       </c>
       <c r="K234" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L234" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M234" t="n">
         <v>20</v>
       </c>
       <c r="N234" t="n">
-        <v>495000</v>
+        <v>95000</v>
       </c>
       <c r="O234" t="n">
-        <v>500000</v>
+        <v>100000</v>
       </c>
       <c r="P234" t="n">
-        <v>497500</v>
+        <v>97500</v>
       </c>
       <c r="Q234" t="inlineStr">
         <is>
@@ -19106,7 +19106,7 @@
         </is>
       </c>
       <c r="S234" t="n">
-        <v>1244</v>
+        <v>244</v>
       </c>
       <c r="T234" t="n">
         <v>400</v>
@@ -19127,7 +19127,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44300</v>
+        <v>44475</v>
       </c>
       <c r="E235" t="n">
         <v>4</v>
@@ -19155,7 +19155,7 @@
       </c>
       <c r="K235" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L235" t="inlineStr">
@@ -19167,13 +19167,13 @@
         <v>20</v>
       </c>
       <c r="N235" t="n">
-        <v>475000</v>
+        <v>125000</v>
       </c>
       <c r="O235" t="n">
-        <v>480000</v>
+        <v>130000</v>
       </c>
       <c r="P235" t="n">
-        <v>477500</v>
+        <v>127500</v>
       </c>
       <c r="Q235" t="inlineStr">
         <is>
@@ -19186,7 +19186,7 @@
         </is>
       </c>
       <c r="S235" t="n">
-        <v>1194</v>
+        <v>319</v>
       </c>
       <c r="T235" t="n">
         <v>400</v>
@@ -19207,7 +19207,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44349</v>
+        <v>44475</v>
       </c>
       <c r="E236" t="n">
         <v>4</v>
@@ -19235,25 +19235,25 @@
       </c>
       <c r="K236" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L236" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M236" t="n">
         <v>20</v>
       </c>
       <c r="N236" t="n">
-        <v>200000</v>
+        <v>95000</v>
       </c>
       <c r="O236" t="n">
-        <v>210000</v>
+        <v>100000</v>
       </c>
       <c r="P236" t="n">
-        <v>205000</v>
+        <v>97500</v>
       </c>
       <c r="Q236" t="inlineStr">
         <is>
@@ -19266,7 +19266,7 @@
         </is>
       </c>
       <c r="S236" t="n">
-        <v>512</v>
+        <v>244</v>
       </c>
       <c r="T236" t="n">
         <v>400</v>
@@ -19287,7 +19287,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44349</v>
+        <v>44252</v>
       </c>
       <c r="E237" t="n">
         <v>4</v>
@@ -19315,25 +19315,25 @@
       </c>
       <c r="K237" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L237" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M237" t="n">
         <v>20</v>
       </c>
       <c r="N237" t="n">
-        <v>170000</v>
+        <v>455000</v>
       </c>
       <c r="O237" t="n">
-        <v>180000</v>
+        <v>460000</v>
       </c>
       <c r="P237" t="n">
-        <v>175000</v>
+        <v>457500</v>
       </c>
       <c r="Q237" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="S237" t="n">
-        <v>438</v>
+        <v>1144</v>
       </c>
       <c r="T237" t="n">
         <v>400</v>
@@ -19367,7 +19367,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44349</v>
+        <v>44252</v>
       </c>
       <c r="E238" t="n">
         <v>4</v>
@@ -19395,25 +19395,25 @@
       </c>
       <c r="K238" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L238" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M238" t="n">
         <v>20</v>
       </c>
       <c r="N238" t="n">
-        <v>200000</v>
+        <v>41500</v>
       </c>
       <c r="O238" t="n">
-        <v>210000</v>
+        <v>420000</v>
       </c>
       <c r="P238" t="n">
-        <v>205000</v>
+        <v>230750</v>
       </c>
       <c r="Q238" t="inlineStr">
         <is>
@@ -19426,7 +19426,7 @@
         </is>
       </c>
       <c r="S238" t="n">
-        <v>512</v>
+        <v>577</v>
       </c>
       <c r="T238" t="n">
         <v>400</v>
@@ -19447,7 +19447,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44349</v>
+        <v>44300</v>
       </c>
       <c r="E239" t="n">
         <v>4</v>
@@ -19475,25 +19475,25 @@
       </c>
       <c r="K239" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L239" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M239" t="n">
         <v>20</v>
       </c>
       <c r="N239" t="n">
-        <v>170000</v>
+        <v>495000</v>
       </c>
       <c r="O239" t="n">
-        <v>180000</v>
+        <v>500000</v>
       </c>
       <c r="P239" t="n">
-        <v>175000</v>
+        <v>497500</v>
       </c>
       <c r="Q239" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         </is>
       </c>
       <c r="S239" t="n">
-        <v>438</v>
+        <v>1244</v>
       </c>
       <c r="T239" t="n">
         <v>400</v>
@@ -19527,7 +19527,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44350</v>
+        <v>44300</v>
       </c>
       <c r="E240" t="n">
         <v>4</v>
@@ -19555,7 +19555,7 @@
       </c>
       <c r="K240" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L240" t="inlineStr">
@@ -19567,13 +19567,13 @@
         <v>20</v>
       </c>
       <c r="N240" t="n">
-        <v>200000</v>
+        <v>475000</v>
       </c>
       <c r="O240" t="n">
-        <v>210000</v>
+        <v>480000</v>
       </c>
       <c r="P240" t="n">
-        <v>205000</v>
+        <v>477500</v>
       </c>
       <c r="Q240" t="inlineStr">
         <is>
@@ -19586,7 +19586,7 @@
         </is>
       </c>
       <c r="S240" t="n">
-        <v>512</v>
+        <v>1194</v>
       </c>
       <c r="T240" t="n">
         <v>400</v>
@@ -19607,7 +19607,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44350</v>
+        <v>44349</v>
       </c>
       <c r="E241" t="n">
         <v>4</v>
@@ -19640,20 +19640,20 @@
       </c>
       <c r="L241" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M241" t="n">
         <v>20</v>
       </c>
       <c r="N241" t="n">
-        <v>170000</v>
+        <v>200000</v>
       </c>
       <c r="O241" t="n">
-        <v>180000</v>
+        <v>210000</v>
       </c>
       <c r="P241" t="n">
-        <v>175000</v>
+        <v>205000</v>
       </c>
       <c r="Q241" t="inlineStr">
         <is>
@@ -19666,7 +19666,7 @@
         </is>
       </c>
       <c r="S241" t="n">
-        <v>438</v>
+        <v>512</v>
       </c>
       <c r="T241" t="n">
         <v>400</v>
@@ -19687,7 +19687,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44350</v>
+        <v>44349</v>
       </c>
       <c r="E242" t="n">
         <v>4</v>
@@ -19715,25 +19715,25 @@
       </c>
       <c r="K242" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L242" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M242" t="n">
         <v>20</v>
       </c>
       <c r="N242" t="n">
-        <v>200000</v>
+        <v>170000</v>
       </c>
       <c r="O242" t="n">
-        <v>210000</v>
+        <v>180000</v>
       </c>
       <c r="P242" t="n">
-        <v>205000</v>
+        <v>175000</v>
       </c>
       <c r="Q242" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="S242" t="n">
-        <v>512</v>
+        <v>438</v>
       </c>
       <c r="T242" t="n">
         <v>400</v>
@@ -19767,7 +19767,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44350</v>
+        <v>44349</v>
       </c>
       <c r="E243" t="n">
         <v>4</v>
@@ -19800,20 +19800,20 @@
       </c>
       <c r="L243" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M243" t="n">
         <v>20</v>
       </c>
       <c r="N243" t="n">
-        <v>170000</v>
+        <v>200000</v>
       </c>
       <c r="O243" t="n">
-        <v>180000</v>
+        <v>210000</v>
       </c>
       <c r="P243" t="n">
-        <v>175000</v>
+        <v>205000</v>
       </c>
       <c r="Q243" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         </is>
       </c>
       <c r="S243" t="n">
-        <v>438</v>
+        <v>512</v>
       </c>
       <c r="T243" t="n">
         <v>400</v>
@@ -19847,7 +19847,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44448</v>
+        <v>44349</v>
       </c>
       <c r="E244" t="n">
         <v>4</v>
@@ -19875,25 +19875,25 @@
       </c>
       <c r="K244" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L244" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M244" t="n">
         <v>20</v>
       </c>
       <c r="N244" t="n">
-        <v>110000</v>
+        <v>170000</v>
       </c>
       <c r="O244" t="n">
-        <v>120000</v>
+        <v>180000</v>
       </c>
       <c r="P244" t="n">
-        <v>115000</v>
+        <v>175000</v>
       </c>
       <c r="Q244" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         </is>
       </c>
       <c r="S244" t="n">
-        <v>288</v>
+        <v>438</v>
       </c>
       <c r="T244" t="n">
         <v>400</v>
@@ -19927,7 +19927,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E245" t="n">
         <v>4</v>
@@ -19955,25 +19955,25 @@
       </c>
       <c r="K245" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L245" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M245" t="n">
         <v>20</v>
       </c>
       <c r="N245" t="n">
-        <v>80000</v>
+        <v>200000</v>
       </c>
       <c r="O245" t="n">
-        <v>90000</v>
+        <v>210000</v>
       </c>
       <c r="P245" t="n">
-        <v>85000</v>
+        <v>205000</v>
       </c>
       <c r="Q245" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         </is>
       </c>
       <c r="S245" t="n">
-        <v>212</v>
+        <v>512</v>
       </c>
       <c r="T245" t="n">
         <v>400</v>
@@ -20007,7 +20007,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E246" t="n">
         <v>4</v>
@@ -20035,25 +20035,25 @@
       </c>
       <c r="K246" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L246" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M246" t="n">
         <v>20</v>
       </c>
       <c r="N246" t="n">
-        <v>110000</v>
+        <v>170000</v>
       </c>
       <c r="O246" t="n">
-        <v>120000</v>
+        <v>180000</v>
       </c>
       <c r="P246" t="n">
-        <v>115000</v>
+        <v>175000</v>
       </c>
       <c r="Q246" t="inlineStr">
         <is>
@@ -20066,7 +20066,7 @@
         </is>
       </c>
       <c r="S246" t="n">
-        <v>288</v>
+        <v>438</v>
       </c>
       <c r="T246" t="n">
         <v>400</v>
@@ -20087,7 +20087,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E247" t="n">
         <v>4</v>
@@ -20115,25 +20115,25 @@
       </c>
       <c r="K247" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L247" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M247" t="n">
         <v>20</v>
       </c>
       <c r="N247" t="n">
-        <v>80000</v>
+        <v>200000</v>
       </c>
       <c r="O247" t="n">
-        <v>90000</v>
+        <v>210000</v>
       </c>
       <c r="P247" t="n">
-        <v>85000</v>
+        <v>205000</v>
       </c>
       <c r="Q247" t="inlineStr">
         <is>
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="S247" t="n">
-        <v>212</v>
+        <v>512</v>
       </c>
       <c r="T247" t="n">
         <v>400</v>
@@ -20167,7 +20167,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44385</v>
+        <v>44350</v>
       </c>
       <c r="E248" t="n">
         <v>4</v>
@@ -20195,25 +20195,25 @@
       </c>
       <c r="K248" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L248" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M248" t="n">
         <v>20</v>
       </c>
       <c r="N248" t="n">
-        <v>125000</v>
+        <v>170000</v>
       </c>
       <c r="O248" t="n">
-        <v>130000</v>
+        <v>180000</v>
       </c>
       <c r="P248" t="n">
-        <v>127500</v>
+        <v>175000</v>
       </c>
       <c r="Q248" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         </is>
       </c>
       <c r="S248" t="n">
-        <v>319</v>
+        <v>438</v>
       </c>
       <c r="T248" t="n">
         <v>400</v>
@@ -20247,7 +20247,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44385</v>
+        <v>44448</v>
       </c>
       <c r="E249" t="n">
         <v>4</v>
@@ -20275,25 +20275,25 @@
       </c>
       <c r="K249" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L249" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M249" t="n">
         <v>20</v>
       </c>
       <c r="N249" t="n">
-        <v>105000</v>
+        <v>110000</v>
       </c>
       <c r="O249" t="n">
-        <v>110000</v>
+        <v>120000</v>
       </c>
       <c r="P249" t="n">
-        <v>107500</v>
+        <v>115000</v>
       </c>
       <c r="Q249" t="inlineStr">
         <is>
@@ -20306,7 +20306,7 @@
         </is>
       </c>
       <c r="S249" t="n">
-        <v>269</v>
+        <v>288</v>
       </c>
       <c r="T249" t="n">
         <v>400</v>
@@ -20327,7 +20327,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44385</v>
+        <v>44448</v>
       </c>
       <c r="E250" t="n">
         <v>4</v>
@@ -20355,25 +20355,25 @@
       </c>
       <c r="K250" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L250" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M250" t="n">
         <v>20</v>
       </c>
       <c r="N250" t="n">
-        <v>125000</v>
+        <v>80000</v>
       </c>
       <c r="O250" t="n">
-        <v>130000</v>
+        <v>90000</v>
       </c>
       <c r="P250" t="n">
-        <v>127500</v>
+        <v>85000</v>
       </c>
       <c r="Q250" t="inlineStr">
         <is>
@@ -20386,7 +20386,7 @@
         </is>
       </c>
       <c r="S250" t="n">
-        <v>319</v>
+        <v>212</v>
       </c>
       <c r="T250" t="n">
         <v>400</v>
@@ -20407,7 +20407,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44385</v>
+        <v>44448</v>
       </c>
       <c r="E251" t="n">
         <v>4</v>
@@ -20440,20 +20440,20 @@
       </c>
       <c r="L251" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M251" t="n">
         <v>20</v>
       </c>
       <c r="N251" t="n">
-        <v>105000</v>
+        <v>110000</v>
       </c>
       <c r="O251" t="n">
-        <v>110000</v>
+        <v>120000</v>
       </c>
       <c r="P251" t="n">
-        <v>107500</v>
+        <v>115000</v>
       </c>
       <c r="Q251" t="inlineStr">
         <is>
@@ -20466,7 +20466,7 @@
         </is>
       </c>
       <c r="S251" t="n">
-        <v>269</v>
+        <v>288</v>
       </c>
       <c r="T251" t="n">
         <v>400</v>
@@ -20487,7 +20487,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44385</v>
+        <v>44448</v>
       </c>
       <c r="E252" t="n">
         <v>4</v>
@@ -20515,25 +20515,25 @@
       </c>
       <c r="K252" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L252" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M252" t="n">
         <v>20</v>
       </c>
       <c r="N252" t="n">
-        <v>115000</v>
+        <v>80000</v>
       </c>
       <c r="O252" t="n">
-        <v>120000</v>
+        <v>90000</v>
       </c>
       <c r="P252" t="n">
-        <v>117500</v>
+        <v>85000</v>
       </c>
       <c r="Q252" t="inlineStr">
         <is>
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="S252" t="n">
-        <v>294</v>
+        <v>212</v>
       </c>
       <c r="T252" t="n">
         <v>400</v>
@@ -20595,25 +20595,25 @@
       </c>
       <c r="K253" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L253" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M253" t="n">
         <v>20</v>
       </c>
       <c r="N253" t="n">
-        <v>95000</v>
+        <v>125000</v>
       </c>
       <c r="O253" t="n">
-        <v>100000</v>
+        <v>130000</v>
       </c>
       <c r="P253" t="n">
-        <v>97500</v>
+        <v>127500</v>
       </c>
       <c r="Q253" t="inlineStr">
         <is>
@@ -20626,7 +20626,7 @@
         </is>
       </c>
       <c r="S253" t="n">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="T253" t="n">
         <v>400</v>
@@ -20647,7 +20647,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44202</v>
+        <v>44385</v>
       </c>
       <c r="E254" t="n">
         <v>4</v>
@@ -20675,25 +20675,25 @@
       </c>
       <c r="K254" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L254" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M254" t="n">
         <v>20</v>
       </c>
       <c r="N254" t="n">
-        <v>395000</v>
+        <v>105000</v>
       </c>
       <c r="O254" t="n">
-        <v>400000</v>
+        <v>110000</v>
       </c>
       <c r="P254" t="n">
-        <v>397500</v>
+        <v>107500</v>
       </c>
       <c r="Q254" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         </is>
       </c>
       <c r="S254" t="n">
-        <v>994</v>
+        <v>269</v>
       </c>
       <c r="T254" t="n">
         <v>400</v>
@@ -20727,7 +20727,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44202</v>
+        <v>44385</v>
       </c>
       <c r="E255" t="n">
         <v>4</v>
@@ -20755,25 +20755,25 @@
       </c>
       <c r="K255" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L255" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M255" t="n">
         <v>20</v>
       </c>
       <c r="N255" t="n">
-        <v>345000</v>
+        <v>125000</v>
       </c>
       <c r="O255" t="n">
-        <v>350000</v>
+        <v>130000</v>
       </c>
       <c r="P255" t="n">
-        <v>347500</v>
+        <v>127500</v>
       </c>
       <c r="Q255" t="inlineStr">
         <is>
@@ -20786,7 +20786,7 @@
         </is>
       </c>
       <c r="S255" t="n">
-        <v>869</v>
+        <v>319</v>
       </c>
       <c r="T255" t="n">
         <v>400</v>
@@ -20807,7 +20807,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44435</v>
+        <v>44385</v>
       </c>
       <c r="E256" t="n">
         <v>4</v>
@@ -20835,25 +20835,25 @@
       </c>
       <c r="K256" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L256" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M256" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="N256" t="n">
-        <v>125000</v>
+        <v>105000</v>
       </c>
       <c r="O256" t="n">
-        <v>130000</v>
+        <v>110000</v>
       </c>
       <c r="P256" t="n">
-        <v>127500</v>
+        <v>107500</v>
       </c>
       <c r="Q256" t="inlineStr">
         <is>
@@ -20866,7 +20866,7 @@
         </is>
       </c>
       <c r="S256" t="n">
-        <v>319</v>
+        <v>269</v>
       </c>
       <c r="T256" t="n">
         <v>400</v>
@@ -20887,7 +20887,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44435</v>
+        <v>44385</v>
       </c>
       <c r="E257" t="n">
         <v>4</v>
@@ -20915,7 +20915,7 @@
       </c>
       <c r="K257" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L257" t="inlineStr">
@@ -20924,16 +20924,16 @@
         </is>
       </c>
       <c r="M257" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="N257" t="n">
-        <v>105000</v>
+        <v>115000</v>
       </c>
       <c r="O257" t="n">
-        <v>110000</v>
+        <v>120000</v>
       </c>
       <c r="P257" t="n">
-        <v>107500</v>
+        <v>117500</v>
       </c>
       <c r="Q257" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="S257" t="n">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="T257" t="n">
         <v>400</v>
@@ -20967,7 +20967,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44435</v>
+        <v>44385</v>
       </c>
       <c r="E258" t="n">
         <v>4</v>
@@ -20995,7 +20995,7 @@
       </c>
       <c r="K258" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L258" t="inlineStr">
@@ -21004,16 +21004,16 @@
         </is>
       </c>
       <c r="M258" t="n">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="N258" t="n">
-        <v>85000</v>
+        <v>95000</v>
       </c>
       <c r="O258" t="n">
-        <v>90000</v>
+        <v>100000</v>
       </c>
       <c r="P258" t="n">
-        <v>87955</v>
+        <v>97500</v>
       </c>
       <c r="Q258" t="inlineStr">
         <is>
@@ -21026,7 +21026,7 @@
         </is>
       </c>
       <c r="S258" t="n">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="T258" t="n">
         <v>400</v>
@@ -21047,7 +21047,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44435</v>
+        <v>44202</v>
       </c>
       <c r="E259" t="n">
         <v>4</v>
@@ -21075,7 +21075,7 @@
       </c>
       <c r="K259" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L259" t="inlineStr">
@@ -21084,16 +21084,16 @@
         </is>
       </c>
       <c r="M259" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="N259" t="n">
-        <v>95000</v>
+        <v>395000</v>
       </c>
       <c r="O259" t="n">
-        <v>100000</v>
+        <v>400000</v>
       </c>
       <c r="P259" t="n">
-        <v>97500</v>
+        <v>397500</v>
       </c>
       <c r="Q259" t="inlineStr">
         <is>
@@ -21106,7 +21106,7 @@
         </is>
       </c>
       <c r="S259" t="n">
-        <v>244</v>
+        <v>994</v>
       </c>
       <c r="T259" t="n">
         <v>400</v>
@@ -21127,7 +21127,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44435</v>
+        <v>44202</v>
       </c>
       <c r="E260" t="n">
         <v>4</v>
@@ -21155,7 +21155,7 @@
       </c>
       <c r="K260" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L260" t="inlineStr">
@@ -21164,16 +21164,16 @@
         </is>
       </c>
       <c r="M260" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="N260" t="n">
-        <v>75000</v>
+        <v>345000</v>
       </c>
       <c r="O260" t="n">
-        <v>80000</v>
+        <v>350000</v>
       </c>
       <c r="P260" t="n">
-        <v>77500</v>
+        <v>347500</v>
       </c>
       <c r="Q260" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         </is>
       </c>
       <c r="S260" t="n">
-        <v>194</v>
+        <v>869</v>
       </c>
       <c r="T260" t="n">
         <v>400</v>
@@ -21235,25 +21235,25 @@
       </c>
       <c r="K261" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L261" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M261" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="N261" t="n">
-        <v>95000</v>
+        <v>125000</v>
       </c>
       <c r="O261" t="n">
-        <v>100000</v>
+        <v>130000</v>
       </c>
       <c r="P261" t="n">
-        <v>97500</v>
+        <v>127500</v>
       </c>
       <c r="Q261" t="inlineStr">
         <is>
@@ -21266,7 +21266,7 @@
         </is>
       </c>
       <c r="S261" t="n">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="T261" t="n">
         <v>400</v>
@@ -21315,25 +21315,25 @@
       </c>
       <c r="K262" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L262" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M262" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="N262" t="n">
-        <v>75000</v>
+        <v>105000</v>
       </c>
       <c r="O262" t="n">
-        <v>80000</v>
+        <v>110000</v>
       </c>
       <c r="P262" t="n">
-        <v>77500</v>
+        <v>107500</v>
       </c>
       <c r="Q262" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="S262" t="n">
-        <v>194</v>
+        <v>269</v>
       </c>
       <c r="T262" t="n">
         <v>400</v>
@@ -21367,7 +21367,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44377</v>
+        <v>44435</v>
       </c>
       <c r="E263" t="n">
         <v>4</v>
@@ -21400,20 +21400,20 @@
       </c>
       <c r="L263" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M263" t="n">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="N263" t="n">
-        <v>115000</v>
+        <v>85000</v>
       </c>
       <c r="O263" t="n">
-        <v>120000</v>
+        <v>90000</v>
       </c>
       <c r="P263" t="n">
-        <v>117500</v>
+        <v>87955</v>
       </c>
       <c r="Q263" t="inlineStr">
         <is>
@@ -21426,7 +21426,7 @@
         </is>
       </c>
       <c r="S263" t="n">
-        <v>294</v>
+        <v>220</v>
       </c>
       <c r="T263" t="n">
         <v>400</v>
@@ -21447,7 +21447,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44377</v>
+        <v>44435</v>
       </c>
       <c r="E264" t="n">
         <v>4</v>
@@ -21475,16 +21475,16 @@
       </c>
       <c r="K264" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L264" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M264" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="N264" t="n">
         <v>95000</v>
@@ -21527,7 +21527,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44377</v>
+        <v>44435</v>
       </c>
       <c r="E265" t="n">
         <v>4</v>
@@ -21555,25 +21555,25 @@
       </c>
       <c r="K265" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L265" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M265" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="N265" t="n">
-        <v>115000</v>
+        <v>75000</v>
       </c>
       <c r="O265" t="n">
-        <v>120000</v>
+        <v>80000</v>
       </c>
       <c r="P265" t="n">
-        <v>117500</v>
+        <v>77500</v>
       </c>
       <c r="Q265" t="inlineStr">
         <is>
@@ -21586,7 +21586,7 @@
         </is>
       </c>
       <c r="S265" t="n">
-        <v>294</v>
+        <v>194</v>
       </c>
       <c r="T265" t="n">
         <v>400</v>
@@ -21607,7 +21607,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44377</v>
+        <v>44435</v>
       </c>
       <c r="E266" t="n">
         <v>4</v>
@@ -21640,11 +21640,11 @@
       </c>
       <c r="L266" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M266" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="N266" t="n">
         <v>95000</v>
@@ -21653,7 +21653,7 @@
         <v>100000</v>
       </c>
       <c r="P266" t="n">
-        <v>96786</v>
+        <v>97500</v>
       </c>
       <c r="Q266" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         </is>
       </c>
       <c r="S266" t="n">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="T266" t="n">
         <v>400</v>
@@ -21687,7 +21687,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44377</v>
+        <v>44435</v>
       </c>
       <c r="E267" t="n">
         <v>4</v>
@@ -21715,25 +21715,25 @@
       </c>
       <c r="K267" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L267" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M267" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="N267" t="n">
-        <v>115000</v>
+        <v>75000</v>
       </c>
       <c r="O267" t="n">
-        <v>120000</v>
+        <v>80000</v>
       </c>
       <c r="P267" t="n">
-        <v>117500</v>
+        <v>77500</v>
       </c>
       <c r="Q267" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="S267" t="n">
-        <v>294</v>
+        <v>194</v>
       </c>
       <c r="T267" t="n">
         <v>400</v>
@@ -21795,25 +21795,25 @@
       </c>
       <c r="K268" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L268" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M268" t="n">
         <v>20</v>
       </c>
       <c r="N268" t="n">
-        <v>95000</v>
+        <v>115000</v>
       </c>
       <c r="O268" t="n">
-        <v>100000</v>
+        <v>120000</v>
       </c>
       <c r="P268" t="n">
-        <v>97500</v>
+        <v>117500</v>
       </c>
       <c r="Q268" t="inlineStr">
         <is>
@@ -21826,7 +21826,7 @@
         </is>
       </c>
       <c r="S268" t="n">
-        <v>244</v>
+        <v>294</v>
       </c>
       <c r="T268" t="n">
         <v>400</v>
@@ -21847,7 +21847,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44433</v>
+        <v>44377</v>
       </c>
       <c r="E269" t="n">
         <v>4</v>
@@ -21880,20 +21880,20 @@
       </c>
       <c r="L269" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M269" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N269" t="n">
-        <v>125000</v>
+        <v>95000</v>
       </c>
       <c r="O269" t="n">
-        <v>130000</v>
+        <v>100000</v>
       </c>
       <c r="P269" t="n">
-        <v>127500</v>
+        <v>97500</v>
       </c>
       <c r="Q269" t="inlineStr">
         <is>
@@ -21906,7 +21906,7 @@
         </is>
       </c>
       <c r="S269" t="n">
-        <v>319</v>
+        <v>244</v>
       </c>
       <c r="T269" t="n">
         <v>400</v>
@@ -21927,7 +21927,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44433</v>
+        <v>44377</v>
       </c>
       <c r="E270" t="n">
         <v>4</v>
@@ -21955,7 +21955,7 @@
       </c>
       <c r="K270" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L270" t="inlineStr">
@@ -21967,13 +21967,13 @@
         <v>20</v>
       </c>
       <c r="N270" t="n">
-        <v>105000</v>
+        <v>115000</v>
       </c>
       <c r="O270" t="n">
-        <v>110000</v>
+        <v>120000</v>
       </c>
       <c r="P270" t="n">
-        <v>107500</v>
+        <v>117500</v>
       </c>
       <c r="Q270" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
         </is>
       </c>
       <c r="S270" t="n">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="T270" t="n">
         <v>400</v>
@@ -22007,7 +22007,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44433</v>
+        <v>44377</v>
       </c>
       <c r="E271" t="n">
         <v>4</v>
@@ -22035,7 +22035,7 @@
       </c>
       <c r="K271" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L271" t="inlineStr">
@@ -22047,13 +22047,13 @@
         <v>28</v>
       </c>
       <c r="N271" t="n">
-        <v>85000</v>
+        <v>95000</v>
       </c>
       <c r="O271" t="n">
-        <v>90000</v>
+        <v>100000</v>
       </c>
       <c r="P271" t="n">
-        <v>88214</v>
+        <v>96786</v>
       </c>
       <c r="Q271" t="inlineStr">
         <is>
@@ -22066,7 +22066,7 @@
         </is>
       </c>
       <c r="S271" t="n">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="T271" t="n">
         <v>400</v>
@@ -22087,7 +22087,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44433</v>
+        <v>44377</v>
       </c>
       <c r="E272" t="n">
         <v>4</v>
@@ -22115,7 +22115,7 @@
       </c>
       <c r="K272" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L272" t="inlineStr">
@@ -22127,13 +22127,13 @@
         <v>20</v>
       </c>
       <c r="N272" t="n">
-        <v>95000</v>
+        <v>115000</v>
       </c>
       <c r="O272" t="n">
-        <v>100000</v>
+        <v>120000</v>
       </c>
       <c r="P272" t="n">
-        <v>97500</v>
+        <v>117500</v>
       </c>
       <c r="Q272" t="inlineStr">
         <is>
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="S272" t="n">
-        <v>244</v>
+        <v>294</v>
       </c>
       <c r="T272" t="n">
         <v>400</v>
@@ -22167,7 +22167,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44433</v>
+        <v>44377</v>
       </c>
       <c r="E273" t="n">
         <v>4</v>
@@ -22195,7 +22195,7 @@
       </c>
       <c r="K273" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L273" t="inlineStr">
@@ -22207,13 +22207,13 @@
         <v>20</v>
       </c>
       <c r="N273" t="n">
-        <v>75000</v>
+        <v>95000</v>
       </c>
       <c r="O273" t="n">
-        <v>80000</v>
+        <v>100000</v>
       </c>
       <c r="P273" t="n">
-        <v>77500</v>
+        <v>97500</v>
       </c>
       <c r="Q273" t="inlineStr">
         <is>
@@ -22226,7 +22226,7 @@
         </is>
       </c>
       <c r="S273" t="n">
-        <v>194</v>
+        <v>244</v>
       </c>
       <c r="T273" t="n">
         <v>400</v>
@@ -22275,25 +22275,25 @@
       </c>
       <c r="K274" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L274" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M274" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N274" t="n">
-        <v>95000</v>
+        <v>125000</v>
       </c>
       <c r="O274" t="n">
-        <v>100000</v>
+        <v>130000</v>
       </c>
       <c r="P274" t="n">
-        <v>97500</v>
+        <v>127500</v>
       </c>
       <c r="Q274" t="inlineStr">
         <is>
@@ -22306,7 +22306,7 @@
         </is>
       </c>
       <c r="S274" t="n">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="T274" t="n">
         <v>400</v>
@@ -22355,25 +22355,25 @@
       </c>
       <c r="K275" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L275" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M275" t="n">
         <v>20</v>
       </c>
       <c r="N275" t="n">
-        <v>75000</v>
+        <v>105000</v>
       </c>
       <c r="O275" t="n">
-        <v>80000</v>
+        <v>110000</v>
       </c>
       <c r="P275" t="n">
-        <v>77500</v>
+        <v>107500</v>
       </c>
       <c r="Q275" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         </is>
       </c>
       <c r="S275" t="n">
-        <v>194</v>
+        <v>269</v>
       </c>
       <c r="T275" t="n">
         <v>400</v>
@@ -22407,7 +22407,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44307</v>
+        <v>44433</v>
       </c>
       <c r="E276" t="n">
         <v>4</v>
@@ -22440,20 +22440,20 @@
       </c>
       <c r="L276" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M276" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N276" t="n">
-        <v>385000</v>
+        <v>85000</v>
       </c>
       <c r="O276" t="n">
-        <v>390000</v>
+        <v>90000</v>
       </c>
       <c r="P276" t="n">
-        <v>387500</v>
+        <v>88214</v>
       </c>
       <c r="Q276" t="inlineStr">
         <is>
@@ -22466,7 +22466,7 @@
         </is>
       </c>
       <c r="S276" t="n">
-        <v>969</v>
+        <v>221</v>
       </c>
       <c r="T276" t="n">
         <v>400</v>
@@ -22487,7 +22487,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44307</v>
+        <v>44433</v>
       </c>
       <c r="E277" t="n">
         <v>4</v>
@@ -22515,25 +22515,25 @@
       </c>
       <c r="K277" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L277" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M277" t="n">
         <v>20</v>
       </c>
       <c r="N277" t="n">
-        <v>345000</v>
+        <v>95000</v>
       </c>
       <c r="O277" t="n">
-        <v>350000</v>
+        <v>100000</v>
       </c>
       <c r="P277" t="n">
-        <v>347500</v>
+        <v>97500</v>
       </c>
       <c r="Q277" t="inlineStr">
         <is>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="S277" t="n">
-        <v>869</v>
+        <v>244</v>
       </c>
       <c r="T277" t="n">
         <v>400</v>
@@ -22567,7 +22567,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44307</v>
+        <v>44433</v>
       </c>
       <c r="E278" t="n">
         <v>4</v>
@@ -22595,25 +22595,25 @@
       </c>
       <c r="K278" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L278" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M278" t="n">
         <v>20</v>
       </c>
       <c r="N278" t="n">
-        <v>385000</v>
+        <v>75000</v>
       </c>
       <c r="O278" t="n">
-        <v>390000</v>
+        <v>80000</v>
       </c>
       <c r="P278" t="n">
-        <v>387500</v>
+        <v>77500</v>
       </c>
       <c r="Q278" t="inlineStr">
         <is>
@@ -22626,7 +22626,7 @@
         </is>
       </c>
       <c r="S278" t="n">
-        <v>969</v>
+        <v>194</v>
       </c>
       <c r="T278" t="n">
         <v>400</v>
@@ -22647,7 +22647,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44476</v>
+        <v>44433</v>
       </c>
       <c r="E279" t="n">
         <v>4</v>
@@ -22675,7 +22675,7 @@
       </c>
       <c r="K279" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L279" t="inlineStr">
@@ -22687,13 +22687,13 @@
         <v>20</v>
       </c>
       <c r="N279" t="n">
-        <v>120000</v>
+        <v>95000</v>
       </c>
       <c r="O279" t="n">
-        <v>125000</v>
+        <v>100000</v>
       </c>
       <c r="P279" t="n">
-        <v>122500</v>
+        <v>97500</v>
       </c>
       <c r="Q279" t="inlineStr">
         <is>
@@ -22706,7 +22706,7 @@
         </is>
       </c>
       <c r="S279" t="n">
-        <v>306</v>
+        <v>244</v>
       </c>
       <c r="T279" t="n">
         <v>400</v>
@@ -22727,7 +22727,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44476</v>
+        <v>44433</v>
       </c>
       <c r="E280" t="n">
         <v>4</v>
@@ -22755,7 +22755,7 @@
       </c>
       <c r="K280" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L280" t="inlineStr">
@@ -22767,13 +22767,13 @@
         <v>20</v>
       </c>
       <c r="N280" t="n">
-        <v>90000</v>
+        <v>75000</v>
       </c>
       <c r="O280" t="n">
-        <v>95000</v>
+        <v>80000</v>
       </c>
       <c r="P280" t="n">
-        <v>92500</v>
+        <v>77500</v>
       </c>
       <c r="Q280" t="inlineStr">
         <is>
@@ -22786,7 +22786,7 @@
         </is>
       </c>
       <c r="S280" t="n">
-        <v>231</v>
+        <v>194</v>
       </c>
       <c r="T280" t="n">
         <v>400</v>
@@ -22807,7 +22807,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44476</v>
+        <v>44307</v>
       </c>
       <c r="E281" t="n">
         <v>4</v>
@@ -22835,7 +22835,7 @@
       </c>
       <c r="K281" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L281" t="inlineStr">
@@ -22847,13 +22847,13 @@
         <v>20</v>
       </c>
       <c r="N281" t="n">
-        <v>120000</v>
+        <v>385000</v>
       </c>
       <c r="O281" t="n">
-        <v>125000</v>
+        <v>390000</v>
       </c>
       <c r="P281" t="n">
-        <v>122500</v>
+        <v>387500</v>
       </c>
       <c r="Q281" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         </is>
       </c>
       <c r="S281" t="n">
-        <v>306</v>
+        <v>969</v>
       </c>
       <c r="T281" t="n">
         <v>400</v>
@@ -22887,7 +22887,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44476</v>
+        <v>44307</v>
       </c>
       <c r="E282" t="n">
         <v>4</v>
@@ -22915,7 +22915,7 @@
       </c>
       <c r="K282" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L282" t="inlineStr">
@@ -22927,13 +22927,13 @@
         <v>20</v>
       </c>
       <c r="N282" t="n">
-        <v>90000</v>
+        <v>345000</v>
       </c>
       <c r="O282" t="n">
-        <v>95000</v>
+        <v>350000</v>
       </c>
       <c r="P282" t="n">
-        <v>92500</v>
+        <v>347500</v>
       </c>
       <c r="Q282" t="inlineStr">
         <is>
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="S282" t="n">
-        <v>231</v>
+        <v>869</v>
       </c>
       <c r="T282" t="n">
         <v>400</v>
@@ -22967,7 +22967,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44468</v>
+        <v>44307</v>
       </c>
       <c r="E283" t="n">
         <v>4</v>
@@ -22995,7 +22995,7 @@
       </c>
       <c r="K283" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L283" t="inlineStr">
@@ -23007,13 +23007,13 @@
         <v>20</v>
       </c>
       <c r="N283" t="n">
-        <v>120000</v>
+        <v>385000</v>
       </c>
       <c r="O283" t="n">
-        <v>130000</v>
+        <v>390000</v>
       </c>
       <c r="P283" t="n">
-        <v>125000</v>
+        <v>387500</v>
       </c>
       <c r="Q283" t="inlineStr">
         <is>
@@ -23026,7 +23026,7 @@
         </is>
       </c>
       <c r="S283" t="n">
-        <v>312</v>
+        <v>969</v>
       </c>
       <c r="T283" t="n">
         <v>400</v>
@@ -23047,7 +23047,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E284" t="n">
         <v>4</v>
@@ -23080,20 +23080,20 @@
       </c>
       <c r="L284" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M284" t="n">
         <v>20</v>
       </c>
       <c r="N284" t="n">
-        <v>100000</v>
+        <v>120000</v>
       </c>
       <c r="O284" t="n">
-        <v>110000</v>
+        <v>125000</v>
       </c>
       <c r="P284" t="n">
-        <v>105000</v>
+        <v>122500</v>
       </c>
       <c r="Q284" t="inlineStr">
         <is>
@@ -23106,7 +23106,7 @@
         </is>
       </c>
       <c r="S284" t="n">
-        <v>262</v>
+        <v>306</v>
       </c>
       <c r="T284" t="n">
         <v>400</v>
@@ -23127,7 +23127,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E285" t="n">
         <v>4</v>
@@ -23155,25 +23155,25 @@
       </c>
       <c r="K285" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L285" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M285" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="N285" t="n">
-        <v>120000</v>
+        <v>90000</v>
       </c>
       <c r="O285" t="n">
-        <v>130000</v>
+        <v>95000</v>
       </c>
       <c r="P285" t="n">
-        <v>126429</v>
+        <v>92500</v>
       </c>
       <c r="Q285" t="inlineStr">
         <is>
@@ -23186,7 +23186,7 @@
         </is>
       </c>
       <c r="S285" t="n">
-        <v>316</v>
+        <v>231</v>
       </c>
       <c r="T285" t="n">
         <v>400</v>
@@ -23207,7 +23207,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E286" t="n">
         <v>4</v>
@@ -23240,20 +23240,20 @@
       </c>
       <c r="L286" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M286" t="n">
         <v>20</v>
       </c>
       <c r="N286" t="n">
-        <v>100000</v>
+        <v>120000</v>
       </c>
       <c r="O286" t="n">
-        <v>110000</v>
+        <v>125000</v>
       </c>
       <c r="P286" t="n">
-        <v>105000</v>
+        <v>122500</v>
       </c>
       <c r="Q286" t="inlineStr">
         <is>
@@ -23266,7 +23266,7 @@
         </is>
       </c>
       <c r="S286" t="n">
-        <v>262</v>
+        <v>306</v>
       </c>
       <c r="T286" t="n">
         <v>400</v>
@@ -23287,7 +23287,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44384</v>
+        <v>44476</v>
       </c>
       <c r="E287" t="n">
         <v>4</v>
@@ -23315,25 +23315,25 @@
       </c>
       <c r="K287" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L287" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M287" t="n">
         <v>20</v>
       </c>
       <c r="N287" t="n">
-        <v>125000</v>
+        <v>90000</v>
       </c>
       <c r="O287" t="n">
-        <v>130000</v>
+        <v>95000</v>
       </c>
       <c r="P287" t="n">
-        <v>127500</v>
+        <v>92500</v>
       </c>
       <c r="Q287" t="inlineStr">
         <is>
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="S287" t="n">
-        <v>319</v>
+        <v>231</v>
       </c>
       <c r="T287" t="n">
         <v>400</v>
@@ -23367,7 +23367,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44384</v>
+        <v>44468</v>
       </c>
       <c r="E288" t="n">
         <v>4</v>
@@ -23395,25 +23395,25 @@
       </c>
       <c r="K288" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L288" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M288" t="n">
         <v>20</v>
       </c>
       <c r="N288" t="n">
-        <v>105000</v>
+        <v>120000</v>
       </c>
       <c r="O288" t="n">
-        <v>110000</v>
+        <v>130000</v>
       </c>
       <c r="P288" t="n">
-        <v>107500</v>
+        <v>125000</v>
       </c>
       <c r="Q288" t="inlineStr">
         <is>
@@ -23426,7 +23426,7 @@
         </is>
       </c>
       <c r="S288" t="n">
-        <v>269</v>
+        <v>312</v>
       </c>
       <c r="T288" t="n">
         <v>400</v>
@@ -23447,7 +23447,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44384</v>
+        <v>44468</v>
       </c>
       <c r="E289" t="n">
         <v>4</v>
@@ -23475,25 +23475,25 @@
       </c>
       <c r="K289" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L289" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M289" t="n">
         <v>20</v>
       </c>
       <c r="N289" t="n">
-        <v>125000</v>
+        <v>100000</v>
       </c>
       <c r="O289" t="n">
-        <v>130000</v>
+        <v>110000</v>
       </c>
       <c r="P289" t="n">
-        <v>127500</v>
+        <v>105000</v>
       </c>
       <c r="Q289" t="inlineStr">
         <is>
@@ -23506,7 +23506,7 @@
         </is>
       </c>
       <c r="S289" t="n">
-        <v>319</v>
+        <v>262</v>
       </c>
       <c r="T289" t="n">
         <v>400</v>
@@ -23527,7 +23527,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44384</v>
+        <v>44468</v>
       </c>
       <c r="E290" t="n">
         <v>4</v>
@@ -23560,20 +23560,20 @@
       </c>
       <c r="L290" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M290" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N290" t="n">
-        <v>105000</v>
+        <v>120000</v>
       </c>
       <c r="O290" t="n">
-        <v>110000</v>
+        <v>130000</v>
       </c>
       <c r="P290" t="n">
-        <v>107500</v>
+        <v>126429</v>
       </c>
       <c r="Q290" t="inlineStr">
         <is>
@@ -23586,7 +23586,7 @@
         </is>
       </c>
       <c r="S290" t="n">
-        <v>269</v>
+        <v>316</v>
       </c>
       <c r="T290" t="n">
         <v>400</v>
@@ -23607,7 +23607,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44384</v>
+        <v>44468</v>
       </c>
       <c r="E291" t="n">
         <v>4</v>
@@ -23635,25 +23635,25 @@
       </c>
       <c r="K291" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L291" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M291" t="n">
         <v>20</v>
       </c>
       <c r="N291" t="n">
-        <v>115000</v>
+        <v>100000</v>
       </c>
       <c r="O291" t="n">
-        <v>120000</v>
+        <v>110000</v>
       </c>
       <c r="P291" t="n">
-        <v>117500</v>
+        <v>105000</v>
       </c>
       <c r="Q291" t="inlineStr">
         <is>
@@ -23666,7 +23666,7 @@
         </is>
       </c>
       <c r="S291" t="n">
-        <v>294</v>
+        <v>262</v>
       </c>
       <c r="T291" t="n">
         <v>400</v>
@@ -23715,25 +23715,25 @@
       </c>
       <c r="K292" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L292" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M292" t="n">
         <v>20</v>
       </c>
       <c r="N292" t="n">
-        <v>95000</v>
+        <v>125000</v>
       </c>
       <c r="O292" t="n">
-        <v>100000</v>
+        <v>130000</v>
       </c>
       <c r="P292" t="n">
-        <v>97500</v>
+        <v>127500</v>
       </c>
       <c r="Q292" t="inlineStr">
         <is>
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="S292" t="n">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="T292" t="n">
         <v>400</v>
@@ -23767,7 +23767,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E293" t="n">
         <v>4</v>
@@ -23800,20 +23800,20 @@
       </c>
       <c r="L293" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M293" t="n">
         <v>20</v>
       </c>
       <c r="N293" t="n">
-        <v>135000</v>
+        <v>105000</v>
       </c>
       <c r="O293" t="n">
-        <v>140000</v>
+        <v>110000</v>
       </c>
       <c r="P293" t="n">
-        <v>137500</v>
+        <v>107500</v>
       </c>
       <c r="Q293" t="inlineStr">
         <is>
@@ -23826,7 +23826,7 @@
         </is>
       </c>
       <c r="S293" t="n">
-        <v>344</v>
+        <v>269</v>
       </c>
       <c r="T293" t="n">
         <v>400</v>
@@ -23847,7 +23847,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E294" t="n">
         <v>4</v>
@@ -23875,25 +23875,25 @@
       </c>
       <c r="K294" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L294" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M294" t="n">
         <v>20</v>
       </c>
       <c r="N294" t="n">
-        <v>115000</v>
+        <v>125000</v>
       </c>
       <c r="O294" t="n">
-        <v>120000</v>
+        <v>130000</v>
       </c>
       <c r="P294" t="n">
-        <v>117500</v>
+        <v>127500</v>
       </c>
       <c r="Q294" t="inlineStr">
         <is>
@@ -23906,7 +23906,7 @@
         </is>
       </c>
       <c r="S294" t="n">
-        <v>294</v>
+        <v>319</v>
       </c>
       <c r="T294" t="n">
         <v>400</v>
@@ -23927,7 +23927,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E295" t="n">
         <v>4</v>
@@ -23955,25 +23955,25 @@
       </c>
       <c r="K295" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L295" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M295" t="n">
         <v>20</v>
       </c>
       <c r="N295" t="n">
-        <v>145000</v>
+        <v>105000</v>
       </c>
       <c r="O295" t="n">
-        <v>150000</v>
+        <v>110000</v>
       </c>
       <c r="P295" t="n">
-        <v>147500</v>
+        <v>107500</v>
       </c>
       <c r="Q295" t="inlineStr">
         <is>
@@ -23986,7 +23986,7 @@
         </is>
       </c>
       <c r="S295" t="n">
-        <v>369</v>
+        <v>269</v>
       </c>
       <c r="T295" t="n">
         <v>400</v>
@@ -24007,7 +24007,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E296" t="n">
         <v>4</v>
@@ -24040,20 +24040,20 @@
       </c>
       <c r="L296" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M296" t="n">
         <v>20</v>
       </c>
       <c r="N296" t="n">
-        <v>125000</v>
+        <v>115000</v>
       </c>
       <c r="O296" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="P296" t="n">
-        <v>127500</v>
+        <v>117500</v>
       </c>
       <c r="Q296" t="inlineStr">
         <is>
@@ -24066,7 +24066,7 @@
         </is>
       </c>
       <c r="S296" t="n">
-        <v>319</v>
+        <v>294</v>
       </c>
       <c r="T296" t="n">
         <v>400</v>
@@ -24087,7 +24087,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44301</v>
+        <v>44384</v>
       </c>
       <c r="E297" t="n">
         <v>4</v>
@@ -24115,25 +24115,25 @@
       </c>
       <c r="K297" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L297" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M297" t="n">
         <v>20</v>
       </c>
       <c r="N297" t="n">
-        <v>495000</v>
+        <v>95000</v>
       </c>
       <c r="O297" t="n">
-        <v>500000</v>
+        <v>100000</v>
       </c>
       <c r="P297" t="n">
-        <v>497500</v>
+        <v>97500</v>
       </c>
       <c r="Q297" t="inlineStr">
         <is>
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="S297" t="n">
-        <v>1244</v>
+        <v>244</v>
       </c>
       <c r="T297" t="n">
         <v>400</v>
@@ -24167,7 +24167,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44301</v>
+        <v>44363</v>
       </c>
       <c r="E298" t="n">
         <v>4</v>
@@ -24195,7 +24195,7 @@
       </c>
       <c r="K298" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L298" t="inlineStr">
@@ -24207,13 +24207,13 @@
         <v>20</v>
       </c>
       <c r="N298" t="n">
-        <v>475000</v>
+        <v>135000</v>
       </c>
       <c r="O298" t="n">
-        <v>480000</v>
+        <v>140000</v>
       </c>
       <c r="P298" t="n">
-        <v>477500</v>
+        <v>137500</v>
       </c>
       <c r="Q298" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         </is>
       </c>
       <c r="S298" t="n">
-        <v>1194</v>
+        <v>344</v>
       </c>
       <c r="T298" t="n">
         <v>400</v>
@@ -24247,7 +24247,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44357</v>
+        <v>44363</v>
       </c>
       <c r="E299" t="n">
         <v>4</v>
@@ -24280,20 +24280,20 @@
       </c>
       <c r="L299" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M299" t="n">
         <v>20</v>
       </c>
       <c r="N299" t="n">
-        <v>145000</v>
+        <v>115000</v>
       </c>
       <c r="O299" t="n">
-        <v>150000</v>
+        <v>120000</v>
       </c>
       <c r="P299" t="n">
-        <v>147500</v>
+        <v>117500</v>
       </c>
       <c r="Q299" t="inlineStr">
         <is>
@@ -24306,7 +24306,7 @@
         </is>
       </c>
       <c r="S299" t="n">
-        <v>369</v>
+        <v>294</v>
       </c>
       <c r="T299" t="n">
         <v>400</v>
@@ -24327,7 +24327,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44357</v>
+        <v>44363</v>
       </c>
       <c r="E300" t="n">
         <v>4</v>
@@ -24355,25 +24355,25 @@
       </c>
       <c r="K300" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L300" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M300" t="n">
         <v>20</v>
       </c>
       <c r="N300" t="n">
-        <v>115000</v>
+        <v>145000</v>
       </c>
       <c r="O300" t="n">
-        <v>120000</v>
+        <v>150000</v>
       </c>
       <c r="P300" t="n">
-        <v>117500</v>
+        <v>147500</v>
       </c>
       <c r="Q300" t="inlineStr">
         <is>
@@ -24386,7 +24386,7 @@
         </is>
       </c>
       <c r="S300" t="n">
-        <v>294</v>
+        <v>369</v>
       </c>
       <c r="T300" t="n">
         <v>400</v>
@@ -24407,7 +24407,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44357</v>
+        <v>44363</v>
       </c>
       <c r="E301" t="n">
         <v>4</v>
@@ -24440,20 +24440,20 @@
       </c>
       <c r="L301" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M301" t="n">
         <v>20</v>
       </c>
       <c r="N301" t="n">
-        <v>145000</v>
+        <v>125000</v>
       </c>
       <c r="O301" t="n">
-        <v>150000</v>
+        <v>130000</v>
       </c>
       <c r="P301" t="n">
-        <v>147500</v>
+        <v>127500</v>
       </c>
       <c r="Q301" t="inlineStr">
         <is>
@@ -24466,7 +24466,7 @@
         </is>
       </c>
       <c r="S301" t="n">
-        <v>369</v>
+        <v>319</v>
       </c>
       <c r="T301" t="n">
         <v>400</v>
@@ -24487,7 +24487,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E302" t="n">
         <v>4</v>
@@ -24515,25 +24515,25 @@
       </c>
       <c r="K302" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L302" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M302" t="n">
         <v>20</v>
       </c>
       <c r="N302" t="n">
-        <v>115000</v>
+        <v>495000</v>
       </c>
       <c r="O302" t="n">
-        <v>120000</v>
+        <v>500000</v>
       </c>
       <c r="P302" t="n">
-        <v>117500</v>
+        <v>497500</v>
       </c>
       <c r="Q302" t="inlineStr">
         <is>
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="S302" t="n">
-        <v>294</v>
+        <v>1244</v>
       </c>
       <c r="T302" t="n">
         <v>400</v>
@@ -24567,7 +24567,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44328</v>
+        <v>44301</v>
       </c>
       <c r="E303" t="n">
         <v>4</v>
@@ -24595,7 +24595,7 @@
       </c>
       <c r="K303" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L303" t="inlineStr">
@@ -24607,13 +24607,13 @@
         <v>20</v>
       </c>
       <c r="N303" t="n">
-        <v>290000</v>
+        <v>475000</v>
       </c>
       <c r="O303" t="n">
-        <v>300000</v>
+        <v>480000</v>
       </c>
       <c r="P303" t="n">
-        <v>295000</v>
+        <v>477500</v>
       </c>
       <c r="Q303" t="inlineStr">
         <is>
@@ -24626,7 +24626,7 @@
         </is>
       </c>
       <c r="S303" t="n">
-        <v>738</v>
+        <v>1194</v>
       </c>
       <c r="T303" t="n">
         <v>400</v>
@@ -24647,7 +24647,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E304" t="n">
         <v>4</v>
@@ -24675,7 +24675,7 @@
       </c>
       <c r="K304" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L304" t="inlineStr">
@@ -24687,13 +24687,13 @@
         <v>20</v>
       </c>
       <c r="N304" t="n">
-        <v>290000</v>
+        <v>145000</v>
       </c>
       <c r="O304" t="n">
-        <v>300000</v>
+        <v>150000</v>
       </c>
       <c r="P304" t="n">
-        <v>295000</v>
+        <v>147500</v>
       </c>
       <c r="Q304" t="inlineStr">
         <is>
@@ -24706,7 +24706,7 @@
         </is>
       </c>
       <c r="S304" t="n">
-        <v>738</v>
+        <v>369</v>
       </c>
       <c r="T304" t="n">
         <v>400</v>
@@ -24727,7 +24727,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E305" t="n">
         <v>4</v>
@@ -24760,20 +24760,20 @@
       </c>
       <c r="L305" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M305" t="n">
         <v>20</v>
       </c>
       <c r="N305" t="n">
-        <v>320000</v>
+        <v>115000</v>
       </c>
       <c r="O305" t="n">
-        <v>330000</v>
+        <v>120000</v>
       </c>
       <c r="P305" t="n">
-        <v>325000</v>
+        <v>117500</v>
       </c>
       <c r="Q305" t="inlineStr">
         <is>
@@ -24786,7 +24786,7 @@
         </is>
       </c>
       <c r="S305" t="n">
-        <v>812</v>
+        <v>294</v>
       </c>
       <c r="T305" t="n">
         <v>400</v>
@@ -24807,7 +24807,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E306" t="n">
         <v>4</v>
@@ -24835,25 +24835,25 @@
       </c>
       <c r="K306" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L306" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M306" t="n">
         <v>20</v>
       </c>
       <c r="N306" t="n">
-        <v>280000</v>
+        <v>145000</v>
       </c>
       <c r="O306" t="n">
-        <v>290000</v>
+        <v>150000</v>
       </c>
       <c r="P306" t="n">
-        <v>285000</v>
+        <v>147500</v>
       </c>
       <c r="Q306" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         </is>
       </c>
       <c r="S306" t="n">
-        <v>712</v>
+        <v>369</v>
       </c>
       <c r="T306" t="n">
         <v>400</v>
@@ -24887,7 +24887,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E307" t="n">
         <v>4</v>
@@ -24915,25 +24915,25 @@
       </c>
       <c r="K307" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L307" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M307" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N307" t="n">
-        <v>460000</v>
+        <v>115000</v>
       </c>
       <c r="O307" t="n">
-        <v>470000</v>
+        <v>120000</v>
       </c>
       <c r="P307" t="n">
-        <v>465000</v>
+        <v>117500</v>
       </c>
       <c r="Q307" t="inlineStr">
         <is>
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="S307" t="n">
-        <v>1162</v>
+        <v>294</v>
       </c>
       <c r="T307" t="n">
         <v>400</v>
@@ -24967,7 +24967,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44314</v>
+        <v>44328</v>
       </c>
       <c r="E308" t="n">
         <v>4</v>
@@ -25007,13 +25007,13 @@
         <v>20</v>
       </c>
       <c r="N308" t="n">
-        <v>355000</v>
+        <v>290000</v>
       </c>
       <c r="O308" t="n">
-        <v>360000</v>
+        <v>300000</v>
       </c>
       <c r="P308" t="n">
-        <v>357500</v>
+        <v>295000</v>
       </c>
       <c r="Q308" t="inlineStr">
         <is>
@@ -25026,7 +25026,7 @@
         </is>
       </c>
       <c r="S308" t="n">
-        <v>894</v>
+        <v>738</v>
       </c>
       <c r="T308" t="n">
         <v>400</v>
@@ -25047,7 +25047,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44314</v>
+        <v>44328</v>
       </c>
       <c r="E309" t="n">
         <v>4</v>
@@ -25075,25 +25075,25 @@
       </c>
       <c r="K309" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L309" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M309" t="n">
         <v>20</v>
       </c>
       <c r="N309" t="n">
-        <v>325000</v>
+        <v>290000</v>
       </c>
       <c r="O309" t="n">
-        <v>330000</v>
+        <v>300000</v>
       </c>
       <c r="P309" t="n">
-        <v>327500</v>
+        <v>295000</v>
       </c>
       <c r="Q309" t="inlineStr">
         <is>
@@ -25106,7 +25106,7 @@
         </is>
       </c>
       <c r="S309" t="n">
-        <v>819</v>
+        <v>738</v>
       </c>
       <c r="T309" t="n">
         <v>400</v>
@@ -25127,7 +25127,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44314</v>
+        <v>44321</v>
       </c>
       <c r="E310" t="n">
         <v>4</v>
@@ -25155,7 +25155,7 @@
       </c>
       <c r="K310" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L310" t="inlineStr">
@@ -25167,13 +25167,13 @@
         <v>20</v>
       </c>
       <c r="N310" t="n">
-        <v>355000</v>
+        <v>320000</v>
       </c>
       <c r="O310" t="n">
-        <v>360000</v>
+        <v>330000</v>
       </c>
       <c r="P310" t="n">
-        <v>357500</v>
+        <v>325000</v>
       </c>
       <c r="Q310" t="inlineStr">
         <is>
@@ -25186,7 +25186,7 @@
         </is>
       </c>
       <c r="S310" t="n">
-        <v>894</v>
+        <v>812</v>
       </c>
       <c r="T310" t="n">
         <v>400</v>
@@ -25207,7 +25207,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44314</v>
+        <v>44321</v>
       </c>
       <c r="E311" t="n">
         <v>4</v>
@@ -25235,7 +25235,7 @@
       </c>
       <c r="K311" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L311" t="inlineStr">
@@ -25247,13 +25247,13 @@
         <v>20</v>
       </c>
       <c r="N311" t="n">
-        <v>325000</v>
+        <v>280000</v>
       </c>
       <c r="O311" t="n">
-        <v>330000</v>
+        <v>290000</v>
       </c>
       <c r="P311" t="n">
-        <v>327500</v>
+        <v>285000</v>
       </c>
       <c r="Q311" t="inlineStr">
         <is>
@@ -25266,7 +25266,7 @@
         </is>
       </c>
       <c r="S311" t="n">
-        <v>819</v>
+        <v>712</v>
       </c>
       <c r="T311" t="n">
         <v>400</v>
@@ -25287,7 +25287,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44314</v>
+        <v>44321</v>
       </c>
       <c r="E312" t="n">
         <v>4</v>
@@ -25324,16 +25324,16 @@
         </is>
       </c>
       <c r="M312" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N312" t="n">
+        <v>460000</v>
+      </c>
+      <c r="O312" t="n">
         <v>470000</v>
       </c>
-      <c r="O312" t="n">
-        <v>480000</v>
-      </c>
       <c r="P312" t="n">
-        <v>475000</v>
+        <v>465000</v>
       </c>
       <c r="Q312" t="inlineStr">
         <is>
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="S312" t="n">
-        <v>1188</v>
+        <v>1162</v>
       </c>
       <c r="T312" t="n">
         <v>400</v>
@@ -25367,7 +25367,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E313" t="n">
         <v>4</v>
@@ -25395,7 +25395,7 @@
       </c>
       <c r="K313" t="inlineStr">
         <is>
-          <t>Cara cara</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L313" t="inlineStr">
@@ -25407,13 +25407,13 @@
         <v>20</v>
       </c>
       <c r="N313" t="n">
-        <v>125000</v>
+        <v>355000</v>
       </c>
       <c r="O313" t="n">
-        <v>130000</v>
+        <v>360000</v>
       </c>
       <c r="P313" t="n">
-        <v>127500</v>
+        <v>357500</v>
       </c>
       <c r="Q313" t="inlineStr">
         <is>
@@ -25426,7 +25426,7 @@
         </is>
       </c>
       <c r="S313" t="n">
-        <v>319</v>
+        <v>894</v>
       </c>
       <c r="T313" t="n">
         <v>400</v>
@@ -25447,7 +25447,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E314" t="n">
         <v>4</v>
@@ -25480,20 +25480,20 @@
       </c>
       <c r="L314" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M314" t="n">
         <v>20</v>
       </c>
       <c r="N314" t="n">
-        <v>100000</v>
+        <v>325000</v>
       </c>
       <c r="O314" t="n">
-        <v>110000</v>
+        <v>330000</v>
       </c>
       <c r="P314" t="n">
-        <v>105000</v>
+        <v>327500</v>
       </c>
       <c r="Q314" t="inlineStr">
         <is>
@@ -25506,7 +25506,7 @@
         </is>
       </c>
       <c r="S314" t="n">
-        <v>262</v>
+        <v>819</v>
       </c>
       <c r="T314" t="n">
         <v>400</v>
@@ -25527,7 +25527,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E315" t="n">
         <v>4</v>
@@ -25555,25 +25555,25 @@
       </c>
       <c r="K315" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L315" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M315" t="n">
         <v>20</v>
       </c>
       <c r="N315" t="n">
-        <v>80000</v>
+        <v>355000</v>
       </c>
       <c r="O315" t="n">
-        <v>90000</v>
+        <v>360000</v>
       </c>
       <c r="P315" t="n">
-        <v>85000</v>
+        <v>357500</v>
       </c>
       <c r="Q315" t="inlineStr">
         <is>
@@ -25586,7 +25586,7 @@
         </is>
       </c>
       <c r="S315" t="n">
-        <v>212</v>
+        <v>894</v>
       </c>
       <c r="T315" t="n">
         <v>400</v>
@@ -25607,7 +25607,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E316" t="n">
         <v>4</v>
@@ -25635,25 +25635,25 @@
       </c>
       <c r="K316" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L316" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M316" t="n">
         <v>20</v>
       </c>
       <c r="N316" t="n">
-        <v>100000</v>
+        <v>325000</v>
       </c>
       <c r="O316" t="n">
-        <v>110000</v>
+        <v>330000</v>
       </c>
       <c r="P316" t="n">
-        <v>105000</v>
+        <v>327500</v>
       </c>
       <c r="Q316" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         </is>
       </c>
       <c r="S316" t="n">
-        <v>262</v>
+        <v>819</v>
       </c>
       <c r="T316" t="n">
         <v>400</v>
@@ -25687,7 +25687,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E317" t="n">
         <v>4</v>
@@ -25715,25 +25715,25 @@
       </c>
       <c r="K317" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L317" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M317" t="n">
         <v>20</v>
       </c>
       <c r="N317" t="n">
-        <v>80000</v>
+        <v>470000</v>
       </c>
       <c r="O317" t="n">
-        <v>90000</v>
+        <v>480000</v>
       </c>
       <c r="P317" t="n">
-        <v>85000</v>
+        <v>475000</v>
       </c>
       <c r="Q317" t="inlineStr">
         <is>
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="S317" t="n">
-        <v>212</v>
+        <v>1188</v>
       </c>
       <c r="T317" t="n">
         <v>400</v>
@@ -25795,7 +25795,7 @@
       </c>
       <c r="K318" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Cara cara</t>
         </is>
       </c>
       <c r="L318" t="inlineStr">
@@ -25807,13 +25807,13 @@
         <v>20</v>
       </c>
       <c r="N318" t="n">
-        <v>100000</v>
+        <v>125000</v>
       </c>
       <c r="O318" t="n">
-        <v>110000</v>
+        <v>130000</v>
       </c>
       <c r="P318" t="n">
-        <v>105000</v>
+        <v>127500</v>
       </c>
       <c r="Q318" t="inlineStr">
         <is>
@@ -25826,7 +25826,7 @@
         </is>
       </c>
       <c r="S318" t="n">
-        <v>262</v>
+        <v>319</v>
       </c>
       <c r="T318" t="n">
         <v>400</v>
@@ -25875,25 +25875,25 @@
       </c>
       <c r="K319" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L319" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M319" t="n">
         <v>20</v>
       </c>
       <c r="N319" t="n">
-        <v>80000</v>
+        <v>100000</v>
       </c>
       <c r="O319" t="n">
-        <v>90000</v>
+        <v>110000</v>
       </c>
       <c r="P319" t="n">
-        <v>85000</v>
+        <v>105000</v>
       </c>
       <c r="Q319" t="inlineStr">
         <is>
@@ -25906,7 +25906,7 @@
         </is>
       </c>
       <c r="S319" t="n">
-        <v>212</v>
+        <v>262</v>
       </c>
       <c r="T319" t="n">
         <v>400</v>
@@ -25927,7 +25927,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44461</v>
+        <v>44392</v>
       </c>
       <c r="E320" t="n">
         <v>4</v>
@@ -25955,25 +25955,25 @@
       </c>
       <c r="K320" t="inlineStr">
         <is>
-          <t>Cara cara</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L320" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M320" t="n">
         <v>20</v>
       </c>
       <c r="N320" t="n">
-        <v>110000</v>
+        <v>80000</v>
       </c>
       <c r="O320" t="n">
-        <v>120000</v>
+        <v>90000</v>
       </c>
       <c r="P320" t="n">
-        <v>115000</v>
+        <v>85000</v>
       </c>
       <c r="Q320" t="inlineStr">
         <is>
@@ -25986,7 +25986,7 @@
         </is>
       </c>
       <c r="S320" t="n">
-        <v>288</v>
+        <v>212</v>
       </c>
       <c r="T320" t="n">
         <v>400</v>
@@ -26007,7 +26007,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44461</v>
+        <v>44392</v>
       </c>
       <c r="E321" t="n">
         <v>4</v>
@@ -26035,25 +26035,25 @@
       </c>
       <c r="K321" t="inlineStr">
         <is>
-          <t>Cara cara</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L321" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M321" t="n">
         <v>20</v>
       </c>
       <c r="N321" t="n">
-        <v>90000</v>
+        <v>100000</v>
       </c>
       <c r="O321" t="n">
-        <v>100000</v>
+        <v>110000</v>
       </c>
       <c r="P321" t="n">
-        <v>95000</v>
+        <v>105000</v>
       </c>
       <c r="Q321" t="inlineStr">
         <is>
@@ -26066,7 +26066,7 @@
         </is>
       </c>
       <c r="S321" t="n">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="T321" t="n">
         <v>400</v>
@@ -26087,7 +26087,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44461</v>
+        <v>44392</v>
       </c>
       <c r="E322" t="n">
         <v>4</v>
@@ -26120,20 +26120,20 @@
       </c>
       <c r="L322" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M322" t="n">
         <v>20</v>
       </c>
       <c r="N322" t="n">
-        <v>100000</v>
+        <v>80000</v>
       </c>
       <c r="O322" t="n">
-        <v>110000</v>
+        <v>90000</v>
       </c>
       <c r="P322" t="n">
-        <v>105000</v>
+        <v>85000</v>
       </c>
       <c r="Q322" t="inlineStr">
         <is>
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="S322" t="n">
-        <v>262</v>
+        <v>212</v>
       </c>
       <c r="T322" t="n">
         <v>400</v>
@@ -26167,7 +26167,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44461</v>
+        <v>44392</v>
       </c>
       <c r="E323" t="n">
         <v>4</v>
@@ -26195,25 +26195,25 @@
       </c>
       <c r="K323" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L323" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M323" t="n">
         <v>20</v>
       </c>
       <c r="N323" t="n">
-        <v>80000</v>
+        <v>100000</v>
       </c>
       <c r="O323" t="n">
-        <v>90000</v>
+        <v>110000</v>
       </c>
       <c r="P323" t="n">
-        <v>85000</v>
+        <v>105000</v>
       </c>
       <c r="Q323" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         </is>
       </c>
       <c r="S323" t="n">
-        <v>212</v>
+        <v>262</v>
       </c>
       <c r="T323" t="n">
         <v>400</v>
@@ -26247,7 +26247,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E324" t="n">
         <v>4</v>
@@ -26275,25 +26275,25 @@
       </c>
       <c r="K324" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L324" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M324" t="n">
         <v>20</v>
       </c>
       <c r="N324" t="n">
-        <v>475000</v>
+        <v>80000</v>
       </c>
       <c r="O324" t="n">
-        <v>480000</v>
+        <v>90000</v>
       </c>
       <c r="P324" t="n">
-        <v>477500</v>
+        <v>85000</v>
       </c>
       <c r="Q324" t="inlineStr">
         <is>
@@ -26306,7 +26306,7 @@
         </is>
       </c>
       <c r="S324" t="n">
-        <v>1194</v>
+        <v>212</v>
       </c>
       <c r="T324" t="n">
         <v>400</v>
@@ -26327,68 +26327,468 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
+        <v>44461</v>
+      </c>
+      <c r="E325" t="n">
+        <v>4</v>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G325" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H325" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I325" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J325" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>Cara cara</t>
+        </is>
+      </c>
+      <c r="L325" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M325" t="n">
+        <v>20</v>
+      </c>
+      <c r="N325" t="n">
+        <v>110000</v>
+      </c>
+      <c r="O325" t="n">
+        <v>120000</v>
+      </c>
+      <c r="P325" t="n">
+        <v>115000</v>
+      </c>
+      <c r="Q325" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R325" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S325" t="n">
+        <v>288</v>
+      </c>
+      <c r="T325" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>2</v>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D326" s="2" t="n">
+        <v>44461</v>
+      </c>
+      <c r="E326" t="n">
+        <v>4</v>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G326" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H326" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I326" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J326" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>Cara cara</t>
+        </is>
+      </c>
+      <c r="L326" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M326" t="n">
+        <v>20</v>
+      </c>
+      <c r="N326" t="n">
+        <v>90000</v>
+      </c>
+      <c r="O326" t="n">
+        <v>100000</v>
+      </c>
+      <c r="P326" t="n">
+        <v>95000</v>
+      </c>
+      <c r="Q326" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R326" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S326" t="n">
+        <v>238</v>
+      </c>
+      <c r="T326" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>2</v>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D327" s="2" t="n">
+        <v>44461</v>
+      </c>
+      <c r="E327" t="n">
+        <v>4</v>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G327" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H327" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I327" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J327" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>Lane Late</t>
+        </is>
+      </c>
+      <c r="L327" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M327" t="n">
+        <v>20</v>
+      </c>
+      <c r="N327" t="n">
+        <v>100000</v>
+      </c>
+      <c r="O327" t="n">
+        <v>110000</v>
+      </c>
+      <c r="P327" t="n">
+        <v>105000</v>
+      </c>
+      <c r="Q327" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R327" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S327" t="n">
+        <v>262</v>
+      </c>
+      <c r="T327" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>2</v>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D328" s="2" t="n">
+        <v>44461</v>
+      </c>
+      <c r="E328" t="n">
+        <v>4</v>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G328" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H328" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I328" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J328" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>Lane Late</t>
+        </is>
+      </c>
+      <c r="L328" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M328" t="n">
+        <v>20</v>
+      </c>
+      <c r="N328" t="n">
+        <v>80000</v>
+      </c>
+      <c r="O328" t="n">
+        <v>90000</v>
+      </c>
+      <c r="P328" t="n">
+        <v>85000</v>
+      </c>
+      <c r="Q328" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R328" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S328" t="n">
+        <v>212</v>
+      </c>
+      <c r="T328" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>2</v>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D329" s="2" t="n">
         <v>44286</v>
       </c>
-      <c r="E325" t="n">
-        <v>4</v>
-      </c>
-      <c r="F325" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G325" t="n">
-        <v>100102</v>
-      </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>Cítricos</t>
-        </is>
-      </c>
-      <c r="I325" t="n">
-        <v>100102005</v>
-      </c>
-      <c r="J325" t="inlineStr">
-        <is>
-          <t>Naranja</t>
-        </is>
-      </c>
-      <c r="K325" t="inlineStr">
+      <c r="E329" t="n">
+        <v>4</v>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G329" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H329" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I329" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J329" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K329" t="inlineStr">
         <is>
           <t>Valencia</t>
         </is>
       </c>
-      <c r="L325" t="inlineStr">
+      <c r="L329" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M329" t="n">
+        <v>20</v>
+      </c>
+      <c r="N329" t="n">
+        <v>475000</v>
+      </c>
+      <c r="O329" t="n">
+        <v>480000</v>
+      </c>
+      <c r="P329" t="n">
+        <v>477500</v>
+      </c>
+      <c r="Q329" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R329" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S329" t="n">
+        <v>1194</v>
+      </c>
+      <c r="T329" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>2</v>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D330" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="E330" t="n">
+        <v>4</v>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G330" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H330" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I330" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J330" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="L330" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M325" t="n">
-        <v>20</v>
-      </c>
-      <c r="N325" t="n">
+      <c r="M330" t="n">
+        <v>20</v>
+      </c>
+      <c r="N330" t="n">
         <v>455000</v>
       </c>
-      <c r="O325" t="n">
+      <c r="O330" t="n">
         <v>460000</v>
       </c>
-      <c r="P325" t="n">
+      <c r="P330" t="n">
         <v>457500</v>
       </c>
-      <c r="Q325" t="inlineStr">
-        <is>
-          <t>$/bins (400 kilos)</t>
-        </is>
-      </c>
-      <c r="R325" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="S325" t="n">
+      <c r="Q330" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R330" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S330" t="n">
         <v>1144</v>
       </c>
-      <c r="T325" t="n">
+      <c r="T330" t="n">
         <v>400</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Comercializadora del Agro de Limarí - Naranja.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Comercializadora del Agro de Limarí - Naranja.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T346"/>
+  <dimension ref="A1:T351"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23607,7 +23607,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E291" t="n">
         <v>4</v>
@@ -23635,7 +23635,7 @@
       </c>
       <c r="K291" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Cara cara</t>
         </is>
       </c>
       <c r="L291" t="inlineStr">
@@ -23647,13 +23647,13 @@
         <v>20</v>
       </c>
       <c r="N291" t="n">
-        <v>125000</v>
+        <v>165000</v>
       </c>
       <c r="O291" t="n">
-        <v>130000</v>
+        <v>170000</v>
       </c>
       <c r="P291" t="n">
-        <v>127500</v>
+        <v>167500</v>
       </c>
       <c r="Q291" t="inlineStr">
         <is>
@@ -23666,7 +23666,7 @@
         </is>
       </c>
       <c r="S291" t="n">
-        <v>319</v>
+        <v>419</v>
       </c>
       <c r="T291" t="n">
         <v>400</v>
@@ -23687,7 +23687,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E292" t="n">
         <v>4</v>
@@ -23715,25 +23715,25 @@
       </c>
       <c r="K292" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L292" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M292" t="n">
         <v>20</v>
       </c>
       <c r="N292" t="n">
-        <v>105000</v>
+        <v>145000</v>
       </c>
       <c r="O292" t="n">
-        <v>110000</v>
+        <v>150000</v>
       </c>
       <c r="P292" t="n">
-        <v>107500</v>
+        <v>147500</v>
       </c>
       <c r="Q292" t="inlineStr">
         <is>
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="S292" t="n">
-        <v>269</v>
+        <v>369</v>
       </c>
       <c r="T292" t="n">
         <v>400</v>
@@ -23767,7 +23767,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E293" t="n">
         <v>4</v>
@@ -23795,12 +23795,12 @@
       </c>
       <c r="K293" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L293" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M293" t="n">
@@ -23847,7 +23847,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E294" t="n">
         <v>4</v>
@@ -23880,20 +23880,20 @@
       </c>
       <c r="L294" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M294" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N294" t="n">
-        <v>105000</v>
+        <v>145000</v>
       </c>
       <c r="O294" t="n">
-        <v>110000</v>
+        <v>150000</v>
       </c>
       <c r="P294" t="n">
-        <v>107500</v>
+        <v>147500</v>
       </c>
       <c r="Q294" t="inlineStr">
         <is>
@@ -23906,7 +23906,7 @@
         </is>
       </c>
       <c r="S294" t="n">
-        <v>269</v>
+        <v>369</v>
       </c>
       <c r="T294" t="n">
         <v>400</v>
@@ -23927,7 +23927,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E295" t="n">
         <v>4</v>
@@ -23955,25 +23955,25 @@
       </c>
       <c r="K295" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L295" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M295" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N295" t="n">
-        <v>115000</v>
+        <v>125000</v>
       </c>
       <c r="O295" t="n">
-        <v>120000</v>
+        <v>130000</v>
       </c>
       <c r="P295" t="n">
-        <v>117500</v>
+        <v>127500</v>
       </c>
       <c r="Q295" t="inlineStr">
         <is>
@@ -23986,7 +23986,7 @@
         </is>
       </c>
       <c r="S295" t="n">
-        <v>294</v>
+        <v>319</v>
       </c>
       <c r="T295" t="n">
         <v>400</v>
@@ -24035,25 +24035,25 @@
       </c>
       <c r="K296" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L296" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M296" t="n">
         <v>20</v>
       </c>
       <c r="N296" t="n">
-        <v>95000</v>
+        <v>125000</v>
       </c>
       <c r="O296" t="n">
-        <v>100000</v>
+        <v>130000</v>
       </c>
       <c r="P296" t="n">
-        <v>97500</v>
+        <v>127500</v>
       </c>
       <c r="Q296" t="inlineStr">
         <is>
@@ -24066,7 +24066,7 @@
         </is>
       </c>
       <c r="S296" t="n">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="T296" t="n">
         <v>400</v>
@@ -24087,7 +24087,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44343</v>
+        <v>44384</v>
       </c>
       <c r="E297" t="n">
         <v>4</v>
@@ -24120,20 +24120,20 @@
       </c>
       <c r="L297" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M297" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N297" t="n">
-        <v>235000</v>
+        <v>105000</v>
       </c>
       <c r="O297" t="n">
-        <v>240000</v>
+        <v>110000</v>
       </c>
       <c r="P297" t="n">
-        <v>237500</v>
+        <v>107500</v>
       </c>
       <c r="Q297" t="inlineStr">
         <is>
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="S297" t="n">
-        <v>594</v>
+        <v>269</v>
       </c>
       <c r="T297" t="n">
         <v>400</v>
@@ -24167,7 +24167,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44343</v>
+        <v>44384</v>
       </c>
       <c r="E298" t="n">
         <v>4</v>
@@ -24195,7 +24195,7 @@
       </c>
       <c r="K298" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L298" t="inlineStr">
@@ -24207,13 +24207,13 @@
         <v>20</v>
       </c>
       <c r="N298" t="n">
-        <v>195000</v>
+        <v>125000</v>
       </c>
       <c r="O298" t="n">
-        <v>200000</v>
+        <v>130000</v>
       </c>
       <c r="P298" t="n">
-        <v>197500</v>
+        <v>127500</v>
       </c>
       <c r="Q298" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         </is>
       </c>
       <c r="S298" t="n">
-        <v>494</v>
+        <v>319</v>
       </c>
       <c r="T298" t="n">
         <v>400</v>
@@ -24247,7 +24247,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44343</v>
+        <v>44384</v>
       </c>
       <c r="E299" t="n">
         <v>4</v>
@@ -24275,7 +24275,7 @@
       </c>
       <c r="K299" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L299" t="inlineStr">
@@ -24287,13 +24287,13 @@
         <v>20</v>
       </c>
       <c r="N299" t="n">
-        <v>165000</v>
+        <v>105000</v>
       </c>
       <c r="O299" t="n">
-        <v>170000</v>
+        <v>110000</v>
       </c>
       <c r="P299" t="n">
-        <v>167500</v>
+        <v>107500</v>
       </c>
       <c r="Q299" t="inlineStr">
         <is>
@@ -24306,7 +24306,7 @@
         </is>
       </c>
       <c r="S299" t="n">
-        <v>419</v>
+        <v>269</v>
       </c>
       <c r="T299" t="n">
         <v>400</v>
@@ -24327,7 +24327,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44370</v>
+        <v>44384</v>
       </c>
       <c r="E300" t="n">
         <v>4</v>
@@ -24355,7 +24355,7 @@
       </c>
       <c r="K300" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L300" t="inlineStr">
@@ -24364,16 +24364,16 @@
         </is>
       </c>
       <c r="M300" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N300" t="n">
-        <v>125000</v>
+        <v>115000</v>
       </c>
       <c r="O300" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="P300" t="n">
-        <v>127500</v>
+        <v>117500</v>
       </c>
       <c r="Q300" t="inlineStr">
         <is>
@@ -24386,7 +24386,7 @@
         </is>
       </c>
       <c r="S300" t="n">
-        <v>319</v>
+        <v>294</v>
       </c>
       <c r="T300" t="n">
         <v>400</v>
@@ -24407,7 +24407,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44370</v>
+        <v>44384</v>
       </c>
       <c r="E301" t="n">
         <v>4</v>
@@ -24435,7 +24435,7 @@
       </c>
       <c r="K301" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L301" t="inlineStr">
@@ -24447,13 +24447,13 @@
         <v>20</v>
       </c>
       <c r="N301" t="n">
-        <v>105000</v>
+        <v>95000</v>
       </c>
       <c r="O301" t="n">
-        <v>110000</v>
+        <v>100000</v>
       </c>
       <c r="P301" t="n">
-        <v>107500</v>
+        <v>97500</v>
       </c>
       <c r="Q301" t="inlineStr">
         <is>
@@ -24466,7 +24466,7 @@
         </is>
       </c>
       <c r="S301" t="n">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="T301" t="n">
         <v>400</v>
@@ -24487,7 +24487,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E302" t="n">
         <v>4</v>
@@ -24515,25 +24515,25 @@
       </c>
       <c r="K302" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L302" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M302" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N302" t="n">
-        <v>135000</v>
+        <v>235000</v>
       </c>
       <c r="O302" t="n">
-        <v>140000</v>
+        <v>240000</v>
       </c>
       <c r="P302" t="n">
-        <v>137500</v>
+        <v>237500</v>
       </c>
       <c r="Q302" t="inlineStr">
         <is>
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="S302" t="n">
-        <v>344</v>
+        <v>594</v>
       </c>
       <c r="T302" t="n">
         <v>400</v>
@@ -24567,7 +24567,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E303" t="n">
         <v>4</v>
@@ -24595,25 +24595,25 @@
       </c>
       <c r="K303" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L303" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M303" t="n">
         <v>20</v>
       </c>
       <c r="N303" t="n">
-        <v>115000</v>
+        <v>195000</v>
       </c>
       <c r="O303" t="n">
-        <v>120000</v>
+        <v>200000</v>
       </c>
       <c r="P303" t="n">
-        <v>117500</v>
+        <v>197500</v>
       </c>
       <c r="Q303" t="inlineStr">
         <is>
@@ -24626,7 +24626,7 @@
         </is>
       </c>
       <c r="S303" t="n">
-        <v>294</v>
+        <v>494</v>
       </c>
       <c r="T303" t="n">
         <v>400</v>
@@ -24647,7 +24647,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E304" t="n">
         <v>4</v>
@@ -24675,25 +24675,25 @@
       </c>
       <c r="K304" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L304" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M304" t="n">
         <v>20</v>
       </c>
       <c r="N304" t="n">
-        <v>135000</v>
+        <v>165000</v>
       </c>
       <c r="O304" t="n">
-        <v>140000</v>
+        <v>170000</v>
       </c>
       <c r="P304" t="n">
-        <v>137500</v>
+        <v>167500</v>
       </c>
       <c r="Q304" t="inlineStr">
         <is>
@@ -24706,7 +24706,7 @@
         </is>
       </c>
       <c r="S304" t="n">
-        <v>344</v>
+        <v>419</v>
       </c>
       <c r="T304" t="n">
         <v>400</v>
@@ -24755,25 +24755,25 @@
       </c>
       <c r="K305" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L305" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M305" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N305" t="n">
-        <v>115000</v>
+        <v>125000</v>
       </c>
       <c r="O305" t="n">
-        <v>120000</v>
+        <v>130000</v>
       </c>
       <c r="P305" t="n">
-        <v>117500</v>
+        <v>127500</v>
       </c>
       <c r="Q305" t="inlineStr">
         <is>
@@ -24786,7 +24786,7 @@
         </is>
       </c>
       <c r="S305" t="n">
-        <v>294</v>
+        <v>319</v>
       </c>
       <c r="T305" t="n">
         <v>400</v>
@@ -24807,7 +24807,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44168</v>
+        <v>44370</v>
       </c>
       <c r="E306" t="n">
         <v>4</v>
@@ -24835,25 +24835,25 @@
       </c>
       <c r="K306" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L306" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M306" t="n">
         <v>20</v>
       </c>
       <c r="N306" t="n">
-        <v>325000</v>
+        <v>105000</v>
       </c>
       <c r="O306" t="n">
-        <v>330000</v>
+        <v>110000</v>
       </c>
       <c r="P306" t="n">
-        <v>327500</v>
+        <v>107500</v>
       </c>
       <c r="Q306" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         </is>
       </c>
       <c r="S306" t="n">
-        <v>819</v>
+        <v>269</v>
       </c>
       <c r="T306" t="n">
         <v>400</v>
@@ -24887,7 +24887,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44168</v>
+        <v>44370</v>
       </c>
       <c r="E307" t="n">
         <v>4</v>
@@ -24920,20 +24920,20 @@
       </c>
       <c r="L307" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M307" t="n">
         <v>20</v>
       </c>
       <c r="N307" t="n">
-        <v>285000</v>
+        <v>135000</v>
       </c>
       <c r="O307" t="n">
-        <v>290000</v>
+        <v>140000</v>
       </c>
       <c r="P307" t="n">
-        <v>287500</v>
+        <v>137500</v>
       </c>
       <c r="Q307" t="inlineStr">
         <is>
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="S307" t="n">
-        <v>719</v>
+        <v>344</v>
       </c>
       <c r="T307" t="n">
         <v>400</v>
@@ -24967,7 +24967,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44168</v>
+        <v>44370</v>
       </c>
       <c r="E308" t="n">
         <v>4</v>
@@ -24995,25 +24995,25 @@
       </c>
       <c r="K308" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L308" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M308" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N308" t="n">
-        <v>355000</v>
+        <v>115000</v>
       </c>
       <c r="O308" t="n">
-        <v>360000</v>
+        <v>120000</v>
       </c>
       <c r="P308" t="n">
-        <v>357500</v>
+        <v>117500</v>
       </c>
       <c r="Q308" t="inlineStr">
         <is>
@@ -25026,7 +25026,7 @@
         </is>
       </c>
       <c r="S308" t="n">
-        <v>894</v>
+        <v>294</v>
       </c>
       <c r="T308" t="n">
         <v>400</v>
@@ -25047,7 +25047,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44168</v>
+        <v>44370</v>
       </c>
       <c r="E309" t="n">
         <v>4</v>
@@ -25075,7 +25075,7 @@
       </c>
       <c r="K309" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L309" t="inlineStr">
@@ -25087,13 +25087,13 @@
         <v>20</v>
       </c>
       <c r="N309" t="n">
-        <v>335000</v>
+        <v>135000</v>
       </c>
       <c r="O309" t="n">
-        <v>340000</v>
+        <v>140000</v>
       </c>
       <c r="P309" t="n">
-        <v>337500</v>
+        <v>137500</v>
       </c>
       <c r="Q309" t="inlineStr">
         <is>
@@ -25106,7 +25106,7 @@
         </is>
       </c>
       <c r="S309" t="n">
-        <v>844</v>
+        <v>344</v>
       </c>
       <c r="T309" t="n">
         <v>400</v>
@@ -25127,7 +25127,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44168</v>
+        <v>44370</v>
       </c>
       <c r="E310" t="n">
         <v>4</v>
@@ -25155,7 +25155,7 @@
       </c>
       <c r="K310" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L310" t="inlineStr">
@@ -25167,13 +25167,13 @@
         <v>20</v>
       </c>
       <c r="N310" t="n">
-        <v>295000</v>
+        <v>115000</v>
       </c>
       <c r="O310" t="n">
-        <v>300000</v>
+        <v>120000</v>
       </c>
       <c r="P310" t="n">
-        <v>297500</v>
+        <v>117500</v>
       </c>
       <c r="Q310" t="inlineStr">
         <is>
@@ -25186,7 +25186,7 @@
         </is>
       </c>
       <c r="S310" t="n">
-        <v>744</v>
+        <v>294</v>
       </c>
       <c r="T310" t="n">
         <v>400</v>
@@ -25207,7 +25207,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E311" t="n">
         <v>4</v>
@@ -25287,7 +25287,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E312" t="n">
         <v>4</v>
@@ -25327,13 +25327,13 @@
         <v>20</v>
       </c>
       <c r="N312" t="n">
-        <v>265000</v>
+        <v>285000</v>
       </c>
       <c r="O312" t="n">
-        <v>270000</v>
+        <v>290000</v>
       </c>
       <c r="P312" t="n">
-        <v>267500</v>
+        <v>287500</v>
       </c>
       <c r="Q312" t="inlineStr">
         <is>
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="S312" t="n">
-        <v>669</v>
+        <v>719</v>
       </c>
       <c r="T312" t="n">
         <v>400</v>
@@ -25367,7 +25367,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E313" t="n">
         <v>4</v>
@@ -25400,20 +25400,20 @@
       </c>
       <c r="L313" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M313" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N313" t="n">
-        <v>335000</v>
+        <v>355000</v>
       </c>
       <c r="O313" t="n">
-        <v>340000</v>
+        <v>360000</v>
       </c>
       <c r="P313" t="n">
-        <v>337500</v>
+        <v>357500</v>
       </c>
       <c r="Q313" t="inlineStr">
         <is>
@@ -25426,7 +25426,7 @@
         </is>
       </c>
       <c r="S313" t="n">
-        <v>844</v>
+        <v>894</v>
       </c>
       <c r="T313" t="n">
         <v>400</v>
@@ -25447,7 +25447,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E314" t="n">
         <v>4</v>
@@ -25480,20 +25480,20 @@
       </c>
       <c r="L314" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M314" t="n">
         <v>20</v>
       </c>
       <c r="N314" t="n">
-        <v>285000</v>
+        <v>335000</v>
       </c>
       <c r="O314" t="n">
-        <v>290000</v>
+        <v>340000</v>
       </c>
       <c r="P314" t="n">
-        <v>287500</v>
+        <v>337500</v>
       </c>
       <c r="Q314" t="inlineStr">
         <is>
@@ -25506,7 +25506,7 @@
         </is>
       </c>
       <c r="S314" t="n">
-        <v>719</v>
+        <v>844</v>
       </c>
       <c r="T314" t="n">
         <v>400</v>
@@ -25527,7 +25527,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44392</v>
+        <v>44168</v>
       </c>
       <c r="E315" t="n">
         <v>4</v>
@@ -25555,25 +25555,25 @@
       </c>
       <c r="K315" t="inlineStr">
         <is>
-          <t>Cara cara</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L315" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M315" t="n">
         <v>20</v>
       </c>
       <c r="N315" t="n">
-        <v>125000</v>
+        <v>295000</v>
       </c>
       <c r="O315" t="n">
-        <v>130000</v>
+        <v>300000</v>
       </c>
       <c r="P315" t="n">
-        <v>127500</v>
+        <v>297500</v>
       </c>
       <c r="Q315" t="inlineStr">
         <is>
@@ -25586,7 +25586,7 @@
         </is>
       </c>
       <c r="S315" t="n">
-        <v>319</v>
+        <v>744</v>
       </c>
       <c r="T315" t="n">
         <v>400</v>
@@ -25607,7 +25607,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E316" t="n">
         <v>4</v>
@@ -25635,7 +25635,7 @@
       </c>
       <c r="K316" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L316" t="inlineStr">
@@ -25647,13 +25647,13 @@
         <v>20</v>
       </c>
       <c r="N316" t="n">
-        <v>100000</v>
+        <v>325000</v>
       </c>
       <c r="O316" t="n">
-        <v>110000</v>
+        <v>330000</v>
       </c>
       <c r="P316" t="n">
-        <v>105000</v>
+        <v>327500</v>
       </c>
       <c r="Q316" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         </is>
       </c>
       <c r="S316" t="n">
-        <v>262</v>
+        <v>819</v>
       </c>
       <c r="T316" t="n">
         <v>400</v>
@@ -25687,7 +25687,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E317" t="n">
         <v>4</v>
@@ -25715,7 +25715,7 @@
       </c>
       <c r="K317" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L317" t="inlineStr">
@@ -25727,13 +25727,13 @@
         <v>20</v>
       </c>
       <c r="N317" t="n">
-        <v>80000</v>
+        <v>265000</v>
       </c>
       <c r="O317" t="n">
-        <v>90000</v>
+        <v>270000</v>
       </c>
       <c r="P317" t="n">
-        <v>85000</v>
+        <v>267500</v>
       </c>
       <c r="Q317" t="inlineStr">
         <is>
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="S317" t="n">
-        <v>212</v>
+        <v>669</v>
       </c>
       <c r="T317" t="n">
         <v>400</v>
@@ -25767,7 +25767,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E318" t="n">
         <v>4</v>
@@ -25795,7 +25795,7 @@
       </c>
       <c r="K318" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L318" t="inlineStr">
@@ -25807,13 +25807,13 @@
         <v>20</v>
       </c>
       <c r="N318" t="n">
-        <v>100000</v>
+        <v>335000</v>
       </c>
       <c r="O318" t="n">
-        <v>110000</v>
+        <v>340000</v>
       </c>
       <c r="P318" t="n">
-        <v>105000</v>
+        <v>337500</v>
       </c>
       <c r="Q318" t="inlineStr">
         <is>
@@ -25826,7 +25826,7 @@
         </is>
       </c>
       <c r="S318" t="n">
-        <v>262</v>
+        <v>844</v>
       </c>
       <c r="T318" t="n">
         <v>400</v>
@@ -25847,7 +25847,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E319" t="n">
         <v>4</v>
@@ -25875,7 +25875,7 @@
       </c>
       <c r="K319" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L319" t="inlineStr">
@@ -25887,13 +25887,13 @@
         <v>20</v>
       </c>
       <c r="N319" t="n">
-        <v>80000</v>
+        <v>285000</v>
       </c>
       <c r="O319" t="n">
-        <v>90000</v>
+        <v>290000</v>
       </c>
       <c r="P319" t="n">
-        <v>85000</v>
+        <v>287500</v>
       </c>
       <c r="Q319" t="inlineStr">
         <is>
@@ -25906,7 +25906,7 @@
         </is>
       </c>
       <c r="S319" t="n">
-        <v>212</v>
+        <v>719</v>
       </c>
       <c r="T319" t="n">
         <v>400</v>
@@ -25955,7 +25955,7 @@
       </c>
       <c r="K320" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Cara cara</t>
         </is>
       </c>
       <c r="L320" t="inlineStr">
@@ -25967,13 +25967,13 @@
         <v>20</v>
       </c>
       <c r="N320" t="n">
-        <v>100000</v>
+        <v>125000</v>
       </c>
       <c r="O320" t="n">
-        <v>110000</v>
+        <v>130000</v>
       </c>
       <c r="P320" t="n">
-        <v>105000</v>
+        <v>127500</v>
       </c>
       <c r="Q320" t="inlineStr">
         <is>
@@ -25986,7 +25986,7 @@
         </is>
       </c>
       <c r="S320" t="n">
-        <v>262</v>
+        <v>319</v>
       </c>
       <c r="T320" t="n">
         <v>400</v>
@@ -26035,25 +26035,25 @@
       </c>
       <c r="K321" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L321" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M321" t="n">
         <v>20</v>
       </c>
       <c r="N321" t="n">
-        <v>80000</v>
+        <v>100000</v>
       </c>
       <c r="O321" t="n">
-        <v>90000</v>
+        <v>110000</v>
       </c>
       <c r="P321" t="n">
-        <v>85000</v>
+        <v>105000</v>
       </c>
       <c r="Q321" t="inlineStr">
         <is>
@@ -26066,7 +26066,7 @@
         </is>
       </c>
       <c r="S321" t="n">
-        <v>212</v>
+        <v>262</v>
       </c>
       <c r="T321" t="n">
         <v>400</v>
@@ -26087,7 +26087,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E322" t="n">
         <v>4</v>
@@ -26115,25 +26115,25 @@
       </c>
       <c r="K322" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L322" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M322" t="n">
         <v>20</v>
       </c>
       <c r="N322" t="n">
-        <v>475000</v>
+        <v>80000</v>
       </c>
       <c r="O322" t="n">
-        <v>480000</v>
+        <v>90000</v>
       </c>
       <c r="P322" t="n">
-        <v>477500</v>
+        <v>85000</v>
       </c>
       <c r="Q322" t="inlineStr">
         <is>
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="S322" t="n">
-        <v>1194</v>
+        <v>212</v>
       </c>
       <c r="T322" t="n">
         <v>400</v>
@@ -26167,7 +26167,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E323" t="n">
         <v>4</v>
@@ -26195,7 +26195,7 @@
       </c>
       <c r="K323" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L323" t="inlineStr">
@@ -26207,13 +26207,13 @@
         <v>20</v>
       </c>
       <c r="N323" t="n">
-        <v>455000</v>
+        <v>100000</v>
       </c>
       <c r="O323" t="n">
-        <v>460000</v>
+        <v>110000</v>
       </c>
       <c r="P323" t="n">
-        <v>457500</v>
+        <v>105000</v>
       </c>
       <c r="Q323" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         </is>
       </c>
       <c r="S323" t="n">
-        <v>1144</v>
+        <v>262</v>
       </c>
       <c r="T323" t="n">
         <v>400</v>
@@ -26247,7 +26247,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44181</v>
+        <v>44392</v>
       </c>
       <c r="E324" t="n">
         <v>4</v>
@@ -26275,25 +26275,25 @@
       </c>
       <c r="K324" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L324" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M324" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N324" t="n">
-        <v>355000</v>
+        <v>80000</v>
       </c>
       <c r="O324" t="n">
-        <v>360000</v>
+        <v>90000</v>
       </c>
       <c r="P324" t="n">
-        <v>357500</v>
+        <v>85000</v>
       </c>
       <c r="Q324" t="inlineStr">
         <is>
@@ -26306,7 +26306,7 @@
         </is>
       </c>
       <c r="S324" t="n">
-        <v>894</v>
+        <v>212</v>
       </c>
       <c r="T324" t="n">
         <v>400</v>
@@ -26327,7 +26327,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44181</v>
+        <v>44392</v>
       </c>
       <c r="E325" t="n">
         <v>4</v>
@@ -26355,7 +26355,7 @@
       </c>
       <c r="K325" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L325" t="inlineStr">
@@ -26364,16 +26364,16 @@
         </is>
       </c>
       <c r="M325" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N325" t="n">
-        <v>355000</v>
+        <v>100000</v>
       </c>
       <c r="O325" t="n">
-        <v>360000</v>
+        <v>110000</v>
       </c>
       <c r="P325" t="n">
-        <v>357500</v>
+        <v>105000</v>
       </c>
       <c r="Q325" t="inlineStr">
         <is>
@@ -26386,7 +26386,7 @@
         </is>
       </c>
       <c r="S325" t="n">
-        <v>894</v>
+        <v>262</v>
       </c>
       <c r="T325" t="n">
         <v>400</v>
@@ -26407,7 +26407,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44328</v>
+        <v>44392</v>
       </c>
       <c r="E326" t="n">
         <v>4</v>
@@ -26435,25 +26435,25 @@
       </c>
       <c r="K326" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L326" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M326" t="n">
         <v>20</v>
       </c>
       <c r="N326" t="n">
-        <v>290000</v>
+        <v>80000</v>
       </c>
       <c r="O326" t="n">
-        <v>300000</v>
+        <v>90000</v>
       </c>
       <c r="P326" t="n">
-        <v>295000</v>
+        <v>85000</v>
       </c>
       <c r="Q326" t="inlineStr">
         <is>
@@ -26466,7 +26466,7 @@
         </is>
       </c>
       <c r="S326" t="n">
-        <v>738</v>
+        <v>212</v>
       </c>
       <c r="T326" t="n">
         <v>400</v>
@@ -26487,7 +26487,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44328</v>
+        <v>44286</v>
       </c>
       <c r="E327" t="n">
         <v>4</v>
@@ -26515,25 +26515,25 @@
       </c>
       <c r="K327" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L327" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M327" t="n">
         <v>20</v>
       </c>
       <c r="N327" t="n">
-        <v>290000</v>
+        <v>475000</v>
       </c>
       <c r="O327" t="n">
-        <v>300000</v>
+        <v>480000</v>
       </c>
       <c r="P327" t="n">
-        <v>295000</v>
+        <v>477500</v>
       </c>
       <c r="Q327" t="inlineStr">
         <is>
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="S327" t="n">
-        <v>738</v>
+        <v>1194</v>
       </c>
       <c r="T327" t="n">
         <v>400</v>
@@ -26567,7 +26567,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44301</v>
+        <v>44286</v>
       </c>
       <c r="E328" t="n">
         <v>4</v>
@@ -26600,20 +26600,20 @@
       </c>
       <c r="L328" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M328" t="n">
         <v>20</v>
       </c>
       <c r="N328" t="n">
-        <v>495000</v>
+        <v>455000</v>
       </c>
       <c r="O328" t="n">
-        <v>500000</v>
+        <v>460000</v>
       </c>
       <c r="P328" t="n">
-        <v>497500</v>
+        <v>457500</v>
       </c>
       <c r="Q328" t="inlineStr">
         <is>
@@ -26626,7 +26626,7 @@
         </is>
       </c>
       <c r="S328" t="n">
-        <v>1244</v>
+        <v>1144</v>
       </c>
       <c r="T328" t="n">
         <v>400</v>
@@ -26647,7 +26647,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44301</v>
+        <v>44181</v>
       </c>
       <c r="E329" t="n">
         <v>4</v>
@@ -26675,7 +26675,7 @@
       </c>
       <c r="K329" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L329" t="inlineStr">
@@ -26684,16 +26684,16 @@
         </is>
       </c>
       <c r="M329" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N329" t="n">
-        <v>475000</v>
+        <v>355000</v>
       </c>
       <c r="O329" t="n">
-        <v>480000</v>
+        <v>360000</v>
       </c>
       <c r="P329" t="n">
-        <v>477500</v>
+        <v>357500</v>
       </c>
       <c r="Q329" t="inlineStr">
         <is>
@@ -26706,7 +26706,7 @@
         </is>
       </c>
       <c r="S329" t="n">
-        <v>1194</v>
+        <v>894</v>
       </c>
       <c r="T329" t="n">
         <v>400</v>
@@ -26727,7 +26727,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44217</v>
+        <v>44181</v>
       </c>
       <c r="E330" t="n">
         <v>4</v>
@@ -26764,16 +26764,16 @@
         </is>
       </c>
       <c r="M330" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N330" t="n">
-        <v>465000</v>
+        <v>355000</v>
       </c>
       <c r="O330" t="n">
-        <v>470000</v>
+        <v>360000</v>
       </c>
       <c r="P330" t="n">
-        <v>467500</v>
+        <v>357500</v>
       </c>
       <c r="Q330" t="inlineStr">
         <is>
@@ -26786,7 +26786,7 @@
         </is>
       </c>
       <c r="S330" t="n">
-        <v>1169</v>
+        <v>894</v>
       </c>
       <c r="T330" t="n">
         <v>400</v>
@@ -26807,7 +26807,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44217</v>
+        <v>44328</v>
       </c>
       <c r="E331" t="n">
         <v>4</v>
@@ -26835,25 +26835,25 @@
       </c>
       <c r="K331" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L331" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M331" t="n">
         <v>20</v>
       </c>
       <c r="N331" t="n">
-        <v>425000</v>
+        <v>290000</v>
       </c>
       <c r="O331" t="n">
-        <v>430000</v>
+        <v>300000</v>
       </c>
       <c r="P331" t="n">
-        <v>427500</v>
+        <v>295000</v>
       </c>
       <c r="Q331" t="inlineStr">
         <is>
@@ -26866,7 +26866,7 @@
         </is>
       </c>
       <c r="S331" t="n">
-        <v>1069</v>
+        <v>738</v>
       </c>
       <c r="T331" t="n">
         <v>400</v>
@@ -26887,7 +26887,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44244</v>
+        <v>44328</v>
       </c>
       <c r="E332" t="n">
         <v>4</v>
@@ -26915,7 +26915,7 @@
       </c>
       <c r="K332" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L332" t="inlineStr">
@@ -26927,13 +26927,13 @@
         <v>20</v>
       </c>
       <c r="N332" t="n">
-        <v>455000</v>
+        <v>290000</v>
       </c>
       <c r="O332" t="n">
-        <v>460000</v>
+        <v>300000</v>
       </c>
       <c r="P332" t="n">
-        <v>457500</v>
+        <v>295000</v>
       </c>
       <c r="Q332" t="inlineStr">
         <is>
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="S332" t="n">
-        <v>1144</v>
+        <v>738</v>
       </c>
       <c r="T332" t="n">
         <v>400</v>
@@ -26967,7 +26967,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44244</v>
+        <v>44301</v>
       </c>
       <c r="E333" t="n">
         <v>4</v>
@@ -27000,20 +27000,20 @@
       </c>
       <c r="L333" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M333" t="n">
         <v>20</v>
       </c>
       <c r="N333" t="n">
-        <v>415000</v>
+        <v>495000</v>
       </c>
       <c r="O333" t="n">
-        <v>420000</v>
+        <v>500000</v>
       </c>
       <c r="P333" t="n">
-        <v>417500</v>
+        <v>497500</v>
       </c>
       <c r="Q333" t="inlineStr">
         <is>
@@ -27026,7 +27026,7 @@
         </is>
       </c>
       <c r="S333" t="n">
-        <v>1044</v>
+        <v>1244</v>
       </c>
       <c r="T333" t="n">
         <v>400</v>
@@ -27047,7 +27047,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44307</v>
+        <v>44301</v>
       </c>
       <c r="E334" t="n">
         <v>4</v>
@@ -27075,7 +27075,7 @@
       </c>
       <c r="K334" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L334" t="inlineStr">
@@ -27087,13 +27087,13 @@
         <v>20</v>
       </c>
       <c r="N334" t="n">
-        <v>385000</v>
+        <v>475000</v>
       </c>
       <c r="O334" t="n">
-        <v>390000</v>
+        <v>480000</v>
       </c>
       <c r="P334" t="n">
-        <v>387500</v>
+        <v>477500</v>
       </c>
       <c r="Q334" t="inlineStr">
         <is>
@@ -27106,7 +27106,7 @@
         </is>
       </c>
       <c r="S334" t="n">
-        <v>969</v>
+        <v>1194</v>
       </c>
       <c r="T334" t="n">
         <v>400</v>
@@ -27127,7 +27127,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44307</v>
+        <v>44217</v>
       </c>
       <c r="E335" t="n">
         <v>4</v>
@@ -27155,25 +27155,25 @@
       </c>
       <c r="K335" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L335" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M335" t="n">
         <v>20</v>
       </c>
       <c r="N335" t="n">
-        <v>345000</v>
+        <v>465000</v>
       </c>
       <c r="O335" t="n">
-        <v>350000</v>
+        <v>470000</v>
       </c>
       <c r="P335" t="n">
-        <v>347500</v>
+        <v>467500</v>
       </c>
       <c r="Q335" t="inlineStr">
         <is>
@@ -27186,7 +27186,7 @@
         </is>
       </c>
       <c r="S335" t="n">
-        <v>869</v>
+        <v>1169</v>
       </c>
       <c r="T335" t="n">
         <v>400</v>
@@ -27207,7 +27207,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44307</v>
+        <v>44217</v>
       </c>
       <c r="E336" t="n">
         <v>4</v>
@@ -27235,25 +27235,25 @@
       </c>
       <c r="K336" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L336" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M336" t="n">
         <v>20</v>
       </c>
       <c r="N336" t="n">
-        <v>385000</v>
+        <v>425000</v>
       </c>
       <c r="O336" t="n">
-        <v>390000</v>
+        <v>430000</v>
       </c>
       <c r="P336" t="n">
-        <v>387500</v>
+        <v>427500</v>
       </c>
       <c r="Q336" t="inlineStr">
         <is>
@@ -27266,7 +27266,7 @@
         </is>
       </c>
       <c r="S336" t="n">
-        <v>969</v>
+        <v>1069</v>
       </c>
       <c r="T336" t="n">
         <v>400</v>
@@ -27287,7 +27287,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E337" t="n">
         <v>4</v>
@@ -27320,20 +27320,20 @@
       </c>
       <c r="L337" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M337" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N337" t="n">
-        <v>475000</v>
+        <v>455000</v>
       </c>
       <c r="O337" t="n">
-        <v>480000</v>
+        <v>460000</v>
       </c>
       <c r="P337" t="n">
-        <v>477500</v>
+        <v>457500</v>
       </c>
       <c r="Q337" t="inlineStr">
         <is>
@@ -27346,7 +27346,7 @@
         </is>
       </c>
       <c r="S337" t="n">
-        <v>1194</v>
+        <v>1144</v>
       </c>
       <c r="T337" t="n">
         <v>400</v>
@@ -27367,7 +27367,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E338" t="n">
         <v>4</v>
@@ -27400,20 +27400,20 @@
       </c>
       <c r="L338" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M338" t="n">
         <v>20</v>
       </c>
       <c r="N338" t="n">
-        <v>455000</v>
+        <v>415000</v>
       </c>
       <c r="O338" t="n">
-        <v>460000</v>
+        <v>420000</v>
       </c>
       <c r="P338" t="n">
-        <v>457500</v>
+        <v>417500</v>
       </c>
       <c r="Q338" t="inlineStr">
         <is>
@@ -27426,7 +27426,7 @@
         </is>
       </c>
       <c r="S338" t="n">
-        <v>1144</v>
+        <v>1044</v>
       </c>
       <c r="T338" t="n">
         <v>400</v>
@@ -27447,7 +27447,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E339" t="n">
         <v>4</v>
@@ -27475,25 +27475,25 @@
       </c>
       <c r="K339" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L339" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M339" t="n">
         <v>20</v>
       </c>
       <c r="N339" t="n">
-        <v>415000</v>
+        <v>385000</v>
       </c>
       <c r="O339" t="n">
-        <v>420000</v>
+        <v>390000</v>
       </c>
       <c r="P339" t="n">
-        <v>417500</v>
+        <v>387500</v>
       </c>
       <c r="Q339" t="inlineStr">
         <is>
@@ -27506,7 +27506,7 @@
         </is>
       </c>
       <c r="S339" t="n">
-        <v>1044</v>
+        <v>969</v>
       </c>
       <c r="T339" t="n">
         <v>400</v>
@@ -27527,7 +27527,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44433</v>
+        <v>44307</v>
       </c>
       <c r="E340" t="n">
         <v>4</v>
@@ -27560,20 +27560,20 @@
       </c>
       <c r="L340" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M340" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N340" t="n">
-        <v>125000</v>
+        <v>345000</v>
       </c>
       <c r="O340" t="n">
-        <v>130000</v>
+        <v>350000</v>
       </c>
       <c r="P340" t="n">
-        <v>127500</v>
+        <v>347500</v>
       </c>
       <c r="Q340" t="inlineStr">
         <is>
@@ -27586,7 +27586,7 @@
         </is>
       </c>
       <c r="S340" t="n">
-        <v>319</v>
+        <v>869</v>
       </c>
       <c r="T340" t="n">
         <v>400</v>
@@ -27607,7 +27607,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44433</v>
+        <v>44307</v>
       </c>
       <c r="E341" t="n">
         <v>4</v>
@@ -27635,7 +27635,7 @@
       </c>
       <c r="K341" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L341" t="inlineStr">
@@ -27647,13 +27647,13 @@
         <v>20</v>
       </c>
       <c r="N341" t="n">
-        <v>105000</v>
+        <v>385000</v>
       </c>
       <c r="O341" t="n">
-        <v>110000</v>
+        <v>390000</v>
       </c>
       <c r="P341" t="n">
-        <v>107500</v>
+        <v>387500</v>
       </c>
       <c r="Q341" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         </is>
       </c>
       <c r="S341" t="n">
-        <v>269</v>
+        <v>969</v>
       </c>
       <c r="T341" t="n">
         <v>400</v>
@@ -27687,7 +27687,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E342" t="n">
         <v>4</v>
@@ -27715,25 +27715,25 @@
       </c>
       <c r="K342" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L342" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M342" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="N342" t="n">
-        <v>85000</v>
+        <v>475000</v>
       </c>
       <c r="O342" t="n">
-        <v>90000</v>
+        <v>480000</v>
       </c>
       <c r="P342" t="n">
-        <v>88214</v>
+        <v>477500</v>
       </c>
       <c r="Q342" t="inlineStr">
         <is>
@@ -27746,7 +27746,7 @@
         </is>
       </c>
       <c r="S342" t="n">
-        <v>221</v>
+        <v>1194</v>
       </c>
       <c r="T342" t="n">
         <v>400</v>
@@ -27767,7 +27767,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E343" t="n">
         <v>4</v>
@@ -27795,7 +27795,7 @@
       </c>
       <c r="K343" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L343" t="inlineStr">
@@ -27807,13 +27807,13 @@
         <v>20</v>
       </c>
       <c r="N343" t="n">
-        <v>95000</v>
+        <v>455000</v>
       </c>
       <c r="O343" t="n">
-        <v>100000</v>
+        <v>460000</v>
       </c>
       <c r="P343" t="n">
-        <v>97500</v>
+        <v>457500</v>
       </c>
       <c r="Q343" t="inlineStr">
         <is>
@@ -27826,7 +27826,7 @@
         </is>
       </c>
       <c r="S343" t="n">
-        <v>244</v>
+        <v>1144</v>
       </c>
       <c r="T343" t="n">
         <v>400</v>
@@ -27847,7 +27847,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E344" t="n">
         <v>4</v>
@@ -27875,7 +27875,7 @@
       </c>
       <c r="K344" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L344" t="inlineStr">
@@ -27887,13 +27887,13 @@
         <v>20</v>
       </c>
       <c r="N344" t="n">
-        <v>75000</v>
+        <v>415000</v>
       </c>
       <c r="O344" t="n">
-        <v>80000</v>
+        <v>420000</v>
       </c>
       <c r="P344" t="n">
-        <v>77500</v>
+        <v>417500</v>
       </c>
       <c r="Q344" t="inlineStr">
         <is>
@@ -27906,7 +27906,7 @@
         </is>
       </c>
       <c r="S344" t="n">
-        <v>194</v>
+        <v>1044</v>
       </c>
       <c r="T344" t="n">
         <v>400</v>
@@ -27955,25 +27955,25 @@
       </c>
       <c r="K345" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L345" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M345" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N345" t="n">
-        <v>95000</v>
+        <v>125000</v>
       </c>
       <c r="O345" t="n">
-        <v>100000</v>
+        <v>130000</v>
       </c>
       <c r="P345" t="n">
-        <v>97500</v>
+        <v>127500</v>
       </c>
       <c r="Q345" t="inlineStr">
         <is>
@@ -27986,7 +27986,7 @@
         </is>
       </c>
       <c r="S345" t="n">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="T345" t="n">
         <v>400</v>
@@ -28035,40 +28035,440 @@
       </c>
       <c r="K346" t="inlineStr">
         <is>
+          <t>Fukumoto</t>
+        </is>
+      </c>
+      <c r="L346" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M346" t="n">
+        <v>20</v>
+      </c>
+      <c r="N346" t="n">
+        <v>105000</v>
+      </c>
+      <c r="O346" t="n">
+        <v>110000</v>
+      </c>
+      <c r="P346" t="n">
+        <v>107500</v>
+      </c>
+      <c r="Q346" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R346" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S346" t="n">
+        <v>269</v>
+      </c>
+      <c r="T346" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>2</v>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D347" s="2" t="n">
+        <v>44433</v>
+      </c>
+      <c r="E347" t="n">
+        <v>4</v>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G347" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H347" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I347" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J347" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>Fukumoto</t>
+        </is>
+      </c>
+      <c r="L347" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M347" t="n">
+        <v>28</v>
+      </c>
+      <c r="N347" t="n">
+        <v>85000</v>
+      </c>
+      <c r="O347" t="n">
+        <v>90000</v>
+      </c>
+      <c r="P347" t="n">
+        <v>88214</v>
+      </c>
+      <c r="Q347" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R347" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S347" t="n">
+        <v>221</v>
+      </c>
+      <c r="T347" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>2</v>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D348" s="2" t="n">
+        <v>44433</v>
+      </c>
+      <c r="E348" t="n">
+        <v>4</v>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G348" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H348" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I348" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J348" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>Lane Late</t>
+        </is>
+      </c>
+      <c r="L348" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M348" t="n">
+        <v>20</v>
+      </c>
+      <c r="N348" t="n">
+        <v>95000</v>
+      </c>
+      <c r="O348" t="n">
+        <v>100000</v>
+      </c>
+      <c r="P348" t="n">
+        <v>97500</v>
+      </c>
+      <c r="Q348" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R348" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S348" t="n">
+        <v>244</v>
+      </c>
+      <c r="T348" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>2</v>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D349" s="2" t="n">
+        <v>44433</v>
+      </c>
+      <c r="E349" t="n">
+        <v>4</v>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G349" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H349" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I349" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J349" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>Lane Late</t>
+        </is>
+      </c>
+      <c r="L349" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M349" t="n">
+        <v>20</v>
+      </c>
+      <c r="N349" t="n">
+        <v>75000</v>
+      </c>
+      <c r="O349" t="n">
+        <v>80000</v>
+      </c>
+      <c r="P349" t="n">
+        <v>77500</v>
+      </c>
+      <c r="Q349" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R349" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S349" t="n">
+        <v>194</v>
+      </c>
+      <c r="T349" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>2</v>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D350" s="2" t="n">
+        <v>44433</v>
+      </c>
+      <c r="E350" t="n">
+        <v>4</v>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G350" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H350" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I350" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J350" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
           <t>Navel Late</t>
         </is>
       </c>
-      <c r="L346" t="inlineStr">
+      <c r="L350" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M350" t="n">
+        <v>20</v>
+      </c>
+      <c r="N350" t="n">
+        <v>95000</v>
+      </c>
+      <c r="O350" t="n">
+        <v>100000</v>
+      </c>
+      <c r="P350" t="n">
+        <v>97500</v>
+      </c>
+      <c r="Q350" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R350" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S350" t="n">
+        <v>244</v>
+      </c>
+      <c r="T350" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>2</v>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D351" s="2" t="n">
+        <v>44433</v>
+      </c>
+      <c r="E351" t="n">
+        <v>4</v>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G351" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H351" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I351" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J351" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>Navel Late</t>
+        </is>
+      </c>
+      <c r="L351" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M346" t="n">
-        <v>20</v>
-      </c>
-      <c r="N346" t="n">
+      <c r="M351" t="n">
+        <v>20</v>
+      </c>
+      <c r="N351" t="n">
         <v>75000</v>
       </c>
-      <c r="O346" t="n">
+      <c r="O351" t="n">
         <v>80000</v>
       </c>
-      <c r="P346" t="n">
+      <c r="P351" t="n">
         <v>77500</v>
       </c>
-      <c r="Q346" t="inlineStr">
-        <is>
-          <t>$/bins (400 kilos)</t>
-        </is>
-      </c>
-      <c r="R346" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="S346" t="n">
+      <c r="Q351" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R351" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S351" t="n">
         <v>194</v>
       </c>
-      <c r="T346" t="n">
+      <c r="T351" t="n">
         <v>400</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Comercializadora del Agro de Limarí - Naranja.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Comercializadora del Agro de Limarí - Naranja.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T351"/>
+  <dimension ref="A1:T357"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21687,7 +21687,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44329</v>
+        <v>44510</v>
       </c>
       <c r="E267" t="n">
         <v>4</v>
@@ -21715,7 +21715,7 @@
       </c>
       <c r="K267" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Cara cara</t>
         </is>
       </c>
       <c r="L267" t="inlineStr">
@@ -21727,13 +21727,13 @@
         <v>20</v>
       </c>
       <c r="N267" t="n">
-        <v>270000</v>
+        <v>175000</v>
       </c>
       <c r="O267" t="n">
-        <v>280000</v>
+        <v>180000</v>
       </c>
       <c r="P267" t="n">
-        <v>275000</v>
+        <v>177500</v>
       </c>
       <c r="Q267" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="S267" t="n">
-        <v>688</v>
+        <v>444</v>
       </c>
       <c r="T267" t="n">
         <v>400</v>
@@ -21767,7 +21767,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44329</v>
+        <v>44510</v>
       </c>
       <c r="E268" t="n">
         <v>4</v>
@@ -21795,25 +21795,25 @@
       </c>
       <c r="K268" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Cara cara</t>
         </is>
       </c>
       <c r="L268" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M268" t="n">
         <v>20</v>
       </c>
       <c r="N268" t="n">
-        <v>270000</v>
+        <v>155000</v>
       </c>
       <c r="O268" t="n">
-        <v>280000</v>
+        <v>160000</v>
       </c>
       <c r="P268" t="n">
-        <v>275000</v>
+        <v>157500</v>
       </c>
       <c r="Q268" t="inlineStr">
         <is>
@@ -21826,7 +21826,7 @@
         </is>
       </c>
       <c r="S268" t="n">
-        <v>688</v>
+        <v>394</v>
       </c>
       <c r="T268" t="n">
         <v>400</v>
@@ -21847,7 +21847,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44279</v>
+        <v>44510</v>
       </c>
       <c r="E269" t="n">
         <v>4</v>
@@ -21875,25 +21875,25 @@
       </c>
       <c r="K269" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L269" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M269" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N269" t="n">
-        <v>475000</v>
+        <v>155000</v>
       </c>
       <c r="O269" t="n">
-        <v>480000</v>
+        <v>160000</v>
       </c>
       <c r="P269" t="n">
-        <v>477500</v>
+        <v>157500</v>
       </c>
       <c r="Q269" t="inlineStr">
         <is>
@@ -21906,7 +21906,7 @@
         </is>
       </c>
       <c r="S269" t="n">
-        <v>1194</v>
+        <v>394</v>
       </c>
       <c r="T269" t="n">
         <v>400</v>
@@ -21927,7 +21927,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44279</v>
+        <v>44510</v>
       </c>
       <c r="E270" t="n">
         <v>4</v>
@@ -21955,25 +21955,25 @@
       </c>
       <c r="K270" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L270" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M270" t="n">
         <v>20</v>
       </c>
       <c r="N270" t="n">
-        <v>455000</v>
+        <v>125000</v>
       </c>
       <c r="O270" t="n">
-        <v>460000</v>
+        <v>130000</v>
       </c>
       <c r="P270" t="n">
-        <v>457500</v>
+        <v>127500</v>
       </c>
       <c r="Q270" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
         </is>
       </c>
       <c r="S270" t="n">
-        <v>1144</v>
+        <v>319</v>
       </c>
       <c r="T270" t="n">
         <v>400</v>
@@ -22007,7 +22007,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44279</v>
+        <v>44510</v>
       </c>
       <c r="E271" t="n">
         <v>4</v>
@@ -22035,25 +22035,25 @@
       </c>
       <c r="K271" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L271" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M271" t="n">
         <v>20</v>
       </c>
       <c r="N271" t="n">
-        <v>415000</v>
+        <v>155000</v>
       </c>
       <c r="O271" t="n">
-        <v>420000</v>
+        <v>160000</v>
       </c>
       <c r="P271" t="n">
-        <v>417500</v>
+        <v>157500</v>
       </c>
       <c r="Q271" t="inlineStr">
         <is>
@@ -22066,7 +22066,7 @@
         </is>
       </c>
       <c r="S271" t="n">
-        <v>1044</v>
+        <v>394</v>
       </c>
       <c r="T271" t="n">
         <v>400</v>
@@ -22087,7 +22087,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44280</v>
+        <v>44510</v>
       </c>
       <c r="E272" t="n">
         <v>4</v>
@@ -22115,25 +22115,25 @@
       </c>
       <c r="K272" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L272" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M272" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N272" t="n">
-        <v>455000</v>
+        <v>125000</v>
       </c>
       <c r="O272" t="n">
-        <v>460000</v>
+        <v>130000</v>
       </c>
       <c r="P272" t="n">
-        <v>457500</v>
+        <v>127500</v>
       </c>
       <c r="Q272" t="inlineStr">
         <is>
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="S272" t="n">
-        <v>1144</v>
+        <v>319</v>
       </c>
       <c r="T272" t="n">
         <v>400</v>
@@ -22167,7 +22167,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44280</v>
+        <v>44329</v>
       </c>
       <c r="E273" t="n">
         <v>4</v>
@@ -22195,25 +22195,25 @@
       </c>
       <c r="K273" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L273" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M273" t="n">
         <v>20</v>
       </c>
       <c r="N273" t="n">
-        <v>415000</v>
+        <v>270000</v>
       </c>
       <c r="O273" t="n">
-        <v>420000</v>
+        <v>280000</v>
       </c>
       <c r="P273" t="n">
-        <v>417500</v>
+        <v>275000</v>
       </c>
       <c r="Q273" t="inlineStr">
         <is>
@@ -22226,7 +22226,7 @@
         </is>
       </c>
       <c r="S273" t="n">
-        <v>1044</v>
+        <v>688</v>
       </c>
       <c r="T273" t="n">
         <v>400</v>
@@ -22247,7 +22247,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44476</v>
+        <v>44329</v>
       </c>
       <c r="E274" t="n">
         <v>4</v>
@@ -22275,7 +22275,7 @@
       </c>
       <c r="K274" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L274" t="inlineStr">
@@ -22287,13 +22287,13 @@
         <v>20</v>
       </c>
       <c r="N274" t="n">
-        <v>120000</v>
+        <v>270000</v>
       </c>
       <c r="O274" t="n">
-        <v>125000</v>
+        <v>280000</v>
       </c>
       <c r="P274" t="n">
-        <v>122500</v>
+        <v>275000</v>
       </c>
       <c r="Q274" t="inlineStr">
         <is>
@@ -22306,7 +22306,7 @@
         </is>
       </c>
       <c r="S274" t="n">
-        <v>306</v>
+        <v>688</v>
       </c>
       <c r="T274" t="n">
         <v>400</v>
@@ -22327,7 +22327,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44476</v>
+        <v>44279</v>
       </c>
       <c r="E275" t="n">
         <v>4</v>
@@ -22355,25 +22355,25 @@
       </c>
       <c r="K275" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L275" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M275" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N275" t="n">
-        <v>90000</v>
+        <v>475000</v>
       </c>
       <c r="O275" t="n">
-        <v>95000</v>
+        <v>480000</v>
       </c>
       <c r="P275" t="n">
-        <v>92500</v>
+        <v>477500</v>
       </c>
       <c r="Q275" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         </is>
       </c>
       <c r="S275" t="n">
-        <v>231</v>
+        <v>1194</v>
       </c>
       <c r="T275" t="n">
         <v>400</v>
@@ -22407,7 +22407,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44476</v>
+        <v>44279</v>
       </c>
       <c r="E276" t="n">
         <v>4</v>
@@ -22435,7 +22435,7 @@
       </c>
       <c r="K276" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L276" t="inlineStr">
@@ -22447,13 +22447,13 @@
         <v>20</v>
       </c>
       <c r="N276" t="n">
-        <v>120000</v>
+        <v>455000</v>
       </c>
       <c r="O276" t="n">
-        <v>125000</v>
+        <v>460000</v>
       </c>
       <c r="P276" t="n">
-        <v>122500</v>
+        <v>457500</v>
       </c>
       <c r="Q276" t="inlineStr">
         <is>
@@ -22466,7 +22466,7 @@
         </is>
       </c>
       <c r="S276" t="n">
-        <v>306</v>
+        <v>1144</v>
       </c>
       <c r="T276" t="n">
         <v>400</v>
@@ -22487,7 +22487,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44476</v>
+        <v>44279</v>
       </c>
       <c r="E277" t="n">
         <v>4</v>
@@ -22515,7 +22515,7 @@
       </c>
       <c r="K277" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L277" t="inlineStr">
@@ -22527,13 +22527,13 @@
         <v>20</v>
       </c>
       <c r="N277" t="n">
-        <v>90000</v>
+        <v>415000</v>
       </c>
       <c r="O277" t="n">
-        <v>95000</v>
+        <v>420000</v>
       </c>
       <c r="P277" t="n">
-        <v>92500</v>
+        <v>417500</v>
       </c>
       <c r="Q277" t="inlineStr">
         <is>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="S277" t="n">
-        <v>231</v>
+        <v>1044</v>
       </c>
       <c r="T277" t="n">
         <v>400</v>
@@ -22567,7 +22567,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44482</v>
+        <v>44280</v>
       </c>
       <c r="E278" t="n">
         <v>4</v>
@@ -22595,7 +22595,7 @@
       </c>
       <c r="K278" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L278" t="inlineStr">
@@ -22607,13 +22607,13 @@
         <v>20</v>
       </c>
       <c r="N278" t="n">
-        <v>125000</v>
+        <v>455000</v>
       </c>
       <c r="O278" t="n">
-        <v>130000</v>
+        <v>460000</v>
       </c>
       <c r="P278" t="n">
-        <v>127500</v>
+        <v>457500</v>
       </c>
       <c r="Q278" t="inlineStr">
         <is>
@@ -22626,7 +22626,7 @@
         </is>
       </c>
       <c r="S278" t="n">
-        <v>319</v>
+        <v>1144</v>
       </c>
       <c r="T278" t="n">
         <v>400</v>
@@ -22647,7 +22647,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44482</v>
+        <v>44280</v>
       </c>
       <c r="E279" t="n">
         <v>4</v>
@@ -22675,7 +22675,7 @@
       </c>
       <c r="K279" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L279" t="inlineStr">
@@ -22687,13 +22687,13 @@
         <v>20</v>
       </c>
       <c r="N279" t="n">
-        <v>95000</v>
+        <v>415000</v>
       </c>
       <c r="O279" t="n">
-        <v>100000</v>
+        <v>420000</v>
       </c>
       <c r="P279" t="n">
-        <v>97500</v>
+        <v>417500</v>
       </c>
       <c r="Q279" t="inlineStr">
         <is>
@@ -22706,7 +22706,7 @@
         </is>
       </c>
       <c r="S279" t="n">
-        <v>244</v>
+        <v>1044</v>
       </c>
       <c r="T279" t="n">
         <v>400</v>
@@ -22727,7 +22727,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44482</v>
+        <v>44476</v>
       </c>
       <c r="E280" t="n">
         <v>4</v>
@@ -22755,7 +22755,7 @@
       </c>
       <c r="K280" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L280" t="inlineStr">
@@ -22767,13 +22767,13 @@
         <v>20</v>
       </c>
       <c r="N280" t="n">
+        <v>120000</v>
+      </c>
+      <c r="O280" t="n">
         <v>125000</v>
       </c>
-      <c r="O280" t="n">
-        <v>130000</v>
-      </c>
       <c r="P280" t="n">
-        <v>127500</v>
+        <v>122500</v>
       </c>
       <c r="Q280" t="inlineStr">
         <is>
@@ -22786,7 +22786,7 @@
         </is>
       </c>
       <c r="S280" t="n">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="T280" t="n">
         <v>400</v>
@@ -22807,7 +22807,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44482</v>
+        <v>44476</v>
       </c>
       <c r="E281" t="n">
         <v>4</v>
@@ -22835,7 +22835,7 @@
       </c>
       <c r="K281" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L281" t="inlineStr">
@@ -22847,13 +22847,13 @@
         <v>20</v>
       </c>
       <c r="N281" t="n">
+        <v>90000</v>
+      </c>
+      <c r="O281" t="n">
         <v>95000</v>
       </c>
-      <c r="O281" t="n">
-        <v>100000</v>
-      </c>
       <c r="P281" t="n">
-        <v>97500</v>
+        <v>92500</v>
       </c>
       <c r="Q281" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         </is>
       </c>
       <c r="S281" t="n">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="T281" t="n">
         <v>400</v>
@@ -22887,7 +22887,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44293</v>
+        <v>44476</v>
       </c>
       <c r="E282" t="n">
         <v>4</v>
@@ -22915,7 +22915,7 @@
       </c>
       <c r="K282" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L282" t="inlineStr">
@@ -22927,13 +22927,13 @@
         <v>20</v>
       </c>
       <c r="N282" t="n">
-        <v>475000</v>
+        <v>120000</v>
       </c>
       <c r="O282" t="n">
-        <v>480000</v>
+        <v>125000</v>
       </c>
       <c r="P282" t="n">
-        <v>477500</v>
+        <v>122500</v>
       </c>
       <c r="Q282" t="inlineStr">
         <is>
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="S282" t="n">
-        <v>1194</v>
+        <v>306</v>
       </c>
       <c r="T282" t="n">
         <v>400</v>
@@ -22967,7 +22967,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44356</v>
+        <v>44476</v>
       </c>
       <c r="E283" t="n">
         <v>4</v>
@@ -22995,25 +22995,25 @@
       </c>
       <c r="K283" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L283" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M283" t="n">
         <v>20</v>
       </c>
       <c r="N283" t="n">
-        <v>145000</v>
+        <v>90000</v>
       </c>
       <c r="O283" t="n">
-        <v>150000</v>
+        <v>95000</v>
       </c>
       <c r="P283" t="n">
-        <v>147500</v>
+        <v>92500</v>
       </c>
       <c r="Q283" t="inlineStr">
         <is>
@@ -23026,7 +23026,7 @@
         </is>
       </c>
       <c r="S283" t="n">
-        <v>369</v>
+        <v>231</v>
       </c>
       <c r="T283" t="n">
         <v>400</v>
@@ -23047,7 +23047,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44356</v>
+        <v>44482</v>
       </c>
       <c r="E284" t="n">
         <v>4</v>
@@ -23075,25 +23075,25 @@
       </c>
       <c r="K284" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L284" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M284" t="n">
         <v>20</v>
       </c>
       <c r="N284" t="n">
-        <v>115000</v>
+        <v>125000</v>
       </c>
       <c r="O284" t="n">
-        <v>120000</v>
+        <v>130000</v>
       </c>
       <c r="P284" t="n">
-        <v>117500</v>
+        <v>127500</v>
       </c>
       <c r="Q284" t="inlineStr">
         <is>
@@ -23106,7 +23106,7 @@
         </is>
       </c>
       <c r="S284" t="n">
-        <v>294</v>
+        <v>319</v>
       </c>
       <c r="T284" t="n">
         <v>400</v>
@@ -23127,7 +23127,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44356</v>
+        <v>44482</v>
       </c>
       <c r="E285" t="n">
         <v>4</v>
@@ -23155,25 +23155,25 @@
       </c>
       <c r="K285" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L285" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M285" t="n">
         <v>20</v>
       </c>
       <c r="N285" t="n">
-        <v>145000</v>
+        <v>95000</v>
       </c>
       <c r="O285" t="n">
-        <v>150000</v>
+        <v>100000</v>
       </c>
       <c r="P285" t="n">
-        <v>147500</v>
+        <v>97500</v>
       </c>
       <c r="Q285" t="inlineStr">
         <is>
@@ -23186,7 +23186,7 @@
         </is>
       </c>
       <c r="S285" t="n">
-        <v>369</v>
+        <v>244</v>
       </c>
       <c r="T285" t="n">
         <v>400</v>
@@ -23207,7 +23207,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44356</v>
+        <v>44482</v>
       </c>
       <c r="E286" t="n">
         <v>4</v>
@@ -23235,25 +23235,25 @@
       </c>
       <c r="K286" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L286" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M286" t="n">
         <v>20</v>
       </c>
       <c r="N286" t="n">
-        <v>115000</v>
+        <v>125000</v>
       </c>
       <c r="O286" t="n">
-        <v>120000</v>
+        <v>130000</v>
       </c>
       <c r="P286" t="n">
-        <v>117500</v>
+        <v>127500</v>
       </c>
       <c r="Q286" t="inlineStr">
         <is>
@@ -23266,7 +23266,7 @@
         </is>
       </c>
       <c r="S286" t="n">
-        <v>294</v>
+        <v>319</v>
       </c>
       <c r="T286" t="n">
         <v>400</v>
@@ -23287,7 +23287,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44469</v>
+        <v>44482</v>
       </c>
       <c r="E287" t="n">
         <v>4</v>
@@ -23315,25 +23315,25 @@
       </c>
       <c r="K287" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L287" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M287" t="n">
         <v>20</v>
       </c>
       <c r="N287" t="n">
-        <v>120000</v>
+        <v>95000</v>
       </c>
       <c r="O287" t="n">
-        <v>130000</v>
+        <v>100000</v>
       </c>
       <c r="P287" t="n">
-        <v>125000</v>
+        <v>97500</v>
       </c>
       <c r="Q287" t="inlineStr">
         <is>
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="S287" t="n">
-        <v>312</v>
+        <v>244</v>
       </c>
       <c r="T287" t="n">
         <v>400</v>
@@ -23367,7 +23367,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44469</v>
+        <v>44293</v>
       </c>
       <c r="E288" t="n">
         <v>4</v>
@@ -23395,25 +23395,25 @@
       </c>
       <c r="K288" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L288" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M288" t="n">
         <v>20</v>
       </c>
       <c r="N288" t="n">
-        <v>100000</v>
+        <v>475000</v>
       </c>
       <c r="O288" t="n">
-        <v>110000</v>
+        <v>480000</v>
       </c>
       <c r="P288" t="n">
-        <v>105000</v>
+        <v>477500</v>
       </c>
       <c r="Q288" t="inlineStr">
         <is>
@@ -23426,7 +23426,7 @@
         </is>
       </c>
       <c r="S288" t="n">
-        <v>262</v>
+        <v>1194</v>
       </c>
       <c r="T288" t="n">
         <v>400</v>
@@ -23447,7 +23447,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44469</v>
+        <v>44356</v>
       </c>
       <c r="E289" t="n">
         <v>4</v>
@@ -23475,7 +23475,7 @@
       </c>
       <c r="K289" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L289" t="inlineStr">
@@ -23487,13 +23487,13 @@
         <v>20</v>
       </c>
       <c r="N289" t="n">
-        <v>130000</v>
+        <v>145000</v>
       </c>
       <c r="O289" t="n">
-        <v>140000</v>
+        <v>150000</v>
       </c>
       <c r="P289" t="n">
-        <v>135000</v>
+        <v>147500</v>
       </c>
       <c r="Q289" t="inlineStr">
         <is>
@@ -23506,7 +23506,7 @@
         </is>
       </c>
       <c r="S289" t="n">
-        <v>338</v>
+        <v>369</v>
       </c>
       <c r="T289" t="n">
         <v>400</v>
@@ -23527,7 +23527,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44469</v>
+        <v>44356</v>
       </c>
       <c r="E290" t="n">
         <v>4</v>
@@ -23555,7 +23555,7 @@
       </c>
       <c r="K290" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L290" t="inlineStr">
@@ -23567,13 +23567,13 @@
         <v>20</v>
       </c>
       <c r="N290" t="n">
-        <v>110000</v>
+        <v>115000</v>
       </c>
       <c r="O290" t="n">
         <v>120000</v>
       </c>
       <c r="P290" t="n">
-        <v>115000</v>
+        <v>117500</v>
       </c>
       <c r="Q290" t="inlineStr">
         <is>
@@ -23586,7 +23586,7 @@
         </is>
       </c>
       <c r="S290" t="n">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="T290" t="n">
         <v>400</v>
@@ -23607,7 +23607,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44504</v>
+        <v>44356</v>
       </c>
       <c r="E291" t="n">
         <v>4</v>
@@ -23635,7 +23635,7 @@
       </c>
       <c r="K291" t="inlineStr">
         <is>
-          <t>Cara cara</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L291" t="inlineStr">
@@ -23647,13 +23647,13 @@
         <v>20</v>
       </c>
       <c r="N291" t="n">
-        <v>165000</v>
+        <v>145000</v>
       </c>
       <c r="O291" t="n">
-        <v>170000</v>
+        <v>150000</v>
       </c>
       <c r="P291" t="n">
-        <v>167500</v>
+        <v>147500</v>
       </c>
       <c r="Q291" t="inlineStr">
         <is>
@@ -23666,7 +23666,7 @@
         </is>
       </c>
       <c r="S291" t="n">
-        <v>419</v>
+        <v>369</v>
       </c>
       <c r="T291" t="n">
         <v>400</v>
@@ -23687,7 +23687,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44504</v>
+        <v>44356</v>
       </c>
       <c r="E292" t="n">
         <v>4</v>
@@ -23715,25 +23715,25 @@
       </c>
       <c r="K292" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L292" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M292" t="n">
         <v>20</v>
       </c>
       <c r="N292" t="n">
-        <v>145000</v>
+        <v>115000</v>
       </c>
       <c r="O292" t="n">
-        <v>150000</v>
+        <v>120000</v>
       </c>
       <c r="P292" t="n">
-        <v>147500</v>
+        <v>117500</v>
       </c>
       <c r="Q292" t="inlineStr">
         <is>
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="S292" t="n">
-        <v>369</v>
+        <v>294</v>
       </c>
       <c r="T292" t="n">
         <v>400</v>
@@ -23767,7 +23767,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44504</v>
+        <v>44469</v>
       </c>
       <c r="E293" t="n">
         <v>4</v>
@@ -23800,20 +23800,20 @@
       </c>
       <c r="L293" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M293" t="n">
         <v>20</v>
       </c>
       <c r="N293" t="n">
-        <v>125000</v>
+        <v>120000</v>
       </c>
       <c r="O293" t="n">
         <v>130000</v>
       </c>
       <c r="P293" t="n">
-        <v>127500</v>
+        <v>125000</v>
       </c>
       <c r="Q293" t="inlineStr">
         <is>
@@ -23826,7 +23826,7 @@
         </is>
       </c>
       <c r="S293" t="n">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="T293" t="n">
         <v>400</v>
@@ -23847,7 +23847,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44504</v>
+        <v>44469</v>
       </c>
       <c r="E294" t="n">
         <v>4</v>
@@ -23875,25 +23875,25 @@
       </c>
       <c r="K294" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L294" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M294" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N294" t="n">
-        <v>145000</v>
+        <v>100000</v>
       </c>
       <c r="O294" t="n">
-        <v>150000</v>
+        <v>110000</v>
       </c>
       <c r="P294" t="n">
-        <v>147500</v>
+        <v>105000</v>
       </c>
       <c r="Q294" t="inlineStr">
         <is>
@@ -23906,7 +23906,7 @@
         </is>
       </c>
       <c r="S294" t="n">
-        <v>369</v>
+        <v>262</v>
       </c>
       <c r="T294" t="n">
         <v>400</v>
@@ -23927,7 +23927,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44504</v>
+        <v>44469</v>
       </c>
       <c r="E295" t="n">
         <v>4</v>
@@ -23960,20 +23960,20 @@
       </c>
       <c r="L295" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M295" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N295" t="n">
-        <v>125000</v>
+        <v>130000</v>
       </c>
       <c r="O295" t="n">
-        <v>130000</v>
+        <v>140000</v>
       </c>
       <c r="P295" t="n">
-        <v>127500</v>
+        <v>135000</v>
       </c>
       <c r="Q295" t="inlineStr">
         <is>
@@ -23986,7 +23986,7 @@
         </is>
       </c>
       <c r="S295" t="n">
-        <v>319</v>
+        <v>338</v>
       </c>
       <c r="T295" t="n">
         <v>400</v>
@@ -24007,7 +24007,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44384</v>
+        <v>44469</v>
       </c>
       <c r="E296" t="n">
         <v>4</v>
@@ -24035,25 +24035,25 @@
       </c>
       <c r="K296" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L296" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M296" t="n">
         <v>20</v>
       </c>
       <c r="N296" t="n">
-        <v>125000</v>
+        <v>110000</v>
       </c>
       <c r="O296" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="P296" t="n">
-        <v>127500</v>
+        <v>115000</v>
       </c>
       <c r="Q296" t="inlineStr">
         <is>
@@ -24066,7 +24066,7 @@
         </is>
       </c>
       <c r="S296" t="n">
-        <v>319</v>
+        <v>288</v>
       </c>
       <c r="T296" t="n">
         <v>400</v>
@@ -24087,7 +24087,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E297" t="n">
         <v>4</v>
@@ -24115,25 +24115,25 @@
       </c>
       <c r="K297" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Cara cara</t>
         </is>
       </c>
       <c r="L297" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M297" t="n">
         <v>20</v>
       </c>
       <c r="N297" t="n">
-        <v>105000</v>
+        <v>165000</v>
       </c>
       <c r="O297" t="n">
-        <v>110000</v>
+        <v>170000</v>
       </c>
       <c r="P297" t="n">
-        <v>107500</v>
+        <v>167500</v>
       </c>
       <c r="Q297" t="inlineStr">
         <is>
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="S297" t="n">
-        <v>269</v>
+        <v>419</v>
       </c>
       <c r="T297" t="n">
         <v>400</v>
@@ -24167,7 +24167,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E298" t="n">
         <v>4</v>
@@ -24195,7 +24195,7 @@
       </c>
       <c r="K298" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L298" t="inlineStr">
@@ -24207,13 +24207,13 @@
         <v>20</v>
       </c>
       <c r="N298" t="n">
-        <v>125000</v>
+        <v>145000</v>
       </c>
       <c r="O298" t="n">
-        <v>130000</v>
+        <v>150000</v>
       </c>
       <c r="P298" t="n">
-        <v>127500</v>
+        <v>147500</v>
       </c>
       <c r="Q298" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         </is>
       </c>
       <c r="S298" t="n">
-        <v>319</v>
+        <v>369</v>
       </c>
       <c r="T298" t="n">
         <v>400</v>
@@ -24247,7 +24247,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E299" t="n">
         <v>4</v>
@@ -24275,7 +24275,7 @@
       </c>
       <c r="K299" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L299" t="inlineStr">
@@ -24287,13 +24287,13 @@
         <v>20</v>
       </c>
       <c r="N299" t="n">
-        <v>105000</v>
+        <v>125000</v>
       </c>
       <c r="O299" t="n">
-        <v>110000</v>
+        <v>130000</v>
       </c>
       <c r="P299" t="n">
-        <v>107500</v>
+        <v>127500</v>
       </c>
       <c r="Q299" t="inlineStr">
         <is>
@@ -24306,7 +24306,7 @@
         </is>
       </c>
       <c r="S299" t="n">
-        <v>269</v>
+        <v>319</v>
       </c>
       <c r="T299" t="n">
         <v>400</v>
@@ -24327,7 +24327,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E300" t="n">
         <v>4</v>
@@ -24355,7 +24355,7 @@
       </c>
       <c r="K300" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L300" t="inlineStr">
@@ -24364,16 +24364,16 @@
         </is>
       </c>
       <c r="M300" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N300" t="n">
-        <v>115000</v>
+        <v>145000</v>
       </c>
       <c r="O300" t="n">
-        <v>120000</v>
+        <v>150000</v>
       </c>
       <c r="P300" t="n">
-        <v>117500</v>
+        <v>147500</v>
       </c>
       <c r="Q300" t="inlineStr">
         <is>
@@ -24386,7 +24386,7 @@
         </is>
       </c>
       <c r="S300" t="n">
-        <v>294</v>
+        <v>369</v>
       </c>
       <c r="T300" t="n">
         <v>400</v>
@@ -24407,7 +24407,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E301" t="n">
         <v>4</v>
@@ -24435,7 +24435,7 @@
       </c>
       <c r="K301" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L301" t="inlineStr">
@@ -24444,16 +24444,16 @@
         </is>
       </c>
       <c r="M301" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N301" t="n">
-        <v>95000</v>
+        <v>125000</v>
       </c>
       <c r="O301" t="n">
-        <v>100000</v>
+        <v>130000</v>
       </c>
       <c r="P301" t="n">
-        <v>97500</v>
+        <v>127500</v>
       </c>
       <c r="Q301" t="inlineStr">
         <is>
@@ -24466,7 +24466,7 @@
         </is>
       </c>
       <c r="S301" t="n">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="T301" t="n">
         <v>400</v>
@@ -24487,7 +24487,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44343</v>
+        <v>44384</v>
       </c>
       <c r="E302" t="n">
         <v>4</v>
@@ -24520,20 +24520,20 @@
       </c>
       <c r="L302" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M302" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N302" t="n">
-        <v>235000</v>
+        <v>125000</v>
       </c>
       <c r="O302" t="n">
-        <v>240000</v>
+        <v>130000</v>
       </c>
       <c r="P302" t="n">
-        <v>237500</v>
+        <v>127500</v>
       </c>
       <c r="Q302" t="inlineStr">
         <is>
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="S302" t="n">
-        <v>594</v>
+        <v>319</v>
       </c>
       <c r="T302" t="n">
         <v>400</v>
@@ -24567,7 +24567,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44343</v>
+        <v>44384</v>
       </c>
       <c r="E303" t="n">
         <v>4</v>
@@ -24600,20 +24600,20 @@
       </c>
       <c r="L303" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M303" t="n">
         <v>20</v>
       </c>
       <c r="N303" t="n">
-        <v>195000</v>
+        <v>105000</v>
       </c>
       <c r="O303" t="n">
-        <v>200000</v>
+        <v>110000</v>
       </c>
       <c r="P303" t="n">
-        <v>197500</v>
+        <v>107500</v>
       </c>
       <c r="Q303" t="inlineStr">
         <is>
@@ -24626,7 +24626,7 @@
         </is>
       </c>
       <c r="S303" t="n">
-        <v>494</v>
+        <v>269</v>
       </c>
       <c r="T303" t="n">
         <v>400</v>
@@ -24647,7 +24647,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44343</v>
+        <v>44384</v>
       </c>
       <c r="E304" t="n">
         <v>4</v>
@@ -24675,25 +24675,25 @@
       </c>
       <c r="K304" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L304" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M304" t="n">
         <v>20</v>
       </c>
       <c r="N304" t="n">
-        <v>165000</v>
+        <v>125000</v>
       </c>
       <c r="O304" t="n">
-        <v>170000</v>
+        <v>130000</v>
       </c>
       <c r="P304" t="n">
-        <v>167500</v>
+        <v>127500</v>
       </c>
       <c r="Q304" t="inlineStr">
         <is>
@@ -24706,7 +24706,7 @@
         </is>
       </c>
       <c r="S304" t="n">
-        <v>419</v>
+        <v>319</v>
       </c>
       <c r="T304" t="n">
         <v>400</v>
@@ -24727,7 +24727,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44370</v>
+        <v>44384</v>
       </c>
       <c r="E305" t="n">
         <v>4</v>
@@ -24755,25 +24755,25 @@
       </c>
       <c r="K305" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L305" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M305" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N305" t="n">
-        <v>125000</v>
+        <v>105000</v>
       </c>
       <c r="O305" t="n">
-        <v>130000</v>
+        <v>110000</v>
       </c>
       <c r="P305" t="n">
-        <v>127500</v>
+        <v>107500</v>
       </c>
       <c r="Q305" t="inlineStr">
         <is>
@@ -24786,7 +24786,7 @@
         </is>
       </c>
       <c r="S305" t="n">
-        <v>319</v>
+        <v>269</v>
       </c>
       <c r="T305" t="n">
         <v>400</v>
@@ -24807,7 +24807,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44370</v>
+        <v>44384</v>
       </c>
       <c r="E306" t="n">
         <v>4</v>
@@ -24835,25 +24835,25 @@
       </c>
       <c r="K306" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L306" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M306" t="n">
         <v>20</v>
       </c>
       <c r="N306" t="n">
-        <v>105000</v>
+        <v>115000</v>
       </c>
       <c r="O306" t="n">
-        <v>110000</v>
+        <v>120000</v>
       </c>
       <c r="P306" t="n">
-        <v>107500</v>
+        <v>117500</v>
       </c>
       <c r="Q306" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         </is>
       </c>
       <c r="S306" t="n">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="T306" t="n">
         <v>400</v>
@@ -24887,7 +24887,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44370</v>
+        <v>44384</v>
       </c>
       <c r="E307" t="n">
         <v>4</v>
@@ -24915,25 +24915,25 @@
       </c>
       <c r="K307" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L307" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M307" t="n">
         <v>20</v>
       </c>
       <c r="N307" t="n">
-        <v>135000</v>
+        <v>95000</v>
       </c>
       <c r="O307" t="n">
-        <v>140000</v>
+        <v>100000</v>
       </c>
       <c r="P307" t="n">
-        <v>137500</v>
+        <v>97500</v>
       </c>
       <c r="Q307" t="inlineStr">
         <is>
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="S307" t="n">
-        <v>344</v>
+        <v>244</v>
       </c>
       <c r="T307" t="n">
         <v>400</v>
@@ -24967,7 +24967,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E308" t="n">
         <v>4</v>
@@ -24995,25 +24995,25 @@
       </c>
       <c r="K308" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L308" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M308" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N308" t="n">
-        <v>115000</v>
+        <v>235000</v>
       </c>
       <c r="O308" t="n">
-        <v>120000</v>
+        <v>240000</v>
       </c>
       <c r="P308" t="n">
-        <v>117500</v>
+        <v>237500</v>
       </c>
       <c r="Q308" t="inlineStr">
         <is>
@@ -25026,7 +25026,7 @@
         </is>
       </c>
       <c r="S308" t="n">
-        <v>294</v>
+        <v>594</v>
       </c>
       <c r="T308" t="n">
         <v>400</v>
@@ -25047,7 +25047,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E309" t="n">
         <v>4</v>
@@ -25075,7 +25075,7 @@
       </c>
       <c r="K309" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L309" t="inlineStr">
@@ -25087,13 +25087,13 @@
         <v>20</v>
       </c>
       <c r="N309" t="n">
-        <v>135000</v>
+        <v>195000</v>
       </c>
       <c r="O309" t="n">
-        <v>140000</v>
+        <v>200000</v>
       </c>
       <c r="P309" t="n">
-        <v>137500</v>
+        <v>197500</v>
       </c>
       <c r="Q309" t="inlineStr">
         <is>
@@ -25106,7 +25106,7 @@
         </is>
       </c>
       <c r="S309" t="n">
-        <v>344</v>
+        <v>494</v>
       </c>
       <c r="T309" t="n">
         <v>400</v>
@@ -25127,7 +25127,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E310" t="n">
         <v>4</v>
@@ -25155,7 +25155,7 @@
       </c>
       <c r="K310" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L310" t="inlineStr">
@@ -25167,13 +25167,13 @@
         <v>20</v>
       </c>
       <c r="N310" t="n">
-        <v>115000</v>
+        <v>165000</v>
       </c>
       <c r="O310" t="n">
-        <v>120000</v>
+        <v>170000</v>
       </c>
       <c r="P310" t="n">
-        <v>117500</v>
+        <v>167500</v>
       </c>
       <c r="Q310" t="inlineStr">
         <is>
@@ -25186,7 +25186,7 @@
         </is>
       </c>
       <c r="S310" t="n">
-        <v>294</v>
+        <v>419</v>
       </c>
       <c r="T310" t="n">
         <v>400</v>
@@ -25207,7 +25207,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44168</v>
+        <v>44370</v>
       </c>
       <c r="E311" t="n">
         <v>4</v>
@@ -25235,7 +25235,7 @@
       </c>
       <c r="K311" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L311" t="inlineStr">
@@ -25244,16 +25244,16 @@
         </is>
       </c>
       <c r="M311" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N311" t="n">
-        <v>325000</v>
+        <v>125000</v>
       </c>
       <c r="O311" t="n">
-        <v>330000</v>
+        <v>130000</v>
       </c>
       <c r="P311" t="n">
-        <v>327500</v>
+        <v>127500</v>
       </c>
       <c r="Q311" t="inlineStr">
         <is>
@@ -25266,7 +25266,7 @@
         </is>
       </c>
       <c r="S311" t="n">
-        <v>819</v>
+        <v>319</v>
       </c>
       <c r="T311" t="n">
         <v>400</v>
@@ -25287,7 +25287,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44168</v>
+        <v>44370</v>
       </c>
       <c r="E312" t="n">
         <v>4</v>
@@ -25315,7 +25315,7 @@
       </c>
       <c r="K312" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L312" t="inlineStr">
@@ -25327,13 +25327,13 @@
         <v>20</v>
       </c>
       <c r="N312" t="n">
-        <v>285000</v>
+        <v>105000</v>
       </c>
       <c r="O312" t="n">
-        <v>290000</v>
+        <v>110000</v>
       </c>
       <c r="P312" t="n">
-        <v>287500</v>
+        <v>107500</v>
       </c>
       <c r="Q312" t="inlineStr">
         <is>
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="S312" t="n">
-        <v>719</v>
+        <v>269</v>
       </c>
       <c r="T312" t="n">
         <v>400</v>
@@ -25367,7 +25367,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44168</v>
+        <v>44370</v>
       </c>
       <c r="E313" t="n">
         <v>4</v>
@@ -25395,25 +25395,25 @@
       </c>
       <c r="K313" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L313" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M313" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N313" t="n">
-        <v>355000</v>
+        <v>135000</v>
       </c>
       <c r="O313" t="n">
-        <v>360000</v>
+        <v>140000</v>
       </c>
       <c r="P313" t="n">
-        <v>357500</v>
+        <v>137500</v>
       </c>
       <c r="Q313" t="inlineStr">
         <is>
@@ -25426,7 +25426,7 @@
         </is>
       </c>
       <c r="S313" t="n">
-        <v>894</v>
+        <v>344</v>
       </c>
       <c r="T313" t="n">
         <v>400</v>
@@ -25447,7 +25447,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44168</v>
+        <v>44370</v>
       </c>
       <c r="E314" t="n">
         <v>4</v>
@@ -25475,25 +25475,25 @@
       </c>
       <c r="K314" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L314" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M314" t="n">
         <v>20</v>
       </c>
       <c r="N314" t="n">
-        <v>335000</v>
+        <v>115000</v>
       </c>
       <c r="O314" t="n">
-        <v>340000</v>
+        <v>120000</v>
       </c>
       <c r="P314" t="n">
-        <v>337500</v>
+        <v>117500</v>
       </c>
       <c r="Q314" t="inlineStr">
         <is>
@@ -25506,7 +25506,7 @@
         </is>
       </c>
       <c r="S314" t="n">
-        <v>844</v>
+        <v>294</v>
       </c>
       <c r="T314" t="n">
         <v>400</v>
@@ -25527,7 +25527,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44168</v>
+        <v>44370</v>
       </c>
       <c r="E315" t="n">
         <v>4</v>
@@ -25555,25 +25555,25 @@
       </c>
       <c r="K315" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L315" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M315" t="n">
         <v>20</v>
       </c>
       <c r="N315" t="n">
-        <v>295000</v>
+        <v>135000</v>
       </c>
       <c r="O315" t="n">
-        <v>300000</v>
+        <v>140000</v>
       </c>
       <c r="P315" t="n">
-        <v>297500</v>
+        <v>137500</v>
       </c>
       <c r="Q315" t="inlineStr">
         <is>
@@ -25586,7 +25586,7 @@
         </is>
       </c>
       <c r="S315" t="n">
-        <v>744</v>
+        <v>344</v>
       </c>
       <c r="T315" t="n">
         <v>400</v>
@@ -25607,7 +25607,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44175</v>
+        <v>44370</v>
       </c>
       <c r="E316" t="n">
         <v>4</v>
@@ -25635,25 +25635,25 @@
       </c>
       <c r="K316" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L316" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M316" t="n">
         <v>20</v>
       </c>
       <c r="N316" t="n">
-        <v>325000</v>
+        <v>115000</v>
       </c>
       <c r="O316" t="n">
-        <v>330000</v>
+        <v>120000</v>
       </c>
       <c r="P316" t="n">
-        <v>327500</v>
+        <v>117500</v>
       </c>
       <c r="Q316" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         </is>
       </c>
       <c r="S316" t="n">
-        <v>819</v>
+        <v>294</v>
       </c>
       <c r="T316" t="n">
         <v>400</v>
@@ -25687,7 +25687,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E317" t="n">
         <v>4</v>
@@ -25720,20 +25720,20 @@
       </c>
       <c r="L317" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M317" t="n">
         <v>20</v>
       </c>
       <c r="N317" t="n">
-        <v>265000</v>
+        <v>325000</v>
       </c>
       <c r="O317" t="n">
-        <v>270000</v>
+        <v>330000</v>
       </c>
       <c r="P317" t="n">
-        <v>267500</v>
+        <v>327500</v>
       </c>
       <c r="Q317" t="inlineStr">
         <is>
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="S317" t="n">
-        <v>669</v>
+        <v>819</v>
       </c>
       <c r="T317" t="n">
         <v>400</v>
@@ -25767,7 +25767,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E318" t="n">
         <v>4</v>
@@ -25795,25 +25795,25 @@
       </c>
       <c r="K318" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L318" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M318" t="n">
         <v>20</v>
       </c>
       <c r="N318" t="n">
-        <v>335000</v>
+        <v>285000</v>
       </c>
       <c r="O318" t="n">
-        <v>340000</v>
+        <v>290000</v>
       </c>
       <c r="P318" t="n">
-        <v>337500</v>
+        <v>287500</v>
       </c>
       <c r="Q318" t="inlineStr">
         <is>
@@ -25826,7 +25826,7 @@
         </is>
       </c>
       <c r="S318" t="n">
-        <v>844</v>
+        <v>719</v>
       </c>
       <c r="T318" t="n">
         <v>400</v>
@@ -25847,7 +25847,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E319" t="n">
         <v>4</v>
@@ -25880,20 +25880,20 @@
       </c>
       <c r="L319" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M319" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N319" t="n">
-        <v>285000</v>
+        <v>355000</v>
       </c>
       <c r="O319" t="n">
-        <v>290000</v>
+        <v>360000</v>
       </c>
       <c r="P319" t="n">
-        <v>287500</v>
+        <v>357500</v>
       </c>
       <c r="Q319" t="inlineStr">
         <is>
@@ -25906,7 +25906,7 @@
         </is>
       </c>
       <c r="S319" t="n">
-        <v>719</v>
+        <v>894</v>
       </c>
       <c r="T319" t="n">
         <v>400</v>
@@ -25927,7 +25927,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44392</v>
+        <v>44168</v>
       </c>
       <c r="E320" t="n">
         <v>4</v>
@@ -25955,7 +25955,7 @@
       </c>
       <c r="K320" t="inlineStr">
         <is>
-          <t>Cara cara</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L320" t="inlineStr">
@@ -25967,13 +25967,13 @@
         <v>20</v>
       </c>
       <c r="N320" t="n">
-        <v>125000</v>
+        <v>335000</v>
       </c>
       <c r="O320" t="n">
-        <v>130000</v>
+        <v>340000</v>
       </c>
       <c r="P320" t="n">
-        <v>127500</v>
+        <v>337500</v>
       </c>
       <c r="Q320" t="inlineStr">
         <is>
@@ -25986,7 +25986,7 @@
         </is>
       </c>
       <c r="S320" t="n">
-        <v>319</v>
+        <v>844</v>
       </c>
       <c r="T320" t="n">
         <v>400</v>
@@ -26007,7 +26007,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44392</v>
+        <v>44168</v>
       </c>
       <c r="E321" t="n">
         <v>4</v>
@@ -26035,25 +26035,25 @@
       </c>
       <c r="K321" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L321" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M321" t="n">
         <v>20</v>
       </c>
       <c r="N321" t="n">
-        <v>100000</v>
+        <v>295000</v>
       </c>
       <c r="O321" t="n">
-        <v>110000</v>
+        <v>300000</v>
       </c>
       <c r="P321" t="n">
-        <v>105000</v>
+        <v>297500</v>
       </c>
       <c r="Q321" t="inlineStr">
         <is>
@@ -26066,7 +26066,7 @@
         </is>
       </c>
       <c r="S321" t="n">
-        <v>262</v>
+        <v>744</v>
       </c>
       <c r="T321" t="n">
         <v>400</v>
@@ -26087,7 +26087,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E322" t="n">
         <v>4</v>
@@ -26115,25 +26115,25 @@
       </c>
       <c r="K322" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L322" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M322" t="n">
         <v>20</v>
       </c>
       <c r="N322" t="n">
-        <v>80000</v>
+        <v>325000</v>
       </c>
       <c r="O322" t="n">
-        <v>90000</v>
+        <v>330000</v>
       </c>
       <c r="P322" t="n">
-        <v>85000</v>
+        <v>327500</v>
       </c>
       <c r="Q322" t="inlineStr">
         <is>
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="S322" t="n">
-        <v>212</v>
+        <v>819</v>
       </c>
       <c r="T322" t="n">
         <v>400</v>
@@ -26167,7 +26167,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E323" t="n">
         <v>4</v>
@@ -26195,25 +26195,25 @@
       </c>
       <c r="K323" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L323" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M323" t="n">
         <v>20</v>
       </c>
       <c r="N323" t="n">
-        <v>100000</v>
+        <v>265000</v>
       </c>
       <c r="O323" t="n">
-        <v>110000</v>
+        <v>270000</v>
       </c>
       <c r="P323" t="n">
-        <v>105000</v>
+        <v>267500</v>
       </c>
       <c r="Q323" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         </is>
       </c>
       <c r="S323" t="n">
-        <v>262</v>
+        <v>669</v>
       </c>
       <c r="T323" t="n">
         <v>400</v>
@@ -26247,7 +26247,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E324" t="n">
         <v>4</v>
@@ -26275,25 +26275,25 @@
       </c>
       <c r="K324" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L324" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M324" t="n">
         <v>20</v>
       </c>
       <c r="N324" t="n">
-        <v>80000</v>
+        <v>335000</v>
       </c>
       <c r="O324" t="n">
-        <v>90000</v>
+        <v>340000</v>
       </c>
       <c r="P324" t="n">
-        <v>85000</v>
+        <v>337500</v>
       </c>
       <c r="Q324" t="inlineStr">
         <is>
@@ -26306,7 +26306,7 @@
         </is>
       </c>
       <c r="S324" t="n">
-        <v>212</v>
+        <v>844</v>
       </c>
       <c r="T324" t="n">
         <v>400</v>
@@ -26327,7 +26327,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E325" t="n">
         <v>4</v>
@@ -26355,25 +26355,25 @@
       </c>
       <c r="K325" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L325" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M325" t="n">
         <v>20</v>
       </c>
       <c r="N325" t="n">
-        <v>100000</v>
+        <v>285000</v>
       </c>
       <c r="O325" t="n">
-        <v>110000</v>
+        <v>290000</v>
       </c>
       <c r="P325" t="n">
-        <v>105000</v>
+        <v>287500</v>
       </c>
       <c r="Q325" t="inlineStr">
         <is>
@@ -26386,7 +26386,7 @@
         </is>
       </c>
       <c r="S325" t="n">
-        <v>262</v>
+        <v>719</v>
       </c>
       <c r="T325" t="n">
         <v>400</v>
@@ -26435,25 +26435,25 @@
       </c>
       <c r="K326" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Cara cara</t>
         </is>
       </c>
       <c r="L326" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M326" t="n">
         <v>20</v>
       </c>
       <c r="N326" t="n">
-        <v>80000</v>
+        <v>125000</v>
       </c>
       <c r="O326" t="n">
-        <v>90000</v>
+        <v>130000</v>
       </c>
       <c r="P326" t="n">
-        <v>85000</v>
+        <v>127500</v>
       </c>
       <c r="Q326" t="inlineStr">
         <is>
@@ -26466,7 +26466,7 @@
         </is>
       </c>
       <c r="S326" t="n">
-        <v>212</v>
+        <v>319</v>
       </c>
       <c r="T326" t="n">
         <v>400</v>
@@ -26487,7 +26487,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E327" t="n">
         <v>4</v>
@@ -26515,25 +26515,25 @@
       </c>
       <c r="K327" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L327" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M327" t="n">
         <v>20</v>
       </c>
       <c r="N327" t="n">
-        <v>475000</v>
+        <v>100000</v>
       </c>
       <c r="O327" t="n">
-        <v>480000</v>
+        <v>110000</v>
       </c>
       <c r="P327" t="n">
-        <v>477500</v>
+        <v>105000</v>
       </c>
       <c r="Q327" t="inlineStr">
         <is>
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="S327" t="n">
-        <v>1194</v>
+        <v>262</v>
       </c>
       <c r="T327" t="n">
         <v>400</v>
@@ -26567,7 +26567,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E328" t="n">
         <v>4</v>
@@ -26595,25 +26595,25 @@
       </c>
       <c r="K328" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L328" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M328" t="n">
         <v>20</v>
       </c>
       <c r="N328" t="n">
-        <v>455000</v>
+        <v>80000</v>
       </c>
       <c r="O328" t="n">
-        <v>460000</v>
+        <v>90000</v>
       </c>
       <c r="P328" t="n">
-        <v>457500</v>
+        <v>85000</v>
       </c>
       <c r="Q328" t="inlineStr">
         <is>
@@ -26626,7 +26626,7 @@
         </is>
       </c>
       <c r="S328" t="n">
-        <v>1144</v>
+        <v>212</v>
       </c>
       <c r="T328" t="n">
         <v>400</v>
@@ -26647,7 +26647,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44181</v>
+        <v>44392</v>
       </c>
       <c r="E329" t="n">
         <v>4</v>
@@ -26675,7 +26675,7 @@
       </c>
       <c r="K329" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L329" t="inlineStr">
@@ -26684,16 +26684,16 @@
         </is>
       </c>
       <c r="M329" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N329" t="n">
-        <v>355000</v>
+        <v>100000</v>
       </c>
       <c r="O329" t="n">
-        <v>360000</v>
+        <v>110000</v>
       </c>
       <c r="P329" t="n">
-        <v>357500</v>
+        <v>105000</v>
       </c>
       <c r="Q329" t="inlineStr">
         <is>
@@ -26706,7 +26706,7 @@
         </is>
       </c>
       <c r="S329" t="n">
-        <v>894</v>
+        <v>262</v>
       </c>
       <c r="T329" t="n">
         <v>400</v>
@@ -26727,7 +26727,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44181</v>
+        <v>44392</v>
       </c>
       <c r="E330" t="n">
         <v>4</v>
@@ -26755,25 +26755,25 @@
       </c>
       <c r="K330" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L330" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M330" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N330" t="n">
-        <v>355000</v>
+        <v>80000</v>
       </c>
       <c r="O330" t="n">
-        <v>360000</v>
+        <v>90000</v>
       </c>
       <c r="P330" t="n">
-        <v>357500</v>
+        <v>85000</v>
       </c>
       <c r="Q330" t="inlineStr">
         <is>
@@ -26786,7 +26786,7 @@
         </is>
       </c>
       <c r="S330" t="n">
-        <v>894</v>
+        <v>212</v>
       </c>
       <c r="T330" t="n">
         <v>400</v>
@@ -26807,7 +26807,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44328</v>
+        <v>44392</v>
       </c>
       <c r="E331" t="n">
         <v>4</v>
@@ -26835,7 +26835,7 @@
       </c>
       <c r="K331" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L331" t="inlineStr">
@@ -26847,13 +26847,13 @@
         <v>20</v>
       </c>
       <c r="N331" t="n">
-        <v>290000</v>
+        <v>100000</v>
       </c>
       <c r="O331" t="n">
-        <v>300000</v>
+        <v>110000</v>
       </c>
       <c r="P331" t="n">
-        <v>295000</v>
+        <v>105000</v>
       </c>
       <c r="Q331" t="inlineStr">
         <is>
@@ -26866,7 +26866,7 @@
         </is>
       </c>
       <c r="S331" t="n">
-        <v>738</v>
+        <v>262</v>
       </c>
       <c r="T331" t="n">
         <v>400</v>
@@ -26887,7 +26887,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44328</v>
+        <v>44392</v>
       </c>
       <c r="E332" t="n">
         <v>4</v>
@@ -26915,25 +26915,25 @@
       </c>
       <c r="K332" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L332" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M332" t="n">
         <v>20</v>
       </c>
       <c r="N332" t="n">
-        <v>290000</v>
+        <v>80000</v>
       </c>
       <c r="O332" t="n">
-        <v>300000</v>
+        <v>90000</v>
       </c>
       <c r="P332" t="n">
-        <v>295000</v>
+        <v>85000</v>
       </c>
       <c r="Q332" t="inlineStr">
         <is>
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="S332" t="n">
-        <v>738</v>
+        <v>212</v>
       </c>
       <c r="T332" t="n">
         <v>400</v>
@@ -26967,7 +26967,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44301</v>
+        <v>44286</v>
       </c>
       <c r="E333" t="n">
         <v>4</v>
@@ -27007,13 +27007,13 @@
         <v>20</v>
       </c>
       <c r="N333" t="n">
-        <v>495000</v>
+        <v>475000</v>
       </c>
       <c r="O333" t="n">
-        <v>500000</v>
+        <v>480000</v>
       </c>
       <c r="P333" t="n">
-        <v>497500</v>
+        <v>477500</v>
       </c>
       <c r="Q333" t="inlineStr">
         <is>
@@ -27026,7 +27026,7 @@
         </is>
       </c>
       <c r="S333" t="n">
-        <v>1244</v>
+        <v>1194</v>
       </c>
       <c r="T333" t="n">
         <v>400</v>
@@ -27047,7 +27047,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44301</v>
+        <v>44286</v>
       </c>
       <c r="E334" t="n">
         <v>4</v>
@@ -27087,13 +27087,13 @@
         <v>20</v>
       </c>
       <c r="N334" t="n">
-        <v>475000</v>
+        <v>455000</v>
       </c>
       <c r="O334" t="n">
-        <v>480000</v>
+        <v>460000</v>
       </c>
       <c r="P334" t="n">
-        <v>477500</v>
+        <v>457500</v>
       </c>
       <c r="Q334" t="inlineStr">
         <is>
@@ -27106,7 +27106,7 @@
         </is>
       </c>
       <c r="S334" t="n">
-        <v>1194</v>
+        <v>1144</v>
       </c>
       <c r="T334" t="n">
         <v>400</v>
@@ -27127,7 +27127,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44217</v>
+        <v>44181</v>
       </c>
       <c r="E335" t="n">
         <v>4</v>
@@ -27155,7 +27155,7 @@
       </c>
       <c r="K335" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L335" t="inlineStr">
@@ -27164,16 +27164,16 @@
         </is>
       </c>
       <c r="M335" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N335" t="n">
-        <v>465000</v>
+        <v>355000</v>
       </c>
       <c r="O335" t="n">
-        <v>470000</v>
+        <v>360000</v>
       </c>
       <c r="P335" t="n">
-        <v>467500</v>
+        <v>357500</v>
       </c>
       <c r="Q335" t="inlineStr">
         <is>
@@ -27186,7 +27186,7 @@
         </is>
       </c>
       <c r="S335" t="n">
-        <v>1169</v>
+        <v>894</v>
       </c>
       <c r="T335" t="n">
         <v>400</v>
@@ -27207,7 +27207,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44217</v>
+        <v>44181</v>
       </c>
       <c r="E336" t="n">
         <v>4</v>
@@ -27240,20 +27240,20 @@
       </c>
       <c r="L336" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M336" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N336" t="n">
-        <v>425000</v>
+        <v>355000</v>
       </c>
       <c r="O336" t="n">
-        <v>430000</v>
+        <v>360000</v>
       </c>
       <c r="P336" t="n">
-        <v>427500</v>
+        <v>357500</v>
       </c>
       <c r="Q336" t="inlineStr">
         <is>
@@ -27266,7 +27266,7 @@
         </is>
       </c>
       <c r="S336" t="n">
-        <v>1069</v>
+        <v>894</v>
       </c>
       <c r="T336" t="n">
         <v>400</v>
@@ -27287,7 +27287,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44244</v>
+        <v>44328</v>
       </c>
       <c r="E337" t="n">
         <v>4</v>
@@ -27315,7 +27315,7 @@
       </c>
       <c r="K337" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L337" t="inlineStr">
@@ -27327,13 +27327,13 @@
         <v>20</v>
       </c>
       <c r="N337" t="n">
-        <v>455000</v>
+        <v>290000</v>
       </c>
       <c r="O337" t="n">
-        <v>460000</v>
+        <v>300000</v>
       </c>
       <c r="P337" t="n">
-        <v>457500</v>
+        <v>295000</v>
       </c>
       <c r="Q337" t="inlineStr">
         <is>
@@ -27346,7 +27346,7 @@
         </is>
       </c>
       <c r="S337" t="n">
-        <v>1144</v>
+        <v>738</v>
       </c>
       <c r="T337" t="n">
         <v>400</v>
@@ -27367,7 +27367,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44244</v>
+        <v>44328</v>
       </c>
       <c r="E338" t="n">
         <v>4</v>
@@ -27395,25 +27395,25 @@
       </c>
       <c r="K338" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L338" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M338" t="n">
         <v>20</v>
       </c>
       <c r="N338" t="n">
-        <v>415000</v>
+        <v>290000</v>
       </c>
       <c r="O338" t="n">
-        <v>420000</v>
+        <v>300000</v>
       </c>
       <c r="P338" t="n">
-        <v>417500</v>
+        <v>295000</v>
       </c>
       <c r="Q338" t="inlineStr">
         <is>
@@ -27426,7 +27426,7 @@
         </is>
       </c>
       <c r="S338" t="n">
-        <v>1044</v>
+        <v>738</v>
       </c>
       <c r="T338" t="n">
         <v>400</v>
@@ -27447,7 +27447,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44307</v>
+        <v>44301</v>
       </c>
       <c r="E339" t="n">
         <v>4</v>
@@ -27475,25 +27475,25 @@
       </c>
       <c r="K339" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L339" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M339" t="n">
         <v>20</v>
       </c>
       <c r="N339" t="n">
-        <v>385000</v>
+        <v>495000</v>
       </c>
       <c r="O339" t="n">
-        <v>390000</v>
+        <v>500000</v>
       </c>
       <c r="P339" t="n">
-        <v>387500</v>
+        <v>497500</v>
       </c>
       <c r="Q339" t="inlineStr">
         <is>
@@ -27506,7 +27506,7 @@
         </is>
       </c>
       <c r="S339" t="n">
-        <v>969</v>
+        <v>1244</v>
       </c>
       <c r="T339" t="n">
         <v>400</v>
@@ -27527,7 +27527,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44307</v>
+        <v>44301</v>
       </c>
       <c r="E340" t="n">
         <v>4</v>
@@ -27555,25 +27555,25 @@
       </c>
       <c r="K340" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L340" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M340" t="n">
         <v>20</v>
       </c>
       <c r="N340" t="n">
-        <v>345000</v>
+        <v>475000</v>
       </c>
       <c r="O340" t="n">
-        <v>350000</v>
+        <v>480000</v>
       </c>
       <c r="P340" t="n">
-        <v>347500</v>
+        <v>477500</v>
       </c>
       <c r="Q340" t="inlineStr">
         <is>
@@ -27586,7 +27586,7 @@
         </is>
       </c>
       <c r="S340" t="n">
-        <v>869</v>
+        <v>1194</v>
       </c>
       <c r="T340" t="n">
         <v>400</v>
@@ -27607,7 +27607,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44307</v>
+        <v>44217</v>
       </c>
       <c r="E341" t="n">
         <v>4</v>
@@ -27635,7 +27635,7 @@
       </c>
       <c r="K341" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L341" t="inlineStr">
@@ -27647,13 +27647,13 @@
         <v>20</v>
       </c>
       <c r="N341" t="n">
-        <v>385000</v>
+        <v>465000</v>
       </c>
       <c r="O341" t="n">
-        <v>390000</v>
+        <v>470000</v>
       </c>
       <c r="P341" t="n">
-        <v>387500</v>
+        <v>467500</v>
       </c>
       <c r="Q341" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         </is>
       </c>
       <c r="S341" t="n">
-        <v>969</v>
+        <v>1169</v>
       </c>
       <c r="T341" t="n">
         <v>400</v>
@@ -27687,7 +27687,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44273</v>
+        <v>44217</v>
       </c>
       <c r="E342" t="n">
         <v>4</v>
@@ -27720,20 +27720,20 @@
       </c>
       <c r="L342" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M342" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N342" t="n">
-        <v>475000</v>
+        <v>425000</v>
       </c>
       <c r="O342" t="n">
-        <v>480000</v>
+        <v>430000</v>
       </c>
       <c r="P342" t="n">
-        <v>477500</v>
+        <v>427500</v>
       </c>
       <c r="Q342" t="inlineStr">
         <is>
@@ -27746,7 +27746,7 @@
         </is>
       </c>
       <c r="S342" t="n">
-        <v>1194</v>
+        <v>1069</v>
       </c>
       <c r="T342" t="n">
         <v>400</v>
@@ -27767,7 +27767,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E343" t="n">
         <v>4</v>
@@ -27847,7 +27847,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E344" t="n">
         <v>4</v>
@@ -27927,7 +27927,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44433</v>
+        <v>44307</v>
       </c>
       <c r="E345" t="n">
         <v>4</v>
@@ -27960,20 +27960,20 @@
       </c>
       <c r="L345" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M345" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N345" t="n">
-        <v>125000</v>
+        <v>385000</v>
       </c>
       <c r="O345" t="n">
-        <v>130000</v>
+        <v>390000</v>
       </c>
       <c r="P345" t="n">
-        <v>127500</v>
+        <v>387500</v>
       </c>
       <c r="Q345" t="inlineStr">
         <is>
@@ -27986,7 +27986,7 @@
         </is>
       </c>
       <c r="S345" t="n">
-        <v>319</v>
+        <v>969</v>
       </c>
       <c r="T345" t="n">
         <v>400</v>
@@ -28007,7 +28007,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44433</v>
+        <v>44307</v>
       </c>
       <c r="E346" t="n">
         <v>4</v>
@@ -28040,20 +28040,20 @@
       </c>
       <c r="L346" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M346" t="n">
         <v>20</v>
       </c>
       <c r="N346" t="n">
-        <v>105000</v>
+        <v>345000</v>
       </c>
       <c r="O346" t="n">
-        <v>110000</v>
+        <v>350000</v>
       </c>
       <c r="P346" t="n">
-        <v>107500</v>
+        <v>347500</v>
       </c>
       <c r="Q346" t="inlineStr">
         <is>
@@ -28066,7 +28066,7 @@
         </is>
       </c>
       <c r="S346" t="n">
-        <v>269</v>
+        <v>869</v>
       </c>
       <c r="T346" t="n">
         <v>400</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44433</v>
+        <v>44307</v>
       </c>
       <c r="E347" t="n">
         <v>4</v>
@@ -28115,25 +28115,25 @@
       </c>
       <c r="K347" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L347" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M347" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="N347" t="n">
-        <v>85000</v>
+        <v>385000</v>
       </c>
       <c r="O347" t="n">
-        <v>90000</v>
+        <v>390000</v>
       </c>
       <c r="P347" t="n">
-        <v>88214</v>
+        <v>387500</v>
       </c>
       <c r="Q347" t="inlineStr">
         <is>
@@ -28146,7 +28146,7 @@
         </is>
       </c>
       <c r="S347" t="n">
-        <v>221</v>
+        <v>969</v>
       </c>
       <c r="T347" t="n">
         <v>400</v>
@@ -28167,7 +28167,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E348" t="n">
         <v>4</v>
@@ -28195,25 +28195,25 @@
       </c>
       <c r="K348" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L348" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M348" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N348" t="n">
-        <v>95000</v>
+        <v>475000</v>
       </c>
       <c r="O348" t="n">
-        <v>100000</v>
+        <v>480000</v>
       </c>
       <c r="P348" t="n">
-        <v>97500</v>
+        <v>477500</v>
       </c>
       <c r="Q348" t="inlineStr">
         <is>
@@ -28226,7 +28226,7 @@
         </is>
       </c>
       <c r="S348" t="n">
-        <v>244</v>
+        <v>1194</v>
       </c>
       <c r="T348" t="n">
         <v>400</v>
@@ -28247,7 +28247,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E349" t="n">
         <v>4</v>
@@ -28275,25 +28275,25 @@
       </c>
       <c r="K349" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L349" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M349" t="n">
         <v>20</v>
       </c>
       <c r="N349" t="n">
-        <v>75000</v>
+        <v>455000</v>
       </c>
       <c r="O349" t="n">
-        <v>80000</v>
+        <v>460000</v>
       </c>
       <c r="P349" t="n">
-        <v>77500</v>
+        <v>457500</v>
       </c>
       <c r="Q349" t="inlineStr">
         <is>
@@ -28306,7 +28306,7 @@
         </is>
       </c>
       <c r="S349" t="n">
-        <v>194</v>
+        <v>1144</v>
       </c>
       <c r="T349" t="n">
         <v>400</v>
@@ -28327,7 +28327,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E350" t="n">
         <v>4</v>
@@ -28355,25 +28355,25 @@
       </c>
       <c r="K350" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L350" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M350" t="n">
         <v>20</v>
       </c>
       <c r="N350" t="n">
-        <v>95000</v>
+        <v>415000</v>
       </c>
       <c r="O350" t="n">
-        <v>100000</v>
+        <v>420000</v>
       </c>
       <c r="P350" t="n">
-        <v>97500</v>
+        <v>417500</v>
       </c>
       <c r="Q350" t="inlineStr">
         <is>
@@ -28386,7 +28386,7 @@
         </is>
       </c>
       <c r="S350" t="n">
-        <v>244</v>
+        <v>1044</v>
       </c>
       <c r="T350" t="n">
         <v>400</v>
@@ -28435,40 +28435,520 @@
       </c>
       <c r="K351" t="inlineStr">
         <is>
+          <t>Fukumoto</t>
+        </is>
+      </c>
+      <c r="L351" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M351" t="n">
+        <v>16</v>
+      </c>
+      <c r="N351" t="n">
+        <v>125000</v>
+      </c>
+      <c r="O351" t="n">
+        <v>130000</v>
+      </c>
+      <c r="P351" t="n">
+        <v>127500</v>
+      </c>
+      <c r="Q351" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R351" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S351" t="n">
+        <v>319</v>
+      </c>
+      <c r="T351" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>2</v>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D352" s="2" t="n">
+        <v>44433</v>
+      </c>
+      <c r="E352" t="n">
+        <v>4</v>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G352" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H352" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I352" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J352" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>Fukumoto</t>
+        </is>
+      </c>
+      <c r="L352" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M352" t="n">
+        <v>20</v>
+      </c>
+      <c r="N352" t="n">
+        <v>105000</v>
+      </c>
+      <c r="O352" t="n">
+        <v>110000</v>
+      </c>
+      <c r="P352" t="n">
+        <v>107500</v>
+      </c>
+      <c r="Q352" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R352" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S352" t="n">
+        <v>269</v>
+      </c>
+      <c r="T352" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>2</v>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D353" s="2" t="n">
+        <v>44433</v>
+      </c>
+      <c r="E353" t="n">
+        <v>4</v>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G353" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H353" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I353" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J353" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>Fukumoto</t>
+        </is>
+      </c>
+      <c r="L353" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M353" t="n">
+        <v>28</v>
+      </c>
+      <c r="N353" t="n">
+        <v>85000</v>
+      </c>
+      <c r="O353" t="n">
+        <v>90000</v>
+      </c>
+      <c r="P353" t="n">
+        <v>88214</v>
+      </c>
+      <c r="Q353" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R353" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S353" t="n">
+        <v>221</v>
+      </c>
+      <c r="T353" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>2</v>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D354" s="2" t="n">
+        <v>44433</v>
+      </c>
+      <c r="E354" t="n">
+        <v>4</v>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G354" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H354" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I354" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J354" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>Lane Late</t>
+        </is>
+      </c>
+      <c r="L354" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M354" t="n">
+        <v>20</v>
+      </c>
+      <c r="N354" t="n">
+        <v>95000</v>
+      </c>
+      <c r="O354" t="n">
+        <v>100000</v>
+      </c>
+      <c r="P354" t="n">
+        <v>97500</v>
+      </c>
+      <c r="Q354" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R354" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S354" t="n">
+        <v>244</v>
+      </c>
+      <c r="T354" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>2</v>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D355" s="2" t="n">
+        <v>44433</v>
+      </c>
+      <c r="E355" t="n">
+        <v>4</v>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G355" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H355" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I355" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J355" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>Lane Late</t>
+        </is>
+      </c>
+      <c r="L355" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M355" t="n">
+        <v>20</v>
+      </c>
+      <c r="N355" t="n">
+        <v>75000</v>
+      </c>
+      <c r="O355" t="n">
+        <v>80000</v>
+      </c>
+      <c r="P355" t="n">
+        <v>77500</v>
+      </c>
+      <c r="Q355" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R355" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S355" t="n">
+        <v>194</v>
+      </c>
+      <c r="T355" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>2</v>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D356" s="2" t="n">
+        <v>44433</v>
+      </c>
+      <c r="E356" t="n">
+        <v>4</v>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G356" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H356" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I356" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J356" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
           <t>Navel Late</t>
         </is>
       </c>
-      <c r="L351" t="inlineStr">
+      <c r="L356" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M356" t="n">
+        <v>20</v>
+      </c>
+      <c r="N356" t="n">
+        <v>95000</v>
+      </c>
+      <c r="O356" t="n">
+        <v>100000</v>
+      </c>
+      <c r="P356" t="n">
+        <v>97500</v>
+      </c>
+      <c r="Q356" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R356" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S356" t="n">
+        <v>244</v>
+      </c>
+      <c r="T356" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>2</v>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D357" s="2" t="n">
+        <v>44433</v>
+      </c>
+      <c r="E357" t="n">
+        <v>4</v>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G357" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H357" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I357" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J357" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>Navel Late</t>
+        </is>
+      </c>
+      <c r="L357" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M351" t="n">
-        <v>20</v>
-      </c>
-      <c r="N351" t="n">
+      <c r="M357" t="n">
+        <v>20</v>
+      </c>
+      <c r="N357" t="n">
         <v>75000</v>
       </c>
-      <c r="O351" t="n">
+      <c r="O357" t="n">
         <v>80000</v>
       </c>
-      <c r="P351" t="n">
+      <c r="P357" t="n">
         <v>77500</v>
       </c>
-      <c r="Q351" t="inlineStr">
-        <is>
-          <t>$/bins (400 kilos)</t>
-        </is>
-      </c>
-      <c r="R351" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="S351" t="n">
+      <c r="Q357" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R357" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S357" t="n">
         <v>194</v>
       </c>
-      <c r="T351" t="n">
+      <c r="T357" t="n">
         <v>400</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Comercializadora del Agro de Limarí - Naranja.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Comercializadora del Agro de Limarí - Naranja.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T365"/>
+  <dimension ref="A1:T372"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22487,7 +22487,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44426</v>
+        <v>44524</v>
       </c>
       <c r="E277" t="n">
         <v>4</v>
@@ -22527,13 +22527,13 @@
         <v>20</v>
       </c>
       <c r="N277" t="n">
-        <v>100000</v>
+        <v>175000</v>
       </c>
       <c r="O277" t="n">
-        <v>110000</v>
+        <v>180000</v>
       </c>
       <c r="P277" t="n">
-        <v>105000</v>
+        <v>177500</v>
       </c>
       <c r="Q277" t="inlineStr">
         <is>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="S277" t="n">
-        <v>262</v>
+        <v>444</v>
       </c>
       <c r="T277" t="n">
         <v>400</v>
@@ -22567,7 +22567,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44426</v>
+        <v>44524</v>
       </c>
       <c r="E278" t="n">
         <v>4</v>
@@ -22607,13 +22607,13 @@
         <v>20</v>
       </c>
       <c r="N278" t="n">
-        <v>80000</v>
+        <v>145000</v>
       </c>
       <c r="O278" t="n">
-        <v>90000</v>
+        <v>150000</v>
       </c>
       <c r="P278" t="n">
-        <v>85000</v>
+        <v>147500</v>
       </c>
       <c r="Q278" t="inlineStr">
         <is>
@@ -22626,7 +22626,7 @@
         </is>
       </c>
       <c r="S278" t="n">
-        <v>212</v>
+        <v>369</v>
       </c>
       <c r="T278" t="n">
         <v>400</v>
@@ -22647,7 +22647,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44426</v>
+        <v>44524</v>
       </c>
       <c r="E279" t="n">
         <v>4</v>
@@ -22675,7 +22675,7 @@
       </c>
       <c r="K279" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L279" t="inlineStr">
@@ -22687,13 +22687,13 @@
         <v>20</v>
       </c>
       <c r="N279" t="n">
-        <v>100000</v>
+        <v>165000</v>
       </c>
       <c r="O279" t="n">
-        <v>110000</v>
+        <v>170000</v>
       </c>
       <c r="P279" t="n">
-        <v>105000</v>
+        <v>167500</v>
       </c>
       <c r="Q279" t="inlineStr">
         <is>
@@ -22706,7 +22706,7 @@
         </is>
       </c>
       <c r="S279" t="n">
-        <v>262</v>
+        <v>419</v>
       </c>
       <c r="T279" t="n">
         <v>400</v>
@@ -22727,7 +22727,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44426</v>
+        <v>44524</v>
       </c>
       <c r="E280" t="n">
         <v>4</v>
@@ -22755,7 +22755,7 @@
       </c>
       <c r="K280" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L280" t="inlineStr">
@@ -22764,16 +22764,16 @@
         </is>
       </c>
       <c r="M280" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N280" t="n">
-        <v>80000</v>
+        <v>145000</v>
       </c>
       <c r="O280" t="n">
-        <v>90000</v>
+        <v>150000</v>
       </c>
       <c r="P280" t="n">
-        <v>85000</v>
+        <v>147500</v>
       </c>
       <c r="Q280" t="inlineStr">
         <is>
@@ -22786,7 +22786,7 @@
         </is>
       </c>
       <c r="S280" t="n">
-        <v>212</v>
+        <v>369</v>
       </c>
       <c r="T280" t="n">
         <v>400</v>
@@ -22807,7 +22807,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44426</v>
+        <v>44524</v>
       </c>
       <c r="E281" t="n">
         <v>4</v>
@@ -22835,7 +22835,7 @@
       </c>
       <c r="K281" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L281" t="inlineStr">
@@ -22844,16 +22844,16 @@
         </is>
       </c>
       <c r="M281" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N281" t="n">
-        <v>100000</v>
+        <v>165000</v>
       </c>
       <c r="O281" t="n">
-        <v>110000</v>
+        <v>170000</v>
       </c>
       <c r="P281" t="n">
-        <v>105000</v>
+        <v>167500</v>
       </c>
       <c r="Q281" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         </is>
       </c>
       <c r="S281" t="n">
-        <v>262</v>
+        <v>419</v>
       </c>
       <c r="T281" t="n">
         <v>400</v>
@@ -22887,7 +22887,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44426</v>
+        <v>44524</v>
       </c>
       <c r="E282" t="n">
         <v>4</v>
@@ -22915,7 +22915,7 @@
       </c>
       <c r="K282" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L282" t="inlineStr">
@@ -22924,16 +22924,16 @@
         </is>
       </c>
       <c r="M282" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N282" t="n">
-        <v>80000</v>
+        <v>145000</v>
       </c>
       <c r="O282" t="n">
-        <v>90000</v>
+        <v>150000</v>
       </c>
       <c r="P282" t="n">
-        <v>85000</v>
+        <v>147500</v>
       </c>
       <c r="Q282" t="inlineStr">
         <is>
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="S282" t="n">
-        <v>212</v>
+        <v>369</v>
       </c>
       <c r="T282" t="n">
         <v>400</v>
@@ -22967,7 +22967,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44426</v>
+        <v>44524</v>
       </c>
       <c r="E283" t="n">
         <v>4</v>
@@ -22995,7 +22995,7 @@
       </c>
       <c r="K283" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L283" t="inlineStr">
@@ -23007,13 +23007,13 @@
         <v>20</v>
       </c>
       <c r="N283" t="n">
-        <v>100000</v>
+        <v>175000</v>
       </c>
       <c r="O283" t="n">
-        <v>110000</v>
+        <v>180000</v>
       </c>
       <c r="P283" t="n">
-        <v>105000</v>
+        <v>177500</v>
       </c>
       <c r="Q283" t="inlineStr">
         <is>
@@ -23026,7 +23026,7 @@
         </is>
       </c>
       <c r="S283" t="n">
-        <v>262</v>
+        <v>444</v>
       </c>
       <c r="T283" t="n">
         <v>400</v>
@@ -23075,25 +23075,25 @@
       </c>
       <c r="K284" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Cara cara</t>
         </is>
       </c>
       <c r="L284" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M284" t="n">
         <v>20</v>
       </c>
       <c r="N284" t="n">
-        <v>80000</v>
+        <v>100000</v>
       </c>
       <c r="O284" t="n">
-        <v>90000</v>
+        <v>110000</v>
       </c>
       <c r="P284" t="n">
-        <v>85000</v>
+        <v>105000</v>
       </c>
       <c r="Q284" t="inlineStr">
         <is>
@@ -23106,7 +23106,7 @@
         </is>
       </c>
       <c r="S284" t="n">
-        <v>212</v>
+        <v>262</v>
       </c>
       <c r="T284" t="n">
         <v>400</v>
@@ -23127,7 +23127,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44448</v>
+        <v>44426</v>
       </c>
       <c r="E285" t="n">
         <v>4</v>
@@ -23155,25 +23155,25 @@
       </c>
       <c r="K285" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Cara cara</t>
         </is>
       </c>
       <c r="L285" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M285" t="n">
         <v>20</v>
       </c>
       <c r="N285" t="n">
-        <v>110000</v>
+        <v>80000</v>
       </c>
       <c r="O285" t="n">
-        <v>120000</v>
+        <v>90000</v>
       </c>
       <c r="P285" t="n">
-        <v>115000</v>
+        <v>85000</v>
       </c>
       <c r="Q285" t="inlineStr">
         <is>
@@ -23186,7 +23186,7 @@
         </is>
       </c>
       <c r="S285" t="n">
-        <v>288</v>
+        <v>212</v>
       </c>
       <c r="T285" t="n">
         <v>400</v>
@@ -23207,7 +23207,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44448</v>
+        <v>44426</v>
       </c>
       <c r="E286" t="n">
         <v>4</v>
@@ -23235,25 +23235,25 @@
       </c>
       <c r="K286" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L286" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M286" t="n">
         <v>20</v>
       </c>
       <c r="N286" t="n">
-        <v>80000</v>
+        <v>100000</v>
       </c>
       <c r="O286" t="n">
-        <v>90000</v>
+        <v>110000</v>
       </c>
       <c r="P286" t="n">
-        <v>85000</v>
+        <v>105000</v>
       </c>
       <c r="Q286" t="inlineStr">
         <is>
@@ -23266,7 +23266,7 @@
         </is>
       </c>
       <c r="S286" t="n">
-        <v>212</v>
+        <v>262</v>
       </c>
       <c r="T286" t="n">
         <v>400</v>
@@ -23287,7 +23287,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44448</v>
+        <v>44426</v>
       </c>
       <c r="E287" t="n">
         <v>4</v>
@@ -23315,25 +23315,25 @@
       </c>
       <c r="K287" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L287" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M287" t="n">
         <v>20</v>
       </c>
       <c r="N287" t="n">
-        <v>110000</v>
+        <v>80000</v>
       </c>
       <c r="O287" t="n">
-        <v>120000</v>
+        <v>90000</v>
       </c>
       <c r="P287" t="n">
-        <v>115000</v>
+        <v>85000</v>
       </c>
       <c r="Q287" t="inlineStr">
         <is>
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="S287" t="n">
-        <v>288</v>
+        <v>212</v>
       </c>
       <c r="T287" t="n">
         <v>400</v>
@@ -23367,7 +23367,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44448</v>
+        <v>44426</v>
       </c>
       <c r="E288" t="n">
         <v>4</v>
@@ -23395,25 +23395,25 @@
       </c>
       <c r="K288" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L288" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M288" t="n">
         <v>20</v>
       </c>
       <c r="N288" t="n">
-        <v>80000</v>
+        <v>100000</v>
       </c>
       <c r="O288" t="n">
-        <v>90000</v>
+        <v>110000</v>
       </c>
       <c r="P288" t="n">
-        <v>85000</v>
+        <v>105000</v>
       </c>
       <c r="Q288" t="inlineStr">
         <is>
@@ -23426,7 +23426,7 @@
         </is>
       </c>
       <c r="S288" t="n">
-        <v>212</v>
+        <v>262</v>
       </c>
       <c r="T288" t="n">
         <v>400</v>
@@ -23447,7 +23447,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44210</v>
+        <v>44426</v>
       </c>
       <c r="E289" t="n">
         <v>4</v>
@@ -23475,25 +23475,25 @@
       </c>
       <c r="K289" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L289" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M289" t="n">
         <v>20</v>
       </c>
       <c r="N289" t="n">
-        <v>475000</v>
+        <v>80000</v>
       </c>
       <c r="O289" t="n">
-        <v>480000</v>
+        <v>90000</v>
       </c>
       <c r="P289" t="n">
-        <v>477500</v>
+        <v>85000</v>
       </c>
       <c r="Q289" t="inlineStr">
         <is>
@@ -23506,7 +23506,7 @@
         </is>
       </c>
       <c r="S289" t="n">
-        <v>1194</v>
+        <v>212</v>
       </c>
       <c r="T289" t="n">
         <v>400</v>
@@ -23527,7 +23527,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44210</v>
+        <v>44426</v>
       </c>
       <c r="E290" t="n">
         <v>4</v>
@@ -23555,7 +23555,7 @@
       </c>
       <c r="K290" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L290" t="inlineStr">
@@ -23567,13 +23567,13 @@
         <v>20</v>
       </c>
       <c r="N290" t="n">
-        <v>425000</v>
+        <v>100000</v>
       </c>
       <c r="O290" t="n">
-        <v>430000</v>
+        <v>110000</v>
       </c>
       <c r="P290" t="n">
-        <v>427500</v>
+        <v>105000</v>
       </c>
       <c r="Q290" t="inlineStr">
         <is>
@@ -23586,7 +23586,7 @@
         </is>
       </c>
       <c r="S290" t="n">
-        <v>1069</v>
+        <v>262</v>
       </c>
       <c r="T290" t="n">
         <v>400</v>
@@ -23607,7 +23607,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44210</v>
+        <v>44426</v>
       </c>
       <c r="E291" t="n">
         <v>4</v>
@@ -23635,7 +23635,7 @@
       </c>
       <c r="K291" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L291" t="inlineStr">
@@ -23647,13 +23647,13 @@
         <v>20</v>
       </c>
       <c r="N291" t="n">
-        <v>375000</v>
+        <v>80000</v>
       </c>
       <c r="O291" t="n">
-        <v>380000</v>
+        <v>90000</v>
       </c>
       <c r="P291" t="n">
-        <v>377500</v>
+        <v>85000</v>
       </c>
       <c r="Q291" t="inlineStr">
         <is>
@@ -23666,7 +23666,7 @@
         </is>
       </c>
       <c r="S291" t="n">
-        <v>944</v>
+        <v>212</v>
       </c>
       <c r="T291" t="n">
         <v>400</v>
@@ -23687,7 +23687,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44301</v>
+        <v>44448</v>
       </c>
       <c r="E292" t="n">
         <v>4</v>
@@ -23715,25 +23715,25 @@
       </c>
       <c r="K292" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L292" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M292" t="n">
         <v>20</v>
       </c>
       <c r="N292" t="n">
-        <v>495000</v>
+        <v>110000</v>
       </c>
       <c r="O292" t="n">
-        <v>500000</v>
+        <v>120000</v>
       </c>
       <c r="P292" t="n">
-        <v>497500</v>
+        <v>115000</v>
       </c>
       <c r="Q292" t="inlineStr">
         <is>
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="S292" t="n">
-        <v>1244</v>
+        <v>288</v>
       </c>
       <c r="T292" t="n">
         <v>400</v>
@@ -23767,7 +23767,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44301</v>
+        <v>44448</v>
       </c>
       <c r="E293" t="n">
         <v>4</v>
@@ -23795,25 +23795,25 @@
       </c>
       <c r="K293" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L293" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M293" t="n">
         <v>20</v>
       </c>
       <c r="N293" t="n">
-        <v>475000</v>
+        <v>80000</v>
       </c>
       <c r="O293" t="n">
-        <v>480000</v>
+        <v>90000</v>
       </c>
       <c r="P293" t="n">
-        <v>477500</v>
+        <v>85000</v>
       </c>
       <c r="Q293" t="inlineStr">
         <is>
@@ -23826,7 +23826,7 @@
         </is>
       </c>
       <c r="S293" t="n">
-        <v>1194</v>
+        <v>212</v>
       </c>
       <c r="T293" t="n">
         <v>400</v>
@@ -23847,7 +23847,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44441</v>
+        <v>44448</v>
       </c>
       <c r="E294" t="n">
         <v>4</v>
@@ -23875,7 +23875,7 @@
       </c>
       <c r="K294" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L294" t="inlineStr">
@@ -23927,7 +23927,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44441</v>
+        <v>44448</v>
       </c>
       <c r="E295" t="n">
         <v>4</v>
@@ -23955,7 +23955,7 @@
       </c>
       <c r="K295" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L295" t="inlineStr">
@@ -23967,13 +23967,13 @@
         <v>20</v>
       </c>
       <c r="N295" t="n">
+        <v>80000</v>
+      </c>
+      <c r="O295" t="n">
         <v>90000</v>
       </c>
-      <c r="O295" t="n">
-        <v>100000</v>
-      </c>
       <c r="P295" t="n">
-        <v>95000</v>
+        <v>85000</v>
       </c>
       <c r="Q295" t="inlineStr">
         <is>
@@ -23986,7 +23986,7 @@
         </is>
       </c>
       <c r="S295" t="n">
-        <v>238</v>
+        <v>212</v>
       </c>
       <c r="T295" t="n">
         <v>400</v>
@@ -24007,7 +24007,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44441</v>
+        <v>44210</v>
       </c>
       <c r="E296" t="n">
         <v>4</v>
@@ -24035,25 +24035,25 @@
       </c>
       <c r="K296" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L296" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M296" t="n">
         <v>20</v>
       </c>
       <c r="N296" t="n">
-        <v>100000</v>
+        <v>475000</v>
       </c>
       <c r="O296" t="n">
-        <v>110000</v>
+        <v>480000</v>
       </c>
       <c r="P296" t="n">
-        <v>105000</v>
+        <v>477500</v>
       </c>
       <c r="Q296" t="inlineStr">
         <is>
@@ -24066,7 +24066,7 @@
         </is>
       </c>
       <c r="S296" t="n">
-        <v>262</v>
+        <v>1194</v>
       </c>
       <c r="T296" t="n">
         <v>400</v>
@@ -24087,7 +24087,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44441</v>
+        <v>44210</v>
       </c>
       <c r="E297" t="n">
         <v>4</v>
@@ -24115,25 +24115,25 @@
       </c>
       <c r="K297" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L297" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M297" t="n">
         <v>20</v>
       </c>
       <c r="N297" t="n">
-        <v>80000</v>
+        <v>425000</v>
       </c>
       <c r="O297" t="n">
-        <v>90000</v>
+        <v>430000</v>
       </c>
       <c r="P297" t="n">
-        <v>85000</v>
+        <v>427500</v>
       </c>
       <c r="Q297" t="inlineStr">
         <is>
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="S297" t="n">
-        <v>212</v>
+        <v>1069</v>
       </c>
       <c r="T297" t="n">
         <v>400</v>
@@ -24167,7 +24167,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44279</v>
+        <v>44210</v>
       </c>
       <c r="E298" t="n">
         <v>4</v>
@@ -24200,20 +24200,20 @@
       </c>
       <c r="L298" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M298" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N298" t="n">
-        <v>475000</v>
+        <v>375000</v>
       </c>
       <c r="O298" t="n">
-        <v>480000</v>
+        <v>380000</v>
       </c>
       <c r="P298" t="n">
-        <v>477500</v>
+        <v>377500</v>
       </c>
       <c r="Q298" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         </is>
       </c>
       <c r="S298" t="n">
-        <v>1194</v>
+        <v>944</v>
       </c>
       <c r="T298" t="n">
         <v>400</v>
@@ -24247,7 +24247,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44279</v>
+        <v>44301</v>
       </c>
       <c r="E299" t="n">
         <v>4</v>
@@ -24280,20 +24280,20 @@
       </c>
       <c r="L299" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M299" t="n">
         <v>20</v>
       </c>
       <c r="N299" t="n">
-        <v>455000</v>
+        <v>495000</v>
       </c>
       <c r="O299" t="n">
-        <v>460000</v>
+        <v>500000</v>
       </c>
       <c r="P299" t="n">
-        <v>457500</v>
+        <v>497500</v>
       </c>
       <c r="Q299" t="inlineStr">
         <is>
@@ -24306,7 +24306,7 @@
         </is>
       </c>
       <c r="S299" t="n">
-        <v>1144</v>
+        <v>1244</v>
       </c>
       <c r="T299" t="n">
         <v>400</v>
@@ -24327,7 +24327,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44279</v>
+        <v>44301</v>
       </c>
       <c r="E300" t="n">
         <v>4</v>
@@ -24360,20 +24360,20 @@
       </c>
       <c r="L300" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M300" t="n">
         <v>20</v>
       </c>
       <c r="N300" t="n">
-        <v>415000</v>
+        <v>475000</v>
       </c>
       <c r="O300" t="n">
-        <v>420000</v>
+        <v>480000</v>
       </c>
       <c r="P300" t="n">
-        <v>417500</v>
+        <v>477500</v>
       </c>
       <c r="Q300" t="inlineStr">
         <is>
@@ -24386,7 +24386,7 @@
         </is>
       </c>
       <c r="S300" t="n">
-        <v>1044</v>
+        <v>1194</v>
       </c>
       <c r="T300" t="n">
         <v>400</v>
@@ -24407,7 +24407,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44504</v>
+        <v>44441</v>
       </c>
       <c r="E301" t="n">
         <v>4</v>
@@ -24435,7 +24435,7 @@
       </c>
       <c r="K301" t="inlineStr">
         <is>
-          <t>Cara cara</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L301" t="inlineStr">
@@ -24447,13 +24447,13 @@
         <v>20</v>
       </c>
       <c r="N301" t="n">
-        <v>165000</v>
+        <v>110000</v>
       </c>
       <c r="O301" t="n">
-        <v>170000</v>
+        <v>120000</v>
       </c>
       <c r="P301" t="n">
-        <v>167500</v>
+        <v>115000</v>
       </c>
       <c r="Q301" t="inlineStr">
         <is>
@@ -24466,7 +24466,7 @@
         </is>
       </c>
       <c r="S301" t="n">
-        <v>419</v>
+        <v>288</v>
       </c>
       <c r="T301" t="n">
         <v>400</v>
@@ -24487,7 +24487,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44504</v>
+        <v>44441</v>
       </c>
       <c r="E302" t="n">
         <v>4</v>
@@ -24520,20 +24520,20 @@
       </c>
       <c r="L302" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M302" t="n">
         <v>20</v>
       </c>
       <c r="N302" t="n">
-        <v>145000</v>
+        <v>90000</v>
       </c>
       <c r="O302" t="n">
-        <v>150000</v>
+        <v>100000</v>
       </c>
       <c r="P302" t="n">
-        <v>147500</v>
+        <v>95000</v>
       </c>
       <c r="Q302" t="inlineStr">
         <is>
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="S302" t="n">
-        <v>369</v>
+        <v>238</v>
       </c>
       <c r="T302" t="n">
         <v>400</v>
@@ -24567,7 +24567,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44504</v>
+        <v>44441</v>
       </c>
       <c r="E303" t="n">
         <v>4</v>
@@ -24595,25 +24595,25 @@
       </c>
       <c r="K303" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L303" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M303" t="n">
         <v>20</v>
       </c>
       <c r="N303" t="n">
-        <v>125000</v>
+        <v>100000</v>
       </c>
       <c r="O303" t="n">
-        <v>130000</v>
+        <v>110000</v>
       </c>
       <c r="P303" t="n">
-        <v>127500</v>
+        <v>105000</v>
       </c>
       <c r="Q303" t="inlineStr">
         <is>
@@ -24626,7 +24626,7 @@
         </is>
       </c>
       <c r="S303" t="n">
-        <v>319</v>
+        <v>262</v>
       </c>
       <c r="T303" t="n">
         <v>400</v>
@@ -24647,7 +24647,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44504</v>
+        <v>44441</v>
       </c>
       <c r="E304" t="n">
         <v>4</v>
@@ -24680,20 +24680,20 @@
       </c>
       <c r="L304" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M304" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N304" t="n">
-        <v>145000</v>
+        <v>80000</v>
       </c>
       <c r="O304" t="n">
-        <v>150000</v>
+        <v>90000</v>
       </c>
       <c r="P304" t="n">
-        <v>147500</v>
+        <v>85000</v>
       </c>
       <c r="Q304" t="inlineStr">
         <is>
@@ -24706,7 +24706,7 @@
         </is>
       </c>
       <c r="S304" t="n">
-        <v>369</v>
+        <v>212</v>
       </c>
       <c r="T304" t="n">
         <v>400</v>
@@ -24727,7 +24727,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44504</v>
+        <v>44279</v>
       </c>
       <c r="E305" t="n">
         <v>4</v>
@@ -24755,25 +24755,25 @@
       </c>
       <c r="K305" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L305" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M305" t="n">
         <v>16</v>
       </c>
       <c r="N305" t="n">
-        <v>125000</v>
+        <v>475000</v>
       </c>
       <c r="O305" t="n">
-        <v>130000</v>
+        <v>480000</v>
       </c>
       <c r="P305" t="n">
-        <v>127500</v>
+        <v>477500</v>
       </c>
       <c r="Q305" t="inlineStr">
         <is>
@@ -24786,7 +24786,7 @@
         </is>
       </c>
       <c r="S305" t="n">
-        <v>319</v>
+        <v>1194</v>
       </c>
       <c r="T305" t="n">
         <v>400</v>
@@ -24807,7 +24807,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44350</v>
+        <v>44279</v>
       </c>
       <c r="E306" t="n">
         <v>4</v>
@@ -24835,7 +24835,7 @@
       </c>
       <c r="K306" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L306" t="inlineStr">
@@ -24847,13 +24847,13 @@
         <v>20</v>
       </c>
       <c r="N306" t="n">
-        <v>200000</v>
+        <v>455000</v>
       </c>
       <c r="O306" t="n">
-        <v>210000</v>
+        <v>460000</v>
       </c>
       <c r="P306" t="n">
-        <v>205000</v>
+        <v>457500</v>
       </c>
       <c r="Q306" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         </is>
       </c>
       <c r="S306" t="n">
-        <v>512</v>
+        <v>1144</v>
       </c>
       <c r="T306" t="n">
         <v>400</v>
@@ -24887,7 +24887,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44350</v>
+        <v>44279</v>
       </c>
       <c r="E307" t="n">
         <v>4</v>
@@ -24915,7 +24915,7 @@
       </c>
       <c r="K307" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L307" t="inlineStr">
@@ -24927,13 +24927,13 @@
         <v>20</v>
       </c>
       <c r="N307" t="n">
-        <v>170000</v>
+        <v>415000</v>
       </c>
       <c r="O307" t="n">
-        <v>180000</v>
+        <v>420000</v>
       </c>
       <c r="P307" t="n">
-        <v>175000</v>
+        <v>417500</v>
       </c>
       <c r="Q307" t="inlineStr">
         <is>
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="S307" t="n">
-        <v>438</v>
+        <v>1044</v>
       </c>
       <c r="T307" t="n">
         <v>400</v>
@@ -24967,7 +24967,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44350</v>
+        <v>44504</v>
       </c>
       <c r="E308" t="n">
         <v>4</v>
@@ -24995,7 +24995,7 @@
       </c>
       <c r="K308" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Cara cara</t>
         </is>
       </c>
       <c r="L308" t="inlineStr">
@@ -25007,13 +25007,13 @@
         <v>20</v>
       </c>
       <c r="N308" t="n">
-        <v>200000</v>
+        <v>165000</v>
       </c>
       <c r="O308" t="n">
-        <v>210000</v>
+        <v>170000</v>
       </c>
       <c r="P308" t="n">
-        <v>205000</v>
+        <v>167500</v>
       </c>
       <c r="Q308" t="inlineStr">
         <is>
@@ -25026,7 +25026,7 @@
         </is>
       </c>
       <c r="S308" t="n">
-        <v>512</v>
+        <v>419</v>
       </c>
       <c r="T308" t="n">
         <v>400</v>
@@ -25047,7 +25047,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44350</v>
+        <v>44504</v>
       </c>
       <c r="E309" t="n">
         <v>4</v>
@@ -25075,25 +25075,25 @@
       </c>
       <c r="K309" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L309" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M309" t="n">
         <v>20</v>
       </c>
       <c r="N309" t="n">
-        <v>170000</v>
+        <v>145000</v>
       </c>
       <c r="O309" t="n">
-        <v>180000</v>
+        <v>150000</v>
       </c>
       <c r="P309" t="n">
-        <v>175000</v>
+        <v>147500</v>
       </c>
       <c r="Q309" t="inlineStr">
         <is>
@@ -25106,7 +25106,7 @@
         </is>
       </c>
       <c r="S309" t="n">
-        <v>438</v>
+        <v>369</v>
       </c>
       <c r="T309" t="n">
         <v>400</v>
@@ -25127,7 +25127,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E310" t="n">
         <v>4</v>
@@ -25155,12 +25155,12 @@
       </c>
       <c r="K310" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L310" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M310" t="n">
@@ -25207,7 +25207,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E311" t="n">
         <v>4</v>
@@ -25235,25 +25235,25 @@
       </c>
       <c r="K311" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L311" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M311" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N311" t="n">
-        <v>105000</v>
+        <v>145000</v>
       </c>
       <c r="O311" t="n">
-        <v>110000</v>
+        <v>150000</v>
       </c>
       <c r="P311" t="n">
-        <v>107500</v>
+        <v>147500</v>
       </c>
       <c r="Q311" t="inlineStr">
         <is>
@@ -25266,7 +25266,7 @@
         </is>
       </c>
       <c r="S311" t="n">
-        <v>269</v>
+        <v>369</v>
       </c>
       <c r="T311" t="n">
         <v>400</v>
@@ -25287,7 +25287,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E312" t="n">
         <v>4</v>
@@ -25320,11 +25320,11 @@
       </c>
       <c r="L312" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M312" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N312" t="n">
         <v>125000</v>
@@ -25367,7 +25367,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44384</v>
+        <v>44350</v>
       </c>
       <c r="E313" t="n">
         <v>4</v>
@@ -25395,25 +25395,25 @@
       </c>
       <c r="K313" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L313" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M313" t="n">
         <v>20</v>
       </c>
       <c r="N313" t="n">
-        <v>105000</v>
+        <v>200000</v>
       </c>
       <c r="O313" t="n">
-        <v>110000</v>
+        <v>210000</v>
       </c>
       <c r="P313" t="n">
-        <v>107500</v>
+        <v>205000</v>
       </c>
       <c r="Q313" t="inlineStr">
         <is>
@@ -25426,7 +25426,7 @@
         </is>
       </c>
       <c r="S313" t="n">
-        <v>269</v>
+        <v>512</v>
       </c>
       <c r="T313" t="n">
         <v>400</v>
@@ -25447,7 +25447,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44384</v>
+        <v>44350</v>
       </c>
       <c r="E314" t="n">
         <v>4</v>
@@ -25475,25 +25475,25 @@
       </c>
       <c r="K314" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L314" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M314" t="n">
         <v>20</v>
       </c>
       <c r="N314" t="n">
-        <v>115000</v>
+        <v>170000</v>
       </c>
       <c r="O314" t="n">
-        <v>120000</v>
+        <v>180000</v>
       </c>
       <c r="P314" t="n">
-        <v>117500</v>
+        <v>175000</v>
       </c>
       <c r="Q314" t="inlineStr">
         <is>
@@ -25506,7 +25506,7 @@
         </is>
       </c>
       <c r="S314" t="n">
-        <v>294</v>
+        <v>438</v>
       </c>
       <c r="T314" t="n">
         <v>400</v>
@@ -25527,7 +25527,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44384</v>
+        <v>44350</v>
       </c>
       <c r="E315" t="n">
         <v>4</v>
@@ -25560,20 +25560,20 @@
       </c>
       <c r="L315" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M315" t="n">
         <v>20</v>
       </c>
       <c r="N315" t="n">
-        <v>95000</v>
+        <v>200000</v>
       </c>
       <c r="O315" t="n">
-        <v>100000</v>
+        <v>210000</v>
       </c>
       <c r="P315" t="n">
-        <v>97500</v>
+        <v>205000</v>
       </c>
       <c r="Q315" t="inlineStr">
         <is>
@@ -25586,7 +25586,7 @@
         </is>
       </c>
       <c r="S315" t="n">
-        <v>244</v>
+        <v>512</v>
       </c>
       <c r="T315" t="n">
         <v>400</v>
@@ -25607,7 +25607,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44329</v>
+        <v>44350</v>
       </c>
       <c r="E316" t="n">
         <v>4</v>
@@ -25635,25 +25635,25 @@
       </c>
       <c r="K316" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L316" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M316" t="n">
         <v>20</v>
       </c>
       <c r="N316" t="n">
-        <v>270000</v>
+        <v>170000</v>
       </c>
       <c r="O316" t="n">
-        <v>280000</v>
+        <v>180000</v>
       </c>
       <c r="P316" t="n">
-        <v>275000</v>
+        <v>175000</v>
       </c>
       <c r="Q316" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         </is>
       </c>
       <c r="S316" t="n">
-        <v>688</v>
+        <v>438</v>
       </c>
       <c r="T316" t="n">
         <v>400</v>
@@ -25687,7 +25687,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44329</v>
+        <v>44384</v>
       </c>
       <c r="E317" t="n">
         <v>4</v>
@@ -25715,7 +25715,7 @@
       </c>
       <c r="K317" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L317" t="inlineStr">
@@ -25727,13 +25727,13 @@
         <v>20</v>
       </c>
       <c r="N317" t="n">
-        <v>270000</v>
+        <v>125000</v>
       </c>
       <c r="O317" t="n">
-        <v>280000</v>
+        <v>130000</v>
       </c>
       <c r="P317" t="n">
-        <v>275000</v>
+        <v>127500</v>
       </c>
       <c r="Q317" t="inlineStr">
         <is>
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="S317" t="n">
-        <v>688</v>
+        <v>319</v>
       </c>
       <c r="T317" t="n">
         <v>400</v>
@@ -25767,7 +25767,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44272</v>
+        <v>44384</v>
       </c>
       <c r="E318" t="n">
         <v>4</v>
@@ -25795,25 +25795,25 @@
       </c>
       <c r="K318" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L318" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M318" t="n">
         <v>20</v>
       </c>
       <c r="N318" t="n">
-        <v>455000</v>
+        <v>105000</v>
       </c>
       <c r="O318" t="n">
-        <v>460000</v>
+        <v>110000</v>
       </c>
       <c r="P318" t="n">
-        <v>457500</v>
+        <v>107500</v>
       </c>
       <c r="Q318" t="inlineStr">
         <is>
@@ -25826,7 +25826,7 @@
         </is>
       </c>
       <c r="S318" t="n">
-        <v>1144</v>
+        <v>269</v>
       </c>
       <c r="T318" t="n">
         <v>400</v>
@@ -25847,7 +25847,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44272</v>
+        <v>44384</v>
       </c>
       <c r="E319" t="n">
         <v>4</v>
@@ -25875,25 +25875,25 @@
       </c>
       <c r="K319" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L319" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M319" t="n">
         <v>20</v>
       </c>
       <c r="N319" t="n">
-        <v>415000</v>
+        <v>125000</v>
       </c>
       <c r="O319" t="n">
-        <v>420000</v>
+        <v>130000</v>
       </c>
       <c r="P319" t="n">
-        <v>417500</v>
+        <v>127500</v>
       </c>
       <c r="Q319" t="inlineStr">
         <is>
@@ -25906,7 +25906,7 @@
         </is>
       </c>
       <c r="S319" t="n">
-        <v>1044</v>
+        <v>319</v>
       </c>
       <c r="T319" t="n">
         <v>400</v>
@@ -25927,7 +25927,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44447</v>
+        <v>44384</v>
       </c>
       <c r="E320" t="n">
         <v>4</v>
@@ -25955,25 +25955,25 @@
       </c>
       <c r="K320" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L320" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M320" t="n">
         <v>20</v>
       </c>
       <c r="N320" t="n">
+        <v>105000</v>
+      </c>
+      <c r="O320" t="n">
         <v>110000</v>
       </c>
-      <c r="O320" t="n">
-        <v>120000</v>
-      </c>
       <c r="P320" t="n">
-        <v>115000</v>
+        <v>107500</v>
       </c>
       <c r="Q320" t="inlineStr">
         <is>
@@ -25986,7 +25986,7 @@
         </is>
       </c>
       <c r="S320" t="n">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="T320" t="n">
         <v>400</v>
@@ -26007,7 +26007,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44447</v>
+        <v>44384</v>
       </c>
       <c r="E321" t="n">
         <v>4</v>
@@ -26035,25 +26035,25 @@
       </c>
       <c r="K321" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L321" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M321" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="N321" t="n">
-        <v>80000</v>
+        <v>115000</v>
       </c>
       <c r="O321" t="n">
-        <v>90000</v>
+        <v>120000</v>
       </c>
       <c r="P321" t="n">
-        <v>86429</v>
+        <v>117500</v>
       </c>
       <c r="Q321" t="inlineStr">
         <is>
@@ -26066,7 +26066,7 @@
         </is>
       </c>
       <c r="S321" t="n">
-        <v>216</v>
+        <v>294</v>
       </c>
       <c r="T321" t="n">
         <v>400</v>
@@ -26087,7 +26087,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44447</v>
+        <v>44384</v>
       </c>
       <c r="E322" t="n">
         <v>4</v>
@@ -26115,25 +26115,25 @@
       </c>
       <c r="K322" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L322" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M322" t="n">
         <v>20</v>
       </c>
       <c r="N322" t="n">
-        <v>110000</v>
+        <v>95000</v>
       </c>
       <c r="O322" t="n">
-        <v>120000</v>
+        <v>100000</v>
       </c>
       <c r="P322" t="n">
-        <v>115000</v>
+        <v>97500</v>
       </c>
       <c r="Q322" t="inlineStr">
         <is>
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="S322" t="n">
-        <v>288</v>
+        <v>244</v>
       </c>
       <c r="T322" t="n">
         <v>400</v>
@@ -26167,7 +26167,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44447</v>
+        <v>44329</v>
       </c>
       <c r="E323" t="n">
         <v>4</v>
@@ -26195,25 +26195,25 @@
       </c>
       <c r="K323" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L323" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M323" t="n">
         <v>20</v>
       </c>
       <c r="N323" t="n">
-        <v>80000</v>
+        <v>270000</v>
       </c>
       <c r="O323" t="n">
-        <v>90000</v>
+        <v>280000</v>
       </c>
       <c r="P323" t="n">
-        <v>85000</v>
+        <v>275000</v>
       </c>
       <c r="Q323" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         </is>
       </c>
       <c r="S323" t="n">
-        <v>212</v>
+        <v>688</v>
       </c>
       <c r="T323" t="n">
         <v>400</v>
@@ -26247,7 +26247,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44315</v>
+        <v>44329</v>
       </c>
       <c r="E324" t="n">
         <v>4</v>
@@ -26275,7 +26275,7 @@
       </c>
       <c r="K324" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L324" t="inlineStr">
@@ -26287,13 +26287,13 @@
         <v>20</v>
       </c>
       <c r="N324" t="n">
-        <v>355000</v>
+        <v>270000</v>
       </c>
       <c r="O324" t="n">
-        <v>360000</v>
+        <v>280000</v>
       </c>
       <c r="P324" t="n">
-        <v>357500</v>
+        <v>275000</v>
       </c>
       <c r="Q324" t="inlineStr">
         <is>
@@ -26306,7 +26306,7 @@
         </is>
       </c>
       <c r="S324" t="n">
-        <v>894</v>
+        <v>688</v>
       </c>
       <c r="T324" t="n">
         <v>400</v>
@@ -26327,7 +26327,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44315</v>
+        <v>44272</v>
       </c>
       <c r="E325" t="n">
         <v>4</v>
@@ -26355,25 +26355,25 @@
       </c>
       <c r="K325" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L325" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M325" t="n">
         <v>20</v>
       </c>
       <c r="N325" t="n">
-        <v>325000</v>
+        <v>455000</v>
       </c>
       <c r="O325" t="n">
-        <v>330000</v>
+        <v>460000</v>
       </c>
       <c r="P325" t="n">
-        <v>327500</v>
+        <v>457500</v>
       </c>
       <c r="Q325" t="inlineStr">
         <is>
@@ -26386,7 +26386,7 @@
         </is>
       </c>
       <c r="S325" t="n">
-        <v>819</v>
+        <v>1144</v>
       </c>
       <c r="T325" t="n">
         <v>400</v>
@@ -26407,7 +26407,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44315</v>
+        <v>44272</v>
       </c>
       <c r="E326" t="n">
         <v>4</v>
@@ -26435,25 +26435,25 @@
       </c>
       <c r="K326" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L326" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M326" t="n">
         <v>20</v>
       </c>
       <c r="N326" t="n">
-        <v>355000</v>
+        <v>415000</v>
       </c>
       <c r="O326" t="n">
-        <v>360000</v>
+        <v>420000</v>
       </c>
       <c r="P326" t="n">
-        <v>357500</v>
+        <v>417500</v>
       </c>
       <c r="Q326" t="inlineStr">
         <is>
@@ -26466,7 +26466,7 @@
         </is>
       </c>
       <c r="S326" t="n">
-        <v>894</v>
+        <v>1044</v>
       </c>
       <c r="T326" t="n">
         <v>400</v>
@@ -26487,7 +26487,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44315</v>
+        <v>44447</v>
       </c>
       <c r="E327" t="n">
         <v>4</v>
@@ -26515,25 +26515,25 @@
       </c>
       <c r="K327" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L327" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M327" t="n">
         <v>20</v>
       </c>
       <c r="N327" t="n">
-        <v>325000</v>
+        <v>110000</v>
       </c>
       <c r="O327" t="n">
-        <v>330000</v>
+        <v>120000</v>
       </c>
       <c r="P327" t="n">
-        <v>327500</v>
+        <v>115000</v>
       </c>
       <c r="Q327" t="inlineStr">
         <is>
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="S327" t="n">
-        <v>819</v>
+        <v>288</v>
       </c>
       <c r="T327" t="n">
         <v>400</v>
@@ -26567,7 +26567,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44315</v>
+        <v>44447</v>
       </c>
       <c r="E328" t="n">
         <v>4</v>
@@ -26595,25 +26595,25 @@
       </c>
       <c r="K328" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L328" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M328" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N328" t="n">
-        <v>470000</v>
+        <v>80000</v>
       </c>
       <c r="O328" t="n">
-        <v>480000</v>
+        <v>90000</v>
       </c>
       <c r="P328" t="n">
-        <v>475000</v>
+        <v>86429</v>
       </c>
       <c r="Q328" t="inlineStr">
         <is>
@@ -26626,7 +26626,7 @@
         </is>
       </c>
       <c r="S328" t="n">
-        <v>1188</v>
+        <v>216</v>
       </c>
       <c r="T328" t="n">
         <v>400</v>
@@ -26647,7 +26647,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44322</v>
+        <v>44447</v>
       </c>
       <c r="E329" t="n">
         <v>4</v>
@@ -26675,7 +26675,7 @@
       </c>
       <c r="K329" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L329" t="inlineStr">
@@ -26687,13 +26687,13 @@
         <v>20</v>
       </c>
       <c r="N329" t="n">
-        <v>310000</v>
+        <v>110000</v>
       </c>
       <c r="O329" t="n">
-        <v>320000</v>
+        <v>120000</v>
       </c>
       <c r="P329" t="n">
-        <v>315000</v>
+        <v>115000</v>
       </c>
       <c r="Q329" t="inlineStr">
         <is>
@@ -26706,7 +26706,7 @@
         </is>
       </c>
       <c r="S329" t="n">
-        <v>788</v>
+        <v>288</v>
       </c>
       <c r="T329" t="n">
         <v>400</v>
@@ -26727,7 +26727,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44322</v>
+        <v>44447</v>
       </c>
       <c r="E330" t="n">
         <v>4</v>
@@ -26755,7 +26755,7 @@
       </c>
       <c r="K330" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L330" t="inlineStr">
@@ -26767,13 +26767,13 @@
         <v>20</v>
       </c>
       <c r="N330" t="n">
-        <v>270000</v>
+        <v>80000</v>
       </c>
       <c r="O330" t="n">
-        <v>280000</v>
+        <v>90000</v>
       </c>
       <c r="P330" t="n">
-        <v>275000</v>
+        <v>85000</v>
       </c>
       <c r="Q330" t="inlineStr">
         <is>
@@ -26786,7 +26786,7 @@
         </is>
       </c>
       <c r="S330" t="n">
-        <v>688</v>
+        <v>212</v>
       </c>
       <c r="T330" t="n">
         <v>400</v>
@@ -26807,7 +26807,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44322</v>
+        <v>44315</v>
       </c>
       <c r="E331" t="n">
         <v>4</v>
@@ -26835,7 +26835,7 @@
       </c>
       <c r="K331" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L331" t="inlineStr">
@@ -26844,16 +26844,16 @@
         </is>
       </c>
       <c r="M331" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N331" t="n">
-        <v>460000</v>
+        <v>355000</v>
       </c>
       <c r="O331" t="n">
-        <v>470000</v>
+        <v>360000</v>
       </c>
       <c r="P331" t="n">
-        <v>465000</v>
+        <v>357500</v>
       </c>
       <c r="Q331" t="inlineStr">
         <is>
@@ -26866,7 +26866,7 @@
         </is>
       </c>
       <c r="S331" t="n">
-        <v>1162</v>
+        <v>894</v>
       </c>
       <c r="T331" t="n">
         <v>400</v>
@@ -26887,7 +26887,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44510</v>
+        <v>44315</v>
       </c>
       <c r="E332" t="n">
         <v>4</v>
@@ -26915,25 +26915,25 @@
       </c>
       <c r="K332" t="inlineStr">
         <is>
-          <t>Cara cara</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L332" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M332" t="n">
         <v>20</v>
       </c>
       <c r="N332" t="n">
-        <v>175000</v>
+        <v>325000</v>
       </c>
       <c r="O332" t="n">
-        <v>180000</v>
+        <v>330000</v>
       </c>
       <c r="P332" t="n">
-        <v>177500</v>
+        <v>327500</v>
       </c>
       <c r="Q332" t="inlineStr">
         <is>
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="S332" t="n">
-        <v>444</v>
+        <v>819</v>
       </c>
       <c r="T332" t="n">
         <v>400</v>
@@ -26967,7 +26967,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44510</v>
+        <v>44315</v>
       </c>
       <c r="E333" t="n">
         <v>4</v>
@@ -26995,25 +26995,25 @@
       </c>
       <c r="K333" t="inlineStr">
         <is>
-          <t>Cara cara</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L333" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M333" t="n">
         <v>20</v>
       </c>
       <c r="N333" t="n">
-        <v>155000</v>
+        <v>355000</v>
       </c>
       <c r="O333" t="n">
-        <v>160000</v>
+        <v>360000</v>
       </c>
       <c r="P333" t="n">
-        <v>157500</v>
+        <v>357500</v>
       </c>
       <c r="Q333" t="inlineStr">
         <is>
@@ -27026,7 +27026,7 @@
         </is>
       </c>
       <c r="S333" t="n">
-        <v>394</v>
+        <v>894</v>
       </c>
       <c r="T333" t="n">
         <v>400</v>
@@ -27047,7 +27047,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44510</v>
+        <v>44315</v>
       </c>
       <c r="E334" t="n">
         <v>4</v>
@@ -27075,25 +27075,25 @@
       </c>
       <c r="K334" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L334" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M334" t="n">
         <v>20</v>
       </c>
       <c r="N334" t="n">
-        <v>155000</v>
+        <v>325000</v>
       </c>
       <c r="O334" t="n">
-        <v>160000</v>
+        <v>330000</v>
       </c>
       <c r="P334" t="n">
-        <v>157500</v>
+        <v>327500</v>
       </c>
       <c r="Q334" t="inlineStr">
         <is>
@@ -27106,7 +27106,7 @@
         </is>
       </c>
       <c r="S334" t="n">
-        <v>394</v>
+        <v>819</v>
       </c>
       <c r="T334" t="n">
         <v>400</v>
@@ -27127,7 +27127,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44510</v>
+        <v>44315</v>
       </c>
       <c r="E335" t="n">
         <v>4</v>
@@ -27155,25 +27155,25 @@
       </c>
       <c r="K335" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L335" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M335" t="n">
         <v>20</v>
       </c>
       <c r="N335" t="n">
-        <v>125000</v>
+        <v>470000</v>
       </c>
       <c r="O335" t="n">
-        <v>130000</v>
+        <v>480000</v>
       </c>
       <c r="P335" t="n">
-        <v>127500</v>
+        <v>475000</v>
       </c>
       <c r="Q335" t="inlineStr">
         <is>
@@ -27186,7 +27186,7 @@
         </is>
       </c>
       <c r="S335" t="n">
-        <v>319</v>
+        <v>1188</v>
       </c>
       <c r="T335" t="n">
         <v>400</v>
@@ -27207,7 +27207,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44510</v>
+        <v>44322</v>
       </c>
       <c r="E336" t="n">
         <v>4</v>
@@ -27235,7 +27235,7 @@
       </c>
       <c r="K336" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L336" t="inlineStr">
@@ -27247,13 +27247,13 @@
         <v>20</v>
       </c>
       <c r="N336" t="n">
-        <v>155000</v>
+        <v>310000</v>
       </c>
       <c r="O336" t="n">
-        <v>160000</v>
+        <v>320000</v>
       </c>
       <c r="P336" t="n">
-        <v>157500</v>
+        <v>315000</v>
       </c>
       <c r="Q336" t="inlineStr">
         <is>
@@ -27266,7 +27266,7 @@
         </is>
       </c>
       <c r="S336" t="n">
-        <v>394</v>
+        <v>788</v>
       </c>
       <c r="T336" t="n">
         <v>400</v>
@@ -27287,7 +27287,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44510</v>
+        <v>44322</v>
       </c>
       <c r="E337" t="n">
         <v>4</v>
@@ -27315,7 +27315,7 @@
       </c>
       <c r="K337" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L337" t="inlineStr">
@@ -27324,16 +27324,16 @@
         </is>
       </c>
       <c r="M337" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N337" t="n">
-        <v>125000</v>
+        <v>270000</v>
       </c>
       <c r="O337" t="n">
-        <v>130000</v>
+        <v>280000</v>
       </c>
       <c r="P337" t="n">
-        <v>127500</v>
+        <v>275000</v>
       </c>
       <c r="Q337" t="inlineStr">
         <is>
@@ -27346,7 +27346,7 @@
         </is>
       </c>
       <c r="S337" t="n">
-        <v>319</v>
+        <v>688</v>
       </c>
       <c r="T337" t="n">
         <v>400</v>
@@ -27367,7 +27367,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44161</v>
+        <v>44322</v>
       </c>
       <c r="E338" t="n">
         <v>4</v>
@@ -27395,25 +27395,25 @@
       </c>
       <c r="K338" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L338" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M338" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="N338" t="n">
-        <v>325000</v>
+        <v>460000</v>
       </c>
       <c r="O338" t="n">
-        <v>330000</v>
+        <v>470000</v>
       </c>
       <c r="P338" t="n">
-        <v>327500</v>
+        <v>465000</v>
       </c>
       <c r="Q338" t="inlineStr">
         <is>
@@ -27426,7 +27426,7 @@
         </is>
       </c>
       <c r="S338" t="n">
-        <v>819</v>
+        <v>1162</v>
       </c>
       <c r="T338" t="n">
         <v>400</v>
@@ -27447,7 +27447,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44161</v>
+        <v>44510</v>
       </c>
       <c r="E339" t="n">
         <v>4</v>
@@ -27475,7 +27475,7 @@
       </c>
       <c r="K339" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Cara cara</t>
         </is>
       </c>
       <c r="L339" t="inlineStr">
@@ -27484,16 +27484,16 @@
         </is>
       </c>
       <c r="M339" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N339" t="n">
-        <v>305000</v>
+        <v>175000</v>
       </c>
       <c r="O339" t="n">
-        <v>310000</v>
+        <v>180000</v>
       </c>
       <c r="P339" t="n">
-        <v>307500</v>
+        <v>177500</v>
       </c>
       <c r="Q339" t="inlineStr">
         <is>
@@ -27506,7 +27506,7 @@
         </is>
       </c>
       <c r="S339" t="n">
-        <v>769</v>
+        <v>444</v>
       </c>
       <c r="T339" t="n">
         <v>400</v>
@@ -27527,7 +27527,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44161</v>
+        <v>44510</v>
       </c>
       <c r="E340" t="n">
         <v>4</v>
@@ -27555,7 +27555,7 @@
       </c>
       <c r="K340" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Cara cara</t>
         </is>
       </c>
       <c r="L340" t="inlineStr">
@@ -27564,16 +27564,16 @@
         </is>
       </c>
       <c r="M340" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N340" t="n">
-        <v>255000</v>
+        <v>155000</v>
       </c>
       <c r="O340" t="n">
-        <v>260000</v>
+        <v>160000</v>
       </c>
       <c r="P340" t="n">
-        <v>257500</v>
+        <v>157500</v>
       </c>
       <c r="Q340" t="inlineStr">
         <is>
@@ -27586,7 +27586,7 @@
         </is>
       </c>
       <c r="S340" t="n">
-        <v>644</v>
+        <v>394</v>
       </c>
       <c r="T340" t="n">
         <v>400</v>
@@ -27607,7 +27607,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44468</v>
+        <v>44510</v>
       </c>
       <c r="E341" t="n">
         <v>4</v>
@@ -27647,13 +27647,13 @@
         <v>20</v>
       </c>
       <c r="N341" t="n">
-        <v>120000</v>
+        <v>155000</v>
       </c>
       <c r="O341" t="n">
-        <v>130000</v>
+        <v>160000</v>
       </c>
       <c r="P341" t="n">
-        <v>125000</v>
+        <v>157500</v>
       </c>
       <c r="Q341" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         </is>
       </c>
       <c r="S341" t="n">
-        <v>312</v>
+        <v>394</v>
       </c>
       <c r="T341" t="n">
         <v>400</v>
@@ -27687,7 +27687,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44468</v>
+        <v>44510</v>
       </c>
       <c r="E342" t="n">
         <v>4</v>
@@ -27727,13 +27727,13 @@
         <v>20</v>
       </c>
       <c r="N342" t="n">
-        <v>100000</v>
+        <v>125000</v>
       </c>
       <c r="O342" t="n">
-        <v>110000</v>
+        <v>130000</v>
       </c>
       <c r="P342" t="n">
-        <v>105000</v>
+        <v>127500</v>
       </c>
       <c r="Q342" t="inlineStr">
         <is>
@@ -27746,7 +27746,7 @@
         </is>
       </c>
       <c r="S342" t="n">
-        <v>262</v>
+        <v>319</v>
       </c>
       <c r="T342" t="n">
         <v>400</v>
@@ -27767,7 +27767,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44468</v>
+        <v>44510</v>
       </c>
       <c r="E343" t="n">
         <v>4</v>
@@ -27804,16 +27804,16 @@
         </is>
       </c>
       <c r="M343" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="N343" t="n">
-        <v>120000</v>
+        <v>155000</v>
       </c>
       <c r="O343" t="n">
-        <v>130000</v>
+        <v>160000</v>
       </c>
       <c r="P343" t="n">
-        <v>126429</v>
+        <v>157500</v>
       </c>
       <c r="Q343" t="inlineStr">
         <is>
@@ -27826,7 +27826,7 @@
         </is>
       </c>
       <c r="S343" t="n">
-        <v>316</v>
+        <v>394</v>
       </c>
       <c r="T343" t="n">
         <v>400</v>
@@ -27847,7 +27847,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44468</v>
+        <v>44510</v>
       </c>
       <c r="E344" t="n">
         <v>4</v>
@@ -27884,16 +27884,16 @@
         </is>
       </c>
       <c r="M344" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N344" t="n">
-        <v>100000</v>
+        <v>125000</v>
       </c>
       <c r="O344" t="n">
-        <v>110000</v>
+        <v>130000</v>
       </c>
       <c r="P344" t="n">
-        <v>105000</v>
+        <v>127500</v>
       </c>
       <c r="Q344" t="inlineStr">
         <is>
@@ -27906,7 +27906,7 @@
         </is>
       </c>
       <c r="S344" t="n">
-        <v>262</v>
+        <v>319</v>
       </c>
       <c r="T344" t="n">
         <v>400</v>
@@ -27927,7 +27927,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44517</v>
+        <v>44161</v>
       </c>
       <c r="E345" t="n">
         <v>4</v>
@@ -27955,25 +27955,25 @@
       </c>
       <c r="K345" t="inlineStr">
         <is>
-          <t>Cara cara</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L345" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M345" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N345" t="n">
-        <v>190000</v>
+        <v>325000</v>
       </c>
       <c r="O345" t="n">
-        <v>200000</v>
+        <v>330000</v>
       </c>
       <c r="P345" t="n">
-        <v>195000</v>
+        <v>327500</v>
       </c>
       <c r="Q345" t="inlineStr">
         <is>
@@ -27986,7 +27986,7 @@
         </is>
       </c>
       <c r="S345" t="n">
-        <v>488</v>
+        <v>819</v>
       </c>
       <c r="T345" t="n">
         <v>400</v>
@@ -28007,7 +28007,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44517</v>
+        <v>44161</v>
       </c>
       <c r="E346" t="n">
         <v>4</v>
@@ -28035,25 +28035,25 @@
       </c>
       <c r="K346" t="inlineStr">
         <is>
-          <t>Cara cara</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L346" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M346" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N346" t="n">
-        <v>155000</v>
+        <v>305000</v>
       </c>
       <c r="O346" t="n">
-        <v>160000</v>
+        <v>310000</v>
       </c>
       <c r="P346" t="n">
-        <v>157500</v>
+        <v>307500</v>
       </c>
       <c r="Q346" t="inlineStr">
         <is>
@@ -28066,7 +28066,7 @@
         </is>
       </c>
       <c r="S346" t="n">
-        <v>394</v>
+        <v>769</v>
       </c>
       <c r="T346" t="n">
         <v>400</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44517</v>
+        <v>44161</v>
       </c>
       <c r="E347" t="n">
         <v>4</v>
@@ -28120,20 +28120,20 @@
       </c>
       <c r="L347" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M347" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N347" t="n">
-        <v>155000</v>
+        <v>255000</v>
       </c>
       <c r="O347" t="n">
-        <v>160000</v>
+        <v>260000</v>
       </c>
       <c r="P347" t="n">
-        <v>157500</v>
+        <v>257500</v>
       </c>
       <c r="Q347" t="inlineStr">
         <is>
@@ -28146,7 +28146,7 @@
         </is>
       </c>
       <c r="S347" t="n">
-        <v>394</v>
+        <v>644</v>
       </c>
       <c r="T347" t="n">
         <v>400</v>
@@ -28167,7 +28167,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44517</v>
+        <v>44468</v>
       </c>
       <c r="E348" t="n">
         <v>4</v>
@@ -28200,20 +28200,20 @@
       </c>
       <c r="L348" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M348" t="n">
         <v>20</v>
       </c>
       <c r="N348" t="n">
-        <v>125000</v>
+        <v>120000</v>
       </c>
       <c r="O348" t="n">
         <v>130000</v>
       </c>
       <c r="P348" t="n">
-        <v>127500</v>
+        <v>125000</v>
       </c>
       <c r="Q348" t="inlineStr">
         <is>
@@ -28226,7 +28226,7 @@
         </is>
       </c>
       <c r="S348" t="n">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="T348" t="n">
         <v>400</v>
@@ -28247,7 +28247,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44517</v>
+        <v>44468</v>
       </c>
       <c r="E349" t="n">
         <v>4</v>
@@ -28275,25 +28275,25 @@
       </c>
       <c r="K349" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L349" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M349" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N349" t="n">
-        <v>165000</v>
+        <v>100000</v>
       </c>
       <c r="O349" t="n">
-        <v>170000</v>
+        <v>110000</v>
       </c>
       <c r="P349" t="n">
-        <v>167500</v>
+        <v>105000</v>
       </c>
       <c r="Q349" t="inlineStr">
         <is>
@@ -28306,7 +28306,7 @@
         </is>
       </c>
       <c r="S349" t="n">
-        <v>419</v>
+        <v>262</v>
       </c>
       <c r="T349" t="n">
         <v>400</v>
@@ -28327,7 +28327,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44517</v>
+        <v>44468</v>
       </c>
       <c r="E350" t="n">
         <v>4</v>
@@ -28360,20 +28360,20 @@
       </c>
       <c r="L350" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M350" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="N350" t="n">
-        <v>145000</v>
+        <v>120000</v>
       </c>
       <c r="O350" t="n">
-        <v>150000</v>
+        <v>130000</v>
       </c>
       <c r="P350" t="n">
-        <v>147500</v>
+        <v>126429</v>
       </c>
       <c r="Q350" t="inlineStr">
         <is>
@@ -28386,7 +28386,7 @@
         </is>
       </c>
       <c r="S350" t="n">
-        <v>369</v>
+        <v>316</v>
       </c>
       <c r="T350" t="n">
         <v>400</v>
@@ -28407,7 +28407,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44517</v>
+        <v>44468</v>
       </c>
       <c r="E351" t="n">
         <v>4</v>
@@ -28435,25 +28435,25 @@
       </c>
       <c r="K351" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L351" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M351" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N351" t="n">
-        <v>155000</v>
+        <v>100000</v>
       </c>
       <c r="O351" t="n">
-        <v>160000</v>
+        <v>110000</v>
       </c>
       <c r="P351" t="n">
-        <v>157500</v>
+        <v>105000</v>
       </c>
       <c r="Q351" t="inlineStr">
         <is>
@@ -28466,7 +28466,7 @@
         </is>
       </c>
       <c r="S351" t="n">
-        <v>394</v>
+        <v>262</v>
       </c>
       <c r="T351" t="n">
         <v>400</v>
@@ -28515,25 +28515,25 @@
       </c>
       <c r="K352" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Cara cara</t>
         </is>
       </c>
       <c r="L352" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M352" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N352" t="n">
-        <v>125000</v>
+        <v>190000</v>
       </c>
       <c r="O352" t="n">
-        <v>130000</v>
+        <v>200000</v>
       </c>
       <c r="P352" t="n">
-        <v>127500</v>
+        <v>195000</v>
       </c>
       <c r="Q352" t="inlineStr">
         <is>
@@ -28546,7 +28546,7 @@
         </is>
       </c>
       <c r="S352" t="n">
-        <v>319</v>
+        <v>488</v>
       </c>
       <c r="T352" t="n">
         <v>400</v>
@@ -28567,7 +28567,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44238</v>
+        <v>44517</v>
       </c>
       <c r="E353" t="n">
         <v>4</v>
@@ -28595,25 +28595,25 @@
       </c>
       <c r="K353" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Cara cara</t>
         </is>
       </c>
       <c r="L353" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M353" t="n">
         <v>20</v>
       </c>
       <c r="N353" t="n">
-        <v>485000</v>
+        <v>155000</v>
       </c>
       <c r="O353" t="n">
-        <v>490000</v>
+        <v>160000</v>
       </c>
       <c r="P353" t="n">
-        <v>487500</v>
+        <v>157500</v>
       </c>
       <c r="Q353" t="inlineStr">
         <is>
@@ -28626,7 +28626,7 @@
         </is>
       </c>
       <c r="S353" t="n">
-        <v>1219</v>
+        <v>394</v>
       </c>
       <c r="T353" t="n">
         <v>400</v>
@@ -28647,7 +28647,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44238</v>
+        <v>44517</v>
       </c>
       <c r="E354" t="n">
         <v>4</v>
@@ -28675,25 +28675,25 @@
       </c>
       <c r="K354" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L354" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M354" t="n">
         <v>20</v>
       </c>
       <c r="N354" t="n">
-        <v>455000</v>
+        <v>155000</v>
       </c>
       <c r="O354" t="n">
-        <v>460000</v>
+        <v>160000</v>
       </c>
       <c r="P354" t="n">
-        <v>457500</v>
+        <v>157500</v>
       </c>
       <c r="Q354" t="inlineStr">
         <is>
@@ -28706,7 +28706,7 @@
         </is>
       </c>
       <c r="S354" t="n">
-        <v>1144</v>
+        <v>394</v>
       </c>
       <c r="T354" t="n">
         <v>400</v>
@@ -28727,7 +28727,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44391</v>
+        <v>44517</v>
       </c>
       <c r="E355" t="n">
         <v>4</v>
@@ -28755,25 +28755,25 @@
       </c>
       <c r="K355" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L355" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M355" t="n">
         <v>20</v>
       </c>
       <c r="N355" t="n">
-        <v>100000</v>
+        <v>125000</v>
       </c>
       <c r="O355" t="n">
-        <v>110000</v>
+        <v>130000</v>
       </c>
       <c r="P355" t="n">
-        <v>105000</v>
+        <v>127500</v>
       </c>
       <c r="Q355" t="inlineStr">
         <is>
@@ -28786,7 +28786,7 @@
         </is>
       </c>
       <c r="S355" t="n">
-        <v>262</v>
+        <v>319</v>
       </c>
       <c r="T355" t="n">
         <v>400</v>
@@ -28807,7 +28807,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44391</v>
+        <v>44517</v>
       </c>
       <c r="E356" t="n">
         <v>4</v>
@@ -28835,25 +28835,25 @@
       </c>
       <c r="K356" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L356" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M356" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N356" t="n">
-        <v>80000</v>
+        <v>165000</v>
       </c>
       <c r="O356" t="n">
-        <v>90000</v>
+        <v>170000</v>
       </c>
       <c r="P356" t="n">
-        <v>85000</v>
+        <v>167500</v>
       </c>
       <c r="Q356" t="inlineStr">
         <is>
@@ -28866,7 +28866,7 @@
         </is>
       </c>
       <c r="S356" t="n">
-        <v>212</v>
+        <v>419</v>
       </c>
       <c r="T356" t="n">
         <v>400</v>
@@ -28887,7 +28887,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44391</v>
+        <v>44517</v>
       </c>
       <c r="E357" t="n">
         <v>4</v>
@@ -28920,20 +28920,20 @@
       </c>
       <c r="L357" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M357" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N357" t="n">
-        <v>100000</v>
+        <v>145000</v>
       </c>
       <c r="O357" t="n">
-        <v>110000</v>
+        <v>150000</v>
       </c>
       <c r="P357" t="n">
-        <v>105000</v>
+        <v>147500</v>
       </c>
       <c r="Q357" t="inlineStr">
         <is>
@@ -28946,7 +28946,7 @@
         </is>
       </c>
       <c r="S357" t="n">
-        <v>262</v>
+        <v>369</v>
       </c>
       <c r="T357" t="n">
         <v>400</v>
@@ -28967,7 +28967,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44391</v>
+        <v>44517</v>
       </c>
       <c r="E358" t="n">
         <v>4</v>
@@ -28995,25 +28995,25 @@
       </c>
       <c r="K358" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L358" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M358" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N358" t="n">
-        <v>80000</v>
+        <v>155000</v>
       </c>
       <c r="O358" t="n">
-        <v>90000</v>
+        <v>160000</v>
       </c>
       <c r="P358" t="n">
-        <v>85000</v>
+        <v>157500</v>
       </c>
       <c r="Q358" t="inlineStr">
         <is>
@@ -29026,7 +29026,7 @@
         </is>
       </c>
       <c r="S358" t="n">
-        <v>212</v>
+        <v>394</v>
       </c>
       <c r="T358" t="n">
         <v>400</v>
@@ -29047,7 +29047,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44251</v>
+        <v>44517</v>
       </c>
       <c r="E359" t="n">
         <v>4</v>
@@ -29080,20 +29080,20 @@
       </c>
       <c r="L359" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M359" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N359" t="n">
-        <v>455000</v>
+        <v>125000</v>
       </c>
       <c r="O359" t="n">
-        <v>460000</v>
+        <v>130000</v>
       </c>
       <c r="P359" t="n">
-        <v>457500</v>
+        <v>127500</v>
       </c>
       <c r="Q359" t="inlineStr">
         <is>
@@ -29106,7 +29106,7 @@
         </is>
       </c>
       <c r="S359" t="n">
-        <v>1144</v>
+        <v>319</v>
       </c>
       <c r="T359" t="n">
         <v>400</v>
@@ -29127,7 +29127,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44251</v>
+        <v>44238</v>
       </c>
       <c r="E360" t="n">
         <v>4</v>
@@ -29160,20 +29160,20 @@
       </c>
       <c r="L360" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M360" t="n">
         <v>20</v>
       </c>
       <c r="N360" t="n">
-        <v>415000</v>
+        <v>485000</v>
       </c>
       <c r="O360" t="n">
-        <v>420000</v>
+        <v>490000</v>
       </c>
       <c r="P360" t="n">
-        <v>417500</v>
+        <v>487500</v>
       </c>
       <c r="Q360" t="inlineStr">
         <is>
@@ -29186,7 +29186,7 @@
         </is>
       </c>
       <c r="S360" t="n">
-        <v>1044</v>
+        <v>1219</v>
       </c>
       <c r="T360" t="n">
         <v>400</v>
@@ -29207,7 +29207,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44181</v>
+        <v>44238</v>
       </c>
       <c r="E361" t="n">
         <v>4</v>
@@ -29235,25 +29235,25 @@
       </c>
       <c r="K361" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L361" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M361" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N361" t="n">
-        <v>355000</v>
+        <v>455000</v>
       </c>
       <c r="O361" t="n">
-        <v>360000</v>
+        <v>460000</v>
       </c>
       <c r="P361" t="n">
-        <v>357500</v>
+        <v>457500</v>
       </c>
       <c r="Q361" t="inlineStr">
         <is>
@@ -29266,7 +29266,7 @@
         </is>
       </c>
       <c r="S361" t="n">
-        <v>894</v>
+        <v>1144</v>
       </c>
       <c r="T361" t="n">
         <v>400</v>
@@ -29287,7 +29287,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44181</v>
+        <v>44391</v>
       </c>
       <c r="E362" t="n">
         <v>4</v>
@@ -29315,7 +29315,7 @@
       </c>
       <c r="K362" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L362" t="inlineStr">
@@ -29324,16 +29324,16 @@
         </is>
       </c>
       <c r="M362" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N362" t="n">
-        <v>355000</v>
+        <v>100000</v>
       </c>
       <c r="O362" t="n">
-        <v>360000</v>
+        <v>110000</v>
       </c>
       <c r="P362" t="n">
-        <v>357500</v>
+        <v>105000</v>
       </c>
       <c r="Q362" t="inlineStr">
         <is>
@@ -29346,7 +29346,7 @@
         </is>
       </c>
       <c r="S362" t="n">
-        <v>894</v>
+        <v>262</v>
       </c>
       <c r="T362" t="n">
         <v>400</v>
@@ -29367,7 +29367,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44307</v>
+        <v>44391</v>
       </c>
       <c r="E363" t="n">
         <v>4</v>
@@ -29400,20 +29400,20 @@
       </c>
       <c r="L363" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M363" t="n">
         <v>20</v>
       </c>
       <c r="N363" t="n">
-        <v>385000</v>
+        <v>80000</v>
       </c>
       <c r="O363" t="n">
-        <v>390000</v>
+        <v>90000</v>
       </c>
       <c r="P363" t="n">
-        <v>387500</v>
+        <v>85000</v>
       </c>
       <c r="Q363" t="inlineStr">
         <is>
@@ -29426,7 +29426,7 @@
         </is>
       </c>
       <c r="S363" t="n">
-        <v>969</v>
+        <v>212</v>
       </c>
       <c r="T363" t="n">
         <v>400</v>
@@ -29447,7 +29447,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44307</v>
+        <v>44391</v>
       </c>
       <c r="E364" t="n">
         <v>4</v>
@@ -29475,25 +29475,25 @@
       </c>
       <c r="K364" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L364" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M364" t="n">
         <v>20</v>
       </c>
       <c r="N364" t="n">
-        <v>345000</v>
+        <v>100000</v>
       </c>
       <c r="O364" t="n">
-        <v>350000</v>
+        <v>110000</v>
       </c>
       <c r="P364" t="n">
-        <v>347500</v>
+        <v>105000</v>
       </c>
       <c r="Q364" t="inlineStr">
         <is>
@@ -29506,7 +29506,7 @@
         </is>
       </c>
       <c r="S364" t="n">
-        <v>869</v>
+        <v>262</v>
       </c>
       <c r="T364" t="n">
         <v>400</v>
@@ -29527,68 +29527,628 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
+        <v>44391</v>
+      </c>
+      <c r="E365" t="n">
+        <v>4</v>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G365" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H365" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I365" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J365" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>Navel Late</t>
+        </is>
+      </c>
+      <c r="L365" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M365" t="n">
+        <v>20</v>
+      </c>
+      <c r="N365" t="n">
+        <v>80000</v>
+      </c>
+      <c r="O365" t="n">
+        <v>90000</v>
+      </c>
+      <c r="P365" t="n">
+        <v>85000</v>
+      </c>
+      <c r="Q365" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R365" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S365" t="n">
+        <v>212</v>
+      </c>
+      <c r="T365" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="n">
+        <v>2</v>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D366" s="2" t="n">
+        <v>44251</v>
+      </c>
+      <c r="E366" t="n">
+        <v>4</v>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G366" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H366" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I366" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J366" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="L366" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M366" t="n">
+        <v>20</v>
+      </c>
+      <c r="N366" t="n">
+        <v>455000</v>
+      </c>
+      <c r="O366" t="n">
+        <v>460000</v>
+      </c>
+      <c r="P366" t="n">
+        <v>457500</v>
+      </c>
+      <c r="Q366" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R366" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S366" t="n">
+        <v>1144</v>
+      </c>
+      <c r="T366" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>2</v>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D367" s="2" t="n">
+        <v>44251</v>
+      </c>
+      <c r="E367" t="n">
+        <v>4</v>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G367" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H367" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I367" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J367" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="L367" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M367" t="n">
+        <v>20</v>
+      </c>
+      <c r="N367" t="n">
+        <v>415000</v>
+      </c>
+      <c r="O367" t="n">
+        <v>420000</v>
+      </c>
+      <c r="P367" t="n">
+        <v>417500</v>
+      </c>
+      <c r="Q367" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R367" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S367" t="n">
+        <v>1044</v>
+      </c>
+      <c r="T367" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>2</v>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D368" s="2" t="n">
+        <v>44181</v>
+      </c>
+      <c r="E368" t="n">
+        <v>4</v>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G368" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H368" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I368" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J368" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>Navel Late</t>
+        </is>
+      </c>
+      <c r="L368" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M368" t="n">
+        <v>16</v>
+      </c>
+      <c r="N368" t="n">
+        <v>355000</v>
+      </c>
+      <c r="O368" t="n">
+        <v>360000</v>
+      </c>
+      <c r="P368" t="n">
+        <v>357500</v>
+      </c>
+      <c r="Q368" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R368" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S368" t="n">
+        <v>894</v>
+      </c>
+      <c r="T368" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="n">
+        <v>2</v>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D369" s="2" t="n">
+        <v>44181</v>
+      </c>
+      <c r="E369" t="n">
+        <v>4</v>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G369" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H369" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I369" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J369" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="L369" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M369" t="n">
+        <v>16</v>
+      </c>
+      <c r="N369" t="n">
+        <v>355000</v>
+      </c>
+      <c r="O369" t="n">
+        <v>360000</v>
+      </c>
+      <c r="P369" t="n">
+        <v>357500</v>
+      </c>
+      <c r="Q369" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R369" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S369" t="n">
+        <v>894</v>
+      </c>
+      <c r="T369" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="n">
+        <v>2</v>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D370" s="2" t="n">
         <v>44307</v>
       </c>
-      <c r="E365" t="n">
-        <v>4</v>
-      </c>
-      <c r="F365" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G365" t="n">
-        <v>100102</v>
-      </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>Cítricos</t>
-        </is>
-      </c>
-      <c r="I365" t="n">
-        <v>100102005</v>
-      </c>
-      <c r="J365" t="inlineStr">
-        <is>
-          <t>Naranja</t>
-        </is>
-      </c>
-      <c r="K365" t="inlineStr">
+      <c r="E370" t="n">
+        <v>4</v>
+      </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G370" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H370" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I370" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J370" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>Fukumoto</t>
+        </is>
+      </c>
+      <c r="L370" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M370" t="n">
+        <v>20</v>
+      </c>
+      <c r="N370" t="n">
+        <v>385000</v>
+      </c>
+      <c r="O370" t="n">
+        <v>390000</v>
+      </c>
+      <c r="P370" t="n">
+        <v>387500</v>
+      </c>
+      <c r="Q370" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R370" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S370" t="n">
+        <v>969</v>
+      </c>
+      <c r="T370" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="n">
+        <v>2</v>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D371" s="2" t="n">
+        <v>44307</v>
+      </c>
+      <c r="E371" t="n">
+        <v>4</v>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G371" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H371" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I371" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J371" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>Fukumoto</t>
+        </is>
+      </c>
+      <c r="L371" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M371" t="n">
+        <v>20</v>
+      </c>
+      <c r="N371" t="n">
+        <v>345000</v>
+      </c>
+      <c r="O371" t="n">
+        <v>350000</v>
+      </c>
+      <c r="P371" t="n">
+        <v>347500</v>
+      </c>
+      <c r="Q371" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R371" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S371" t="n">
+        <v>869</v>
+      </c>
+      <c r="T371" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="n">
+        <v>2</v>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D372" s="2" t="n">
+        <v>44307</v>
+      </c>
+      <c r="E372" t="n">
+        <v>4</v>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G372" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H372" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I372" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J372" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K372" t="inlineStr">
         <is>
           <t>New Hall</t>
         </is>
       </c>
-      <c r="L365" t="inlineStr">
+      <c r="L372" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M365" t="n">
-        <v>20</v>
-      </c>
-      <c r="N365" t="n">
+      <c r="M372" t="n">
+        <v>20</v>
+      </c>
+      <c r="N372" t="n">
         <v>385000</v>
       </c>
-      <c r="O365" t="n">
+      <c r="O372" t="n">
         <v>390000</v>
       </c>
-      <c r="P365" t="n">
+      <c r="P372" t="n">
         <v>387500</v>
       </c>
-      <c r="Q365" t="inlineStr">
-        <is>
-          <t>$/bins (400 kilos)</t>
-        </is>
-      </c>
-      <c r="R365" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="S365" t="n">
+      <c r="Q372" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R372" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S372" t="n">
         <v>969</v>
       </c>
-      <c r="T365" t="n">
+      <c r="T372" t="n">
         <v>400</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Comercializadora del Agro de Limarí - Naranja.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Comercializadora del Agro de Limarí - Naranja.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T384"/>
+  <dimension ref="A1:T385"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14167,7 +14167,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44237</v>
+        <v>44546</v>
       </c>
       <c r="E173" t="n">
         <v>4</v>
@@ -14195,7 +14195,7 @@
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L173" t="inlineStr">
@@ -14204,16 +14204,16 @@
         </is>
       </c>
       <c r="M173" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N173" t="n">
-        <v>485000</v>
+        <v>195000</v>
       </c>
       <c r="O173" t="n">
-        <v>490000</v>
+        <v>200000</v>
       </c>
       <c r="P173" t="n">
-        <v>487500</v>
+        <v>197500</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
@@ -14226,7 +14226,7 @@
         </is>
       </c>
       <c r="S173" t="n">
-        <v>1219</v>
+        <v>494</v>
       </c>
       <c r="T173" t="n">
         <v>400</v>
@@ -14280,20 +14280,20 @@
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M174" t="n">
         <v>20</v>
       </c>
       <c r="N174" t="n">
-        <v>455000</v>
+        <v>485000</v>
       </c>
       <c r="O174" t="n">
-        <v>460000</v>
+        <v>490000</v>
       </c>
       <c r="P174" t="n">
-        <v>457500</v>
+        <v>487500</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
@@ -14306,7 +14306,7 @@
         </is>
       </c>
       <c r="S174" t="n">
-        <v>1144</v>
+        <v>1219</v>
       </c>
       <c r="T174" t="n">
         <v>400</v>
@@ -14327,7 +14327,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44252</v>
+        <v>44237</v>
       </c>
       <c r="E175" t="n">
         <v>4</v>
@@ -14360,7 +14360,7 @@
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M175" t="n">
@@ -14440,20 +14440,20 @@
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M176" t="n">
         <v>20</v>
       </c>
       <c r="N176" t="n">
-        <v>41500</v>
+        <v>455000</v>
       </c>
       <c r="O176" t="n">
-        <v>420000</v>
+        <v>460000</v>
       </c>
       <c r="P176" t="n">
-        <v>230750</v>
+        <v>457500</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         </is>
       </c>
       <c r="S176" t="n">
-        <v>577</v>
+        <v>1144</v>
       </c>
       <c r="T176" t="n">
         <v>400</v>
@@ -14487,7 +14487,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44349</v>
+        <v>44252</v>
       </c>
       <c r="E177" t="n">
         <v>4</v>
@@ -14515,25 +14515,25 @@
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M177" t="n">
         <v>20</v>
       </c>
       <c r="N177" t="n">
-        <v>200000</v>
+        <v>41500</v>
       </c>
       <c r="O177" t="n">
-        <v>210000</v>
+        <v>420000</v>
       </c>
       <c r="P177" t="n">
-        <v>205000</v>
+        <v>230750</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="S177" t="n">
-        <v>512</v>
+        <v>577</v>
       </c>
       <c r="T177" t="n">
         <v>400</v>
@@ -14600,20 +14600,20 @@
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M178" t="n">
         <v>20</v>
       </c>
       <c r="N178" t="n">
-        <v>170000</v>
+        <v>200000</v>
       </c>
       <c r="O178" t="n">
-        <v>180000</v>
+        <v>210000</v>
       </c>
       <c r="P178" t="n">
-        <v>175000</v>
+        <v>205000</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         </is>
       </c>
       <c r="S178" t="n">
-        <v>438</v>
+        <v>512</v>
       </c>
       <c r="T178" t="n">
         <v>400</v>
@@ -14675,25 +14675,25 @@
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M179" t="n">
         <v>20</v>
       </c>
       <c r="N179" t="n">
-        <v>200000</v>
+        <v>170000</v>
       </c>
       <c r="O179" t="n">
-        <v>210000</v>
+        <v>180000</v>
       </c>
       <c r="P179" t="n">
-        <v>205000</v>
+        <v>175000</v>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
@@ -14706,7 +14706,7 @@
         </is>
       </c>
       <c r="S179" t="n">
-        <v>512</v>
+        <v>438</v>
       </c>
       <c r="T179" t="n">
         <v>400</v>
@@ -14760,20 +14760,20 @@
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M180" t="n">
         <v>20</v>
       </c>
       <c r="N180" t="n">
-        <v>170000</v>
+        <v>200000</v>
       </c>
       <c r="O180" t="n">
-        <v>180000</v>
+        <v>210000</v>
       </c>
       <c r="P180" t="n">
-        <v>175000</v>
+        <v>205000</v>
       </c>
       <c r="Q180" t="inlineStr">
         <is>
@@ -14786,7 +14786,7 @@
         </is>
       </c>
       <c r="S180" t="n">
-        <v>438</v>
+        <v>512</v>
       </c>
       <c r="T180" t="n">
         <v>400</v>
@@ -14807,7 +14807,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44181</v>
+        <v>44349</v>
       </c>
       <c r="E181" t="n">
         <v>4</v>
@@ -14835,25 +14835,25 @@
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M181" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N181" t="n">
-        <v>355000</v>
+        <v>170000</v>
       </c>
       <c r="O181" t="n">
-        <v>360000</v>
+        <v>180000</v>
       </c>
       <c r="P181" t="n">
-        <v>357500</v>
+        <v>175000</v>
       </c>
       <c r="Q181" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         </is>
       </c>
       <c r="S181" t="n">
-        <v>894</v>
+        <v>438</v>
       </c>
       <c r="T181" t="n">
         <v>400</v>
@@ -14915,7 +14915,7 @@
       </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L182" t="inlineStr">
@@ -14967,7 +14967,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44482</v>
+        <v>44181</v>
       </c>
       <c r="E183" t="n">
         <v>4</v>
@@ -14995,7 +14995,7 @@
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L183" t="inlineStr">
@@ -15004,16 +15004,16 @@
         </is>
       </c>
       <c r="M183" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N183" t="n">
-        <v>125000</v>
+        <v>355000</v>
       </c>
       <c r="O183" t="n">
-        <v>130000</v>
+        <v>360000</v>
       </c>
       <c r="P183" t="n">
-        <v>127500</v>
+        <v>357500</v>
       </c>
       <c r="Q183" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         </is>
       </c>
       <c r="S183" t="n">
-        <v>319</v>
+        <v>894</v>
       </c>
       <c r="T183" t="n">
         <v>400</v>
@@ -15080,20 +15080,20 @@
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M184" t="n">
         <v>20</v>
       </c>
       <c r="N184" t="n">
-        <v>95000</v>
+        <v>125000</v>
       </c>
       <c r="O184" t="n">
-        <v>100000</v>
+        <v>130000</v>
       </c>
       <c r="P184" t="n">
-        <v>97500</v>
+        <v>127500</v>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
@@ -15106,7 +15106,7 @@
         </is>
       </c>
       <c r="S184" t="n">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="T184" t="n">
         <v>400</v>
@@ -15155,25 +15155,25 @@
       </c>
       <c r="K185" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M185" t="n">
         <v>20</v>
       </c>
       <c r="N185" t="n">
-        <v>125000</v>
+        <v>95000</v>
       </c>
       <c r="O185" t="n">
-        <v>130000</v>
+        <v>100000</v>
       </c>
       <c r="P185" t="n">
-        <v>127500</v>
+        <v>97500</v>
       </c>
       <c r="Q185" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         </is>
       </c>
       <c r="S185" t="n">
-        <v>319</v>
+        <v>244</v>
       </c>
       <c r="T185" t="n">
         <v>400</v>
@@ -15240,20 +15240,20 @@
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M186" t="n">
         <v>20</v>
       </c>
       <c r="N186" t="n">
-        <v>95000</v>
+        <v>125000</v>
       </c>
       <c r="O186" t="n">
-        <v>100000</v>
+        <v>130000</v>
       </c>
       <c r="P186" t="n">
-        <v>97500</v>
+        <v>127500</v>
       </c>
       <c r="Q186" t="inlineStr">
         <is>
@@ -15266,7 +15266,7 @@
         </is>
       </c>
       <c r="S186" t="n">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="T186" t="n">
         <v>400</v>
@@ -15287,7 +15287,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44273</v>
+        <v>44482</v>
       </c>
       <c r="E187" t="n">
         <v>4</v>
@@ -15315,25 +15315,25 @@
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M187" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N187" t="n">
-        <v>475000</v>
+        <v>95000</v>
       </c>
       <c r="O187" t="n">
-        <v>480000</v>
+        <v>100000</v>
       </c>
       <c r="P187" t="n">
-        <v>477500</v>
+        <v>97500</v>
       </c>
       <c r="Q187" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="S187" t="n">
-        <v>1194</v>
+        <v>244</v>
       </c>
       <c r="T187" t="n">
         <v>400</v>
@@ -15400,20 +15400,20 @@
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M188" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N188" t="n">
-        <v>455000</v>
+        <v>475000</v>
       </c>
       <c r="O188" t="n">
-        <v>460000</v>
+        <v>480000</v>
       </c>
       <c r="P188" t="n">
-        <v>457500</v>
+        <v>477500</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
@@ -15426,7 +15426,7 @@
         </is>
       </c>
       <c r="S188" t="n">
-        <v>1144</v>
+        <v>1194</v>
       </c>
       <c r="T188" t="n">
         <v>400</v>
@@ -15480,20 +15480,20 @@
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M189" t="n">
         <v>20</v>
       </c>
       <c r="N189" t="n">
-        <v>415000</v>
+        <v>455000</v>
       </c>
       <c r="O189" t="n">
-        <v>420000</v>
+        <v>460000</v>
       </c>
       <c r="P189" t="n">
-        <v>417500</v>
+        <v>457500</v>
       </c>
       <c r="Q189" t="inlineStr">
         <is>
@@ -15506,7 +15506,7 @@
         </is>
       </c>
       <c r="S189" t="n">
-        <v>1044</v>
+        <v>1144</v>
       </c>
       <c r="T189" t="n">
         <v>400</v>
@@ -15527,7 +15527,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44364</v>
+        <v>44273</v>
       </c>
       <c r="E190" t="n">
         <v>4</v>
@@ -15555,25 +15555,25 @@
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M190" t="n">
         <v>20</v>
       </c>
       <c r="N190" t="n">
-        <v>135000</v>
+        <v>415000</v>
       </c>
       <c r="O190" t="n">
-        <v>140000</v>
+        <v>420000</v>
       </c>
       <c r="P190" t="n">
-        <v>137500</v>
+        <v>417500</v>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         </is>
       </c>
       <c r="S190" t="n">
-        <v>344</v>
+        <v>1044</v>
       </c>
       <c r="T190" t="n">
         <v>400</v>
@@ -15640,20 +15640,20 @@
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M191" t="n">
         <v>20</v>
       </c>
       <c r="N191" t="n">
-        <v>115000</v>
+        <v>135000</v>
       </c>
       <c r="O191" t="n">
-        <v>120000</v>
+        <v>140000</v>
       </c>
       <c r="P191" t="n">
-        <v>117500</v>
+        <v>137500</v>
       </c>
       <c r="Q191" t="inlineStr">
         <is>
@@ -15666,7 +15666,7 @@
         </is>
       </c>
       <c r="S191" t="n">
-        <v>294</v>
+        <v>344</v>
       </c>
       <c r="T191" t="n">
         <v>400</v>
@@ -15715,25 +15715,25 @@
       </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M192" t="n">
         <v>20</v>
       </c>
       <c r="N192" t="n">
-        <v>150000</v>
+        <v>115000</v>
       </c>
       <c r="O192" t="n">
-        <v>155000</v>
+        <v>120000</v>
       </c>
       <c r="P192" t="n">
-        <v>152500</v>
+        <v>117500</v>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="S192" t="n">
-        <v>381</v>
+        <v>294</v>
       </c>
       <c r="T192" t="n">
         <v>400</v>
@@ -15800,20 +15800,20 @@
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M193" t="n">
         <v>20</v>
       </c>
       <c r="N193" t="n">
-        <v>130000</v>
+        <v>150000</v>
       </c>
       <c r="O193" t="n">
-        <v>135000</v>
+        <v>155000</v>
       </c>
       <c r="P193" t="n">
-        <v>132500</v>
+        <v>152500</v>
       </c>
       <c r="Q193" t="inlineStr">
         <is>
@@ -15826,7 +15826,7 @@
         </is>
       </c>
       <c r="S193" t="n">
-        <v>331</v>
+        <v>381</v>
       </c>
       <c r="T193" t="n">
         <v>400</v>
@@ -15875,25 +15875,25 @@
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M194" t="n">
         <v>20</v>
       </c>
       <c r="N194" t="n">
-        <v>150000</v>
+        <v>130000</v>
       </c>
       <c r="O194" t="n">
-        <v>155000</v>
+        <v>135000</v>
       </c>
       <c r="P194" t="n">
-        <v>152500</v>
+        <v>132500</v>
       </c>
       <c r="Q194" t="inlineStr">
         <is>
@@ -15906,7 +15906,7 @@
         </is>
       </c>
       <c r="S194" t="n">
-        <v>381</v>
+        <v>331</v>
       </c>
       <c r="T194" t="n">
         <v>400</v>
@@ -15960,20 +15960,20 @@
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M195" t="n">
         <v>20</v>
       </c>
       <c r="N195" t="n">
-        <v>130000</v>
+        <v>150000</v>
       </c>
       <c r="O195" t="n">
-        <v>135000</v>
+        <v>155000</v>
       </c>
       <c r="P195" t="n">
-        <v>132500</v>
+        <v>152500</v>
       </c>
       <c r="Q195" t="inlineStr">
         <is>
@@ -15986,7 +15986,7 @@
         </is>
       </c>
       <c r="S195" t="n">
-        <v>331</v>
+        <v>381</v>
       </c>
       <c r="T195" t="n">
         <v>400</v>
@@ -16007,7 +16007,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44469</v>
+        <v>44364</v>
       </c>
       <c r="E196" t="n">
         <v>4</v>
@@ -16035,25 +16035,25 @@
       </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M196" t="n">
         <v>20</v>
       </c>
       <c r="N196" t="n">
-        <v>120000</v>
+        <v>130000</v>
       </c>
       <c r="O196" t="n">
-        <v>130000</v>
+        <v>135000</v>
       </c>
       <c r="P196" t="n">
-        <v>125000</v>
+        <v>132500</v>
       </c>
       <c r="Q196" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         </is>
       </c>
       <c r="S196" t="n">
-        <v>312</v>
+        <v>331</v>
       </c>
       <c r="T196" t="n">
         <v>400</v>
@@ -16120,20 +16120,20 @@
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M197" t="n">
         <v>20</v>
       </c>
       <c r="N197" t="n">
-        <v>100000</v>
+        <v>120000</v>
       </c>
       <c r="O197" t="n">
-        <v>110000</v>
+        <v>130000</v>
       </c>
       <c r="P197" t="n">
-        <v>105000</v>
+        <v>125000</v>
       </c>
       <c r="Q197" t="inlineStr">
         <is>
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="S197" t="n">
-        <v>262</v>
+        <v>312</v>
       </c>
       <c r="T197" t="n">
         <v>400</v>
@@ -16195,25 +16195,25 @@
       </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M198" t="n">
         <v>20</v>
       </c>
       <c r="N198" t="n">
-        <v>130000</v>
+        <v>100000</v>
       </c>
       <c r="O198" t="n">
-        <v>140000</v>
+        <v>110000</v>
       </c>
       <c r="P198" t="n">
-        <v>135000</v>
+        <v>105000</v>
       </c>
       <c r="Q198" t="inlineStr">
         <is>
@@ -16226,7 +16226,7 @@
         </is>
       </c>
       <c r="S198" t="n">
-        <v>338</v>
+        <v>262</v>
       </c>
       <c r="T198" t="n">
         <v>400</v>
@@ -16280,20 +16280,20 @@
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M199" t="n">
         <v>20</v>
       </c>
       <c r="N199" t="n">
-        <v>110000</v>
+        <v>130000</v>
       </c>
       <c r="O199" t="n">
-        <v>120000</v>
+        <v>140000</v>
       </c>
       <c r="P199" t="n">
-        <v>115000</v>
+        <v>135000</v>
       </c>
       <c r="Q199" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         </is>
       </c>
       <c r="S199" t="n">
-        <v>288</v>
+        <v>338</v>
       </c>
       <c r="T199" t="n">
         <v>400</v>
@@ -16327,7 +16327,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44265</v>
+        <v>44469</v>
       </c>
       <c r="E200" t="n">
         <v>4</v>
@@ -16355,25 +16355,25 @@
       </c>
       <c r="K200" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L200" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M200" t="n">
         <v>20</v>
       </c>
       <c r="N200" t="n">
-        <v>455000</v>
+        <v>110000</v>
       </c>
       <c r="O200" t="n">
-        <v>460000</v>
+        <v>120000</v>
       </c>
       <c r="P200" t="n">
-        <v>457500</v>
+        <v>115000</v>
       </c>
       <c r="Q200" t="inlineStr">
         <is>
@@ -16386,7 +16386,7 @@
         </is>
       </c>
       <c r="S200" t="n">
-        <v>1144</v>
+        <v>288</v>
       </c>
       <c r="T200" t="n">
         <v>400</v>
@@ -16440,20 +16440,20 @@
       </c>
       <c r="L201" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M201" t="n">
         <v>20</v>
       </c>
       <c r="N201" t="n">
-        <v>415000</v>
+        <v>455000</v>
       </c>
       <c r="O201" t="n">
-        <v>420000</v>
+        <v>460000</v>
       </c>
       <c r="P201" t="n">
-        <v>417500</v>
+        <v>457500</v>
       </c>
       <c r="Q201" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         </is>
       </c>
       <c r="S201" t="n">
-        <v>1044</v>
+        <v>1144</v>
       </c>
       <c r="T201" t="n">
         <v>400</v>
@@ -16487,7 +16487,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44280</v>
+        <v>44265</v>
       </c>
       <c r="E202" t="n">
         <v>4</v>
@@ -16520,20 +16520,20 @@
       </c>
       <c r="L202" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M202" t="n">
         <v>20</v>
       </c>
       <c r="N202" t="n">
-        <v>455000</v>
+        <v>415000</v>
       </c>
       <c r="O202" t="n">
-        <v>460000</v>
+        <v>420000</v>
       </c>
       <c r="P202" t="n">
-        <v>457500</v>
+        <v>417500</v>
       </c>
       <c r="Q202" t="inlineStr">
         <is>
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="S202" t="n">
-        <v>1144</v>
+        <v>1044</v>
       </c>
       <c r="T202" t="n">
         <v>400</v>
@@ -16600,20 +16600,20 @@
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M203" t="n">
         <v>20</v>
       </c>
       <c r="N203" t="n">
-        <v>415000</v>
+        <v>455000</v>
       </c>
       <c r="O203" t="n">
-        <v>420000</v>
+        <v>460000</v>
       </c>
       <c r="P203" t="n">
-        <v>417500</v>
+        <v>457500</v>
       </c>
       <c r="Q203" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         </is>
       </c>
       <c r="S203" t="n">
-        <v>1044</v>
+        <v>1144</v>
       </c>
       <c r="T203" t="n">
         <v>400</v>
@@ -16647,7 +16647,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44209</v>
+        <v>44280</v>
       </c>
       <c r="E204" t="n">
         <v>4</v>
@@ -16680,20 +16680,20 @@
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M204" t="n">
         <v>20</v>
       </c>
       <c r="N204" t="n">
-        <v>465000</v>
+        <v>415000</v>
       </c>
       <c r="O204" t="n">
-        <v>470000</v>
+        <v>420000</v>
       </c>
       <c r="P204" t="n">
-        <v>467500</v>
+        <v>417500</v>
       </c>
       <c r="Q204" t="inlineStr">
         <is>
@@ -16706,7 +16706,7 @@
         </is>
       </c>
       <c r="S204" t="n">
-        <v>1169</v>
+        <v>1044</v>
       </c>
       <c r="T204" t="n">
         <v>400</v>
@@ -16760,20 +16760,20 @@
       </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M205" t="n">
         <v>20</v>
       </c>
       <c r="N205" t="n">
-        <v>415000</v>
+        <v>465000</v>
       </c>
       <c r="O205" t="n">
-        <v>420000</v>
+        <v>470000</v>
       </c>
       <c r="P205" t="n">
-        <v>417500</v>
+        <v>467500</v>
       </c>
       <c r="Q205" t="inlineStr">
         <is>
@@ -16786,7 +16786,7 @@
         </is>
       </c>
       <c r="S205" t="n">
-        <v>1044</v>
+        <v>1169</v>
       </c>
       <c r="T205" t="n">
         <v>400</v>
@@ -16840,20 +16840,20 @@
       </c>
       <c r="L206" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M206" t="n">
         <v>20</v>
       </c>
       <c r="N206" t="n">
-        <v>365000</v>
+        <v>415000</v>
       </c>
       <c r="O206" t="n">
-        <v>370000</v>
+        <v>420000</v>
       </c>
       <c r="P206" t="n">
-        <v>367500</v>
+        <v>417500</v>
       </c>
       <c r="Q206" t="inlineStr">
         <is>
@@ -16866,7 +16866,7 @@
         </is>
       </c>
       <c r="S206" t="n">
-        <v>919</v>
+        <v>1044</v>
       </c>
       <c r="T206" t="n">
         <v>400</v>
@@ -16887,7 +16887,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44525</v>
+        <v>44209</v>
       </c>
       <c r="E207" t="n">
         <v>4</v>
@@ -16915,25 +16915,25 @@
       </c>
       <c r="K207" t="inlineStr">
         <is>
-          <t>Cara cara</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L207" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M207" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N207" t="n">
-        <v>170000</v>
+        <v>365000</v>
       </c>
       <c r="O207" t="n">
-        <v>175000</v>
+        <v>370000</v>
       </c>
       <c r="P207" t="n">
-        <v>172500</v>
+        <v>367500</v>
       </c>
       <c r="Q207" t="inlineStr">
         <is>
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="S207" t="n">
-        <v>431</v>
+        <v>919</v>
       </c>
       <c r="T207" t="n">
         <v>400</v>
@@ -17000,20 +17000,20 @@
       </c>
       <c r="L208" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M208" t="n">
         <v>16</v>
       </c>
       <c r="N208" t="n">
-        <v>140000</v>
+        <v>170000</v>
       </c>
       <c r="O208" t="n">
-        <v>145000</v>
+        <v>175000</v>
       </c>
       <c r="P208" t="n">
-        <v>142500</v>
+        <v>172500</v>
       </c>
       <c r="Q208" t="inlineStr">
         <is>
@@ -17026,7 +17026,7 @@
         </is>
       </c>
       <c r="S208" t="n">
-        <v>356</v>
+        <v>431</v>
       </c>
       <c r="T208" t="n">
         <v>400</v>
@@ -17075,25 +17075,25 @@
       </c>
       <c r="K209" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Cara cara</t>
         </is>
       </c>
       <c r="L209" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M209" t="n">
         <v>16</v>
       </c>
       <c r="N209" t="n">
-        <v>160000</v>
+        <v>140000</v>
       </c>
       <c r="O209" t="n">
-        <v>165000</v>
+        <v>145000</v>
       </c>
       <c r="P209" t="n">
-        <v>162500</v>
+        <v>142500</v>
       </c>
       <c r="Q209" t="inlineStr">
         <is>
@@ -17106,7 +17106,7 @@
         </is>
       </c>
       <c r="S209" t="n">
-        <v>406</v>
+        <v>356</v>
       </c>
       <c r="T209" t="n">
         <v>400</v>
@@ -17160,20 +17160,20 @@
       </c>
       <c r="L210" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M210" t="n">
         <v>16</v>
       </c>
       <c r="N210" t="n">
-        <v>140000</v>
+        <v>160000</v>
       </c>
       <c r="O210" t="n">
-        <v>145000</v>
+        <v>165000</v>
       </c>
       <c r="P210" t="n">
-        <v>142500</v>
+        <v>162500</v>
       </c>
       <c r="Q210" t="inlineStr">
         <is>
@@ -17186,7 +17186,7 @@
         </is>
       </c>
       <c r="S210" t="n">
-        <v>356</v>
+        <v>406</v>
       </c>
       <c r="T210" t="n">
         <v>400</v>
@@ -17235,25 +17235,25 @@
       </c>
       <c r="K211" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L211" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M211" t="n">
         <v>16</v>
       </c>
       <c r="N211" t="n">
-        <v>165000</v>
+        <v>140000</v>
       </c>
       <c r="O211" t="n">
-        <v>170000</v>
+        <v>145000</v>
       </c>
       <c r="P211" t="n">
-        <v>167500</v>
+        <v>142500</v>
       </c>
       <c r="Q211" t="inlineStr">
         <is>
@@ -17266,7 +17266,7 @@
         </is>
       </c>
       <c r="S211" t="n">
-        <v>419</v>
+        <v>356</v>
       </c>
       <c r="T211" t="n">
         <v>400</v>
@@ -17320,20 +17320,20 @@
       </c>
       <c r="L212" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M212" t="n">
         <v>16</v>
       </c>
       <c r="N212" t="n">
-        <v>145000</v>
+        <v>165000</v>
       </c>
       <c r="O212" t="n">
-        <v>150000</v>
+        <v>170000</v>
       </c>
       <c r="P212" t="n">
-        <v>147500</v>
+        <v>167500</v>
       </c>
       <c r="Q212" t="inlineStr">
         <is>
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="S212" t="n">
-        <v>369</v>
+        <v>419</v>
       </c>
       <c r="T212" t="n">
         <v>400</v>
@@ -17367,7 +17367,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44266</v>
+        <v>44525</v>
       </c>
       <c r="E213" t="n">
         <v>4</v>
@@ -17395,25 +17395,25 @@
       </c>
       <c r="K213" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L213" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M213" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N213" t="n">
-        <v>450000</v>
+        <v>145000</v>
       </c>
       <c r="O213" t="n">
-        <v>455000</v>
+        <v>150000</v>
       </c>
       <c r="P213" t="n">
-        <v>452500</v>
+        <v>147500</v>
       </c>
       <c r="Q213" t="inlineStr">
         <is>
@@ -17426,7 +17426,7 @@
         </is>
       </c>
       <c r="S213" t="n">
-        <v>1131</v>
+        <v>369</v>
       </c>
       <c r="T213" t="n">
         <v>400</v>
@@ -17480,20 +17480,20 @@
       </c>
       <c r="L214" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M214" t="n">
         <v>20</v>
       </c>
       <c r="N214" t="n">
-        <v>410000</v>
+        <v>450000</v>
       </c>
       <c r="O214" t="n">
-        <v>415000</v>
+        <v>455000</v>
       </c>
       <c r="P214" t="n">
-        <v>412500</v>
+        <v>452500</v>
       </c>
       <c r="Q214" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         </is>
       </c>
       <c r="S214" t="n">
-        <v>1031</v>
+        <v>1131</v>
       </c>
       <c r="T214" t="n">
         <v>400</v>
@@ -17527,7 +17527,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44427</v>
+        <v>44266</v>
       </c>
       <c r="E215" t="n">
         <v>4</v>
@@ -17555,25 +17555,25 @@
       </c>
       <c r="K215" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L215" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M215" t="n">
         <v>20</v>
       </c>
       <c r="N215" t="n">
-        <v>120000</v>
+        <v>410000</v>
       </c>
       <c r="O215" t="n">
-        <v>130000</v>
+        <v>415000</v>
       </c>
       <c r="P215" t="n">
-        <v>125000</v>
+        <v>412500</v>
       </c>
       <c r="Q215" t="inlineStr">
         <is>
@@ -17586,7 +17586,7 @@
         </is>
       </c>
       <c r="S215" t="n">
-        <v>312</v>
+        <v>1031</v>
       </c>
       <c r="T215" t="n">
         <v>400</v>
@@ -17640,20 +17640,20 @@
       </c>
       <c r="L216" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M216" t="n">
         <v>20</v>
       </c>
       <c r="N216" t="n">
-        <v>100000</v>
+        <v>120000</v>
       </c>
       <c r="O216" t="n">
-        <v>110000</v>
+        <v>130000</v>
       </c>
       <c r="P216" t="n">
-        <v>105000</v>
+        <v>125000</v>
       </c>
       <c r="Q216" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         </is>
       </c>
       <c r="S216" t="n">
-        <v>262</v>
+        <v>312</v>
       </c>
       <c r="T216" t="n">
         <v>400</v>
@@ -17720,20 +17720,20 @@
       </c>
       <c r="L217" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M217" t="n">
         <v>20</v>
       </c>
       <c r="N217" t="n">
-        <v>80000</v>
+        <v>100000</v>
       </c>
       <c r="O217" t="n">
-        <v>90000</v>
+        <v>110000</v>
       </c>
       <c r="P217" t="n">
-        <v>85000</v>
+        <v>105000</v>
       </c>
       <c r="Q217" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="S217" t="n">
-        <v>212</v>
+        <v>262</v>
       </c>
       <c r="T217" t="n">
         <v>400</v>
@@ -17795,25 +17795,25 @@
       </c>
       <c r="K218" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L218" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M218" t="n">
         <v>20</v>
       </c>
       <c r="N218" t="n">
-        <v>100000</v>
+        <v>80000</v>
       </c>
       <c r="O218" t="n">
-        <v>110000</v>
+        <v>90000</v>
       </c>
       <c r="P218" t="n">
-        <v>105000</v>
+        <v>85000</v>
       </c>
       <c r="Q218" t="inlineStr">
         <is>
@@ -17826,7 +17826,7 @@
         </is>
       </c>
       <c r="S218" t="n">
-        <v>262</v>
+        <v>212</v>
       </c>
       <c r="T218" t="n">
         <v>400</v>
@@ -17880,20 +17880,20 @@
       </c>
       <c r="L219" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M219" t="n">
         <v>20</v>
       </c>
       <c r="N219" t="n">
-        <v>80000</v>
+        <v>100000</v>
       </c>
       <c r="O219" t="n">
-        <v>90000</v>
+        <v>110000</v>
       </c>
       <c r="P219" t="n">
-        <v>85000</v>
+        <v>105000</v>
       </c>
       <c r="Q219" t="inlineStr">
         <is>
@@ -17906,7 +17906,7 @@
         </is>
       </c>
       <c r="S219" t="n">
-        <v>212</v>
+        <v>262</v>
       </c>
       <c r="T219" t="n">
         <v>400</v>
@@ -17927,7 +17927,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44370</v>
+        <v>44427</v>
       </c>
       <c r="E220" t="n">
         <v>4</v>
@@ -17955,25 +17955,25 @@
       </c>
       <c r="K220" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L220" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M220" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N220" t="n">
-        <v>125000</v>
+        <v>80000</v>
       </c>
       <c r="O220" t="n">
-        <v>130000</v>
+        <v>90000</v>
       </c>
       <c r="P220" t="n">
-        <v>127500</v>
+        <v>85000</v>
       </c>
       <c r="Q220" t="inlineStr">
         <is>
@@ -17986,7 +17986,7 @@
         </is>
       </c>
       <c r="S220" t="n">
-        <v>319</v>
+        <v>212</v>
       </c>
       <c r="T220" t="n">
         <v>400</v>
@@ -18040,20 +18040,20 @@
       </c>
       <c r="L221" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M221" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N221" t="n">
-        <v>105000</v>
+        <v>125000</v>
       </c>
       <c r="O221" t="n">
-        <v>110000</v>
+        <v>130000</v>
       </c>
       <c r="P221" t="n">
-        <v>107500</v>
+        <v>127500</v>
       </c>
       <c r="Q221" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         </is>
       </c>
       <c r="S221" t="n">
-        <v>269</v>
+        <v>319</v>
       </c>
       <c r="T221" t="n">
         <v>400</v>
@@ -18115,25 +18115,25 @@
       </c>
       <c r="K222" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L222" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M222" t="n">
         <v>20</v>
       </c>
       <c r="N222" t="n">
-        <v>135000</v>
+        <v>105000</v>
       </c>
       <c r="O222" t="n">
-        <v>140000</v>
+        <v>110000</v>
       </c>
       <c r="P222" t="n">
-        <v>137500</v>
+        <v>107500</v>
       </c>
       <c r="Q222" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="S222" t="n">
-        <v>344</v>
+        <v>269</v>
       </c>
       <c r="T222" t="n">
         <v>400</v>
@@ -18200,20 +18200,20 @@
       </c>
       <c r="L223" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M223" t="n">
         <v>20</v>
       </c>
       <c r="N223" t="n">
-        <v>115000</v>
+        <v>135000</v>
       </c>
       <c r="O223" t="n">
-        <v>120000</v>
+        <v>140000</v>
       </c>
       <c r="P223" t="n">
-        <v>117500</v>
+        <v>137500</v>
       </c>
       <c r="Q223" t="inlineStr">
         <is>
@@ -18226,7 +18226,7 @@
         </is>
       </c>
       <c r="S223" t="n">
-        <v>294</v>
+        <v>344</v>
       </c>
       <c r="T223" t="n">
         <v>400</v>
@@ -18275,25 +18275,25 @@
       </c>
       <c r="K224" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L224" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M224" t="n">
         <v>20</v>
       </c>
       <c r="N224" t="n">
-        <v>135000</v>
+        <v>115000</v>
       </c>
       <c r="O224" t="n">
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="P224" t="n">
-        <v>137500</v>
+        <v>117500</v>
       </c>
       <c r="Q224" t="inlineStr">
         <is>
@@ -18306,7 +18306,7 @@
         </is>
       </c>
       <c r="S224" t="n">
-        <v>344</v>
+        <v>294</v>
       </c>
       <c r="T224" t="n">
         <v>400</v>
@@ -18360,20 +18360,20 @@
       </c>
       <c r="L225" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M225" t="n">
         <v>20</v>
       </c>
       <c r="N225" t="n">
-        <v>115000</v>
+        <v>135000</v>
       </c>
       <c r="O225" t="n">
-        <v>120000</v>
+        <v>140000</v>
       </c>
       <c r="P225" t="n">
-        <v>117500</v>
+        <v>137500</v>
       </c>
       <c r="Q225" t="inlineStr">
         <is>
@@ -18386,7 +18386,7 @@
         </is>
       </c>
       <c r="S225" t="n">
-        <v>294</v>
+        <v>344</v>
       </c>
       <c r="T225" t="n">
         <v>400</v>
@@ -18407,7 +18407,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44475</v>
+        <v>44370</v>
       </c>
       <c r="E226" t="n">
         <v>4</v>
@@ -18435,25 +18435,25 @@
       </c>
       <c r="K226" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L226" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M226" t="n">
         <v>20</v>
       </c>
       <c r="N226" t="n">
-        <v>125000</v>
+        <v>115000</v>
       </c>
       <c r="O226" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="P226" t="n">
-        <v>127500</v>
+        <v>117500</v>
       </c>
       <c r="Q226" t="inlineStr">
         <is>
@@ -18466,7 +18466,7 @@
         </is>
       </c>
       <c r="S226" t="n">
-        <v>319</v>
+        <v>294</v>
       </c>
       <c r="T226" t="n">
         <v>400</v>
@@ -18520,20 +18520,20 @@
       </c>
       <c r="L227" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M227" t="n">
         <v>20</v>
       </c>
       <c r="N227" t="n">
-        <v>95000</v>
+        <v>125000</v>
       </c>
       <c r="O227" t="n">
-        <v>100000</v>
+        <v>130000</v>
       </c>
       <c r="P227" t="n">
-        <v>97500</v>
+        <v>127500</v>
       </c>
       <c r="Q227" t="inlineStr">
         <is>
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="S227" t="n">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="T227" t="n">
         <v>400</v>
@@ -18595,25 +18595,25 @@
       </c>
       <c r="K228" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L228" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M228" t="n">
         <v>20</v>
       </c>
       <c r="N228" t="n">
-        <v>125000</v>
+        <v>95000</v>
       </c>
       <c r="O228" t="n">
-        <v>130000</v>
+        <v>100000</v>
       </c>
       <c r="P228" t="n">
-        <v>127500</v>
+        <v>97500</v>
       </c>
       <c r="Q228" t="inlineStr">
         <is>
@@ -18626,7 +18626,7 @@
         </is>
       </c>
       <c r="S228" t="n">
-        <v>319</v>
+        <v>244</v>
       </c>
       <c r="T228" t="n">
         <v>400</v>
@@ -18680,20 +18680,20 @@
       </c>
       <c r="L229" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M229" t="n">
         <v>20</v>
       </c>
       <c r="N229" t="n">
-        <v>95000</v>
+        <v>125000</v>
       </c>
       <c r="O229" t="n">
-        <v>100000</v>
+        <v>130000</v>
       </c>
       <c r="P229" t="n">
-        <v>97500</v>
+        <v>127500</v>
       </c>
       <c r="Q229" t="inlineStr">
         <is>
@@ -18706,7 +18706,7 @@
         </is>
       </c>
       <c r="S229" t="n">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="T229" t="n">
         <v>400</v>
@@ -18727,7 +18727,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44468</v>
+        <v>44475</v>
       </c>
       <c r="E230" t="n">
         <v>4</v>
@@ -18755,25 +18755,25 @@
       </c>
       <c r="K230" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L230" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M230" t="n">
         <v>20</v>
       </c>
       <c r="N230" t="n">
-        <v>120000</v>
+        <v>95000</v>
       </c>
       <c r="O230" t="n">
-        <v>130000</v>
+        <v>100000</v>
       </c>
       <c r="P230" t="n">
-        <v>125000</v>
+        <v>97500</v>
       </c>
       <c r="Q230" t="inlineStr">
         <is>
@@ -18786,7 +18786,7 @@
         </is>
       </c>
       <c r="S230" t="n">
-        <v>312</v>
+        <v>244</v>
       </c>
       <c r="T230" t="n">
         <v>400</v>
@@ -18840,20 +18840,20 @@
       </c>
       <c r="L231" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M231" t="n">
         <v>20</v>
       </c>
       <c r="N231" t="n">
-        <v>100000</v>
+        <v>120000</v>
       </c>
       <c r="O231" t="n">
-        <v>110000</v>
+        <v>130000</v>
       </c>
       <c r="P231" t="n">
-        <v>105000</v>
+        <v>125000</v>
       </c>
       <c r="Q231" t="inlineStr">
         <is>
@@ -18866,7 +18866,7 @@
         </is>
       </c>
       <c r="S231" t="n">
-        <v>262</v>
+        <v>312</v>
       </c>
       <c r="T231" t="n">
         <v>400</v>
@@ -18915,25 +18915,25 @@
       </c>
       <c r="K232" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L232" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M232" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="N232" t="n">
-        <v>120000</v>
+        <v>100000</v>
       </c>
       <c r="O232" t="n">
-        <v>130000</v>
+        <v>110000</v>
       </c>
       <c r="P232" t="n">
-        <v>126429</v>
+        <v>105000</v>
       </c>
       <c r="Q232" t="inlineStr">
         <is>
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="S232" t="n">
-        <v>316</v>
+        <v>262</v>
       </c>
       <c r="T232" t="n">
         <v>400</v>
@@ -19000,20 +19000,20 @@
       </c>
       <c r="L233" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M233" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N233" t="n">
-        <v>100000</v>
+        <v>120000</v>
       </c>
       <c r="O233" t="n">
-        <v>110000</v>
+        <v>130000</v>
       </c>
       <c r="P233" t="n">
-        <v>105000</v>
+        <v>126429</v>
       </c>
       <c r="Q233" t="inlineStr">
         <is>
@@ -19026,7 +19026,7 @@
         </is>
       </c>
       <c r="S233" t="n">
-        <v>262</v>
+        <v>316</v>
       </c>
       <c r="T233" t="n">
         <v>400</v>
@@ -19047,7 +19047,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44532</v>
+        <v>44468</v>
       </c>
       <c r="E234" t="n">
         <v>4</v>
@@ -19075,25 +19075,25 @@
       </c>
       <c r="K234" t="inlineStr">
         <is>
-          <t>Cara cara</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L234" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M234" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N234" t="n">
-        <v>180000</v>
+        <v>100000</v>
       </c>
       <c r="O234" t="n">
-        <v>190000</v>
+        <v>110000</v>
       </c>
       <c r="P234" t="n">
-        <v>185000</v>
+        <v>105000</v>
       </c>
       <c r="Q234" t="inlineStr">
         <is>
@@ -19106,7 +19106,7 @@
         </is>
       </c>
       <c r="S234" t="n">
-        <v>462</v>
+        <v>262</v>
       </c>
       <c r="T234" t="n">
         <v>400</v>
@@ -19160,20 +19160,20 @@
       </c>
       <c r="L235" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M235" t="n">
         <v>16</v>
       </c>
       <c r="N235" t="n">
-        <v>140000</v>
+        <v>180000</v>
       </c>
       <c r="O235" t="n">
-        <v>150000</v>
+        <v>190000</v>
       </c>
       <c r="P235" t="n">
-        <v>145000</v>
+        <v>185000</v>
       </c>
       <c r="Q235" t="inlineStr">
         <is>
@@ -19186,7 +19186,7 @@
         </is>
       </c>
       <c r="S235" t="n">
-        <v>362</v>
+        <v>462</v>
       </c>
       <c r="T235" t="n">
         <v>400</v>
@@ -19235,25 +19235,25 @@
       </c>
       <c r="K236" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Cara cara</t>
         </is>
       </c>
       <c r="L236" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M236" t="n">
         <v>16</v>
       </c>
       <c r="N236" t="n">
-        <v>160000</v>
+        <v>140000</v>
       </c>
       <c r="O236" t="n">
-        <v>170000</v>
+        <v>150000</v>
       </c>
       <c r="P236" t="n">
-        <v>165000</v>
+        <v>145000</v>
       </c>
       <c r="Q236" t="inlineStr">
         <is>
@@ -19266,7 +19266,7 @@
         </is>
       </c>
       <c r="S236" t="n">
-        <v>412</v>
+        <v>362</v>
       </c>
       <c r="T236" t="n">
         <v>400</v>
@@ -19320,20 +19320,20 @@
       </c>
       <c r="L237" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M237" t="n">
         <v>16</v>
       </c>
       <c r="N237" t="n">
-        <v>130000</v>
+        <v>160000</v>
       </c>
       <c r="O237" t="n">
-        <v>140000</v>
+        <v>170000</v>
       </c>
       <c r="P237" t="n">
-        <v>135000</v>
+        <v>165000</v>
       </c>
       <c r="Q237" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="S237" t="n">
-        <v>338</v>
+        <v>412</v>
       </c>
       <c r="T237" t="n">
         <v>400</v>
@@ -19395,25 +19395,25 @@
       </c>
       <c r="K238" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L238" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M238" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N238" t="n">
-        <v>150000</v>
+        <v>130000</v>
       </c>
       <c r="O238" t="n">
-        <v>160000</v>
+        <v>140000</v>
       </c>
       <c r="P238" t="n">
-        <v>155000</v>
+        <v>135000</v>
       </c>
       <c r="Q238" t="inlineStr">
         <is>
@@ -19426,7 +19426,7 @@
         </is>
       </c>
       <c r="S238" t="n">
-        <v>388</v>
+        <v>338</v>
       </c>
       <c r="T238" t="n">
         <v>400</v>
@@ -19447,7 +19447,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44489</v>
+        <v>44532</v>
       </c>
       <c r="E239" t="n">
         <v>4</v>
@@ -19475,7 +19475,7 @@
       </c>
       <c r="K239" t="inlineStr">
         <is>
-          <t>Cara cara</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L239" t="inlineStr">
@@ -19484,16 +19484,16 @@
         </is>
       </c>
       <c r="M239" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N239" t="n">
-        <v>145000</v>
+        <v>150000</v>
       </c>
       <c r="O239" t="n">
-        <v>150000</v>
+        <v>160000</v>
       </c>
       <c r="P239" t="n">
-        <v>147500</v>
+        <v>155000</v>
       </c>
       <c r="Q239" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         </is>
       </c>
       <c r="S239" t="n">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="T239" t="n">
         <v>400</v>
@@ -19555,7 +19555,7 @@
       </c>
       <c r="K240" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Cara cara</t>
         </is>
       </c>
       <c r="L240" t="inlineStr">
@@ -19564,16 +19564,16 @@
         </is>
       </c>
       <c r="M240" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N240" t="n">
-        <v>135000</v>
+        <v>145000</v>
       </c>
       <c r="O240" t="n">
-        <v>140000</v>
+        <v>150000</v>
       </c>
       <c r="P240" t="n">
-        <v>137500</v>
+        <v>147500</v>
       </c>
       <c r="Q240" t="inlineStr">
         <is>
@@ -19586,7 +19586,7 @@
         </is>
       </c>
       <c r="S240" t="n">
-        <v>344</v>
+        <v>369</v>
       </c>
       <c r="T240" t="n">
         <v>400</v>
@@ -19640,20 +19640,20 @@
       </c>
       <c r="L241" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M241" t="n">
         <v>20</v>
       </c>
       <c r="N241" t="n">
-        <v>105000</v>
+        <v>135000</v>
       </c>
       <c r="O241" t="n">
-        <v>110000</v>
+        <v>140000</v>
       </c>
       <c r="P241" t="n">
-        <v>107500</v>
+        <v>137500</v>
       </c>
       <c r="Q241" t="inlineStr">
         <is>
@@ -19666,7 +19666,7 @@
         </is>
       </c>
       <c r="S241" t="n">
-        <v>269</v>
+        <v>344</v>
       </c>
       <c r="T241" t="n">
         <v>400</v>
@@ -19715,25 +19715,25 @@
       </c>
       <c r="K242" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L242" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M242" t="n">
         <v>20</v>
       </c>
       <c r="N242" t="n">
-        <v>135000</v>
+        <v>105000</v>
       </c>
       <c r="O242" t="n">
-        <v>140000</v>
+        <v>110000</v>
       </c>
       <c r="P242" t="n">
-        <v>137500</v>
+        <v>107500</v>
       </c>
       <c r="Q242" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="S242" t="n">
-        <v>344</v>
+        <v>269</v>
       </c>
       <c r="T242" t="n">
         <v>400</v>
@@ -19800,20 +19800,20 @@
       </c>
       <c r="L243" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M243" t="n">
         <v>20</v>
       </c>
       <c r="N243" t="n">
-        <v>105000</v>
+        <v>135000</v>
       </c>
       <c r="O243" t="n">
-        <v>110000</v>
+        <v>140000</v>
       </c>
       <c r="P243" t="n">
-        <v>107500</v>
+        <v>137500</v>
       </c>
       <c r="Q243" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         </is>
       </c>
       <c r="S243" t="n">
-        <v>269</v>
+        <v>344</v>
       </c>
       <c r="T243" t="n">
         <v>400</v>
@@ -19847,7 +19847,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44210</v>
+        <v>44489</v>
       </c>
       <c r="E244" t="n">
         <v>4</v>
@@ -19875,25 +19875,25 @@
       </c>
       <c r="K244" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L244" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M244" t="n">
         <v>20</v>
       </c>
       <c r="N244" t="n">
-        <v>475000</v>
+        <v>105000</v>
       </c>
       <c r="O244" t="n">
-        <v>480000</v>
+        <v>110000</v>
       </c>
       <c r="P244" t="n">
-        <v>477500</v>
+        <v>107500</v>
       </c>
       <c r="Q244" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         </is>
       </c>
       <c r="S244" t="n">
-        <v>1194</v>
+        <v>269</v>
       </c>
       <c r="T244" t="n">
         <v>400</v>
@@ -19960,20 +19960,20 @@
       </c>
       <c r="L245" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M245" t="n">
         <v>20</v>
       </c>
       <c r="N245" t="n">
-        <v>425000</v>
+        <v>475000</v>
       </c>
       <c r="O245" t="n">
-        <v>430000</v>
+        <v>480000</v>
       </c>
       <c r="P245" t="n">
-        <v>427500</v>
+        <v>477500</v>
       </c>
       <c r="Q245" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         </is>
       </c>
       <c r="S245" t="n">
-        <v>1069</v>
+        <v>1194</v>
       </c>
       <c r="T245" t="n">
         <v>400</v>
@@ -20040,20 +20040,20 @@
       </c>
       <c r="L246" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M246" t="n">
         <v>20</v>
       </c>
       <c r="N246" t="n">
-        <v>375000</v>
+        <v>425000</v>
       </c>
       <c r="O246" t="n">
-        <v>380000</v>
+        <v>430000</v>
       </c>
       <c r="P246" t="n">
-        <v>377500</v>
+        <v>427500</v>
       </c>
       <c r="Q246" t="inlineStr">
         <is>
@@ -20066,7 +20066,7 @@
         </is>
       </c>
       <c r="S246" t="n">
-        <v>944</v>
+        <v>1069</v>
       </c>
       <c r="T246" t="n">
         <v>400</v>
@@ -20087,7 +20087,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44476</v>
+        <v>44210</v>
       </c>
       <c r="E247" t="n">
         <v>4</v>
@@ -20115,25 +20115,25 @@
       </c>
       <c r="K247" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L247" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M247" t="n">
         <v>20</v>
       </c>
       <c r="N247" t="n">
-        <v>120000</v>
+        <v>375000</v>
       </c>
       <c r="O247" t="n">
-        <v>125000</v>
+        <v>380000</v>
       </c>
       <c r="P247" t="n">
-        <v>122500</v>
+        <v>377500</v>
       </c>
       <c r="Q247" t="inlineStr">
         <is>
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="S247" t="n">
-        <v>306</v>
+        <v>944</v>
       </c>
       <c r="T247" t="n">
         <v>400</v>
@@ -20200,20 +20200,20 @@
       </c>
       <c r="L248" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M248" t="n">
         <v>20</v>
       </c>
       <c r="N248" t="n">
-        <v>90000</v>
+        <v>120000</v>
       </c>
       <c r="O248" t="n">
-        <v>95000</v>
+        <v>125000</v>
       </c>
       <c r="P248" t="n">
-        <v>92500</v>
+        <v>122500</v>
       </c>
       <c r="Q248" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         </is>
       </c>
       <c r="S248" t="n">
-        <v>231</v>
+        <v>306</v>
       </c>
       <c r="T248" t="n">
         <v>400</v>
@@ -20275,25 +20275,25 @@
       </c>
       <c r="K249" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L249" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M249" t="n">
         <v>20</v>
       </c>
       <c r="N249" t="n">
-        <v>120000</v>
+        <v>90000</v>
       </c>
       <c r="O249" t="n">
-        <v>125000</v>
+        <v>95000</v>
       </c>
       <c r="P249" t="n">
-        <v>122500</v>
+        <v>92500</v>
       </c>
       <c r="Q249" t="inlineStr">
         <is>
@@ -20306,7 +20306,7 @@
         </is>
       </c>
       <c r="S249" t="n">
-        <v>306</v>
+        <v>231</v>
       </c>
       <c r="T249" t="n">
         <v>400</v>
@@ -20360,20 +20360,20 @@
       </c>
       <c r="L250" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M250" t="n">
         <v>20</v>
       </c>
       <c r="N250" t="n">
-        <v>90000</v>
+        <v>120000</v>
       </c>
       <c r="O250" t="n">
-        <v>95000</v>
+        <v>125000</v>
       </c>
       <c r="P250" t="n">
-        <v>92500</v>
+        <v>122500</v>
       </c>
       <c r="Q250" t="inlineStr">
         <is>
@@ -20386,7 +20386,7 @@
         </is>
       </c>
       <c r="S250" t="n">
-        <v>231</v>
+        <v>306</v>
       </c>
       <c r="T250" t="n">
         <v>400</v>
@@ -20407,7 +20407,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44168</v>
+        <v>44476</v>
       </c>
       <c r="E251" t="n">
         <v>4</v>
@@ -20440,20 +20440,20 @@
       </c>
       <c r="L251" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M251" t="n">
         <v>20</v>
       </c>
       <c r="N251" t="n">
-        <v>325000</v>
+        <v>90000</v>
       </c>
       <c r="O251" t="n">
-        <v>330000</v>
+        <v>95000</v>
       </c>
       <c r="P251" t="n">
-        <v>327500</v>
+        <v>92500</v>
       </c>
       <c r="Q251" t="inlineStr">
         <is>
@@ -20466,7 +20466,7 @@
         </is>
       </c>
       <c r="S251" t="n">
-        <v>819</v>
+        <v>231</v>
       </c>
       <c r="T251" t="n">
         <v>400</v>
@@ -20520,20 +20520,20 @@
       </c>
       <c r="L252" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M252" t="n">
         <v>20</v>
       </c>
       <c r="N252" t="n">
-        <v>285000</v>
+        <v>325000</v>
       </c>
       <c r="O252" t="n">
-        <v>290000</v>
+        <v>330000</v>
       </c>
       <c r="P252" t="n">
-        <v>287500</v>
+        <v>327500</v>
       </c>
       <c r="Q252" t="inlineStr">
         <is>
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="S252" t="n">
-        <v>719</v>
+        <v>819</v>
       </c>
       <c r="T252" t="n">
         <v>400</v>
@@ -20595,25 +20595,25 @@
       </c>
       <c r="K253" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L253" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M253" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N253" t="n">
-        <v>355000</v>
+        <v>285000</v>
       </c>
       <c r="O253" t="n">
-        <v>360000</v>
+        <v>290000</v>
       </c>
       <c r="P253" t="n">
-        <v>357500</v>
+        <v>287500</v>
       </c>
       <c r="Q253" t="inlineStr">
         <is>
@@ -20626,7 +20626,7 @@
         </is>
       </c>
       <c r="S253" t="n">
-        <v>894</v>
+        <v>719</v>
       </c>
       <c r="T253" t="n">
         <v>400</v>
@@ -20680,20 +20680,20 @@
       </c>
       <c r="L254" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M254" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N254" t="n">
-        <v>335000</v>
+        <v>355000</v>
       </c>
       <c r="O254" t="n">
-        <v>340000</v>
+        <v>360000</v>
       </c>
       <c r="P254" t="n">
-        <v>337500</v>
+        <v>357500</v>
       </c>
       <c r="Q254" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         </is>
       </c>
       <c r="S254" t="n">
-        <v>844</v>
+        <v>894</v>
       </c>
       <c r="T254" t="n">
         <v>400</v>
@@ -20760,20 +20760,20 @@
       </c>
       <c r="L255" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M255" t="n">
         <v>20</v>
       </c>
       <c r="N255" t="n">
-        <v>295000</v>
+        <v>335000</v>
       </c>
       <c r="O255" t="n">
-        <v>300000</v>
+        <v>340000</v>
       </c>
       <c r="P255" t="n">
-        <v>297500</v>
+        <v>337500</v>
       </c>
       <c r="Q255" t="inlineStr">
         <is>
@@ -20786,7 +20786,7 @@
         </is>
       </c>
       <c r="S255" t="n">
-        <v>744</v>
+        <v>844</v>
       </c>
       <c r="T255" t="n">
         <v>400</v>
@@ -20807,7 +20807,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44447</v>
+        <v>44168</v>
       </c>
       <c r="E256" t="n">
         <v>4</v>
@@ -20835,25 +20835,25 @@
       </c>
       <c r="K256" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L256" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M256" t="n">
         <v>20</v>
       </c>
       <c r="N256" t="n">
-        <v>110000</v>
+        <v>295000</v>
       </c>
       <c r="O256" t="n">
-        <v>120000</v>
+        <v>300000</v>
       </c>
       <c r="P256" t="n">
-        <v>115000</v>
+        <v>297500</v>
       </c>
       <c r="Q256" t="inlineStr">
         <is>
@@ -20866,7 +20866,7 @@
         </is>
       </c>
       <c r="S256" t="n">
-        <v>288</v>
+        <v>744</v>
       </c>
       <c r="T256" t="n">
         <v>400</v>
@@ -20920,20 +20920,20 @@
       </c>
       <c r="L257" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M257" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="N257" t="n">
-        <v>80000</v>
+        <v>110000</v>
       </c>
       <c r="O257" t="n">
-        <v>90000</v>
+        <v>120000</v>
       </c>
       <c r="P257" t="n">
-        <v>86429</v>
+        <v>115000</v>
       </c>
       <c r="Q257" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="S257" t="n">
-        <v>216</v>
+        <v>288</v>
       </c>
       <c r="T257" t="n">
         <v>400</v>
@@ -20995,25 +20995,25 @@
       </c>
       <c r="K258" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L258" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M258" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N258" t="n">
-        <v>110000</v>
+        <v>80000</v>
       </c>
       <c r="O258" t="n">
-        <v>120000</v>
+        <v>90000</v>
       </c>
       <c r="P258" t="n">
-        <v>115000</v>
+        <v>86429</v>
       </c>
       <c r="Q258" t="inlineStr">
         <is>
@@ -21026,7 +21026,7 @@
         </is>
       </c>
       <c r="S258" t="n">
-        <v>288</v>
+        <v>216</v>
       </c>
       <c r="T258" t="n">
         <v>400</v>
@@ -21080,20 +21080,20 @@
       </c>
       <c r="L259" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M259" t="n">
         <v>20</v>
       </c>
       <c r="N259" t="n">
-        <v>80000</v>
+        <v>110000</v>
       </c>
       <c r="O259" t="n">
-        <v>90000</v>
+        <v>120000</v>
       </c>
       <c r="P259" t="n">
-        <v>85000</v>
+        <v>115000</v>
       </c>
       <c r="Q259" t="inlineStr">
         <is>
@@ -21106,7 +21106,7 @@
         </is>
       </c>
       <c r="S259" t="n">
-        <v>212</v>
+        <v>288</v>
       </c>
       <c r="T259" t="n">
         <v>400</v>
@@ -21127,7 +21127,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44167</v>
+        <v>44447</v>
       </c>
       <c r="E260" t="n">
         <v>4</v>
@@ -21160,20 +21160,20 @@
       </c>
       <c r="L260" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M260" t="n">
         <v>20</v>
       </c>
       <c r="N260" t="n">
-        <v>320000</v>
+        <v>80000</v>
       </c>
       <c r="O260" t="n">
-        <v>330000</v>
+        <v>90000</v>
       </c>
       <c r="P260" t="n">
-        <v>325000</v>
+        <v>85000</v>
       </c>
       <c r="Q260" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         </is>
       </c>
       <c r="S260" t="n">
-        <v>812</v>
+        <v>212</v>
       </c>
       <c r="T260" t="n">
         <v>400</v>
@@ -21240,20 +21240,20 @@
       </c>
       <c r="L261" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M261" t="n">
         <v>20</v>
       </c>
       <c r="N261" t="n">
-        <v>280000</v>
+        <v>320000</v>
       </c>
       <c r="O261" t="n">
-        <v>290000</v>
+        <v>330000</v>
       </c>
       <c r="P261" t="n">
-        <v>285000</v>
+        <v>325000</v>
       </c>
       <c r="Q261" t="inlineStr">
         <is>
@@ -21266,7 +21266,7 @@
         </is>
       </c>
       <c r="S261" t="n">
-        <v>712</v>
+        <v>812</v>
       </c>
       <c r="T261" t="n">
         <v>400</v>
@@ -21315,25 +21315,25 @@
       </c>
       <c r="K262" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L262" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M262" t="n">
         <v>20</v>
       </c>
       <c r="N262" t="n">
-        <v>330000</v>
+        <v>280000</v>
       </c>
       <c r="O262" t="n">
-        <v>340000</v>
+        <v>290000</v>
       </c>
       <c r="P262" t="n">
-        <v>335000</v>
+        <v>285000</v>
       </c>
       <c r="Q262" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="S262" t="n">
-        <v>838</v>
+        <v>712</v>
       </c>
       <c r="T262" t="n">
         <v>400</v>
@@ -21400,20 +21400,20 @@
       </c>
       <c r="L263" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M263" t="n">
         <v>20</v>
       </c>
       <c r="N263" t="n">
-        <v>290000</v>
+        <v>330000</v>
       </c>
       <c r="O263" t="n">
-        <v>300000</v>
+        <v>340000</v>
       </c>
       <c r="P263" t="n">
-        <v>295000</v>
+        <v>335000</v>
       </c>
       <c r="Q263" t="inlineStr">
         <is>
@@ -21426,7 +21426,7 @@
         </is>
       </c>
       <c r="S263" t="n">
-        <v>738</v>
+        <v>838</v>
       </c>
       <c r="T263" t="n">
         <v>400</v>
@@ -21447,7 +21447,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44161</v>
+        <v>44167</v>
       </c>
       <c r="E264" t="n">
         <v>4</v>
@@ -21475,25 +21475,25 @@
       </c>
       <c r="K264" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L264" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M264" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N264" t="n">
-        <v>325000</v>
+        <v>290000</v>
       </c>
       <c r="O264" t="n">
-        <v>330000</v>
+        <v>300000</v>
       </c>
       <c r="P264" t="n">
-        <v>327500</v>
+        <v>295000</v>
       </c>
       <c r="Q264" t="inlineStr">
         <is>
@@ -21506,7 +21506,7 @@
         </is>
       </c>
       <c r="S264" t="n">
-        <v>819</v>
+        <v>738</v>
       </c>
       <c r="T264" t="n">
         <v>400</v>
@@ -21560,20 +21560,20 @@
       </c>
       <c r="L265" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M265" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="N265" t="n">
-        <v>305000</v>
+        <v>325000</v>
       </c>
       <c r="O265" t="n">
-        <v>310000</v>
+        <v>330000</v>
       </c>
       <c r="P265" t="n">
-        <v>307500</v>
+        <v>327500</v>
       </c>
       <c r="Q265" t="inlineStr">
         <is>
@@ -21586,7 +21586,7 @@
         </is>
       </c>
       <c r="S265" t="n">
-        <v>769</v>
+        <v>819</v>
       </c>
       <c r="T265" t="n">
         <v>400</v>
@@ -21640,20 +21640,20 @@
       </c>
       <c r="L266" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M266" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="N266" t="n">
-        <v>255000</v>
+        <v>305000</v>
       </c>
       <c r="O266" t="n">
-        <v>260000</v>
+        <v>310000</v>
       </c>
       <c r="P266" t="n">
-        <v>257500</v>
+        <v>307500</v>
       </c>
       <c r="Q266" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         </is>
       </c>
       <c r="S266" t="n">
-        <v>644</v>
+        <v>769</v>
       </c>
       <c r="T266" t="n">
         <v>400</v>
@@ -21687,7 +21687,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44328</v>
+        <v>44161</v>
       </c>
       <c r="E267" t="n">
         <v>4</v>
@@ -21715,25 +21715,25 @@
       </c>
       <c r="K267" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L267" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M267" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N267" t="n">
-        <v>290000</v>
+        <v>255000</v>
       </c>
       <c r="O267" t="n">
-        <v>300000</v>
+        <v>260000</v>
       </c>
       <c r="P267" t="n">
-        <v>295000</v>
+        <v>257500</v>
       </c>
       <c r="Q267" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="S267" t="n">
-        <v>738</v>
+        <v>644</v>
       </c>
       <c r="T267" t="n">
         <v>400</v>
@@ -21795,7 +21795,7 @@
       </c>
       <c r="K268" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L268" t="inlineStr">
@@ -21847,7 +21847,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44160</v>
+        <v>44328</v>
       </c>
       <c r="E269" t="n">
         <v>4</v>
@@ -21875,25 +21875,25 @@
       </c>
       <c r="K269" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L269" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M269" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N269" t="n">
-        <v>325000</v>
+        <v>290000</v>
       </c>
       <c r="O269" t="n">
-        <v>330000</v>
+        <v>300000</v>
       </c>
       <c r="P269" t="n">
-        <v>327500</v>
+        <v>295000</v>
       </c>
       <c r="Q269" t="inlineStr">
         <is>
@@ -21906,7 +21906,7 @@
         </is>
       </c>
       <c r="S269" t="n">
-        <v>819</v>
+        <v>738</v>
       </c>
       <c r="T269" t="n">
         <v>400</v>
@@ -21960,20 +21960,20 @@
       </c>
       <c r="L270" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M270" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N270" t="n">
-        <v>305000</v>
+        <v>325000</v>
       </c>
       <c r="O270" t="n">
-        <v>310000</v>
+        <v>330000</v>
       </c>
       <c r="P270" t="n">
-        <v>307500</v>
+        <v>327500</v>
       </c>
       <c r="Q270" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
         </is>
       </c>
       <c r="S270" t="n">
-        <v>769</v>
+        <v>819</v>
       </c>
       <c r="T270" t="n">
         <v>400</v>
@@ -22040,20 +22040,20 @@
       </c>
       <c r="L271" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M271" t="n">
         <v>20</v>
       </c>
       <c r="N271" t="n">
-        <v>255000</v>
+        <v>305000</v>
       </c>
       <c r="O271" t="n">
-        <v>260000</v>
+        <v>310000</v>
       </c>
       <c r="P271" t="n">
-        <v>257500</v>
+        <v>307500</v>
       </c>
       <c r="Q271" t="inlineStr">
         <is>
@@ -22066,7 +22066,7 @@
         </is>
       </c>
       <c r="S271" t="n">
-        <v>644</v>
+        <v>769</v>
       </c>
       <c r="T271" t="n">
         <v>400</v>
@@ -22087,7 +22087,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44434</v>
+        <v>44160</v>
       </c>
       <c r="E272" t="n">
         <v>4</v>
@@ -22115,25 +22115,25 @@
       </c>
       <c r="K272" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L272" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M272" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N272" t="n">
-        <v>125000</v>
+        <v>255000</v>
       </c>
       <c r="O272" t="n">
-        <v>130000</v>
+        <v>260000</v>
       </c>
       <c r="P272" t="n">
-        <v>127500</v>
+        <v>257500</v>
       </c>
       <c r="Q272" t="inlineStr">
         <is>
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="S272" t="n">
-        <v>319</v>
+        <v>644</v>
       </c>
       <c r="T272" t="n">
         <v>400</v>
@@ -22200,20 +22200,20 @@
       </c>
       <c r="L273" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M273" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N273" t="n">
-        <v>105000</v>
+        <v>125000</v>
       </c>
       <c r="O273" t="n">
-        <v>110000</v>
+        <v>130000</v>
       </c>
       <c r="P273" t="n">
-        <v>107500</v>
+        <v>127500</v>
       </c>
       <c r="Q273" t="inlineStr">
         <is>
@@ -22226,7 +22226,7 @@
         </is>
       </c>
       <c r="S273" t="n">
-        <v>269</v>
+        <v>319</v>
       </c>
       <c r="T273" t="n">
         <v>400</v>
@@ -22280,20 +22280,20 @@
       </c>
       <c r="L274" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M274" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N274" t="n">
-        <v>85000</v>
+        <v>105000</v>
       </c>
       <c r="O274" t="n">
-        <v>90000</v>
+        <v>110000</v>
       </c>
       <c r="P274" t="n">
-        <v>87500</v>
+        <v>107500</v>
       </c>
       <c r="Q274" t="inlineStr">
         <is>
@@ -22306,7 +22306,7 @@
         </is>
       </c>
       <c r="S274" t="n">
-        <v>219</v>
+        <v>269</v>
       </c>
       <c r="T274" t="n">
         <v>400</v>
@@ -22355,25 +22355,25 @@
       </c>
       <c r="K275" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L275" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M275" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N275" t="n">
-        <v>95000</v>
+        <v>85000</v>
       </c>
       <c r="O275" t="n">
-        <v>100000</v>
+        <v>90000</v>
       </c>
       <c r="P275" t="n">
-        <v>97500</v>
+        <v>87500</v>
       </c>
       <c r="Q275" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         </is>
       </c>
       <c r="S275" t="n">
-        <v>244</v>
+        <v>219</v>
       </c>
       <c r="T275" t="n">
         <v>400</v>
@@ -22440,20 +22440,20 @@
       </c>
       <c r="L276" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M276" t="n">
         <v>20</v>
       </c>
       <c r="N276" t="n">
-        <v>75000</v>
+        <v>95000</v>
       </c>
       <c r="O276" t="n">
-        <v>80000</v>
+        <v>100000</v>
       </c>
       <c r="P276" t="n">
-        <v>77500</v>
+        <v>97500</v>
       </c>
       <c r="Q276" t="inlineStr">
         <is>
@@ -22466,7 +22466,7 @@
         </is>
       </c>
       <c r="S276" t="n">
-        <v>194</v>
+        <v>244</v>
       </c>
       <c r="T276" t="n">
         <v>400</v>
@@ -22515,25 +22515,25 @@
       </c>
       <c r="K277" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L277" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M277" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N277" t="n">
-        <v>95000</v>
+        <v>75000</v>
       </c>
       <c r="O277" t="n">
-        <v>100000</v>
+        <v>80000</v>
       </c>
       <c r="P277" t="n">
-        <v>97500</v>
+        <v>77500</v>
       </c>
       <c r="Q277" t="inlineStr">
         <is>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="S277" t="n">
-        <v>244</v>
+        <v>194</v>
       </c>
       <c r="T277" t="n">
         <v>400</v>
@@ -22600,20 +22600,20 @@
       </c>
       <c r="L278" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M278" t="n">
         <v>16</v>
       </c>
       <c r="N278" t="n">
-        <v>75000</v>
+        <v>95000</v>
       </c>
       <c r="O278" t="n">
-        <v>80000</v>
+        <v>100000</v>
       </c>
       <c r="P278" t="n">
-        <v>77500</v>
+        <v>97500</v>
       </c>
       <c r="Q278" t="inlineStr">
         <is>
@@ -22626,7 +22626,7 @@
         </is>
       </c>
       <c r="S278" t="n">
-        <v>194</v>
+        <v>244</v>
       </c>
       <c r="T278" t="n">
         <v>400</v>
@@ -22647,7 +22647,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44231</v>
+        <v>44434</v>
       </c>
       <c r="E279" t="n">
         <v>4</v>
@@ -22675,25 +22675,25 @@
       </c>
       <c r="K279" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L279" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M279" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N279" t="n">
-        <v>485000</v>
+        <v>75000</v>
       </c>
       <c r="O279" t="n">
-        <v>490000</v>
+        <v>80000</v>
       </c>
       <c r="P279" t="n">
-        <v>487500</v>
+        <v>77500</v>
       </c>
       <c r="Q279" t="inlineStr">
         <is>
@@ -22706,7 +22706,7 @@
         </is>
       </c>
       <c r="S279" t="n">
-        <v>1219</v>
+        <v>194</v>
       </c>
       <c r="T279" t="n">
         <v>400</v>
@@ -22760,20 +22760,20 @@
       </c>
       <c r="L280" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M280" t="n">
         <v>20</v>
       </c>
       <c r="N280" t="n">
-        <v>455000</v>
+        <v>485000</v>
       </c>
       <c r="O280" t="n">
-        <v>460000</v>
+        <v>490000</v>
       </c>
       <c r="P280" t="n">
-        <v>457500</v>
+        <v>487500</v>
       </c>
       <c r="Q280" t="inlineStr">
         <is>
@@ -22786,7 +22786,7 @@
         </is>
       </c>
       <c r="S280" t="n">
-        <v>1144</v>
+        <v>1219</v>
       </c>
       <c r="T280" t="n">
         <v>400</v>
@@ -22807,7 +22807,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44490</v>
+        <v>44231</v>
       </c>
       <c r="E281" t="n">
         <v>4</v>
@@ -22835,25 +22835,25 @@
       </c>
       <c r="K281" t="inlineStr">
         <is>
-          <t>Cara cara</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L281" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M281" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N281" t="n">
-        <v>145000</v>
+        <v>455000</v>
       </c>
       <c r="O281" t="n">
-        <v>150000</v>
+        <v>460000</v>
       </c>
       <c r="P281" t="n">
-        <v>147500</v>
+        <v>457500</v>
       </c>
       <c r="Q281" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         </is>
       </c>
       <c r="S281" t="n">
-        <v>369</v>
+        <v>1144</v>
       </c>
       <c r="T281" t="n">
         <v>400</v>
@@ -22915,7 +22915,7 @@
       </c>
       <c r="K282" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Cara cara</t>
         </is>
       </c>
       <c r="L282" t="inlineStr">
@@ -22924,16 +22924,16 @@
         </is>
       </c>
       <c r="M282" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N282" t="n">
-        <v>135000</v>
+        <v>145000</v>
       </c>
       <c r="O282" t="n">
-        <v>140000</v>
+        <v>150000</v>
       </c>
       <c r="P282" t="n">
-        <v>137500</v>
+        <v>147500</v>
       </c>
       <c r="Q282" t="inlineStr">
         <is>
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="S282" t="n">
-        <v>344</v>
+        <v>369</v>
       </c>
       <c r="T282" t="n">
         <v>400</v>
@@ -23000,20 +23000,20 @@
       </c>
       <c r="L283" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M283" t="n">
         <v>20</v>
       </c>
       <c r="N283" t="n">
-        <v>105000</v>
+        <v>135000</v>
       </c>
       <c r="O283" t="n">
-        <v>110000</v>
+        <v>140000</v>
       </c>
       <c r="P283" t="n">
-        <v>107500</v>
+        <v>137500</v>
       </c>
       <c r="Q283" t="inlineStr">
         <is>
@@ -23026,7 +23026,7 @@
         </is>
       </c>
       <c r="S283" t="n">
-        <v>269</v>
+        <v>344</v>
       </c>
       <c r="T283" t="n">
         <v>400</v>
@@ -23075,25 +23075,25 @@
       </c>
       <c r="K284" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L284" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M284" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N284" t="n">
-        <v>135000</v>
+        <v>105000</v>
       </c>
       <c r="O284" t="n">
-        <v>140000</v>
+        <v>110000</v>
       </c>
       <c r="P284" t="n">
-        <v>137500</v>
+        <v>107500</v>
       </c>
       <c r="Q284" t="inlineStr">
         <is>
@@ -23106,7 +23106,7 @@
         </is>
       </c>
       <c r="S284" t="n">
-        <v>344</v>
+        <v>269</v>
       </c>
       <c r="T284" t="n">
         <v>400</v>
@@ -23160,20 +23160,20 @@
       </c>
       <c r="L285" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M285" t="n">
         <v>16</v>
       </c>
       <c r="N285" t="n">
-        <v>105000</v>
+        <v>135000</v>
       </c>
       <c r="O285" t="n">
-        <v>110000</v>
+        <v>140000</v>
       </c>
       <c r="P285" t="n">
-        <v>107500</v>
+        <v>137500</v>
       </c>
       <c r="Q285" t="inlineStr">
         <is>
@@ -23186,7 +23186,7 @@
         </is>
       </c>
       <c r="S285" t="n">
-        <v>269</v>
+        <v>344</v>
       </c>
       <c r="T285" t="n">
         <v>400</v>
@@ -23207,7 +23207,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44259</v>
+        <v>44490</v>
       </c>
       <c r="E286" t="n">
         <v>4</v>
@@ -23235,25 +23235,25 @@
       </c>
       <c r="K286" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L286" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M286" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N286" t="n">
-        <v>455000</v>
+        <v>105000</v>
       </c>
       <c r="O286" t="n">
-        <v>460000</v>
+        <v>110000</v>
       </c>
       <c r="P286" t="n">
-        <v>457500</v>
+        <v>107500</v>
       </c>
       <c r="Q286" t="inlineStr">
         <is>
@@ -23266,7 +23266,7 @@
         </is>
       </c>
       <c r="S286" t="n">
-        <v>1144</v>
+        <v>269</v>
       </c>
       <c r="T286" t="n">
         <v>400</v>
@@ -23320,20 +23320,20 @@
       </c>
       <c r="L287" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M287" t="n">
         <v>20</v>
       </c>
       <c r="N287" t="n">
-        <v>415000</v>
+        <v>455000</v>
       </c>
       <c r="O287" t="n">
-        <v>420000</v>
+        <v>460000</v>
       </c>
       <c r="P287" t="n">
-        <v>417500</v>
+        <v>457500</v>
       </c>
       <c r="Q287" t="inlineStr">
         <is>
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="S287" t="n">
-        <v>1044</v>
+        <v>1144</v>
       </c>
       <c r="T287" t="n">
         <v>400</v>
@@ -23367,7 +23367,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44251</v>
+        <v>44259</v>
       </c>
       <c r="E288" t="n">
         <v>4</v>
@@ -23400,20 +23400,20 @@
       </c>
       <c r="L288" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M288" t="n">
         <v>20</v>
       </c>
       <c r="N288" t="n">
-        <v>455000</v>
+        <v>415000</v>
       </c>
       <c r="O288" t="n">
-        <v>460000</v>
+        <v>420000</v>
       </c>
       <c r="P288" t="n">
-        <v>457500</v>
+        <v>417500</v>
       </c>
       <c r="Q288" t="inlineStr">
         <is>
@@ -23426,7 +23426,7 @@
         </is>
       </c>
       <c r="S288" t="n">
-        <v>1144</v>
+        <v>1044</v>
       </c>
       <c r="T288" t="n">
         <v>400</v>
@@ -23480,20 +23480,20 @@
       </c>
       <c r="L289" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M289" t="n">
         <v>20</v>
       </c>
       <c r="N289" t="n">
-        <v>415000</v>
+        <v>455000</v>
       </c>
       <c r="O289" t="n">
-        <v>420000</v>
+        <v>460000</v>
       </c>
       <c r="P289" t="n">
-        <v>417500</v>
+        <v>457500</v>
       </c>
       <c r="Q289" t="inlineStr">
         <is>
@@ -23506,7 +23506,7 @@
         </is>
       </c>
       <c r="S289" t="n">
-        <v>1044</v>
+        <v>1144</v>
       </c>
       <c r="T289" t="n">
         <v>400</v>
@@ -23527,7 +23527,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44286</v>
+        <v>44251</v>
       </c>
       <c r="E290" t="n">
         <v>4</v>
@@ -23560,20 +23560,20 @@
       </c>
       <c r="L290" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M290" t="n">
         <v>20</v>
       </c>
       <c r="N290" t="n">
-        <v>475000</v>
+        <v>415000</v>
       </c>
       <c r="O290" t="n">
-        <v>480000</v>
+        <v>420000</v>
       </c>
       <c r="P290" t="n">
-        <v>477500</v>
+        <v>417500</v>
       </c>
       <c r="Q290" t="inlineStr">
         <is>
@@ -23586,7 +23586,7 @@
         </is>
       </c>
       <c r="S290" t="n">
-        <v>1194</v>
+        <v>1044</v>
       </c>
       <c r="T290" t="n">
         <v>400</v>
@@ -23640,20 +23640,20 @@
       </c>
       <c r="L291" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M291" t="n">
         <v>20</v>
       </c>
       <c r="N291" t="n">
-        <v>455000</v>
+        <v>475000</v>
       </c>
       <c r="O291" t="n">
-        <v>460000</v>
+        <v>480000</v>
       </c>
       <c r="P291" t="n">
-        <v>457500</v>
+        <v>477500</v>
       </c>
       <c r="Q291" t="inlineStr">
         <is>
@@ -23666,7 +23666,7 @@
         </is>
       </c>
       <c r="S291" t="n">
-        <v>1144</v>
+        <v>1194</v>
       </c>
       <c r="T291" t="n">
         <v>400</v>
@@ -23687,7 +23687,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44279</v>
+        <v>44286</v>
       </c>
       <c r="E292" t="n">
         <v>4</v>
@@ -23720,20 +23720,20 @@
       </c>
       <c r="L292" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M292" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N292" t="n">
-        <v>475000</v>
+        <v>455000</v>
       </c>
       <c r="O292" t="n">
-        <v>480000</v>
+        <v>460000</v>
       </c>
       <c r="P292" t="n">
-        <v>477500</v>
+        <v>457500</v>
       </c>
       <c r="Q292" t="inlineStr">
         <is>
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="S292" t="n">
-        <v>1194</v>
+        <v>1144</v>
       </c>
       <c r="T292" t="n">
         <v>400</v>
@@ -23800,20 +23800,20 @@
       </c>
       <c r="L293" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M293" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N293" t="n">
-        <v>455000</v>
+        <v>475000</v>
       </c>
       <c r="O293" t="n">
-        <v>460000</v>
+        <v>480000</v>
       </c>
       <c r="P293" t="n">
-        <v>457500</v>
+        <v>477500</v>
       </c>
       <c r="Q293" t="inlineStr">
         <is>
@@ -23826,7 +23826,7 @@
         </is>
       </c>
       <c r="S293" t="n">
-        <v>1144</v>
+        <v>1194</v>
       </c>
       <c r="T293" t="n">
         <v>400</v>
@@ -23880,20 +23880,20 @@
       </c>
       <c r="L294" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M294" t="n">
         <v>20</v>
       </c>
       <c r="N294" t="n">
-        <v>415000</v>
+        <v>455000</v>
       </c>
       <c r="O294" t="n">
-        <v>420000</v>
+        <v>460000</v>
       </c>
       <c r="P294" t="n">
-        <v>417500</v>
+        <v>457500</v>
       </c>
       <c r="Q294" t="inlineStr">
         <is>
@@ -23906,7 +23906,7 @@
         </is>
       </c>
       <c r="S294" t="n">
-        <v>1044</v>
+        <v>1144</v>
       </c>
       <c r="T294" t="n">
         <v>400</v>
@@ -23927,7 +23927,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44322</v>
+        <v>44279</v>
       </c>
       <c r="E295" t="n">
         <v>4</v>
@@ -23955,25 +23955,25 @@
       </c>
       <c r="K295" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L295" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M295" t="n">
         <v>20</v>
       </c>
       <c r="N295" t="n">
-        <v>310000</v>
+        <v>415000</v>
       </c>
       <c r="O295" t="n">
-        <v>320000</v>
+        <v>420000</v>
       </c>
       <c r="P295" t="n">
-        <v>315000</v>
+        <v>417500</v>
       </c>
       <c r="Q295" t="inlineStr">
         <is>
@@ -23986,7 +23986,7 @@
         </is>
       </c>
       <c r="S295" t="n">
-        <v>788</v>
+        <v>1044</v>
       </c>
       <c r="T295" t="n">
         <v>400</v>
@@ -24040,20 +24040,20 @@
       </c>
       <c r="L296" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M296" t="n">
         <v>20</v>
       </c>
       <c r="N296" t="n">
-        <v>270000</v>
+        <v>310000</v>
       </c>
       <c r="O296" t="n">
-        <v>280000</v>
+        <v>320000</v>
       </c>
       <c r="P296" t="n">
-        <v>275000</v>
+        <v>315000</v>
       </c>
       <c r="Q296" t="inlineStr">
         <is>
@@ -24066,7 +24066,7 @@
         </is>
       </c>
       <c r="S296" t="n">
-        <v>688</v>
+        <v>788</v>
       </c>
       <c r="T296" t="n">
         <v>400</v>
@@ -24115,25 +24115,25 @@
       </c>
       <c r="K297" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L297" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M297" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N297" t="n">
-        <v>460000</v>
+        <v>270000</v>
       </c>
       <c r="O297" t="n">
-        <v>470000</v>
+        <v>280000</v>
       </c>
       <c r="P297" t="n">
-        <v>465000</v>
+        <v>275000</v>
       </c>
       <c r="Q297" t="inlineStr">
         <is>
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="S297" t="n">
-        <v>1162</v>
+        <v>688</v>
       </c>
       <c r="T297" t="n">
         <v>400</v>
@@ -24167,7 +24167,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44391</v>
+        <v>44322</v>
       </c>
       <c r="E298" t="n">
         <v>4</v>
@@ -24195,7 +24195,7 @@
       </c>
       <c r="K298" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L298" t="inlineStr">
@@ -24204,16 +24204,16 @@
         </is>
       </c>
       <c r="M298" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N298" t="n">
-        <v>100000</v>
+        <v>460000</v>
       </c>
       <c r="O298" t="n">
-        <v>110000</v>
+        <v>470000</v>
       </c>
       <c r="P298" t="n">
-        <v>105000</v>
+        <v>465000</v>
       </c>
       <c r="Q298" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         </is>
       </c>
       <c r="S298" t="n">
-        <v>262</v>
+        <v>1162</v>
       </c>
       <c r="T298" t="n">
         <v>400</v>
@@ -24280,20 +24280,20 @@
       </c>
       <c r="L299" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M299" t="n">
         <v>20</v>
       </c>
       <c r="N299" t="n">
-        <v>80000</v>
+        <v>100000</v>
       </c>
       <c r="O299" t="n">
-        <v>90000</v>
+        <v>110000</v>
       </c>
       <c r="P299" t="n">
-        <v>85000</v>
+        <v>105000</v>
       </c>
       <c r="Q299" t="inlineStr">
         <is>
@@ -24306,7 +24306,7 @@
         </is>
       </c>
       <c r="S299" t="n">
-        <v>212</v>
+        <v>262</v>
       </c>
       <c r="T299" t="n">
         <v>400</v>
@@ -24355,25 +24355,25 @@
       </c>
       <c r="K300" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L300" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M300" t="n">
         <v>20</v>
       </c>
       <c r="N300" t="n">
-        <v>100000</v>
+        <v>80000</v>
       </c>
       <c r="O300" t="n">
-        <v>110000</v>
+        <v>90000</v>
       </c>
       <c r="P300" t="n">
-        <v>105000</v>
+        <v>85000</v>
       </c>
       <c r="Q300" t="inlineStr">
         <is>
@@ -24386,7 +24386,7 @@
         </is>
       </c>
       <c r="S300" t="n">
-        <v>262</v>
+        <v>212</v>
       </c>
       <c r="T300" t="n">
         <v>400</v>
@@ -24440,20 +24440,20 @@
       </c>
       <c r="L301" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M301" t="n">
         <v>20</v>
       </c>
       <c r="N301" t="n">
-        <v>80000</v>
+        <v>100000</v>
       </c>
       <c r="O301" t="n">
-        <v>90000</v>
+        <v>110000</v>
       </c>
       <c r="P301" t="n">
-        <v>85000</v>
+        <v>105000</v>
       </c>
       <c r="Q301" t="inlineStr">
         <is>
@@ -24466,7 +24466,7 @@
         </is>
       </c>
       <c r="S301" t="n">
-        <v>212</v>
+        <v>262</v>
       </c>
       <c r="T301" t="n">
         <v>400</v>
@@ -24487,7 +24487,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44510</v>
+        <v>44391</v>
       </c>
       <c r="E302" t="n">
         <v>4</v>
@@ -24515,25 +24515,25 @@
       </c>
       <c r="K302" t="inlineStr">
         <is>
-          <t>Cara cara</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L302" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M302" t="n">
         <v>20</v>
       </c>
       <c r="N302" t="n">
-        <v>175000</v>
+        <v>80000</v>
       </c>
       <c r="O302" t="n">
-        <v>180000</v>
+        <v>90000</v>
       </c>
       <c r="P302" t="n">
-        <v>177500</v>
+        <v>85000</v>
       </c>
       <c r="Q302" t="inlineStr">
         <is>
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="S302" t="n">
-        <v>444</v>
+        <v>212</v>
       </c>
       <c r="T302" t="n">
         <v>400</v>
@@ -24600,20 +24600,20 @@
       </c>
       <c r="L303" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M303" t="n">
         <v>20</v>
       </c>
       <c r="N303" t="n">
-        <v>155000</v>
+        <v>175000</v>
       </c>
       <c r="O303" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="P303" t="n">
-        <v>157500</v>
+        <v>177500</v>
       </c>
       <c r="Q303" t="inlineStr">
         <is>
@@ -24626,7 +24626,7 @@
         </is>
       </c>
       <c r="S303" t="n">
-        <v>394</v>
+        <v>444</v>
       </c>
       <c r="T303" t="n">
         <v>400</v>
@@ -24675,12 +24675,12 @@
       </c>
       <c r="K304" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Cara cara</t>
         </is>
       </c>
       <c r="L304" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M304" t="n">
@@ -24760,20 +24760,20 @@
       </c>
       <c r="L305" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M305" t="n">
         <v>20</v>
       </c>
       <c r="N305" t="n">
-        <v>125000</v>
+        <v>155000</v>
       </c>
       <c r="O305" t="n">
-        <v>130000</v>
+        <v>160000</v>
       </c>
       <c r="P305" t="n">
-        <v>127500</v>
+        <v>157500</v>
       </c>
       <c r="Q305" t="inlineStr">
         <is>
@@ -24786,7 +24786,7 @@
         </is>
       </c>
       <c r="S305" t="n">
-        <v>319</v>
+        <v>394</v>
       </c>
       <c r="T305" t="n">
         <v>400</v>
@@ -24835,25 +24835,25 @@
       </c>
       <c r="K306" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L306" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M306" t="n">
         <v>20</v>
       </c>
       <c r="N306" t="n">
-        <v>155000</v>
+        <v>125000</v>
       </c>
       <c r="O306" t="n">
-        <v>160000</v>
+        <v>130000</v>
       </c>
       <c r="P306" t="n">
-        <v>157500</v>
+        <v>127500</v>
       </c>
       <c r="Q306" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         </is>
       </c>
       <c r="S306" t="n">
-        <v>394</v>
+        <v>319</v>
       </c>
       <c r="T306" t="n">
         <v>400</v>
@@ -24920,20 +24920,20 @@
       </c>
       <c r="L307" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M307" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N307" t="n">
-        <v>125000</v>
+        <v>155000</v>
       </c>
       <c r="O307" t="n">
-        <v>130000</v>
+        <v>160000</v>
       </c>
       <c r="P307" t="n">
-        <v>127500</v>
+        <v>157500</v>
       </c>
       <c r="Q307" t="inlineStr">
         <is>
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="S307" t="n">
-        <v>319</v>
+        <v>394</v>
       </c>
       <c r="T307" t="n">
         <v>400</v>
@@ -24967,7 +24967,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44420</v>
+        <v>44510</v>
       </c>
       <c r="E308" t="n">
         <v>4</v>
@@ -24995,25 +24995,25 @@
       </c>
       <c r="K308" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L308" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M308" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N308" t="n">
-        <v>115000</v>
+        <v>125000</v>
       </c>
       <c r="O308" t="n">
-        <v>120000</v>
+        <v>130000</v>
       </c>
       <c r="P308" t="n">
-        <v>117500</v>
+        <v>127500</v>
       </c>
       <c r="Q308" t="inlineStr">
         <is>
@@ -25026,7 +25026,7 @@
         </is>
       </c>
       <c r="S308" t="n">
-        <v>294</v>
+        <v>319</v>
       </c>
       <c r="T308" t="n">
         <v>400</v>
@@ -25080,20 +25080,20 @@
       </c>
       <c r="L309" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M309" t="n">
         <v>20</v>
       </c>
       <c r="N309" t="n">
-        <v>85000</v>
+        <v>115000</v>
       </c>
       <c r="O309" t="n">
-        <v>90000</v>
+        <v>120000</v>
       </c>
       <c r="P309" t="n">
-        <v>87500</v>
+        <v>117500</v>
       </c>
       <c r="Q309" t="inlineStr">
         <is>
@@ -25106,7 +25106,7 @@
         </is>
       </c>
       <c r="S309" t="n">
-        <v>219</v>
+        <v>294</v>
       </c>
       <c r="T309" t="n">
         <v>400</v>
@@ -25155,25 +25155,25 @@
       </c>
       <c r="K310" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L310" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M310" t="n">
         <v>20</v>
       </c>
       <c r="N310" t="n">
-        <v>105000</v>
+        <v>85000</v>
       </c>
       <c r="O310" t="n">
-        <v>110000</v>
+        <v>90000</v>
       </c>
       <c r="P310" t="n">
-        <v>107500</v>
+        <v>87500</v>
       </c>
       <c r="Q310" t="inlineStr">
         <is>
@@ -25186,7 +25186,7 @@
         </is>
       </c>
       <c r="S310" t="n">
-        <v>269</v>
+        <v>219</v>
       </c>
       <c r="T310" t="n">
         <v>400</v>
@@ -25240,20 +25240,20 @@
       </c>
       <c r="L311" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M311" t="n">
         <v>20</v>
       </c>
       <c r="N311" t="n">
-        <v>75000</v>
+        <v>105000</v>
       </c>
       <c r="O311" t="n">
-        <v>80000</v>
+        <v>110000</v>
       </c>
       <c r="P311" t="n">
-        <v>77500</v>
+        <v>107500</v>
       </c>
       <c r="Q311" t="inlineStr">
         <is>
@@ -25266,7 +25266,7 @@
         </is>
       </c>
       <c r="S311" t="n">
-        <v>194</v>
+        <v>269</v>
       </c>
       <c r="T311" t="n">
         <v>400</v>
@@ -25287,7 +25287,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44321</v>
+        <v>44420</v>
       </c>
       <c r="E312" t="n">
         <v>4</v>
@@ -25315,25 +25315,25 @@
       </c>
       <c r="K312" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L312" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M312" t="n">
         <v>20</v>
       </c>
       <c r="N312" t="n">
-        <v>320000</v>
+        <v>75000</v>
       </c>
       <c r="O312" t="n">
-        <v>330000</v>
+        <v>80000</v>
       </c>
       <c r="P312" t="n">
-        <v>325000</v>
+        <v>77500</v>
       </c>
       <c r="Q312" t="inlineStr">
         <is>
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="S312" t="n">
-        <v>812</v>
+        <v>194</v>
       </c>
       <c r="T312" t="n">
         <v>400</v>
@@ -25400,20 +25400,20 @@
       </c>
       <c r="L313" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M313" t="n">
         <v>20</v>
       </c>
       <c r="N313" t="n">
-        <v>280000</v>
+        <v>320000</v>
       </c>
       <c r="O313" t="n">
-        <v>290000</v>
+        <v>330000</v>
       </c>
       <c r="P313" t="n">
-        <v>285000</v>
+        <v>325000</v>
       </c>
       <c r="Q313" t="inlineStr">
         <is>
@@ -25426,7 +25426,7 @@
         </is>
       </c>
       <c r="S313" t="n">
-        <v>712</v>
+        <v>812</v>
       </c>
       <c r="T313" t="n">
         <v>400</v>
@@ -25475,25 +25475,25 @@
       </c>
       <c r="K314" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L314" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M314" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N314" t="n">
-        <v>460000</v>
+        <v>280000</v>
       </c>
       <c r="O314" t="n">
-        <v>470000</v>
+        <v>290000</v>
       </c>
       <c r="P314" t="n">
-        <v>465000</v>
+        <v>285000</v>
       </c>
       <c r="Q314" t="inlineStr">
         <is>
@@ -25506,7 +25506,7 @@
         </is>
       </c>
       <c r="S314" t="n">
-        <v>1162</v>
+        <v>712</v>
       </c>
       <c r="T314" t="n">
         <v>400</v>
@@ -25527,7 +25527,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44385</v>
+        <v>44321</v>
       </c>
       <c r="E315" t="n">
         <v>4</v>
@@ -25555,7 +25555,7 @@
       </c>
       <c r="K315" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L315" t="inlineStr">
@@ -25564,16 +25564,16 @@
         </is>
       </c>
       <c r="M315" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N315" t="n">
-        <v>125000</v>
+        <v>460000</v>
       </c>
       <c r="O315" t="n">
-        <v>130000</v>
+        <v>470000</v>
       </c>
       <c r="P315" t="n">
-        <v>127500</v>
+        <v>465000</v>
       </c>
       <c r="Q315" t="inlineStr">
         <is>
@@ -25586,7 +25586,7 @@
         </is>
       </c>
       <c r="S315" t="n">
-        <v>319</v>
+        <v>1162</v>
       </c>
       <c r="T315" t="n">
         <v>400</v>
@@ -25640,20 +25640,20 @@
       </c>
       <c r="L316" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M316" t="n">
         <v>20</v>
       </c>
       <c r="N316" t="n">
-        <v>105000</v>
+        <v>125000</v>
       </c>
       <c r="O316" t="n">
-        <v>110000</v>
+        <v>130000</v>
       </c>
       <c r="P316" t="n">
-        <v>107500</v>
+        <v>127500</v>
       </c>
       <c r="Q316" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         </is>
       </c>
       <c r="S316" t="n">
-        <v>269</v>
+        <v>319</v>
       </c>
       <c r="T316" t="n">
         <v>400</v>
@@ -25715,25 +25715,25 @@
       </c>
       <c r="K317" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L317" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M317" t="n">
         <v>20</v>
       </c>
       <c r="N317" t="n">
-        <v>125000</v>
+        <v>105000</v>
       </c>
       <c r="O317" t="n">
-        <v>130000</v>
+        <v>110000</v>
       </c>
       <c r="P317" t="n">
-        <v>127500</v>
+        <v>107500</v>
       </c>
       <c r="Q317" t="inlineStr">
         <is>
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="S317" t="n">
-        <v>319</v>
+        <v>269</v>
       </c>
       <c r="T317" t="n">
         <v>400</v>
@@ -25800,20 +25800,20 @@
       </c>
       <c r="L318" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M318" t="n">
         <v>20</v>
       </c>
       <c r="N318" t="n">
-        <v>105000</v>
+        <v>125000</v>
       </c>
       <c r="O318" t="n">
-        <v>110000</v>
+        <v>130000</v>
       </c>
       <c r="P318" t="n">
-        <v>107500</v>
+        <v>127500</v>
       </c>
       <c r="Q318" t="inlineStr">
         <is>
@@ -25826,7 +25826,7 @@
         </is>
       </c>
       <c r="S318" t="n">
-        <v>269</v>
+        <v>319</v>
       </c>
       <c r="T318" t="n">
         <v>400</v>
@@ -25875,25 +25875,25 @@
       </c>
       <c r="K319" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L319" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M319" t="n">
         <v>20</v>
       </c>
       <c r="N319" t="n">
-        <v>115000</v>
+        <v>105000</v>
       </c>
       <c r="O319" t="n">
-        <v>120000</v>
+        <v>110000</v>
       </c>
       <c r="P319" t="n">
-        <v>117500</v>
+        <v>107500</v>
       </c>
       <c r="Q319" t="inlineStr">
         <is>
@@ -25906,7 +25906,7 @@
         </is>
       </c>
       <c r="S319" t="n">
-        <v>294</v>
+        <v>269</v>
       </c>
       <c r="T319" t="n">
         <v>400</v>
@@ -25960,20 +25960,20 @@
       </c>
       <c r="L320" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M320" t="n">
         <v>20</v>
       </c>
       <c r="N320" t="n">
-        <v>95000</v>
+        <v>115000</v>
       </c>
       <c r="O320" t="n">
-        <v>100000</v>
+        <v>120000</v>
       </c>
       <c r="P320" t="n">
-        <v>97500</v>
+        <v>117500</v>
       </c>
       <c r="Q320" t="inlineStr">
         <is>
@@ -25986,7 +25986,7 @@
         </is>
       </c>
       <c r="S320" t="n">
-        <v>244</v>
+        <v>294</v>
       </c>
       <c r="T320" t="n">
         <v>400</v>
@@ -26007,7 +26007,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44308</v>
+        <v>44385</v>
       </c>
       <c r="E321" t="n">
         <v>4</v>
@@ -26035,25 +26035,25 @@
       </c>
       <c r="K321" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L321" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M321" t="n">
         <v>20</v>
       </c>
       <c r="N321" t="n">
-        <v>385000</v>
+        <v>95000</v>
       </c>
       <c r="O321" t="n">
-        <v>390000</v>
+        <v>100000</v>
       </c>
       <c r="P321" t="n">
-        <v>387500</v>
+        <v>97500</v>
       </c>
       <c r="Q321" t="inlineStr">
         <is>
@@ -26066,7 +26066,7 @@
         </is>
       </c>
       <c r="S321" t="n">
-        <v>969</v>
+        <v>244</v>
       </c>
       <c r="T321" t="n">
         <v>400</v>
@@ -26120,20 +26120,20 @@
       </c>
       <c r="L322" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M322" t="n">
         <v>20</v>
       </c>
       <c r="N322" t="n">
-        <v>345000</v>
+        <v>385000</v>
       </c>
       <c r="O322" t="n">
-        <v>350000</v>
+        <v>390000</v>
       </c>
       <c r="P322" t="n">
-        <v>347500</v>
+        <v>387500</v>
       </c>
       <c r="Q322" t="inlineStr">
         <is>
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="S322" t="n">
-        <v>869</v>
+        <v>969</v>
       </c>
       <c r="T322" t="n">
         <v>400</v>
@@ -26195,25 +26195,25 @@
       </c>
       <c r="K323" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L323" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M323" t="n">
         <v>20</v>
       </c>
       <c r="N323" t="n">
-        <v>385000</v>
+        <v>345000</v>
       </c>
       <c r="O323" t="n">
-        <v>390000</v>
+        <v>350000</v>
       </c>
       <c r="P323" t="n">
-        <v>387500</v>
+        <v>347500</v>
       </c>
       <c r="Q323" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         </is>
       </c>
       <c r="S323" t="n">
-        <v>969</v>
+        <v>869</v>
       </c>
       <c r="T323" t="n">
         <v>400</v>
@@ -26280,20 +26280,20 @@
       </c>
       <c r="L324" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M324" t="n">
         <v>20</v>
       </c>
       <c r="N324" t="n">
-        <v>345000</v>
+        <v>385000</v>
       </c>
       <c r="O324" t="n">
-        <v>350000</v>
+        <v>390000</v>
       </c>
       <c r="P324" t="n">
-        <v>347500</v>
+        <v>387500</v>
       </c>
       <c r="Q324" t="inlineStr">
         <is>
@@ -26306,7 +26306,7 @@
         </is>
       </c>
       <c r="S324" t="n">
-        <v>869</v>
+        <v>969</v>
       </c>
       <c r="T324" t="n">
         <v>400</v>
@@ -26355,25 +26355,25 @@
       </c>
       <c r="K325" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L325" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M325" t="n">
         <v>20</v>
       </c>
       <c r="N325" t="n">
-        <v>495000</v>
+        <v>345000</v>
       </c>
       <c r="O325" t="n">
-        <v>500000</v>
+        <v>350000</v>
       </c>
       <c r="P325" t="n">
-        <v>497500</v>
+        <v>347500</v>
       </c>
       <c r="Q325" t="inlineStr">
         <is>
@@ -26386,7 +26386,7 @@
         </is>
       </c>
       <c r="S325" t="n">
-        <v>1244</v>
+        <v>869</v>
       </c>
       <c r="T325" t="n">
         <v>400</v>
@@ -26407,7 +26407,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44350</v>
+        <v>44308</v>
       </c>
       <c r="E326" t="n">
         <v>4</v>
@@ -26435,7 +26435,7 @@
       </c>
       <c r="K326" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L326" t="inlineStr">
@@ -26447,13 +26447,13 @@
         <v>20</v>
       </c>
       <c r="N326" t="n">
-        <v>200000</v>
+        <v>495000</v>
       </c>
       <c r="O326" t="n">
-        <v>210000</v>
+        <v>500000</v>
       </c>
       <c r="P326" t="n">
-        <v>205000</v>
+        <v>497500</v>
       </c>
       <c r="Q326" t="inlineStr">
         <is>
@@ -26466,7 +26466,7 @@
         </is>
       </c>
       <c r="S326" t="n">
-        <v>512</v>
+        <v>1244</v>
       </c>
       <c r="T326" t="n">
         <v>400</v>
@@ -26520,20 +26520,20 @@
       </c>
       <c r="L327" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M327" t="n">
         <v>20</v>
       </c>
       <c r="N327" t="n">
-        <v>170000</v>
+        <v>200000</v>
       </c>
       <c r="O327" t="n">
-        <v>180000</v>
+        <v>210000</v>
       </c>
       <c r="P327" t="n">
-        <v>175000</v>
+        <v>205000</v>
       </c>
       <c r="Q327" t="inlineStr">
         <is>
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="S327" t="n">
-        <v>438</v>
+        <v>512</v>
       </c>
       <c r="T327" t="n">
         <v>400</v>
@@ -26595,25 +26595,25 @@
       </c>
       <c r="K328" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L328" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M328" t="n">
         <v>20</v>
       </c>
       <c r="N328" t="n">
-        <v>200000</v>
+        <v>170000</v>
       </c>
       <c r="O328" t="n">
-        <v>210000</v>
+        <v>180000</v>
       </c>
       <c r="P328" t="n">
-        <v>205000</v>
+        <v>175000</v>
       </c>
       <c r="Q328" t="inlineStr">
         <is>
@@ -26626,7 +26626,7 @@
         </is>
       </c>
       <c r="S328" t="n">
-        <v>512</v>
+        <v>438</v>
       </c>
       <c r="T328" t="n">
         <v>400</v>
@@ -26680,20 +26680,20 @@
       </c>
       <c r="L329" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M329" t="n">
         <v>20</v>
       </c>
       <c r="N329" t="n">
-        <v>170000</v>
+        <v>200000</v>
       </c>
       <c r="O329" t="n">
-        <v>180000</v>
+        <v>210000</v>
       </c>
       <c r="P329" t="n">
-        <v>175000</v>
+        <v>205000</v>
       </c>
       <c r="Q329" t="inlineStr">
         <is>
@@ -26706,7 +26706,7 @@
         </is>
       </c>
       <c r="S329" t="n">
-        <v>438</v>
+        <v>512</v>
       </c>
       <c r="T329" t="n">
         <v>400</v>
@@ -26727,7 +26727,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44405</v>
+        <v>44350</v>
       </c>
       <c r="E330" t="n">
         <v>4</v>
@@ -26755,25 +26755,25 @@
       </c>
       <c r="K330" t="inlineStr">
         <is>
-          <t>Cara cara</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L330" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M330" t="n">
         <v>20</v>
       </c>
       <c r="N330" t="n">
-        <v>115000</v>
+        <v>170000</v>
       </c>
       <c r="O330" t="n">
-        <v>120000</v>
+        <v>180000</v>
       </c>
       <c r="P330" t="n">
-        <v>117500</v>
+        <v>175000</v>
       </c>
       <c r="Q330" t="inlineStr">
         <is>
@@ -26786,7 +26786,7 @@
         </is>
       </c>
       <c r="S330" t="n">
-        <v>294</v>
+        <v>438</v>
       </c>
       <c r="T330" t="n">
         <v>400</v>
@@ -26840,20 +26840,20 @@
       </c>
       <c r="L331" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M331" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N331" t="n">
-        <v>95000</v>
+        <v>115000</v>
       </c>
       <c r="O331" t="n">
-        <v>100000</v>
+        <v>120000</v>
       </c>
       <c r="P331" t="n">
-        <v>97500</v>
+        <v>117500</v>
       </c>
       <c r="Q331" t="inlineStr">
         <is>
@@ -26866,7 +26866,7 @@
         </is>
       </c>
       <c r="S331" t="n">
-        <v>244</v>
+        <v>294</v>
       </c>
       <c r="T331" t="n">
         <v>400</v>
@@ -26915,25 +26915,25 @@
       </c>
       <c r="K332" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Cara cara</t>
         </is>
       </c>
       <c r="L332" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M332" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N332" t="n">
+        <v>95000</v>
+      </c>
+      <c r="O332" t="n">
         <v>100000</v>
       </c>
-      <c r="O332" t="n">
-        <v>110000</v>
-      </c>
       <c r="P332" t="n">
-        <v>105000</v>
+        <v>97500</v>
       </c>
       <c r="Q332" t="inlineStr">
         <is>
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="S332" t="n">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="T332" t="n">
         <v>400</v>
@@ -27000,20 +27000,20 @@
       </c>
       <c r="L333" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M333" t="n">
         <v>20</v>
       </c>
       <c r="N333" t="n">
-        <v>80000</v>
+        <v>100000</v>
       </c>
       <c r="O333" t="n">
-        <v>90000</v>
+        <v>110000</v>
       </c>
       <c r="P333" t="n">
-        <v>85000</v>
+        <v>105000</v>
       </c>
       <c r="Q333" t="inlineStr">
         <is>
@@ -27026,7 +27026,7 @@
         </is>
       </c>
       <c r="S333" t="n">
-        <v>212</v>
+        <v>262</v>
       </c>
       <c r="T333" t="n">
         <v>400</v>
@@ -27075,25 +27075,25 @@
       </c>
       <c r="K334" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L334" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M334" t="n">
         <v>20</v>
       </c>
       <c r="N334" t="n">
-        <v>100000</v>
+        <v>80000</v>
       </c>
       <c r="O334" t="n">
-        <v>110000</v>
+        <v>90000</v>
       </c>
       <c r="P334" t="n">
-        <v>105000</v>
+        <v>85000</v>
       </c>
       <c r="Q334" t="inlineStr">
         <is>
@@ -27106,7 +27106,7 @@
         </is>
       </c>
       <c r="S334" t="n">
-        <v>262</v>
+        <v>212</v>
       </c>
       <c r="T334" t="n">
         <v>400</v>
@@ -27160,20 +27160,20 @@
       </c>
       <c r="L335" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M335" t="n">
         <v>20</v>
       </c>
       <c r="N335" t="n">
-        <v>80000</v>
+        <v>100000</v>
       </c>
       <c r="O335" t="n">
-        <v>90000</v>
+        <v>110000</v>
       </c>
       <c r="P335" t="n">
-        <v>85000</v>
+        <v>105000</v>
       </c>
       <c r="Q335" t="inlineStr">
         <is>
@@ -27186,7 +27186,7 @@
         </is>
       </c>
       <c r="S335" t="n">
-        <v>212</v>
+        <v>262</v>
       </c>
       <c r="T335" t="n">
         <v>400</v>
@@ -27207,7 +27207,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44413</v>
+        <v>44405</v>
       </c>
       <c r="E336" t="n">
         <v>4</v>
@@ -27235,25 +27235,25 @@
       </c>
       <c r="K336" t="inlineStr">
         <is>
-          <t>Cara cara</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L336" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M336" t="n">
         <v>20</v>
       </c>
       <c r="N336" t="n">
-        <v>110000</v>
+        <v>80000</v>
       </c>
       <c r="O336" t="n">
-        <v>115000</v>
+        <v>90000</v>
       </c>
       <c r="P336" t="n">
-        <v>112500</v>
+        <v>85000</v>
       </c>
       <c r="Q336" t="inlineStr">
         <is>
@@ -27266,7 +27266,7 @@
         </is>
       </c>
       <c r="S336" t="n">
-        <v>281</v>
+        <v>212</v>
       </c>
       <c r="T336" t="n">
         <v>400</v>
@@ -27320,20 +27320,20 @@
       </c>
       <c r="L337" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M337" t="n">
         <v>20</v>
       </c>
       <c r="N337" t="n">
-        <v>80000</v>
+        <v>110000</v>
       </c>
       <c r="O337" t="n">
-        <v>85000</v>
+        <v>115000</v>
       </c>
       <c r="P337" t="n">
-        <v>82500</v>
+        <v>112500</v>
       </c>
       <c r="Q337" t="inlineStr">
         <is>
@@ -27346,7 +27346,7 @@
         </is>
       </c>
       <c r="S337" t="n">
-        <v>206</v>
+        <v>281</v>
       </c>
       <c r="T337" t="n">
         <v>400</v>
@@ -27395,25 +27395,25 @@
       </c>
       <c r="K338" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Cara cara</t>
         </is>
       </c>
       <c r="L338" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M338" t="n">
         <v>20</v>
       </c>
       <c r="N338" t="n">
-        <v>105000</v>
+        <v>80000</v>
       </c>
       <c r="O338" t="n">
-        <v>110000</v>
+        <v>85000</v>
       </c>
       <c r="P338" t="n">
-        <v>107500</v>
+        <v>82500</v>
       </c>
       <c r="Q338" t="inlineStr">
         <is>
@@ -27426,7 +27426,7 @@
         </is>
       </c>
       <c r="S338" t="n">
-        <v>269</v>
+        <v>206</v>
       </c>
       <c r="T338" t="n">
         <v>400</v>
@@ -27480,20 +27480,20 @@
       </c>
       <c r="L339" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M339" t="n">
         <v>20</v>
       </c>
       <c r="N339" t="n">
-        <v>70000</v>
+        <v>105000</v>
       </c>
       <c r="O339" t="n">
-        <v>75000</v>
+        <v>110000</v>
       </c>
       <c r="P339" t="n">
-        <v>72500</v>
+        <v>107500</v>
       </c>
       <c r="Q339" t="inlineStr">
         <is>
@@ -27506,7 +27506,7 @@
         </is>
       </c>
       <c r="S339" t="n">
-        <v>181</v>
+        <v>269</v>
       </c>
       <c r="T339" t="n">
         <v>400</v>
@@ -27555,25 +27555,25 @@
       </c>
       <c r="K340" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L340" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M340" t="n">
         <v>20</v>
       </c>
       <c r="N340" t="n">
-        <v>110000</v>
+        <v>70000</v>
       </c>
       <c r="O340" t="n">
-        <v>115000</v>
+        <v>75000</v>
       </c>
       <c r="P340" t="n">
-        <v>112500</v>
+        <v>72500</v>
       </c>
       <c r="Q340" t="inlineStr">
         <is>
@@ -27586,7 +27586,7 @@
         </is>
       </c>
       <c r="S340" t="n">
-        <v>281</v>
+        <v>181</v>
       </c>
       <c r="T340" t="n">
         <v>400</v>
@@ -27640,20 +27640,20 @@
       </c>
       <c r="L341" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M341" t="n">
         <v>20</v>
       </c>
       <c r="N341" t="n">
-        <v>80000</v>
+        <v>110000</v>
       </c>
       <c r="O341" t="n">
-        <v>85000</v>
+        <v>115000</v>
       </c>
       <c r="P341" t="n">
-        <v>82500</v>
+        <v>112500</v>
       </c>
       <c r="Q341" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         </is>
       </c>
       <c r="S341" t="n">
-        <v>206</v>
+        <v>281</v>
       </c>
       <c r="T341" t="n">
         <v>400</v>
@@ -27715,25 +27715,25 @@
       </c>
       <c r="K342" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L342" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M342" t="n">
         <v>20</v>
       </c>
       <c r="N342" t="n">
-        <v>110000</v>
+        <v>80000</v>
       </c>
       <c r="O342" t="n">
-        <v>120000</v>
+        <v>85000</v>
       </c>
       <c r="P342" t="n">
-        <v>115000</v>
+        <v>82500</v>
       </c>
       <c r="Q342" t="inlineStr">
         <is>
@@ -27746,7 +27746,7 @@
         </is>
       </c>
       <c r="S342" t="n">
-        <v>288</v>
+        <v>206</v>
       </c>
       <c r="T342" t="n">
         <v>400</v>
@@ -27800,20 +27800,20 @@
       </c>
       <c r="L343" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M343" t="n">
         <v>20</v>
       </c>
       <c r="N343" t="n">
-        <v>80000</v>
+        <v>110000</v>
       </c>
       <c r="O343" t="n">
-        <v>90000</v>
+        <v>120000</v>
       </c>
       <c r="P343" t="n">
-        <v>85000</v>
+        <v>115000</v>
       </c>
       <c r="Q343" t="inlineStr">
         <is>
@@ -27826,7 +27826,7 @@
         </is>
       </c>
       <c r="S343" t="n">
-        <v>212</v>
+        <v>288</v>
       </c>
       <c r="T343" t="n">
         <v>400</v>
@@ -27847,7 +27847,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44238</v>
+        <v>44413</v>
       </c>
       <c r="E344" t="n">
         <v>4</v>
@@ -27875,25 +27875,25 @@
       </c>
       <c r="K344" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L344" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M344" t="n">
         <v>20</v>
       </c>
       <c r="N344" t="n">
-        <v>485000</v>
+        <v>80000</v>
       </c>
       <c r="O344" t="n">
-        <v>490000</v>
+        <v>90000</v>
       </c>
       <c r="P344" t="n">
-        <v>487500</v>
+        <v>85000</v>
       </c>
       <c r="Q344" t="inlineStr">
         <is>
@@ -27906,7 +27906,7 @@
         </is>
       </c>
       <c r="S344" t="n">
-        <v>1219</v>
+        <v>212</v>
       </c>
       <c r="T344" t="n">
         <v>400</v>
@@ -27960,20 +27960,20 @@
       </c>
       <c r="L345" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M345" t="n">
         <v>20</v>
       </c>
       <c r="N345" t="n">
-        <v>455000</v>
+        <v>485000</v>
       </c>
       <c r="O345" t="n">
-        <v>460000</v>
+        <v>490000</v>
       </c>
       <c r="P345" t="n">
-        <v>457500</v>
+        <v>487500</v>
       </c>
       <c r="Q345" t="inlineStr">
         <is>
@@ -27986,7 +27986,7 @@
         </is>
       </c>
       <c r="S345" t="n">
-        <v>1144</v>
+        <v>1219</v>
       </c>
       <c r="T345" t="n">
         <v>400</v>
@@ -28007,7 +28007,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44175</v>
+        <v>44238</v>
       </c>
       <c r="E346" t="n">
         <v>4</v>
@@ -28035,25 +28035,25 @@
       </c>
       <c r="K346" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L346" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M346" t="n">
         <v>20</v>
       </c>
       <c r="N346" t="n">
-        <v>325000</v>
+        <v>455000</v>
       </c>
       <c r="O346" t="n">
-        <v>330000</v>
+        <v>460000</v>
       </c>
       <c r="P346" t="n">
-        <v>327500</v>
+        <v>457500</v>
       </c>
       <c r="Q346" t="inlineStr">
         <is>
@@ -28066,7 +28066,7 @@
         </is>
       </c>
       <c r="S346" t="n">
-        <v>819</v>
+        <v>1144</v>
       </c>
       <c r="T346" t="n">
         <v>400</v>
@@ -28120,20 +28120,20 @@
       </c>
       <c r="L347" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M347" t="n">
         <v>20</v>
       </c>
       <c r="N347" t="n">
-        <v>265000</v>
+        <v>325000</v>
       </c>
       <c r="O347" t="n">
-        <v>270000</v>
+        <v>330000</v>
       </c>
       <c r="P347" t="n">
-        <v>267500</v>
+        <v>327500</v>
       </c>
       <c r="Q347" t="inlineStr">
         <is>
@@ -28146,7 +28146,7 @@
         </is>
       </c>
       <c r="S347" t="n">
-        <v>669</v>
+        <v>819</v>
       </c>
       <c r="T347" t="n">
         <v>400</v>
@@ -28195,25 +28195,25 @@
       </c>
       <c r="K348" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L348" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M348" t="n">
         <v>20</v>
       </c>
       <c r="N348" t="n">
-        <v>335000</v>
+        <v>265000</v>
       </c>
       <c r="O348" t="n">
-        <v>340000</v>
+        <v>270000</v>
       </c>
       <c r="P348" t="n">
-        <v>337500</v>
+        <v>267500</v>
       </c>
       <c r="Q348" t="inlineStr">
         <is>
@@ -28226,7 +28226,7 @@
         </is>
       </c>
       <c r="S348" t="n">
-        <v>844</v>
+        <v>669</v>
       </c>
       <c r="T348" t="n">
         <v>400</v>
@@ -28280,20 +28280,20 @@
       </c>
       <c r="L349" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M349" t="n">
         <v>20</v>
       </c>
       <c r="N349" t="n">
-        <v>285000</v>
+        <v>335000</v>
       </c>
       <c r="O349" t="n">
-        <v>290000</v>
+        <v>340000</v>
       </c>
       <c r="P349" t="n">
-        <v>287500</v>
+        <v>337500</v>
       </c>
       <c r="Q349" t="inlineStr">
         <is>
@@ -28306,7 +28306,7 @@
         </is>
       </c>
       <c r="S349" t="n">
-        <v>719</v>
+        <v>844</v>
       </c>
       <c r="T349" t="n">
         <v>400</v>
@@ -28327,7 +28327,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44188</v>
+        <v>44175</v>
       </c>
       <c r="E350" t="n">
         <v>4</v>
@@ -28360,20 +28360,20 @@
       </c>
       <c r="L350" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M350" t="n">
         <v>20</v>
       </c>
       <c r="N350" t="n">
-        <v>375000</v>
+        <v>285000</v>
       </c>
       <c r="O350" t="n">
-        <v>380000</v>
+        <v>290000</v>
       </c>
       <c r="P350" t="n">
-        <v>377500</v>
+        <v>287500</v>
       </c>
       <c r="Q350" t="inlineStr">
         <is>
@@ -28386,7 +28386,7 @@
         </is>
       </c>
       <c r="S350" t="n">
-        <v>944</v>
+        <v>719</v>
       </c>
       <c r="T350" t="n">
         <v>400</v>
@@ -28440,20 +28440,20 @@
       </c>
       <c r="L351" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M351" t="n">
         <v>20</v>
       </c>
       <c r="N351" t="n">
-        <v>335000</v>
+        <v>375000</v>
       </c>
       <c r="O351" t="n">
-        <v>340000</v>
+        <v>380000</v>
       </c>
       <c r="P351" t="n">
-        <v>337500</v>
+        <v>377500</v>
       </c>
       <c r="Q351" t="inlineStr">
         <is>
@@ -28466,7 +28466,7 @@
         </is>
       </c>
       <c r="S351" t="n">
-        <v>844</v>
+        <v>944</v>
       </c>
       <c r="T351" t="n">
         <v>400</v>
@@ -28487,7 +28487,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E352" t="n">
         <v>4</v>
@@ -28520,20 +28520,20 @@
       </c>
       <c r="L352" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M352" t="n">
         <v>20</v>
       </c>
       <c r="N352" t="n">
-        <v>455000</v>
+        <v>335000</v>
       </c>
       <c r="O352" t="n">
-        <v>460000</v>
+        <v>340000</v>
       </c>
       <c r="P352" t="n">
-        <v>457500</v>
+        <v>337500</v>
       </c>
       <c r="Q352" t="inlineStr">
         <is>
@@ -28546,7 +28546,7 @@
         </is>
       </c>
       <c r="S352" t="n">
-        <v>1144</v>
+        <v>844</v>
       </c>
       <c r="T352" t="n">
         <v>400</v>
@@ -28600,20 +28600,20 @@
       </c>
       <c r="L353" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M353" t="n">
         <v>20</v>
       </c>
       <c r="N353" t="n">
-        <v>415000</v>
+        <v>455000</v>
       </c>
       <c r="O353" t="n">
-        <v>420000</v>
+        <v>460000</v>
       </c>
       <c r="P353" t="n">
-        <v>417500</v>
+        <v>457500</v>
       </c>
       <c r="Q353" t="inlineStr">
         <is>
@@ -28626,7 +28626,7 @@
         </is>
       </c>
       <c r="S353" t="n">
-        <v>1044</v>
+        <v>1144</v>
       </c>
       <c r="T353" t="n">
         <v>400</v>
@@ -28647,7 +28647,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44224</v>
+        <v>44258</v>
       </c>
       <c r="E354" t="n">
         <v>4</v>
@@ -28680,20 +28680,20 @@
       </c>
       <c r="L354" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M354" t="n">
         <v>20</v>
       </c>
       <c r="N354" t="n">
-        <v>515000</v>
+        <v>415000</v>
       </c>
       <c r="O354" t="n">
-        <v>520000</v>
+        <v>420000</v>
       </c>
       <c r="P354" t="n">
-        <v>517500</v>
+        <v>417500</v>
       </c>
       <c r="Q354" t="inlineStr">
         <is>
@@ -28706,7 +28706,7 @@
         </is>
       </c>
       <c r="S354" t="n">
-        <v>1294</v>
+        <v>1044</v>
       </c>
       <c r="T354" t="n">
         <v>400</v>
@@ -28760,20 +28760,20 @@
       </c>
       <c r="L355" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M355" t="n">
         <v>20</v>
       </c>
       <c r="N355" t="n">
-        <v>495000</v>
+        <v>515000</v>
       </c>
       <c r="O355" t="n">
-        <v>500000</v>
+        <v>520000</v>
       </c>
       <c r="P355" t="n">
-        <v>497500</v>
+        <v>517500</v>
       </c>
       <c r="Q355" t="inlineStr">
         <is>
@@ -28786,7 +28786,7 @@
         </is>
       </c>
       <c r="S355" t="n">
-        <v>1244</v>
+        <v>1294</v>
       </c>
       <c r="T355" t="n">
         <v>400</v>
@@ -28807,7 +28807,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44329</v>
+        <v>44224</v>
       </c>
       <c r="E356" t="n">
         <v>4</v>
@@ -28835,7 +28835,7 @@
       </c>
       <c r="K356" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L356" t="inlineStr">
@@ -28847,13 +28847,13 @@
         <v>20</v>
       </c>
       <c r="N356" t="n">
-        <v>270000</v>
+        <v>495000</v>
       </c>
       <c r="O356" t="n">
-        <v>280000</v>
+        <v>500000</v>
       </c>
       <c r="P356" t="n">
-        <v>275000</v>
+        <v>497500</v>
       </c>
       <c r="Q356" t="inlineStr">
         <is>
@@ -28866,7 +28866,7 @@
         </is>
       </c>
       <c r="S356" t="n">
-        <v>688</v>
+        <v>1244</v>
       </c>
       <c r="T356" t="n">
         <v>400</v>
@@ -28915,7 +28915,7 @@
       </c>
       <c r="K357" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L357" t="inlineStr">
@@ -28967,7 +28967,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44195</v>
+        <v>44329</v>
       </c>
       <c r="E358" t="n">
         <v>4</v>
@@ -28995,7 +28995,7 @@
       </c>
       <c r="K358" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L358" t="inlineStr">
@@ -29004,16 +29004,16 @@
         </is>
       </c>
       <c r="M358" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N358" t="n">
-        <v>390000</v>
+        <v>270000</v>
       </c>
       <c r="O358" t="n">
-        <v>400000</v>
+        <v>280000</v>
       </c>
       <c r="P358" t="n">
-        <v>395000</v>
+        <v>275000</v>
       </c>
       <c r="Q358" t="inlineStr">
         <is>
@@ -29026,7 +29026,7 @@
         </is>
       </c>
       <c r="S358" t="n">
-        <v>988</v>
+        <v>688</v>
       </c>
       <c r="T358" t="n">
         <v>400</v>
@@ -29047,7 +29047,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44398</v>
+        <v>44195</v>
       </c>
       <c r="E359" t="n">
         <v>4</v>
@@ -29075,7 +29075,7 @@
       </c>
       <c r="K359" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L359" t="inlineStr">
@@ -29084,16 +29084,16 @@
         </is>
       </c>
       <c r="M359" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N359" t="n">
-        <v>100000</v>
+        <v>390000</v>
       </c>
       <c r="O359" t="n">
-        <v>110000</v>
+        <v>400000</v>
       </c>
       <c r="P359" t="n">
-        <v>105000</v>
+        <v>395000</v>
       </c>
       <c r="Q359" t="inlineStr">
         <is>
@@ -29106,7 +29106,7 @@
         </is>
       </c>
       <c r="S359" t="n">
-        <v>262</v>
+        <v>988</v>
       </c>
       <c r="T359" t="n">
         <v>400</v>
@@ -29160,20 +29160,20 @@
       </c>
       <c r="L360" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M360" t="n">
         <v>20</v>
       </c>
       <c r="N360" t="n">
-        <v>80000</v>
+        <v>100000</v>
       </c>
       <c r="O360" t="n">
-        <v>90000</v>
+        <v>110000</v>
       </c>
       <c r="P360" t="n">
-        <v>85000</v>
+        <v>105000</v>
       </c>
       <c r="Q360" t="inlineStr">
         <is>
@@ -29186,7 +29186,7 @@
         </is>
       </c>
       <c r="S360" t="n">
-        <v>212</v>
+        <v>262</v>
       </c>
       <c r="T360" t="n">
         <v>400</v>
@@ -29235,25 +29235,25 @@
       </c>
       <c r="K361" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L361" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M361" t="n">
         <v>20</v>
       </c>
       <c r="N361" t="n">
-        <v>100000</v>
+        <v>80000</v>
       </c>
       <c r="O361" t="n">
-        <v>110000</v>
+        <v>90000</v>
       </c>
       <c r="P361" t="n">
-        <v>105000</v>
+        <v>85000</v>
       </c>
       <c r="Q361" t="inlineStr">
         <is>
@@ -29266,7 +29266,7 @@
         </is>
       </c>
       <c r="S361" t="n">
-        <v>262</v>
+        <v>212</v>
       </c>
       <c r="T361" t="n">
         <v>400</v>
@@ -29315,7 +29315,7 @@
       </c>
       <c r="K362" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L362" t="inlineStr">
@@ -29400,20 +29400,20 @@
       </c>
       <c r="L363" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M363" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N363" t="n">
-        <v>80000</v>
+        <v>100000</v>
       </c>
       <c r="O363" t="n">
-        <v>90000</v>
+        <v>110000</v>
       </c>
       <c r="P363" t="n">
-        <v>85000</v>
+        <v>105000</v>
       </c>
       <c r="Q363" t="inlineStr">
         <is>
@@ -29426,7 +29426,7 @@
         </is>
       </c>
       <c r="S363" t="n">
-        <v>212</v>
+        <v>262</v>
       </c>
       <c r="T363" t="n">
         <v>400</v>
@@ -29447,7 +29447,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44461</v>
+        <v>44398</v>
       </c>
       <c r="E364" t="n">
         <v>4</v>
@@ -29475,25 +29475,25 @@
       </c>
       <c r="K364" t="inlineStr">
         <is>
-          <t>Cara cara</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L364" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M364" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N364" t="n">
-        <v>110000</v>
+        <v>80000</v>
       </c>
       <c r="O364" t="n">
-        <v>120000</v>
+        <v>90000</v>
       </c>
       <c r="P364" t="n">
-        <v>115000</v>
+        <v>85000</v>
       </c>
       <c r="Q364" t="inlineStr">
         <is>
@@ -29506,7 +29506,7 @@
         </is>
       </c>
       <c r="S364" t="n">
-        <v>288</v>
+        <v>212</v>
       </c>
       <c r="T364" t="n">
         <v>400</v>
@@ -29560,20 +29560,20 @@
       </c>
       <c r="L365" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M365" t="n">
         <v>20</v>
       </c>
       <c r="N365" t="n">
-        <v>90000</v>
+        <v>110000</v>
       </c>
       <c r="O365" t="n">
-        <v>100000</v>
+        <v>120000</v>
       </c>
       <c r="P365" t="n">
-        <v>95000</v>
+        <v>115000</v>
       </c>
       <c r="Q365" t="inlineStr">
         <is>
@@ -29586,7 +29586,7 @@
         </is>
       </c>
       <c r="S365" t="n">
-        <v>238</v>
+        <v>288</v>
       </c>
       <c r="T365" t="n">
         <v>400</v>
@@ -29635,25 +29635,25 @@
       </c>
       <c r="K366" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Cara cara</t>
         </is>
       </c>
       <c r="L366" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M366" t="n">
         <v>20</v>
       </c>
       <c r="N366" t="n">
+        <v>90000</v>
+      </c>
+      <c r="O366" t="n">
         <v>100000</v>
       </c>
-      <c r="O366" t="n">
-        <v>110000</v>
-      </c>
       <c r="P366" t="n">
-        <v>105000</v>
+        <v>95000</v>
       </c>
       <c r="Q366" t="inlineStr">
         <is>
@@ -29666,7 +29666,7 @@
         </is>
       </c>
       <c r="S366" t="n">
-        <v>262</v>
+        <v>238</v>
       </c>
       <c r="T366" t="n">
         <v>400</v>
@@ -29720,20 +29720,20 @@
       </c>
       <c r="L367" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M367" t="n">
         <v>20</v>
       </c>
       <c r="N367" t="n">
-        <v>80000</v>
+        <v>100000</v>
       </c>
       <c r="O367" t="n">
-        <v>90000</v>
+        <v>110000</v>
       </c>
       <c r="P367" t="n">
-        <v>85000</v>
+        <v>105000</v>
       </c>
       <c r="Q367" t="inlineStr">
         <is>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="S367" t="n">
-        <v>212</v>
+        <v>262</v>
       </c>
       <c r="T367" t="n">
         <v>400</v>
@@ -29767,7 +29767,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E368" t="n">
         <v>4</v>
@@ -29795,25 +29795,25 @@
       </c>
       <c r="K368" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L368" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M368" t="n">
         <v>20</v>
       </c>
       <c r="N368" t="n">
-        <v>145000</v>
+        <v>80000</v>
       </c>
       <c r="O368" t="n">
-        <v>150000</v>
+        <v>90000</v>
       </c>
       <c r="P368" t="n">
-        <v>147500</v>
+        <v>85000</v>
       </c>
       <c r="Q368" t="inlineStr">
         <is>
@@ -29826,7 +29826,7 @@
         </is>
       </c>
       <c r="S368" t="n">
-        <v>369</v>
+        <v>212</v>
       </c>
       <c r="T368" t="n">
         <v>400</v>
@@ -29880,20 +29880,20 @@
       </c>
       <c r="L369" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M369" t="n">
         <v>20</v>
       </c>
       <c r="N369" t="n">
-        <v>115000</v>
+        <v>145000</v>
       </c>
       <c r="O369" t="n">
-        <v>120000</v>
+        <v>150000</v>
       </c>
       <c r="P369" t="n">
-        <v>117500</v>
+        <v>147500</v>
       </c>
       <c r="Q369" t="inlineStr">
         <is>
@@ -29906,7 +29906,7 @@
         </is>
       </c>
       <c r="S369" t="n">
-        <v>294</v>
+        <v>369</v>
       </c>
       <c r="T369" t="n">
         <v>400</v>
@@ -29955,25 +29955,25 @@
       </c>
       <c r="K370" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L370" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M370" t="n">
         <v>20</v>
       </c>
       <c r="N370" t="n">
-        <v>145000</v>
+        <v>115000</v>
       </c>
       <c r="O370" t="n">
-        <v>150000</v>
+        <v>120000</v>
       </c>
       <c r="P370" t="n">
-        <v>147500</v>
+        <v>117500</v>
       </c>
       <c r="Q370" t="inlineStr">
         <is>
@@ -29986,7 +29986,7 @@
         </is>
       </c>
       <c r="S370" t="n">
-        <v>369</v>
+        <v>294</v>
       </c>
       <c r="T370" t="n">
         <v>400</v>
@@ -30040,20 +30040,20 @@
       </c>
       <c r="L371" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M371" t="n">
         <v>20</v>
       </c>
       <c r="N371" t="n">
-        <v>115000</v>
+        <v>145000</v>
       </c>
       <c r="O371" t="n">
-        <v>120000</v>
+        <v>150000</v>
       </c>
       <c r="P371" t="n">
-        <v>117500</v>
+        <v>147500</v>
       </c>
       <c r="Q371" t="inlineStr">
         <is>
@@ -30066,7 +30066,7 @@
         </is>
       </c>
       <c r="S371" t="n">
-        <v>294</v>
+        <v>369</v>
       </c>
       <c r="T371" t="n">
         <v>400</v>
@@ -30087,7 +30087,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44371</v>
+        <v>44357</v>
       </c>
       <c r="E372" t="n">
         <v>4</v>
@@ -30115,25 +30115,25 @@
       </c>
       <c r="K372" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L372" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M372" t="n">
         <v>20</v>
       </c>
       <c r="N372" t="n">
-        <v>125000</v>
+        <v>115000</v>
       </c>
       <c r="O372" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="P372" t="n">
-        <v>127500</v>
+        <v>117500</v>
       </c>
       <c r="Q372" t="inlineStr">
         <is>
@@ -30146,7 +30146,7 @@
         </is>
       </c>
       <c r="S372" t="n">
-        <v>319</v>
+        <v>294</v>
       </c>
       <c r="T372" t="n">
         <v>400</v>
@@ -30200,20 +30200,20 @@
       </c>
       <c r="L373" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M373" t="n">
         <v>20</v>
       </c>
       <c r="N373" t="n">
-        <v>105000</v>
+        <v>125000</v>
       </c>
       <c r="O373" t="n">
-        <v>110000</v>
+        <v>130000</v>
       </c>
       <c r="P373" t="n">
-        <v>107500</v>
+        <v>127500</v>
       </c>
       <c r="Q373" t="inlineStr">
         <is>
@@ -30226,7 +30226,7 @@
         </is>
       </c>
       <c r="S373" t="n">
-        <v>269</v>
+        <v>319</v>
       </c>
       <c r="T373" t="n">
         <v>400</v>
@@ -30275,25 +30275,25 @@
       </c>
       <c r="K374" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L374" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M374" t="n">
         <v>20</v>
       </c>
       <c r="N374" t="n">
-        <v>155000</v>
+        <v>105000</v>
       </c>
       <c r="O374" t="n">
-        <v>160000</v>
+        <v>110000</v>
       </c>
       <c r="P374" t="n">
-        <v>157500</v>
+        <v>107500</v>
       </c>
       <c r="Q374" t="inlineStr">
         <is>
@@ -30306,7 +30306,7 @@
         </is>
       </c>
       <c r="S374" t="n">
-        <v>394</v>
+        <v>269</v>
       </c>
       <c r="T374" t="n">
         <v>400</v>
@@ -30360,20 +30360,20 @@
       </c>
       <c r="L375" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M375" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N375" t="n">
-        <v>135000</v>
+        <v>155000</v>
       </c>
       <c r="O375" t="n">
-        <v>140000</v>
+        <v>160000</v>
       </c>
       <c r="P375" t="n">
-        <v>137500</v>
+        <v>157500</v>
       </c>
       <c r="Q375" t="inlineStr">
         <is>
@@ -30386,7 +30386,7 @@
         </is>
       </c>
       <c r="S375" t="n">
-        <v>344</v>
+        <v>394</v>
       </c>
       <c r="T375" t="n">
         <v>400</v>
@@ -30440,20 +30440,20 @@
       </c>
       <c r="L376" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M376" t="n">
         <v>16</v>
       </c>
       <c r="N376" t="n">
-        <v>115000</v>
+        <v>135000</v>
       </c>
       <c r="O376" t="n">
-        <v>120000</v>
+        <v>140000</v>
       </c>
       <c r="P376" t="n">
-        <v>117500</v>
+        <v>137500</v>
       </c>
       <c r="Q376" t="inlineStr">
         <is>
@@ -30466,7 +30466,7 @@
         </is>
       </c>
       <c r="S376" t="n">
-        <v>294</v>
+        <v>344</v>
       </c>
       <c r="T376" t="n">
         <v>400</v>
@@ -30515,25 +30515,25 @@
       </c>
       <c r="K377" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L377" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M377" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N377" t="n">
-        <v>135000</v>
+        <v>115000</v>
       </c>
       <c r="O377" t="n">
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="P377" t="n">
-        <v>137500</v>
+        <v>117500</v>
       </c>
       <c r="Q377" t="inlineStr">
         <is>
@@ -30546,7 +30546,7 @@
         </is>
       </c>
       <c r="S377" t="n">
-        <v>344</v>
+        <v>294</v>
       </c>
       <c r="T377" t="n">
         <v>400</v>
@@ -30600,20 +30600,20 @@
       </c>
       <c r="L378" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M378" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N378" t="n">
-        <v>115000</v>
+        <v>135000</v>
       </c>
       <c r="O378" t="n">
-        <v>120000</v>
+        <v>140000</v>
       </c>
       <c r="P378" t="n">
-        <v>117500</v>
+        <v>137500</v>
       </c>
       <c r="Q378" t="inlineStr">
         <is>
@@ -30626,7 +30626,7 @@
         </is>
       </c>
       <c r="S378" t="n">
-        <v>294</v>
+        <v>344</v>
       </c>
       <c r="T378" t="n">
         <v>400</v>
@@ -30647,7 +30647,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44454</v>
+        <v>44371</v>
       </c>
       <c r="E379" t="n">
         <v>4</v>
@@ -30675,25 +30675,25 @@
       </c>
       <c r="K379" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L379" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M379" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N379" t="n">
-        <v>100000</v>
+        <v>115000</v>
       </c>
       <c r="O379" t="n">
-        <v>110000</v>
+        <v>120000</v>
       </c>
       <c r="P379" t="n">
-        <v>105000</v>
+        <v>117500</v>
       </c>
       <c r="Q379" t="inlineStr">
         <is>
@@ -30706,7 +30706,7 @@
         </is>
       </c>
       <c r="S379" t="n">
-        <v>262</v>
+        <v>294</v>
       </c>
       <c r="T379" t="n">
         <v>400</v>
@@ -30760,20 +30760,20 @@
       </c>
       <c r="L380" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M380" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="N380" t="n">
-        <v>80000</v>
+        <v>100000</v>
       </c>
       <c r="O380" t="n">
-        <v>90000</v>
+        <v>110000</v>
       </c>
       <c r="P380" t="n">
-        <v>86429</v>
+        <v>105000</v>
       </c>
       <c r="Q380" t="inlineStr">
         <is>
@@ -30786,7 +30786,7 @@
         </is>
       </c>
       <c r="S380" t="n">
-        <v>216</v>
+        <v>262</v>
       </c>
       <c r="T380" t="n">
         <v>400</v>
@@ -30835,25 +30835,25 @@
       </c>
       <c r="K381" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L381" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M381" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N381" t="n">
-        <v>100000</v>
+        <v>80000</v>
       </c>
       <c r="O381" t="n">
-        <v>110000</v>
+        <v>90000</v>
       </c>
       <c r="P381" t="n">
-        <v>105000</v>
+        <v>86429</v>
       </c>
       <c r="Q381" t="inlineStr">
         <is>
@@ -30866,7 +30866,7 @@
         </is>
       </c>
       <c r="S381" t="n">
-        <v>262</v>
+        <v>216</v>
       </c>
       <c r="T381" t="n">
         <v>400</v>
@@ -30920,20 +30920,20 @@
       </c>
       <c r="L382" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M382" t="n">
         <v>20</v>
       </c>
       <c r="N382" t="n">
-        <v>80000</v>
+        <v>100000</v>
       </c>
       <c r="O382" t="n">
-        <v>90000</v>
+        <v>110000</v>
       </c>
       <c r="P382" t="n">
-        <v>85000</v>
+        <v>105000</v>
       </c>
       <c r="Q382" t="inlineStr">
         <is>
@@ -30946,7 +30946,7 @@
         </is>
       </c>
       <c r="S382" t="n">
-        <v>212</v>
+        <v>262</v>
       </c>
       <c r="T382" t="n">
         <v>400</v>
@@ -30967,7 +30967,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44272</v>
+        <v>44454</v>
       </c>
       <c r="E383" t="n">
         <v>4</v>
@@ -30995,25 +30995,25 @@
       </c>
       <c r="K383" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L383" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M383" t="n">
         <v>20</v>
       </c>
       <c r="N383" t="n">
-        <v>455000</v>
+        <v>80000</v>
       </c>
       <c r="O383" t="n">
-        <v>460000</v>
+        <v>90000</v>
       </c>
       <c r="P383" t="n">
-        <v>457500</v>
+        <v>85000</v>
       </c>
       <c r="Q383" t="inlineStr">
         <is>
@@ -31026,7 +31026,7 @@
         </is>
       </c>
       <c r="S383" t="n">
-        <v>1144</v>
+        <v>212</v>
       </c>
       <c r="T383" t="n">
         <v>400</v>
@@ -31080,35 +31080,115 @@
       </c>
       <c r="L384" t="inlineStr">
         <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M384" t="n">
+        <v>20</v>
+      </c>
+      <c r="N384" t="n">
+        <v>455000</v>
+      </c>
+      <c r="O384" t="n">
+        <v>460000</v>
+      </c>
+      <c r="P384" t="n">
+        <v>457500</v>
+      </c>
+      <c r="Q384" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R384" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S384" t="n">
+        <v>1144</v>
+      </c>
+      <c r="T384" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>2</v>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D385" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E385" t="n">
+        <v>4</v>
+      </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G385" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H385" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I385" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J385" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="L385" t="inlineStr">
+        <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M384" t="n">
-        <v>20</v>
-      </c>
-      <c r="N384" t="n">
+      <c r="M385" t="n">
+        <v>20</v>
+      </c>
+      <c r="N385" t="n">
         <v>415000</v>
       </c>
-      <c r="O384" t="n">
+      <c r="O385" t="n">
         <v>420000</v>
       </c>
-      <c r="P384" t="n">
+      <c r="P385" t="n">
         <v>417500</v>
       </c>
-      <c r="Q384" t="inlineStr">
-        <is>
-          <t>$/bins (400 kilos)</t>
-        </is>
-      </c>
-      <c r="R384" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="S384" t="n">
+      <c r="Q385" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R385" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S385" t="n">
         <v>1044</v>
       </c>
-      <c r="T384" t="n">
+      <c r="T385" t="n">
         <v>400</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Comercializadora del Agro de Limarí - Naranja.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Comercializadora del Agro de Limarí - Naranja.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T386"/>
+  <dimension ref="A1:T387"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21287,7 +21287,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44167</v>
+        <v>44553</v>
       </c>
       <c r="E262" t="n">
         <v>4</v>
@@ -21315,7 +21315,7 @@
       </c>
       <c r="K262" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L262" t="inlineStr">
@@ -21324,16 +21324,16 @@
         </is>
       </c>
       <c r="M262" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N262" t="n">
-        <v>320000</v>
+        <v>210000</v>
       </c>
       <c r="O262" t="n">
-        <v>330000</v>
+        <v>220000</v>
       </c>
       <c r="P262" t="n">
-        <v>325000</v>
+        <v>215000</v>
       </c>
       <c r="Q262" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="S262" t="n">
-        <v>812</v>
+        <v>538</v>
       </c>
       <c r="T262" t="n">
         <v>400</v>
@@ -21400,20 +21400,20 @@
       </c>
       <c r="L263" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M263" t="n">
         <v>20</v>
       </c>
       <c r="N263" t="n">
-        <v>280000</v>
+        <v>320000</v>
       </c>
       <c r="O263" t="n">
-        <v>290000</v>
+        <v>330000</v>
       </c>
       <c r="P263" t="n">
-        <v>285000</v>
+        <v>325000</v>
       </c>
       <c r="Q263" t="inlineStr">
         <is>
@@ -21426,7 +21426,7 @@
         </is>
       </c>
       <c r="S263" t="n">
-        <v>712</v>
+        <v>812</v>
       </c>
       <c r="T263" t="n">
         <v>400</v>
@@ -21475,25 +21475,25 @@
       </c>
       <c r="K264" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L264" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M264" t="n">
         <v>20</v>
       </c>
       <c r="N264" t="n">
-        <v>330000</v>
+        <v>280000</v>
       </c>
       <c r="O264" t="n">
-        <v>340000</v>
+        <v>290000</v>
       </c>
       <c r="P264" t="n">
-        <v>335000</v>
+        <v>285000</v>
       </c>
       <c r="Q264" t="inlineStr">
         <is>
@@ -21506,7 +21506,7 @@
         </is>
       </c>
       <c r="S264" t="n">
-        <v>838</v>
+        <v>712</v>
       </c>
       <c r="T264" t="n">
         <v>400</v>
@@ -21560,20 +21560,20 @@
       </c>
       <c r="L265" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M265" t="n">
         <v>20</v>
       </c>
       <c r="N265" t="n">
-        <v>290000</v>
+        <v>330000</v>
       </c>
       <c r="O265" t="n">
-        <v>300000</v>
+        <v>340000</v>
       </c>
       <c r="P265" t="n">
-        <v>295000</v>
+        <v>335000</v>
       </c>
       <c r="Q265" t="inlineStr">
         <is>
@@ -21586,7 +21586,7 @@
         </is>
       </c>
       <c r="S265" t="n">
-        <v>738</v>
+        <v>838</v>
       </c>
       <c r="T265" t="n">
         <v>400</v>
@@ -21607,7 +21607,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44161</v>
+        <v>44167</v>
       </c>
       <c r="E266" t="n">
         <v>4</v>
@@ -21635,25 +21635,25 @@
       </c>
       <c r="K266" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L266" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M266" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N266" t="n">
-        <v>325000</v>
+        <v>290000</v>
       </c>
       <c r="O266" t="n">
-        <v>330000</v>
+        <v>300000</v>
       </c>
       <c r="P266" t="n">
-        <v>327500</v>
+        <v>295000</v>
       </c>
       <c r="Q266" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         </is>
       </c>
       <c r="S266" t="n">
-        <v>819</v>
+        <v>738</v>
       </c>
       <c r="T266" t="n">
         <v>400</v>
@@ -21720,20 +21720,20 @@
       </c>
       <c r="L267" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M267" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="N267" t="n">
-        <v>305000</v>
+        <v>325000</v>
       </c>
       <c r="O267" t="n">
-        <v>310000</v>
+        <v>330000</v>
       </c>
       <c r="P267" t="n">
-        <v>307500</v>
+        <v>327500</v>
       </c>
       <c r="Q267" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="S267" t="n">
-        <v>769</v>
+        <v>819</v>
       </c>
       <c r="T267" t="n">
         <v>400</v>
@@ -21800,20 +21800,20 @@
       </c>
       <c r="L268" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M268" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="N268" t="n">
-        <v>255000</v>
+        <v>305000</v>
       </c>
       <c r="O268" t="n">
-        <v>260000</v>
+        <v>310000</v>
       </c>
       <c r="P268" t="n">
-        <v>257500</v>
+        <v>307500</v>
       </c>
       <c r="Q268" t="inlineStr">
         <is>
@@ -21826,7 +21826,7 @@
         </is>
       </c>
       <c r="S268" t="n">
-        <v>644</v>
+        <v>769</v>
       </c>
       <c r="T268" t="n">
         <v>400</v>
@@ -21847,7 +21847,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44328</v>
+        <v>44161</v>
       </c>
       <c r="E269" t="n">
         <v>4</v>
@@ -21875,25 +21875,25 @@
       </c>
       <c r="K269" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L269" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M269" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N269" t="n">
-        <v>290000</v>
+        <v>255000</v>
       </c>
       <c r="O269" t="n">
-        <v>300000</v>
+        <v>260000</v>
       </c>
       <c r="P269" t="n">
-        <v>295000</v>
+        <v>257500</v>
       </c>
       <c r="Q269" t="inlineStr">
         <is>
@@ -21906,7 +21906,7 @@
         </is>
       </c>
       <c r="S269" t="n">
-        <v>738</v>
+        <v>644</v>
       </c>
       <c r="T269" t="n">
         <v>400</v>
@@ -21955,7 +21955,7 @@
       </c>
       <c r="K270" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L270" t="inlineStr">
@@ -22007,7 +22007,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44160</v>
+        <v>44328</v>
       </c>
       <c r="E271" t="n">
         <v>4</v>
@@ -22035,25 +22035,25 @@
       </c>
       <c r="K271" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L271" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M271" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N271" t="n">
-        <v>325000</v>
+        <v>290000</v>
       </c>
       <c r="O271" t="n">
-        <v>330000</v>
+        <v>300000</v>
       </c>
       <c r="P271" t="n">
-        <v>327500</v>
+        <v>295000</v>
       </c>
       <c r="Q271" t="inlineStr">
         <is>
@@ -22066,7 +22066,7 @@
         </is>
       </c>
       <c r="S271" t="n">
-        <v>819</v>
+        <v>738</v>
       </c>
       <c r="T271" t="n">
         <v>400</v>
@@ -22120,20 +22120,20 @@
       </c>
       <c r="L272" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M272" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N272" t="n">
-        <v>305000</v>
+        <v>325000</v>
       </c>
       <c r="O272" t="n">
-        <v>310000</v>
+        <v>330000</v>
       </c>
       <c r="P272" t="n">
-        <v>307500</v>
+        <v>327500</v>
       </c>
       <c r="Q272" t="inlineStr">
         <is>
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="S272" t="n">
-        <v>769</v>
+        <v>819</v>
       </c>
       <c r="T272" t="n">
         <v>400</v>
@@ -22200,20 +22200,20 @@
       </c>
       <c r="L273" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M273" t="n">
         <v>20</v>
       </c>
       <c r="N273" t="n">
-        <v>255000</v>
+        <v>305000</v>
       </c>
       <c r="O273" t="n">
-        <v>260000</v>
+        <v>310000</v>
       </c>
       <c r="P273" t="n">
-        <v>257500</v>
+        <v>307500</v>
       </c>
       <c r="Q273" t="inlineStr">
         <is>
@@ -22226,7 +22226,7 @@
         </is>
       </c>
       <c r="S273" t="n">
-        <v>644</v>
+        <v>769</v>
       </c>
       <c r="T273" t="n">
         <v>400</v>
@@ -22247,7 +22247,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44434</v>
+        <v>44160</v>
       </c>
       <c r="E274" t="n">
         <v>4</v>
@@ -22275,25 +22275,25 @@
       </c>
       <c r="K274" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L274" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M274" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N274" t="n">
-        <v>125000</v>
+        <v>255000</v>
       </c>
       <c r="O274" t="n">
-        <v>130000</v>
+        <v>260000</v>
       </c>
       <c r="P274" t="n">
-        <v>127500</v>
+        <v>257500</v>
       </c>
       <c r="Q274" t="inlineStr">
         <is>
@@ -22306,7 +22306,7 @@
         </is>
       </c>
       <c r="S274" t="n">
-        <v>319</v>
+        <v>644</v>
       </c>
       <c r="T274" t="n">
         <v>400</v>
@@ -22360,20 +22360,20 @@
       </c>
       <c r="L275" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M275" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N275" t="n">
-        <v>105000</v>
+        <v>125000</v>
       </c>
       <c r="O275" t="n">
-        <v>110000</v>
+        <v>130000</v>
       </c>
       <c r="P275" t="n">
-        <v>107500</v>
+        <v>127500</v>
       </c>
       <c r="Q275" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         </is>
       </c>
       <c r="S275" t="n">
-        <v>269</v>
+        <v>319</v>
       </c>
       <c r="T275" t="n">
         <v>400</v>
@@ -22440,20 +22440,20 @@
       </c>
       <c r="L276" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M276" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N276" t="n">
-        <v>85000</v>
+        <v>105000</v>
       </c>
       <c r="O276" t="n">
-        <v>90000</v>
+        <v>110000</v>
       </c>
       <c r="P276" t="n">
-        <v>87500</v>
+        <v>107500</v>
       </c>
       <c r="Q276" t="inlineStr">
         <is>
@@ -22466,7 +22466,7 @@
         </is>
       </c>
       <c r="S276" t="n">
-        <v>219</v>
+        <v>269</v>
       </c>
       <c r="T276" t="n">
         <v>400</v>
@@ -22515,25 +22515,25 @@
       </c>
       <c r="K277" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L277" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M277" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N277" t="n">
-        <v>95000</v>
+        <v>85000</v>
       </c>
       <c r="O277" t="n">
-        <v>100000</v>
+        <v>90000</v>
       </c>
       <c r="P277" t="n">
-        <v>97500</v>
+        <v>87500</v>
       </c>
       <c r="Q277" t="inlineStr">
         <is>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="S277" t="n">
-        <v>244</v>
+        <v>219</v>
       </c>
       <c r="T277" t="n">
         <v>400</v>
@@ -22600,20 +22600,20 @@
       </c>
       <c r="L278" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M278" t="n">
         <v>20</v>
       </c>
       <c r="N278" t="n">
-        <v>75000</v>
+        <v>95000</v>
       </c>
       <c r="O278" t="n">
-        <v>80000</v>
+        <v>100000</v>
       </c>
       <c r="P278" t="n">
-        <v>77500</v>
+        <v>97500</v>
       </c>
       <c r="Q278" t="inlineStr">
         <is>
@@ -22626,7 +22626,7 @@
         </is>
       </c>
       <c r="S278" t="n">
-        <v>194</v>
+        <v>244</v>
       </c>
       <c r="T278" t="n">
         <v>400</v>
@@ -22675,25 +22675,25 @@
       </c>
       <c r="K279" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L279" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M279" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N279" t="n">
-        <v>95000</v>
+        <v>75000</v>
       </c>
       <c r="O279" t="n">
-        <v>100000</v>
+        <v>80000</v>
       </c>
       <c r="P279" t="n">
-        <v>97500</v>
+        <v>77500</v>
       </c>
       <c r="Q279" t="inlineStr">
         <is>
@@ -22706,7 +22706,7 @@
         </is>
       </c>
       <c r="S279" t="n">
-        <v>244</v>
+        <v>194</v>
       </c>
       <c r="T279" t="n">
         <v>400</v>
@@ -22760,20 +22760,20 @@
       </c>
       <c r="L280" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M280" t="n">
         <v>16</v>
       </c>
       <c r="N280" t="n">
-        <v>75000</v>
+        <v>95000</v>
       </c>
       <c r="O280" t="n">
-        <v>80000</v>
+        <v>100000</v>
       </c>
       <c r="P280" t="n">
-        <v>77500</v>
+        <v>97500</v>
       </c>
       <c r="Q280" t="inlineStr">
         <is>
@@ -22786,7 +22786,7 @@
         </is>
       </c>
       <c r="S280" t="n">
-        <v>194</v>
+        <v>244</v>
       </c>
       <c r="T280" t="n">
         <v>400</v>
@@ -22807,7 +22807,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44231</v>
+        <v>44434</v>
       </c>
       <c r="E281" t="n">
         <v>4</v>
@@ -22835,25 +22835,25 @@
       </c>
       <c r="K281" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L281" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M281" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N281" t="n">
-        <v>485000</v>
+        <v>75000</v>
       </c>
       <c r="O281" t="n">
-        <v>490000</v>
+        <v>80000</v>
       </c>
       <c r="P281" t="n">
-        <v>487500</v>
+        <v>77500</v>
       </c>
       <c r="Q281" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         </is>
       </c>
       <c r="S281" t="n">
-        <v>1219</v>
+        <v>194</v>
       </c>
       <c r="T281" t="n">
         <v>400</v>
@@ -22920,20 +22920,20 @@
       </c>
       <c r="L282" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M282" t="n">
         <v>20</v>
       </c>
       <c r="N282" t="n">
-        <v>455000</v>
+        <v>485000</v>
       </c>
       <c r="O282" t="n">
-        <v>460000</v>
+        <v>490000</v>
       </c>
       <c r="P282" t="n">
-        <v>457500</v>
+        <v>487500</v>
       </c>
       <c r="Q282" t="inlineStr">
         <is>
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="S282" t="n">
-        <v>1144</v>
+        <v>1219</v>
       </c>
       <c r="T282" t="n">
         <v>400</v>
@@ -22967,7 +22967,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44490</v>
+        <v>44231</v>
       </c>
       <c r="E283" t="n">
         <v>4</v>
@@ -22995,25 +22995,25 @@
       </c>
       <c r="K283" t="inlineStr">
         <is>
-          <t>Cara cara</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L283" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M283" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N283" t="n">
-        <v>145000</v>
+        <v>455000</v>
       </c>
       <c r="O283" t="n">
-        <v>150000</v>
+        <v>460000</v>
       </c>
       <c r="P283" t="n">
-        <v>147500</v>
+        <v>457500</v>
       </c>
       <c r="Q283" t="inlineStr">
         <is>
@@ -23026,7 +23026,7 @@
         </is>
       </c>
       <c r="S283" t="n">
-        <v>369</v>
+        <v>1144</v>
       </c>
       <c r="T283" t="n">
         <v>400</v>
@@ -23075,7 +23075,7 @@
       </c>
       <c r="K284" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Cara cara</t>
         </is>
       </c>
       <c r="L284" t="inlineStr">
@@ -23084,16 +23084,16 @@
         </is>
       </c>
       <c r="M284" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N284" t="n">
-        <v>135000</v>
+        <v>145000</v>
       </c>
       <c r="O284" t="n">
-        <v>140000</v>
+        <v>150000</v>
       </c>
       <c r="P284" t="n">
-        <v>137500</v>
+        <v>147500</v>
       </c>
       <c r="Q284" t="inlineStr">
         <is>
@@ -23106,7 +23106,7 @@
         </is>
       </c>
       <c r="S284" t="n">
-        <v>344</v>
+        <v>369</v>
       </c>
       <c r="T284" t="n">
         <v>400</v>
@@ -23160,20 +23160,20 @@
       </c>
       <c r="L285" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M285" t="n">
         <v>20</v>
       </c>
       <c r="N285" t="n">
-        <v>105000</v>
+        <v>135000</v>
       </c>
       <c r="O285" t="n">
-        <v>110000</v>
+        <v>140000</v>
       </c>
       <c r="P285" t="n">
-        <v>107500</v>
+        <v>137500</v>
       </c>
       <c r="Q285" t="inlineStr">
         <is>
@@ -23186,7 +23186,7 @@
         </is>
       </c>
       <c r="S285" t="n">
-        <v>269</v>
+        <v>344</v>
       </c>
       <c r="T285" t="n">
         <v>400</v>
@@ -23235,25 +23235,25 @@
       </c>
       <c r="K286" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L286" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M286" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N286" t="n">
-        <v>135000</v>
+        <v>105000</v>
       </c>
       <c r="O286" t="n">
-        <v>140000</v>
+        <v>110000</v>
       </c>
       <c r="P286" t="n">
-        <v>137500</v>
+        <v>107500</v>
       </c>
       <c r="Q286" t="inlineStr">
         <is>
@@ -23266,7 +23266,7 @@
         </is>
       </c>
       <c r="S286" t="n">
-        <v>344</v>
+        <v>269</v>
       </c>
       <c r="T286" t="n">
         <v>400</v>
@@ -23320,20 +23320,20 @@
       </c>
       <c r="L287" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M287" t="n">
         <v>16</v>
       </c>
       <c r="N287" t="n">
-        <v>105000</v>
+        <v>135000</v>
       </c>
       <c r="O287" t="n">
-        <v>110000</v>
+        <v>140000</v>
       </c>
       <c r="P287" t="n">
-        <v>107500</v>
+        <v>137500</v>
       </c>
       <c r="Q287" t="inlineStr">
         <is>
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="S287" t="n">
-        <v>269</v>
+        <v>344</v>
       </c>
       <c r="T287" t="n">
         <v>400</v>
@@ -23367,7 +23367,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44259</v>
+        <v>44490</v>
       </c>
       <c r="E288" t="n">
         <v>4</v>
@@ -23395,25 +23395,25 @@
       </c>
       <c r="K288" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L288" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M288" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N288" t="n">
-        <v>455000</v>
+        <v>105000</v>
       </c>
       <c r="O288" t="n">
-        <v>460000</v>
+        <v>110000</v>
       </c>
       <c r="P288" t="n">
-        <v>457500</v>
+        <v>107500</v>
       </c>
       <c r="Q288" t="inlineStr">
         <is>
@@ -23426,7 +23426,7 @@
         </is>
       </c>
       <c r="S288" t="n">
-        <v>1144</v>
+        <v>269</v>
       </c>
       <c r="T288" t="n">
         <v>400</v>
@@ -23480,20 +23480,20 @@
       </c>
       <c r="L289" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M289" t="n">
         <v>20</v>
       </c>
       <c r="N289" t="n">
-        <v>415000</v>
+        <v>455000</v>
       </c>
       <c r="O289" t="n">
-        <v>420000</v>
+        <v>460000</v>
       </c>
       <c r="P289" t="n">
-        <v>417500</v>
+        <v>457500</v>
       </c>
       <c r="Q289" t="inlineStr">
         <is>
@@ -23506,7 +23506,7 @@
         </is>
       </c>
       <c r="S289" t="n">
-        <v>1044</v>
+        <v>1144</v>
       </c>
       <c r="T289" t="n">
         <v>400</v>
@@ -23527,7 +23527,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44251</v>
+        <v>44259</v>
       </c>
       <c r="E290" t="n">
         <v>4</v>
@@ -23560,20 +23560,20 @@
       </c>
       <c r="L290" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M290" t="n">
         <v>20</v>
       </c>
       <c r="N290" t="n">
-        <v>455000</v>
+        <v>415000</v>
       </c>
       <c r="O290" t="n">
-        <v>460000</v>
+        <v>420000</v>
       </c>
       <c r="P290" t="n">
-        <v>457500</v>
+        <v>417500</v>
       </c>
       <c r="Q290" t="inlineStr">
         <is>
@@ -23586,7 +23586,7 @@
         </is>
       </c>
       <c r="S290" t="n">
-        <v>1144</v>
+        <v>1044</v>
       </c>
       <c r="T290" t="n">
         <v>400</v>
@@ -23640,20 +23640,20 @@
       </c>
       <c r="L291" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M291" t="n">
         <v>20</v>
       </c>
       <c r="N291" t="n">
-        <v>415000</v>
+        <v>455000</v>
       </c>
       <c r="O291" t="n">
-        <v>420000</v>
+        <v>460000</v>
       </c>
       <c r="P291" t="n">
-        <v>417500</v>
+        <v>457500</v>
       </c>
       <c r="Q291" t="inlineStr">
         <is>
@@ -23666,7 +23666,7 @@
         </is>
       </c>
       <c r="S291" t="n">
-        <v>1044</v>
+        <v>1144</v>
       </c>
       <c r="T291" t="n">
         <v>400</v>
@@ -23687,7 +23687,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44286</v>
+        <v>44251</v>
       </c>
       <c r="E292" t="n">
         <v>4</v>
@@ -23720,20 +23720,20 @@
       </c>
       <c r="L292" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M292" t="n">
         <v>20</v>
       </c>
       <c r="N292" t="n">
-        <v>475000</v>
+        <v>415000</v>
       </c>
       <c r="O292" t="n">
-        <v>480000</v>
+        <v>420000</v>
       </c>
       <c r="P292" t="n">
-        <v>477500</v>
+        <v>417500</v>
       </c>
       <c r="Q292" t="inlineStr">
         <is>
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="S292" t="n">
-        <v>1194</v>
+        <v>1044</v>
       </c>
       <c r="T292" t="n">
         <v>400</v>
@@ -23800,20 +23800,20 @@
       </c>
       <c r="L293" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M293" t="n">
         <v>20</v>
       </c>
       <c r="N293" t="n">
-        <v>455000</v>
+        <v>475000</v>
       </c>
       <c r="O293" t="n">
-        <v>460000</v>
+        <v>480000</v>
       </c>
       <c r="P293" t="n">
-        <v>457500</v>
+        <v>477500</v>
       </c>
       <c r="Q293" t="inlineStr">
         <is>
@@ -23826,7 +23826,7 @@
         </is>
       </c>
       <c r="S293" t="n">
-        <v>1144</v>
+        <v>1194</v>
       </c>
       <c r="T293" t="n">
         <v>400</v>
@@ -23847,7 +23847,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44279</v>
+        <v>44286</v>
       </c>
       <c r="E294" t="n">
         <v>4</v>
@@ -23880,20 +23880,20 @@
       </c>
       <c r="L294" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M294" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N294" t="n">
-        <v>475000</v>
+        <v>455000</v>
       </c>
       <c r="O294" t="n">
-        <v>480000</v>
+        <v>460000</v>
       </c>
       <c r="P294" t="n">
-        <v>477500</v>
+        <v>457500</v>
       </c>
       <c r="Q294" t="inlineStr">
         <is>
@@ -23906,7 +23906,7 @@
         </is>
       </c>
       <c r="S294" t="n">
-        <v>1194</v>
+        <v>1144</v>
       </c>
       <c r="T294" t="n">
         <v>400</v>
@@ -23960,20 +23960,20 @@
       </c>
       <c r="L295" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M295" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N295" t="n">
-        <v>455000</v>
+        <v>475000</v>
       </c>
       <c r="O295" t="n">
-        <v>460000</v>
+        <v>480000</v>
       </c>
       <c r="P295" t="n">
-        <v>457500</v>
+        <v>477500</v>
       </c>
       <c r="Q295" t="inlineStr">
         <is>
@@ -23986,7 +23986,7 @@
         </is>
       </c>
       <c r="S295" t="n">
-        <v>1144</v>
+        <v>1194</v>
       </c>
       <c r="T295" t="n">
         <v>400</v>
@@ -24040,20 +24040,20 @@
       </c>
       <c r="L296" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M296" t="n">
         <v>20</v>
       </c>
       <c r="N296" t="n">
-        <v>415000</v>
+        <v>455000</v>
       </c>
       <c r="O296" t="n">
-        <v>420000</v>
+        <v>460000</v>
       </c>
       <c r="P296" t="n">
-        <v>417500</v>
+        <v>457500</v>
       </c>
       <c r="Q296" t="inlineStr">
         <is>
@@ -24066,7 +24066,7 @@
         </is>
       </c>
       <c r="S296" t="n">
-        <v>1044</v>
+        <v>1144</v>
       </c>
       <c r="T296" t="n">
         <v>400</v>
@@ -24087,7 +24087,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44322</v>
+        <v>44279</v>
       </c>
       <c r="E297" t="n">
         <v>4</v>
@@ -24115,25 +24115,25 @@
       </c>
       <c r="K297" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L297" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M297" t="n">
         <v>20</v>
       </c>
       <c r="N297" t="n">
-        <v>310000</v>
+        <v>415000</v>
       </c>
       <c r="O297" t="n">
-        <v>320000</v>
+        <v>420000</v>
       </c>
       <c r="P297" t="n">
-        <v>315000</v>
+        <v>417500</v>
       </c>
       <c r="Q297" t="inlineStr">
         <is>
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="S297" t="n">
-        <v>788</v>
+        <v>1044</v>
       </c>
       <c r="T297" t="n">
         <v>400</v>
@@ -24200,20 +24200,20 @@
       </c>
       <c r="L298" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M298" t="n">
         <v>20</v>
       </c>
       <c r="N298" t="n">
-        <v>270000</v>
+        <v>310000</v>
       </c>
       <c r="O298" t="n">
-        <v>280000</v>
+        <v>320000</v>
       </c>
       <c r="P298" t="n">
-        <v>275000</v>
+        <v>315000</v>
       </c>
       <c r="Q298" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         </is>
       </c>
       <c r="S298" t="n">
-        <v>688</v>
+        <v>788</v>
       </c>
       <c r="T298" t="n">
         <v>400</v>
@@ -24275,25 +24275,25 @@
       </c>
       <c r="K299" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L299" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M299" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N299" t="n">
-        <v>460000</v>
+        <v>270000</v>
       </c>
       <c r="O299" t="n">
-        <v>470000</v>
+        <v>280000</v>
       </c>
       <c r="P299" t="n">
-        <v>465000</v>
+        <v>275000</v>
       </c>
       <c r="Q299" t="inlineStr">
         <is>
@@ -24306,7 +24306,7 @@
         </is>
       </c>
       <c r="S299" t="n">
-        <v>1162</v>
+        <v>688</v>
       </c>
       <c r="T299" t="n">
         <v>400</v>
@@ -24327,7 +24327,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44391</v>
+        <v>44322</v>
       </c>
       <c r="E300" t="n">
         <v>4</v>
@@ -24355,7 +24355,7 @@
       </c>
       <c r="K300" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L300" t="inlineStr">
@@ -24364,16 +24364,16 @@
         </is>
       </c>
       <c r="M300" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N300" t="n">
-        <v>100000</v>
+        <v>460000</v>
       </c>
       <c r="O300" t="n">
-        <v>110000</v>
+        <v>470000</v>
       </c>
       <c r="P300" t="n">
-        <v>105000</v>
+        <v>465000</v>
       </c>
       <c r="Q300" t="inlineStr">
         <is>
@@ -24386,7 +24386,7 @@
         </is>
       </c>
       <c r="S300" t="n">
-        <v>262</v>
+        <v>1162</v>
       </c>
       <c r="T300" t="n">
         <v>400</v>
@@ -24440,20 +24440,20 @@
       </c>
       <c r="L301" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M301" t="n">
         <v>20</v>
       </c>
       <c r="N301" t="n">
-        <v>80000</v>
+        <v>100000</v>
       </c>
       <c r="O301" t="n">
-        <v>90000</v>
+        <v>110000</v>
       </c>
       <c r="P301" t="n">
-        <v>85000</v>
+        <v>105000</v>
       </c>
       <c r="Q301" t="inlineStr">
         <is>
@@ -24466,7 +24466,7 @@
         </is>
       </c>
       <c r="S301" t="n">
-        <v>212</v>
+        <v>262</v>
       </c>
       <c r="T301" t="n">
         <v>400</v>
@@ -24515,25 +24515,25 @@
       </c>
       <c r="K302" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L302" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M302" t="n">
         <v>20</v>
       </c>
       <c r="N302" t="n">
-        <v>100000</v>
+        <v>80000</v>
       </c>
       <c r="O302" t="n">
-        <v>110000</v>
+        <v>90000</v>
       </c>
       <c r="P302" t="n">
-        <v>105000</v>
+        <v>85000</v>
       </c>
       <c r="Q302" t="inlineStr">
         <is>
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="S302" t="n">
-        <v>262</v>
+        <v>212</v>
       </c>
       <c r="T302" t="n">
         <v>400</v>
@@ -24600,20 +24600,20 @@
       </c>
       <c r="L303" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M303" t="n">
         <v>20</v>
       </c>
       <c r="N303" t="n">
-        <v>80000</v>
+        <v>100000</v>
       </c>
       <c r="O303" t="n">
-        <v>90000</v>
+        <v>110000</v>
       </c>
       <c r="P303" t="n">
-        <v>85000</v>
+        <v>105000</v>
       </c>
       <c r="Q303" t="inlineStr">
         <is>
@@ -24626,7 +24626,7 @@
         </is>
       </c>
       <c r="S303" t="n">
-        <v>212</v>
+        <v>262</v>
       </c>
       <c r="T303" t="n">
         <v>400</v>
@@ -24647,7 +24647,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44510</v>
+        <v>44391</v>
       </c>
       <c r="E304" t="n">
         <v>4</v>
@@ -24675,25 +24675,25 @@
       </c>
       <c r="K304" t="inlineStr">
         <is>
-          <t>Cara cara</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L304" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M304" t="n">
         <v>20</v>
       </c>
       <c r="N304" t="n">
-        <v>175000</v>
+        <v>80000</v>
       </c>
       <c r="O304" t="n">
-        <v>180000</v>
+        <v>90000</v>
       </c>
       <c r="P304" t="n">
-        <v>177500</v>
+        <v>85000</v>
       </c>
       <c r="Q304" t="inlineStr">
         <is>
@@ -24706,7 +24706,7 @@
         </is>
       </c>
       <c r="S304" t="n">
-        <v>444</v>
+        <v>212</v>
       </c>
       <c r="T304" t="n">
         <v>400</v>
@@ -24760,20 +24760,20 @@
       </c>
       <c r="L305" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M305" t="n">
         <v>20</v>
       </c>
       <c r="N305" t="n">
-        <v>155000</v>
+        <v>175000</v>
       </c>
       <c r="O305" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="P305" t="n">
-        <v>157500</v>
+        <v>177500</v>
       </c>
       <c r="Q305" t="inlineStr">
         <is>
@@ -24786,7 +24786,7 @@
         </is>
       </c>
       <c r="S305" t="n">
-        <v>394</v>
+        <v>444</v>
       </c>
       <c r="T305" t="n">
         <v>400</v>
@@ -24835,12 +24835,12 @@
       </c>
       <c r="K306" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Cara cara</t>
         </is>
       </c>
       <c r="L306" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M306" t="n">
@@ -24920,20 +24920,20 @@
       </c>
       <c r="L307" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M307" t="n">
         <v>20</v>
       </c>
       <c r="N307" t="n">
-        <v>125000</v>
+        <v>155000</v>
       </c>
       <c r="O307" t="n">
-        <v>130000</v>
+        <v>160000</v>
       </c>
       <c r="P307" t="n">
-        <v>127500</v>
+        <v>157500</v>
       </c>
       <c r="Q307" t="inlineStr">
         <is>
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="S307" t="n">
-        <v>319</v>
+        <v>394</v>
       </c>
       <c r="T307" t="n">
         <v>400</v>
@@ -24995,25 +24995,25 @@
       </c>
       <c r="K308" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L308" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M308" t="n">
         <v>20</v>
       </c>
       <c r="N308" t="n">
-        <v>155000</v>
+        <v>125000</v>
       </c>
       <c r="O308" t="n">
-        <v>160000</v>
+        <v>130000</v>
       </c>
       <c r="P308" t="n">
-        <v>157500</v>
+        <v>127500</v>
       </c>
       <c r="Q308" t="inlineStr">
         <is>
@@ -25026,7 +25026,7 @@
         </is>
       </c>
       <c r="S308" t="n">
-        <v>394</v>
+        <v>319</v>
       </c>
       <c r="T308" t="n">
         <v>400</v>
@@ -25080,20 +25080,20 @@
       </c>
       <c r="L309" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M309" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N309" t="n">
-        <v>125000</v>
+        <v>155000</v>
       </c>
       <c r="O309" t="n">
-        <v>130000</v>
+        <v>160000</v>
       </c>
       <c r="P309" t="n">
-        <v>127500</v>
+        <v>157500</v>
       </c>
       <c r="Q309" t="inlineStr">
         <is>
@@ -25106,7 +25106,7 @@
         </is>
       </c>
       <c r="S309" t="n">
-        <v>319</v>
+        <v>394</v>
       </c>
       <c r="T309" t="n">
         <v>400</v>
@@ -25127,7 +25127,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44420</v>
+        <v>44510</v>
       </c>
       <c r="E310" t="n">
         <v>4</v>
@@ -25155,25 +25155,25 @@
       </c>
       <c r="K310" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L310" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M310" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N310" t="n">
-        <v>115000</v>
+        <v>125000</v>
       </c>
       <c r="O310" t="n">
-        <v>120000</v>
+        <v>130000</v>
       </c>
       <c r="P310" t="n">
-        <v>117500</v>
+        <v>127500</v>
       </c>
       <c r="Q310" t="inlineStr">
         <is>
@@ -25186,7 +25186,7 @@
         </is>
       </c>
       <c r="S310" t="n">
-        <v>294</v>
+        <v>319</v>
       </c>
       <c r="T310" t="n">
         <v>400</v>
@@ -25240,20 +25240,20 @@
       </c>
       <c r="L311" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M311" t="n">
         <v>20</v>
       </c>
       <c r="N311" t="n">
-        <v>85000</v>
+        <v>115000</v>
       </c>
       <c r="O311" t="n">
-        <v>90000</v>
+        <v>120000</v>
       </c>
       <c r="P311" t="n">
-        <v>87500</v>
+        <v>117500</v>
       </c>
       <c r="Q311" t="inlineStr">
         <is>
@@ -25266,7 +25266,7 @@
         </is>
       </c>
       <c r="S311" t="n">
-        <v>219</v>
+        <v>294</v>
       </c>
       <c r="T311" t="n">
         <v>400</v>
@@ -25315,25 +25315,25 @@
       </c>
       <c r="K312" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L312" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M312" t="n">
         <v>20</v>
       </c>
       <c r="N312" t="n">
-        <v>105000</v>
+        <v>85000</v>
       </c>
       <c r="O312" t="n">
-        <v>110000</v>
+        <v>90000</v>
       </c>
       <c r="P312" t="n">
-        <v>107500</v>
+        <v>87500</v>
       </c>
       <c r="Q312" t="inlineStr">
         <is>
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="S312" t="n">
-        <v>269</v>
+        <v>219</v>
       </c>
       <c r="T312" t="n">
         <v>400</v>
@@ -25400,20 +25400,20 @@
       </c>
       <c r="L313" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M313" t="n">
         <v>20</v>
       </c>
       <c r="N313" t="n">
-        <v>75000</v>
+        <v>105000</v>
       </c>
       <c r="O313" t="n">
-        <v>80000</v>
+        <v>110000</v>
       </c>
       <c r="P313" t="n">
-        <v>77500</v>
+        <v>107500</v>
       </c>
       <c r="Q313" t="inlineStr">
         <is>
@@ -25426,7 +25426,7 @@
         </is>
       </c>
       <c r="S313" t="n">
-        <v>194</v>
+        <v>269</v>
       </c>
       <c r="T313" t="n">
         <v>400</v>
@@ -25447,7 +25447,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44321</v>
+        <v>44420</v>
       </c>
       <c r="E314" t="n">
         <v>4</v>
@@ -25475,25 +25475,25 @@
       </c>
       <c r="K314" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L314" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M314" t="n">
         <v>20</v>
       </c>
       <c r="N314" t="n">
-        <v>320000</v>
+        <v>75000</v>
       </c>
       <c r="O314" t="n">
-        <v>330000</v>
+        <v>80000</v>
       </c>
       <c r="P314" t="n">
-        <v>325000</v>
+        <v>77500</v>
       </c>
       <c r="Q314" t="inlineStr">
         <is>
@@ -25506,7 +25506,7 @@
         </is>
       </c>
       <c r="S314" t="n">
-        <v>812</v>
+        <v>194</v>
       </c>
       <c r="T314" t="n">
         <v>400</v>
@@ -25560,20 +25560,20 @@
       </c>
       <c r="L315" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M315" t="n">
         <v>20</v>
       </c>
       <c r="N315" t="n">
-        <v>280000</v>
+        <v>320000</v>
       </c>
       <c r="O315" t="n">
-        <v>290000</v>
+        <v>330000</v>
       </c>
       <c r="P315" t="n">
-        <v>285000</v>
+        <v>325000</v>
       </c>
       <c r="Q315" t="inlineStr">
         <is>
@@ -25586,7 +25586,7 @@
         </is>
       </c>
       <c r="S315" t="n">
-        <v>712</v>
+        <v>812</v>
       </c>
       <c r="T315" t="n">
         <v>400</v>
@@ -25635,25 +25635,25 @@
       </c>
       <c r="K316" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L316" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M316" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N316" t="n">
-        <v>460000</v>
+        <v>280000</v>
       </c>
       <c r="O316" t="n">
-        <v>470000</v>
+        <v>290000</v>
       </c>
       <c r="P316" t="n">
-        <v>465000</v>
+        <v>285000</v>
       </c>
       <c r="Q316" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         </is>
       </c>
       <c r="S316" t="n">
-        <v>1162</v>
+        <v>712</v>
       </c>
       <c r="T316" t="n">
         <v>400</v>
@@ -25687,7 +25687,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44385</v>
+        <v>44321</v>
       </c>
       <c r="E317" t="n">
         <v>4</v>
@@ -25715,7 +25715,7 @@
       </c>
       <c r="K317" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L317" t="inlineStr">
@@ -25724,16 +25724,16 @@
         </is>
       </c>
       <c r="M317" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N317" t="n">
-        <v>125000</v>
+        <v>460000</v>
       </c>
       <c r="O317" t="n">
-        <v>130000</v>
+        <v>470000</v>
       </c>
       <c r="P317" t="n">
-        <v>127500</v>
+        <v>465000</v>
       </c>
       <c r="Q317" t="inlineStr">
         <is>
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="S317" t="n">
-        <v>319</v>
+        <v>1162</v>
       </c>
       <c r="T317" t="n">
         <v>400</v>
@@ -25800,20 +25800,20 @@
       </c>
       <c r="L318" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M318" t="n">
         <v>20</v>
       </c>
       <c r="N318" t="n">
-        <v>105000</v>
+        <v>125000</v>
       </c>
       <c r="O318" t="n">
-        <v>110000</v>
+        <v>130000</v>
       </c>
       <c r="P318" t="n">
-        <v>107500</v>
+        <v>127500</v>
       </c>
       <c r="Q318" t="inlineStr">
         <is>
@@ -25826,7 +25826,7 @@
         </is>
       </c>
       <c r="S318" t="n">
-        <v>269</v>
+        <v>319</v>
       </c>
       <c r="T318" t="n">
         <v>400</v>
@@ -25875,25 +25875,25 @@
       </c>
       <c r="K319" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L319" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M319" t="n">
         <v>20</v>
       </c>
       <c r="N319" t="n">
-        <v>125000</v>
+        <v>105000</v>
       </c>
       <c r="O319" t="n">
-        <v>130000</v>
+        <v>110000</v>
       </c>
       <c r="P319" t="n">
-        <v>127500</v>
+        <v>107500</v>
       </c>
       <c r="Q319" t="inlineStr">
         <is>
@@ -25906,7 +25906,7 @@
         </is>
       </c>
       <c r="S319" t="n">
-        <v>319</v>
+        <v>269</v>
       </c>
       <c r="T319" t="n">
         <v>400</v>
@@ -25960,20 +25960,20 @@
       </c>
       <c r="L320" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M320" t="n">
         <v>20</v>
       </c>
       <c r="N320" t="n">
-        <v>105000</v>
+        <v>125000</v>
       </c>
       <c r="O320" t="n">
-        <v>110000</v>
+        <v>130000</v>
       </c>
       <c r="P320" t="n">
-        <v>107500</v>
+        <v>127500</v>
       </c>
       <c r="Q320" t="inlineStr">
         <is>
@@ -25986,7 +25986,7 @@
         </is>
       </c>
       <c r="S320" t="n">
-        <v>269</v>
+        <v>319</v>
       </c>
       <c r="T320" t="n">
         <v>400</v>
@@ -26035,25 +26035,25 @@
       </c>
       <c r="K321" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L321" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M321" t="n">
         <v>20</v>
       </c>
       <c r="N321" t="n">
-        <v>115000</v>
+        <v>105000</v>
       </c>
       <c r="O321" t="n">
-        <v>120000</v>
+        <v>110000</v>
       </c>
       <c r="P321" t="n">
-        <v>117500</v>
+        <v>107500</v>
       </c>
       <c r="Q321" t="inlineStr">
         <is>
@@ -26066,7 +26066,7 @@
         </is>
       </c>
       <c r="S321" t="n">
-        <v>294</v>
+        <v>269</v>
       </c>
       <c r="T321" t="n">
         <v>400</v>
@@ -26120,20 +26120,20 @@
       </c>
       <c r="L322" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M322" t="n">
         <v>20</v>
       </c>
       <c r="N322" t="n">
-        <v>95000</v>
+        <v>115000</v>
       </c>
       <c r="O322" t="n">
-        <v>100000</v>
+        <v>120000</v>
       </c>
       <c r="P322" t="n">
-        <v>97500</v>
+        <v>117500</v>
       </c>
       <c r="Q322" t="inlineStr">
         <is>
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="S322" t="n">
-        <v>244</v>
+        <v>294</v>
       </c>
       <c r="T322" t="n">
         <v>400</v>
@@ -26167,7 +26167,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44308</v>
+        <v>44385</v>
       </c>
       <c r="E323" t="n">
         <v>4</v>
@@ -26195,25 +26195,25 @@
       </c>
       <c r="K323" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L323" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M323" t="n">
         <v>20</v>
       </c>
       <c r="N323" t="n">
-        <v>385000</v>
+        <v>95000</v>
       </c>
       <c r="O323" t="n">
-        <v>390000</v>
+        <v>100000</v>
       </c>
       <c r="P323" t="n">
-        <v>387500</v>
+        <v>97500</v>
       </c>
       <c r="Q323" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         </is>
       </c>
       <c r="S323" t="n">
-        <v>969</v>
+        <v>244</v>
       </c>
       <c r="T323" t="n">
         <v>400</v>
@@ -26280,20 +26280,20 @@
       </c>
       <c r="L324" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M324" t="n">
         <v>20</v>
       </c>
       <c r="N324" t="n">
-        <v>345000</v>
+        <v>385000</v>
       </c>
       <c r="O324" t="n">
-        <v>350000</v>
+        <v>390000</v>
       </c>
       <c r="P324" t="n">
-        <v>347500</v>
+        <v>387500</v>
       </c>
       <c r="Q324" t="inlineStr">
         <is>
@@ -26306,7 +26306,7 @@
         </is>
       </c>
       <c r="S324" t="n">
-        <v>869</v>
+        <v>969</v>
       </c>
       <c r="T324" t="n">
         <v>400</v>
@@ -26355,25 +26355,25 @@
       </c>
       <c r="K325" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L325" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M325" t="n">
         <v>20</v>
       </c>
       <c r="N325" t="n">
-        <v>385000</v>
+        <v>345000</v>
       </c>
       <c r="O325" t="n">
-        <v>390000</v>
+        <v>350000</v>
       </c>
       <c r="P325" t="n">
-        <v>387500</v>
+        <v>347500</v>
       </c>
       <c r="Q325" t="inlineStr">
         <is>
@@ -26386,7 +26386,7 @@
         </is>
       </c>
       <c r="S325" t="n">
-        <v>969</v>
+        <v>869</v>
       </c>
       <c r="T325" t="n">
         <v>400</v>
@@ -26440,20 +26440,20 @@
       </c>
       <c r="L326" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M326" t="n">
         <v>20</v>
       </c>
       <c r="N326" t="n">
-        <v>345000</v>
+        <v>385000</v>
       </c>
       <c r="O326" t="n">
-        <v>350000</v>
+        <v>390000</v>
       </c>
       <c r="P326" t="n">
-        <v>347500</v>
+        <v>387500</v>
       </c>
       <c r="Q326" t="inlineStr">
         <is>
@@ -26466,7 +26466,7 @@
         </is>
       </c>
       <c r="S326" t="n">
-        <v>869</v>
+        <v>969</v>
       </c>
       <c r="T326" t="n">
         <v>400</v>
@@ -26515,25 +26515,25 @@
       </c>
       <c r="K327" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L327" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M327" t="n">
         <v>20</v>
       </c>
       <c r="N327" t="n">
-        <v>495000</v>
+        <v>345000</v>
       </c>
       <c r="O327" t="n">
-        <v>500000</v>
+        <v>350000</v>
       </c>
       <c r="P327" t="n">
-        <v>497500</v>
+        <v>347500</v>
       </c>
       <c r="Q327" t="inlineStr">
         <is>
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="S327" t="n">
-        <v>1244</v>
+        <v>869</v>
       </c>
       <c r="T327" t="n">
         <v>400</v>
@@ -26567,7 +26567,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44350</v>
+        <v>44308</v>
       </c>
       <c r="E328" t="n">
         <v>4</v>
@@ -26595,7 +26595,7 @@
       </c>
       <c r="K328" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L328" t="inlineStr">
@@ -26607,13 +26607,13 @@
         <v>20</v>
       </c>
       <c r="N328" t="n">
-        <v>200000</v>
+        <v>495000</v>
       </c>
       <c r="O328" t="n">
-        <v>210000</v>
+        <v>500000</v>
       </c>
       <c r="P328" t="n">
-        <v>205000</v>
+        <v>497500</v>
       </c>
       <c r="Q328" t="inlineStr">
         <is>
@@ -26626,7 +26626,7 @@
         </is>
       </c>
       <c r="S328" t="n">
-        <v>512</v>
+        <v>1244</v>
       </c>
       <c r="T328" t="n">
         <v>400</v>
@@ -26680,20 +26680,20 @@
       </c>
       <c r="L329" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M329" t="n">
         <v>20</v>
       </c>
       <c r="N329" t="n">
-        <v>170000</v>
+        <v>200000</v>
       </c>
       <c r="O329" t="n">
-        <v>180000</v>
+        <v>210000</v>
       </c>
       <c r="P329" t="n">
-        <v>175000</v>
+        <v>205000</v>
       </c>
       <c r="Q329" t="inlineStr">
         <is>
@@ -26706,7 +26706,7 @@
         </is>
       </c>
       <c r="S329" t="n">
-        <v>438</v>
+        <v>512</v>
       </c>
       <c r="T329" t="n">
         <v>400</v>
@@ -26755,25 +26755,25 @@
       </c>
       <c r="K330" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L330" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M330" t="n">
         <v>20</v>
       </c>
       <c r="N330" t="n">
-        <v>200000</v>
+        <v>170000</v>
       </c>
       <c r="O330" t="n">
-        <v>210000</v>
+        <v>180000</v>
       </c>
       <c r="P330" t="n">
-        <v>205000</v>
+        <v>175000</v>
       </c>
       <c r="Q330" t="inlineStr">
         <is>
@@ -26786,7 +26786,7 @@
         </is>
       </c>
       <c r="S330" t="n">
-        <v>512</v>
+        <v>438</v>
       </c>
       <c r="T330" t="n">
         <v>400</v>
@@ -26840,20 +26840,20 @@
       </c>
       <c r="L331" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M331" t="n">
         <v>20</v>
       </c>
       <c r="N331" t="n">
-        <v>170000</v>
+        <v>200000</v>
       </c>
       <c r="O331" t="n">
-        <v>180000</v>
+        <v>210000</v>
       </c>
       <c r="P331" t="n">
-        <v>175000</v>
+        <v>205000</v>
       </c>
       <c r="Q331" t="inlineStr">
         <is>
@@ -26866,7 +26866,7 @@
         </is>
       </c>
       <c r="S331" t="n">
-        <v>438</v>
+        <v>512</v>
       </c>
       <c r="T331" t="n">
         <v>400</v>
@@ -26887,7 +26887,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44405</v>
+        <v>44350</v>
       </c>
       <c r="E332" t="n">
         <v>4</v>
@@ -26915,25 +26915,25 @@
       </c>
       <c r="K332" t="inlineStr">
         <is>
-          <t>Cara cara</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L332" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M332" t="n">
         <v>20</v>
       </c>
       <c r="N332" t="n">
-        <v>115000</v>
+        <v>170000</v>
       </c>
       <c r="O332" t="n">
-        <v>120000</v>
+        <v>180000</v>
       </c>
       <c r="P332" t="n">
-        <v>117500</v>
+        <v>175000</v>
       </c>
       <c r="Q332" t="inlineStr">
         <is>
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="S332" t="n">
-        <v>294</v>
+        <v>438</v>
       </c>
       <c r="T332" t="n">
         <v>400</v>
@@ -27000,20 +27000,20 @@
       </c>
       <c r="L333" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M333" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N333" t="n">
-        <v>95000</v>
+        <v>115000</v>
       </c>
       <c r="O333" t="n">
-        <v>100000</v>
+        <v>120000</v>
       </c>
       <c r="P333" t="n">
-        <v>97500</v>
+        <v>117500</v>
       </c>
       <c r="Q333" t="inlineStr">
         <is>
@@ -27026,7 +27026,7 @@
         </is>
       </c>
       <c r="S333" t="n">
-        <v>244</v>
+        <v>294</v>
       </c>
       <c r="T333" t="n">
         <v>400</v>
@@ -27075,25 +27075,25 @@
       </c>
       <c r="K334" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Cara cara</t>
         </is>
       </c>
       <c r="L334" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M334" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N334" t="n">
+        <v>95000</v>
+      </c>
+      <c r="O334" t="n">
         <v>100000</v>
       </c>
-      <c r="O334" t="n">
-        <v>110000</v>
-      </c>
       <c r="P334" t="n">
-        <v>105000</v>
+        <v>97500</v>
       </c>
       <c r="Q334" t="inlineStr">
         <is>
@@ -27106,7 +27106,7 @@
         </is>
       </c>
       <c r="S334" t="n">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="T334" t="n">
         <v>400</v>
@@ -27160,20 +27160,20 @@
       </c>
       <c r="L335" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M335" t="n">
         <v>20</v>
       </c>
       <c r="N335" t="n">
-        <v>80000</v>
+        <v>100000</v>
       </c>
       <c r="O335" t="n">
-        <v>90000</v>
+        <v>110000</v>
       </c>
       <c r="P335" t="n">
-        <v>85000</v>
+        <v>105000</v>
       </c>
       <c r="Q335" t="inlineStr">
         <is>
@@ -27186,7 +27186,7 @@
         </is>
       </c>
       <c r="S335" t="n">
-        <v>212</v>
+        <v>262</v>
       </c>
       <c r="T335" t="n">
         <v>400</v>
@@ -27235,25 +27235,25 @@
       </c>
       <c r="K336" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L336" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M336" t="n">
         <v>20</v>
       </c>
       <c r="N336" t="n">
-        <v>100000</v>
+        <v>80000</v>
       </c>
       <c r="O336" t="n">
-        <v>110000</v>
+        <v>90000</v>
       </c>
       <c r="P336" t="n">
-        <v>105000</v>
+        <v>85000</v>
       </c>
       <c r="Q336" t="inlineStr">
         <is>
@@ -27266,7 +27266,7 @@
         </is>
       </c>
       <c r="S336" t="n">
-        <v>262</v>
+        <v>212</v>
       </c>
       <c r="T336" t="n">
         <v>400</v>
@@ -27320,20 +27320,20 @@
       </c>
       <c r="L337" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M337" t="n">
         <v>20</v>
       </c>
       <c r="N337" t="n">
-        <v>80000</v>
+        <v>100000</v>
       </c>
       <c r="O337" t="n">
-        <v>90000</v>
+        <v>110000</v>
       </c>
       <c r="P337" t="n">
-        <v>85000</v>
+        <v>105000</v>
       </c>
       <c r="Q337" t="inlineStr">
         <is>
@@ -27346,7 +27346,7 @@
         </is>
       </c>
       <c r="S337" t="n">
-        <v>212</v>
+        <v>262</v>
       </c>
       <c r="T337" t="n">
         <v>400</v>
@@ -27367,7 +27367,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44413</v>
+        <v>44405</v>
       </c>
       <c r="E338" t="n">
         <v>4</v>
@@ -27395,25 +27395,25 @@
       </c>
       <c r="K338" t="inlineStr">
         <is>
-          <t>Cara cara</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L338" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M338" t="n">
         <v>20</v>
       </c>
       <c r="N338" t="n">
-        <v>110000</v>
+        <v>80000</v>
       </c>
       <c r="O338" t="n">
-        <v>115000</v>
+        <v>90000</v>
       </c>
       <c r="P338" t="n">
-        <v>112500</v>
+        <v>85000</v>
       </c>
       <c r="Q338" t="inlineStr">
         <is>
@@ -27426,7 +27426,7 @@
         </is>
       </c>
       <c r="S338" t="n">
-        <v>281</v>
+        <v>212</v>
       </c>
       <c r="T338" t="n">
         <v>400</v>
@@ -27480,20 +27480,20 @@
       </c>
       <c r="L339" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M339" t="n">
         <v>20</v>
       </c>
       <c r="N339" t="n">
-        <v>80000</v>
+        <v>110000</v>
       </c>
       <c r="O339" t="n">
-        <v>85000</v>
+        <v>115000</v>
       </c>
       <c r="P339" t="n">
-        <v>82500</v>
+        <v>112500</v>
       </c>
       <c r="Q339" t="inlineStr">
         <is>
@@ -27506,7 +27506,7 @@
         </is>
       </c>
       <c r="S339" t="n">
-        <v>206</v>
+        <v>281</v>
       </c>
       <c r="T339" t="n">
         <v>400</v>
@@ -27555,25 +27555,25 @@
       </c>
       <c r="K340" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Cara cara</t>
         </is>
       </c>
       <c r="L340" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M340" t="n">
         <v>20</v>
       </c>
       <c r="N340" t="n">
-        <v>105000</v>
+        <v>80000</v>
       </c>
       <c r="O340" t="n">
-        <v>110000</v>
+        <v>85000</v>
       </c>
       <c r="P340" t="n">
-        <v>107500</v>
+        <v>82500</v>
       </c>
       <c r="Q340" t="inlineStr">
         <is>
@@ -27586,7 +27586,7 @@
         </is>
       </c>
       <c r="S340" t="n">
-        <v>269</v>
+        <v>206</v>
       </c>
       <c r="T340" t="n">
         <v>400</v>
@@ -27640,20 +27640,20 @@
       </c>
       <c r="L341" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M341" t="n">
         <v>20</v>
       </c>
       <c r="N341" t="n">
-        <v>70000</v>
+        <v>105000</v>
       </c>
       <c r="O341" t="n">
-        <v>75000</v>
+        <v>110000</v>
       </c>
       <c r="P341" t="n">
-        <v>72500</v>
+        <v>107500</v>
       </c>
       <c r="Q341" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         </is>
       </c>
       <c r="S341" t="n">
-        <v>181</v>
+        <v>269</v>
       </c>
       <c r="T341" t="n">
         <v>400</v>
@@ -27715,25 +27715,25 @@
       </c>
       <c r="K342" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L342" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M342" t="n">
         <v>20</v>
       </c>
       <c r="N342" t="n">
-        <v>110000</v>
+        <v>70000</v>
       </c>
       <c r="O342" t="n">
-        <v>115000</v>
+        <v>75000</v>
       </c>
       <c r="P342" t="n">
-        <v>112500</v>
+        <v>72500</v>
       </c>
       <c r="Q342" t="inlineStr">
         <is>
@@ -27746,7 +27746,7 @@
         </is>
       </c>
       <c r="S342" t="n">
-        <v>281</v>
+        <v>181</v>
       </c>
       <c r="T342" t="n">
         <v>400</v>
@@ -27800,20 +27800,20 @@
       </c>
       <c r="L343" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M343" t="n">
         <v>20</v>
       </c>
       <c r="N343" t="n">
-        <v>80000</v>
+        <v>110000</v>
       </c>
       <c r="O343" t="n">
-        <v>85000</v>
+        <v>115000</v>
       </c>
       <c r="P343" t="n">
-        <v>82500</v>
+        <v>112500</v>
       </c>
       <c r="Q343" t="inlineStr">
         <is>
@@ -27826,7 +27826,7 @@
         </is>
       </c>
       <c r="S343" t="n">
-        <v>206</v>
+        <v>281</v>
       </c>
       <c r="T343" t="n">
         <v>400</v>
@@ -27875,25 +27875,25 @@
       </c>
       <c r="K344" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L344" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M344" t="n">
         <v>20</v>
       </c>
       <c r="N344" t="n">
-        <v>110000</v>
+        <v>80000</v>
       </c>
       <c r="O344" t="n">
-        <v>120000</v>
+        <v>85000</v>
       </c>
       <c r="P344" t="n">
-        <v>115000</v>
+        <v>82500</v>
       </c>
       <c r="Q344" t="inlineStr">
         <is>
@@ -27906,7 +27906,7 @@
         </is>
       </c>
       <c r="S344" t="n">
-        <v>288</v>
+        <v>206</v>
       </c>
       <c r="T344" t="n">
         <v>400</v>
@@ -27960,20 +27960,20 @@
       </c>
       <c r="L345" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M345" t="n">
         <v>20</v>
       </c>
       <c r="N345" t="n">
-        <v>80000</v>
+        <v>110000</v>
       </c>
       <c r="O345" t="n">
-        <v>90000</v>
+        <v>120000</v>
       </c>
       <c r="P345" t="n">
-        <v>85000</v>
+        <v>115000</v>
       </c>
       <c r="Q345" t="inlineStr">
         <is>
@@ -27986,7 +27986,7 @@
         </is>
       </c>
       <c r="S345" t="n">
-        <v>212</v>
+        <v>288</v>
       </c>
       <c r="T345" t="n">
         <v>400</v>
@@ -28007,7 +28007,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44238</v>
+        <v>44413</v>
       </c>
       <c r="E346" t="n">
         <v>4</v>
@@ -28035,25 +28035,25 @@
       </c>
       <c r="K346" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L346" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M346" t="n">
         <v>20</v>
       </c>
       <c r="N346" t="n">
-        <v>485000</v>
+        <v>80000</v>
       </c>
       <c r="O346" t="n">
-        <v>490000</v>
+        <v>90000</v>
       </c>
       <c r="P346" t="n">
-        <v>487500</v>
+        <v>85000</v>
       </c>
       <c r="Q346" t="inlineStr">
         <is>
@@ -28066,7 +28066,7 @@
         </is>
       </c>
       <c r="S346" t="n">
-        <v>1219</v>
+        <v>212</v>
       </c>
       <c r="T346" t="n">
         <v>400</v>
@@ -28120,20 +28120,20 @@
       </c>
       <c r="L347" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M347" t="n">
         <v>20</v>
       </c>
       <c r="N347" t="n">
-        <v>455000</v>
+        <v>485000</v>
       </c>
       <c r="O347" t="n">
-        <v>460000</v>
+        <v>490000</v>
       </c>
       <c r="P347" t="n">
-        <v>457500</v>
+        <v>487500</v>
       </c>
       <c r="Q347" t="inlineStr">
         <is>
@@ -28146,7 +28146,7 @@
         </is>
       </c>
       <c r="S347" t="n">
-        <v>1144</v>
+        <v>1219</v>
       </c>
       <c r="T347" t="n">
         <v>400</v>
@@ -28167,7 +28167,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44175</v>
+        <v>44238</v>
       </c>
       <c r="E348" t="n">
         <v>4</v>
@@ -28195,25 +28195,25 @@
       </c>
       <c r="K348" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L348" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M348" t="n">
         <v>20</v>
       </c>
       <c r="N348" t="n">
-        <v>325000</v>
+        <v>455000</v>
       </c>
       <c r="O348" t="n">
-        <v>330000</v>
+        <v>460000</v>
       </c>
       <c r="P348" t="n">
-        <v>327500</v>
+        <v>457500</v>
       </c>
       <c r="Q348" t="inlineStr">
         <is>
@@ -28226,7 +28226,7 @@
         </is>
       </c>
       <c r="S348" t="n">
-        <v>819</v>
+        <v>1144</v>
       </c>
       <c r="T348" t="n">
         <v>400</v>
@@ -28280,20 +28280,20 @@
       </c>
       <c r="L349" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M349" t="n">
         <v>20</v>
       </c>
       <c r="N349" t="n">
-        <v>265000</v>
+        <v>325000</v>
       </c>
       <c r="O349" t="n">
-        <v>270000</v>
+        <v>330000</v>
       </c>
       <c r="P349" t="n">
-        <v>267500</v>
+        <v>327500</v>
       </c>
       <c r="Q349" t="inlineStr">
         <is>
@@ -28306,7 +28306,7 @@
         </is>
       </c>
       <c r="S349" t="n">
-        <v>669</v>
+        <v>819</v>
       </c>
       <c r="T349" t="n">
         <v>400</v>
@@ -28355,25 +28355,25 @@
       </c>
       <c r="K350" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L350" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M350" t="n">
         <v>20</v>
       </c>
       <c r="N350" t="n">
-        <v>335000</v>
+        <v>265000</v>
       </c>
       <c r="O350" t="n">
-        <v>340000</v>
+        <v>270000</v>
       </c>
       <c r="P350" t="n">
-        <v>337500</v>
+        <v>267500</v>
       </c>
       <c r="Q350" t="inlineStr">
         <is>
@@ -28386,7 +28386,7 @@
         </is>
       </c>
       <c r="S350" t="n">
-        <v>844</v>
+        <v>669</v>
       </c>
       <c r="T350" t="n">
         <v>400</v>
@@ -28440,20 +28440,20 @@
       </c>
       <c r="L351" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M351" t="n">
         <v>20</v>
       </c>
       <c r="N351" t="n">
-        <v>285000</v>
+        <v>335000</v>
       </c>
       <c r="O351" t="n">
-        <v>290000</v>
+        <v>340000</v>
       </c>
       <c r="P351" t="n">
-        <v>287500</v>
+        <v>337500</v>
       </c>
       <c r="Q351" t="inlineStr">
         <is>
@@ -28466,7 +28466,7 @@
         </is>
       </c>
       <c r="S351" t="n">
-        <v>719</v>
+        <v>844</v>
       </c>
       <c r="T351" t="n">
         <v>400</v>
@@ -28487,7 +28487,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44188</v>
+        <v>44175</v>
       </c>
       <c r="E352" t="n">
         <v>4</v>
@@ -28520,20 +28520,20 @@
       </c>
       <c r="L352" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M352" t="n">
         <v>20</v>
       </c>
       <c r="N352" t="n">
-        <v>375000</v>
+        <v>285000</v>
       </c>
       <c r="O352" t="n">
-        <v>380000</v>
+        <v>290000</v>
       </c>
       <c r="P352" t="n">
-        <v>377500</v>
+        <v>287500</v>
       </c>
       <c r="Q352" t="inlineStr">
         <is>
@@ -28546,7 +28546,7 @@
         </is>
       </c>
       <c r="S352" t="n">
-        <v>944</v>
+        <v>719</v>
       </c>
       <c r="T352" t="n">
         <v>400</v>
@@ -28600,20 +28600,20 @@
       </c>
       <c r="L353" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M353" t="n">
         <v>20</v>
       </c>
       <c r="N353" t="n">
-        <v>335000</v>
+        <v>375000</v>
       </c>
       <c r="O353" t="n">
-        <v>340000</v>
+        <v>380000</v>
       </c>
       <c r="P353" t="n">
-        <v>337500</v>
+        <v>377500</v>
       </c>
       <c r="Q353" t="inlineStr">
         <is>
@@ -28626,7 +28626,7 @@
         </is>
       </c>
       <c r="S353" t="n">
-        <v>844</v>
+        <v>944</v>
       </c>
       <c r="T353" t="n">
         <v>400</v>
@@ -28647,7 +28647,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E354" t="n">
         <v>4</v>
@@ -28680,20 +28680,20 @@
       </c>
       <c r="L354" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M354" t="n">
         <v>20</v>
       </c>
       <c r="N354" t="n">
-        <v>455000</v>
+        <v>335000</v>
       </c>
       <c r="O354" t="n">
-        <v>460000</v>
+        <v>340000</v>
       </c>
       <c r="P354" t="n">
-        <v>457500</v>
+        <v>337500</v>
       </c>
       <c r="Q354" t="inlineStr">
         <is>
@@ -28706,7 +28706,7 @@
         </is>
       </c>
       <c r="S354" t="n">
-        <v>1144</v>
+        <v>844</v>
       </c>
       <c r="T354" t="n">
         <v>400</v>
@@ -28760,20 +28760,20 @@
       </c>
       <c r="L355" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M355" t="n">
         <v>20</v>
       </c>
       <c r="N355" t="n">
-        <v>415000</v>
+        <v>455000</v>
       </c>
       <c r="O355" t="n">
-        <v>420000</v>
+        <v>460000</v>
       </c>
       <c r="P355" t="n">
-        <v>417500</v>
+        <v>457500</v>
       </c>
       <c r="Q355" t="inlineStr">
         <is>
@@ -28786,7 +28786,7 @@
         </is>
       </c>
       <c r="S355" t="n">
-        <v>1044</v>
+        <v>1144</v>
       </c>
       <c r="T355" t="n">
         <v>400</v>
@@ -28807,7 +28807,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44224</v>
+        <v>44258</v>
       </c>
       <c r="E356" t="n">
         <v>4</v>
@@ -28840,20 +28840,20 @@
       </c>
       <c r="L356" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M356" t="n">
         <v>20</v>
       </c>
       <c r="N356" t="n">
-        <v>515000</v>
+        <v>415000</v>
       </c>
       <c r="O356" t="n">
-        <v>520000</v>
+        <v>420000</v>
       </c>
       <c r="P356" t="n">
-        <v>517500</v>
+        <v>417500</v>
       </c>
       <c r="Q356" t="inlineStr">
         <is>
@@ -28866,7 +28866,7 @@
         </is>
       </c>
       <c r="S356" t="n">
-        <v>1294</v>
+        <v>1044</v>
       </c>
       <c r="T356" t="n">
         <v>400</v>
@@ -28920,20 +28920,20 @@
       </c>
       <c r="L357" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M357" t="n">
         <v>20</v>
       </c>
       <c r="N357" t="n">
-        <v>495000</v>
+        <v>515000</v>
       </c>
       <c r="O357" t="n">
-        <v>500000</v>
+        <v>520000</v>
       </c>
       <c r="P357" t="n">
-        <v>497500</v>
+        <v>517500</v>
       </c>
       <c r="Q357" t="inlineStr">
         <is>
@@ -28946,7 +28946,7 @@
         </is>
       </c>
       <c r="S357" t="n">
-        <v>1244</v>
+        <v>1294</v>
       </c>
       <c r="T357" t="n">
         <v>400</v>
@@ -28967,7 +28967,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44329</v>
+        <v>44224</v>
       </c>
       <c r="E358" t="n">
         <v>4</v>
@@ -28995,7 +28995,7 @@
       </c>
       <c r="K358" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L358" t="inlineStr">
@@ -29007,13 +29007,13 @@
         <v>20</v>
       </c>
       <c r="N358" t="n">
-        <v>270000</v>
+        <v>495000</v>
       </c>
       <c r="O358" t="n">
-        <v>280000</v>
+        <v>500000</v>
       </c>
       <c r="P358" t="n">
-        <v>275000</v>
+        <v>497500</v>
       </c>
       <c r="Q358" t="inlineStr">
         <is>
@@ -29026,7 +29026,7 @@
         </is>
       </c>
       <c r="S358" t="n">
-        <v>688</v>
+        <v>1244</v>
       </c>
       <c r="T358" t="n">
         <v>400</v>
@@ -29075,7 +29075,7 @@
       </c>
       <c r="K359" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L359" t="inlineStr">
@@ -29127,7 +29127,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44195</v>
+        <v>44329</v>
       </c>
       <c r="E360" t="n">
         <v>4</v>
@@ -29155,7 +29155,7 @@
       </c>
       <c r="K360" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L360" t="inlineStr">
@@ -29164,16 +29164,16 @@
         </is>
       </c>
       <c r="M360" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N360" t="n">
-        <v>390000</v>
+        <v>270000</v>
       </c>
       <c r="O360" t="n">
-        <v>400000</v>
+        <v>280000</v>
       </c>
       <c r="P360" t="n">
-        <v>395000</v>
+        <v>275000</v>
       </c>
       <c r="Q360" t="inlineStr">
         <is>
@@ -29186,7 +29186,7 @@
         </is>
       </c>
       <c r="S360" t="n">
-        <v>988</v>
+        <v>688</v>
       </c>
       <c r="T360" t="n">
         <v>400</v>
@@ -29207,7 +29207,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44398</v>
+        <v>44195</v>
       </c>
       <c r="E361" t="n">
         <v>4</v>
@@ -29235,7 +29235,7 @@
       </c>
       <c r="K361" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L361" t="inlineStr">
@@ -29244,16 +29244,16 @@
         </is>
       </c>
       <c r="M361" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N361" t="n">
-        <v>100000</v>
+        <v>390000</v>
       </c>
       <c r="O361" t="n">
-        <v>110000</v>
+        <v>400000</v>
       </c>
       <c r="P361" t="n">
-        <v>105000</v>
+        <v>395000</v>
       </c>
       <c r="Q361" t="inlineStr">
         <is>
@@ -29266,7 +29266,7 @@
         </is>
       </c>
       <c r="S361" t="n">
-        <v>262</v>
+        <v>988</v>
       </c>
       <c r="T361" t="n">
         <v>400</v>
@@ -29320,20 +29320,20 @@
       </c>
       <c r="L362" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M362" t="n">
         <v>20</v>
       </c>
       <c r="N362" t="n">
-        <v>80000</v>
+        <v>100000</v>
       </c>
       <c r="O362" t="n">
-        <v>90000</v>
+        <v>110000</v>
       </c>
       <c r="P362" t="n">
-        <v>85000</v>
+        <v>105000</v>
       </c>
       <c r="Q362" t="inlineStr">
         <is>
@@ -29346,7 +29346,7 @@
         </is>
       </c>
       <c r="S362" t="n">
-        <v>212</v>
+        <v>262</v>
       </c>
       <c r="T362" t="n">
         <v>400</v>
@@ -29395,25 +29395,25 @@
       </c>
       <c r="K363" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L363" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M363" t="n">
         <v>20</v>
       </c>
       <c r="N363" t="n">
-        <v>100000</v>
+        <v>80000</v>
       </c>
       <c r="O363" t="n">
-        <v>110000</v>
+        <v>90000</v>
       </c>
       <c r="P363" t="n">
-        <v>105000</v>
+        <v>85000</v>
       </c>
       <c r="Q363" t="inlineStr">
         <is>
@@ -29426,7 +29426,7 @@
         </is>
       </c>
       <c r="S363" t="n">
-        <v>262</v>
+        <v>212</v>
       </c>
       <c r="T363" t="n">
         <v>400</v>
@@ -29475,7 +29475,7 @@
       </c>
       <c r="K364" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L364" t="inlineStr">
@@ -29560,20 +29560,20 @@
       </c>
       <c r="L365" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M365" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N365" t="n">
-        <v>80000</v>
+        <v>100000</v>
       </c>
       <c r="O365" t="n">
-        <v>90000</v>
+        <v>110000</v>
       </c>
       <c r="P365" t="n">
-        <v>85000</v>
+        <v>105000</v>
       </c>
       <c r="Q365" t="inlineStr">
         <is>
@@ -29586,7 +29586,7 @@
         </is>
       </c>
       <c r="S365" t="n">
-        <v>212</v>
+        <v>262</v>
       </c>
       <c r="T365" t="n">
         <v>400</v>
@@ -29607,7 +29607,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44461</v>
+        <v>44398</v>
       </c>
       <c r="E366" t="n">
         <v>4</v>
@@ -29635,25 +29635,25 @@
       </c>
       <c r="K366" t="inlineStr">
         <is>
-          <t>Cara cara</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L366" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M366" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N366" t="n">
-        <v>110000</v>
+        <v>80000</v>
       </c>
       <c r="O366" t="n">
-        <v>120000</v>
+        <v>90000</v>
       </c>
       <c r="P366" t="n">
-        <v>115000</v>
+        <v>85000</v>
       </c>
       <c r="Q366" t="inlineStr">
         <is>
@@ -29666,7 +29666,7 @@
         </is>
       </c>
       <c r="S366" t="n">
-        <v>288</v>
+        <v>212</v>
       </c>
       <c r="T366" t="n">
         <v>400</v>
@@ -29720,20 +29720,20 @@
       </c>
       <c r="L367" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M367" t="n">
         <v>20</v>
       </c>
       <c r="N367" t="n">
-        <v>90000</v>
+        <v>110000</v>
       </c>
       <c r="O367" t="n">
-        <v>100000</v>
+        <v>120000</v>
       </c>
       <c r="P367" t="n">
-        <v>95000</v>
+        <v>115000</v>
       </c>
       <c r="Q367" t="inlineStr">
         <is>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="S367" t="n">
-        <v>238</v>
+        <v>288</v>
       </c>
       <c r="T367" t="n">
         <v>400</v>
@@ -29795,25 +29795,25 @@
       </c>
       <c r="K368" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Cara cara</t>
         </is>
       </c>
       <c r="L368" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M368" t="n">
         <v>20</v>
       </c>
       <c r="N368" t="n">
+        <v>90000</v>
+      </c>
+      <c r="O368" t="n">
         <v>100000</v>
       </c>
-      <c r="O368" t="n">
-        <v>110000</v>
-      </c>
       <c r="P368" t="n">
-        <v>105000</v>
+        <v>95000</v>
       </c>
       <c r="Q368" t="inlineStr">
         <is>
@@ -29826,7 +29826,7 @@
         </is>
       </c>
       <c r="S368" t="n">
-        <v>262</v>
+        <v>238</v>
       </c>
       <c r="T368" t="n">
         <v>400</v>
@@ -29880,20 +29880,20 @@
       </c>
       <c r="L369" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M369" t="n">
         <v>20</v>
       </c>
       <c r="N369" t="n">
-        <v>80000</v>
+        <v>100000</v>
       </c>
       <c r="O369" t="n">
-        <v>90000</v>
+        <v>110000</v>
       </c>
       <c r="P369" t="n">
-        <v>85000</v>
+        <v>105000</v>
       </c>
       <c r="Q369" t="inlineStr">
         <is>
@@ -29906,7 +29906,7 @@
         </is>
       </c>
       <c r="S369" t="n">
-        <v>212</v>
+        <v>262</v>
       </c>
       <c r="T369" t="n">
         <v>400</v>
@@ -29927,7 +29927,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E370" t="n">
         <v>4</v>
@@ -29955,25 +29955,25 @@
       </c>
       <c r="K370" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L370" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M370" t="n">
         <v>20</v>
       </c>
       <c r="N370" t="n">
-        <v>145000</v>
+        <v>80000</v>
       </c>
       <c r="O370" t="n">
-        <v>150000</v>
+        <v>90000</v>
       </c>
       <c r="P370" t="n">
-        <v>147500</v>
+        <v>85000</v>
       </c>
       <c r="Q370" t="inlineStr">
         <is>
@@ -29986,7 +29986,7 @@
         </is>
       </c>
       <c r="S370" t="n">
-        <v>369</v>
+        <v>212</v>
       </c>
       <c r="T370" t="n">
         <v>400</v>
@@ -30040,20 +30040,20 @@
       </c>
       <c r="L371" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M371" t="n">
         <v>20</v>
       </c>
       <c r="N371" t="n">
-        <v>115000</v>
+        <v>145000</v>
       </c>
       <c r="O371" t="n">
-        <v>120000</v>
+        <v>150000</v>
       </c>
       <c r="P371" t="n">
-        <v>117500</v>
+        <v>147500</v>
       </c>
       <c r="Q371" t="inlineStr">
         <is>
@@ -30066,7 +30066,7 @@
         </is>
       </c>
       <c r="S371" t="n">
-        <v>294</v>
+        <v>369</v>
       </c>
       <c r="T371" t="n">
         <v>400</v>
@@ -30115,25 +30115,25 @@
       </c>
       <c r="K372" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L372" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M372" t="n">
         <v>20</v>
       </c>
       <c r="N372" t="n">
-        <v>145000</v>
+        <v>115000</v>
       </c>
       <c r="O372" t="n">
-        <v>150000</v>
+        <v>120000</v>
       </c>
       <c r="P372" t="n">
-        <v>147500</v>
+        <v>117500</v>
       </c>
       <c r="Q372" t="inlineStr">
         <is>
@@ -30146,7 +30146,7 @@
         </is>
       </c>
       <c r="S372" t="n">
-        <v>369</v>
+        <v>294</v>
       </c>
       <c r="T372" t="n">
         <v>400</v>
@@ -30200,20 +30200,20 @@
       </c>
       <c r="L373" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M373" t="n">
         <v>20</v>
       </c>
       <c r="N373" t="n">
-        <v>115000</v>
+        <v>145000</v>
       </c>
       <c r="O373" t="n">
-        <v>120000</v>
+        <v>150000</v>
       </c>
       <c r="P373" t="n">
-        <v>117500</v>
+        <v>147500</v>
       </c>
       <c r="Q373" t="inlineStr">
         <is>
@@ -30226,7 +30226,7 @@
         </is>
       </c>
       <c r="S373" t="n">
-        <v>294</v>
+        <v>369</v>
       </c>
       <c r="T373" t="n">
         <v>400</v>
@@ -30247,7 +30247,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44371</v>
+        <v>44357</v>
       </c>
       <c r="E374" t="n">
         <v>4</v>
@@ -30275,25 +30275,25 @@
       </c>
       <c r="K374" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L374" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M374" t="n">
         <v>20</v>
       </c>
       <c r="N374" t="n">
-        <v>125000</v>
+        <v>115000</v>
       </c>
       <c r="O374" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="P374" t="n">
-        <v>127500</v>
+        <v>117500</v>
       </c>
       <c r="Q374" t="inlineStr">
         <is>
@@ -30306,7 +30306,7 @@
         </is>
       </c>
       <c r="S374" t="n">
-        <v>319</v>
+        <v>294</v>
       </c>
       <c r="T374" t="n">
         <v>400</v>
@@ -30360,20 +30360,20 @@
       </c>
       <c r="L375" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M375" t="n">
         <v>20</v>
       </c>
       <c r="N375" t="n">
-        <v>105000</v>
+        <v>125000</v>
       </c>
       <c r="O375" t="n">
-        <v>110000</v>
+        <v>130000</v>
       </c>
       <c r="P375" t="n">
-        <v>107500</v>
+        <v>127500</v>
       </c>
       <c r="Q375" t="inlineStr">
         <is>
@@ -30386,7 +30386,7 @@
         </is>
       </c>
       <c r="S375" t="n">
-        <v>269</v>
+        <v>319</v>
       </c>
       <c r="T375" t="n">
         <v>400</v>
@@ -30435,25 +30435,25 @@
       </c>
       <c r="K376" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L376" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M376" t="n">
         <v>20</v>
       </c>
       <c r="N376" t="n">
-        <v>155000</v>
+        <v>105000</v>
       </c>
       <c r="O376" t="n">
-        <v>160000</v>
+        <v>110000</v>
       </c>
       <c r="P376" t="n">
-        <v>157500</v>
+        <v>107500</v>
       </c>
       <c r="Q376" t="inlineStr">
         <is>
@@ -30466,7 +30466,7 @@
         </is>
       </c>
       <c r="S376" t="n">
-        <v>394</v>
+        <v>269</v>
       </c>
       <c r="T376" t="n">
         <v>400</v>
@@ -30520,20 +30520,20 @@
       </c>
       <c r="L377" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M377" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N377" t="n">
-        <v>135000</v>
+        <v>155000</v>
       </c>
       <c r="O377" t="n">
-        <v>140000</v>
+        <v>160000</v>
       </c>
       <c r="P377" t="n">
-        <v>137500</v>
+        <v>157500</v>
       </c>
       <c r="Q377" t="inlineStr">
         <is>
@@ -30546,7 +30546,7 @@
         </is>
       </c>
       <c r="S377" t="n">
-        <v>344</v>
+        <v>394</v>
       </c>
       <c r="T377" t="n">
         <v>400</v>
@@ -30600,20 +30600,20 @@
       </c>
       <c r="L378" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M378" t="n">
         <v>16</v>
       </c>
       <c r="N378" t="n">
-        <v>115000</v>
+        <v>135000</v>
       </c>
       <c r="O378" t="n">
-        <v>120000</v>
+        <v>140000</v>
       </c>
       <c r="P378" t="n">
-        <v>117500</v>
+        <v>137500</v>
       </c>
       <c r="Q378" t="inlineStr">
         <is>
@@ -30626,7 +30626,7 @@
         </is>
       </c>
       <c r="S378" t="n">
-        <v>294</v>
+        <v>344</v>
       </c>
       <c r="T378" t="n">
         <v>400</v>
@@ -30675,25 +30675,25 @@
       </c>
       <c r="K379" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L379" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M379" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N379" t="n">
-        <v>135000</v>
+        <v>115000</v>
       </c>
       <c r="O379" t="n">
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="P379" t="n">
-        <v>137500</v>
+        <v>117500</v>
       </c>
       <c r="Q379" t="inlineStr">
         <is>
@@ -30706,7 +30706,7 @@
         </is>
       </c>
       <c r="S379" t="n">
-        <v>344</v>
+        <v>294</v>
       </c>
       <c r="T379" t="n">
         <v>400</v>
@@ -30760,20 +30760,20 @@
       </c>
       <c r="L380" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M380" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N380" t="n">
-        <v>115000</v>
+        <v>135000</v>
       </c>
       <c r="O380" t="n">
-        <v>120000</v>
+        <v>140000</v>
       </c>
       <c r="P380" t="n">
-        <v>117500</v>
+        <v>137500</v>
       </c>
       <c r="Q380" t="inlineStr">
         <is>
@@ -30786,7 +30786,7 @@
         </is>
       </c>
       <c r="S380" t="n">
-        <v>294</v>
+        <v>344</v>
       </c>
       <c r="T380" t="n">
         <v>400</v>
@@ -30807,7 +30807,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44454</v>
+        <v>44371</v>
       </c>
       <c r="E381" t="n">
         <v>4</v>
@@ -30835,25 +30835,25 @@
       </c>
       <c r="K381" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L381" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M381" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N381" t="n">
-        <v>100000</v>
+        <v>115000</v>
       </c>
       <c r="O381" t="n">
-        <v>110000</v>
+        <v>120000</v>
       </c>
       <c r="P381" t="n">
-        <v>105000</v>
+        <v>117500</v>
       </c>
       <c r="Q381" t="inlineStr">
         <is>
@@ -30866,7 +30866,7 @@
         </is>
       </c>
       <c r="S381" t="n">
-        <v>262</v>
+        <v>294</v>
       </c>
       <c r="T381" t="n">
         <v>400</v>
@@ -30920,20 +30920,20 @@
       </c>
       <c r="L382" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M382" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="N382" t="n">
-        <v>80000</v>
+        <v>100000</v>
       </c>
       <c r="O382" t="n">
-        <v>90000</v>
+        <v>110000</v>
       </c>
       <c r="P382" t="n">
-        <v>86429</v>
+        <v>105000</v>
       </c>
       <c r="Q382" t="inlineStr">
         <is>
@@ -30946,7 +30946,7 @@
         </is>
       </c>
       <c r="S382" t="n">
-        <v>216</v>
+        <v>262</v>
       </c>
       <c r="T382" t="n">
         <v>400</v>
@@ -30995,25 +30995,25 @@
       </c>
       <c r="K383" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L383" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M383" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N383" t="n">
-        <v>100000</v>
+        <v>80000</v>
       </c>
       <c r="O383" t="n">
-        <v>110000</v>
+        <v>90000</v>
       </c>
       <c r="P383" t="n">
-        <v>105000</v>
+        <v>86429</v>
       </c>
       <c r="Q383" t="inlineStr">
         <is>
@@ -31026,7 +31026,7 @@
         </is>
       </c>
       <c r="S383" t="n">
-        <v>262</v>
+        <v>216</v>
       </c>
       <c r="T383" t="n">
         <v>400</v>
@@ -31080,20 +31080,20 @@
       </c>
       <c r="L384" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M384" t="n">
         <v>20</v>
       </c>
       <c r="N384" t="n">
-        <v>80000</v>
+        <v>100000</v>
       </c>
       <c r="O384" t="n">
-        <v>90000</v>
+        <v>110000</v>
       </c>
       <c r="P384" t="n">
-        <v>85000</v>
+        <v>105000</v>
       </c>
       <c r="Q384" t="inlineStr">
         <is>
@@ -31106,7 +31106,7 @@
         </is>
       </c>
       <c r="S384" t="n">
-        <v>212</v>
+        <v>262</v>
       </c>
       <c r="T384" t="n">
         <v>400</v>
@@ -31127,7 +31127,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44272</v>
+        <v>44454</v>
       </c>
       <c r="E385" t="n">
         <v>4</v>
@@ -31155,25 +31155,25 @@
       </c>
       <c r="K385" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L385" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M385" t="n">
         <v>20</v>
       </c>
       <c r="N385" t="n">
-        <v>455000</v>
+        <v>80000</v>
       </c>
       <c r="O385" t="n">
-        <v>460000</v>
+        <v>90000</v>
       </c>
       <c r="P385" t="n">
-        <v>457500</v>
+        <v>85000</v>
       </c>
       <c r="Q385" t="inlineStr">
         <is>
@@ -31186,7 +31186,7 @@
         </is>
       </c>
       <c r="S385" t="n">
-        <v>1144</v>
+        <v>212</v>
       </c>
       <c r="T385" t="n">
         <v>400</v>
@@ -31240,35 +31240,115 @@
       </c>
       <c r="L386" t="inlineStr">
         <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M386" t="n">
+        <v>20</v>
+      </c>
+      <c r="N386" t="n">
+        <v>455000</v>
+      </c>
+      <c r="O386" t="n">
+        <v>460000</v>
+      </c>
+      <c r="P386" t="n">
+        <v>457500</v>
+      </c>
+      <c r="Q386" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R386" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S386" t="n">
+        <v>1144</v>
+      </c>
+      <c r="T386" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="n">
+        <v>2</v>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D387" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E387" t="n">
+        <v>4</v>
+      </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G387" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H387" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I387" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J387" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="L387" t="inlineStr">
+        <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M386" t="n">
-        <v>20</v>
-      </c>
-      <c r="N386" t="n">
+      <c r="M387" t="n">
+        <v>20</v>
+      </c>
+      <c r="N387" t="n">
         <v>415000</v>
       </c>
-      <c r="O386" t="n">
+      <c r="O387" t="n">
         <v>420000</v>
       </c>
-      <c r="P386" t="n">
+      <c r="P387" t="n">
         <v>417500</v>
       </c>
-      <c r="Q386" t="inlineStr">
-        <is>
-          <t>$/bins (400 kilos)</t>
-        </is>
-      </c>
-      <c r="R386" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="S386" t="n">
+      <c r="Q387" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R387" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S387" t="n">
         <v>1044</v>
       </c>
-      <c r="T386" t="n">
+      <c r="T387" t="n">
         <v>400</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Comercializadora del Agro de Limarí - Naranja.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Comercializadora del Agro de Limarí - Naranja.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T387"/>
+  <dimension ref="A1:T388"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23767,7 +23767,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44286</v>
+        <v>44559</v>
       </c>
       <c r="E293" t="n">
         <v>4</v>
@@ -23795,25 +23795,25 @@
       </c>
       <c r="K293" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L293" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M293" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N293" t="n">
-        <v>475000</v>
+        <v>225000</v>
       </c>
       <c r="O293" t="n">
-        <v>480000</v>
+        <v>230000</v>
       </c>
       <c r="P293" t="n">
-        <v>477500</v>
+        <v>227500</v>
       </c>
       <c r="Q293" t="inlineStr">
         <is>
@@ -23826,7 +23826,7 @@
         </is>
       </c>
       <c r="S293" t="n">
-        <v>1194</v>
+        <v>569</v>
       </c>
       <c r="T293" t="n">
         <v>400</v>
@@ -23880,20 +23880,20 @@
       </c>
       <c r="L294" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M294" t="n">
         <v>20</v>
       </c>
       <c r="N294" t="n">
-        <v>455000</v>
+        <v>475000</v>
       </c>
       <c r="O294" t="n">
-        <v>460000</v>
+        <v>480000</v>
       </c>
       <c r="P294" t="n">
-        <v>457500</v>
+        <v>477500</v>
       </c>
       <c r="Q294" t="inlineStr">
         <is>
@@ -23906,7 +23906,7 @@
         </is>
       </c>
       <c r="S294" t="n">
-        <v>1144</v>
+        <v>1194</v>
       </c>
       <c r="T294" t="n">
         <v>400</v>
@@ -23927,7 +23927,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44279</v>
+        <v>44286</v>
       </c>
       <c r="E295" t="n">
         <v>4</v>
@@ -23960,20 +23960,20 @@
       </c>
       <c r="L295" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M295" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N295" t="n">
-        <v>475000</v>
+        <v>455000</v>
       </c>
       <c r="O295" t="n">
-        <v>480000</v>
+        <v>460000</v>
       </c>
       <c r="P295" t="n">
-        <v>477500</v>
+        <v>457500</v>
       </c>
       <c r="Q295" t="inlineStr">
         <is>
@@ -23986,7 +23986,7 @@
         </is>
       </c>
       <c r="S295" t="n">
-        <v>1194</v>
+        <v>1144</v>
       </c>
       <c r="T295" t="n">
         <v>400</v>
@@ -24040,20 +24040,20 @@
       </c>
       <c r="L296" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M296" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N296" t="n">
-        <v>455000</v>
+        <v>475000</v>
       </c>
       <c r="O296" t="n">
-        <v>460000</v>
+        <v>480000</v>
       </c>
       <c r="P296" t="n">
-        <v>457500</v>
+        <v>477500</v>
       </c>
       <c r="Q296" t="inlineStr">
         <is>
@@ -24066,7 +24066,7 @@
         </is>
       </c>
       <c r="S296" t="n">
-        <v>1144</v>
+        <v>1194</v>
       </c>
       <c r="T296" t="n">
         <v>400</v>
@@ -24120,20 +24120,20 @@
       </c>
       <c r="L297" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M297" t="n">
         <v>20</v>
       </c>
       <c r="N297" t="n">
-        <v>415000</v>
+        <v>455000</v>
       </c>
       <c r="O297" t="n">
-        <v>420000</v>
+        <v>460000</v>
       </c>
       <c r="P297" t="n">
-        <v>417500</v>
+        <v>457500</v>
       </c>
       <c r="Q297" t="inlineStr">
         <is>
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="S297" t="n">
-        <v>1044</v>
+        <v>1144</v>
       </c>
       <c r="T297" t="n">
         <v>400</v>
@@ -24167,7 +24167,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44322</v>
+        <v>44279</v>
       </c>
       <c r="E298" t="n">
         <v>4</v>
@@ -24195,25 +24195,25 @@
       </c>
       <c r="K298" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L298" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M298" t="n">
         <v>20</v>
       </c>
       <c r="N298" t="n">
-        <v>310000</v>
+        <v>415000</v>
       </c>
       <c r="O298" t="n">
-        <v>320000</v>
+        <v>420000</v>
       </c>
       <c r="P298" t="n">
-        <v>315000</v>
+        <v>417500</v>
       </c>
       <c r="Q298" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         </is>
       </c>
       <c r="S298" t="n">
-        <v>788</v>
+        <v>1044</v>
       </c>
       <c r="T298" t="n">
         <v>400</v>
@@ -24280,20 +24280,20 @@
       </c>
       <c r="L299" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M299" t="n">
         <v>20</v>
       </c>
       <c r="N299" t="n">
-        <v>270000</v>
+        <v>310000</v>
       </c>
       <c r="O299" t="n">
-        <v>280000</v>
+        <v>320000</v>
       </c>
       <c r="P299" t="n">
-        <v>275000</v>
+        <v>315000</v>
       </c>
       <c r="Q299" t="inlineStr">
         <is>
@@ -24306,7 +24306,7 @@
         </is>
       </c>
       <c r="S299" t="n">
-        <v>688</v>
+        <v>788</v>
       </c>
       <c r="T299" t="n">
         <v>400</v>
@@ -24355,25 +24355,25 @@
       </c>
       <c r="K300" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L300" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M300" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N300" t="n">
-        <v>460000</v>
+        <v>270000</v>
       </c>
       <c r="O300" t="n">
-        <v>470000</v>
+        <v>280000</v>
       </c>
       <c r="P300" t="n">
-        <v>465000</v>
+        <v>275000</v>
       </c>
       <c r="Q300" t="inlineStr">
         <is>
@@ -24386,7 +24386,7 @@
         </is>
       </c>
       <c r="S300" t="n">
-        <v>1162</v>
+        <v>688</v>
       </c>
       <c r="T300" t="n">
         <v>400</v>
@@ -24407,7 +24407,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44391</v>
+        <v>44322</v>
       </c>
       <c r="E301" t="n">
         <v>4</v>
@@ -24435,7 +24435,7 @@
       </c>
       <c r="K301" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L301" t="inlineStr">
@@ -24444,16 +24444,16 @@
         </is>
       </c>
       <c r="M301" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N301" t="n">
-        <v>100000</v>
+        <v>460000</v>
       </c>
       <c r="O301" t="n">
-        <v>110000</v>
+        <v>470000</v>
       </c>
       <c r="P301" t="n">
-        <v>105000</v>
+        <v>465000</v>
       </c>
       <c r="Q301" t="inlineStr">
         <is>
@@ -24466,7 +24466,7 @@
         </is>
       </c>
       <c r="S301" t="n">
-        <v>262</v>
+        <v>1162</v>
       </c>
       <c r="T301" t="n">
         <v>400</v>
@@ -24520,20 +24520,20 @@
       </c>
       <c r="L302" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M302" t="n">
         <v>20</v>
       </c>
       <c r="N302" t="n">
-        <v>80000</v>
+        <v>100000</v>
       </c>
       <c r="O302" t="n">
-        <v>90000</v>
+        <v>110000</v>
       </c>
       <c r="P302" t="n">
-        <v>85000</v>
+        <v>105000</v>
       </c>
       <c r="Q302" t="inlineStr">
         <is>
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="S302" t="n">
-        <v>212</v>
+        <v>262</v>
       </c>
       <c r="T302" t="n">
         <v>400</v>
@@ -24595,25 +24595,25 @@
       </c>
       <c r="K303" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L303" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M303" t="n">
         <v>20</v>
       </c>
       <c r="N303" t="n">
-        <v>100000</v>
+        <v>80000</v>
       </c>
       <c r="O303" t="n">
-        <v>110000</v>
+        <v>90000</v>
       </c>
       <c r="P303" t="n">
-        <v>105000</v>
+        <v>85000</v>
       </c>
       <c r="Q303" t="inlineStr">
         <is>
@@ -24626,7 +24626,7 @@
         </is>
       </c>
       <c r="S303" t="n">
-        <v>262</v>
+        <v>212</v>
       </c>
       <c r="T303" t="n">
         <v>400</v>
@@ -24680,20 +24680,20 @@
       </c>
       <c r="L304" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M304" t="n">
         <v>20</v>
       </c>
       <c r="N304" t="n">
-        <v>80000</v>
+        <v>100000</v>
       </c>
       <c r="O304" t="n">
-        <v>90000</v>
+        <v>110000</v>
       </c>
       <c r="P304" t="n">
-        <v>85000</v>
+        <v>105000</v>
       </c>
       <c r="Q304" t="inlineStr">
         <is>
@@ -24706,7 +24706,7 @@
         </is>
       </c>
       <c r="S304" t="n">
-        <v>212</v>
+        <v>262</v>
       </c>
       <c r="T304" t="n">
         <v>400</v>
@@ -24727,7 +24727,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44510</v>
+        <v>44391</v>
       </c>
       <c r="E305" t="n">
         <v>4</v>
@@ -24755,25 +24755,25 @@
       </c>
       <c r="K305" t="inlineStr">
         <is>
-          <t>Cara cara</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L305" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M305" t="n">
         <v>20</v>
       </c>
       <c r="N305" t="n">
-        <v>175000</v>
+        <v>80000</v>
       </c>
       <c r="O305" t="n">
-        <v>180000</v>
+        <v>90000</v>
       </c>
       <c r="P305" t="n">
-        <v>177500</v>
+        <v>85000</v>
       </c>
       <c r="Q305" t="inlineStr">
         <is>
@@ -24786,7 +24786,7 @@
         </is>
       </c>
       <c r="S305" t="n">
-        <v>444</v>
+        <v>212</v>
       </c>
       <c r="T305" t="n">
         <v>400</v>
@@ -24840,20 +24840,20 @@
       </c>
       <c r="L306" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M306" t="n">
         <v>20</v>
       </c>
       <c r="N306" t="n">
-        <v>155000</v>
+        <v>175000</v>
       </c>
       <c r="O306" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="P306" t="n">
-        <v>157500</v>
+        <v>177500</v>
       </c>
       <c r="Q306" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         </is>
       </c>
       <c r="S306" t="n">
-        <v>394</v>
+        <v>444</v>
       </c>
       <c r="T306" t="n">
         <v>400</v>
@@ -24915,12 +24915,12 @@
       </c>
       <c r="K307" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Cara cara</t>
         </is>
       </c>
       <c r="L307" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M307" t="n">
@@ -25000,20 +25000,20 @@
       </c>
       <c r="L308" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M308" t="n">
         <v>20</v>
       </c>
       <c r="N308" t="n">
-        <v>125000</v>
+        <v>155000</v>
       </c>
       <c r="O308" t="n">
-        <v>130000</v>
+        <v>160000</v>
       </c>
       <c r="P308" t="n">
-        <v>127500</v>
+        <v>157500</v>
       </c>
       <c r="Q308" t="inlineStr">
         <is>
@@ -25026,7 +25026,7 @@
         </is>
       </c>
       <c r="S308" t="n">
-        <v>319</v>
+        <v>394</v>
       </c>
       <c r="T308" t="n">
         <v>400</v>
@@ -25075,25 +25075,25 @@
       </c>
       <c r="K309" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L309" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M309" t="n">
         <v>20</v>
       </c>
       <c r="N309" t="n">
-        <v>155000</v>
+        <v>125000</v>
       </c>
       <c r="O309" t="n">
-        <v>160000</v>
+        <v>130000</v>
       </c>
       <c r="P309" t="n">
-        <v>157500</v>
+        <v>127500</v>
       </c>
       <c r="Q309" t="inlineStr">
         <is>
@@ -25106,7 +25106,7 @@
         </is>
       </c>
       <c r="S309" t="n">
-        <v>394</v>
+        <v>319</v>
       </c>
       <c r="T309" t="n">
         <v>400</v>
@@ -25160,20 +25160,20 @@
       </c>
       <c r="L310" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M310" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N310" t="n">
-        <v>125000</v>
+        <v>155000</v>
       </c>
       <c r="O310" t="n">
-        <v>130000</v>
+        <v>160000</v>
       </c>
       <c r="P310" t="n">
-        <v>127500</v>
+        <v>157500</v>
       </c>
       <c r="Q310" t="inlineStr">
         <is>
@@ -25186,7 +25186,7 @@
         </is>
       </c>
       <c r="S310" t="n">
-        <v>319</v>
+        <v>394</v>
       </c>
       <c r="T310" t="n">
         <v>400</v>
@@ -25207,7 +25207,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44420</v>
+        <v>44510</v>
       </c>
       <c r="E311" t="n">
         <v>4</v>
@@ -25235,25 +25235,25 @@
       </c>
       <c r="K311" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L311" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M311" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N311" t="n">
-        <v>115000</v>
+        <v>125000</v>
       </c>
       <c r="O311" t="n">
-        <v>120000</v>
+        <v>130000</v>
       </c>
       <c r="P311" t="n">
-        <v>117500</v>
+        <v>127500</v>
       </c>
       <c r="Q311" t="inlineStr">
         <is>
@@ -25266,7 +25266,7 @@
         </is>
       </c>
       <c r="S311" t="n">
-        <v>294</v>
+        <v>319</v>
       </c>
       <c r="T311" t="n">
         <v>400</v>
@@ -25320,20 +25320,20 @@
       </c>
       <c r="L312" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M312" t="n">
         <v>20</v>
       </c>
       <c r="N312" t="n">
-        <v>85000</v>
+        <v>115000</v>
       </c>
       <c r="O312" t="n">
-        <v>90000</v>
+        <v>120000</v>
       </c>
       <c r="P312" t="n">
-        <v>87500</v>
+        <v>117500</v>
       </c>
       <c r="Q312" t="inlineStr">
         <is>
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="S312" t="n">
-        <v>219</v>
+        <v>294</v>
       </c>
       <c r="T312" t="n">
         <v>400</v>
@@ -25395,25 +25395,25 @@
       </c>
       <c r="K313" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L313" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M313" t="n">
         <v>20</v>
       </c>
       <c r="N313" t="n">
-        <v>105000</v>
+        <v>85000</v>
       </c>
       <c r="O313" t="n">
-        <v>110000</v>
+        <v>90000</v>
       </c>
       <c r="P313" t="n">
-        <v>107500</v>
+        <v>87500</v>
       </c>
       <c r="Q313" t="inlineStr">
         <is>
@@ -25426,7 +25426,7 @@
         </is>
       </c>
       <c r="S313" t="n">
-        <v>269</v>
+        <v>219</v>
       </c>
       <c r="T313" t="n">
         <v>400</v>
@@ -25480,20 +25480,20 @@
       </c>
       <c r="L314" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M314" t="n">
         <v>20</v>
       </c>
       <c r="N314" t="n">
-        <v>75000</v>
+        <v>105000</v>
       </c>
       <c r="O314" t="n">
-        <v>80000</v>
+        <v>110000</v>
       </c>
       <c r="P314" t="n">
-        <v>77500</v>
+        <v>107500</v>
       </c>
       <c r="Q314" t="inlineStr">
         <is>
@@ -25506,7 +25506,7 @@
         </is>
       </c>
       <c r="S314" t="n">
-        <v>194</v>
+        <v>269</v>
       </c>
       <c r="T314" t="n">
         <v>400</v>
@@ -25527,7 +25527,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44321</v>
+        <v>44420</v>
       </c>
       <c r="E315" t="n">
         <v>4</v>
@@ -25555,25 +25555,25 @@
       </c>
       <c r="K315" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L315" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M315" t="n">
         <v>20</v>
       </c>
       <c r="N315" t="n">
-        <v>320000</v>
+        <v>75000</v>
       </c>
       <c r="O315" t="n">
-        <v>330000</v>
+        <v>80000</v>
       </c>
       <c r="P315" t="n">
-        <v>325000</v>
+        <v>77500</v>
       </c>
       <c r="Q315" t="inlineStr">
         <is>
@@ -25586,7 +25586,7 @@
         </is>
       </c>
       <c r="S315" t="n">
-        <v>812</v>
+        <v>194</v>
       </c>
       <c r="T315" t="n">
         <v>400</v>
@@ -25640,20 +25640,20 @@
       </c>
       <c r="L316" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M316" t="n">
         <v>20</v>
       </c>
       <c r="N316" t="n">
-        <v>280000</v>
+        <v>320000</v>
       </c>
       <c r="O316" t="n">
-        <v>290000</v>
+        <v>330000</v>
       </c>
       <c r="P316" t="n">
-        <v>285000</v>
+        <v>325000</v>
       </c>
       <c r="Q316" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         </is>
       </c>
       <c r="S316" t="n">
-        <v>712</v>
+        <v>812</v>
       </c>
       <c r="T316" t="n">
         <v>400</v>
@@ -25715,25 +25715,25 @@
       </c>
       <c r="K317" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L317" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M317" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N317" t="n">
-        <v>460000</v>
+        <v>280000</v>
       </c>
       <c r="O317" t="n">
-        <v>470000</v>
+        <v>290000</v>
       </c>
       <c r="P317" t="n">
-        <v>465000</v>
+        <v>285000</v>
       </c>
       <c r="Q317" t="inlineStr">
         <is>
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="S317" t="n">
-        <v>1162</v>
+        <v>712</v>
       </c>
       <c r="T317" t="n">
         <v>400</v>
@@ -25767,7 +25767,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44385</v>
+        <v>44321</v>
       </c>
       <c r="E318" t="n">
         <v>4</v>
@@ -25795,7 +25795,7 @@
       </c>
       <c r="K318" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L318" t="inlineStr">
@@ -25804,16 +25804,16 @@
         </is>
       </c>
       <c r="M318" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N318" t="n">
-        <v>125000</v>
+        <v>460000</v>
       </c>
       <c r="O318" t="n">
-        <v>130000</v>
+        <v>470000</v>
       </c>
       <c r="P318" t="n">
-        <v>127500</v>
+        <v>465000</v>
       </c>
       <c r="Q318" t="inlineStr">
         <is>
@@ -25826,7 +25826,7 @@
         </is>
       </c>
       <c r="S318" t="n">
-        <v>319</v>
+        <v>1162</v>
       </c>
       <c r="T318" t="n">
         <v>400</v>
@@ -25880,20 +25880,20 @@
       </c>
       <c r="L319" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M319" t="n">
         <v>20</v>
       </c>
       <c r="N319" t="n">
-        <v>105000</v>
+        <v>125000</v>
       </c>
       <c r="O319" t="n">
-        <v>110000</v>
+        <v>130000</v>
       </c>
       <c r="P319" t="n">
-        <v>107500</v>
+        <v>127500</v>
       </c>
       <c r="Q319" t="inlineStr">
         <is>
@@ -25906,7 +25906,7 @@
         </is>
       </c>
       <c r="S319" t="n">
-        <v>269</v>
+        <v>319</v>
       </c>
       <c r="T319" t="n">
         <v>400</v>
@@ -25955,25 +25955,25 @@
       </c>
       <c r="K320" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L320" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M320" t="n">
         <v>20</v>
       </c>
       <c r="N320" t="n">
-        <v>125000</v>
+        <v>105000</v>
       </c>
       <c r="O320" t="n">
-        <v>130000</v>
+        <v>110000</v>
       </c>
       <c r="P320" t="n">
-        <v>127500</v>
+        <v>107500</v>
       </c>
       <c r="Q320" t="inlineStr">
         <is>
@@ -25986,7 +25986,7 @@
         </is>
       </c>
       <c r="S320" t="n">
-        <v>319</v>
+        <v>269</v>
       </c>
       <c r="T320" t="n">
         <v>400</v>
@@ -26040,20 +26040,20 @@
       </c>
       <c r="L321" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M321" t="n">
         <v>20</v>
       </c>
       <c r="N321" t="n">
-        <v>105000</v>
+        <v>125000</v>
       </c>
       <c r="O321" t="n">
-        <v>110000</v>
+        <v>130000</v>
       </c>
       <c r="P321" t="n">
-        <v>107500</v>
+        <v>127500</v>
       </c>
       <c r="Q321" t="inlineStr">
         <is>
@@ -26066,7 +26066,7 @@
         </is>
       </c>
       <c r="S321" t="n">
-        <v>269</v>
+        <v>319</v>
       </c>
       <c r="T321" t="n">
         <v>400</v>
@@ -26115,25 +26115,25 @@
       </c>
       <c r="K322" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L322" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M322" t="n">
         <v>20</v>
       </c>
       <c r="N322" t="n">
-        <v>115000</v>
+        <v>105000</v>
       </c>
       <c r="O322" t="n">
-        <v>120000</v>
+        <v>110000</v>
       </c>
       <c r="P322" t="n">
-        <v>117500</v>
+        <v>107500</v>
       </c>
       <c r="Q322" t="inlineStr">
         <is>
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="S322" t="n">
-        <v>294</v>
+        <v>269</v>
       </c>
       <c r="T322" t="n">
         <v>400</v>
@@ -26200,20 +26200,20 @@
       </c>
       <c r="L323" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M323" t="n">
         <v>20</v>
       </c>
       <c r="N323" t="n">
-        <v>95000</v>
+        <v>115000</v>
       </c>
       <c r="O323" t="n">
-        <v>100000</v>
+        <v>120000</v>
       </c>
       <c r="P323" t="n">
-        <v>97500</v>
+        <v>117500</v>
       </c>
       <c r="Q323" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         </is>
       </c>
       <c r="S323" t="n">
-        <v>244</v>
+        <v>294</v>
       </c>
       <c r="T323" t="n">
         <v>400</v>
@@ -26247,7 +26247,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44308</v>
+        <v>44385</v>
       </c>
       <c r="E324" t="n">
         <v>4</v>
@@ -26275,25 +26275,25 @@
       </c>
       <c r="K324" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L324" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M324" t="n">
         <v>20</v>
       </c>
       <c r="N324" t="n">
-        <v>385000</v>
+        <v>95000</v>
       </c>
       <c r="O324" t="n">
-        <v>390000</v>
+        <v>100000</v>
       </c>
       <c r="P324" t="n">
-        <v>387500</v>
+        <v>97500</v>
       </c>
       <c r="Q324" t="inlineStr">
         <is>
@@ -26306,7 +26306,7 @@
         </is>
       </c>
       <c r="S324" t="n">
-        <v>969</v>
+        <v>244</v>
       </c>
       <c r="T324" t="n">
         <v>400</v>
@@ -26360,20 +26360,20 @@
       </c>
       <c r="L325" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M325" t="n">
         <v>20</v>
       </c>
       <c r="N325" t="n">
-        <v>345000</v>
+        <v>385000</v>
       </c>
       <c r="O325" t="n">
-        <v>350000</v>
+        <v>390000</v>
       </c>
       <c r="P325" t="n">
-        <v>347500</v>
+        <v>387500</v>
       </c>
       <c r="Q325" t="inlineStr">
         <is>
@@ -26386,7 +26386,7 @@
         </is>
       </c>
       <c r="S325" t="n">
-        <v>869</v>
+        <v>969</v>
       </c>
       <c r="T325" t="n">
         <v>400</v>
@@ -26435,25 +26435,25 @@
       </c>
       <c r="K326" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L326" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M326" t="n">
         <v>20</v>
       </c>
       <c r="N326" t="n">
-        <v>385000</v>
+        <v>345000</v>
       </c>
       <c r="O326" t="n">
-        <v>390000</v>
+        <v>350000</v>
       </c>
       <c r="P326" t="n">
-        <v>387500</v>
+        <v>347500</v>
       </c>
       <c r="Q326" t="inlineStr">
         <is>
@@ -26466,7 +26466,7 @@
         </is>
       </c>
       <c r="S326" t="n">
-        <v>969</v>
+        <v>869</v>
       </c>
       <c r="T326" t="n">
         <v>400</v>
@@ -26520,20 +26520,20 @@
       </c>
       <c r="L327" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M327" t="n">
         <v>20</v>
       </c>
       <c r="N327" t="n">
-        <v>345000</v>
+        <v>385000</v>
       </c>
       <c r="O327" t="n">
-        <v>350000</v>
+        <v>390000</v>
       </c>
       <c r="P327" t="n">
-        <v>347500</v>
+        <v>387500</v>
       </c>
       <c r="Q327" t="inlineStr">
         <is>
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="S327" t="n">
-        <v>869</v>
+        <v>969</v>
       </c>
       <c r="T327" t="n">
         <v>400</v>
@@ -26595,25 +26595,25 @@
       </c>
       <c r="K328" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L328" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M328" t="n">
         <v>20</v>
       </c>
       <c r="N328" t="n">
-        <v>495000</v>
+        <v>345000</v>
       </c>
       <c r="O328" t="n">
-        <v>500000</v>
+        <v>350000</v>
       </c>
       <c r="P328" t="n">
-        <v>497500</v>
+        <v>347500</v>
       </c>
       <c r="Q328" t="inlineStr">
         <is>
@@ -26626,7 +26626,7 @@
         </is>
       </c>
       <c r="S328" t="n">
-        <v>1244</v>
+        <v>869</v>
       </c>
       <c r="T328" t="n">
         <v>400</v>
@@ -26647,7 +26647,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44350</v>
+        <v>44308</v>
       </c>
       <c r="E329" t="n">
         <v>4</v>
@@ -26675,7 +26675,7 @@
       </c>
       <c r="K329" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L329" t="inlineStr">
@@ -26687,13 +26687,13 @@
         <v>20</v>
       </c>
       <c r="N329" t="n">
-        <v>200000</v>
+        <v>495000</v>
       </c>
       <c r="O329" t="n">
-        <v>210000</v>
+        <v>500000</v>
       </c>
       <c r="P329" t="n">
-        <v>205000</v>
+        <v>497500</v>
       </c>
       <c r="Q329" t="inlineStr">
         <is>
@@ -26706,7 +26706,7 @@
         </is>
       </c>
       <c r="S329" t="n">
-        <v>512</v>
+        <v>1244</v>
       </c>
       <c r="T329" t="n">
         <v>400</v>
@@ -26760,20 +26760,20 @@
       </c>
       <c r="L330" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M330" t="n">
         <v>20</v>
       </c>
       <c r="N330" t="n">
-        <v>170000</v>
+        <v>200000</v>
       </c>
       <c r="O330" t="n">
-        <v>180000</v>
+        <v>210000</v>
       </c>
       <c r="P330" t="n">
-        <v>175000</v>
+        <v>205000</v>
       </c>
       <c r="Q330" t="inlineStr">
         <is>
@@ -26786,7 +26786,7 @@
         </is>
       </c>
       <c r="S330" t="n">
-        <v>438</v>
+        <v>512</v>
       </c>
       <c r="T330" t="n">
         <v>400</v>
@@ -26835,25 +26835,25 @@
       </c>
       <c r="K331" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L331" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M331" t="n">
         <v>20</v>
       </c>
       <c r="N331" t="n">
-        <v>200000</v>
+        <v>170000</v>
       </c>
       <c r="O331" t="n">
-        <v>210000</v>
+        <v>180000</v>
       </c>
       <c r="P331" t="n">
-        <v>205000</v>
+        <v>175000</v>
       </c>
       <c r="Q331" t="inlineStr">
         <is>
@@ -26866,7 +26866,7 @@
         </is>
       </c>
       <c r="S331" t="n">
-        <v>512</v>
+        <v>438</v>
       </c>
       <c r="T331" t="n">
         <v>400</v>
@@ -26920,20 +26920,20 @@
       </c>
       <c r="L332" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M332" t="n">
         <v>20</v>
       </c>
       <c r="N332" t="n">
-        <v>170000</v>
+        <v>200000</v>
       </c>
       <c r="O332" t="n">
-        <v>180000</v>
+        <v>210000</v>
       </c>
       <c r="P332" t="n">
-        <v>175000</v>
+        <v>205000</v>
       </c>
       <c r="Q332" t="inlineStr">
         <is>
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="S332" t="n">
-        <v>438</v>
+        <v>512</v>
       </c>
       <c r="T332" t="n">
         <v>400</v>
@@ -26967,7 +26967,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44405</v>
+        <v>44350</v>
       </c>
       <c r="E333" t="n">
         <v>4</v>
@@ -26995,25 +26995,25 @@
       </c>
       <c r="K333" t="inlineStr">
         <is>
-          <t>Cara cara</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L333" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M333" t="n">
         <v>20</v>
       </c>
       <c r="N333" t="n">
-        <v>115000</v>
+        <v>170000</v>
       </c>
       <c r="O333" t="n">
-        <v>120000</v>
+        <v>180000</v>
       </c>
       <c r="P333" t="n">
-        <v>117500</v>
+        <v>175000</v>
       </c>
       <c r="Q333" t="inlineStr">
         <is>
@@ -27026,7 +27026,7 @@
         </is>
       </c>
       <c r="S333" t="n">
-        <v>294</v>
+        <v>438</v>
       </c>
       <c r="T333" t="n">
         <v>400</v>
@@ -27080,20 +27080,20 @@
       </c>
       <c r="L334" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M334" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N334" t="n">
-        <v>95000</v>
+        <v>115000</v>
       </c>
       <c r="O334" t="n">
-        <v>100000</v>
+        <v>120000</v>
       </c>
       <c r="P334" t="n">
-        <v>97500</v>
+        <v>117500</v>
       </c>
       <c r="Q334" t="inlineStr">
         <is>
@@ -27106,7 +27106,7 @@
         </is>
       </c>
       <c r="S334" t="n">
-        <v>244</v>
+        <v>294</v>
       </c>
       <c r="T334" t="n">
         <v>400</v>
@@ -27155,25 +27155,25 @@
       </c>
       <c r="K335" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Cara cara</t>
         </is>
       </c>
       <c r="L335" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M335" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N335" t="n">
+        <v>95000</v>
+      </c>
+      <c r="O335" t="n">
         <v>100000</v>
       </c>
-      <c r="O335" t="n">
-        <v>110000</v>
-      </c>
       <c r="P335" t="n">
-        <v>105000</v>
+        <v>97500</v>
       </c>
       <c r="Q335" t="inlineStr">
         <is>
@@ -27186,7 +27186,7 @@
         </is>
       </c>
       <c r="S335" t="n">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="T335" t="n">
         <v>400</v>
@@ -27240,20 +27240,20 @@
       </c>
       <c r="L336" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M336" t="n">
         <v>20</v>
       </c>
       <c r="N336" t="n">
-        <v>80000</v>
+        <v>100000</v>
       </c>
       <c r="O336" t="n">
-        <v>90000</v>
+        <v>110000</v>
       </c>
       <c r="P336" t="n">
-        <v>85000</v>
+        <v>105000</v>
       </c>
       <c r="Q336" t="inlineStr">
         <is>
@@ -27266,7 +27266,7 @@
         </is>
       </c>
       <c r="S336" t="n">
-        <v>212</v>
+        <v>262</v>
       </c>
       <c r="T336" t="n">
         <v>400</v>
@@ -27315,25 +27315,25 @@
       </c>
       <c r="K337" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L337" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M337" t="n">
         <v>20</v>
       </c>
       <c r="N337" t="n">
-        <v>100000</v>
+        <v>80000</v>
       </c>
       <c r="O337" t="n">
-        <v>110000</v>
+        <v>90000</v>
       </c>
       <c r="P337" t="n">
-        <v>105000</v>
+        <v>85000</v>
       </c>
       <c r="Q337" t="inlineStr">
         <is>
@@ -27346,7 +27346,7 @@
         </is>
       </c>
       <c r="S337" t="n">
-        <v>262</v>
+        <v>212</v>
       </c>
       <c r="T337" t="n">
         <v>400</v>
@@ -27400,20 +27400,20 @@
       </c>
       <c r="L338" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M338" t="n">
         <v>20</v>
       </c>
       <c r="N338" t="n">
-        <v>80000</v>
+        <v>100000</v>
       </c>
       <c r="O338" t="n">
-        <v>90000</v>
+        <v>110000</v>
       </c>
       <c r="P338" t="n">
-        <v>85000</v>
+        <v>105000</v>
       </c>
       <c r="Q338" t="inlineStr">
         <is>
@@ -27426,7 +27426,7 @@
         </is>
       </c>
       <c r="S338" t="n">
-        <v>212</v>
+        <v>262</v>
       </c>
       <c r="T338" t="n">
         <v>400</v>
@@ -27447,7 +27447,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44413</v>
+        <v>44405</v>
       </c>
       <c r="E339" t="n">
         <v>4</v>
@@ -27475,25 +27475,25 @@
       </c>
       <c r="K339" t="inlineStr">
         <is>
-          <t>Cara cara</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L339" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M339" t="n">
         <v>20</v>
       </c>
       <c r="N339" t="n">
-        <v>110000</v>
+        <v>80000</v>
       </c>
       <c r="O339" t="n">
-        <v>115000</v>
+        <v>90000</v>
       </c>
       <c r="P339" t="n">
-        <v>112500</v>
+        <v>85000</v>
       </c>
       <c r="Q339" t="inlineStr">
         <is>
@@ -27506,7 +27506,7 @@
         </is>
       </c>
       <c r="S339" t="n">
-        <v>281</v>
+        <v>212</v>
       </c>
       <c r="T339" t="n">
         <v>400</v>
@@ -27560,20 +27560,20 @@
       </c>
       <c r="L340" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M340" t="n">
         <v>20</v>
       </c>
       <c r="N340" t="n">
-        <v>80000</v>
+        <v>110000</v>
       </c>
       <c r="O340" t="n">
-        <v>85000</v>
+        <v>115000</v>
       </c>
       <c r="P340" t="n">
-        <v>82500</v>
+        <v>112500</v>
       </c>
       <c r="Q340" t="inlineStr">
         <is>
@@ -27586,7 +27586,7 @@
         </is>
       </c>
       <c r="S340" t="n">
-        <v>206</v>
+        <v>281</v>
       </c>
       <c r="T340" t="n">
         <v>400</v>
@@ -27635,25 +27635,25 @@
       </c>
       <c r="K341" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Cara cara</t>
         </is>
       </c>
       <c r="L341" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M341" t="n">
         <v>20</v>
       </c>
       <c r="N341" t="n">
-        <v>105000</v>
+        <v>80000</v>
       </c>
       <c r="O341" t="n">
-        <v>110000</v>
+        <v>85000</v>
       </c>
       <c r="P341" t="n">
-        <v>107500</v>
+        <v>82500</v>
       </c>
       <c r="Q341" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         </is>
       </c>
       <c r="S341" t="n">
-        <v>269</v>
+        <v>206</v>
       </c>
       <c r="T341" t="n">
         <v>400</v>
@@ -27720,20 +27720,20 @@
       </c>
       <c r="L342" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M342" t="n">
         <v>20</v>
       </c>
       <c r="N342" t="n">
-        <v>70000</v>
+        <v>105000</v>
       </c>
       <c r="O342" t="n">
-        <v>75000</v>
+        <v>110000</v>
       </c>
       <c r="P342" t="n">
-        <v>72500</v>
+        <v>107500</v>
       </c>
       <c r="Q342" t="inlineStr">
         <is>
@@ -27746,7 +27746,7 @@
         </is>
       </c>
       <c r="S342" t="n">
-        <v>181</v>
+        <v>269</v>
       </c>
       <c r="T342" t="n">
         <v>400</v>
@@ -27795,25 +27795,25 @@
       </c>
       <c r="K343" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L343" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M343" t="n">
         <v>20</v>
       </c>
       <c r="N343" t="n">
-        <v>110000</v>
+        <v>70000</v>
       </c>
       <c r="O343" t="n">
-        <v>115000</v>
+        <v>75000</v>
       </c>
       <c r="P343" t="n">
-        <v>112500</v>
+        <v>72500</v>
       </c>
       <c r="Q343" t="inlineStr">
         <is>
@@ -27826,7 +27826,7 @@
         </is>
       </c>
       <c r="S343" t="n">
-        <v>281</v>
+        <v>181</v>
       </c>
       <c r="T343" t="n">
         <v>400</v>
@@ -27880,20 +27880,20 @@
       </c>
       <c r="L344" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M344" t="n">
         <v>20</v>
       </c>
       <c r="N344" t="n">
-        <v>80000</v>
+        <v>110000</v>
       </c>
       <c r="O344" t="n">
-        <v>85000</v>
+        <v>115000</v>
       </c>
       <c r="P344" t="n">
-        <v>82500</v>
+        <v>112500</v>
       </c>
       <c r="Q344" t="inlineStr">
         <is>
@@ -27906,7 +27906,7 @@
         </is>
       </c>
       <c r="S344" t="n">
-        <v>206</v>
+        <v>281</v>
       </c>
       <c r="T344" t="n">
         <v>400</v>
@@ -27955,25 +27955,25 @@
       </c>
       <c r="K345" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L345" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M345" t="n">
         <v>20</v>
       </c>
       <c r="N345" t="n">
-        <v>110000</v>
+        <v>80000</v>
       </c>
       <c r="O345" t="n">
-        <v>120000</v>
+        <v>85000</v>
       </c>
       <c r="P345" t="n">
-        <v>115000</v>
+        <v>82500</v>
       </c>
       <c r="Q345" t="inlineStr">
         <is>
@@ -27986,7 +27986,7 @@
         </is>
       </c>
       <c r="S345" t="n">
-        <v>288</v>
+        <v>206</v>
       </c>
       <c r="T345" t="n">
         <v>400</v>
@@ -28040,20 +28040,20 @@
       </c>
       <c r="L346" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M346" t="n">
         <v>20</v>
       </c>
       <c r="N346" t="n">
-        <v>80000</v>
+        <v>110000</v>
       </c>
       <c r="O346" t="n">
-        <v>90000</v>
+        <v>120000</v>
       </c>
       <c r="P346" t="n">
-        <v>85000</v>
+        <v>115000</v>
       </c>
       <c r="Q346" t="inlineStr">
         <is>
@@ -28066,7 +28066,7 @@
         </is>
       </c>
       <c r="S346" t="n">
-        <v>212</v>
+        <v>288</v>
       </c>
       <c r="T346" t="n">
         <v>400</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44238</v>
+        <v>44413</v>
       </c>
       <c r="E347" t="n">
         <v>4</v>
@@ -28115,25 +28115,25 @@
       </c>
       <c r="K347" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L347" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M347" t="n">
         <v>20</v>
       </c>
       <c r="N347" t="n">
-        <v>485000</v>
+        <v>80000</v>
       </c>
       <c r="O347" t="n">
-        <v>490000</v>
+        <v>90000</v>
       </c>
       <c r="P347" t="n">
-        <v>487500</v>
+        <v>85000</v>
       </c>
       <c r="Q347" t="inlineStr">
         <is>
@@ -28146,7 +28146,7 @@
         </is>
       </c>
       <c r="S347" t="n">
-        <v>1219</v>
+        <v>212</v>
       </c>
       <c r="T347" t="n">
         <v>400</v>
@@ -28200,20 +28200,20 @@
       </c>
       <c r="L348" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M348" t="n">
         <v>20</v>
       </c>
       <c r="N348" t="n">
-        <v>455000</v>
+        <v>485000</v>
       </c>
       <c r="O348" t="n">
-        <v>460000</v>
+        <v>490000</v>
       </c>
       <c r="P348" t="n">
-        <v>457500</v>
+        <v>487500</v>
       </c>
       <c r="Q348" t="inlineStr">
         <is>
@@ -28226,7 +28226,7 @@
         </is>
       </c>
       <c r="S348" t="n">
-        <v>1144</v>
+        <v>1219</v>
       </c>
       <c r="T348" t="n">
         <v>400</v>
@@ -28247,7 +28247,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44175</v>
+        <v>44238</v>
       </c>
       <c r="E349" t="n">
         <v>4</v>
@@ -28275,25 +28275,25 @@
       </c>
       <c r="K349" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L349" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M349" t="n">
         <v>20</v>
       </c>
       <c r="N349" t="n">
-        <v>325000</v>
+        <v>455000</v>
       </c>
       <c r="O349" t="n">
-        <v>330000</v>
+        <v>460000</v>
       </c>
       <c r="P349" t="n">
-        <v>327500</v>
+        <v>457500</v>
       </c>
       <c r="Q349" t="inlineStr">
         <is>
@@ -28306,7 +28306,7 @@
         </is>
       </c>
       <c r="S349" t="n">
-        <v>819</v>
+        <v>1144</v>
       </c>
       <c r="T349" t="n">
         <v>400</v>
@@ -28360,20 +28360,20 @@
       </c>
       <c r="L350" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M350" t="n">
         <v>20</v>
       </c>
       <c r="N350" t="n">
-        <v>265000</v>
+        <v>325000</v>
       </c>
       <c r="O350" t="n">
-        <v>270000</v>
+        <v>330000</v>
       </c>
       <c r="P350" t="n">
-        <v>267500</v>
+        <v>327500</v>
       </c>
       <c r="Q350" t="inlineStr">
         <is>
@@ -28386,7 +28386,7 @@
         </is>
       </c>
       <c r="S350" t="n">
-        <v>669</v>
+        <v>819</v>
       </c>
       <c r="T350" t="n">
         <v>400</v>
@@ -28435,25 +28435,25 @@
       </c>
       <c r="K351" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L351" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M351" t="n">
         <v>20</v>
       </c>
       <c r="N351" t="n">
-        <v>335000</v>
+        <v>265000</v>
       </c>
       <c r="O351" t="n">
-        <v>340000</v>
+        <v>270000</v>
       </c>
       <c r="P351" t="n">
-        <v>337500</v>
+        <v>267500</v>
       </c>
       <c r="Q351" t="inlineStr">
         <is>
@@ -28466,7 +28466,7 @@
         </is>
       </c>
       <c r="S351" t="n">
-        <v>844</v>
+        <v>669</v>
       </c>
       <c r="T351" t="n">
         <v>400</v>
@@ -28520,20 +28520,20 @@
       </c>
       <c r="L352" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M352" t="n">
         <v>20</v>
       </c>
       <c r="N352" t="n">
-        <v>285000</v>
+        <v>335000</v>
       </c>
       <c r="O352" t="n">
-        <v>290000</v>
+        <v>340000</v>
       </c>
       <c r="P352" t="n">
-        <v>287500</v>
+        <v>337500</v>
       </c>
       <c r="Q352" t="inlineStr">
         <is>
@@ -28546,7 +28546,7 @@
         </is>
       </c>
       <c r="S352" t="n">
-        <v>719</v>
+        <v>844</v>
       </c>
       <c r="T352" t="n">
         <v>400</v>
@@ -28567,7 +28567,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44188</v>
+        <v>44175</v>
       </c>
       <c r="E353" t="n">
         <v>4</v>
@@ -28600,20 +28600,20 @@
       </c>
       <c r="L353" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M353" t="n">
         <v>20</v>
       </c>
       <c r="N353" t="n">
-        <v>375000</v>
+        <v>285000</v>
       </c>
       <c r="O353" t="n">
-        <v>380000</v>
+        <v>290000</v>
       </c>
       <c r="P353" t="n">
-        <v>377500</v>
+        <v>287500</v>
       </c>
       <c r="Q353" t="inlineStr">
         <is>
@@ -28626,7 +28626,7 @@
         </is>
       </c>
       <c r="S353" t="n">
-        <v>944</v>
+        <v>719</v>
       </c>
       <c r="T353" t="n">
         <v>400</v>
@@ -28680,20 +28680,20 @@
       </c>
       <c r="L354" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M354" t="n">
         <v>20</v>
       </c>
       <c r="N354" t="n">
-        <v>335000</v>
+        <v>375000</v>
       </c>
       <c r="O354" t="n">
-        <v>340000</v>
+        <v>380000</v>
       </c>
       <c r="P354" t="n">
-        <v>337500</v>
+        <v>377500</v>
       </c>
       <c r="Q354" t="inlineStr">
         <is>
@@ -28706,7 +28706,7 @@
         </is>
       </c>
       <c r="S354" t="n">
-        <v>844</v>
+        <v>944</v>
       </c>
       <c r="T354" t="n">
         <v>400</v>
@@ -28727,7 +28727,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E355" t="n">
         <v>4</v>
@@ -28760,20 +28760,20 @@
       </c>
       <c r="L355" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M355" t="n">
         <v>20</v>
       </c>
       <c r="N355" t="n">
-        <v>455000</v>
+        <v>335000</v>
       </c>
       <c r="O355" t="n">
-        <v>460000</v>
+        <v>340000</v>
       </c>
       <c r="P355" t="n">
-        <v>457500</v>
+        <v>337500</v>
       </c>
       <c r="Q355" t="inlineStr">
         <is>
@@ -28786,7 +28786,7 @@
         </is>
       </c>
       <c r="S355" t="n">
-        <v>1144</v>
+        <v>844</v>
       </c>
       <c r="T355" t="n">
         <v>400</v>
@@ -28840,20 +28840,20 @@
       </c>
       <c r="L356" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M356" t="n">
         <v>20</v>
       </c>
       <c r="N356" t="n">
-        <v>415000</v>
+        <v>455000</v>
       </c>
       <c r="O356" t="n">
-        <v>420000</v>
+        <v>460000</v>
       </c>
       <c r="P356" t="n">
-        <v>417500</v>
+        <v>457500</v>
       </c>
       <c r="Q356" t="inlineStr">
         <is>
@@ -28866,7 +28866,7 @@
         </is>
       </c>
       <c r="S356" t="n">
-        <v>1044</v>
+        <v>1144</v>
       </c>
       <c r="T356" t="n">
         <v>400</v>
@@ -28887,7 +28887,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44224</v>
+        <v>44258</v>
       </c>
       <c r="E357" t="n">
         <v>4</v>
@@ -28920,20 +28920,20 @@
       </c>
       <c r="L357" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M357" t="n">
         <v>20</v>
       </c>
       <c r="N357" t="n">
-        <v>515000</v>
+        <v>415000</v>
       </c>
       <c r="O357" t="n">
-        <v>520000</v>
+        <v>420000</v>
       </c>
       <c r="P357" t="n">
-        <v>517500</v>
+        <v>417500</v>
       </c>
       <c r="Q357" t="inlineStr">
         <is>
@@ -28946,7 +28946,7 @@
         </is>
       </c>
       <c r="S357" t="n">
-        <v>1294</v>
+        <v>1044</v>
       </c>
       <c r="T357" t="n">
         <v>400</v>
@@ -29000,20 +29000,20 @@
       </c>
       <c r="L358" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M358" t="n">
         <v>20</v>
       </c>
       <c r="N358" t="n">
-        <v>495000</v>
+        <v>515000</v>
       </c>
       <c r="O358" t="n">
-        <v>500000</v>
+        <v>520000</v>
       </c>
       <c r="P358" t="n">
-        <v>497500</v>
+        <v>517500</v>
       </c>
       <c r="Q358" t="inlineStr">
         <is>
@@ -29026,7 +29026,7 @@
         </is>
       </c>
       <c r="S358" t="n">
-        <v>1244</v>
+        <v>1294</v>
       </c>
       <c r="T358" t="n">
         <v>400</v>
@@ -29047,7 +29047,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44329</v>
+        <v>44224</v>
       </c>
       <c r="E359" t="n">
         <v>4</v>
@@ -29075,7 +29075,7 @@
       </c>
       <c r="K359" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L359" t="inlineStr">
@@ -29087,13 +29087,13 @@
         <v>20</v>
       </c>
       <c r="N359" t="n">
-        <v>270000</v>
+        <v>495000</v>
       </c>
       <c r="O359" t="n">
-        <v>280000</v>
+        <v>500000</v>
       </c>
       <c r="P359" t="n">
-        <v>275000</v>
+        <v>497500</v>
       </c>
       <c r="Q359" t="inlineStr">
         <is>
@@ -29106,7 +29106,7 @@
         </is>
       </c>
       <c r="S359" t="n">
-        <v>688</v>
+        <v>1244</v>
       </c>
       <c r="T359" t="n">
         <v>400</v>
@@ -29155,7 +29155,7 @@
       </c>
       <c r="K360" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L360" t="inlineStr">
@@ -29207,7 +29207,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44195</v>
+        <v>44329</v>
       </c>
       <c r="E361" t="n">
         <v>4</v>
@@ -29235,7 +29235,7 @@
       </c>
       <c r="K361" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L361" t="inlineStr">
@@ -29244,16 +29244,16 @@
         </is>
       </c>
       <c r="M361" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N361" t="n">
-        <v>390000</v>
+        <v>270000</v>
       </c>
       <c r="O361" t="n">
-        <v>400000</v>
+        <v>280000</v>
       </c>
       <c r="P361" t="n">
-        <v>395000</v>
+        <v>275000</v>
       </c>
       <c r="Q361" t="inlineStr">
         <is>
@@ -29266,7 +29266,7 @@
         </is>
       </c>
       <c r="S361" t="n">
-        <v>988</v>
+        <v>688</v>
       </c>
       <c r="T361" t="n">
         <v>400</v>
@@ -29287,7 +29287,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44398</v>
+        <v>44195</v>
       </c>
       <c r="E362" t="n">
         <v>4</v>
@@ -29315,7 +29315,7 @@
       </c>
       <c r="K362" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L362" t="inlineStr">
@@ -29324,16 +29324,16 @@
         </is>
       </c>
       <c r="M362" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N362" t="n">
-        <v>100000</v>
+        <v>390000</v>
       </c>
       <c r="O362" t="n">
-        <v>110000</v>
+        <v>400000</v>
       </c>
       <c r="P362" t="n">
-        <v>105000</v>
+        <v>395000</v>
       </c>
       <c r="Q362" t="inlineStr">
         <is>
@@ -29346,7 +29346,7 @@
         </is>
       </c>
       <c r="S362" t="n">
-        <v>262</v>
+        <v>988</v>
       </c>
       <c r="T362" t="n">
         <v>400</v>
@@ -29400,20 +29400,20 @@
       </c>
       <c r="L363" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M363" t="n">
         <v>20</v>
       </c>
       <c r="N363" t="n">
-        <v>80000</v>
+        <v>100000</v>
       </c>
       <c r="O363" t="n">
-        <v>90000</v>
+        <v>110000</v>
       </c>
       <c r="P363" t="n">
-        <v>85000</v>
+        <v>105000</v>
       </c>
       <c r="Q363" t="inlineStr">
         <is>
@@ -29426,7 +29426,7 @@
         </is>
       </c>
       <c r="S363" t="n">
-        <v>212</v>
+        <v>262</v>
       </c>
       <c r="T363" t="n">
         <v>400</v>
@@ -29475,25 +29475,25 @@
       </c>
       <c r="K364" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L364" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M364" t="n">
         <v>20</v>
       </c>
       <c r="N364" t="n">
-        <v>100000</v>
+        <v>80000</v>
       </c>
       <c r="O364" t="n">
-        <v>110000</v>
+        <v>90000</v>
       </c>
       <c r="P364" t="n">
-        <v>105000</v>
+        <v>85000</v>
       </c>
       <c r="Q364" t="inlineStr">
         <is>
@@ -29506,7 +29506,7 @@
         </is>
       </c>
       <c r="S364" t="n">
-        <v>262</v>
+        <v>212</v>
       </c>
       <c r="T364" t="n">
         <v>400</v>
@@ -29555,7 +29555,7 @@
       </c>
       <c r="K365" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L365" t="inlineStr">
@@ -29640,20 +29640,20 @@
       </c>
       <c r="L366" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M366" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N366" t="n">
-        <v>80000</v>
+        <v>100000</v>
       </c>
       <c r="O366" t="n">
-        <v>90000</v>
+        <v>110000</v>
       </c>
       <c r="P366" t="n">
-        <v>85000</v>
+        <v>105000</v>
       </c>
       <c r="Q366" t="inlineStr">
         <is>
@@ -29666,7 +29666,7 @@
         </is>
       </c>
       <c r="S366" t="n">
-        <v>212</v>
+        <v>262</v>
       </c>
       <c r="T366" t="n">
         <v>400</v>
@@ -29687,7 +29687,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44461</v>
+        <v>44398</v>
       </c>
       <c r="E367" t="n">
         <v>4</v>
@@ -29715,25 +29715,25 @@
       </c>
       <c r="K367" t="inlineStr">
         <is>
-          <t>Cara cara</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L367" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M367" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N367" t="n">
-        <v>110000</v>
+        <v>80000</v>
       </c>
       <c r="O367" t="n">
-        <v>120000</v>
+        <v>90000</v>
       </c>
       <c r="P367" t="n">
-        <v>115000</v>
+        <v>85000</v>
       </c>
       <c r="Q367" t="inlineStr">
         <is>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="S367" t="n">
-        <v>288</v>
+        <v>212</v>
       </c>
       <c r="T367" t="n">
         <v>400</v>
@@ -29800,20 +29800,20 @@
       </c>
       <c r="L368" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M368" t="n">
         <v>20</v>
       </c>
       <c r="N368" t="n">
-        <v>90000</v>
+        <v>110000</v>
       </c>
       <c r="O368" t="n">
-        <v>100000</v>
+        <v>120000</v>
       </c>
       <c r="P368" t="n">
-        <v>95000</v>
+        <v>115000</v>
       </c>
       <c r="Q368" t="inlineStr">
         <is>
@@ -29826,7 +29826,7 @@
         </is>
       </c>
       <c r="S368" t="n">
-        <v>238</v>
+        <v>288</v>
       </c>
       <c r="T368" t="n">
         <v>400</v>
@@ -29875,25 +29875,25 @@
       </c>
       <c r="K369" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Cara cara</t>
         </is>
       </c>
       <c r="L369" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M369" t="n">
         <v>20</v>
       </c>
       <c r="N369" t="n">
+        <v>90000</v>
+      </c>
+      <c r="O369" t="n">
         <v>100000</v>
       </c>
-      <c r="O369" t="n">
-        <v>110000</v>
-      </c>
       <c r="P369" t="n">
-        <v>105000</v>
+        <v>95000</v>
       </c>
       <c r="Q369" t="inlineStr">
         <is>
@@ -29906,7 +29906,7 @@
         </is>
       </c>
       <c r="S369" t="n">
-        <v>262</v>
+        <v>238</v>
       </c>
       <c r="T369" t="n">
         <v>400</v>
@@ -29960,20 +29960,20 @@
       </c>
       <c r="L370" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M370" t="n">
         <v>20</v>
       </c>
       <c r="N370" t="n">
-        <v>80000</v>
+        <v>100000</v>
       </c>
       <c r="O370" t="n">
-        <v>90000</v>
+        <v>110000</v>
       </c>
       <c r="P370" t="n">
-        <v>85000</v>
+        <v>105000</v>
       </c>
       <c r="Q370" t="inlineStr">
         <is>
@@ -29986,7 +29986,7 @@
         </is>
       </c>
       <c r="S370" t="n">
-        <v>212</v>
+        <v>262</v>
       </c>
       <c r="T370" t="n">
         <v>400</v>
@@ -30007,7 +30007,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E371" t="n">
         <v>4</v>
@@ -30035,25 +30035,25 @@
       </c>
       <c r="K371" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L371" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M371" t="n">
         <v>20</v>
       </c>
       <c r="N371" t="n">
-        <v>145000</v>
+        <v>80000</v>
       </c>
       <c r="O371" t="n">
-        <v>150000</v>
+        <v>90000</v>
       </c>
       <c r="P371" t="n">
-        <v>147500</v>
+        <v>85000</v>
       </c>
       <c r="Q371" t="inlineStr">
         <is>
@@ -30066,7 +30066,7 @@
         </is>
       </c>
       <c r="S371" t="n">
-        <v>369</v>
+        <v>212</v>
       </c>
       <c r="T371" t="n">
         <v>400</v>
@@ -30120,20 +30120,20 @@
       </c>
       <c r="L372" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M372" t="n">
         <v>20</v>
       </c>
       <c r="N372" t="n">
-        <v>115000</v>
+        <v>145000</v>
       </c>
       <c r="O372" t="n">
-        <v>120000</v>
+        <v>150000</v>
       </c>
       <c r="P372" t="n">
-        <v>117500</v>
+        <v>147500</v>
       </c>
       <c r="Q372" t="inlineStr">
         <is>
@@ -30146,7 +30146,7 @@
         </is>
       </c>
       <c r="S372" t="n">
-        <v>294</v>
+        <v>369</v>
       </c>
       <c r="T372" t="n">
         <v>400</v>
@@ -30195,25 +30195,25 @@
       </c>
       <c r="K373" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L373" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M373" t="n">
         <v>20</v>
       </c>
       <c r="N373" t="n">
-        <v>145000</v>
+        <v>115000</v>
       </c>
       <c r="O373" t="n">
-        <v>150000</v>
+        <v>120000</v>
       </c>
       <c r="P373" t="n">
-        <v>147500</v>
+        <v>117500</v>
       </c>
       <c r="Q373" t="inlineStr">
         <is>
@@ -30226,7 +30226,7 @@
         </is>
       </c>
       <c r="S373" t="n">
-        <v>369</v>
+        <v>294</v>
       </c>
       <c r="T373" t="n">
         <v>400</v>
@@ -30280,20 +30280,20 @@
       </c>
       <c r="L374" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M374" t="n">
         <v>20</v>
       </c>
       <c r="N374" t="n">
-        <v>115000</v>
+        <v>145000</v>
       </c>
       <c r="O374" t="n">
-        <v>120000</v>
+        <v>150000</v>
       </c>
       <c r="P374" t="n">
-        <v>117500</v>
+        <v>147500</v>
       </c>
       <c r="Q374" t="inlineStr">
         <is>
@@ -30306,7 +30306,7 @@
         </is>
       </c>
       <c r="S374" t="n">
-        <v>294</v>
+        <v>369</v>
       </c>
       <c r="T374" t="n">
         <v>400</v>
@@ -30327,7 +30327,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44371</v>
+        <v>44357</v>
       </c>
       <c r="E375" t="n">
         <v>4</v>
@@ -30355,25 +30355,25 @@
       </c>
       <c r="K375" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L375" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M375" t="n">
         <v>20</v>
       </c>
       <c r="N375" t="n">
-        <v>125000</v>
+        <v>115000</v>
       </c>
       <c r="O375" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="P375" t="n">
-        <v>127500</v>
+        <v>117500</v>
       </c>
       <c r="Q375" t="inlineStr">
         <is>
@@ -30386,7 +30386,7 @@
         </is>
       </c>
       <c r="S375" t="n">
-        <v>319</v>
+        <v>294</v>
       </c>
       <c r="T375" t="n">
         <v>400</v>
@@ -30440,20 +30440,20 @@
       </c>
       <c r="L376" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M376" t="n">
         <v>20</v>
       </c>
       <c r="N376" t="n">
-        <v>105000</v>
+        <v>125000</v>
       </c>
       <c r="O376" t="n">
-        <v>110000</v>
+        <v>130000</v>
       </c>
       <c r="P376" t="n">
-        <v>107500</v>
+        <v>127500</v>
       </c>
       <c r="Q376" t="inlineStr">
         <is>
@@ -30466,7 +30466,7 @@
         </is>
       </c>
       <c r="S376" t="n">
-        <v>269</v>
+        <v>319</v>
       </c>
       <c r="T376" t="n">
         <v>400</v>
@@ -30515,25 +30515,25 @@
       </c>
       <c r="K377" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L377" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M377" t="n">
         <v>20</v>
       </c>
       <c r="N377" t="n">
-        <v>155000</v>
+        <v>105000</v>
       </c>
       <c r="O377" t="n">
-        <v>160000</v>
+        <v>110000</v>
       </c>
       <c r="P377" t="n">
-        <v>157500</v>
+        <v>107500</v>
       </c>
       <c r="Q377" t="inlineStr">
         <is>
@@ -30546,7 +30546,7 @@
         </is>
       </c>
       <c r="S377" t="n">
-        <v>394</v>
+        <v>269</v>
       </c>
       <c r="T377" t="n">
         <v>400</v>
@@ -30600,20 +30600,20 @@
       </c>
       <c r="L378" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M378" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N378" t="n">
-        <v>135000</v>
+        <v>155000</v>
       </c>
       <c r="O378" t="n">
-        <v>140000</v>
+        <v>160000</v>
       </c>
       <c r="P378" t="n">
-        <v>137500</v>
+        <v>157500</v>
       </c>
       <c r="Q378" t="inlineStr">
         <is>
@@ -30626,7 +30626,7 @@
         </is>
       </c>
       <c r="S378" t="n">
-        <v>344</v>
+        <v>394</v>
       </c>
       <c r="T378" t="n">
         <v>400</v>
@@ -30680,20 +30680,20 @@
       </c>
       <c r="L379" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M379" t="n">
         <v>16</v>
       </c>
       <c r="N379" t="n">
-        <v>115000</v>
+        <v>135000</v>
       </c>
       <c r="O379" t="n">
-        <v>120000</v>
+        <v>140000</v>
       </c>
       <c r="P379" t="n">
-        <v>117500</v>
+        <v>137500</v>
       </c>
       <c r="Q379" t="inlineStr">
         <is>
@@ -30706,7 +30706,7 @@
         </is>
       </c>
       <c r="S379" t="n">
-        <v>294</v>
+        <v>344</v>
       </c>
       <c r="T379" t="n">
         <v>400</v>
@@ -30755,25 +30755,25 @@
       </c>
       <c r="K380" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L380" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M380" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N380" t="n">
-        <v>135000</v>
+        <v>115000</v>
       </c>
       <c r="O380" t="n">
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="P380" t="n">
-        <v>137500</v>
+        <v>117500</v>
       </c>
       <c r="Q380" t="inlineStr">
         <is>
@@ -30786,7 +30786,7 @@
         </is>
       </c>
       <c r="S380" t="n">
-        <v>344</v>
+        <v>294</v>
       </c>
       <c r="T380" t="n">
         <v>400</v>
@@ -30840,20 +30840,20 @@
       </c>
       <c r="L381" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M381" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N381" t="n">
-        <v>115000</v>
+        <v>135000</v>
       </c>
       <c r="O381" t="n">
-        <v>120000</v>
+        <v>140000</v>
       </c>
       <c r="P381" t="n">
-        <v>117500</v>
+        <v>137500</v>
       </c>
       <c r="Q381" t="inlineStr">
         <is>
@@ -30866,7 +30866,7 @@
         </is>
       </c>
       <c r="S381" t="n">
-        <v>294</v>
+        <v>344</v>
       </c>
       <c r="T381" t="n">
         <v>400</v>
@@ -30887,7 +30887,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44454</v>
+        <v>44371</v>
       </c>
       <c r="E382" t="n">
         <v>4</v>
@@ -30915,25 +30915,25 @@
       </c>
       <c r="K382" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L382" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M382" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N382" t="n">
-        <v>100000</v>
+        <v>115000</v>
       </c>
       <c r="O382" t="n">
-        <v>110000</v>
+        <v>120000</v>
       </c>
       <c r="P382" t="n">
-        <v>105000</v>
+        <v>117500</v>
       </c>
       <c r="Q382" t="inlineStr">
         <is>
@@ -30946,7 +30946,7 @@
         </is>
       </c>
       <c r="S382" t="n">
-        <v>262</v>
+        <v>294</v>
       </c>
       <c r="T382" t="n">
         <v>400</v>
@@ -31000,20 +31000,20 @@
       </c>
       <c r="L383" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M383" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="N383" t="n">
-        <v>80000</v>
+        <v>100000</v>
       </c>
       <c r="O383" t="n">
-        <v>90000</v>
+        <v>110000</v>
       </c>
       <c r="P383" t="n">
-        <v>86429</v>
+        <v>105000</v>
       </c>
       <c r="Q383" t="inlineStr">
         <is>
@@ -31026,7 +31026,7 @@
         </is>
       </c>
       <c r="S383" t="n">
-        <v>216</v>
+        <v>262</v>
       </c>
       <c r="T383" t="n">
         <v>400</v>
@@ -31075,25 +31075,25 @@
       </c>
       <c r="K384" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L384" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M384" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N384" t="n">
-        <v>100000</v>
+        <v>80000</v>
       </c>
       <c r="O384" t="n">
-        <v>110000</v>
+        <v>90000</v>
       </c>
       <c r="P384" t="n">
-        <v>105000</v>
+        <v>86429</v>
       </c>
       <c r="Q384" t="inlineStr">
         <is>
@@ -31106,7 +31106,7 @@
         </is>
       </c>
       <c r="S384" t="n">
-        <v>262</v>
+        <v>216</v>
       </c>
       <c r="T384" t="n">
         <v>400</v>
@@ -31160,20 +31160,20 @@
       </c>
       <c r="L385" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M385" t="n">
         <v>20</v>
       </c>
       <c r="N385" t="n">
-        <v>80000</v>
+        <v>100000</v>
       </c>
       <c r="O385" t="n">
-        <v>90000</v>
+        <v>110000</v>
       </c>
       <c r="P385" t="n">
-        <v>85000</v>
+        <v>105000</v>
       </c>
       <c r="Q385" t="inlineStr">
         <is>
@@ -31186,7 +31186,7 @@
         </is>
       </c>
       <c r="S385" t="n">
-        <v>212</v>
+        <v>262</v>
       </c>
       <c r="T385" t="n">
         <v>400</v>
@@ -31207,7 +31207,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44272</v>
+        <v>44454</v>
       </c>
       <c r="E386" t="n">
         <v>4</v>
@@ -31235,25 +31235,25 @@
       </c>
       <c r="K386" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L386" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M386" t="n">
         <v>20</v>
       </c>
       <c r="N386" t="n">
-        <v>455000</v>
+        <v>80000</v>
       </c>
       <c r="O386" t="n">
-        <v>460000</v>
+        <v>90000</v>
       </c>
       <c r="P386" t="n">
-        <v>457500</v>
+        <v>85000</v>
       </c>
       <c r="Q386" t="inlineStr">
         <is>
@@ -31266,7 +31266,7 @@
         </is>
       </c>
       <c r="S386" t="n">
-        <v>1144</v>
+        <v>212</v>
       </c>
       <c r="T386" t="n">
         <v>400</v>
@@ -31320,35 +31320,115 @@
       </c>
       <c r="L387" t="inlineStr">
         <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M387" t="n">
+        <v>20</v>
+      </c>
+      <c r="N387" t="n">
+        <v>455000</v>
+      </c>
+      <c r="O387" t="n">
+        <v>460000</v>
+      </c>
+      <c r="P387" t="n">
+        <v>457500</v>
+      </c>
+      <c r="Q387" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R387" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S387" t="n">
+        <v>1144</v>
+      </c>
+      <c r="T387" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="n">
+        <v>2</v>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D388" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E388" t="n">
+        <v>4</v>
+      </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G388" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H388" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I388" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J388" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="L388" t="inlineStr">
+        <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M387" t="n">
-        <v>20</v>
-      </c>
-      <c r="N387" t="n">
+      <c r="M388" t="n">
+        <v>20</v>
+      </c>
+      <c r="N388" t="n">
         <v>415000</v>
       </c>
-      <c r="O387" t="n">
+      <c r="O388" t="n">
         <v>420000</v>
       </c>
-      <c r="P387" t="n">
+      <c r="P388" t="n">
         <v>417500</v>
       </c>
-      <c r="Q387" t="inlineStr">
-        <is>
-          <t>$/bins (400 kilos)</t>
-        </is>
-      </c>
-      <c r="R387" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="S387" t="n">
+      <c r="Q388" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R388" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S388" t="n">
         <v>1044</v>
       </c>
-      <c r="T387" t="n">
+      <c r="T388" t="n">
         <v>400</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Comercializadora del Agro de Limarí - Naranja.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Comercializadora del Agro de Limarí - Naranja.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T389"/>
+  <dimension ref="A1:T391"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15047,7 +15047,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44181</v>
+        <v>44566</v>
       </c>
       <c r="E184" t="n">
         <v>4</v>
@@ -15075,7 +15075,7 @@
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L184" t="inlineStr">
@@ -15084,16 +15084,16 @@
         </is>
       </c>
       <c r="M184" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="N184" t="n">
-        <v>355000</v>
+        <v>215000</v>
       </c>
       <c r="O184" t="n">
-        <v>360000</v>
+        <v>220000</v>
       </c>
       <c r="P184" t="n">
-        <v>357500</v>
+        <v>217500</v>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
@@ -15106,7 +15106,7 @@
         </is>
       </c>
       <c r="S184" t="n">
-        <v>894</v>
+        <v>544</v>
       </c>
       <c r="T184" t="n">
         <v>400</v>
@@ -15127,7 +15127,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44181</v>
+        <v>44566</v>
       </c>
       <c r="E185" t="n">
         <v>4</v>
@@ -15155,7 +15155,7 @@
       </c>
       <c r="K185" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L185" t="inlineStr">
@@ -15167,13 +15167,13 @@
         <v>16</v>
       </c>
       <c r="N185" t="n">
-        <v>355000</v>
+        <v>225000</v>
       </c>
       <c r="O185" t="n">
-        <v>360000</v>
+        <v>230000</v>
       </c>
       <c r="P185" t="n">
-        <v>357500</v>
+        <v>227500</v>
       </c>
       <c r="Q185" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         </is>
       </c>
       <c r="S185" t="n">
-        <v>894</v>
+        <v>569</v>
       </c>
       <c r="T185" t="n">
         <v>400</v>
@@ -15207,7 +15207,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44482</v>
+        <v>44181</v>
       </c>
       <c r="E186" t="n">
         <v>4</v>
@@ -15235,7 +15235,7 @@
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L186" t="inlineStr">
@@ -15244,16 +15244,16 @@
         </is>
       </c>
       <c r="M186" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N186" t="n">
-        <v>125000</v>
+        <v>355000</v>
       </c>
       <c r="O186" t="n">
-        <v>130000</v>
+        <v>360000</v>
       </c>
       <c r="P186" t="n">
-        <v>127500</v>
+        <v>357500</v>
       </c>
       <c r="Q186" t="inlineStr">
         <is>
@@ -15266,7 +15266,7 @@
         </is>
       </c>
       <c r="S186" t="n">
-        <v>319</v>
+        <v>894</v>
       </c>
       <c r="T186" t="n">
         <v>400</v>
@@ -15287,7 +15287,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44482</v>
+        <v>44181</v>
       </c>
       <c r="E187" t="n">
         <v>4</v>
@@ -15315,25 +15315,25 @@
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M187" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N187" t="n">
-        <v>95000</v>
+        <v>355000</v>
       </c>
       <c r="O187" t="n">
-        <v>100000</v>
+        <v>360000</v>
       </c>
       <c r="P187" t="n">
-        <v>97500</v>
+        <v>357500</v>
       </c>
       <c r="Q187" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="S187" t="n">
-        <v>244</v>
+        <v>894</v>
       </c>
       <c r="T187" t="n">
         <v>400</v>
@@ -15395,7 +15395,7 @@
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L188" t="inlineStr">
@@ -15475,7 +15475,7 @@
       </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L189" t="inlineStr">
@@ -15527,7 +15527,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44273</v>
+        <v>44482</v>
       </c>
       <c r="E190" t="n">
         <v>4</v>
@@ -15555,25 +15555,25 @@
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M190" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N190" t="n">
-        <v>475000</v>
+        <v>125000</v>
       </c>
       <c r="O190" t="n">
-        <v>480000</v>
+        <v>130000</v>
       </c>
       <c r="P190" t="n">
-        <v>477500</v>
+        <v>127500</v>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         </is>
       </c>
       <c r="S190" t="n">
-        <v>1194</v>
+        <v>319</v>
       </c>
       <c r="T190" t="n">
         <v>400</v>
@@ -15607,7 +15607,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44273</v>
+        <v>44482</v>
       </c>
       <c r="E191" t="n">
         <v>4</v>
@@ -15635,25 +15635,25 @@
       </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M191" t="n">
         <v>20</v>
       </c>
       <c r="N191" t="n">
-        <v>455000</v>
+        <v>95000</v>
       </c>
       <c r="O191" t="n">
-        <v>460000</v>
+        <v>100000</v>
       </c>
       <c r="P191" t="n">
-        <v>457500</v>
+        <v>97500</v>
       </c>
       <c r="Q191" t="inlineStr">
         <is>
@@ -15666,7 +15666,7 @@
         </is>
       </c>
       <c r="S191" t="n">
-        <v>1144</v>
+        <v>244</v>
       </c>
       <c r="T191" t="n">
         <v>400</v>
@@ -15720,20 +15720,20 @@
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M192" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N192" t="n">
-        <v>415000</v>
+        <v>475000</v>
       </c>
       <c r="O192" t="n">
-        <v>420000</v>
+        <v>480000</v>
       </c>
       <c r="P192" t="n">
-        <v>417500</v>
+        <v>477500</v>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="S192" t="n">
-        <v>1044</v>
+        <v>1194</v>
       </c>
       <c r="T192" t="n">
         <v>400</v>
@@ -15767,7 +15767,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44364</v>
+        <v>44273</v>
       </c>
       <c r="E193" t="n">
         <v>4</v>
@@ -15795,7 +15795,7 @@
       </c>
       <c r="K193" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L193" t="inlineStr">
@@ -15807,13 +15807,13 @@
         <v>20</v>
       </c>
       <c r="N193" t="n">
-        <v>135000</v>
+        <v>455000</v>
       </c>
       <c r="O193" t="n">
-        <v>140000</v>
+        <v>460000</v>
       </c>
       <c r="P193" t="n">
-        <v>137500</v>
+        <v>457500</v>
       </c>
       <c r="Q193" t="inlineStr">
         <is>
@@ -15826,7 +15826,7 @@
         </is>
       </c>
       <c r="S193" t="n">
-        <v>344</v>
+        <v>1144</v>
       </c>
       <c r="T193" t="n">
         <v>400</v>
@@ -15847,7 +15847,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44364</v>
+        <v>44273</v>
       </c>
       <c r="E194" t="n">
         <v>4</v>
@@ -15875,7 +15875,7 @@
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L194" t="inlineStr">
@@ -15887,13 +15887,13 @@
         <v>20</v>
       </c>
       <c r="N194" t="n">
-        <v>115000</v>
+        <v>415000</v>
       </c>
       <c r="O194" t="n">
-        <v>120000</v>
+        <v>420000</v>
       </c>
       <c r="P194" t="n">
-        <v>117500</v>
+        <v>417500</v>
       </c>
       <c r="Q194" t="inlineStr">
         <is>
@@ -15906,7 +15906,7 @@
         </is>
       </c>
       <c r="S194" t="n">
-        <v>294</v>
+        <v>1044</v>
       </c>
       <c r="T194" t="n">
         <v>400</v>
@@ -15955,7 +15955,7 @@
       </c>
       <c r="K195" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L195" t="inlineStr">
@@ -15967,13 +15967,13 @@
         <v>20</v>
       </c>
       <c r="N195" t="n">
-        <v>150000</v>
+        <v>135000</v>
       </c>
       <c r="O195" t="n">
-        <v>155000</v>
+        <v>140000</v>
       </c>
       <c r="P195" t="n">
-        <v>152500</v>
+        <v>137500</v>
       </c>
       <c r="Q195" t="inlineStr">
         <is>
@@ -15986,7 +15986,7 @@
         </is>
       </c>
       <c r="S195" t="n">
-        <v>381</v>
+        <v>344</v>
       </c>
       <c r="T195" t="n">
         <v>400</v>
@@ -16035,7 +16035,7 @@
       </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L196" t="inlineStr">
@@ -16047,13 +16047,13 @@
         <v>20</v>
       </c>
       <c r="N196" t="n">
-        <v>130000</v>
+        <v>115000</v>
       </c>
       <c r="O196" t="n">
-        <v>135000</v>
+        <v>120000</v>
       </c>
       <c r="P196" t="n">
-        <v>132500</v>
+        <v>117500</v>
       </c>
       <c r="Q196" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         </is>
       </c>
       <c r="S196" t="n">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="T196" t="n">
         <v>400</v>
@@ -16115,7 +16115,7 @@
       </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L197" t="inlineStr">
@@ -16195,7 +16195,7 @@
       </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L198" t="inlineStr">
@@ -16247,7 +16247,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44469</v>
+        <v>44364</v>
       </c>
       <c r="E199" t="n">
         <v>4</v>
@@ -16275,7 +16275,7 @@
       </c>
       <c r="K199" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L199" t="inlineStr">
@@ -16287,13 +16287,13 @@
         <v>20</v>
       </c>
       <c r="N199" t="n">
-        <v>120000</v>
+        <v>150000</v>
       </c>
       <c r="O199" t="n">
-        <v>130000</v>
+        <v>155000</v>
       </c>
       <c r="P199" t="n">
-        <v>125000</v>
+        <v>152500</v>
       </c>
       <c r="Q199" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         </is>
       </c>
       <c r="S199" t="n">
-        <v>312</v>
+        <v>381</v>
       </c>
       <c r="T199" t="n">
         <v>400</v>
@@ -16327,7 +16327,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44469</v>
+        <v>44364</v>
       </c>
       <c r="E200" t="n">
         <v>4</v>
@@ -16355,7 +16355,7 @@
       </c>
       <c r="K200" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L200" t="inlineStr">
@@ -16367,13 +16367,13 @@
         <v>20</v>
       </c>
       <c r="N200" t="n">
-        <v>100000</v>
+        <v>130000</v>
       </c>
       <c r="O200" t="n">
-        <v>110000</v>
+        <v>135000</v>
       </c>
       <c r="P200" t="n">
-        <v>105000</v>
+        <v>132500</v>
       </c>
       <c r="Q200" t="inlineStr">
         <is>
@@ -16386,7 +16386,7 @@
         </is>
       </c>
       <c r="S200" t="n">
-        <v>262</v>
+        <v>331</v>
       </c>
       <c r="T200" t="n">
         <v>400</v>
@@ -16435,7 +16435,7 @@
       </c>
       <c r="K201" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L201" t="inlineStr">
@@ -16447,13 +16447,13 @@
         <v>20</v>
       </c>
       <c r="N201" t="n">
+        <v>120000</v>
+      </c>
+      <c r="O201" t="n">
         <v>130000</v>
       </c>
-      <c r="O201" t="n">
-        <v>140000</v>
-      </c>
       <c r="P201" t="n">
-        <v>135000</v>
+        <v>125000</v>
       </c>
       <c r="Q201" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         </is>
       </c>
       <c r="S201" t="n">
-        <v>338</v>
+        <v>312</v>
       </c>
       <c r="T201" t="n">
         <v>400</v>
@@ -16515,7 +16515,7 @@
       </c>
       <c r="K202" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L202" t="inlineStr">
@@ -16527,13 +16527,13 @@
         <v>20</v>
       </c>
       <c r="N202" t="n">
+        <v>100000</v>
+      </c>
+      <c r="O202" t="n">
         <v>110000</v>
       </c>
-      <c r="O202" t="n">
-        <v>120000</v>
-      </c>
       <c r="P202" t="n">
-        <v>115000</v>
+        <v>105000</v>
       </c>
       <c r="Q202" t="inlineStr">
         <is>
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="S202" t="n">
-        <v>288</v>
+        <v>262</v>
       </c>
       <c r="T202" t="n">
         <v>400</v>
@@ -16567,7 +16567,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44265</v>
+        <v>44469</v>
       </c>
       <c r="E203" t="n">
         <v>4</v>
@@ -16595,7 +16595,7 @@
       </c>
       <c r="K203" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L203" t="inlineStr">
@@ -16607,13 +16607,13 @@
         <v>20</v>
       </c>
       <c r="N203" t="n">
-        <v>455000</v>
+        <v>130000</v>
       </c>
       <c r="O203" t="n">
-        <v>460000</v>
+        <v>140000</v>
       </c>
       <c r="P203" t="n">
-        <v>457500</v>
+        <v>135000</v>
       </c>
       <c r="Q203" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         </is>
       </c>
       <c r="S203" t="n">
-        <v>1144</v>
+        <v>338</v>
       </c>
       <c r="T203" t="n">
         <v>400</v>
@@ -16647,7 +16647,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44265</v>
+        <v>44469</v>
       </c>
       <c r="E204" t="n">
         <v>4</v>
@@ -16675,7 +16675,7 @@
       </c>
       <c r="K204" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L204" t="inlineStr">
@@ -16687,13 +16687,13 @@
         <v>20</v>
       </c>
       <c r="N204" t="n">
-        <v>415000</v>
+        <v>110000</v>
       </c>
       <c r="O204" t="n">
-        <v>420000</v>
+        <v>120000</v>
       </c>
       <c r="P204" t="n">
-        <v>417500</v>
+        <v>115000</v>
       </c>
       <c r="Q204" t="inlineStr">
         <is>
@@ -16706,7 +16706,7 @@
         </is>
       </c>
       <c r="S204" t="n">
-        <v>1044</v>
+        <v>288</v>
       </c>
       <c r="T204" t="n">
         <v>400</v>
@@ -16727,7 +16727,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44280</v>
+        <v>44265</v>
       </c>
       <c r="E205" t="n">
         <v>4</v>
@@ -16807,7 +16807,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44280</v>
+        <v>44265</v>
       </c>
       <c r="E206" t="n">
         <v>4</v>
@@ -16887,7 +16887,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44209</v>
+        <v>44280</v>
       </c>
       <c r="E207" t="n">
         <v>4</v>
@@ -16920,20 +16920,20 @@
       </c>
       <c r="L207" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M207" t="n">
         <v>20</v>
       </c>
       <c r="N207" t="n">
-        <v>465000</v>
+        <v>455000</v>
       </c>
       <c r="O207" t="n">
-        <v>470000</v>
+        <v>460000</v>
       </c>
       <c r="P207" t="n">
-        <v>467500</v>
+        <v>457500</v>
       </c>
       <c r="Q207" t="inlineStr">
         <is>
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="S207" t="n">
-        <v>1169</v>
+        <v>1144</v>
       </c>
       <c r="T207" t="n">
         <v>400</v>
@@ -16967,7 +16967,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44209</v>
+        <v>44280</v>
       </c>
       <c r="E208" t="n">
         <v>4</v>
@@ -17000,7 +17000,7 @@
       </c>
       <c r="L208" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M208" t="n">
@@ -17080,20 +17080,20 @@
       </c>
       <c r="L209" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M209" t="n">
         <v>20</v>
       </c>
       <c r="N209" t="n">
-        <v>365000</v>
+        <v>465000</v>
       </c>
       <c r="O209" t="n">
-        <v>370000</v>
+        <v>470000</v>
       </c>
       <c r="P209" t="n">
-        <v>367500</v>
+        <v>467500</v>
       </c>
       <c r="Q209" t="inlineStr">
         <is>
@@ -17106,7 +17106,7 @@
         </is>
       </c>
       <c r="S209" t="n">
-        <v>919</v>
+        <v>1169</v>
       </c>
       <c r="T209" t="n">
         <v>400</v>
@@ -17127,7 +17127,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44525</v>
+        <v>44209</v>
       </c>
       <c r="E210" t="n">
         <v>4</v>
@@ -17155,7 +17155,7 @@
       </c>
       <c r="K210" t="inlineStr">
         <is>
-          <t>Cara cara</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L210" t="inlineStr">
@@ -17164,16 +17164,16 @@
         </is>
       </c>
       <c r="M210" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N210" t="n">
-        <v>170000</v>
+        <v>415000</v>
       </c>
       <c r="O210" t="n">
-        <v>175000</v>
+        <v>420000</v>
       </c>
       <c r="P210" t="n">
-        <v>172500</v>
+        <v>417500</v>
       </c>
       <c r="Q210" t="inlineStr">
         <is>
@@ -17186,7 +17186,7 @@
         </is>
       </c>
       <c r="S210" t="n">
-        <v>431</v>
+        <v>1044</v>
       </c>
       <c r="T210" t="n">
         <v>400</v>
@@ -17207,7 +17207,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44525</v>
+        <v>44209</v>
       </c>
       <c r="E211" t="n">
         <v>4</v>
@@ -17235,7 +17235,7 @@
       </c>
       <c r="K211" t="inlineStr">
         <is>
-          <t>Cara cara</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L211" t="inlineStr">
@@ -17244,16 +17244,16 @@
         </is>
       </c>
       <c r="M211" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N211" t="n">
-        <v>140000</v>
+        <v>365000</v>
       </c>
       <c r="O211" t="n">
-        <v>145000</v>
+        <v>370000</v>
       </c>
       <c r="P211" t="n">
-        <v>142500</v>
+        <v>367500</v>
       </c>
       <c r="Q211" t="inlineStr">
         <is>
@@ -17266,7 +17266,7 @@
         </is>
       </c>
       <c r="S211" t="n">
-        <v>356</v>
+        <v>919</v>
       </c>
       <c r="T211" t="n">
         <v>400</v>
@@ -17315,7 +17315,7 @@
       </c>
       <c r="K212" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Cara cara</t>
         </is>
       </c>
       <c r="L212" t="inlineStr">
@@ -17327,13 +17327,13 @@
         <v>16</v>
       </c>
       <c r="N212" t="n">
-        <v>160000</v>
+        <v>170000</v>
       </c>
       <c r="O212" t="n">
-        <v>165000</v>
+        <v>175000</v>
       </c>
       <c r="P212" t="n">
-        <v>162500</v>
+        <v>172500</v>
       </c>
       <c r="Q212" t="inlineStr">
         <is>
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="S212" t="n">
-        <v>406</v>
+        <v>431</v>
       </c>
       <c r="T212" t="n">
         <v>400</v>
@@ -17395,7 +17395,7 @@
       </c>
       <c r="K213" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Cara cara</t>
         </is>
       </c>
       <c r="L213" t="inlineStr">
@@ -17475,7 +17475,7 @@
       </c>
       <c r="K214" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L214" t="inlineStr">
@@ -17487,13 +17487,13 @@
         <v>16</v>
       </c>
       <c r="N214" t="n">
+        <v>160000</v>
+      </c>
+      <c r="O214" t="n">
         <v>165000</v>
       </c>
-      <c r="O214" t="n">
-        <v>170000</v>
-      </c>
       <c r="P214" t="n">
-        <v>167500</v>
+        <v>162500</v>
       </c>
       <c r="Q214" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         </is>
       </c>
       <c r="S214" t="n">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="T214" t="n">
         <v>400</v>
@@ -17555,7 +17555,7 @@
       </c>
       <c r="K215" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L215" t="inlineStr">
@@ -17567,13 +17567,13 @@
         <v>16</v>
       </c>
       <c r="N215" t="n">
+        <v>140000</v>
+      </c>
+      <c r="O215" t="n">
         <v>145000</v>
       </c>
-      <c r="O215" t="n">
-        <v>150000</v>
-      </c>
       <c r="P215" t="n">
-        <v>147500</v>
+        <v>142500</v>
       </c>
       <c r="Q215" t="inlineStr">
         <is>
@@ -17586,7 +17586,7 @@
         </is>
       </c>
       <c r="S215" t="n">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="T215" t="n">
         <v>400</v>
@@ -17607,7 +17607,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44266</v>
+        <v>44525</v>
       </c>
       <c r="E216" t="n">
         <v>4</v>
@@ -17635,7 +17635,7 @@
       </c>
       <c r="K216" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L216" t="inlineStr">
@@ -17644,16 +17644,16 @@
         </is>
       </c>
       <c r="M216" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N216" t="n">
-        <v>450000</v>
+        <v>165000</v>
       </c>
       <c r="O216" t="n">
-        <v>455000</v>
+        <v>170000</v>
       </c>
       <c r="P216" t="n">
-        <v>452500</v>
+        <v>167500</v>
       </c>
       <c r="Q216" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         </is>
       </c>
       <c r="S216" t="n">
-        <v>1131</v>
+        <v>419</v>
       </c>
       <c r="T216" t="n">
         <v>400</v>
@@ -17687,7 +17687,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44266</v>
+        <v>44525</v>
       </c>
       <c r="E217" t="n">
         <v>4</v>
@@ -17715,7 +17715,7 @@
       </c>
       <c r="K217" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L217" t="inlineStr">
@@ -17724,16 +17724,16 @@
         </is>
       </c>
       <c r="M217" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N217" t="n">
-        <v>410000</v>
+        <v>145000</v>
       </c>
       <c r="O217" t="n">
-        <v>415000</v>
+        <v>150000</v>
       </c>
       <c r="P217" t="n">
-        <v>412500</v>
+        <v>147500</v>
       </c>
       <c r="Q217" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="S217" t="n">
-        <v>1031</v>
+        <v>369</v>
       </c>
       <c r="T217" t="n">
         <v>400</v>
@@ -17767,7 +17767,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44427</v>
+        <v>44266</v>
       </c>
       <c r="E218" t="n">
         <v>4</v>
@@ -17795,25 +17795,25 @@
       </c>
       <c r="K218" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L218" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M218" t="n">
         <v>20</v>
       </c>
       <c r="N218" t="n">
-        <v>120000</v>
+        <v>450000</v>
       </c>
       <c r="O218" t="n">
-        <v>130000</v>
+        <v>455000</v>
       </c>
       <c r="P218" t="n">
-        <v>125000</v>
+        <v>452500</v>
       </c>
       <c r="Q218" t="inlineStr">
         <is>
@@ -17826,7 +17826,7 @@
         </is>
       </c>
       <c r="S218" t="n">
-        <v>312</v>
+        <v>1131</v>
       </c>
       <c r="T218" t="n">
         <v>400</v>
@@ -17847,7 +17847,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44427</v>
+        <v>44266</v>
       </c>
       <c r="E219" t="n">
         <v>4</v>
@@ -17875,25 +17875,25 @@
       </c>
       <c r="K219" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L219" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M219" t="n">
         <v>20</v>
       </c>
       <c r="N219" t="n">
-        <v>100000</v>
+        <v>410000</v>
       </c>
       <c r="O219" t="n">
-        <v>110000</v>
+        <v>415000</v>
       </c>
       <c r="P219" t="n">
-        <v>105000</v>
+        <v>412500</v>
       </c>
       <c r="Q219" t="inlineStr">
         <is>
@@ -17906,7 +17906,7 @@
         </is>
       </c>
       <c r="S219" t="n">
-        <v>262</v>
+        <v>1031</v>
       </c>
       <c r="T219" t="n">
         <v>400</v>
@@ -17960,20 +17960,20 @@
       </c>
       <c r="L220" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M220" t="n">
         <v>20</v>
       </c>
       <c r="N220" t="n">
-        <v>80000</v>
+        <v>120000</v>
       </c>
       <c r="O220" t="n">
-        <v>90000</v>
+        <v>130000</v>
       </c>
       <c r="P220" t="n">
-        <v>85000</v>
+        <v>125000</v>
       </c>
       <c r="Q220" t="inlineStr">
         <is>
@@ -17986,7 +17986,7 @@
         </is>
       </c>
       <c r="S220" t="n">
-        <v>212</v>
+        <v>312</v>
       </c>
       <c r="T220" t="n">
         <v>400</v>
@@ -18035,7 +18035,7 @@
       </c>
       <c r="K221" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L221" t="inlineStr">
@@ -18115,7 +18115,7 @@
       </c>
       <c r="K222" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L222" t="inlineStr">
@@ -18167,7 +18167,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44370</v>
+        <v>44427</v>
       </c>
       <c r="E223" t="n">
         <v>4</v>
@@ -18195,7 +18195,7 @@
       </c>
       <c r="K223" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L223" t="inlineStr">
@@ -18204,16 +18204,16 @@
         </is>
       </c>
       <c r="M223" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N223" t="n">
-        <v>125000</v>
+        <v>100000</v>
       </c>
       <c r="O223" t="n">
-        <v>130000</v>
+        <v>110000</v>
       </c>
       <c r="P223" t="n">
-        <v>127500</v>
+        <v>105000</v>
       </c>
       <c r="Q223" t="inlineStr">
         <is>
@@ -18226,7 +18226,7 @@
         </is>
       </c>
       <c r="S223" t="n">
-        <v>319</v>
+        <v>262</v>
       </c>
       <c r="T223" t="n">
         <v>400</v>
@@ -18247,7 +18247,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44370</v>
+        <v>44427</v>
       </c>
       <c r="E224" t="n">
         <v>4</v>
@@ -18275,7 +18275,7 @@
       </c>
       <c r="K224" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L224" t="inlineStr">
@@ -18287,13 +18287,13 @@
         <v>20</v>
       </c>
       <c r="N224" t="n">
-        <v>105000</v>
+        <v>80000</v>
       </c>
       <c r="O224" t="n">
-        <v>110000</v>
+        <v>90000</v>
       </c>
       <c r="P224" t="n">
-        <v>107500</v>
+        <v>85000</v>
       </c>
       <c r="Q224" t="inlineStr">
         <is>
@@ -18306,7 +18306,7 @@
         </is>
       </c>
       <c r="S224" t="n">
-        <v>269</v>
+        <v>212</v>
       </c>
       <c r="T224" t="n">
         <v>400</v>
@@ -18355,7 +18355,7 @@
       </c>
       <c r="K225" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L225" t="inlineStr">
@@ -18364,16 +18364,16 @@
         </is>
       </c>
       <c r="M225" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N225" t="n">
-        <v>135000</v>
+        <v>125000</v>
       </c>
       <c r="O225" t="n">
-        <v>140000</v>
+        <v>130000</v>
       </c>
       <c r="P225" t="n">
-        <v>137500</v>
+        <v>127500</v>
       </c>
       <c r="Q225" t="inlineStr">
         <is>
@@ -18386,7 +18386,7 @@
         </is>
       </c>
       <c r="S225" t="n">
-        <v>344</v>
+        <v>319</v>
       </c>
       <c r="T225" t="n">
         <v>400</v>
@@ -18435,7 +18435,7 @@
       </c>
       <c r="K226" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L226" t="inlineStr">
@@ -18447,13 +18447,13 @@
         <v>20</v>
       </c>
       <c r="N226" t="n">
-        <v>115000</v>
+        <v>105000</v>
       </c>
       <c r="O226" t="n">
-        <v>120000</v>
+        <v>110000</v>
       </c>
       <c r="P226" t="n">
-        <v>117500</v>
+        <v>107500</v>
       </c>
       <c r="Q226" t="inlineStr">
         <is>
@@ -18466,7 +18466,7 @@
         </is>
       </c>
       <c r="S226" t="n">
-        <v>294</v>
+        <v>269</v>
       </c>
       <c r="T226" t="n">
         <v>400</v>
@@ -18515,7 +18515,7 @@
       </c>
       <c r="K227" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L227" t="inlineStr">
@@ -18595,7 +18595,7 @@
       </c>
       <c r="K228" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L228" t="inlineStr">
@@ -18647,7 +18647,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44475</v>
+        <v>44370</v>
       </c>
       <c r="E229" t="n">
         <v>4</v>
@@ -18675,7 +18675,7 @@
       </c>
       <c r="K229" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L229" t="inlineStr">
@@ -18687,13 +18687,13 @@
         <v>20</v>
       </c>
       <c r="N229" t="n">
-        <v>125000</v>
+        <v>135000</v>
       </c>
       <c r="O229" t="n">
-        <v>130000</v>
+        <v>140000</v>
       </c>
       <c r="P229" t="n">
-        <v>127500</v>
+        <v>137500</v>
       </c>
       <c r="Q229" t="inlineStr">
         <is>
@@ -18706,7 +18706,7 @@
         </is>
       </c>
       <c r="S229" t="n">
-        <v>319</v>
+        <v>344</v>
       </c>
       <c r="T229" t="n">
         <v>400</v>
@@ -18727,7 +18727,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44475</v>
+        <v>44370</v>
       </c>
       <c r="E230" t="n">
         <v>4</v>
@@ -18755,7 +18755,7 @@
       </c>
       <c r="K230" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L230" t="inlineStr">
@@ -18767,13 +18767,13 @@
         <v>20</v>
       </c>
       <c r="N230" t="n">
-        <v>95000</v>
+        <v>115000</v>
       </c>
       <c r="O230" t="n">
-        <v>100000</v>
+        <v>120000</v>
       </c>
       <c r="P230" t="n">
-        <v>97500</v>
+        <v>117500</v>
       </c>
       <c r="Q230" t="inlineStr">
         <is>
@@ -18786,7 +18786,7 @@
         </is>
       </c>
       <c r="S230" t="n">
-        <v>244</v>
+        <v>294</v>
       </c>
       <c r="T230" t="n">
         <v>400</v>
@@ -18835,7 +18835,7 @@
       </c>
       <c r="K231" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L231" t="inlineStr">
@@ -18915,7 +18915,7 @@
       </c>
       <c r="K232" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L232" t="inlineStr">
@@ -18967,7 +18967,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44468</v>
+        <v>44475</v>
       </c>
       <c r="E233" t="n">
         <v>4</v>
@@ -18995,7 +18995,7 @@
       </c>
       <c r="K233" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L233" t="inlineStr">
@@ -19007,13 +19007,13 @@
         <v>20</v>
       </c>
       <c r="N233" t="n">
-        <v>120000</v>
+        <v>125000</v>
       </c>
       <c r="O233" t="n">
         <v>130000</v>
       </c>
       <c r="P233" t="n">
-        <v>125000</v>
+        <v>127500</v>
       </c>
       <c r="Q233" t="inlineStr">
         <is>
@@ -19026,7 +19026,7 @@
         </is>
       </c>
       <c r="S233" t="n">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="T233" t="n">
         <v>400</v>
@@ -19047,7 +19047,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44468</v>
+        <v>44475</v>
       </c>
       <c r="E234" t="n">
         <v>4</v>
@@ -19075,7 +19075,7 @@
       </c>
       <c r="K234" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L234" t="inlineStr">
@@ -19087,13 +19087,13 @@
         <v>20</v>
       </c>
       <c r="N234" t="n">
+        <v>95000</v>
+      </c>
+      <c r="O234" t="n">
         <v>100000</v>
       </c>
-      <c r="O234" t="n">
-        <v>110000</v>
-      </c>
       <c r="P234" t="n">
-        <v>105000</v>
+        <v>97500</v>
       </c>
       <c r="Q234" t="inlineStr">
         <is>
@@ -19106,7 +19106,7 @@
         </is>
       </c>
       <c r="S234" t="n">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="T234" t="n">
         <v>400</v>
@@ -19155,7 +19155,7 @@
       </c>
       <c r="K235" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L235" t="inlineStr">
@@ -19164,7 +19164,7 @@
         </is>
       </c>
       <c r="M235" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="N235" t="n">
         <v>120000</v>
@@ -19173,7 +19173,7 @@
         <v>130000</v>
       </c>
       <c r="P235" t="n">
-        <v>126429</v>
+        <v>125000</v>
       </c>
       <c r="Q235" t="inlineStr">
         <is>
@@ -19186,7 +19186,7 @@
         </is>
       </c>
       <c r="S235" t="n">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="T235" t="n">
         <v>400</v>
@@ -19235,7 +19235,7 @@
       </c>
       <c r="K236" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L236" t="inlineStr">
@@ -19287,7 +19287,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44532</v>
+        <v>44468</v>
       </c>
       <c r="E237" t="n">
         <v>4</v>
@@ -19315,7 +19315,7 @@
       </c>
       <c r="K237" t="inlineStr">
         <is>
-          <t>Cara cara</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L237" t="inlineStr">
@@ -19324,16 +19324,16 @@
         </is>
       </c>
       <c r="M237" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="N237" t="n">
-        <v>180000</v>
+        <v>120000</v>
       </c>
       <c r="O237" t="n">
-        <v>190000</v>
+        <v>130000</v>
       </c>
       <c r="P237" t="n">
-        <v>185000</v>
+        <v>126429</v>
       </c>
       <c r="Q237" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="S237" t="n">
-        <v>462</v>
+        <v>316</v>
       </c>
       <c r="T237" t="n">
         <v>400</v>
@@ -19367,7 +19367,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44532</v>
+        <v>44468</v>
       </c>
       <c r="E238" t="n">
         <v>4</v>
@@ -19395,7 +19395,7 @@
       </c>
       <c r="K238" t="inlineStr">
         <is>
-          <t>Cara cara</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L238" t="inlineStr">
@@ -19404,16 +19404,16 @@
         </is>
       </c>
       <c r="M238" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N238" t="n">
-        <v>140000</v>
+        <v>100000</v>
       </c>
       <c r="O238" t="n">
-        <v>150000</v>
+        <v>110000</v>
       </c>
       <c r="P238" t="n">
-        <v>145000</v>
+        <v>105000</v>
       </c>
       <c r="Q238" t="inlineStr">
         <is>
@@ -19426,7 +19426,7 @@
         </is>
       </c>
       <c r="S238" t="n">
-        <v>362</v>
+        <v>262</v>
       </c>
       <c r="T238" t="n">
         <v>400</v>
@@ -19475,7 +19475,7 @@
       </c>
       <c r="K239" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Cara cara</t>
         </is>
       </c>
       <c r="L239" t="inlineStr">
@@ -19487,13 +19487,13 @@
         <v>16</v>
       </c>
       <c r="N239" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="O239" t="n">
-        <v>170000</v>
+        <v>190000</v>
       </c>
       <c r="P239" t="n">
-        <v>165000</v>
+        <v>185000</v>
       </c>
       <c r="Q239" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         </is>
       </c>
       <c r="S239" t="n">
-        <v>412</v>
+        <v>462</v>
       </c>
       <c r="T239" t="n">
         <v>400</v>
@@ -19555,7 +19555,7 @@
       </c>
       <c r="K240" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Cara cara</t>
         </is>
       </c>
       <c r="L240" t="inlineStr">
@@ -19567,13 +19567,13 @@
         <v>16</v>
       </c>
       <c r="N240" t="n">
-        <v>130000</v>
+        <v>140000</v>
       </c>
       <c r="O240" t="n">
-        <v>140000</v>
+        <v>150000</v>
       </c>
       <c r="P240" t="n">
-        <v>135000</v>
+        <v>145000</v>
       </c>
       <c r="Q240" t="inlineStr">
         <is>
@@ -19586,7 +19586,7 @@
         </is>
       </c>
       <c r="S240" t="n">
-        <v>338</v>
+        <v>362</v>
       </c>
       <c r="T240" t="n">
         <v>400</v>
@@ -19635,7 +19635,7 @@
       </c>
       <c r="K241" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L241" t="inlineStr">
@@ -19644,16 +19644,16 @@
         </is>
       </c>
       <c r="M241" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N241" t="n">
-        <v>150000</v>
+        <v>160000</v>
       </c>
       <c r="O241" t="n">
-        <v>160000</v>
+        <v>170000</v>
       </c>
       <c r="P241" t="n">
-        <v>155000</v>
+        <v>165000</v>
       </c>
       <c r="Q241" t="inlineStr">
         <is>
@@ -19666,7 +19666,7 @@
         </is>
       </c>
       <c r="S241" t="n">
-        <v>388</v>
+        <v>412</v>
       </c>
       <c r="T241" t="n">
         <v>400</v>
@@ -19687,7 +19687,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44489</v>
+        <v>44532</v>
       </c>
       <c r="E242" t="n">
         <v>4</v>
@@ -19715,25 +19715,25 @@
       </c>
       <c r="K242" t="inlineStr">
         <is>
-          <t>Cara cara</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L242" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M242" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="N242" t="n">
-        <v>145000</v>
+        <v>130000</v>
       </c>
       <c r="O242" t="n">
-        <v>150000</v>
+        <v>140000</v>
       </c>
       <c r="P242" t="n">
-        <v>147500</v>
+        <v>135000</v>
       </c>
       <c r="Q242" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="S242" t="n">
-        <v>369</v>
+        <v>338</v>
       </c>
       <c r="T242" t="n">
         <v>400</v>
@@ -19767,7 +19767,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44489</v>
+        <v>44532</v>
       </c>
       <c r="E243" t="n">
         <v>4</v>
@@ -19795,7 +19795,7 @@
       </c>
       <c r="K243" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L243" t="inlineStr">
@@ -19807,13 +19807,13 @@
         <v>20</v>
       </c>
       <c r="N243" t="n">
-        <v>135000</v>
+        <v>150000</v>
       </c>
       <c r="O243" t="n">
-        <v>140000</v>
+        <v>160000</v>
       </c>
       <c r="P243" t="n">
-        <v>137500</v>
+        <v>155000</v>
       </c>
       <c r="Q243" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         </is>
       </c>
       <c r="S243" t="n">
-        <v>344</v>
+        <v>388</v>
       </c>
       <c r="T243" t="n">
         <v>400</v>
@@ -19875,25 +19875,25 @@
       </c>
       <c r="K244" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Cara cara</t>
         </is>
       </c>
       <c r="L244" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M244" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N244" t="n">
-        <v>105000</v>
+        <v>145000</v>
       </c>
       <c r="O244" t="n">
-        <v>110000</v>
+        <v>150000</v>
       </c>
       <c r="P244" t="n">
-        <v>107500</v>
+        <v>147500</v>
       </c>
       <c r="Q244" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         </is>
       </c>
       <c r="S244" t="n">
-        <v>269</v>
+        <v>369</v>
       </c>
       <c r="T244" t="n">
         <v>400</v>
@@ -19955,7 +19955,7 @@
       </c>
       <c r="K245" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L245" t="inlineStr">
@@ -20035,7 +20035,7 @@
       </c>
       <c r="K246" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L246" t="inlineStr">
@@ -20087,7 +20087,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44210</v>
+        <v>44489</v>
       </c>
       <c r="E247" t="n">
         <v>4</v>
@@ -20115,25 +20115,25 @@
       </c>
       <c r="K247" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L247" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M247" t="n">
         <v>20</v>
       </c>
       <c r="N247" t="n">
-        <v>475000</v>
+        <v>135000</v>
       </c>
       <c r="O247" t="n">
-        <v>480000</v>
+        <v>140000</v>
       </c>
       <c r="P247" t="n">
-        <v>477500</v>
+        <v>137500</v>
       </c>
       <c r="Q247" t="inlineStr">
         <is>
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="S247" t="n">
-        <v>1194</v>
+        <v>344</v>
       </c>
       <c r="T247" t="n">
         <v>400</v>
@@ -20167,7 +20167,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44210</v>
+        <v>44489</v>
       </c>
       <c r="E248" t="n">
         <v>4</v>
@@ -20195,25 +20195,25 @@
       </c>
       <c r="K248" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L248" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M248" t="n">
         <v>20</v>
       </c>
       <c r="N248" t="n">
-        <v>425000</v>
+        <v>105000</v>
       </c>
       <c r="O248" t="n">
-        <v>430000</v>
+        <v>110000</v>
       </c>
       <c r="P248" t="n">
-        <v>427500</v>
+        <v>107500</v>
       </c>
       <c r="Q248" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         </is>
       </c>
       <c r="S248" t="n">
-        <v>1069</v>
+        <v>269</v>
       </c>
       <c r="T248" t="n">
         <v>400</v>
@@ -20280,20 +20280,20 @@
       </c>
       <c r="L249" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M249" t="n">
         <v>20</v>
       </c>
       <c r="N249" t="n">
-        <v>375000</v>
+        <v>475000</v>
       </c>
       <c r="O249" t="n">
-        <v>380000</v>
+        <v>480000</v>
       </c>
       <c r="P249" t="n">
-        <v>377500</v>
+        <v>477500</v>
       </c>
       <c r="Q249" t="inlineStr">
         <is>
@@ -20306,7 +20306,7 @@
         </is>
       </c>
       <c r="S249" t="n">
-        <v>944</v>
+        <v>1194</v>
       </c>
       <c r="T249" t="n">
         <v>400</v>
@@ -20327,7 +20327,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44476</v>
+        <v>44210</v>
       </c>
       <c r="E250" t="n">
         <v>4</v>
@@ -20355,7 +20355,7 @@
       </c>
       <c r="K250" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L250" t="inlineStr">
@@ -20367,13 +20367,13 @@
         <v>20</v>
       </c>
       <c r="N250" t="n">
-        <v>120000</v>
+        <v>425000</v>
       </c>
       <c r="O250" t="n">
-        <v>125000</v>
+        <v>430000</v>
       </c>
       <c r="P250" t="n">
-        <v>122500</v>
+        <v>427500</v>
       </c>
       <c r="Q250" t="inlineStr">
         <is>
@@ -20386,7 +20386,7 @@
         </is>
       </c>
       <c r="S250" t="n">
-        <v>306</v>
+        <v>1069</v>
       </c>
       <c r="T250" t="n">
         <v>400</v>
@@ -20407,7 +20407,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44476</v>
+        <v>44210</v>
       </c>
       <c r="E251" t="n">
         <v>4</v>
@@ -20435,7 +20435,7 @@
       </c>
       <c r="K251" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L251" t="inlineStr">
@@ -20447,13 +20447,13 @@
         <v>20</v>
       </c>
       <c r="N251" t="n">
-        <v>90000</v>
+        <v>375000</v>
       </c>
       <c r="O251" t="n">
-        <v>95000</v>
+        <v>380000</v>
       </c>
       <c r="P251" t="n">
-        <v>92500</v>
+        <v>377500</v>
       </c>
       <c r="Q251" t="inlineStr">
         <is>
@@ -20466,7 +20466,7 @@
         </is>
       </c>
       <c r="S251" t="n">
-        <v>231</v>
+        <v>944</v>
       </c>
       <c r="T251" t="n">
         <v>400</v>
@@ -20515,7 +20515,7 @@
       </c>
       <c r="K252" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L252" t="inlineStr">
@@ -20595,7 +20595,7 @@
       </c>
       <c r="K253" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L253" t="inlineStr">
@@ -20647,7 +20647,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44168</v>
+        <v>44476</v>
       </c>
       <c r="E254" t="n">
         <v>4</v>
@@ -20687,13 +20687,13 @@
         <v>20</v>
       </c>
       <c r="N254" t="n">
-        <v>325000</v>
+        <v>120000</v>
       </c>
       <c r="O254" t="n">
-        <v>330000</v>
+        <v>125000</v>
       </c>
       <c r="P254" t="n">
-        <v>327500</v>
+        <v>122500</v>
       </c>
       <c r="Q254" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         </is>
       </c>
       <c r="S254" t="n">
-        <v>819</v>
+        <v>306</v>
       </c>
       <c r="T254" t="n">
         <v>400</v>
@@ -20727,7 +20727,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44168</v>
+        <v>44476</v>
       </c>
       <c r="E255" t="n">
         <v>4</v>
@@ -20767,13 +20767,13 @@
         <v>20</v>
       </c>
       <c r="N255" t="n">
-        <v>285000</v>
+        <v>90000</v>
       </c>
       <c r="O255" t="n">
-        <v>290000</v>
+        <v>95000</v>
       </c>
       <c r="P255" t="n">
-        <v>287500</v>
+        <v>92500</v>
       </c>
       <c r="Q255" t="inlineStr">
         <is>
@@ -20786,7 +20786,7 @@
         </is>
       </c>
       <c r="S255" t="n">
-        <v>719</v>
+        <v>231</v>
       </c>
       <c r="T255" t="n">
         <v>400</v>
@@ -20835,25 +20835,25 @@
       </c>
       <c r="K256" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L256" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M256" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N256" t="n">
-        <v>355000</v>
+        <v>325000</v>
       </c>
       <c r="O256" t="n">
-        <v>360000</v>
+        <v>330000</v>
       </c>
       <c r="P256" t="n">
-        <v>357500</v>
+        <v>327500</v>
       </c>
       <c r="Q256" t="inlineStr">
         <is>
@@ -20866,7 +20866,7 @@
         </is>
       </c>
       <c r="S256" t="n">
-        <v>894</v>
+        <v>819</v>
       </c>
       <c r="T256" t="n">
         <v>400</v>
@@ -20915,25 +20915,25 @@
       </c>
       <c r="K257" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L257" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M257" t="n">
         <v>20</v>
       </c>
       <c r="N257" t="n">
-        <v>335000</v>
+        <v>285000</v>
       </c>
       <c r="O257" t="n">
-        <v>340000</v>
+        <v>290000</v>
       </c>
       <c r="P257" t="n">
-        <v>337500</v>
+        <v>287500</v>
       </c>
       <c r="Q257" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="S257" t="n">
-        <v>844</v>
+        <v>719</v>
       </c>
       <c r="T257" t="n">
         <v>400</v>
@@ -21000,20 +21000,20 @@
       </c>
       <c r="L258" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M258" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N258" t="n">
-        <v>295000</v>
+        <v>355000</v>
       </c>
       <c r="O258" t="n">
-        <v>300000</v>
+        <v>360000</v>
       </c>
       <c r="P258" t="n">
-        <v>297500</v>
+        <v>357500</v>
       </c>
       <c r="Q258" t="inlineStr">
         <is>
@@ -21026,7 +21026,7 @@
         </is>
       </c>
       <c r="S258" t="n">
-        <v>744</v>
+        <v>894</v>
       </c>
       <c r="T258" t="n">
         <v>400</v>
@@ -21047,7 +21047,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44447</v>
+        <v>44168</v>
       </c>
       <c r="E259" t="n">
         <v>4</v>
@@ -21075,7 +21075,7 @@
       </c>
       <c r="K259" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L259" t="inlineStr">
@@ -21087,13 +21087,13 @@
         <v>20</v>
       </c>
       <c r="N259" t="n">
-        <v>110000</v>
+        <v>335000</v>
       </c>
       <c r="O259" t="n">
-        <v>120000</v>
+        <v>340000</v>
       </c>
       <c r="P259" t="n">
-        <v>115000</v>
+        <v>337500</v>
       </c>
       <c r="Q259" t="inlineStr">
         <is>
@@ -21106,7 +21106,7 @@
         </is>
       </c>
       <c r="S259" t="n">
-        <v>288</v>
+        <v>844</v>
       </c>
       <c r="T259" t="n">
         <v>400</v>
@@ -21127,7 +21127,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44447</v>
+        <v>44168</v>
       </c>
       <c r="E260" t="n">
         <v>4</v>
@@ -21155,7 +21155,7 @@
       </c>
       <c r="K260" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L260" t="inlineStr">
@@ -21164,16 +21164,16 @@
         </is>
       </c>
       <c r="M260" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="N260" t="n">
-        <v>80000</v>
+        <v>295000</v>
       </c>
       <c r="O260" t="n">
-        <v>90000</v>
+        <v>300000</v>
       </c>
       <c r="P260" t="n">
-        <v>86429</v>
+        <v>297500</v>
       </c>
       <c r="Q260" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         </is>
       </c>
       <c r="S260" t="n">
-        <v>216</v>
+        <v>744</v>
       </c>
       <c r="T260" t="n">
         <v>400</v>
@@ -21235,7 +21235,7 @@
       </c>
       <c r="K261" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L261" t="inlineStr">
@@ -21315,7 +21315,7 @@
       </c>
       <c r="K262" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L262" t="inlineStr">
@@ -21324,7 +21324,7 @@
         </is>
       </c>
       <c r="M262" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N262" t="n">
         <v>80000</v>
@@ -21333,7 +21333,7 @@
         <v>90000</v>
       </c>
       <c r="P262" t="n">
-        <v>85000</v>
+        <v>86429</v>
       </c>
       <c r="Q262" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="S262" t="n">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="T262" t="n">
         <v>400</v>
@@ -21367,7 +21367,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44553</v>
+        <v>44447</v>
       </c>
       <c r="E263" t="n">
         <v>4</v>
@@ -21395,7 +21395,7 @@
       </c>
       <c r="K263" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L263" t="inlineStr">
@@ -21404,16 +21404,16 @@
         </is>
       </c>
       <c r="M263" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N263" t="n">
-        <v>210000</v>
+        <v>110000</v>
       </c>
       <c r="O263" t="n">
-        <v>220000</v>
+        <v>120000</v>
       </c>
       <c r="P263" t="n">
-        <v>215000</v>
+        <v>115000</v>
       </c>
       <c r="Q263" t="inlineStr">
         <is>
@@ -21426,7 +21426,7 @@
         </is>
       </c>
       <c r="S263" t="n">
-        <v>538</v>
+        <v>288</v>
       </c>
       <c r="T263" t="n">
         <v>400</v>
@@ -21447,7 +21447,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44167</v>
+        <v>44447</v>
       </c>
       <c r="E264" t="n">
         <v>4</v>
@@ -21480,20 +21480,20 @@
       </c>
       <c r="L264" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M264" t="n">
         <v>20</v>
       </c>
       <c r="N264" t="n">
-        <v>320000</v>
+        <v>80000</v>
       </c>
       <c r="O264" t="n">
-        <v>330000</v>
+        <v>90000</v>
       </c>
       <c r="P264" t="n">
-        <v>325000</v>
+        <v>85000</v>
       </c>
       <c r="Q264" t="inlineStr">
         <is>
@@ -21506,7 +21506,7 @@
         </is>
       </c>
       <c r="S264" t="n">
-        <v>812</v>
+        <v>212</v>
       </c>
       <c r="T264" t="n">
         <v>400</v>
@@ -21527,7 +21527,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44167</v>
+        <v>44553</v>
       </c>
       <c r="E265" t="n">
         <v>4</v>
@@ -21555,25 +21555,25 @@
       </c>
       <c r="K265" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L265" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M265" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N265" t="n">
-        <v>280000</v>
+        <v>210000</v>
       </c>
       <c r="O265" t="n">
-        <v>290000</v>
+        <v>220000</v>
       </c>
       <c r="P265" t="n">
-        <v>285000</v>
+        <v>215000</v>
       </c>
       <c r="Q265" t="inlineStr">
         <is>
@@ -21586,7 +21586,7 @@
         </is>
       </c>
       <c r="S265" t="n">
-        <v>712</v>
+        <v>538</v>
       </c>
       <c r="T265" t="n">
         <v>400</v>
@@ -21635,7 +21635,7 @@
       </c>
       <c r="K266" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L266" t="inlineStr">
@@ -21647,13 +21647,13 @@
         <v>20</v>
       </c>
       <c r="N266" t="n">
+        <v>320000</v>
+      </c>
+      <c r="O266" t="n">
         <v>330000</v>
       </c>
-      <c r="O266" t="n">
-        <v>340000</v>
-      </c>
       <c r="P266" t="n">
-        <v>335000</v>
+        <v>325000</v>
       </c>
       <c r="Q266" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         </is>
       </c>
       <c r="S266" t="n">
-        <v>838</v>
+        <v>812</v>
       </c>
       <c r="T266" t="n">
         <v>400</v>
@@ -21715,7 +21715,7 @@
       </c>
       <c r="K267" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L267" t="inlineStr">
@@ -21727,13 +21727,13 @@
         <v>20</v>
       </c>
       <c r="N267" t="n">
+        <v>280000</v>
+      </c>
+      <c r="O267" t="n">
         <v>290000</v>
       </c>
-      <c r="O267" t="n">
-        <v>300000</v>
-      </c>
       <c r="P267" t="n">
-        <v>295000</v>
+        <v>285000</v>
       </c>
       <c r="Q267" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="S267" t="n">
-        <v>738</v>
+        <v>712</v>
       </c>
       <c r="T267" t="n">
         <v>400</v>
@@ -21767,7 +21767,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44161</v>
+        <v>44167</v>
       </c>
       <c r="E268" t="n">
         <v>4</v>
@@ -21795,25 +21795,25 @@
       </c>
       <c r="K268" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L268" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M268" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N268" t="n">
-        <v>325000</v>
+        <v>330000</v>
       </c>
       <c r="O268" t="n">
-        <v>330000</v>
+        <v>340000</v>
       </c>
       <c r="P268" t="n">
-        <v>327500</v>
+        <v>335000</v>
       </c>
       <c r="Q268" t="inlineStr">
         <is>
@@ -21826,7 +21826,7 @@
         </is>
       </c>
       <c r="S268" t="n">
-        <v>819</v>
+        <v>838</v>
       </c>
       <c r="T268" t="n">
         <v>400</v>
@@ -21847,7 +21847,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44161</v>
+        <v>44167</v>
       </c>
       <c r="E269" t="n">
         <v>4</v>
@@ -21875,25 +21875,25 @@
       </c>
       <c r="K269" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L269" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M269" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N269" t="n">
-        <v>305000</v>
+        <v>290000</v>
       </c>
       <c r="O269" t="n">
-        <v>310000</v>
+        <v>300000</v>
       </c>
       <c r="P269" t="n">
-        <v>307500</v>
+        <v>295000</v>
       </c>
       <c r="Q269" t="inlineStr">
         <is>
@@ -21906,7 +21906,7 @@
         </is>
       </c>
       <c r="S269" t="n">
-        <v>769</v>
+        <v>738</v>
       </c>
       <c r="T269" t="n">
         <v>400</v>
@@ -21960,20 +21960,20 @@
       </c>
       <c r="L270" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M270" t="n">
         <v>10</v>
       </c>
       <c r="N270" t="n">
-        <v>255000</v>
+        <v>325000</v>
       </c>
       <c r="O270" t="n">
-        <v>260000</v>
+        <v>330000</v>
       </c>
       <c r="P270" t="n">
-        <v>257500</v>
+        <v>327500</v>
       </c>
       <c r="Q270" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
         </is>
       </c>
       <c r="S270" t="n">
-        <v>644</v>
+        <v>819</v>
       </c>
       <c r="T270" t="n">
         <v>400</v>
@@ -22007,7 +22007,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44328</v>
+        <v>44161</v>
       </c>
       <c r="E271" t="n">
         <v>4</v>
@@ -22035,7 +22035,7 @@
       </c>
       <c r="K271" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L271" t="inlineStr">
@@ -22044,16 +22044,16 @@
         </is>
       </c>
       <c r="M271" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N271" t="n">
-        <v>290000</v>
+        <v>305000</v>
       </c>
       <c r="O271" t="n">
-        <v>300000</v>
+        <v>310000</v>
       </c>
       <c r="P271" t="n">
-        <v>295000</v>
+        <v>307500</v>
       </c>
       <c r="Q271" t="inlineStr">
         <is>
@@ -22066,7 +22066,7 @@
         </is>
       </c>
       <c r="S271" t="n">
-        <v>738</v>
+        <v>769</v>
       </c>
       <c r="T271" t="n">
         <v>400</v>
@@ -22087,7 +22087,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44328</v>
+        <v>44161</v>
       </c>
       <c r="E272" t="n">
         <v>4</v>
@@ -22115,25 +22115,25 @@
       </c>
       <c r="K272" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L272" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M272" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N272" t="n">
-        <v>290000</v>
+        <v>255000</v>
       </c>
       <c r="O272" t="n">
-        <v>300000</v>
+        <v>260000</v>
       </c>
       <c r="P272" t="n">
-        <v>295000</v>
+        <v>257500</v>
       </c>
       <c r="Q272" t="inlineStr">
         <is>
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="S272" t="n">
-        <v>738</v>
+        <v>644</v>
       </c>
       <c r="T272" t="n">
         <v>400</v>
@@ -22167,7 +22167,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44160</v>
+        <v>44328</v>
       </c>
       <c r="E273" t="n">
         <v>4</v>
@@ -22195,25 +22195,25 @@
       </c>
       <c r="K273" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L273" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M273" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N273" t="n">
-        <v>325000</v>
+        <v>290000</v>
       </c>
       <c r="O273" t="n">
-        <v>330000</v>
+        <v>300000</v>
       </c>
       <c r="P273" t="n">
-        <v>327500</v>
+        <v>295000</v>
       </c>
       <c r="Q273" t="inlineStr">
         <is>
@@ -22226,7 +22226,7 @@
         </is>
       </c>
       <c r="S273" t="n">
-        <v>819</v>
+        <v>738</v>
       </c>
       <c r="T273" t="n">
         <v>400</v>
@@ -22247,7 +22247,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44160</v>
+        <v>44328</v>
       </c>
       <c r="E274" t="n">
         <v>4</v>
@@ -22275,7 +22275,7 @@
       </c>
       <c r="K274" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L274" t="inlineStr">
@@ -22287,13 +22287,13 @@
         <v>20</v>
       </c>
       <c r="N274" t="n">
-        <v>305000</v>
+        <v>290000</v>
       </c>
       <c r="O274" t="n">
-        <v>310000</v>
+        <v>300000</v>
       </c>
       <c r="P274" t="n">
-        <v>307500</v>
+        <v>295000</v>
       </c>
       <c r="Q274" t="inlineStr">
         <is>
@@ -22306,7 +22306,7 @@
         </is>
       </c>
       <c r="S274" t="n">
-        <v>769</v>
+        <v>738</v>
       </c>
       <c r="T274" t="n">
         <v>400</v>
@@ -22360,20 +22360,20 @@
       </c>
       <c r="L275" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M275" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N275" t="n">
-        <v>255000</v>
+        <v>325000</v>
       </c>
       <c r="O275" t="n">
-        <v>260000</v>
+        <v>330000</v>
       </c>
       <c r="P275" t="n">
-        <v>257500</v>
+        <v>327500</v>
       </c>
       <c r="Q275" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         </is>
       </c>
       <c r="S275" t="n">
-        <v>644</v>
+        <v>819</v>
       </c>
       <c r="T275" t="n">
         <v>400</v>
@@ -22407,7 +22407,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44434</v>
+        <v>44160</v>
       </c>
       <c r="E276" t="n">
         <v>4</v>
@@ -22435,25 +22435,25 @@
       </c>
       <c r="K276" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L276" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M276" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N276" t="n">
-        <v>125000</v>
+        <v>305000</v>
       </c>
       <c r="O276" t="n">
-        <v>130000</v>
+        <v>310000</v>
       </c>
       <c r="P276" t="n">
-        <v>127500</v>
+        <v>307500</v>
       </c>
       <c r="Q276" t="inlineStr">
         <is>
@@ -22466,7 +22466,7 @@
         </is>
       </c>
       <c r="S276" t="n">
-        <v>319</v>
+        <v>769</v>
       </c>
       <c r="T276" t="n">
         <v>400</v>
@@ -22487,7 +22487,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44434</v>
+        <v>44160</v>
       </c>
       <c r="E277" t="n">
         <v>4</v>
@@ -22515,25 +22515,25 @@
       </c>
       <c r="K277" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L277" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M277" t="n">
         <v>20</v>
       </c>
       <c r="N277" t="n">
-        <v>105000</v>
+        <v>255000</v>
       </c>
       <c r="O277" t="n">
-        <v>110000</v>
+        <v>260000</v>
       </c>
       <c r="P277" t="n">
-        <v>107500</v>
+        <v>257500</v>
       </c>
       <c r="Q277" t="inlineStr">
         <is>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="S277" t="n">
-        <v>269</v>
+        <v>644</v>
       </c>
       <c r="T277" t="n">
         <v>400</v>
@@ -22600,20 +22600,20 @@
       </c>
       <c r="L278" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M278" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="N278" t="n">
-        <v>85000</v>
+        <v>125000</v>
       </c>
       <c r="O278" t="n">
-        <v>90000</v>
+        <v>130000</v>
       </c>
       <c r="P278" t="n">
-        <v>87500</v>
+        <v>127500</v>
       </c>
       <c r="Q278" t="inlineStr">
         <is>
@@ -22626,7 +22626,7 @@
         </is>
       </c>
       <c r="S278" t="n">
-        <v>219</v>
+        <v>319</v>
       </c>
       <c r="T278" t="n">
         <v>400</v>
@@ -22675,7 +22675,7 @@
       </c>
       <c r="K279" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L279" t="inlineStr">
@@ -22687,13 +22687,13 @@
         <v>20</v>
       </c>
       <c r="N279" t="n">
-        <v>95000</v>
+        <v>105000</v>
       </c>
       <c r="O279" t="n">
-        <v>100000</v>
+        <v>110000</v>
       </c>
       <c r="P279" t="n">
-        <v>97500</v>
+        <v>107500</v>
       </c>
       <c r="Q279" t="inlineStr">
         <is>
@@ -22706,7 +22706,7 @@
         </is>
       </c>
       <c r="S279" t="n">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="T279" t="n">
         <v>400</v>
@@ -22755,7 +22755,7 @@
       </c>
       <c r="K280" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L280" t="inlineStr">
@@ -22764,16 +22764,16 @@
         </is>
       </c>
       <c r="M280" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N280" t="n">
-        <v>75000</v>
+        <v>85000</v>
       </c>
       <c r="O280" t="n">
-        <v>80000</v>
+        <v>90000</v>
       </c>
       <c r="P280" t="n">
-        <v>77500</v>
+        <v>87500</v>
       </c>
       <c r="Q280" t="inlineStr">
         <is>
@@ -22786,7 +22786,7 @@
         </is>
       </c>
       <c r="S280" t="n">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="T280" t="n">
         <v>400</v>
@@ -22835,7 +22835,7 @@
       </c>
       <c r="K281" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L281" t="inlineStr">
@@ -22844,7 +22844,7 @@
         </is>
       </c>
       <c r="M281" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N281" t="n">
         <v>95000</v>
@@ -22915,7 +22915,7 @@
       </c>
       <c r="K282" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L282" t="inlineStr">
@@ -22924,7 +22924,7 @@
         </is>
       </c>
       <c r="M282" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N282" t="n">
         <v>75000</v>
@@ -22967,7 +22967,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44231</v>
+        <v>44434</v>
       </c>
       <c r="E283" t="n">
         <v>4</v>
@@ -22995,7 +22995,7 @@
       </c>
       <c r="K283" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L283" t="inlineStr">
@@ -23004,16 +23004,16 @@
         </is>
       </c>
       <c r="M283" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N283" t="n">
-        <v>485000</v>
+        <v>95000</v>
       </c>
       <c r="O283" t="n">
-        <v>490000</v>
+        <v>100000</v>
       </c>
       <c r="P283" t="n">
-        <v>487500</v>
+        <v>97500</v>
       </c>
       <c r="Q283" t="inlineStr">
         <is>
@@ -23026,7 +23026,7 @@
         </is>
       </c>
       <c r="S283" t="n">
-        <v>1219</v>
+        <v>244</v>
       </c>
       <c r="T283" t="n">
         <v>400</v>
@@ -23047,7 +23047,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44231</v>
+        <v>44434</v>
       </c>
       <c r="E284" t="n">
         <v>4</v>
@@ -23075,7 +23075,7 @@
       </c>
       <c r="K284" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L284" t="inlineStr">
@@ -23084,16 +23084,16 @@
         </is>
       </c>
       <c r="M284" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N284" t="n">
-        <v>455000</v>
+        <v>75000</v>
       </c>
       <c r="O284" t="n">
-        <v>460000</v>
+        <v>80000</v>
       </c>
       <c r="P284" t="n">
-        <v>457500</v>
+        <v>77500</v>
       </c>
       <c r="Q284" t="inlineStr">
         <is>
@@ -23106,7 +23106,7 @@
         </is>
       </c>
       <c r="S284" t="n">
-        <v>1144</v>
+        <v>194</v>
       </c>
       <c r="T284" t="n">
         <v>400</v>
@@ -23127,7 +23127,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44490</v>
+        <v>44231</v>
       </c>
       <c r="E285" t="n">
         <v>4</v>
@@ -23155,7 +23155,7 @@
       </c>
       <c r="K285" t="inlineStr">
         <is>
-          <t>Cara cara</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L285" t="inlineStr">
@@ -23164,16 +23164,16 @@
         </is>
       </c>
       <c r="M285" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N285" t="n">
-        <v>145000</v>
+        <v>485000</v>
       </c>
       <c r="O285" t="n">
-        <v>150000</v>
+        <v>490000</v>
       </c>
       <c r="P285" t="n">
-        <v>147500</v>
+        <v>487500</v>
       </c>
       <c r="Q285" t="inlineStr">
         <is>
@@ -23186,7 +23186,7 @@
         </is>
       </c>
       <c r="S285" t="n">
-        <v>369</v>
+        <v>1219</v>
       </c>
       <c r="T285" t="n">
         <v>400</v>
@@ -23207,7 +23207,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44490</v>
+        <v>44231</v>
       </c>
       <c r="E286" t="n">
         <v>4</v>
@@ -23235,25 +23235,25 @@
       </c>
       <c r="K286" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L286" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M286" t="n">
         <v>20</v>
       </c>
       <c r="N286" t="n">
-        <v>135000</v>
+        <v>455000</v>
       </c>
       <c r="O286" t="n">
-        <v>140000</v>
+        <v>460000</v>
       </c>
       <c r="P286" t="n">
-        <v>137500</v>
+        <v>457500</v>
       </c>
       <c r="Q286" t="inlineStr">
         <is>
@@ -23266,7 +23266,7 @@
         </is>
       </c>
       <c r="S286" t="n">
-        <v>344</v>
+        <v>1144</v>
       </c>
       <c r="T286" t="n">
         <v>400</v>
@@ -23315,25 +23315,25 @@
       </c>
       <c r="K287" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Cara cara</t>
         </is>
       </c>
       <c r="L287" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M287" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N287" t="n">
-        <v>105000</v>
+        <v>145000</v>
       </c>
       <c r="O287" t="n">
-        <v>110000</v>
+        <v>150000</v>
       </c>
       <c r="P287" t="n">
-        <v>107500</v>
+        <v>147500</v>
       </c>
       <c r="Q287" t="inlineStr">
         <is>
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="S287" t="n">
-        <v>269</v>
+        <v>369</v>
       </c>
       <c r="T287" t="n">
         <v>400</v>
@@ -23395,7 +23395,7 @@
       </c>
       <c r="K288" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L288" t="inlineStr">
@@ -23404,7 +23404,7 @@
         </is>
       </c>
       <c r="M288" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N288" t="n">
         <v>135000</v>
@@ -23475,7 +23475,7 @@
       </c>
       <c r="K289" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L289" t="inlineStr">
@@ -23484,7 +23484,7 @@
         </is>
       </c>
       <c r="M289" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N289" t="n">
         <v>105000</v>
@@ -23527,7 +23527,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44259</v>
+        <v>44490</v>
       </c>
       <c r="E290" t="n">
         <v>4</v>
@@ -23555,7 +23555,7 @@
       </c>
       <c r="K290" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L290" t="inlineStr">
@@ -23564,16 +23564,16 @@
         </is>
       </c>
       <c r="M290" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N290" t="n">
-        <v>455000</v>
+        <v>135000</v>
       </c>
       <c r="O290" t="n">
-        <v>460000</v>
+        <v>140000</v>
       </c>
       <c r="P290" t="n">
-        <v>457500</v>
+        <v>137500</v>
       </c>
       <c r="Q290" t="inlineStr">
         <is>
@@ -23586,7 +23586,7 @@
         </is>
       </c>
       <c r="S290" t="n">
-        <v>1144</v>
+        <v>344</v>
       </c>
       <c r="T290" t="n">
         <v>400</v>
@@ -23607,7 +23607,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44259</v>
+        <v>44490</v>
       </c>
       <c r="E291" t="n">
         <v>4</v>
@@ -23635,7 +23635,7 @@
       </c>
       <c r="K291" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L291" t="inlineStr">
@@ -23644,16 +23644,16 @@
         </is>
       </c>
       <c r="M291" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N291" t="n">
-        <v>415000</v>
+        <v>105000</v>
       </c>
       <c r="O291" t="n">
-        <v>420000</v>
+        <v>110000</v>
       </c>
       <c r="P291" t="n">
-        <v>417500</v>
+        <v>107500</v>
       </c>
       <c r="Q291" t="inlineStr">
         <is>
@@ -23666,7 +23666,7 @@
         </is>
       </c>
       <c r="S291" t="n">
-        <v>1044</v>
+        <v>269</v>
       </c>
       <c r="T291" t="n">
         <v>400</v>
@@ -23687,7 +23687,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44251</v>
+        <v>44259</v>
       </c>
       <c r="E292" t="n">
         <v>4</v>
@@ -23767,7 +23767,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44251</v>
+        <v>44259</v>
       </c>
       <c r="E293" t="n">
         <v>4</v>
@@ -23847,7 +23847,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44559</v>
+        <v>44251</v>
       </c>
       <c r="E294" t="n">
         <v>4</v>
@@ -23875,7 +23875,7 @@
       </c>
       <c r="K294" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L294" t="inlineStr">
@@ -23884,16 +23884,16 @@
         </is>
       </c>
       <c r="M294" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N294" t="n">
-        <v>225000</v>
+        <v>455000</v>
       </c>
       <c r="O294" t="n">
-        <v>230000</v>
+        <v>460000</v>
       </c>
       <c r="P294" t="n">
-        <v>227500</v>
+        <v>457500</v>
       </c>
       <c r="Q294" t="inlineStr">
         <is>
@@ -23906,7 +23906,7 @@
         </is>
       </c>
       <c r="S294" t="n">
-        <v>569</v>
+        <v>1144</v>
       </c>
       <c r="T294" t="n">
         <v>400</v>
@@ -23927,7 +23927,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44286</v>
+        <v>44251</v>
       </c>
       <c r="E295" t="n">
         <v>4</v>
@@ -23960,20 +23960,20 @@
       </c>
       <c r="L295" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M295" t="n">
         <v>20</v>
       </c>
       <c r="N295" t="n">
-        <v>475000</v>
+        <v>415000</v>
       </c>
       <c r="